--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="347">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -626,9 +626,6 @@
     <t>15. Finalize() - Trang 39</t>
   </si>
   <si>
-    <t>16. Lợi ích của Java</t>
-  </si>
-  <si>
     <t>Object Orientted (Hướng đối tượng)</t>
   </si>
   <si>
@@ -764,22 +761,6 @@
     <t>Nếu truyền 1 tham số thì ok, Nhưng hàm main thì phải cho phép truyền nhiều tham số khi run bằng cmd  nên cách khai báo này sai</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Khai báo hàm main  : phải là </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">public static void main </t>
-    </r>
-  </si>
-  <si>
     <t>Đúng vì local var không khởi tạo giá trị mặc định, sẽ báo compile nếu ko được khai báo giá trị mặc định</t>
   </si>
   <si>
@@ -807,9 +788,6 @@
     <t>AD -&gt; BE</t>
   </si>
   <si>
-    <t>khi gọi  System.gc() Thì gabarge collector và finalizer() có thể chạy ko  chạy</t>
-  </si>
-  <si>
     <t>AD -&gt; BD</t>
   </si>
   <si>
@@ -825,15 +803,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>A -&gt; D</t>
   </si>
   <si>
@@ -882,9 +851,6 @@
     <t xml:space="preserve">Instance và  Class variable không yêu cầu khởi tạo vì nó có giá trị mặc định </t>
   </si>
   <si>
-    <t>biến mà khoonng phải biến local được gọi là instance var hoặc class variable</t>
-  </si>
-  <si>
     <t xml:space="preserve">Một class variable là một biến mà có kềm theo từ khóa static </t>
   </si>
   <si>
@@ -898,6 +864,207 @@
   </si>
   <si>
     <t>Chắc chọn nhầm</t>
+  </si>
+  <si>
+    <t>C -&gt; B</t>
+  </si>
+  <si>
+    <t>Có thể có thêm final</t>
+  </si>
+  <si>
+    <t>public static final void main(String [] arguments)</t>
+  </si>
+  <si>
+    <t>Khai báo hàm main  :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> phải là public static void main </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t>Lưu ý là java.lang tự động được import vào file java</t>
+  </si>
+  <si>
+    <t>C -&gt; A</t>
+  </si>
+  <si>
+    <t>a -&gt; D</t>
+  </si>
+  <si>
+    <t>Cần phải lưu ý các câu đánh lừa các biến trùng tên trong các scope khác nhau</t>
+  </si>
+  <si>
+    <t>c -&gt; B</t>
+  </si>
+  <si>
+    <t>B -&gt; D</t>
+  </si>
+  <si>
+    <t>Lưu ý hàm main ko khai báo đúng signature</t>
+  </si>
+  <si>
+    <t>d -&gt; C</t>
+  </si>
+  <si>
+    <t>JVM cần một entry point method (chính là hàm main ) để chạy app</t>
+  </si>
+  <si>
+    <t>Bài test 2 (Chapter 2 cuốn practice test)</t>
+  </si>
+  <si>
+    <t>khi gọi  System.gc() Thì gabarge collector và finalizer() có thể chạy  hoặc ko  chạy</t>
+  </si>
+  <si>
+    <t>Khai báo double có thể ko có f đằng sau</t>
+  </si>
+  <si>
+    <t>Khai báo float bắt buộc phải có f</t>
+  </si>
+  <si>
+    <t>A -&gt; B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cần lưu ý câu hỏi hỏi java class name </t>
+  </si>
+  <si>
+    <t>Cần lưu ý Wrapper class Integer có function toString()</t>
+  </si>
+  <si>
+    <t>A -&gt; C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý hỏi Wrapper class </t>
+  </si>
+  <si>
+    <t>B  -&gt; A</t>
+  </si>
+  <si>
+    <t>Sắp xếp theo thứ tự của các kiểu dl : byte -&gt; char -&gt; float -&gt; double</t>
+  </si>
+  <si>
+    <t>Instance variable, constructor, methods name có thể xuất hiện ở bất kì vị trí nào trong khai báo class</t>
+  </si>
+  <si>
+    <t>biến mà không phải biến local được gọi là instance var hoặc class variable</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>Lưu ý hỏi instance init chính là block code đc khai báo trong 1 class sẽ khởi chạy đầu tiên (sau khởi tạo static nếu có)</t>
+  </si>
+  <si>
+    <t>C -&gt;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghĩa là Nếu Gabargae collector ko chạy thì hàm finalize() này sẽ ko được gọi </t>
+  </si>
+  <si>
+    <t>Ngoài ra, nếu gabage collector ko chạy thì hàm này sẽ ko được gọi lại lần nữa (Tức là hàm finalizer() này có thể ko chạy, hoặc chỉ chạy tối đa 1 lần)</t>
+  </si>
+  <si>
+    <t>Giá trị mặc định của long , int, short là 0</t>
+  </si>
+  <si>
+    <t>Nên nhớ là JVM có thể ignore yêu cầu System.gc() vì nó đủ thông minh để hiểu</t>
+  </si>
+  <si>
+    <t>D -&gt;C</t>
+  </si>
+  <si>
+    <t>Thứ tự byte, short, int long</t>
+  </si>
+  <si>
+    <t>hàm parseInt() trả về một primitive, hàm valueOff() trả về Wrapper class\</t>
+  </si>
+  <si>
+    <t>Ko hiểu</t>
+  </si>
+  <si>
+    <t>B -&gt; A</t>
+  </si>
+  <si>
+    <t>Nên nhớ là garbage collector ko chạy theo yêu cầu của code, Tức là gọi System.gc() ở dòng code nào thì nó sẽ chạy chính xác ở dòng code đó. Và khi System.gc() được gọi thì hàm finalize() sẽ được gọi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỌc code kém :( </t>
+  </si>
+  <si>
+    <t>17. Lợi ích của Java</t>
+  </si>
+  <si>
+    <t>16. JVM JDK. JRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDK : </t>
+  </si>
+  <si>
+    <t>is responseible for the hardware and operating system-independencence of JavaSE platform, the smallsize  of compiled code (byte code), and platform security</t>
+  </si>
+  <si>
+    <t>18. Access modifier</t>
+  </si>
+  <si>
+    <t>public class có thể truy cập ở mọi nơi trong 1 project ( trong package, khác package)</t>
+  </si>
+  <si>
+    <t>default class thì chỉ có thể truy cập được trong nội tại package</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Định nghĩa : Access modifier điều khiển quyền truy cập của một class hoặc một interface, bao gồm cả member của nó (methods và variables)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ có thể apply access modifier vào : </t>
+  </si>
+  <si>
+    <t>class, interface, class variable, methods</t>
+  </si>
+  <si>
+    <t>Phạm vi truy cập của class (chỉ có default và public)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public </t>
+  </si>
+  <si>
+    <t>Phạm vi truy cập của member (instance, class variable, methods)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class variable: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance </t>
+  </si>
+  <si>
+    <t>Mọi nơi trong package, khác package</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Không có loại này vì không thể khai báo class là protected, do vậy không thể có protected instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class variable </t>
+  </si>
+  <si>
+    <t>Trong package (kể cả class kế thừa, và class thường), Ngoài package (Chỉ apply được với class con kế thừa tạo instance, ko thể thay đổi được biến reference)</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Trong package (kể cả class kế thừa, và class thường), Ngoài package (Chỉ apply được với class con kế thừa)</t>
   </si>
 </sst>
 </file>
@@ -947,10 +1114,8 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -976,7 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -984,6 +1149,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1011,14 +1177,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1049,13 +1215,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114423</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>65920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1349,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L382"/>
+  <dimension ref="A1:L482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D363" sqref="D363"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F349" sqref="F349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1518,192 +1684,184 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D36" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E36" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E36" s="3" t="s">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E41" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E37" s="3" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E42" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E38" s="3" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E43" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E39" s="3" t="s">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E44" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D41" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="J46" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E47" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E42" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="3">
         <v>3.1</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D46" s="3" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E48" s="3" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E50" s="3" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E55" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D52" s="3" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D56" s="3" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D61" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E57" s="3" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E59" s="3" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E64" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F60" s="3" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E61" s="3" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D63" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="3" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E65" s="3" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E70" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F66" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F67" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E68" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D70" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F71" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F72" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
@@ -1712,1610 +1870,2437 @@
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="3" t="s">
-        <v>57</v>
+      <c r="D75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C76" s="3" t="s">
-        <v>58</v>
+      <c r="F76" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F77" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E78" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F82" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F78" s="3" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C79" s="3" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C84" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C80" s="3" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E81" s="3" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E86" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C83" s="3" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E84" s="3" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E89" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B86" s="3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B89" s="3" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D93" s="3" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D98" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E94" s="3" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E99" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L99" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F95" s="3" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F100" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F97" s="3" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F102" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G98" s="3" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G103" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F99" s="3" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F104" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B103" s="3" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B108" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B104" s="3" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B109" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B105" s="3" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B110" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B107" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B108" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B109" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B110" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B111" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="H117" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H113" s="3" t="s">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B115" s="3" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G117" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H117" s="3" t="s">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G122" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H118" s="3" t="s">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H119" s="3" t="s">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H124" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H120" s="3" t="s">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H125" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G122" s="3" t="s">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G127" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H127" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B126" s="3" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B131" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B128" s="3" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B133" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B132" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C132" s="3" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B137" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G132" s="3" t="s">
+      <c r="F137" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C133" s="3" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C138" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C134" s="3" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C139" s="3" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C135" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B138" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C140" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B142" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B143" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C141" s="3" t="s">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C161" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C142" s="3" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C162" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D163" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F164" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F165" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F166" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D169" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F170" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F171" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D143" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F144" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F145" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F146" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D149" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F150" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H150" s="3" t="s">
+      <c r="H171" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F172" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C175" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C177" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D179" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D180" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D181" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D184" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D185" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D186" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C187" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="2"/>
+      <c r="B190" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B191" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B192" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E193" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C194" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E194" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C196" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C197" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C198" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C200" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B202" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B205" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B206" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B207" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C211" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C213" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C215" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C217" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C219" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C222" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D224" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D226" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B230" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B232" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C233" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C234" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C236" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D237" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D238" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C240" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D242" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D243" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D244" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B247" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B248" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B250" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B251" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B253" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="265" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C265" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="266" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D266" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="268" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F268" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C302" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B307" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B308" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B310" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B311" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B312" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B313" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B316" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B319" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B321" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B323" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B325" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D326" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B328" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B330" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B333" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B335" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B337" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C338" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C339" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B341" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C342" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D343" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D344" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C346" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D347" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D348" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C350" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A353" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B354" s="3">
+        <v>1</v>
+      </c>
+      <c r="C354" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F151" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F152" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C155" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C157" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D159" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D160" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D161" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E162" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E163" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D164" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D165" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D166" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C167" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="2"/>
-      <c r="B170" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B171" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B172" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E173" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C174" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E174" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C176" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E176" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C177" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E177" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C178" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C180" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B184" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B185" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B186" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C190" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C192" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C194" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C196" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C198" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C201" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D203" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D205" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B209" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B211" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C212" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J212" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K212" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C213" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C215" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D216" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D217" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C219" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D221" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D222" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D223" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C244" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D245" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F247" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C281" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B286" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B287" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B289" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B290" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B293" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B295" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B297" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B299" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D300" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B302" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D302" s="3" t="s">
+      <c r="D354" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L354" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B355" s="3">
+        <v>2</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L355" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B356" s="3">
+        <v>3</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L356" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B357" s="3">
+        <v>4</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B304" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A306" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B307" s="3">
-        <v>1</v>
-      </c>
-      <c r="C307" s="3" t="s">
+      <c r="L357" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B358" s="3">
+        <v>5</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L358" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="3">
+        <v>6</v>
+      </c>
+      <c r="C359" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D307" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="L307" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B308" s="3">
-        <v>2</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L308" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B309" s="3">
-        <v>3</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L309" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B310" s="3">
-        <v>4</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L310" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B311" s="3">
-        <v>5</v>
-      </c>
-      <c r="C311" s="3" t="s">
+      <c r="D359" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E359" s="8"/>
+      <c r="F359" s="8"/>
+      <c r="G359" s="8"/>
+      <c r="H359" s="8"/>
+      <c r="I359" s="8"/>
+      <c r="J359" s="8"/>
+      <c r="K359" s="8"/>
+      <c r="L359" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B360" s="3">
+        <v>7</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L360" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B361" s="3">
+        <v>8</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L311" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="3">
-        <v>6</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D312" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E312" s="7"/>
-      <c r="F312" s="7"/>
-      <c r="G312" s="7"/>
-      <c r="H312" s="7"/>
-      <c r="I312" s="7"/>
-      <c r="J312" s="7"/>
-      <c r="K312" s="7"/>
-      <c r="L312" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B313" s="3">
-        <v>7</v>
-      </c>
-      <c r="C313" s="3" t="s">
+      <c r="L361" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B362" s="3">
+        <v>9</v>
+      </c>
+      <c r="C362" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L313" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B314" s="3">
-        <v>8</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L314" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B315" s="3">
-        <v>9</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L315" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B316" s="3">
+      <c r="L362" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B363" s="3">
         <v>10</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L316" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B317" s="3">
-        <v>11</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="L317" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B318" s="3">
-        <v>12</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D318" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E318" s="7"/>
-      <c r="F318" s="7"/>
-      <c r="G318" s="7"/>
-      <c r="H318" s="7"/>
-      <c r="I318" s="7"/>
-      <c r="J318" s="7"/>
-      <c r="K318" s="7"/>
-      <c r="L318" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B319" s="3">
-        <v>13</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="L319" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B320" s="3">
-        <v>14</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L320" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B321" s="3">
-        <v>15</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L321" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B322" s="3">
-        <v>16</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L322" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B323" s="3">
-        <v>17</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L323" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B324" s="3">
-        <v>18</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L324" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B325" s="3">
-        <v>19</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="L325" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B326" s="3">
-        <v>20</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="L326" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B327" s="3">
-        <v>21</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="L327" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B328" s="3">
-        <v>22</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="L328" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B329" s="3">
-        <v>23</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="L329" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D330" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A332" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B333" s="3">
-        <v>1</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B334" s="3">
-        <v>2</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B335" s="3">
-        <v>3</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B336" s="3">
-        <v>4</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B337" s="3">
-        <v>5</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B338" s="3">
-        <v>6</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B339" s="3">
-        <v>7</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E339" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B340" s="3">
-        <v>8</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B341" s="3">
-        <v>9</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E341" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B342" s="3">
-        <v>10</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E342" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B343" s="3">
-        <v>11</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B344" s="3">
-        <v>12</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B345" s="3">
-        <v>13</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E345" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B346" s="3">
-        <v>14</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B347" s="3">
-        <v>15</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B348" s="3">
-        <v>16</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B349" s="3">
-        <v>17</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B350" s="3">
-        <v>18</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B351" s="3">
-        <v>19</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B352" s="3">
-        <v>20</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B353" s="3">
-        <v>21</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D353" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B354" s="3">
-        <v>22</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B355" s="3">
-        <v>23</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B356" s="3">
-        <v>24</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E356" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B357" s="3">
-        <v>25</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B358" s="3">
-        <v>26</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E358" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B359" s="3">
-        <v>27</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B360" s="3">
-        <v>28</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E360" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B361" s="3">
-        <v>29</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B362" s="3">
-        <v>30</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B363" s="3">
-        <v>31</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="L363" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B364" s="3">
+        <v>11</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L364" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="3">
+        <v>12</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D365" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E365" s="8"/>
+      <c r="F365" s="8"/>
+      <c r="G365" s="8"/>
+      <c r="H365" s="8"/>
+      <c r="I365" s="8"/>
+      <c r="J365" s="8"/>
+      <c r="K365" s="8"/>
+      <c r="L365" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B366" s="3">
+        <v>13</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L366" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B367" s="3">
+        <v>14</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L367" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B368" s="3">
+        <v>15</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L368" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B369" s="3">
+        <v>16</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L369" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B370" s="3">
+        <v>17</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L370" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B371" s="3">
+        <v>18</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L371" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B372" s="3">
+        <v>19</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L372" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B373" s="3">
+        <v>20</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L373" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B374" s="3">
+        <v>21</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L374" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B375" s="3">
+        <v>22</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L375" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B376" s="3">
+        <v>23</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L376" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D377" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A379" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B380" s="3">
+        <v>1</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B381" s="3">
+        <v>2</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B382" s="3">
+        <v>3</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B383" s="3">
+        <v>4</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B384" s="3">
+        <v>5</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B385" s="3">
+        <v>6</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B386" s="3">
+        <v>7</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B387" s="3">
+        <v>8</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B388" s="3">
+        <v>9</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B389" s="3">
+        <v>10</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B390" s="3">
+        <v>11</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B391" s="3">
+        <v>12</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B392" s="3">
+        <v>13</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B393" s="3">
+        <v>14</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B394" s="3">
+        <v>15</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B395" s="3">
+        <v>16</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B396" s="3">
+        <v>17</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B397" s="3">
+        <v>18</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B398" s="3">
+        <v>19</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B399" s="3">
+        <v>20</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B400" s="3">
+        <v>21</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B401" s="3">
+        <v>22</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B402" s="3">
+        <v>23</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B403" s="3">
+        <v>24</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B404" s="3">
+        <v>25</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B405" s="3">
+        <v>26</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B406" s="3">
+        <v>27</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B407" s="3">
+        <v>28</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B408" s="3">
+        <v>29</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B409" s="3">
+        <v>30</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B410" s="3">
+        <v>31</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B411" s="3">
         <v>32</v>
       </c>
-      <c r="C364" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B365" s="3">
+      <c r="C411" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B412" s="3">
         <v>33</v>
       </c>
-      <c r="C365" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B366" s="3">
+      <c r="C412" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B413" s="3">
         <v>34</v>
       </c>
-      <c r="C366" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B367" s="3">
+      <c r="C413" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B414" s="3">
         <v>35</v>
       </c>
-      <c r="C367" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B368" s="3">
+      <c r="C414" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B415" s="3">
         <v>36</v>
       </c>
-      <c r="C368" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B369" s="3">
+      <c r="C415" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B416" s="3">
         <v>37</v>
       </c>
-      <c r="C369" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B370" s="3">
+      <c r="C416" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B417" s="3">
         <v>38</v>
       </c>
-      <c r="C370" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B371" s="3">
+      <c r="C417" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B418" s="3">
         <v>39</v>
       </c>
-      <c r="C371" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B372" s="3">
+      <c r="C418" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B419" s="3">
         <v>40</v>
       </c>
-      <c r="C372" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B373" s="3">
+      <c r="C419" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B420" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B374" s="3">
+      <c r="C420" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B421" s="3">
         <v>42</v>
       </c>
-      <c r="C374" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B375" s="3">
+      <c r="C421" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B422" s="3">
         <v>43</v>
       </c>
-      <c r="C375" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B376" s="3">
+      <c r="C422" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B423" s="3">
         <v>44</v>
       </c>
-      <c r="C376" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B377" s="3">
+      <c r="C423" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B424" s="3">
         <v>45</v>
       </c>
-      <c r="C377" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B378" s="3">
+      <c r="C424" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B425" s="3">
         <v>46</v>
       </c>
-      <c r="C378" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B379" s="3">
+      <c r="C425" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B426" s="3">
         <v>47</v>
       </c>
-      <c r="C379" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B380" s="3">
+      <c r="C426" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B427" s="3">
         <v>48</v>
       </c>
-      <c r="C380" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B381" s="3">
-        <v>49</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B382" s="3">
+      <c r="C427" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B428" s="3">
+        <v>49</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B429" s="3">
         <v>50</v>
       </c>
-      <c r="C382" s="3" t="s">
-        <v>262</v>
+      <c r="C429" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B433" s="3">
+        <v>1</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B434" s="3">
+        <v>2</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B435" s="3">
+        <v>3</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B436" s="3">
+        <v>4</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B437" s="3">
+        <v>5</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B438" s="3">
+        <v>6</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B439" s="3">
+        <v>7</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B440" s="3">
+        <v>8</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B441" s="3">
+        <v>9</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B442" s="3">
+        <v>10</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B443" s="3">
+        <v>11</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B444" s="3">
+        <v>12</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B445" s="3">
+        <v>13</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B446" s="3">
+        <v>14</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B447" s="3">
+        <v>15</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="448" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B448" s="3">
+        <v>16</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="449" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B449" s="3">
+        <v>17</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B450" s="3">
+        <v>18</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="451" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B451" s="3">
+        <v>19</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B452" s="3">
+        <v>20</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B453" s="3">
+        <v>21</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B454" s="3">
+        <v>22</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="455" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B455" s="3">
+        <v>23</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B456" s="3">
+        <v>24</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B457" s="3">
+        <v>25</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="458" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B458" s="3">
+        <v>26</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B459" s="3">
+        <v>27</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B460" s="3">
+        <v>28</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="461" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B461" s="3">
+        <v>29</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B462" s="3">
+        <v>30</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="463" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B463" s="3">
+        <v>31</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="464" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B464" s="3">
+        <v>32</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B465" s="3">
+        <v>33</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="466" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B466" s="3">
+        <v>34</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="467" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B467" s="3">
+        <v>35</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="468" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B468" s="3">
+        <v>36</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="469" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B469" s="3">
+        <v>37</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="470" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B470" s="3">
+        <v>38</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B471" s="3">
+        <v>39</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="472" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B472" s="3">
+        <v>40</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="473" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B473" s="3">
+        <v>41</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="474" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B474" s="3">
+        <v>42</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="475" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B475" s="3">
+        <v>43</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B476" s="3">
+        <v>44</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="477" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B477" s="3">
+        <v>45</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B478" s="7">
+        <v>46</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D478" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E478" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="479" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B479" s="3">
+        <v>47</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="480" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B480" s="3">
+        <v>48</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="481" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B481" s="3">
+        <v>49</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="482" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B482" s="3">
+        <v>50</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D312:K312"/>
-    <mergeCell ref="D318:K318"/>
+    <mergeCell ref="D359:K359"/>
+    <mergeCell ref="D365:K365"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F150" r:id="rId1"/>
+    <hyperlink ref="F170" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Building blocks" sheetId="1" r:id="rId1"/>
+    <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
+    <sheet name="1.Data type" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,8 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hung Le Phi</author>
+  </authors>
+  <commentList>
+    <comment ref="C561" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hung Le Phi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="454">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -1058,20 +1093,341 @@
     <t xml:space="preserve">Class variable </t>
   </si>
   <si>
-    <t>Trong package (kể cả class kế thừa, và class thường), Ngoài package (Chỉ apply được với class con kế thừa tạo instance, ko thể thay đổi được biến reference)</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
-    <t>Trong package (kể cả class kế thừa, và class thường), Ngoài package (Chỉ apply được với class con kế thừa)</t>
+    <t>Trong package (kể cả class kế thừa, và class thường), Ngoài package không thể apply (kể cả class con kế thừa)</t>
+  </si>
+  <si>
+    <t>Chỉ có thể truy cập trong nội tại package, vì default class chỉ có thể được truy cập được trong nội tại package</t>
+  </si>
+  <si>
+    <t>Class variable</t>
+  </si>
+  <si>
+    <t>Chỉ có thể truy cập trong nội tại package</t>
+  </si>
+  <si>
+    <t>Trong package (kể cả class kế thừa, và class thường), Ngoài package (Chỉ apply được với class con kế thừa tạo instance class Cha, ko thể truy cập được biến reference/class variable của class cha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ có thể truy cập trong nội tại package </t>
+  </si>
+  <si>
+    <t xml:space="preserve">private </t>
+  </si>
+  <si>
+    <t>Chỉ có thể truy cập trong nội tại class</t>
+  </si>
+  <si>
+    <t>19. Non acccess modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 non-access modifier : </t>
+  </si>
+  <si>
+    <t>static, final, abstract</t>
+  </si>
+  <si>
+    <t>Non acccess modifier thay đổi hành vi mặc định của class và member của class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Từ khóa abstract </t>
+  </si>
+  <si>
+    <t>Chỉ có thể apply được với class, inteface, method, Không thể apply được với bất kì variable nào</t>
+  </si>
+  <si>
+    <t>Abstract class</t>
+  </si>
+  <si>
+    <t>Không thể tạo instance</t>
+  </si>
+  <si>
+    <t>Một abstract class có thể khai báo abstract method hoặc ko khai báo</t>
+  </si>
+  <si>
+    <t>Một concrete class (kế thừa hoặc implement abstract method) không thể khai báo abtract method</t>
+  </si>
+  <si>
+    <t>Abstract Interface</t>
+  </si>
+  <si>
+    <t>Một interface mặc định là abstract, kể cả có khai báo thêm từ khóa abstract hay không thì vẫn compile OK</t>
+  </si>
+  <si>
+    <t>Abstract method</t>
+  </si>
+  <si>
+    <t>Chỉ xuất hiện ở Abstract class</t>
+  </si>
+  <si>
+    <t>Không có body</t>
+  </si>
+  <si>
+    <t>2. Từ khóa final</t>
+  </si>
+  <si>
+    <t>Chỉ apply được với class, variable, method</t>
+  </si>
+  <si>
+    <t>Không apply được với interface</t>
+  </si>
+  <si>
+    <t>Final Class</t>
+  </si>
+  <si>
+    <t>Không thể được phép kế thừa class khác</t>
+  </si>
+  <si>
+    <t>final Method</t>
+  </si>
+  <si>
+    <t>Không thể bị ghi đè</t>
+  </si>
+  <si>
+    <t>Final variable</t>
+  </si>
+  <si>
+    <t>Không thể thay đổi giá trị (đối với biến local, class variable)</t>
+  </si>
+  <si>
+    <t>class Person {</t>
+  </si>
+  <si>
+    <t>final StringBuilder name = new StringBuilder("Sh");</t>
+  </si>
+  <si>
+    <t>Person() {</t>
+  </si>
+  <si>
+    <t>name.append("reya");</t>
+  </si>
+  <si>
+    <t>name = new StringBuilder();</t>
+  </si>
+  <si>
+    <t>//  OK vì có thể dùng hàm để thay đổi giá trị</t>
+  </si>
+  <si>
+    <t>// NOT OK vì không thể assign một final object sang một object khác</t>
+  </si>
+  <si>
+    <t>3. Từ khóa static</t>
+  </si>
+  <si>
+    <t>Apply được với variables, methods, class, interface</t>
+  </si>
+  <si>
+    <t>Static variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static variable đi theo class, </t>
+  </si>
+  <si>
+    <t>Static method</t>
+  </si>
+  <si>
+    <t>Non-static variable, Non-static method có thể truy cập static variable, static method</t>
+  </si>
+  <si>
+    <t>Tuy nhiên, ngược lại thì static variable, static method không thể truy cập tới non-static variable, non-static method</t>
+  </si>
+  <si>
+    <t>static class, static interface : Không đề cập đến trong phần thi OCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ cần nhớ rule là static class, static interface không thể khai báo là top-level class, top-level interface </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ : </t>
+  </si>
+  <si>
+    <t>static class Address {}</t>
+  </si>
+  <si>
+    <t>static interface MyInterface {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sai: </t>
+  </si>
+  <si>
+    <t>static class Person {}</t>
+  </si>
+  <si>
+    <t>Sample test  - OCA Mala Gupta</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a, d,</t>
+  </si>
+  <si>
+    <t>b , c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ko có package default trong java.default</t>
+  </si>
+  <si>
+    <t>Lưu ý quy tắc comment , #connect ko phải là comment</t>
+  </si>
+  <si>
+    <t>Lưu ý có thể đổi vị trí public và static, Nhưng bắt buộc phải có String [] + tên biến</t>
+  </si>
+  <si>
+    <t>Lưu ý đang ở folder mycode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý là class Course ko phải package, Nên ko thể bị truy cập bởi class khác package, Kể cả đã khai báo import </t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Hệ thốg số nhị phân (binary number</t>
+  </si>
+  <si>
+    <t>Chỉ dùng 2 số 0 và 1</t>
+  </si>
+  <si>
+    <t>bát phân (octal number)</t>
+  </si>
+  <si>
+    <t>Dùng các số từ 0 đến 7 (tổng là 8 chữ số)</t>
+  </si>
+  <si>
+    <t>Thập phân</t>
+  </si>
+  <si>
+    <t>Thập lục phân (hexadicimal number)</t>
+  </si>
+  <si>
+    <t>Sử dụng số từ 0 đến 9 và chữ cái từ A -F</t>
+  </si>
+  <si>
+    <t>10 là A hoặc a</t>
+  </si>
+  <si>
+    <t>11 B hoặc b</t>
+  </si>
+  <si>
+    <t>12 C hoặc c</t>
+  </si>
+  <si>
+    <t>13 D hoặc d</t>
+  </si>
+  <si>
+    <t>14 E hoặc e</t>
+  </si>
+  <si>
+    <t>15 F hoặc f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bát phân (octal) : </t>
+  </si>
+  <si>
+    <t>prefix 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhị phân (binary) </t>
+  </si>
+  <si>
+    <t>prefix 0B hoặc 0b</t>
+  </si>
+  <si>
+    <t>Thập lục phân (hexa)</t>
+  </si>
+  <si>
+    <t>prefix 0X hoặc 0x</t>
+  </si>
+  <si>
+    <t>int baseDecimal = 267;</t>
+  </si>
+  <si>
+    <t>int octVal = 0413;</t>
+  </si>
+  <si>
+    <t>int hexVal = 0x10b;</t>
+  </si>
+  <si>
+    <t>int binaryVal = 0b100001011;</t>
+  </si>
+  <si>
+    <t>baseDecimal = 100_267_760;</t>
+  </si>
+  <si>
+    <t>2. Có thể khai báo biến đối với từng loại cơ số</t>
+  </si>
+  <si>
+    <t>Không được đặt dấu _ ngay sau các prefix : 0b 0B 0x 0X</t>
+  </si>
+  <si>
+    <t>Không được đặt dấu _ ngay trước L (long value)</t>
+  </si>
+  <si>
+    <t>Không được bắt đầu và kết thúc bằng dấu _</t>
+  </si>
+  <si>
+    <t>nguyên góc</t>
+  </si>
+  <si>
+    <t>long octVal = 04_13;</t>
+  </si>
+  <si>
+    <t>long octVal = 0_413;</t>
+  </si>
+  <si>
+    <t>long hexVal = 0x10_BA_75;</t>
+  </si>
+  <si>
+    <t>long binVal = 0b1_0000_10_11;</t>
+  </si>
+  <si>
+    <t>Sai:</t>
+  </si>
+  <si>
+    <t>int intLiteral = _100</t>
+  </si>
+  <si>
+    <t>// Không được đặt dấu _ bắt đầu và kết thúc</t>
+  </si>
+  <si>
+    <t>int intLiteral2 = 100_990_;</t>
+  </si>
+  <si>
+    <t>long longLiterla = 100_L;</t>
+  </si>
+  <si>
+    <t>Không được đặt _ ngay trước L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý : </t>
+  </si>
+  <si>
+    <t>Ví dụ này thì compile OK nhưng sẽ báo lỗi lúc RUNTIME</t>
+  </si>
+  <si>
+    <t>int var = Integer.parseInt("45_98");</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,6 +1475,48 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1141,7 +1539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1150,6 +1548,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1514,11 +1917,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L482"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F349" sqref="F349"/>
+    <sheetView topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D562" sqref="D562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2732,27 +3135,27 @@
         <v>331</v>
       </c>
     </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B337" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C338" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C339" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B341" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C342" s="3" t="s">
         <v>333</v>
       </c>
@@ -2763,7 +3166,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D343" s="3" t="s">
         <v>335</v>
       </c>
@@ -2771,7 +3174,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D344" s="3" t="s">
         <v>338</v>
       </c>
@@ -2779,7 +3182,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C346" s="3" t="s">
         <v>339</v>
       </c>
@@ -2793,1110 +3196,824 @@
         <v>342</v>
       </c>
     </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D347" s="3" t="s">
+    <row r="347" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D347" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="F347" s="3" t="s">
+      <c r="E347" s="8"/>
+      <c r="F347" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G347" s="8"/>
+      <c r="H347" s="8"/>
+      <c r="I347" s="8"/>
+      <c r="J347" s="8"/>
+      <c r="K347" s="8"/>
+      <c r="L347" s="8"/>
+      <c r="M347" s="8"/>
+      <c r="N347" s="8"/>
+      <c r="O347" s="8"/>
+      <c r="P347" s="8"/>
+      <c r="Q347" s="8"/>
+    </row>
+    <row r="348" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D348" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E348" s="8"/>
+      <c r="F348" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G348" s="8"/>
+      <c r="H348" s="8"/>
+      <c r="I348" s="8"/>
+      <c r="J348" s="8"/>
+      <c r="K348" s="8"/>
+      <c r="L348" s="8"/>
+      <c r="M348" s="8"/>
+      <c r="N348" s="8"/>
+      <c r="O348" s="8"/>
+      <c r="P348" s="8"/>
+      <c r="Q348" s="8"/>
+    </row>
+    <row r="350" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C350" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D348" s="3" t="s">
+      <c r="D350" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="351" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D351" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="352" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D352" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F348" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C350" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A353" s="6" t="s">
+      <c r="F352" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C353" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D354" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D355" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D356" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="2"/>
+      <c r="B358" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="2"/>
+      <c r="B359" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="2"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="2"/>
+      <c r="C361" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="2"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="2"/>
+      <c r="D363" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="2"/>
+      <c r="F364" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="2"/>
+      <c r="F365" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="2"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="2"/>
+      <c r="D367" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="2"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369" s="2"/>
+      <c r="D369" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" s="2"/>
+      <c r="F370" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A371" s="2"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A372" s="2"/>
+      <c r="C372" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373" s="2"/>
+      <c r="D373" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="2"/>
+      <c r="D374" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375" s="2"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A376" s="2"/>
+      <c r="D376" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377" s="2"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378" s="2"/>
+      <c r="D378" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379" s="2"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380" s="2"/>
+      <c r="D380" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A381" s="2"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A382" s="2"/>
+      <c r="F382" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A383" s="2"/>
+      <c r="G383" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A384" s="2"/>
+      <c r="G384" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A385" s="2"/>
+      <c r="H385" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L385" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A386" s="2"/>
+      <c r="H386" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="L386" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A387" s="2"/>
+      <c r="G387" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A388" s="2"/>
+      <c r="F388" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A389" s="2"/>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A390" s="2"/>
+      <c r="C390" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A391" s="2"/>
+      <c r="D391" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A392" s="2"/>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A393" s="2"/>
+      <c r="D393" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A394" s="2"/>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A395" s="2"/>
+      <c r="D395" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A396" s="2"/>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A397" s="2"/>
+      <c r="E397" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A398" s="2"/>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A399" s="2"/>
+      <c r="E399" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A400" s="2"/>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401" s="2"/>
+      <c r="D401" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A402" s="2"/>
+      <c r="E402" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A403" s="2"/>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404" s="2"/>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405" s="2"/>
+      <c r="E405" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G405" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="H405" s="12"/>
+      <c r="I405" s="12"/>
+      <c r="J405" s="12"/>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A406" s="2"/>
+      <c r="G406" s="12"/>
+      <c r="H406" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I406" s="12"/>
+      <c r="J406" s="12"/>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407" s="2"/>
+      <c r="G407" s="12"/>
+      <c r="H407" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="I407" s="12"/>
+      <c r="J407" s="12"/>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408" s="2"/>
+      <c r="G408" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="H408" s="12"/>
+      <c r="I408" s="12"/>
+      <c r="J408" s="12"/>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A409" s="2"/>
+      <c r="G409" s="12"/>
+      <c r="H409" s="12"/>
+      <c r="I409" s="12"/>
+      <c r="J409" s="12"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410" s="2"/>
+      <c r="F410" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G410" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="H410" s="12"/>
+      <c r="I410" s="12"/>
+      <c r="J410" s="12"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A411" s="2"/>
+      <c r="G411" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H411" s="12"/>
+      <c r="I411" s="12"/>
+      <c r="J411" s="12"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A412" s="2"/>
+      <c r="G412" s="10"/>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A413" s="2"/>
+      <c r="G413" s="10"/>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A414" s="2"/>
+      <c r="G414" s="10"/>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A415" s="2"/>
+      <c r="G415" s="10"/>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A416" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B354" s="3">
+    <row r="417" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B417" s="3">
         <v>1</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="C417" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D354" s="3" t="s">
+      <c r="D417" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L354" s="3" t="s">
+      <c r="L417" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B355" s="3">
+    <row r="418" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B418" s="3">
         <v>2</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L355" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B356" s="3">
-        <v>3</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L356" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B357" s="3">
-        <v>4</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L357" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B358" s="3">
-        <v>5</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L358" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B359" s="3">
-        <v>6</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D359" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E359" s="8"/>
-      <c r="F359" s="8"/>
-      <c r="G359" s="8"/>
-      <c r="H359" s="8"/>
-      <c r="I359" s="8"/>
-      <c r="J359" s="8"/>
-      <c r="K359" s="8"/>
-      <c r="L359" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B360" s="3">
-        <v>7</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L360" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B361" s="3">
-        <v>8</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L361" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B362" s="3">
-        <v>9</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L362" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B363" s="3">
-        <v>10</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L363" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B364" s="3">
-        <v>11</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L364" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B365" s="3">
-        <v>12</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D365" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E365" s="8"/>
-      <c r="F365" s="8"/>
-      <c r="G365" s="8"/>
-      <c r="H365" s="8"/>
-      <c r="I365" s="8"/>
-      <c r="J365" s="8"/>
-      <c r="K365" s="8"/>
-      <c r="L365" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B366" s="3">
-        <v>13</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="L366" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B367" s="3">
-        <v>14</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L367" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B368" s="3">
-        <v>15</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L368" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B369" s="3">
-        <v>16</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L369" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B370" s="3">
-        <v>17</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="L370" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B371" s="3">
-        <v>18</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L371" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B372" s="3">
-        <v>19</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L372" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B373" s="3">
-        <v>20</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="L373" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B374" s="3">
-        <v>21</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L374" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B375" s="3">
-        <v>22</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="L375" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B376" s="3">
-        <v>23</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L376" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D377" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A379" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B380" s="3">
-        <v>1</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B381" s="3">
-        <v>2</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B382" s="3">
-        <v>3</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B383" s="3">
-        <v>4</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D383" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B384" s="3">
-        <v>5</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B385" s="3">
-        <v>6</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D385" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B386" s="3">
-        <v>7</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E386" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B387" s="3">
-        <v>8</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D387" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B388" s="3">
-        <v>9</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E388" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B389" s="3">
-        <v>10</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E389" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B390" s="3">
-        <v>11</v>
-      </c>
-      <c r="C390" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D390" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B391" s="3">
-        <v>12</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B392" s="3">
-        <v>13</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E392" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B393" s="3">
-        <v>14</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B394" s="3">
-        <v>15</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D394" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B395" s="3">
-        <v>16</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D395" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B396" s="3">
-        <v>17</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B397" s="3">
-        <v>18</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B398" s="3">
-        <v>19</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B399" s="3">
-        <v>20</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B400" s="3">
-        <v>21</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B401" s="3">
-        <v>22</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D401" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B402" s="3">
-        <v>23</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B403" s="3">
-        <v>24</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E403" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B404" s="3">
-        <v>25</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D404" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B405" s="3">
-        <v>26</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E405" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B406" s="3">
-        <v>27</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B407" s="3">
-        <v>28</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E407" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B408" s="3">
-        <v>29</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B409" s="3">
-        <v>30</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B410" s="3">
-        <v>31</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D410" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B411" s="3">
-        <v>32</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B412" s="3">
-        <v>33</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D412" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B413" s="3">
-        <v>34</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B414" s="3">
-        <v>35</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B415" s="3">
-        <v>36</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D415" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B416" s="3">
-        <v>37</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B417" s="3">
-        <v>38</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B418" s="3">
-        <v>39</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D418" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L418" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B419" s="3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D419" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L419" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="420" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B420" s="3">
+        <v>4</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="421" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B421" s="3">
+        <v>5</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L421" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="422" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="3">
+        <v>6</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D422" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E422" s="13"/>
+      <c r="F422" s="13"/>
+      <c r="G422" s="13"/>
+      <c r="H422" s="13"/>
+      <c r="I422" s="13"/>
+      <c r="J422" s="13"/>
+      <c r="K422" s="13"/>
+      <c r="L422" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E419" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B420" s="3">
-        <v>41</v>
-      </c>
-      <c r="C420" s="3" t="s">
+    </row>
+    <row r="423" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B423" s="3">
+        <v>7</v>
+      </c>
+      <c r="C423" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D420" s="3" t="s">
+      <c r="L423" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B421" s="3">
-        <v>42</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D421" s="3" t="s">
+    <row r="424" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B424" s="3">
+        <v>8</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L424" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="425" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B425" s="3">
+        <v>9</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L425" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B422" s="3">
-        <v>43</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D422" s="3" t="s">
+    <row r="426" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B426" s="3">
+        <v>10</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L426" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="427" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B427" s="3">
+        <v>11</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L427" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="428" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="3">
+        <v>12</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D428" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E428" s="13"/>
+      <c r="F428" s="13"/>
+      <c r="G428" s="13"/>
+      <c r="H428" s="13"/>
+      <c r="I428" s="13"/>
+      <c r="J428" s="13"/>
+      <c r="K428" s="13"/>
+      <c r="L428" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B429" s="3">
+        <v>13</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L429" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="430" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B430" s="3">
+        <v>14</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L430" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B423" s="3">
-        <v>44</v>
-      </c>
-      <c r="C423" s="3" t="s">
+    <row r="431" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B431" s="3">
+        <v>15</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="432" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B432" s="3">
+        <v>16</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L432" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B433" s="3">
+        <v>17</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L433" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B434" s="3">
+        <v>18</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L434" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B435" s="3">
+        <v>19</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L435" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B436" s="3">
+        <v>20</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L436" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B437" s="3">
+        <v>21</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L437" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B438" s="3">
+        <v>22</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B439" s="3">
+        <v>23</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L439" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D440" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A442" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B443" s="3">
+        <v>1</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B444" s="3">
+        <v>2</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B445" s="3">
+        <v>3</v>
+      </c>
+      <c r="C445" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D423" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B424" s="3">
-        <v>45</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D424" s="3" t="s">
+      <c r="D445" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B446" s="3">
+        <v>4</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D446" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E424" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B425" s="3">
-        <v>46</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B426" s="3">
-        <v>47</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B427" s="3">
-        <v>48</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E427" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B428" s="3">
-        <v>49</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B429" s="3">
-        <v>50</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E429" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A432" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B433" s="3">
-        <v>1</v>
-      </c>
-      <c r="C433" s="3" t="s">
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B447" s="3">
+        <v>5</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D433" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B434" s="3">
-        <v>2</v>
-      </c>
-      <c r="C434" s="3" t="s">
+      <c r="D447" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B448" s="3">
+        <v>6</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B435" s="3">
-        <v>3</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B436" s="3">
-        <v>4</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B437" s="3">
-        <v>5</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E437" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B438" s="3">
-        <v>6</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E438" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B439" s="3">
-        <v>7</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B440" s="3">
-        <v>8</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E440" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B441" s="3">
-        <v>9</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B442" s="3">
-        <v>10</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B443" s="3">
-        <v>11</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B444" s="3">
-        <v>12</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E444" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B445" s="3">
-        <v>13</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E445" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B446" s="3">
-        <v>14</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B447" s="3">
-        <v>15</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D447" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E447" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B448" s="3">
-        <v>16</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>49</v>
@@ -3904,21 +4021,24 @@
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B449" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="E449" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B450" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>49</v>
@@ -3926,29 +4046,35 @@
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B451" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>98</v>
+        <v>264</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B452" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B453" s="3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>216</v>
@@ -3959,29 +4085,32 @@
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B454" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B455" s="3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B456" s="3">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>213</v>
@@ -3992,7 +4121,7 @@
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B457" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>258</v>
@@ -4003,35 +4132,32 @@
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B458" s="3">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E458" s="3" t="s">
-        <v>313</v>
+        <v>49</v>
       </c>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B459" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B460" s="3">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>49</v>
@@ -4039,10 +4165,10 @@
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B461" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>49</v>
@@ -4050,10 +4176,10 @@
     </row>
     <row r="462" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B462" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>49</v>
@@ -4061,10 +4187,10 @@
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B463" s="3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D463" s="3" t="s">
         <v>98</v>
@@ -4072,10 +4198,10 @@
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B464" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="D464" s="3" t="s">
         <v>98</v>
@@ -4083,10 +4209,10 @@
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B465" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>49</v>
@@ -4094,21 +4220,24 @@
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B466" s="3">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>314</v>
+        <v>98</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B467" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="D467" s="3" t="s">
         <v>98</v>
@@ -4116,21 +4245,24 @@
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B468" s="3">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B469" s="3">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D469" s="3" t="s">
         <v>49</v>
@@ -4138,29 +4270,32 @@
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B470" s="3">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B471" s="3">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B472" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>216</v>
@@ -4171,24 +4306,21 @@
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B473" s="3">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E473" s="3" t="s">
-        <v>316</v>
+        <v>49</v>
       </c>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B474" s="3">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>49</v>
@@ -4196,57 +4328,51 @@
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B475" s="3">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B476" s="3">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B477" s="3">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="D477" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B478" s="3">
+        <v>36</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D478" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E477" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="478" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B478" s="7">
-        <v>46</v>
-      </c>
-      <c r="C478" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D478" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E478" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B479" s="3">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>285</v>
@@ -4257,32 +4383,29 @@
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B480" s="3">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E480" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="481" spans="2:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B481" s="3">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="482" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B482" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>269</v>
@@ -4291,13 +4414,865 @@
         <v>98</v>
       </c>
       <c r="E482" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B483" s="3">
+        <v>41</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B484" s="3">
+        <v>42</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B485" s="3">
+        <v>43</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B486" s="3">
+        <v>44</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B487" s="3">
+        <v>45</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B488" s="3">
+        <v>46</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B489" s="3">
+        <v>47</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B490" s="3">
+        <v>48</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B491" s="3">
+        <v>49</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B492" s="3">
+        <v>50</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B496" s="3">
+        <v>1</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="497" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B497" s="3">
+        <v>2</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="498" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B498" s="3">
+        <v>3</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="499" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B499" s="3">
+        <v>4</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="500" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B500" s="3">
+        <v>5</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="501" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B501" s="3">
+        <v>6</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="502" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B502" s="3">
+        <v>7</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="503" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B503" s="3">
+        <v>8</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="504" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B504" s="3">
+        <v>9</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="505" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B505" s="3">
+        <v>10</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="506" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B506" s="3">
+        <v>11</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="507" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B507" s="3">
+        <v>12</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="508" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B508" s="3">
+        <v>13</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="509" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B509" s="3">
+        <v>14</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="510" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B510" s="3">
+        <v>15</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="511" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B511" s="3">
+        <v>16</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="512" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B512" s="3">
+        <v>17</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B513" s="3">
+        <v>18</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="514" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B514" s="3">
+        <v>19</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="515" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B515" s="3">
+        <v>20</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="516" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B516" s="3">
+        <v>21</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="517" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B517" s="3">
+        <v>22</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B518" s="3">
+        <v>23</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="519" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B519" s="3">
+        <v>24</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="520" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B520" s="3">
+        <v>25</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="521" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B521" s="3">
+        <v>26</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B522" s="3">
+        <v>27</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B523" s="3">
+        <v>28</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B524" s="3">
+        <v>29</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="525" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B525" s="3">
+        <v>30</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B526" s="3">
+        <v>31</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B527" s="3">
+        <v>32</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B528" s="3">
+        <v>33</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="529" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B529" s="3">
+        <v>34</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="530" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B530" s="3">
+        <v>35</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="531" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B531" s="3">
+        <v>36</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="532" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B532" s="3">
+        <v>37</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="533" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B533" s="3">
+        <v>38</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="534" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B534" s="3">
+        <v>39</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B535" s="3">
+        <v>40</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B536" s="3">
+        <v>41</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="537" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B537" s="3">
+        <v>42</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B538" s="3">
+        <v>43</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="539" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B539" s="3">
+        <v>44</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="540" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B540" s="3">
+        <v>45</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="541" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B541" s="7">
+        <v>46</v>
+      </c>
+      <c r="C541" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D541" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E541" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="542" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B542" s="3">
+        <v>47</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="543" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B543" s="3">
+        <v>48</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="544" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B544" s="3">
+        <v>49</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B545" s="3">
+        <v>50</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E545" s="3" t="s">
         <v>321</v>
       </c>
     </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A547" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B549" s="3">
+        <v>1</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B550" s="3">
+        <v>2</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B551" s="3">
+        <v>3</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B552" s="3">
+        <v>4</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B553" s="3">
+        <v>5</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B554" s="3">
+        <v>6</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B555" s="3">
+        <v>7</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B556" s="3">
+        <v>8</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B557" s="3">
+        <v>9</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B558" s="3">
+        <v>10</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B559" s="3">
+        <v>11</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D359:K359"/>
-    <mergeCell ref="D365:K365"/>
+    <mergeCell ref="D422:K422"/>
+    <mergeCell ref="D428:K428"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F170" r:id="rId1"/>
@@ -4305,5 +5280,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G38" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G39" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G40" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G43" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G44" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G45" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G46" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E48" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G49" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G50" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C53" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E55" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
-    <sheet name="1.Data type" sheetId="2" r:id="rId2"/>
+    <sheet name="2.Data type" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
     <author>Hung Le Phi</author>
   </authors>
   <commentList>
-    <comment ref="C561" authorId="0" shapeId="0">
+    <comment ref="C563" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="642">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -739,9 +739,6 @@
     <t xml:space="preserve">Các valid identifiers : A$B, _helloWorld, Public (Java phân biệt hoa thường) </t>
   </si>
   <si>
-    <t>Không được phép chứa kí tự đặc biệt như @ . # ` ! % ^ *&amp; ( ) + = - } { [</t>
-  </si>
-  <si>
     <t>java.lang</t>
   </si>
   <si>
@@ -1297,18 +1294,12 @@
     <t>long</t>
   </si>
   <si>
-    <t>Hệ thốg số nhị phân (binary number</t>
-  </si>
-  <si>
     <t>Chỉ dùng 2 số 0 và 1</t>
   </si>
   <si>
     <t>bát phân (octal number)</t>
   </si>
   <si>
-    <t>Dùng các số từ 0 đến 7 (tổng là 8 chữ số)</t>
-  </si>
-  <si>
     <t>Thập phân</t>
   </si>
   <si>
@@ -1411,9 +1402,6 @@
     <t>long longLiterla = 100_L;</t>
   </si>
   <si>
-    <t>Không được đặt _ ngay trước L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lưu ý : </t>
   </si>
   <si>
@@ -1421,13 +1409,931 @@
   </si>
   <si>
     <t>int var = Integer.parseInt("45_98");</t>
+  </si>
+  <si>
+    <t>long var1 = 0_100_267_760;</t>
+  </si>
+  <si>
+    <t>long var6 = 0x1_0000_10;</t>
+  </si>
+  <si>
+    <t>long var7 = 100__12_12;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không được đăt _ giữa phần cơ số :  0_x , 0_B, </t>
+  </si>
+  <si>
+    <t>// Không được đặt dấu _ giữa phần cơ số, và ngay sau cơ số</t>
+  </si>
+  <si>
+    <t>// Không được đặt _ ngay trước L</t>
+  </si>
+  <si>
+    <t>// Không được đặt dấu _ ngay sau phần cơ số</t>
+  </si>
+  <si>
+    <t>// Không được đặt _ ngay sau phần cơ số</t>
+  </si>
+  <si>
+    <t>// Phần cơ số không có kí tự G, hexadeciaml chỉ có từ A -&gt; F</t>
+  </si>
+  <si>
+    <t>long var2 = 0_x_4_13;</t>
+  </si>
+  <si>
+    <t>long var3 = 0b_x10_BA_75;</t>
+  </si>
+  <si>
+    <t>long var4 = 0b_10000_10_11;</t>
+  </si>
+  <si>
+    <t>long var5 = 0xa10_AG_75;</t>
+  </si>
+  <si>
+    <t>3. Khai báo double và float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có thể khai báo biến double như sau: </t>
+  </si>
+  <si>
+    <t>double inclination2 = 1.201762e2;</t>
+  </si>
+  <si>
+    <t>// Ở đây tương nhự như 120.1762</t>
+  </si>
+  <si>
+    <t>Tương tự luật khai báo biến, ko được phép đặt dấu _ ngay trước, ngay sau dấu . Thập phan</t>
+  </si>
+  <si>
+    <t>float var1 = 100._48F;</t>
+  </si>
+  <si>
+    <t>double var2 = 100_.87;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặc biệt đối với biến double và float, thì ko được đặt phép _ ngay trước F, f, D, d </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ: </t>
+  </si>
+  <si>
+    <t>float var3 = 100.48_F;</t>
+  </si>
+  <si>
+    <t>double  var4 = 100.87_d;</t>
+  </si>
+  <si>
+    <t>4. Khai báo char</t>
+  </si>
+  <si>
+    <t>Lưu ý là khai báo char bằng dấu nháy đơn</t>
+  </si>
+  <si>
+    <t>char c = 'D';</t>
+  </si>
+  <si>
+    <t>Java lưu trữ dữ liệu char dưới dạng giá trị số nguyên không dấu (số nguyên dương)</t>
+  </si>
+  <si>
+    <t>char c1 = 122;</t>
+  </si>
+  <si>
+    <t>// 122 là z</t>
+  </si>
+  <si>
+    <t>Tuy nhiên có thể khai báo cưỡng bức giá trị  số âm</t>
+  </si>
+  <si>
+    <t>char c3 = (char) -122;</t>
+  </si>
+  <si>
+    <t>Được phép thêm đơn vị tiền tệ, ở bất kì vị trí nào : ¤, $, £,
+¢, ¥</t>
+  </si>
+  <si>
+    <t>Không được phép chứa kí tự đặc biệt như !, @, #, %, ^, &amp;, *, (, ),
+', :, ;, [, /, \, }</t>
+  </si>
+  <si>
+    <t>Không được phép chứa dấu gạch ngang -</t>
+  </si>
+  <si>
+    <t>char char1 = 'a';</t>
+  </si>
+  <si>
+    <r>
+      <t>System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println(char1);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.print(char1 + char1);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">// Khai báo thế này OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// OK </t>
+  </si>
+  <si>
+    <t>// OK , Kết quả là 194 vì giá trị ASCII value của 'a' là 94</t>
+  </si>
+  <si>
+    <t>Có thể sử dụng các toán tử đối với char, bao gồm cả ++, --</t>
+  </si>
+  <si>
+    <t>Tất cả các kiểu dữ liệu byte, short , char đều được tự động cast về int khi sử dụng các toán tử</t>
+  </si>
+  <si>
+    <t>byte age1 = 10;</t>
+  </si>
+  <si>
+    <t>byte age2 = 20;</t>
+  </si>
+  <si>
+    <t>short sum = age1 + age2;</t>
+  </si>
+  <si>
+    <t>5. Toán tử</t>
+  </si>
+  <si>
+    <t>Nếu các biến  bao gồm kiểu dl Long  giá trị sẽ được case về long</t>
+  </si>
+  <si>
+    <t>long sum = age1 + age2;</t>
+  </si>
+  <si>
+    <t>int a   = 1;</t>
+  </si>
+  <si>
+    <t>int ab = a + b;</t>
+  </si>
+  <si>
+    <t>long ab = a + b;</t>
+  </si>
+  <si>
+    <t>long b = 2L;</t>
+  </si>
+  <si>
+    <t>Nếu các biến bao gồm kiểu dl double hoặc float, Giá trị của chúng sẽ được case về kiểu double</t>
+  </si>
+  <si>
+    <t>double x = 2.0;</t>
+  </si>
+  <si>
+    <t>float y = 3.0F;</t>
+  </si>
+  <si>
+    <t>float z = x + y;</t>
+  </si>
+  <si>
+    <t>double z = x + y;</t>
+  </si>
+  <si>
+    <t>final byte age1 = 10;</t>
+  </si>
+  <si>
+    <t>final byte age2 = 20;</t>
+  </si>
+  <si>
+    <t>Tuy nhiên nếu tất cả các biến đều khai báo là final thì sẽ bỏ các rule trên, Tức là có thể case tường minh về kiểu dữ liệu lớn hơn</t>
+  </si>
+  <si>
+    <t>int sum = age1 + age2;</t>
+  </si>
+  <si>
+    <t>6. Thứ tự ưu tiên của các toán tử</t>
+  </si>
+  <si>
+    <t>7. Tạo object từ Wrapper class</t>
+  </si>
+  <si>
+    <t>Có thể tạo 1 object từ các Wrapper class theo 3 cách sau:</t>
+  </si>
+  <si>
+    <t>Gán 1 biến nguyên thủy cho 1 lớp wrapper</t>
+  </si>
+  <si>
+    <t>Sử dụng constructor của lớp Wrapper</t>
+  </si>
+  <si>
+    <t>Bằng các sử dụng method của lớp Wrapper ví dụ valueOf()</t>
+  </si>
+  <si>
+    <t>Autoboxing:</t>
+  </si>
+  <si>
+    <t>Boolean bool1 = true;</t>
+  </si>
+  <si>
+    <t>Character char1 = 'a';</t>
+  </si>
+  <si>
+    <t>Byte byte1 = 10;</t>
+  </si>
+  <si>
+    <t>Double double1 = 10.98;</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>static method valueOf</t>
+  </si>
+  <si>
+    <t>Boolean bool2 = new Boolean(true);</t>
+  </si>
+  <si>
+    <t>Character char2 = new Character('a');</t>
+  </si>
+  <si>
+    <t>Byte byte2 = new Byte((byte)10);</t>
+  </si>
+  <si>
+    <t>Double double2 = new Double(10.98);</t>
+  </si>
+  <si>
+    <t>Boolean bool3 = new Boolean("true");</t>
+  </si>
+  <si>
+    <t>Byte byte3 = new Byte("10");</t>
+  </si>
+  <si>
+    <t>Double double3 = new Double("10.98");</t>
+  </si>
+  <si>
+    <r>
+      <t>Boolean bool4 = Boolean.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(true);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boolean bool5 = Boolean.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(true);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boolean bool6 = Boolean.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>("TrUE");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Double double4 = Double.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>valueOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(10);</t>
+    </r>
+  </si>
+  <si>
+    <t>Lưu ý: Wrapper class Character ko được phép khởi tạo constructor là String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAI : </t>
+  </si>
+  <si>
+    <t>Character char3 = new Character("a");</t>
+  </si>
+  <si>
+    <t>Các chữ số từ 0 đến 9</t>
+  </si>
+  <si>
+    <t>nhị phân (binary number</t>
+  </si>
+  <si>
+    <t>Hệ thống cơ số</t>
+  </si>
+  <si>
+    <t>8. So sánh object của lớp Wrapper</t>
+  </si>
+  <si>
+    <t>So sánh về giá trị của 2 object của lớp Wrapper class  sử dụng phương thức equals()</t>
+  </si>
+  <si>
+    <t>So sánh về địa chỉ reference của 2 object sử dụng toán tử ==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu 2 Wrapper class có kiểu dl khác nhau thì phương thức equals () vẫn thực hiện so sánh giá trị được, Nhưng toán tử == không thể compile </t>
+  </si>
+  <si>
+    <t>Integer o1 = 100;</t>
+  </si>
+  <si>
+    <t>Short o2 = 100;</t>
+  </si>
+  <si>
+    <t>o1.equals(o2)</t>
+  </si>
+  <si>
+    <t>// Output false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o1 == o2 </t>
+  </si>
+  <si>
+    <t>// Ko compile</t>
+  </si>
+  <si>
+    <t>Wrapper class là immutable, Thêm 1 giá trị primitive vào 1 wrapper class không thay đổi giá trị của object nó refer tới, Wrapper class thực hiện gán sang một object mới</t>
+  </si>
+  <si>
+    <t>Double total = 0.0;</t>
+  </si>
+  <si>
+    <t>double value1 = 1.0;</t>
+  </si>
+  <si>
+    <t>total += value1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thực sự chạy như sau: </t>
+  </si>
+  <si>
+    <t>doubel value1 = 1.0;</t>
+  </si>
+  <si>
+    <t>total = total.doubleValue() + value1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi truyền giá trị null cho object của lớp Wrapper, thì obj sẽ gọi hàm intValue() để thực hiện toán tử . Do đó sẽ báo lỗi NullPointerException </t>
+  </si>
+  <si>
+    <t>public static int increment(Integer obj){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return ++obj;</t>
+  </si>
+  <si>
+    <t>public static void main(String [] args ){</t>
+  </si>
+  <si>
+    <t>System.out.print(increment(null));</t>
+  </si>
+  <si>
+    <t>// Throw null pointer Exception</t>
+  </si>
+  <si>
+    <t>// Vì obj.intValue() mà obj = null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dùng các số từ 0 đến 7 </t>
+  </si>
+  <si>
+    <t>9. Khai báo BOOLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khai báo hợp lệ : </t>
+  </si>
+  <si>
+    <t>boolean b = new Boolean("yes");</t>
+  </si>
+  <si>
+    <t>boolean b2 = new Boolean("no");</t>
+  </si>
+  <si>
+    <t>Boolean b3 = new Boolean("TRUE");</t>
+  </si>
+  <si>
+    <t>Boolean b4 = new Boolean("fALse");</t>
+  </si>
+  <si>
+    <t>Boolean b5 = new Boolean("1");</t>
+  </si>
+  <si>
+    <t>Boolean b6 = new Boolean("0");</t>
+  </si>
+  <si>
+    <t>Boolean b7 = new Boolean("xxx");</t>
+  </si>
+  <si>
+    <r>
+      <t>Boolean b8 = Boolean.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boolean b9 = Boolean.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>10. switch statement</t>
+  </si>
+  <si>
+    <t>default có thể ở bất cứ thứ tự nào trong swithc</t>
+  </si>
+  <si>
+    <t>Nếu không có bất kì case nào match với giá trị thì sẽ tự động nhảy vào default</t>
+  </si>
+  <si>
+    <t>câu lệnh break là optional, Do vậy nếu trong case default ko khai báo break;, Thì code sẽ tiếp tục chạy từ cao xuống thấp cho đến khi gặp được lệnh break hoặc khi kết thúc cấu trúc switch</t>
+  </si>
+  <si>
+    <t>Kết quả : Weekday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>int dayOfWeek = 5;</t>
+  </si>
+  <si>
+    <t>switch(dayOfWeek) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    case 0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    case 6:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        break;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println("Sunday");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println("Weekday");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println("Saturday");</t>
+    </r>
+  </si>
+  <si>
+    <t>11. For loop Statement</t>
+  </si>
+  <si>
+    <t>Tạo vòng lặp vô hạn for</t>
+  </si>
+  <si>
+    <t>System.out.print("hello");</t>
+  </si>
+  <si>
+    <t>for ( ; ; )  {</t>
+  </si>
+  <si>
+    <t>for ( ; ) {</t>
+  </si>
+  <si>
+    <t>for ( ) {</t>
+  </si>
+  <si>
+    <t>System.out.print("blo")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cấu trúc tổng quát : </t>
+  </si>
+  <si>
+    <t>for(initialization; booleanExpression; updateStatement) {</t>
+  </si>
+  <si>
+    <t>for(long y = 0, x = 4; x &lt; 5 &amp;&amp; y &lt; 10; x++, y++) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.print(x + " ");</t>
+    </r>
+  </si>
+  <si>
+    <t>int x = 5;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    System.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.print(x + " ");</t>
+    </r>
+  </si>
+  <si>
+    <t>// Sai tại dòng này vì biến x đã tồn tại trong scope main</t>
+  </si>
+  <si>
+    <t>int x = 0;</t>
+  </si>
+  <si>
+    <t>long y = 10;</t>
+  </si>
+  <si>
+    <t>for( y = 0,  x = 4; x &lt; 5 &amp;&amp; y &lt; 10; x++, y++) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.print(x + " ");</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">for(long y = 0, int x = 4; x &lt; 5 &amp;&amp; y&lt;10; x++, y++) { </t>
+  </si>
+  <si>
+    <t>// Ở trên khai báo int x , trong vòng for lại khai báo long x</t>
+  </si>
+  <si>
+    <t>// Sai tại dòng này vì statement khởi tạo bắt buộc phải có cùng kiểu dl</t>
+  </si>
+  <si>
+    <t>Hoặc cũng có thể cast tường minh về đúng kiểu dl mong muốn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short a = </t>
+  </si>
+  <si>
+    <t>12. Foreach statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cấu trúc: </t>
+  </si>
+  <si>
+    <t>for ( Datetype instance : list) {</t>
+  </si>
+  <si>
+    <t>13. Advanced Flow Control</t>
+  </si>
+  <si>
+    <t>Nested loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>int[][] myComplexArray = {{5,2,1,3},{3,9,8,9},{5,7,12,7}};</t>
+  </si>
+  <si>
+    <t>for(int[] mySimpleArray : myComplexArray) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    for(int i=0; i&lt;mySimpleArray.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.print(mySimpleArray[i]+"\t");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    System.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println();</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Result : </t>
+  </si>
+  <si>
+    <t>5 2 1 3</t>
+  </si>
+  <si>
+    <t>3 9 8 9</t>
+  </si>
+  <si>
+    <t>5 7 12 7</t>
+  </si>
+  <si>
+    <t>14 . Continue statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cấu trúc : </t>
+  </si>
+  <si>
+    <t>optionalLable : while ( boolean Expression) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continute  optionalLabel; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bài test 1 </t>
+  </si>
+  <si>
+    <t>OCA  Study Guide 1</t>
+  </si>
+  <si>
+    <t>A, D, F</t>
+  </si>
+  <si>
+    <t>A, B , E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C , F , D</t>
+  </si>
+  <si>
+    <t>Lệnh này vẫn compile thành công (x &gt; 2 ? x &lt; 4 ? 10 : 8 : 7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1517,6 +2423,118 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Con''"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C4043"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF231F20"/>
+      <name val="SourceCodePro-Regular"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1539,7 +2557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1553,8 +2571,43 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1580,13 +2633,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1618,13 +2671,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114423</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>65920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1644,6 +2697,49 @@
         <a:xfrm>
           <a:off x="1838739" y="43069564"/>
           <a:ext cx="3858163" cy="6261313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>161519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>94356</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>136615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646043" y="29150649"/>
+          <a:ext cx="4964530" cy="2666945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1918,13 +3014,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q561"/>
+  <dimension ref="A1:Q563"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D562" sqref="D562"/>
+    <sheetView topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
@@ -1932,17 +3028,17 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1950,52 +3046,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2003,42 +3099,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
@@ -2046,17 +3142,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="B27" s="3">
         <v>2.1</v>
       </c>
@@ -2064,17 +3160,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="B31" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -2082,87 +3178,87 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="D32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="D33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="E36" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E36" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10">
       <c r="E37" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="D40" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="E41" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="E42" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="E43" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="E44" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D40" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E41" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E42" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E43" s="3" t="s">
+    <row r="46" spans="2:10">
+      <c r="D46" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E44" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="J46" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="E47" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E47" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="B50" s="3">
         <v>3.1</v>
       </c>
@@ -2170,7 +3266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="D51" s="3" t="s">
         <v>31</v>
       </c>
@@ -2181,7 +3277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="E53" s="3" t="s">
         <v>35</v>
       </c>
@@ -2189,7 +3285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="E55" s="3" t="s">
         <v>36</v>
       </c>
@@ -2197,7 +3293,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="D57" s="3" t="s">
         <v>37</v>
       </c>
@@ -2205,12 +3301,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="B59" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="D61" s="3" t="s">
         <v>41</v>
       </c>
@@ -2221,7 +3317,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="E62" s="3" t="s">
         <v>43</v>
       </c>
@@ -2229,22 +3325,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="E64" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6">
       <c r="F65" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6">
       <c r="E66" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6">
       <c r="D68" s="3" t="s">
         <v>49</v>
       </c>
@@ -2252,27 +3348,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6">
       <c r="E70" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6">
       <c r="F71" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6">
       <c r="F72" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6">
       <c r="E73" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6">
       <c r="D75" s="3" t="s">
         <v>49</v>
       </c>
@@ -2280,47 +3376,47 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6">
       <c r="F76" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6">
       <c r="F77" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6">
       <c r="E78" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6">
       <c r="B80" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="C81" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="F82" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="F83" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="C84" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="C85" s="3" t="s">
         <v>61</v>
       </c>
@@ -2328,12 +3424,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="E86" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="C88" s="3" t="s">
         <v>64</v>
       </c>
@@ -2341,17 +3437,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="E89" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="B91" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -2359,12 +3455,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="B94" s="3" t="s">
         <v>72</v>
       </c>
@@ -2372,12 +3468,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12">
       <c r="D98" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12">
       <c r="E99" s="3" t="s">
         <v>74</v>
       </c>
@@ -2388,7 +3484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12">
       <c r="F100" s="3" t="s">
         <v>75</v>
       </c>
@@ -2396,27 +3492,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12">
       <c r="F102" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12">
       <c r="G103" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12">
       <c r="F104" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12">
       <c r="B108" s="3" t="s">
         <v>82</v>
       </c>
@@ -2424,7 +3520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12">
       <c r="B109" s="3" t="s">
         <v>84</v>
       </c>
@@ -2432,7 +3528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12">
       <c r="B110" s="3" t="s">
         <v>86</v>
       </c>
@@ -2440,7 +3536,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12">
       <c r="B111" s="3" t="s">
         <v>88</v>
       </c>
@@ -2448,7 +3544,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12">
       <c r="B112" s="3" t="s">
         <v>90</v>
       </c>
@@ -2456,7 +3552,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8">
       <c r="B113" s="3" t="s">
         <v>92</v>
       </c>
@@ -2464,7 +3560,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8">
       <c r="B114" s="3" t="s">
         <v>93</v>
       </c>
@@ -2472,7 +3568,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8">
       <c r="B115" s="3" t="s">
         <v>94</v>
       </c>
@@ -2480,7 +3576,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8">
       <c r="B117" s="3" t="s">
         <v>95</v>
       </c>
@@ -2488,17 +3584,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8">
       <c r="H118" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8">
       <c r="B120" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8">
       <c r="G122" s="3" t="s">
         <v>98</v>
       </c>
@@ -2506,22 +3602,22 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8">
       <c r="H123" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8">
       <c r="H124" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8">
       <c r="H125" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8">
       <c r="G127" s="3" t="s">
         <v>104</v>
       </c>
@@ -2529,27 +3625,27 @@
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="B131" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="B133" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7">
       <c r="B137" s="3" t="s">
         <v>49</v>
       </c>
@@ -2563,1620 +3659,1609 @@
         <v>153</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="C138" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="C139" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="C140" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7">
       <c r="B142" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="B143" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B143" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="B158" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
+      <c r="C159" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="C160" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="C161" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C162" s="3" t="s">
+    <row r="162" spans="1:8" s="21" customFormat="1">
+      <c r="C162" s="21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="21" customFormat="1">
+      <c r="C163" s="21" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="21" customFormat="1"/>
+    <row r="165" spans="1:8">
+      <c r="D165" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="F166" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="F167" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="F168" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="D171" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="F172" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="F173" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D163" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F164" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F165" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F166" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D169" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F170" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F171" s="3" t="s">
+      <c r="H173" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="F174" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H171" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F172" s="3" t="s">
+      <c r="H174" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H172" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C175" s="3" t="s">
+    <row r="177" spans="1:5">
+      <c r="C177" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C177" s="3" t="s">
+    <row r="179" spans="1:5">
+      <c r="C179" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D179" s="3" t="s">
+    <row r="181" spans="1:5">
+      <c r="D181" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D180" s="3" t="s">
+    <row r="182" spans="1:5">
+      <c r="D182" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D181" s="3" t="s">
+    <row r="183" spans="1:5">
+      <c r="D183" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E182" s="3" t="s">
+    <row r="184" spans="1:5">
+      <c r="E184" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E183" s="3" t="s">
+    <row r="185" spans="1:5">
+      <c r="E185" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D184" s="3" t="s">
+    <row r="186" spans="1:5">
+      <c r="D186" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D185" s="3" t="s">
+    <row r="187" spans="1:5">
+      <c r="D187" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E187" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D186" s="3" t="s">
+    <row r="188" spans="1:5">
+      <c r="D188" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C187" s="3" t="s">
+    <row r="189" spans="1:5">
+      <c r="C189" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
+    <row r="191" spans="1:5">
+      <c r="A191" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2"/>
+      <c r="B192" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="B193" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="B194" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="2"/>
-      <c r="B190" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B191" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B192" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E193" s="3" t="s">
+    <row r="195" spans="1:5">
+      <c r="E195" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C194" s="3" t="s">
+    <row r="196" spans="1:5">
+      <c r="C196" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E194" s="3" t="b">
+      <c r="E196" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C196" s="3" t="s">
+    <row r="198" spans="1:5">
+      <c r="C198" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E198" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C197" s="3" t="s">
+    <row r="199" spans="1:5">
+      <c r="C199" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E199" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C198" s="3" t="s">
+    <row r="200" spans="1:5">
+      <c r="C200" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E200" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C200" s="3" t="s">
+    <row r="202" spans="1:5">
+      <c r="C202" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E202" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B202" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+    <row r="204" spans="1:5">
+      <c r="B204" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B205" s="3" t="s">
+    <row r="207" spans="1:5">
+      <c r="B207" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E207" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B206" s="3" t="s">
+    <row r="208" spans="1:5">
+      <c r="B208" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E208" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B207" s="3" t="s">
+    <row r="209" spans="1:6">
+      <c r="B209" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E209" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
+    <row r="211" spans="1:6">
+      <c r="A211" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C211" s="3" t="s">
+    <row r="213" spans="1:6">
+      <c r="C213" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F211" s="3" t="s">
+      <c r="F213" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C213" s="3" t="s">
+    <row r="215" spans="1:6">
+      <c r="C215" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F213" s="3" t="s">
+      <c r="F215" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C215" s="3" t="s">
+    <row r="217" spans="1:6">
+      <c r="C217" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="F217" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C217" s="3" t="s">
+    <row r="219" spans="1:6">
+      <c r="C219" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="F219" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C219" s="3" t="s">
+    <row r="221" spans="1:6">
+      <c r="C221" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="F221" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C222" s="3" t="s">
+    <row r="224" spans="1:6">
+      <c r="C224" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D222" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D224" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="D226" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D226" s="3" t="s">
+    <row r="228" spans="1:11">
+      <c r="D228" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
+    <row r="230" spans="1:11">
+      <c r="A230" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B230" s="3" t="s">
+    <row r="232" spans="1:11">
+      <c r="B232" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B232" s="3" t="s">
+    <row r="234" spans="1:11">
+      <c r="B234" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C233" s="3" t="s">
+    <row r="235" spans="1:11">
+      <c r="C235" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J233" s="3" t="s">
+      <c r="J235" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K233" s="3" t="s">
+      <c r="K235" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C234" s="3" t="s">
+    <row r="236" spans="1:11">
+      <c r="C236" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C236" s="3" t="s">
+    <row r="238" spans="1:11">
+      <c r="C238" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D237" s="3" t="s">
+    <row r="239" spans="1:11">
+      <c r="D239" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D238" s="3" t="s">
+    <row r="240" spans="1:11">
+      <c r="D240" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C240" s="3" t="s">
+    <row r="242" spans="2:5">
+      <c r="C242" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D242" s="3" t="s">
+    <row r="244" spans="2:5">
+      <c r="D244" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D243" s="3" t="s">
+    <row r="245" spans="2:5">
+      <c r="D245" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D244" s="3" t="s">
+    <row r="246" spans="2:5">
+      <c r="D246" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="E246" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B247" s="3" t="s">
+    <row r="249" spans="2:5">
+      <c r="B249" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B248" s="3" t="s">
+    <row r="250" spans="2:5">
+      <c r="B250" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B250" s="3" t="s">
+    <row r="252" spans="2:5">
+      <c r="B252" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B251" s="3" t="s">
+    <row r="253" spans="2:5">
+      <c r="B253" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B253" s="3" t="s">
+    <row r="255" spans="2:5">
+      <c r="B255" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C265" s="3" t="s">
+    <row r="267" spans="3:6">
+      <c r="C267" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D266" s="3" t="s">
+    <row r="268" spans="3:6">
+      <c r="D268" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F266" s="3" t="s">
+      <c r="F268" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F268" s="3" t="s">
+    <row r="270" spans="3:6">
+      <c r="F270" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C302" s="3" t="s">
+    <row r="304" spans="3:3">
+      <c r="C304" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
+    <row r="308" spans="1:3">
+      <c r="A308" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B307" s="3" t="s">
+    <row r="309" spans="1:3">
+      <c r="B309" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B308" s="3" t="s">
+    <row r="310" spans="1:3">
+      <c r="B310" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B310" s="3" t="s">
+    <row r="312" spans="1:3">
+      <c r="B312" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B311" s="3" t="s">
+    <row r="313" spans="1:3">
+      <c r="B313" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B312" s="3" t="s">
+    <row r="314" spans="1:3">
+      <c r="B314" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="B315" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B313" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="2" t="s">
+    <row r="317" spans="1:3">
+      <c r="A317" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="B318" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B316" s="3" t="s">
+      <c r="C318" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C316" s="3" t="s">
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="B321" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="B323" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="B325" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="B327" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="D328" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="B330" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="B332" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B319" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B321" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B323" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B325" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D326" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B328" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B330" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
+    <row r="335" spans="1:4">
+      <c r="B335" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="337" spans="2:17">
+      <c r="B337" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="339" spans="2:17">
+      <c r="B339" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="340" spans="2:17">
+      <c r="C340" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B333" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B335" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F335" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="337" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B337" s="3" t="s">
+    <row r="341" spans="2:17">
+      <c r="C341" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="343" spans="2:17">
+      <c r="B343" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="344" spans="2:17">
+      <c r="C344" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="338" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C338" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="339" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C339" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="341" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B341" s="3" t="s">
+      <c r="D344" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="345" spans="2:17">
+      <c r="D345" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="342" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C342" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D342" s="3" t="s">
+      <c r="F345" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F342" s="3" t="s">
+    </row>
+    <row r="346" spans="2:17">
+      <c r="D346" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="343" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D343" s="3" t="s">
+      <c r="F346" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="348" spans="2:17">
+      <c r="C348" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="349" spans="2:17">
+      <c r="D349" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E349" s="8"/>
+      <c r="F349" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G349" s="8"/>
+      <c r="H349" s="8"/>
+      <c r="I349" s="8"/>
+      <c r="J349" s="8"/>
+      <c r="K349" s="8"/>
+      <c r="L349" s="8"/>
+      <c r="M349" s="8"/>
+      <c r="N349" s="8"/>
+      <c r="O349" s="8"/>
+      <c r="P349" s="8"/>
+      <c r="Q349" s="8"/>
+    </row>
+    <row r="350" spans="2:17">
+      <c r="D350" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E350" s="8"/>
+      <c r="F350" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G350" s="8"/>
+      <c r="H350" s="8"/>
+      <c r="I350" s="8"/>
+      <c r="J350" s="8"/>
+      <c r="K350" s="8"/>
+      <c r="L350" s="8"/>
+      <c r="M350" s="8"/>
+      <c r="N350" s="8"/>
+      <c r="O350" s="8"/>
+      <c r="P350" s="8"/>
+      <c r="Q350" s="8"/>
+    </row>
+    <row r="352" spans="2:17">
+      <c r="C352" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D352" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F343" s="3" t="s">
+      <c r="F352" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="D353" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="D354" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="344" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D344" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F344" s="3" t="s">
+      <c r="F354" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="C355" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="D356" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="D357" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="D358" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="346" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C346" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F346" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G346" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="347" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D347" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E347" s="8"/>
-      <c r="F347" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G347" s="8"/>
-      <c r="H347" s="8"/>
-      <c r="I347" s="8"/>
-      <c r="J347" s="8"/>
-      <c r="K347" s="8"/>
-      <c r="L347" s="8"/>
-      <c r="M347" s="8"/>
-      <c r="N347" s="8"/>
-      <c r="O347" s="8"/>
-      <c r="P347" s="8"/>
-      <c r="Q347" s="8"/>
-    </row>
-    <row r="348" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D348" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E348" s="8"/>
-      <c r="F348" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G348" s="8"/>
-      <c r="H348" s="8"/>
-      <c r="I348" s="8"/>
-      <c r="J348" s="8"/>
-      <c r="K348" s="8"/>
-      <c r="L348" s="8"/>
-      <c r="M348" s="8"/>
-      <c r="N348" s="8"/>
-      <c r="O348" s="8"/>
-      <c r="P348" s="8"/>
-      <c r="Q348" s="8"/>
-    </row>
-    <row r="350" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C350" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F350" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="351" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D351" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F351" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="352" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D352" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F352" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C353" s="3" t="s">
+      <c r="F358" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D354" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F354" s="3" t="s">
+    <row r="359" spans="1:6">
+      <c r="A359" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D355" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D356" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A357" s="2" t="s">
+    <row r="360" spans="1:6">
+      <c r="A360" s="2"/>
+      <c r="B360" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A358" s="2"/>
-      <c r="B358" s="3" t="s">
+      <c r="D360" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D358" s="3" t="s">
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="2"/>
+      <c r="B361" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A359" s="2"/>
-      <c r="B359" s="3" t="s">
+    <row r="362" spans="1:6">
+      <c r="A362" s="2"/>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="2"/>
+      <c r="C363" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" s="2"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="2"/>
-      <c r="C361" s="3" t="s">
+      <c r="E363" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E361" s="3" t="s">
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="2"/>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="2"/>
+      <c r="D365" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="2"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="2"/>
-      <c r="D363" s="3" t="s">
+      <c r="F365" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F363" s="3" t="s">
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="2"/>
+      <c r="F366" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" s="2"/>
-      <c r="F364" s="3" t="s">
+    <row r="367" spans="1:6">
+      <c r="A367" s="2"/>
+      <c r="F367" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" s="2"/>
-      <c r="F365" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="2"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="2"/>
-      <c r="D367" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F367" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6">
       <c r="A368" s="2"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6">
       <c r="A369" s="2"/>
       <c r="D369" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="2"/>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="2"/>
+      <c r="D371" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F371" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F369" s="3" t="s">
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="2"/>
+      <c r="F372" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370" s="2"/>
-      <c r="F370" s="3" t="s">
+    <row r="373" spans="1:6">
+      <c r="A373" s="2"/>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="2"/>
+      <c r="C374" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A371" s="2"/>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A372" s="2"/>
-      <c r="C372" s="3" t="s">
+    <row r="375" spans="1:6">
+      <c r="A375" s="2"/>
+      <c r="D375" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A373" s="2"/>
-      <c r="D373" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A374" s="2"/>
-      <c r="D374" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A375" s="2"/>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6">
       <c r="A376" s="2"/>
       <c r="D376" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F376" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377" s="2"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6">
       <c r="A378" s="2"/>
       <c r="D378" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
       <c r="A379" s="2"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6">
       <c r="A380" s="2"/>
       <c r="D380" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="2"/>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="2"/>
+      <c r="D382" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F382" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F380" s="3" t="s">
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="2"/>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="2"/>
+      <c r="F384" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A381" s="2"/>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A382" s="2"/>
-      <c r="F382" s="3" t="s">
+    <row r="385" spans="1:12">
+      <c r="A385" s="2"/>
+      <c r="G385" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A383" s="2"/>
-      <c r="G383" s="3" t="s">
+    <row r="386" spans="1:12">
+      <c r="A386" s="2"/>
+      <c r="G386" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A384" s="2"/>
-      <c r="G384" s="3" t="s">
+    <row r="387" spans="1:12">
+      <c r="A387" s="2"/>
+      <c r="H387" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A385" s="2"/>
-      <c r="H385" s="3" t="s">
+      <c r="L387" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12">
+      <c r="A388" s="2"/>
+      <c r="H388" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="L385" s="9" t="s">
+      <c r="L388" s="7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A386" s="2"/>
-      <c r="H386" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="L386" s="7" t="s">
+    <row r="389" spans="1:12">
+      <c r="A389" s="2"/>
+      <c r="G389" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12">
+      <c r="A390" s="2"/>
+      <c r="F390" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12">
+      <c r="A391" s="2"/>
+    </row>
+    <row r="392" spans="1:12">
+      <c r="A392" s="2"/>
+      <c r="C392" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A387" s="2"/>
-      <c r="G387" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A388" s="2"/>
-      <c r="F388" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A389" s="2"/>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A390" s="2"/>
-      <c r="C390" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A391" s="2"/>
-      <c r="D391" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A392" s="2"/>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12">
       <c r="A393" s="2"/>
       <c r="D393" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F393" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12">
       <c r="A394" s="2"/>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12">
       <c r="A395" s="2"/>
       <c r="D395" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12">
       <c r="A396" s="2"/>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12">
       <c r="A397" s="2"/>
-      <c r="E397" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D397" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12">
       <c r="A398" s="2"/>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12">
       <c r="A399" s="2"/>
       <c r="E399" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12">
+      <c r="A400" s="2"/>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="A401" s="2"/>
+      <c r="E401" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="A402" s="2"/>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="A403" s="2"/>
+      <c r="D403" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A400" s="2"/>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A401" s="2"/>
-      <c r="D401" s="3" t="s">
+    <row r="404" spans="1:10">
+      <c r="A404" s="2"/>
+      <c r="E404" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A402" s="2"/>
-      <c r="E402" s="3" t="s">
+    <row r="405" spans="1:10">
+      <c r="A405" s="2"/>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" s="2"/>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407" s="2"/>
+      <c r="E407" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A403" s="2"/>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A404" s="2"/>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A405" s="2"/>
-      <c r="E405" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="F405" s="3" t="s">
+      <c r="F407" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G405" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="H405" s="12"/>
-      <c r="I405" s="12"/>
-      <c r="J405" s="12"/>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A406" s="2"/>
-      <c r="G406" s="12"/>
-      <c r="H406" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="I406" s="12"/>
-      <c r="J406" s="12"/>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A407" s="2"/>
-      <c r="G407" s="12"/>
-      <c r="H407" s="11" t="s">
-        <v>395</v>
-      </c>
+      <c r="G407" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="H407" s="12"/>
       <c r="I407" s="12"/>
       <c r="J407" s="12"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10">
       <c r="A408" s="2"/>
-      <c r="G408" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="H408" s="12"/>
+      <c r="G408" s="12"/>
+      <c r="H408" s="11" t="s">
+        <v>393</v>
+      </c>
       <c r="I408" s="12"/>
       <c r="J408" s="12"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10">
       <c r="A409" s="2"/>
       <c r="G409" s="12"/>
-      <c r="H409" s="12"/>
+      <c r="H409" s="11" t="s">
+        <v>394</v>
+      </c>
       <c r="I409" s="12"/>
       <c r="J409" s="12"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10">
       <c r="A410" s="2"/>
-      <c r="F410" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G410" s="11" t="s">
-        <v>398</v>
+      <c r="G410" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="H410" s="12"/>
       <c r="I410" s="12"/>
       <c r="J410" s="12"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10">
       <c r="A411" s="2"/>
-      <c r="G411" s="11" t="s">
-        <v>395</v>
-      </c>
+      <c r="G411" s="12"/>
       <c r="H411" s="12"/>
       <c r="I411" s="12"/>
       <c r="J411" s="12"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10">
       <c r="A412" s="2"/>
-      <c r="G412" s="10"/>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F412" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G412" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="H412" s="12"/>
+      <c r="I412" s="12"/>
+      <c r="J412" s="12"/>
+    </row>
+    <row r="413" spans="1:10">
       <c r="A413" s="2"/>
-      <c r="G413" s="10"/>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G413" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="H413" s="12"/>
+      <c r="I413" s="12"/>
+      <c r="J413" s="12"/>
+    </row>
+    <row r="414" spans="1:10">
       <c r="A414" s="2"/>
       <c r="G414" s="10"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10">
       <c r="A415" s="2"/>
       <c r="G415" s="10"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A416" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="417" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B417" s="3">
+    <row r="416" spans="1:10">
+      <c r="A416" s="2"/>
+      <c r="G416" s="10"/>
+    </row>
+    <row r="417" spans="1:12">
+      <c r="A417" s="2"/>
+      <c r="G417" s="10"/>
+    </row>
+    <row r="418" spans="1:12">
+      <c r="A418" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
+      <c r="B419" s="3">
         <v>1</v>
       </c>
-      <c r="C417" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D417" s="3" t="s">
+      <c r="C419" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D419" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L417" s="3" t="s">
+      <c r="L419" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="418" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B418" s="3">
+    <row r="420" spans="1:12">
+      <c r="B420" s="3">
         <v>2</v>
       </c>
-      <c r="C418" s="3" t="s">
+      <c r="C420" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="L418" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="419" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B419" s="3">
-        <v>3</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L419" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="420" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B420" s="3">
-        <v>4</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="L420" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="421" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12">
       <c r="B421" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L421" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12">
       <c r="B422" s="3">
+        <v>4</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L422" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
+      <c r="B423" s="3">
+        <v>5</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L423" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" ht="42" customHeight="1">
+      <c r="B424" s="3">
         <v>6</v>
       </c>
-      <c r="C422" s="3" t="s">
+      <c r="C424" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D424" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="D422" s="13" t="s">
+      <c r="E424" s="28"/>
+      <c r="F424" s="28"/>
+      <c r="G424" s="28"/>
+      <c r="H424" s="28"/>
+      <c r="I424" s="28"/>
+      <c r="J424" s="28"/>
+      <c r="K424" s="28"/>
+      <c r="L424" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
+      <c r="B425" s="3">
+        <v>7</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E422" s="13"/>
-      <c r="F422" s="13"/>
-      <c r="G422" s="13"/>
-      <c r="H422" s="13"/>
-      <c r="I422" s="13"/>
-      <c r="J422" s="13"/>
-      <c r="K422" s="13"/>
-      <c r="L422" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="423" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B423" s="3">
-        <v>7</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L423" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="424" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B424" s="3">
-        <v>8</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L424" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="425" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B425" s="3">
-        <v>9</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="L425" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="426" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12">
       <c r="B426" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L426" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="427" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12">
       <c r="B427" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L427" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="428" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
       <c r="B428" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D428" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E428" s="13"/>
-      <c r="F428" s="13"/>
-      <c r="G428" s="13"/>
-      <c r="H428" s="13"/>
-      <c r="I428" s="13"/>
-      <c r="J428" s="13"/>
-      <c r="K428" s="13"/>
+        <v>217</v>
+      </c>
       <c r="L428" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="429" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12">
       <c r="B429" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L429" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="430" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" ht="39.75" customHeight="1">
       <c r="B430" s="3">
+        <v>12</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D430" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E430" s="28"/>
+      <c r="F430" s="28"/>
+      <c r="G430" s="28"/>
+      <c r="H430" s="28"/>
+      <c r="I430" s="28"/>
+      <c r="J430" s="28"/>
+      <c r="K430" s="28"/>
+      <c r="L430" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
+      <c r="B431" s="3">
+        <v>13</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
+      <c r="B432" s="3">
         <v>14</v>
       </c>
-      <c r="C430" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L430" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="431" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B431" s="3">
-        <v>15</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L431" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="432" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B432" s="3">
-        <v>16</v>
-      </c>
       <c r="C432" s="3" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L432" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12">
       <c r="B433" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>221</v>
+        <v>245</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="L433" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
       <c r="B434" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L434" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12">
       <c r="B435" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="L435" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
       <c r="B436" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="L436" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12">
       <c r="B437" s="3">
+        <v>19</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L437" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="B438" s="3">
+        <v>20</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="B439" s="3">
         <v>21</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="C439" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="L437" s="3" t="s">
+      <c r="L439" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B438" s="3">
+    <row r="440" spans="1:12">
+      <c r="B440" s="3">
         <v>22</v>
       </c>
-      <c r="C438" s="3" t="s">
+      <c r="C440" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L438" s="3" t="s">
+      <c r="L440" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B439" s="3">
+    <row r="441" spans="1:12">
+      <c r="B441" s="3">
         <v>23</v>
       </c>
-      <c r="C439" s="3" t="s">
+      <c r="C441" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D439" s="3" t="s">
+      <c r="D441" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L441" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="D442" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="L439" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D440" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A442" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B443" s="3">
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="B445" s="3">
         <v>1</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B444" s="3">
-        <v>2</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B445" s="3">
-        <v>3</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>258</v>
       </c>
       <c r="D445" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="B446" s="3">
+        <v>2</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D446" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B446" s="3">
-        <v>4</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12">
       <c r="B447" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12">
       <c r="B448" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>213</v>
       </c>
       <c r="D448" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="449" spans="2:5">
+      <c r="B449" s="3">
+        <v>5</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D449" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="449" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B449" s="3">
-        <v>7</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E449" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:5">
       <c r="B450" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="451" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:5">
       <c r="B451" s="3">
+        <v>7</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5">
+      <c r="B452" s="3">
+        <v>8</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5">
+      <c r="B453" s="3">
         <v>9</v>
       </c>
-      <c r="C451" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D451" s="3" t="s">
+      <c r="C453" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E453" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E451" s="3" t="s">
+    </row>
+    <row r="454" spans="2:5">
+      <c r="B454" s="3">
+        <v>10</v>
+      </c>
+      <c r="C454" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="452" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B452" s="3">
-        <v>10</v>
-      </c>
-      <c r="C452" s="3" t="s">
+      <c r="D454" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E454" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D452" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E452" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="453" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B453" s="3">
+    </row>
+    <row r="455" spans="2:5">
+      <c r="B455" s="3">
         <v>11</v>
       </c>
-      <c r="C453" s="3" t="s">
+      <c r="C455" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D453" s="3" t="s">
+      <c r="D455" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="454" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B454" s="3">
+    <row r="456" spans="2:5">
+      <c r="B456" s="3">
         <v>12</v>
       </c>
-      <c r="C454" s="3" t="s">
+      <c r="C456" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D454" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="455" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B455" s="3">
-        <v>13</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E455" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B456" s="3">
-        <v>14</v>
-      </c>
-      <c r="C456" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D456" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="457" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:5">
       <c r="B457" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>258</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="458" spans="2:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="458" spans="2:5">
       <c r="B458" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D458" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="459" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:5">
       <c r="B459" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="460" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:5">
       <c r="B460" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="461" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:5">
       <c r="B461" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="462" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:5">
       <c r="B462" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>213</v>
@@ -4185,161 +5270,161 @@
         <v>49</v>
       </c>
     </row>
-    <row r="463" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:5">
       <c r="B463" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D463" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="464" spans="2:5">
+      <c r="B464" s="3">
+        <v>20</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5">
+      <c r="B465" s="3">
+        <v>21</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D465" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="464" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B464" s="3">
+    <row r="466" spans="2:5">
+      <c r="B466" s="3">
         <v>22</v>
       </c>
-      <c r="C464" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="465" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B465" s="3">
-        <v>23</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="466" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B466" s="3">
-        <v>24</v>
-      </c>
       <c r="C466" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E466" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="467" spans="2:5">
       <c r="B467" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="468" spans="2:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="468" spans="2:5">
       <c r="B468" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="469" spans="2:5" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="469" spans="2:5">
       <c r="B469" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="470" spans="2:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="470" spans="2:5">
       <c r="B470" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="471" spans="2:5" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5">
       <c r="B471" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D471" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="472" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:5">
       <c r="B472" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="473" spans="2:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="473" spans="2:5">
       <c r="B473" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="474" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:5">
       <c r="B474" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="475" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:5">
       <c r="B475" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="476" spans="2:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5">
       <c r="B476" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>213</v>
@@ -4348,868 +5433,865 @@
         <v>49</v>
       </c>
     </row>
-    <row r="477" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:5">
       <c r="B477" s="3">
+        <v>33</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5">
+      <c r="B478" s="3">
+        <v>34</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="479" spans="2:5">
+      <c r="B479" s="3">
         <v>35</v>
       </c>
-      <c r="C477" s="3" t="s">
+      <c r="C479" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="478" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B478" s="3">
-        <v>36</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="479" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B479" s="3">
-        <v>37</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="D479" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="480" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:5">
       <c r="B480" s="3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="481" spans="2:5">
       <c r="B481" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:5">
       <c r="B482" s="3">
+        <v>38</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="483" spans="2:5">
+      <c r="B483" s="3">
+        <v>39</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="484" spans="2:5">
+      <c r="B484" s="3">
         <v>40</v>
       </c>
-      <c r="C482" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E482" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B483" s="3">
-        <v>41</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B484" s="3">
-        <v>42</v>
-      </c>
       <c r="C484" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E484" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="485" spans="2:5">
       <c r="B485" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="D485" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:5">
       <c r="B486" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="487" spans="2:5">
       <c r="B487" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E487" s="3" t="s">
+    </row>
+    <row r="488" spans="2:5">
+      <c r="B488" s="3">
+        <v>44</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="489" spans="2:5">
+      <c r="B489" s="3">
+        <v>45</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="490" spans="2:5">
+      <c r="B490" s="3">
+        <v>46</v>
+      </c>
+      <c r="C490" s="3" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B488" s="3">
-        <v>46</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B489" s="3">
-        <v>47</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B490" s="3">
-        <v>48</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E490" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="491" spans="2:5">
       <c r="B491" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:5">
       <c r="B492" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E492" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="493" spans="2:5">
+      <c r="B493" s="3">
+        <v>49</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="494" spans="2:5">
+      <c r="B494" s="3">
+        <v>50</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A495" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B496" s="3">
+    <row r="498" spans="1:5">
+      <c r="B498" s="3">
         <v>1</v>
       </c>
-      <c r="C496" s="3" t="s">
+      <c r="C498" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="497" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B497" s="3">
-        <v>2</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="498" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B498" s="3">
-        <v>3</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="499" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5">
       <c r="B499" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="500" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5">
       <c r="B500" s="3">
+        <v>3</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="B501" s="3">
+        <v>4</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="B502" s="3">
         <v>5</v>
       </c>
-      <c r="C500" s="3" t="s">
+      <c r="C502" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E502" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D500" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E500" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="501" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B501" s="3">
+    </row>
+    <row r="503" spans="1:5">
+      <c r="B503" s="3">
         <v>6</v>
       </c>
-      <c r="C501" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E501" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="502" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B502" s="3">
-        <v>7</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D502" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="503" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B503" s="3">
-        <v>8</v>
-      </c>
       <c r="C503" s="3" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D503" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="504" spans="2:5" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
       <c r="B504" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D504" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="505" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5">
       <c r="B505" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="506" spans="2:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
       <c r="B506" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="507" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5">
       <c r="B507" s="3">
+        <v>10</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="B508" s="3">
+        <v>11</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="B509" s="3">
         <v>12</v>
       </c>
-      <c r="C507" s="3" t="s">
+      <c r="C509" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E509" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D507" s="3" t="s">
+    </row>
+    <row r="510" spans="1:5">
+      <c r="B510" s="3">
+        <v>13</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D510" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E507" s="3" t="s">
+      <c r="E510" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="508" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B508" s="3">
-        <v>13</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E508" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="509" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B509" s="3">
+    <row r="511" spans="1:5">
+      <c r="B511" s="3">
         <v>14</v>
       </c>
-      <c r="C509" s="3" t="s">
+      <c r="C511" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D509" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="510" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B510" s="3">
-        <v>15</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D510" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E510" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="511" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B511" s="3">
-        <v>16</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="D511" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="512" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5">
       <c r="B512" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="513" spans="2:5" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5">
       <c r="B513" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D513" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="514" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:5">
       <c r="B514" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D514" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="515" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:5">
       <c r="B515" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D515" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="516" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:5">
       <c r="B516" s="3">
+        <v>19</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="517" spans="2:5">
+      <c r="B517" s="3">
+        <v>20</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5">
+      <c r="B518" s="3">
         <v>21</v>
       </c>
-      <c r="C516" s="3" t="s">
+      <c r="C518" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D516" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="517" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B517" s="3">
-        <v>22</v>
-      </c>
-      <c r="C517" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="518" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B518" s="3">
-        <v>23</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="D518" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="519" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:5">
       <c r="B519" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="520" spans="2:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="520" spans="2:5">
       <c r="B520" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D520" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="521" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:5">
       <c r="B521" s="3">
+        <v>24</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5">
+      <c r="B522" s="3">
+        <v>25</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5">
+      <c r="B523" s="3">
         <v>26</v>
       </c>
-      <c r="C521" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D521" s="3" t="s">
+      <c r="C523" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D523" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E521" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="522" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B522" s="3">
+      <c r="E523" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5">
+      <c r="B524" s="3">
         <v>27</v>
       </c>
-      <c r="C522" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D522" s="3" t="s">
+      <c r="C524" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D524" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="523" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B523" s="3">
+    <row r="525" spans="2:5">
+      <c r="B525" s="3">
         <v>28</v>
       </c>
-      <c r="C523" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="524" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B524" s="3">
-        <v>29</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D524" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="525" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B525" s="3">
-        <v>30</v>
-      </c>
       <c r="C525" s="3" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D525" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="526" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:5">
       <c r="B526" s="3">
+        <v>29</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5">
+      <c r="B527" s="3">
+        <v>30</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5">
+      <c r="B528" s="3">
         <v>31</v>
       </c>
-      <c r="C526" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D526" s="3" t="s">
+      <c r="C528" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D528" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="527" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B527" s="3">
+    <row r="529" spans="2:5">
+      <c r="B529" s="3">
         <v>32</v>
       </c>
-      <c r="C527" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D527" s="3" t="s">
+      <c r="C529" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D529" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="528" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B528" s="3">
+    <row r="530" spans="2:5">
+      <c r="B530" s="3">
         <v>33</v>
       </c>
-      <c r="C528" s="3" t="s">
+      <c r="C530" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D528" s="3" t="s">
+      <c r="D530" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="529" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B529" s="3">
+    <row r="531" spans="2:5">
+      <c r="B531" s="3">
         <v>34</v>
       </c>
-      <c r="C529" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D529" s="3" t="s">
+      <c r="C531" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="532" spans="2:5">
+      <c r="B532" s="3">
+        <v>35</v>
+      </c>
+      <c r="C532" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="530" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B530" s="3">
-        <v>35</v>
-      </c>
-      <c r="C530" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D530" s="3" t="s">
+      <c r="D532" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="531" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B531" s="3">
+    <row r="533" spans="2:5">
+      <c r="B533" s="3">
         <v>36</v>
       </c>
-      <c r="C531" s="3" t="s">
+      <c r="C533" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="532" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B532" s="3">
-        <v>37</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D532" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="533" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B533" s="3">
-        <v>38</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="D533" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="534" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:5">
       <c r="B534" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="535" spans="2:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5">
       <c r="B535" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="D535" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="536" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:5">
       <c r="B536" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E536" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="537" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="537" spans="2:5">
       <c r="B537" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D537" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="538" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:5">
       <c r="B538" s="3">
+        <v>41</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="539" spans="2:5">
+      <c r="B539" s="3">
+        <v>42</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="540" spans="2:5">
+      <c r="B540" s="3">
         <v>43</v>
       </c>
-      <c r="C538" s="3" t="s">
+      <c r="C540" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D538" s="3" t="s">
+      <c r="D540" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="539" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B539" s="3">
+    <row r="541" spans="2:5">
+      <c r="B541" s="3">
         <v>44</v>
       </c>
-      <c r="C539" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D539" s="3" t="s">
+      <c r="C541" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D541" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="540" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B540" s="3">
+    <row r="542" spans="2:5">
+      <c r="B542" s="3">
         <v>45</v>
       </c>
-      <c r="C540" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D540" s="3" t="s">
+      <c r="C542" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D542" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E540" s="3" t="s">
+      <c r="E542" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="543" spans="2:5">
+      <c r="B543" s="7">
+        <v>46</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D543" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E543" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="541" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B541" s="7">
-        <v>46</v>
-      </c>
-      <c r="C541" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D541" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E541" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="542" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B542" s="3">
+    <row r="544" spans="2:5">
+      <c r="B544" s="3">
         <v>47</v>
       </c>
-      <c r="C542" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D542" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="543" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B543" s="3">
-        <v>48</v>
-      </c>
-      <c r="C543" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D543" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E543" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="544" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B544" s="3">
-        <v>49</v>
-      </c>
       <c r="C544" s="3" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="D544" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5">
       <c r="B545" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="D545" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A547" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="B546" s="3">
+        <v>49</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="B547" s="3">
+        <v>50</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="B551" s="3">
+        <v>1</v>
+      </c>
+      <c r="C551" s="3" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B549" s="3">
-        <v>1</v>
-      </c>
-      <c r="C549" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D549" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E549" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B550" s="3">
-        <v>2</v>
-      </c>
-      <c r="C550" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D550" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B551" s="3">
-        <v>3</v>
-      </c>
-      <c r="C551" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="D551" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
       <c r="B552" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
       <c r="B553" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C553" s="3" t="s">
         <v>401</v>
       </c>
       <c r="D553" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="B554" s="3">
+        <v>4</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D554" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B554" s="3">
-        <v>6</v>
-      </c>
-      <c r="C554" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D554" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E554" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5">
       <c r="B555" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C555" s="3" t="s">
         <v>400</v>
@@ -5218,64 +6300,89 @@
         <v>49</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5">
       <c r="B556" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E556" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
       <c r="B557" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D557" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5">
       <c r="B558" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
       <c r="B559" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D559" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.3"/>
+    <row r="560" spans="1:5">
+      <c r="B560" s="3">
+        <v>10</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="561" spans="2:4">
+      <c r="B561" s="3">
+        <v>11</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="563" spans="2:4"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D422:K422"/>
-    <mergeCell ref="D428:K428"/>
+    <mergeCell ref="D424:K424"/>
+    <mergeCell ref="D430:K430"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F170" r:id="rId1"/>
+    <hyperlink ref="F172" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5286,18 +6393,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J55"/>
+  <dimension ref="A2:T366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B359" sqref="B359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
@@ -5305,7 +6412,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -5313,221 +6420,2146 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="16" spans="1:8">
+      <c r="H16" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="17" spans="1:8">
+      <c r="H17" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F14" s="3" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F15" s="3" t="s">
+    <row r="19" spans="1:8">
+      <c r="H19" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="3" t="s">
+    <row r="20" spans="1:8">
+      <c r="H20" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="3" t="s">
+    <row r="21" spans="1:8">
+      <c r="H21" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="3" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="3" t="s">
+    <row r="26" spans="1:8">
+      <c r="B26" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E24" s="3" t="s">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8">
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="E38" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
+      <c r="G38" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="G39" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="G40" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="G41" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="E43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="G44" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="3" t="s">
+    <row r="45" spans="3:10">
+      <c r="G45" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E37" s="3" t="s">
+    <row r="46" spans="3:10">
+      <c r="G46" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G38" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G39" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G40" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E42" s="3" t="s">
+    </row>
+    <row r="47" spans="3:10">
+      <c r="G47" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="G48" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="4:11">
+      <c r="G49" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="4:11">
+      <c r="G50" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="52" spans="4:11">
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="4:11">
+      <c r="E53" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11">
+      <c r="G54" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11">
+      <c r="G55" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11">
+      <c r="G56" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11">
+      <c r="G57" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11">
+      <c r="G58" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11">
+      <c r="G59" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11">
+      <c r="D61" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11">
+      <c r="F63" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="B69" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="K69" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="B71" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="C73" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="D74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="F75" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="B77" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="C79" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="D80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="F81" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="D87" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="B89" s="20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="D91" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="D95" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="B97" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="C99" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="I99" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="D100" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="I100" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="D101" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="B104" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="C106" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G43" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G44" s="3" t="s">
+    </row>
+    <row r="107" spans="1:12">
+      <c r="D107" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="J107" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="D108" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="J108" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="D109" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="J109" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="B111" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="C113" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113"/>
+      <c r="I113" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="D114" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="J114" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="D115" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="J115" s="16" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="D116" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="J116" s="16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="C120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="D121" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="J121" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="D122" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="J122" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="D123" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="J123" s="16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="C127" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="C128" s="18"/>
+      <c r="D128" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="C129" s="18"/>
+      <c r="D129" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="C130" s="18"/>
+      <c r="D130" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="D132" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="D133" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="D134" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="D136" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="D137" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="D138" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="D139" s="22"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D140" s="22"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="D141" s="22"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="C142" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D142" s="22"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="D143" s="22"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="D144" s="22"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+    </row>
+    <row r="146" spans="1:1" s="2" customFormat="1">
+      <c r="A146" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="B164" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="C166" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="C168" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="C170" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="C173" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="D174" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="E174" s="18"/>
+      <c r="F174" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+      <c r="J175" s="18"/>
+      <c r="K175" s="18"/>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="18"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="18"/>
+    </row>
+    <row r="177" spans="4:11">
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
+    </row>
+    <row r="178" spans="4:11">
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
+    </row>
+    <row r="179" spans="4:11">
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+    </row>
+    <row r="180" spans="4:11">
+      <c r="D180" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+    </row>
+    <row r="181" spans="4:11">
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+    </row>
+    <row r="182" spans="4:11">
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="G182" s="18"/>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="18"/>
+    </row>
+    <row r="183" spans="4:11">
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="G183" s="18"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+    </row>
+    <row r="184" spans="4:11">
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="G184" s="18"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="18"/>
+    </row>
+    <row r="185" spans="4:11">
+      <c r="D185" s="18"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+    </row>
+    <row r="186" spans="4:11">
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+    </row>
+    <row r="187" spans="4:11">
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="G187" s="18"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="18"/>
+      <c r="J187" s="18"/>
+      <c r="K187" s="18"/>
+    </row>
+    <row r="188" spans="4:11">
+      <c r="D188" s="18"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18"/>
+      <c r="H188" s="18"/>
+      <c r="I188" s="18"/>
+      <c r="J188" s="18"/>
+      <c r="K188" s="18"/>
+    </row>
+    <row r="189" spans="4:11">
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+    </row>
+    <row r="190" spans="4:11">
+      <c r="D190" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="E190" s="18"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="18"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="18"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18"/>
+    </row>
+    <row r="191" spans="4:11">
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="18"/>
+    </row>
+    <row r="192" spans="4:11">
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="18"/>
+      <c r="K192" s="18"/>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="G193" s="18"/>
+      <c r="H193" s="18"/>
+      <c r="I193" s="18"/>
+      <c r="J193" s="18"/>
+      <c r="K193" s="18"/>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="D194" s="18"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="G194" s="18"/>
+      <c r="H194" s="18"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="18"/>
+      <c r="K194" s="18"/>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="G195" s="18"/>
+      <c r="H195" s="18"/>
+      <c r="I195" s="18"/>
+      <c r="J195" s="18"/>
+      <c r="K195" s="18"/>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="D196" s="18"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="G196" s="18"/>
+      <c r="H196" s="18"/>
+      <c r="I196" s="18"/>
+      <c r="J196" s="18"/>
+      <c r="K196" s="18"/>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="B199" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="D201" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="E201" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="B206" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="B208" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9">
+      <c r="B210" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9">
+      <c r="C212" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9">
+      <c r="C213" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9">
+      <c r="C215" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9">
+      <c r="C216" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9">
+      <c r="B219" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9">
+      <c r="C221" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9">
+      <c r="C222" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9">
+      <c r="C224" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="B227" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="18"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="18"/>
+      <c r="G228" s="18"/>
+      <c r="H228" s="18"/>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="C229" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="26"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="18"/>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="C230" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+      <c r="F230" s="26"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="C231" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+      <c r="F231" s="26"/>
+      <c r="G231" s="18"/>
+      <c r="H231" s="18"/>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="C233" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="D234" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="C235" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="C239" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="E240" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="F240" s="26"/>
+      <c r="G240" s="26"/>
+      <c r="H240" s="26"/>
+      <c r="I240" s="18"/>
+      <c r="J240" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="E241" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="F241" s="26"/>
+      <c r="G241" s="26"/>
+      <c r="H241" s="26"/>
+      <c r="I241" s="18"/>
+      <c r="J241" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="E242" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="F242" s="26"/>
+      <c r="G242" s="26"/>
+      <c r="H242" s="26"/>
+      <c r="I242" s="18"/>
+      <c r="J242" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="E243" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="F243" s="26"/>
+      <c r="G243" s="26"/>
+      <c r="H243" s="26"/>
+      <c r="I243" s="18"/>
+      <c r="J243" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="E244" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="F244" s="26"/>
+      <c r="G244" s="26"/>
+      <c r="H244" s="26"/>
+      <c r="I244" s="18"/>
+      <c r="J244" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="E245" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="F245" s="26"/>
+      <c r="G245" s="26"/>
+      <c r="H245" s="26"/>
+      <c r="I245" s="18"/>
+      <c r="J245" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="E246" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="F246" s="26"/>
+      <c r="G246" s="26"/>
+      <c r="H246" s="26"/>
+      <c r="I246" s="18"/>
+      <c r="J246" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="E247" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F247" s="26"/>
+      <c r="G247" s="26"/>
+      <c r="H247" s="26"/>
+      <c r="I247" s="18"/>
+      <c r="J247" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="E248" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="F248" s="26"/>
+      <c r="G248" s="26"/>
+      <c r="H248" s="26"/>
+      <c r="I248" s="18"/>
+      <c r="J248" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="C252" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="C254" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="C256" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16">
+      <c r="D258" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="E258" s="26"/>
+      <c r="F258" s="26"/>
+      <c r="G258" s="26"/>
+      <c r="H258" s="26"/>
+      <c r="I258" s="26"/>
+      <c r="J258" s="26"/>
+      <c r="K258" s="26"/>
+      <c r="L258" s="26"/>
+      <c r="M258" s="26"/>
+      <c r="N258" s="18"/>
+      <c r="O258" s="18"/>
+      <c r="P258" s="18"/>
+    </row>
+    <row r="259" spans="1:16">
+      <c r="D259" s="26"/>
+      <c r="E259" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="F259" s="26"/>
+      <c r="G259" s="26"/>
+      <c r="H259" s="26"/>
+      <c r="I259" s="26"/>
+      <c r="J259" s="26"/>
+      <c r="K259" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="L259" s="26"/>
+      <c r="M259" s="26"/>
+      <c r="N259" s="18"/>
+      <c r="O259" s="18"/>
+      <c r="P259" s="18"/>
+    </row>
+    <row r="260" spans="1:16">
+      <c r="D260" s="26"/>
+      <c r="E260" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="F260" s="26"/>
+      <c r="G260" s="26"/>
+      <c r="H260" s="26"/>
+      <c r="I260" s="26"/>
+      <c r="J260" s="26"/>
+      <c r="K260" s="26"/>
+      <c r="L260" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="M260" s="26"/>
+      <c r="N260" s="18"/>
+      <c r="O260" s="18"/>
+      <c r="P260" s="18"/>
+    </row>
+    <row r="261" spans="1:16">
+      <c r="D261" s="26"/>
+      <c r="E261" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="F261" s="26"/>
+      <c r="G261" s="26"/>
+      <c r="H261" s="26"/>
+      <c r="I261" s="26"/>
+      <c r="J261" s="26"/>
+      <c r="K261" s="26"/>
+      <c r="L261" s="26"/>
+      <c r="M261" s="26"/>
+      <c r="N261" s="18"/>
+      <c r="O261" s="18"/>
+      <c r="P261" s="18"/>
+    </row>
+    <row r="262" spans="1:16">
+      <c r="D262" s="26"/>
+      <c r="E262" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="F262" s="26"/>
+      <c r="G262" s="26"/>
+      <c r="H262" s="26"/>
+      <c r="I262" s="26"/>
+      <c r="J262" s="26"/>
+      <c r="K262" s="26"/>
+      <c r="L262" s="26"/>
+      <c r="M262" s="26"/>
+      <c r="N262" s="18"/>
+      <c r="O262" s="18"/>
+      <c r="P262" s="18"/>
+    </row>
+    <row r="263" spans="1:16">
+      <c r="D263" s="26"/>
+      <c r="E263" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="F263" s="26"/>
+      <c r="G263" s="26"/>
+      <c r="H263" s="26"/>
+      <c r="I263" s="26"/>
+      <c r="J263" s="26"/>
+      <c r="K263" s="26"/>
+      <c r="L263" s="26"/>
+      <c r="M263" s="26"/>
+      <c r="N263" s="18"/>
+      <c r="O263" s="18"/>
+      <c r="P263" s="18"/>
+    </row>
+    <row r="264" spans="1:16">
+      <c r="D264" s="26"/>
+      <c r="E264" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F264" s="26"/>
+      <c r="G264" s="26"/>
+      <c r="H264" s="26"/>
+      <c r="I264" s="26"/>
+      <c r="J264" s="26"/>
+      <c r="K264" s="26"/>
+      <c r="L264" s="26"/>
+      <c r="M264" s="26"/>
+      <c r="N264" s="18"/>
+      <c r="O264" s="18"/>
+      <c r="P264" s="18"/>
+    </row>
+    <row r="265" spans="1:16">
+      <c r="D265" s="26"/>
+      <c r="E265" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="F265" s="26"/>
+      <c r="G265" s="26"/>
+      <c r="H265" s="26"/>
+      <c r="I265" s="26"/>
+      <c r="J265" s="26"/>
+      <c r="K265" s="26"/>
+      <c r="L265" s="26"/>
+      <c r="M265" s="26"/>
+      <c r="N265" s="18"/>
+      <c r="O265" s="18"/>
+      <c r="P265" s="18"/>
+    </row>
+    <row r="266" spans="1:16">
+      <c r="D266" s="26"/>
+      <c r="E266" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="F266" s="26"/>
+      <c r="G266" s="26"/>
+      <c r="H266" s="26"/>
+      <c r="I266" s="26"/>
+      <c r="J266" s="26"/>
+      <c r="K266" s="26"/>
+      <c r="L266" s="26"/>
+      <c r="M266" s="26"/>
+      <c r="N266" s="18"/>
+      <c r="O266" s="18"/>
+      <c r="P266" s="18"/>
+    </row>
+    <row r="267" spans="1:16">
+      <c r="D267" s="26"/>
+      <c r="E267" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="F267" s="26"/>
+      <c r="G267" s="26"/>
+      <c r="H267" s="26"/>
+      <c r="I267" s="26"/>
+      <c r="J267" s="26"/>
+      <c r="K267" s="26"/>
+      <c r="L267" s="26"/>
+      <c r="M267" s="26"/>
+      <c r="N267" s="18"/>
+      <c r="O267" s="18"/>
+      <c r="P267" s="18"/>
+    </row>
+    <row r="268" spans="1:16">
+      <c r="D268" s="26"/>
+      <c r="E268" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F268" s="26"/>
+      <c r="G268" s="26"/>
+      <c r="H268" s="26"/>
+      <c r="I268" s="26"/>
+      <c r="J268" s="26"/>
+      <c r="K268" s="26"/>
+      <c r="L268" s="26"/>
+      <c r="M268" s="26"/>
+      <c r="N268" s="18"/>
+      <c r="O268" s="18"/>
+      <c r="P268" s="18"/>
+    </row>
+    <row r="269" spans="1:16">
+      <c r="D269" s="18"/>
+      <c r="E269" s="26"/>
+      <c r="F269" s="26"/>
+      <c r="G269" s="26"/>
+      <c r="H269" s="26"/>
+      <c r="I269" s="26"/>
+      <c r="J269" s="18"/>
+      <c r="K269" s="18"/>
+      <c r="L269" s="18"/>
+      <c r="M269" s="18"/>
+      <c r="N269" s="18"/>
+      <c r="O269" s="18"/>
+      <c r="P269" s="18"/>
+    </row>
+    <row r="270" spans="1:16">
+      <c r="A270" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16">
+      <c r="C272" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F272" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="G272" s="26"/>
+      <c r="H272" s="26"/>
+      <c r="I272" s="26"/>
+      <c r="J272" s="26"/>
+      <c r="K272" s="26"/>
+      <c r="L272" s="26"/>
+    </row>
+    <row r="273" spans="3:13">
+      <c r="F273" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G273" s="26"/>
+      <c r="H273" s="26"/>
+      <c r="I273" s="26"/>
+      <c r="J273" s="26"/>
+      <c r="K273" s="26"/>
+      <c r="L273" s="26"/>
+    </row>
+    <row r="274" spans="3:13">
+      <c r="F274" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G274" s="26"/>
+      <c r="H274" s="26"/>
+      <c r="I274" s="26"/>
+      <c r="J274" s="26"/>
+      <c r="K274" s="26"/>
+      <c r="L274" s="26"/>
+    </row>
+    <row r="276" spans="3:13">
+      <c r="C276" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="278" spans="3:13">
+      <c r="D278" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L278" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G45" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G46" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E48" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G49" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G50" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C53" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E55" s="3" t="s">
-        <v>453</v>
+    <row r="280" spans="3:13">
+      <c r="E280" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="281" spans="3:13">
+      <c r="F281" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="M281" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="282" spans="3:13">
+      <c r="E282" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284" spans="3:13">
+      <c r="L284" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="285" spans="3:13">
+      <c r="M285" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="286" spans="3:13">
+      <c r="L286" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="290" spans="3:20">
+      <c r="C290" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D290" s="13"/>
+      <c r="E290" s="13"/>
+      <c r="F290" s="13"/>
+      <c r="G290" s="13"/>
+      <c r="H290" s="13"/>
+      <c r="I290" s="13"/>
+      <c r="J290" s="13"/>
+      <c r="L290" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="291" spans="3:20">
+      <c r="C291" s="13"/>
+    </row>
+    <row r="292" spans="3:20">
+      <c r="C292" s="13"/>
+      <c r="D292" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E292" s="26"/>
+      <c r="F292" s="26"/>
+      <c r="G292" s="26"/>
+      <c r="H292" s="26"/>
+      <c r="I292" s="26"/>
+      <c r="J292" s="26"/>
+      <c r="L292" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="M292" s="13"/>
+      <c r="N292" s="13"/>
+      <c r="O292" s="13"/>
+      <c r="P292" s="13"/>
+      <c r="Q292" s="13"/>
+      <c r="R292" s="13"/>
+    </row>
+    <row r="293" spans="3:20">
+      <c r="C293" s="13"/>
+      <c r="D293" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="E293" s="26"/>
+      <c r="F293" s="26"/>
+      <c r="G293" s="26"/>
+      <c r="H293" s="26"/>
+      <c r="I293" s="26"/>
+      <c r="J293" s="26"/>
+      <c r="L293" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="M293" s="13"/>
+      <c r="N293" s="13"/>
+      <c r="O293" s="13"/>
+      <c r="P293" s="13"/>
+      <c r="Q293" s="13"/>
+      <c r="R293" s="13"/>
+      <c r="T293" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="294" spans="3:20">
+      <c r="C294" s="13"/>
+      <c r="D294" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E294" s="26"/>
+      <c r="F294" s="26"/>
+      <c r="G294" s="26"/>
+      <c r="H294" s="26"/>
+      <c r="I294" s="26"/>
+      <c r="J294" s="26"/>
+      <c r="L294" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="M294" s="13"/>
+      <c r="N294" s="13"/>
+      <c r="O294" s="13"/>
+      <c r="P294" s="13"/>
+      <c r="Q294" s="13"/>
+      <c r="R294" s="13"/>
+      <c r="T294" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="295" spans="3:20">
+      <c r="L295" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M295" s="13"/>
+      <c r="N295" s="13"/>
+      <c r="O295" s="13"/>
+      <c r="P295" s="13"/>
+      <c r="Q295" s="13"/>
+      <c r="R295" s="13"/>
+    </row>
+    <row r="296" spans="3:20">
+      <c r="D296" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E296" s="13"/>
+      <c r="F296" s="13"/>
+      <c r="G296" s="13"/>
+      <c r="H296" s="13"/>
+      <c r="I296" s="13"/>
+    </row>
+    <row r="297" spans="3:20">
+      <c r="D297" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="E297" s="13"/>
+      <c r="F297" s="13"/>
+      <c r="G297" s="13"/>
+      <c r="H297" s="13"/>
+      <c r="I297" s="13"/>
+      <c r="L297" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="M297" s="13"/>
+      <c r="N297" s="13"/>
+      <c r="O297" s="13"/>
+      <c r="P297" s="13"/>
+      <c r="Q297" s="13"/>
+      <c r="R297" s="13"/>
+      <c r="S297" s="13"/>
+      <c r="T297" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="298" spans="3:20">
+      <c r="D298" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="E298" s="13"/>
+      <c r="F298" s="13"/>
+      <c r="G298" s="13"/>
+      <c r="H298" s="13"/>
+      <c r="I298" s="13"/>
+      <c r="L298" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="M298" s="13"/>
+      <c r="N298" s="13"/>
+      <c r="O298" s="13"/>
+      <c r="P298" s="13"/>
+      <c r="Q298" s="13"/>
+      <c r="R298" s="13"/>
+      <c r="S298" s="13"/>
+    </row>
+    <row r="299" spans="3:20">
+      <c r="D299" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="E299" s="13"/>
+      <c r="F299" s="13"/>
+      <c r="G299" s="13"/>
+      <c r="H299" s="13"/>
+      <c r="I299" s="13"/>
+      <c r="L299" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M299" s="13"/>
+      <c r="N299" s="13"/>
+      <c r="O299" s="13"/>
+      <c r="P299" s="13"/>
+      <c r="Q299" s="13"/>
+      <c r="R299" s="13"/>
+      <c r="S299" s="13"/>
+    </row>
+    <row r="300" spans="3:20">
+      <c r="D300" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E300" s="13"/>
+      <c r="F300" s="13"/>
+      <c r="G300" s="13"/>
+      <c r="H300" s="13"/>
+      <c r="I300" s="13"/>
+      <c r="L300" s="13"/>
+      <c r="M300" s="13"/>
+      <c r="N300" s="13"/>
+      <c r="O300" s="13"/>
+      <c r="P300" s="13"/>
+      <c r="Q300" s="13"/>
+      <c r="R300" s="13"/>
+      <c r="S300" s="13"/>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="B307" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="C308" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="C311" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="B315" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="C317" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="D317" s="13"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="13"/>
+      <c r="G317" s="13"/>
+      <c r="H317" s="13"/>
+      <c r="I317" s="13"/>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="C318" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="13"/>
+      <c r="G318" s="13"/>
+      <c r="H318" s="13"/>
+      <c r="I318" s="13"/>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="C319" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="D319" s="13"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="13"/>
+      <c r="G319" s="13"/>
+      <c r="H319" s="13"/>
+      <c r="I319" s="13"/>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="C320" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="D320" s="13"/>
+      <c r="E320" s="13"/>
+      <c r="F320" s="13"/>
+      <c r="G320" s="13"/>
+      <c r="H320" s="13"/>
+      <c r="I320" s="13"/>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="C321" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="D321" s="13"/>
+      <c r="E321" s="13"/>
+      <c r="F321" s="13"/>
+      <c r="G321" s="13"/>
+      <c r="H321" s="13"/>
+      <c r="I321" s="13"/>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="C322" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="D322" s="13"/>
+      <c r="E322" s="13"/>
+      <c r="F322" s="13"/>
+      <c r="G322" s="13"/>
+      <c r="H322" s="13"/>
+      <c r="I322" s="13"/>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="C323" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D323" s="13"/>
+      <c r="E323" s="13"/>
+      <c r="F323" s="13"/>
+      <c r="G323" s="13"/>
+      <c r="H323" s="13"/>
+      <c r="I323" s="13"/>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="C325" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D325" s="29" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="D326"/>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="D327" s="29" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="D328"/>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="D329" s="29" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" s="30" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="B333" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="E335" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="D336" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" s="6" customFormat="1">
+      <c r="A340" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="3">
+        <v>1</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="3">
+        <v>2</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="3">
+        <v>3</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="3">
+        <v>4</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="3">
+        <v>5</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="3">
+        <v>6</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="3">
+        <v>7</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="3">
+        <v>8</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="3">
+        <v>9</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="3">
+        <v>10</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="3">
+        <v>11</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="3">
+        <v>12</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="3">
+        <v>13</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="3">
+        <v>14</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="3">
+        <v>15</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="3">
+        <v>16</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="3">
+        <v>17</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="3">
+        <v>18</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="3">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
     <sheet name="2.Data type" sheetId="2" r:id="rId2"/>
+    <sheet name="3. Java API" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="812">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -2086,9 +2087,6 @@
     <t>System.out.print("blo")</t>
   </si>
   <si>
-    <t xml:space="preserve">Cấu trúc tổng quát : </t>
-  </si>
-  <si>
     <t>for(initialization; booleanExpression; updateStatement) {</t>
   </si>
   <si>
@@ -2328,12 +2326,545 @@
   <si>
     <t>Lệnh này vẫn compile thành công (x &gt; 2 ? x &lt; 4 ? 10 : 8 : 7)</t>
   </si>
+  <si>
+    <t>A, D</t>
+  </si>
+  <si>
+    <t>toán tử " &gt;= " chỉ sử dụng được với số</t>
+  </si>
+  <si>
+    <t>A, B, D</t>
+  </si>
+  <si>
+    <t>Có 3 kiểu tự động được cast về là int, long, double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có thể case tường minh từ long về int </t>
+  </si>
+  <si>
+    <t>B, C, D, F</t>
+  </si>
+  <si>
+    <t>Trả lời</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đáp án </t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Giải thích</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý cấu trúc của if-else, có thể ko có ngoặc </t>
+  </si>
+  <si>
+    <t>Toán tử tenary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko yêu cầu ngoặc để phân cách mệnh đề </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tức là khai báo sau vẫn compile OK và chạy OK : </t>
+  </si>
+  <si>
+    <r>
+      <t>System.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println(x &gt; 2 ? x &lt; 4 ? 10 : 8 : 7);</t>
+    </r>
+  </si>
+  <si>
+    <t>15. Tricky tip</t>
+  </si>
+  <si>
+    <t>int y = 20;</t>
+  </si>
+  <si>
+    <t>x = ( y!= 10) ^ ( z = false);</t>
+  </si>
+  <si>
+    <t>boolean z = true;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// z = false không phải là lỗi compile khi so sánh boolean </t>
+  </si>
+  <si>
+    <t>boolean x = false</t>
+  </si>
+  <si>
+    <t>// Mà đây là lệnh gán z = fase, Ở đây y!= 10 nên return x = true</t>
+  </si>
+  <si>
+    <t>Tricky đây là lệnh gán đã nói ở trên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Cấu trúc tổng quát : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Các thành phần bắt buộc phải có : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Các thành phần optional : </t>
+  </si>
+  <si>
+    <t>initialization, booleanEx</t>
+  </si>
+  <si>
+    <t>bắt buộc phải có 2 dấu ;</t>
+  </si>
+  <si>
+    <t>Ở đây ko có câu lệnh update, Nhưng compile OK vì câu lệnh update là optional, Do vậy mỗi vòng lặp thì I vẫn = 0, mặc dù đã tăng giá trị lên 1, Do vậy đây là vòng lặp vô hạn</t>
+  </si>
+  <si>
+    <t>Khai báo cast sai, Cast đúng phải là (byte) (a + b)</t>
+  </si>
+  <si>
+    <t>Phép chia lấy phần dư 20 % 3 = 18 và phần dư là 2</t>
+  </si>
+  <si>
+    <t>Code compile,  câu lệnh if-else đúng</t>
+  </si>
+  <si>
+    <t>Có thể do chọn nhầm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉ lệ : </t>
+  </si>
+  <si>
+    <t>Kiểu dữ liệu trong switch và case phải giống nhau:</t>
+  </si>
+  <si>
+    <t>switch (x) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Như này vẫn đúng vì đúng kiểu dl </t>
+  </si>
+  <si>
+    <t>char x = 'D'; char y = 'F';</t>
+  </si>
+  <si>
+    <t>case 'E' : break;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case y : break; </t>
+  </si>
+  <si>
+    <t>// y có cùng kiểu dl char nên compile OK</t>
+  </si>
+  <si>
+    <t>Số câu đúng : 9/20</t>
+  </si>
+  <si>
+    <t>Bài test 2 :  OCA Practice Test</t>
+  </si>
+  <si>
+    <t>Câu</t>
+  </si>
+  <si>
+    <t>Chap 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D </t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Số câu đúng :</t>
+  </si>
+  <si>
+    <t>32/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉ lệ đúng : </t>
+  </si>
+  <si>
+    <t>Lưu ý là switch case chỉ không hỗ trợ kiểu dl double, Float vẫn hố trợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý cấu trúc if else chỉ có 1 else </t>
+  </si>
+  <si>
+    <t>Lưu ý ở đây chỉ có 1 câu trả lời, chứ ko phải chọn multi câu trả lời</t>
+  </si>
+  <si>
+    <t>Lưu ý : giá trị trong case phải là final ( phải là kiểu dữ liệu nguyên thủy hoặc là biến final).  Cho phép case "a" + "c" hoặc case 1 + 2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giá trị trong case phải là final ( phải là kiểu dữ liệu nguyên thủy hoặc là biến final).</t>
+  </si>
+  <si>
+    <t>case "a" + "c"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> case 1 + 2:</t>
+  </si>
+  <si>
+    <t>case new String("hello"):</t>
+  </si>
+  <si>
+    <t>case new Integer(1) :</t>
+  </si>
+  <si>
+    <t>Kiểu dl trong switch không được phép là double, còn lại tất cả các kiểu dl nguyên thủy đều OK, kể cả float</t>
+  </si>
+  <si>
+    <t>Không đọc kĩ câu hỏi</t>
+  </si>
+  <si>
+    <t>1. Tạo và thao tác với cuỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy tắc cộng chuỗi : </t>
+  </si>
+  <si>
+    <t>Nếu tất cả các toán hạng là số -&gt; Nghĩa là cộng số</t>
+  </si>
+  <si>
+    <t>Nếu bất kì toán hạng nào là String -&gt; Nghĩa là cộng chuỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu thức được thực hiện từ trái sang phải </t>
+  </si>
+  <si>
+    <t>2. String is immutable</t>
+  </si>
+  <si>
+    <t>String là immutable nhưng cho phép thay đổi giá trị s tới một địa chỉ String khác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    String s;</t>
+  </si>
+  <si>
+    <t>public class Test2 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void setString(String changeValue){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        s = changeValue;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    String getString(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return this.s;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Test2 test2 = new Test2();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        test2.s = "original";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        test2.setString("update");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(test2.getString());</t>
+  </si>
+  <si>
+    <t>Kêt quả : update</t>
+  </si>
+  <si>
+    <t>Nếu đặt tên class là final, Thì các subclass ko thể có các hành vi mutable</t>
+  </si>
+  <si>
+    <t>public final class Test2 {}</t>
+  </si>
+  <si>
+    <t>3. Các phương thức của String</t>
+  </si>
+  <si>
+    <t>indexOf()</t>
+  </si>
+  <si>
+    <t>int indexOf( char c)</t>
+  </si>
+  <si>
+    <t>int indexOf( String s)</t>
+  </si>
+  <si>
+    <t>int indexOf( char c, int fromIndex)</t>
+  </si>
+  <si>
+    <t>int indexOf( String s, int fromIndex)</t>
+  </si>
+  <si>
+    <t>System.out.println(string.indexOf('a')); // 0</t>
+  </si>
+  <si>
+    <t>System.out.println(string.indexOf("al")); // 4</t>
+  </si>
+  <si>
+    <t>System.out.println(string.indexOf('a', 4)); // 4</t>
+  </si>
+  <si>
+    <t>System.out.println(string.indexOf("al", 5)); // -1</t>
+  </si>
+  <si>
+    <t>subString()</t>
+  </si>
+  <si>
+    <t>subString(int beginIndex)</t>
+  </si>
+  <si>
+    <t>subString(int beginIndex, int endIndex)</t>
+  </si>
+  <si>
+    <t>Tricky hàm subString( int beginIndex, int endIndex);</t>
+  </si>
+  <si>
+    <t>String string = "animals";</t>
+  </si>
+  <si>
+    <t>System.out.println(string.substring(3, 4)); // m</t>
+  </si>
+  <si>
+    <t>System.out.println(string.substring(3,3)); // EmptyString</t>
+  </si>
+  <si>
+    <t>4. StringBuilder</t>
+  </si>
+  <si>
+    <t>append()</t>
+  </si>
+  <si>
+    <t>insert()</t>
+  </si>
+  <si>
+    <t>StringBuilder insert(int offset, String str)</t>
+  </si>
+  <si>
+    <t>StringBuilder sb = new StringBuilder("animals");</t>
+  </si>
+  <si>
+    <t>sb.insert(4, "-");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm ở kí tự trước 4 </t>
+  </si>
+  <si>
+    <t>delete()</t>
+  </si>
+  <si>
+    <t>StringBuilder delete( int start, int end);</t>
+  </si>
+  <si>
+    <t>StringBuilder deleteCharAt( int index);</t>
+  </si>
+  <si>
+    <t>Xóa ở kí tự trước end</t>
+  </si>
+  <si>
+    <t>sb.delete( 1, 3);</t>
+  </si>
+  <si>
+    <t>Xóa ở vị trí từ 1 đến trước 3</t>
+  </si>
+  <si>
+    <t>StringBuilde sb = new StringBuilder("abcdef");</t>
+  </si>
+  <si>
+    <t>Kết quả: adef</t>
+  </si>
+  <si>
+    <t>5. Bằng nhau về địa chỉ ô nhớ và giá trị của String</t>
+  </si>
+  <si>
+    <t>StringBuilder one = new StringBuilder();</t>
+  </si>
+  <si>
+    <t>StringBuilder three = one.append("hello");</t>
+  </si>
+  <si>
+    <t>System.out.println(one == three);</t>
+  </si>
+  <si>
+    <t>System.out.println(one);</t>
+  </si>
+  <si>
+    <t>System.out.println(three);</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>6. Java arrays</t>
+  </si>
+  <si>
+    <t>Khai báo mảng hợp lệ:</t>
+  </si>
+  <si>
+    <t>int nums = {42, 55, 99};</t>
+  </si>
+  <si>
+    <t>int [] numAnimals;</t>
+  </si>
+  <si>
+    <t>int[] numAnimals2;</t>
+  </si>
+  <si>
+    <t>int numAnimals3 [];</t>
+  </si>
+  <si>
+    <t>int numAnimals4   [];</t>
+  </si>
+  <si>
+    <t>int num2 = new int [] {1,2,3}</t>
+  </si>
+  <si>
+    <t>So sánh địa chỉ tham chiểu của mảng</t>
+  </si>
+  <si>
+    <t>String [] bugs = {"cricket", "beetle", "ladybug"};</t>
+  </si>
+  <si>
+    <t>String [] alias = bugs;</t>
+  </si>
+  <si>
+    <t>System.out.println(bugs == alias);</t>
+  </si>
+  <si>
+    <t>System.out.println(bugs.equals(alias));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String names [ ]; </t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Giá trị mặc định của mảng</t>
+  </si>
+  <si>
+    <t>class Names {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết quả: </t>
+  </si>
+  <si>
+    <t>anim-als</t>
+  </si>
+  <si>
+    <t>Xóa ở vị trí từ index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuy nhiên, lưu ý : </t>
+  </si>
+  <si>
+    <t>String names [ ] = new String [2];</t>
+  </si>
+  <si>
+    <t>Stream.of(names).forEach(System.out::println)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mảng names là một String object</t>
+  </si>
+  <si>
+    <t>tuy nhiên 2 phần tử trong mảng là null</t>
+  </si>
+  <si>
+    <t>[Ljava.lang.String;@49e4cb85</t>
+  </si>
+  <si>
+    <t>public static void main(String [ ] args ) {</t>
+  </si>
+  <si>
+    <t>String names [ ] = new Names().names;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khai báo mảng, phần tử mảng ko hợp lệ:  </t>
+  </si>
+  <si>
+    <t>String [ ] strings = { " stringValue" };</t>
+  </si>
+  <si>
+    <t>Object [ ] objects = strings ;</t>
+  </si>
+  <si>
+    <t>String [ ] againStrings = (String [ ] ) objects;</t>
+  </si>
+  <si>
+    <t>Khai báo mảng String hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko cần cast tường minh vì Object rộng hơn String </t>
+  </si>
+  <si>
+    <t>Cần cast tường minh từ kiểu dl lớn hơn về kiểu dl nhỏ hơn ( Object về String)</t>
+  </si>
+  <si>
+    <t>againStrings [ 0 ] = new StringBuilder()</t>
+  </si>
+  <si>
+    <t>// Lỗi compile vì againString [0 ] chỉ cho phép là String object, StringBuilder ko phải là String object</t>
+  </si>
+  <si>
+    <t>objects [ 0 ] = new StringBuilder();</t>
+  </si>
+  <si>
+    <t>// Compile OK nhưng sẽ báo lỗi ArrayStoreExxception. Vì String [ ] Trỏ tới 1 Object [ ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int[] numbers = {2,4,6,8};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         System.out.println(Arrays.binarySearch(numbers, 2)); // 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         System.out.println(Arrays.binarySearch(numbers, 4)); // 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         System.out.println(Arrays.binarySearch(numbers, 1)); // -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(Arrays.binarySearch(numbers, 3)); // -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(Arrays.binarySearch(numbers, 9)); // -5</t>
+  </si>
+  <si>
+    <t>// 1 nằm ở vị trí index 0 trong mảng, nên kết quả là -1</t>
+  </si>
+  <si>
+    <t>// 3 nằm ở vị trí index 1 trong mảng, nên kết quả là -1 -1 = -2</t>
+  </si>
+  <si>
+    <t>// 9 nằm ở vị trí index 4 trong mảng, nên kết quả là -1 -4 = -5</t>
+  </si>
+  <si>
+    <t>7. Tìm kiếm phần tử trong mảng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2535,13 +3066,64 @@
       <color rgb="FF231F20"/>
       <name val="SourceCodePro-Regular"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="SourceCodePro-Regular"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2557,7 +3139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2602,12 +3184,55 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2718,8 +3343,8 @@
       <xdr:rowOff>161519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>94356</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>455649</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>136615</xdr:rowOff>
     </xdr:to>
@@ -4824,16 +5449,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="28" t="s">
+      <c r="D424" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="28"/>
-      <c r="F424" s="28"/>
-      <c r="G424" s="28"/>
-      <c r="H424" s="28"/>
-      <c r="I424" s="28"/>
-      <c r="J424" s="28"/>
-      <c r="K424" s="28"/>
+      <c r="E424" s="46"/>
+      <c r="F424" s="46"/>
+      <c r="G424" s="46"/>
+      <c r="H424" s="46"/>
+      <c r="I424" s="46"/>
+      <c r="J424" s="46"/>
+      <c r="K424" s="46"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -4900,16 +5525,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="28" t="s">
+      <c r="D430" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="28"/>
-      <c r="F430" s="28"/>
-      <c r="G430" s="28"/>
-      <c r="H430" s="28"/>
-      <c r="I430" s="28"/>
-      <c r="J430" s="28"/>
-      <c r="K430" s="28"/>
+      <c r="E430" s="46"/>
+      <c r="F430" s="46"/>
+      <c r="G430" s="46"/>
+      <c r="H430" s="46"/>
+      <c r="I430" s="46"/>
+      <c r="J430" s="46"/>
+      <c r="K430" s="46"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -6393,15 +7018,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T366"/>
+  <dimension ref="A2:T448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B359" sqref="B359"/>
+    <sheetView topLeftCell="A386" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M410" sqref="M410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -7094,7 +7722,7 @@
     </row>
     <row r="140" spans="2:8">
       <c r="B140" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D140" s="22"/>
       <c r="E140" s="18"/>
@@ -7107,7 +7735,7 @@
     </row>
     <row r="142" spans="2:8">
       <c r="C142" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D142" s="22"/>
       <c r="E142" s="18"/>
@@ -7705,856 +8333,1941 @@
         <v>0</v>
       </c>
     </row>
+    <row r="249" spans="1:10">
+      <c r="A249" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E249" s="25"/>
+      <c r="F249" s="26"/>
+      <c r="G249" s="26"/>
+      <c r="H249" s="26"/>
+      <c r="I249" s="18"/>
+    </row>
     <row r="250" spans="1:10">
-      <c r="A250" s="2" t="s">
+      <c r="B250" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E250" s="25"/>
+      <c r="F250" s="26"/>
+      <c r="G250" s="26"/>
+      <c r="H250" s="26"/>
+      <c r="I250" s="18"/>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="E251" s="25"/>
+      <c r="F251" s="26"/>
+      <c r="G251" s="26"/>
+      <c r="H251" s="26"/>
+      <c r="I251" s="18"/>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="B252" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="C254" s="13"/>
+      <c r="D254" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="13"/>
+      <c r="H254" s="13"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="13"/>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="C255" s="13"/>
+      <c r="D255" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="13"/>
+      <c r="H255" s="13"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="13"/>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
-      <c r="C252" s="3" t="s">
+    <row r="258" spans="3:10">
+      <c r="C258" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
-      <c r="C254" s="3" t="s">
+    <row r="260" spans="3:10">
+      <c r="C260" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
-      <c r="C256" s="3" t="s">
+    <row r="262" spans="3:10">
+      <c r="C262" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="3:10">
+      <c r="D264" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="265" spans="3:10">
+      <c r="F265" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="266" spans="3:10">
+      <c r="F266" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="267" spans="3:10">
+      <c r="G267" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="268" spans="3:10">
+      <c r="G268" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="270" spans="3:10">
+      <c r="C270" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="272" spans="3:10">
+      <c r="C272" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="273" spans="3:16">
+      <c r="D273" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="274" spans="3:16">
+      <c r="E274" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="275" spans="3:16">
+      <c r="E275" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="278" spans="3:16">
+      <c r="F278" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="279" spans="3:16">
+      <c r="C279" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
-      <c r="D258" s="26" t="s">
+    <row r="281" spans="3:16">
+      <c r="D281" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="E258" s="26"/>
-      <c r="F258" s="26"/>
-      <c r="G258" s="26"/>
-      <c r="H258" s="26"/>
-      <c r="I258" s="26"/>
-      <c r="J258" s="26"/>
-      <c r="K258" s="26"/>
-      <c r="L258" s="26"/>
-      <c r="M258" s="26"/>
-      <c r="N258" s="18"/>
-      <c r="O258" s="18"/>
-      <c r="P258" s="18"/>
-    </row>
-    <row r="259" spans="1:16">
-      <c r="D259" s="26"/>
-      <c r="E259" s="25" t="s">
+      <c r="E281" s="26"/>
+      <c r="F281" s="26"/>
+      <c r="G281" s="26"/>
+      <c r="H281" s="26"/>
+      <c r="I281" s="26"/>
+      <c r="J281" s="26"/>
+      <c r="K281" s="26"/>
+      <c r="L281" s="26"/>
+      <c r="M281" s="26"/>
+      <c r="N281" s="18"/>
+      <c r="O281" s="18"/>
+      <c r="P281" s="18"/>
+    </row>
+    <row r="282" spans="3:16">
+      <c r="D282" s="26"/>
+      <c r="E282" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="F259" s="26"/>
-      <c r="G259" s="26"/>
-      <c r="H259" s="26"/>
-      <c r="I259" s="26"/>
-      <c r="J259" s="26"/>
-      <c r="K259" s="26" t="s">
+      <c r="F282" s="26"/>
+      <c r="G282" s="26"/>
+      <c r="H282" s="26"/>
+      <c r="I282" s="26"/>
+      <c r="J282" s="26"/>
+      <c r="K282" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="L259" s="26"/>
-      <c r="M259" s="26"/>
-      <c r="N259" s="18"/>
-      <c r="O259" s="18"/>
-      <c r="P259" s="18"/>
-    </row>
-    <row r="260" spans="1:16">
-      <c r="D260" s="26"/>
-      <c r="E260" s="25" t="s">
+      <c r="L282" s="26"/>
+      <c r="M282" s="26"/>
+      <c r="N282" s="18"/>
+      <c r="O282" s="18"/>
+      <c r="P282" s="18"/>
+    </row>
+    <row r="283" spans="3:16">
+      <c r="D283" s="26"/>
+      <c r="E283" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="F260" s="26"/>
-      <c r="G260" s="26"/>
-      <c r="H260" s="26"/>
-      <c r="I260" s="26"/>
-      <c r="J260" s="26"/>
-      <c r="K260" s="26"/>
-      <c r="L260" s="26" t="s">
+      <c r="F283" s="26"/>
+      <c r="G283" s="26"/>
+      <c r="H283" s="26"/>
+      <c r="I283" s="26"/>
+      <c r="J283" s="26"/>
+      <c r="K283" s="26"/>
+      <c r="L283" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="M260" s="26"/>
-      <c r="N260" s="18"/>
-      <c r="O260" s="18"/>
-      <c r="P260" s="18"/>
-    </row>
-    <row r="261" spans="1:16">
-      <c r="D261" s="26"/>
-      <c r="E261" s="25" t="s">
+      <c r="M283" s="26"/>
+      <c r="N283" s="18"/>
+      <c r="O283" s="18"/>
+      <c r="P283" s="18"/>
+    </row>
+    <row r="284" spans="3:16">
+      <c r="D284" s="26"/>
+      <c r="E284" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="F261" s="26"/>
-      <c r="G261" s="26"/>
-      <c r="H261" s="26"/>
-      <c r="I261" s="26"/>
-      <c r="J261" s="26"/>
-      <c r="K261" s="26"/>
-      <c r="L261" s="26"/>
-      <c r="M261" s="26"/>
-      <c r="N261" s="18"/>
-      <c r="O261" s="18"/>
-      <c r="P261" s="18"/>
-    </row>
-    <row r="262" spans="1:16">
-      <c r="D262" s="26"/>
-      <c r="E262" s="25" t="s">
+      <c r="F284" s="26"/>
+      <c r="G284" s="26"/>
+      <c r="H284" s="26"/>
+      <c r="I284" s="26"/>
+      <c r="J284" s="26"/>
+      <c r="K284" s="26"/>
+      <c r="L284" s="26"/>
+      <c r="M284" s="26"/>
+      <c r="N284" s="18"/>
+      <c r="O284" s="18"/>
+      <c r="P284" s="18"/>
+    </row>
+    <row r="285" spans="3:16">
+      <c r="D285" s="26"/>
+      <c r="E285" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="F262" s="26"/>
-      <c r="G262" s="26"/>
-      <c r="H262" s="26"/>
-      <c r="I262" s="26"/>
-      <c r="J262" s="26"/>
-      <c r="K262" s="26"/>
-      <c r="L262" s="26"/>
-      <c r="M262" s="26"/>
-      <c r="N262" s="18"/>
-      <c r="O262" s="18"/>
-      <c r="P262" s="18"/>
-    </row>
-    <row r="263" spans="1:16">
-      <c r="D263" s="26"/>
-      <c r="E263" s="25" t="s">
+      <c r="F285" s="26"/>
+      <c r="G285" s="26"/>
+      <c r="H285" s="26"/>
+      <c r="I285" s="26"/>
+      <c r="J285" s="26"/>
+      <c r="K285" s="26"/>
+      <c r="L285" s="26"/>
+      <c r="M285" s="26"/>
+      <c r="N285" s="18"/>
+      <c r="O285" s="18"/>
+      <c r="P285" s="18"/>
+    </row>
+    <row r="286" spans="3:16">
+      <c r="D286" s="26"/>
+      <c r="E286" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="F263" s="26"/>
-      <c r="G263" s="26"/>
-      <c r="H263" s="26"/>
-      <c r="I263" s="26"/>
-      <c r="J263" s="26"/>
-      <c r="K263" s="26"/>
-      <c r="L263" s="26"/>
-      <c r="M263" s="26"/>
-      <c r="N263" s="18"/>
-      <c r="O263" s="18"/>
-      <c r="P263" s="18"/>
-    </row>
-    <row r="264" spans="1:16">
-      <c r="D264" s="26"/>
-      <c r="E264" s="25" t="s">
+      <c r="F286" s="26"/>
+      <c r="G286" s="26"/>
+      <c r="H286" s="26"/>
+      <c r="I286" s="26"/>
+      <c r="J286" s="26"/>
+      <c r="K286" s="26"/>
+      <c r="L286" s="26"/>
+      <c r="M286" s="26"/>
+      <c r="N286" s="18"/>
+      <c r="O286" s="18"/>
+      <c r="P286" s="18"/>
+    </row>
+    <row r="287" spans="3:16">
+      <c r="D287" s="26"/>
+      <c r="E287" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="F264" s="26"/>
-      <c r="G264" s="26"/>
-      <c r="H264" s="26"/>
-      <c r="I264" s="26"/>
-      <c r="J264" s="26"/>
-      <c r="K264" s="26"/>
-      <c r="L264" s="26"/>
-      <c r="M264" s="26"/>
-      <c r="N264" s="18"/>
-      <c r="O264" s="18"/>
-      <c r="P264" s="18"/>
-    </row>
-    <row r="265" spans="1:16">
-      <c r="D265" s="26"/>
-      <c r="E265" s="25" t="s">
+      <c r="F287" s="26"/>
+      <c r="G287" s="26"/>
+      <c r="H287" s="26"/>
+      <c r="I287" s="26"/>
+      <c r="J287" s="26"/>
+      <c r="K287" s="26"/>
+      <c r="L287" s="26"/>
+      <c r="M287" s="26"/>
+      <c r="N287" s="18"/>
+      <c r="O287" s="18"/>
+      <c r="P287" s="18"/>
+    </row>
+    <row r="288" spans="3:16">
+      <c r="D288" s="26"/>
+      <c r="E288" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="F265" s="26"/>
-      <c r="G265" s="26"/>
-      <c r="H265" s="26"/>
-      <c r="I265" s="26"/>
-      <c r="J265" s="26"/>
-      <c r="K265" s="26"/>
-      <c r="L265" s="26"/>
-      <c r="M265" s="26"/>
-      <c r="N265" s="18"/>
-      <c r="O265" s="18"/>
-      <c r="P265" s="18"/>
-    </row>
-    <row r="266" spans="1:16">
-      <c r="D266" s="26"/>
-      <c r="E266" s="25" t="s">
+      <c r="F288" s="26"/>
+      <c r="G288" s="26"/>
+      <c r="H288" s="26"/>
+      <c r="I288" s="26"/>
+      <c r="J288" s="26"/>
+      <c r="K288" s="26"/>
+      <c r="L288" s="26"/>
+      <c r="M288" s="26"/>
+      <c r="N288" s="18"/>
+      <c r="O288" s="18"/>
+      <c r="P288" s="18"/>
+    </row>
+    <row r="289" spans="1:16">
+      <c r="D289" s="26"/>
+      <c r="E289" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="F266" s="26"/>
-      <c r="G266" s="26"/>
-      <c r="H266" s="26"/>
-      <c r="I266" s="26"/>
-      <c r="J266" s="26"/>
-      <c r="K266" s="26"/>
-      <c r="L266" s="26"/>
-      <c r="M266" s="26"/>
-      <c r="N266" s="18"/>
-      <c r="O266" s="18"/>
-      <c r="P266" s="18"/>
-    </row>
-    <row r="267" spans="1:16">
-      <c r="D267" s="26"/>
-      <c r="E267" s="25" t="s">
+      <c r="F289" s="26"/>
+      <c r="G289" s="26"/>
+      <c r="H289" s="26"/>
+      <c r="I289" s="26"/>
+      <c r="J289" s="26"/>
+      <c r="K289" s="26"/>
+      <c r="L289" s="26"/>
+      <c r="M289" s="26"/>
+      <c r="N289" s="18"/>
+      <c r="O289" s="18"/>
+      <c r="P289" s="18"/>
+    </row>
+    <row r="290" spans="1:16">
+      <c r="D290" s="26"/>
+      <c r="E290" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="F267" s="26"/>
-      <c r="G267" s="26"/>
-      <c r="H267" s="26"/>
-      <c r="I267" s="26"/>
-      <c r="J267" s="26"/>
-      <c r="K267" s="26"/>
-      <c r="L267" s="26"/>
-      <c r="M267" s="26"/>
-      <c r="N267" s="18"/>
-      <c r="O267" s="18"/>
-      <c r="P267" s="18"/>
-    </row>
-    <row r="268" spans="1:16">
-      <c r="D268" s="26"/>
-      <c r="E268" s="25" t="s">
+      <c r="F290" s="26"/>
+      <c r="G290" s="26"/>
+      <c r="H290" s="26"/>
+      <c r="I290" s="26"/>
+      <c r="J290" s="26"/>
+      <c r="K290" s="26"/>
+      <c r="L290" s="26"/>
+      <c r="M290" s="26"/>
+      <c r="N290" s="18"/>
+      <c r="O290" s="18"/>
+      <c r="P290" s="18"/>
+    </row>
+    <row r="291" spans="1:16">
+      <c r="D291" s="26"/>
+      <c r="E291" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F268" s="26"/>
-      <c r="G268" s="26"/>
-      <c r="H268" s="26"/>
-      <c r="I268" s="26"/>
-      <c r="J268" s="26"/>
-      <c r="K268" s="26"/>
-      <c r="L268" s="26"/>
-      <c r="M268" s="26"/>
-      <c r="N268" s="18"/>
-      <c r="O268" s="18"/>
-      <c r="P268" s="18"/>
-    </row>
-    <row r="269" spans="1:16">
-      <c r="D269" s="18"/>
-      <c r="E269" s="26"/>
-      <c r="F269" s="26"/>
-      <c r="G269" s="26"/>
-      <c r="H269" s="26"/>
-      <c r="I269" s="26"/>
-      <c r="J269" s="18"/>
-      <c r="K269" s="18"/>
-      <c r="L269" s="18"/>
-      <c r="M269" s="18"/>
-      <c r="N269" s="18"/>
-      <c r="O269" s="18"/>
-      <c r="P269" s="18"/>
-    </row>
-    <row r="270" spans="1:16">
-      <c r="A270" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16">
-      <c r="C272" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F272" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="G272" s="26"/>
-      <c r="H272" s="26"/>
-      <c r="I272" s="26"/>
-      <c r="J272" s="26"/>
-      <c r="K272" s="26"/>
-      <c r="L272" s="26"/>
-    </row>
-    <row r="273" spans="3:13">
-      <c r="F273" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G273" s="26"/>
-      <c r="H273" s="26"/>
-      <c r="I273" s="26"/>
-      <c r="J273" s="26"/>
-      <c r="K273" s="26"/>
-      <c r="L273" s="26"/>
-    </row>
-    <row r="274" spans="3:13">
-      <c r="F274" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G274" s="26"/>
-      <c r="H274" s="26"/>
-      <c r="I274" s="26"/>
-      <c r="J274" s="26"/>
-      <c r="K274" s="26"/>
-      <c r="L274" s="26"/>
-    </row>
-    <row r="276" spans="3:13">
-      <c r="C276" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="278" spans="3:13">
-      <c r="D278" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L278" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="280" spans="3:13">
-      <c r="E280" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="L280" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="281" spans="3:13">
-      <c r="F281" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="M281" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="282" spans="3:13">
-      <c r="E282" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L282" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="284" spans="3:13">
-      <c r="L284" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="285" spans="3:13">
-      <c r="M285" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="286" spans="3:13">
-      <c r="L286" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="290" spans="3:20">
-      <c r="C290" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D290" s="13"/>
-      <c r="E290" s="13"/>
-      <c r="F290" s="13"/>
-      <c r="G290" s="13"/>
-      <c r="H290" s="13"/>
-      <c r="I290" s="13"/>
-      <c r="J290" s="13"/>
-      <c r="L290" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="291" spans="3:20">
-      <c r="C291" s="13"/>
-    </row>
-    <row r="292" spans="3:20">
-      <c r="C292" s="13"/>
-      <c r="D292" s="27" t="s">
-        <v>602</v>
-      </c>
+      <c r="F291" s="26"/>
+      <c r="G291" s="26"/>
+      <c r="H291" s="26"/>
+      <c r="I291" s="26"/>
+      <c r="J291" s="26"/>
+      <c r="K291" s="26"/>
+      <c r="L291" s="26"/>
+      <c r="M291" s="26"/>
+      <c r="N291" s="18"/>
+      <c r="O291" s="18"/>
+      <c r="P291" s="18"/>
+    </row>
+    <row r="292" spans="1:16">
+      <c r="D292" s="18"/>
       <c r="E292" s="26"/>
       <c r="F292" s="26"/>
       <c r="G292" s="26"/>
       <c r="H292" s="26"/>
       <c r="I292" s="26"/>
-      <c r="J292" s="26"/>
-      <c r="L292" s="24" t="s">
+      <c r="J292" s="18"/>
+      <c r="K292" s="18"/>
+      <c r="L292" s="18"/>
+      <c r="M292" s="18"/>
+      <c r="N292" s="18"/>
+      <c r="O292" s="18"/>
+      <c r="P292" s="18"/>
+    </row>
+    <row r="293" spans="1:16">
+      <c r="A293" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16">
+      <c r="C295" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F295" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="G295" s="26"/>
+      <c r="H295" s="26"/>
+      <c r="I295" s="26"/>
+      <c r="J295" s="26"/>
+      <c r="K295" s="26"/>
+      <c r="L295" s="26"/>
+    </row>
+    <row r="296" spans="1:16">
+      <c r="F296" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G296" s="26"/>
+      <c r="H296" s="26"/>
+      <c r="I296" s="26"/>
+      <c r="J296" s="26"/>
+      <c r="K296" s="26"/>
+      <c r="L296" s="26"/>
+    </row>
+    <row r="297" spans="1:16">
+      <c r="F297" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G297" s="26"/>
+      <c r="H297" s="26"/>
+      <c r="I297" s="26"/>
+      <c r="J297" s="26"/>
+      <c r="K297" s="26"/>
+      <c r="L297" s="26"/>
+    </row>
+    <row r="298" spans="1:16">
+      <c r="F298" s="25"/>
+      <c r="G298" s="26"/>
+      <c r="H298" s="26"/>
+      <c r="I298" s="26"/>
+      <c r="J298" s="26"/>
+      <c r="K298" s="26"/>
+      <c r="L298" s="26"/>
+    </row>
+    <row r="299" spans="1:16">
+      <c r="C299" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F299" s="25"/>
+      <c r="G299" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="H299" s="26"/>
+      <c r="I299" s="26"/>
+      <c r="J299" s="26"/>
+      <c r="K299" s="26"/>
+      <c r="L299" s="26"/>
+    </row>
+    <row r="300" spans="1:16">
+      <c r="C300" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16">
+      <c r="C302" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16">
+      <c r="D303" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="305" spans="3:20">
+      <c r="E305" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="306" spans="3:20">
+      <c r="F306" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="M306" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="307" spans="3:20">
+      <c r="E307" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="309" spans="3:20">
+      <c r="L309" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="310" spans="3:20">
+      <c r="M310" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="311" spans="3:20">
+      <c r="L311" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="315" spans="3:20">
+      <c r="C315" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="13"/>
+      <c r="G315" s="13"/>
+      <c r="H315" s="13"/>
+      <c r="I315" s="13"/>
+      <c r="J315" s="13"/>
+      <c r="L315" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="316" spans="3:20">
+      <c r="C316" s="13"/>
+    </row>
+    <row r="317" spans="3:20">
+      <c r="C317" s="13"/>
+      <c r="D317" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="E317" s="26"/>
+      <c r="F317" s="26"/>
+      <c r="G317" s="26"/>
+      <c r="H317" s="26"/>
+      <c r="I317" s="26"/>
+      <c r="J317" s="26"/>
+      <c r="L317" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="M317" s="13"/>
+      <c r="N317" s="13"/>
+      <c r="O317" s="13"/>
+      <c r="P317" s="13"/>
+      <c r="Q317" s="13"/>
+      <c r="R317" s="13"/>
+    </row>
+    <row r="318" spans="3:20">
+      <c r="C318" s="13"/>
+      <c r="D318" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E318" s="26"/>
+      <c r="F318" s="26"/>
+      <c r="G318" s="26"/>
+      <c r="H318" s="26"/>
+      <c r="I318" s="26"/>
+      <c r="J318" s="26"/>
+      <c r="L318" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="M318" s="13"/>
+      <c r="N318" s="13"/>
+      <c r="O318" s="13"/>
+      <c r="P318" s="13"/>
+      <c r="Q318" s="13"/>
+      <c r="R318" s="13"/>
+      <c r="T318" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="319" spans="3:20">
+      <c r="C319" s="13"/>
+      <c r="D319" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E319" s="26"/>
+      <c r="F319" s="26"/>
+      <c r="G319" s="26"/>
+      <c r="H319" s="26"/>
+      <c r="I319" s="26"/>
+      <c r="J319" s="26"/>
+      <c r="L319" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="M292" s="13"/>
-      <c r="N292" s="13"/>
-      <c r="O292" s="13"/>
-      <c r="P292" s="13"/>
-      <c r="Q292" s="13"/>
-      <c r="R292" s="13"/>
-    </row>
-    <row r="293" spans="3:20">
-      <c r="C293" s="13"/>
-      <c r="D293" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="E293" s="26"/>
-      <c r="F293" s="26"/>
-      <c r="G293" s="26"/>
-      <c r="H293" s="26"/>
-      <c r="I293" s="26"/>
-      <c r="J293" s="26"/>
-      <c r="L293" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="M293" s="13"/>
-      <c r="N293" s="13"/>
-      <c r="O293" s="13"/>
-      <c r="P293" s="13"/>
-      <c r="Q293" s="13"/>
-      <c r="R293" s="13"/>
-      <c r="T293" s="3" t="s">
+      <c r="M319" s="13"/>
+      <c r="N319" s="13"/>
+      <c r="O319" s="13"/>
+      <c r="P319" s="13"/>
+      <c r="Q319" s="13"/>
+      <c r="R319" s="13"/>
+      <c r="T319" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="320" spans="3:20">
+      <c r="L320" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M320" s="13"/>
+      <c r="N320" s="13"/>
+      <c r="O320" s="13"/>
+      <c r="P320" s="13"/>
+      <c r="Q320" s="13"/>
+      <c r="R320" s="13"/>
+    </row>
+    <row r="321" spans="1:20">
+      <c r="D321" s="24" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="294" spans="3:20">
-      <c r="C294" s="13"/>
-      <c r="D294" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E294" s="26"/>
-      <c r="F294" s="26"/>
-      <c r="G294" s="26"/>
-      <c r="H294" s="26"/>
-      <c r="I294" s="26"/>
-      <c r="J294" s="26"/>
-      <c r="L294" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="M294" s="13"/>
-      <c r="N294" s="13"/>
-      <c r="O294" s="13"/>
-      <c r="P294" s="13"/>
-      <c r="Q294" s="13"/>
-      <c r="R294" s="13"/>
-      <c r="T294" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="295" spans="3:20">
-      <c r="L295" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="M295" s="13"/>
-      <c r="N295" s="13"/>
-      <c r="O295" s="13"/>
-      <c r="P295" s="13"/>
-      <c r="Q295" s="13"/>
-      <c r="R295" s="13"/>
-    </row>
-    <row r="296" spans="3:20">
-      <c r="D296" s="24" t="s">
-        <v>607</v>
-      </c>
-      <c r="E296" s="13"/>
-      <c r="F296" s="13"/>
-      <c r="G296" s="13"/>
-      <c r="H296" s="13"/>
-      <c r="I296" s="13"/>
-    </row>
-    <row r="297" spans="3:20">
-      <c r="D297" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="E297" s="13"/>
-      <c r="F297" s="13"/>
-      <c r="G297" s="13"/>
-      <c r="H297" s="13"/>
-      <c r="I297" s="13"/>
-      <c r="L297" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="M297" s="13"/>
-      <c r="N297" s="13"/>
-      <c r="O297" s="13"/>
-      <c r="P297" s="13"/>
-      <c r="Q297" s="13"/>
-      <c r="R297" s="13"/>
-      <c r="S297" s="13"/>
-      <c r="T297" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="298" spans="3:20">
-      <c r="D298" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="E298" s="13"/>
-      <c r="F298" s="13"/>
-      <c r="G298" s="13"/>
-      <c r="H298" s="13"/>
-      <c r="I298" s="13"/>
-      <c r="L298" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="M298" s="13"/>
-      <c r="N298" s="13"/>
-      <c r="O298" s="13"/>
-      <c r="P298" s="13"/>
-      <c r="Q298" s="13"/>
-      <c r="R298" s="13"/>
-      <c r="S298" s="13"/>
-    </row>
-    <row r="299" spans="3:20">
-      <c r="D299" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="E299" s="13"/>
-      <c r="F299" s="13"/>
-      <c r="G299" s="13"/>
-      <c r="H299" s="13"/>
-      <c r="I299" s="13"/>
-      <c r="L299" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="M299" s="13"/>
-      <c r="N299" s="13"/>
-      <c r="O299" s="13"/>
-      <c r="P299" s="13"/>
-      <c r="Q299" s="13"/>
-      <c r="R299" s="13"/>
-      <c r="S299" s="13"/>
-    </row>
-    <row r="300" spans="3:20">
-      <c r="D300" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E300" s="13"/>
-      <c r="F300" s="13"/>
-      <c r="G300" s="13"/>
-      <c r="H300" s="13"/>
-      <c r="I300" s="13"/>
-      <c r="L300" s="13"/>
-      <c r="M300" s="13"/>
-      <c r="N300" s="13"/>
-      <c r="O300" s="13"/>
-      <c r="P300" s="13"/>
-      <c r="Q300" s="13"/>
-      <c r="R300" s="13"/>
-      <c r="S300" s="13"/>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
-      <c r="B307" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
-      <c r="C308" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="C311" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
-      <c r="A312" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
-      <c r="B315" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
-      <c r="C317" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="D317" s="13"/>
-      <c r="E317" s="13"/>
-      <c r="F317" s="13"/>
-      <c r="G317" s="13"/>
-      <c r="H317" s="13"/>
-      <c r="I317" s="13"/>
-    </row>
-    <row r="318" spans="1:9">
-      <c r="C318" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="D318" s="13"/>
-      <c r="E318" s="13"/>
-      <c r="F318" s="13"/>
-      <c r="G318" s="13"/>
-      <c r="H318" s="13"/>
-      <c r="I318" s="13"/>
-    </row>
-    <row r="319" spans="1:9">
-      <c r="C319" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="D319" s="13"/>
-      <c r="E319" s="13"/>
-      <c r="F319" s="13"/>
-      <c r="G319" s="13"/>
-      <c r="H319" s="13"/>
-      <c r="I319" s="13"/>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="C320" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="D320" s="13"/>
-      <c r="E320" s="13"/>
-      <c r="F320" s="13"/>
-      <c r="G320" s="13"/>
-      <c r="H320" s="13"/>
-      <c r="I320" s="13"/>
-    </row>
-    <row r="321" spans="1:9">
-      <c r="C321" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="D321" s="13"/>
       <c r="E321" s="13"/>
       <c r="F321" s="13"/>
       <c r="G321" s="13"/>
       <c r="H321" s="13"/>
       <c r="I321" s="13"/>
     </row>
-    <row r="322" spans="1:9">
-      <c r="C322" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="D322" s="13"/>
+    <row r="322" spans="1:20">
+      <c r="D322" s="24" t="s">
+        <v>607</v>
+      </c>
       <c r="E322" s="13"/>
       <c r="F322" s="13"/>
       <c r="G322" s="13"/>
       <c r="H322" s="13"/>
       <c r="I322" s="13"/>
-    </row>
-    <row r="323" spans="1:9">
-      <c r="C323" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D323" s="13"/>
+      <c r="L322" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="M322" s="13"/>
+      <c r="N322" s="13"/>
+      <c r="O322" s="13"/>
+      <c r="P322" s="13"/>
+      <c r="Q322" s="13"/>
+      <c r="R322" s="13"/>
+      <c r="S322" s="13"/>
+      <c r="T322" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20">
+      <c r="D323" s="24" t="s">
+        <v>608</v>
+      </c>
       <c r="E323" s="13"/>
       <c r="F323" s="13"/>
       <c r="G323" s="13"/>
       <c r="H323" s="13"/>
       <c r="I323" s="13"/>
-    </row>
-    <row r="325" spans="1:9">
-      <c r="C325" s="3" t="s">
+      <c r="L323" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="M323" s="13"/>
+      <c r="N323" s="13"/>
+      <c r="O323" s="13"/>
+      <c r="P323" s="13"/>
+      <c r="Q323" s="13"/>
+      <c r="R323" s="13"/>
+      <c r="S323" s="13"/>
+    </row>
+    <row r="324" spans="1:20">
+      <c r="D324" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="E324" s="13"/>
+      <c r="F324" s="13"/>
+      <c r="G324" s="13"/>
+      <c r="H324" s="13"/>
+      <c r="I324" s="13"/>
+      <c r="L324" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M324" s="13"/>
+      <c r="N324" s="13"/>
+      <c r="O324" s="13"/>
+      <c r="P324" s="13"/>
+      <c r="Q324" s="13"/>
+      <c r="R324" s="13"/>
+      <c r="S324" s="13"/>
+    </row>
+    <row r="325" spans="1:20">
+      <c r="D325" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E325" s="13"/>
+      <c r="F325" s="13"/>
+      <c r="G325" s="13"/>
+      <c r="H325" s="13"/>
+      <c r="I325" s="13"/>
+      <c r="L325" s="13"/>
+      <c r="M325" s="13"/>
+      <c r="N325" s="13"/>
+      <c r="O325" s="13"/>
+      <c r="P325" s="13"/>
+      <c r="Q325" s="13"/>
+      <c r="R325" s="13"/>
+      <c r="S325" s="13"/>
+    </row>
+    <row r="330" spans="1:20">
+      <c r="A330" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20">
+      <c r="B332" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20">
+      <c r="C333" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20">
+      <c r="C336" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="B340" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="C342" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="D342" s="13"/>
+      <c r="E342" s="13"/>
+      <c r="F342" s="13"/>
+      <c r="G342" s="13"/>
+      <c r="H342" s="13"/>
+      <c r="I342" s="13"/>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="C343" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="D343" s="13"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+      <c r="G343" s="13"/>
+      <c r="H343" s="13"/>
+      <c r="I343" s="13"/>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="C344" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="D344" s="13"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="13"/>
+      <c r="G344" s="13"/>
+      <c r="H344" s="13"/>
+      <c r="I344" s="13"/>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="C345" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="D345" s="13"/>
+      <c r="E345" s="13"/>
+      <c r="F345" s="13"/>
+      <c r="G345" s="13"/>
+      <c r="H345" s="13"/>
+      <c r="I345" s="13"/>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="C346" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="D346" s="13"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="13"/>
+      <c r="G346" s="13"/>
+      <c r="H346" s="13"/>
+      <c r="I346" s="13"/>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="C347" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="D347" s="13"/>
+      <c r="E347" s="13"/>
+      <c r="F347" s="13"/>
+      <c r="G347" s="13"/>
+      <c r="H347" s="13"/>
+      <c r="I347" s="13"/>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="C348" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D348" s="13"/>
+      <c r="E348" s="13"/>
+      <c r="F348" s="13"/>
+      <c r="G348" s="13"/>
+      <c r="H348" s="13"/>
+      <c r="I348" s="13"/>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="C350" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D350" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="D325" s="29" t="s">
+    </row>
+    <row r="351" spans="1:9">
+      <c r="D351"/>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="D352" s="28" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
-      <c r="D326"/>
-    </row>
-    <row r="327" spans="1:9">
-      <c r="D327" s="29" t="s">
+    <row r="353" spans="1:5">
+      <c r="D353"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="D354" s="28" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
-      <c r="D328"/>
-    </row>
-    <row r="329" spans="1:9">
-      <c r="D329" s="29" t="s">
+    <row r="356" spans="1:5">
+      <c r="A356" s="29" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
-      <c r="A331" s="30" t="s">
+    <row r="358" spans="1:5">
+      <c r="B358" s="3" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="333" spans="1:9">
-      <c r="B333" s="3" t="s">
+      <c r="D358" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D333" s="3" t="s">
+    </row>
+    <row r="360" spans="1:5">
+      <c r="E360" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
-      <c r="E335" s="3" t="s">
+    <row r="361" spans="1:5">
+      <c r="D361" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2"/>
+      <c r="B363" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2"/>
+      <c r="B364" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="B365" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="E366" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" s="6" customFormat="1">
+      <c r="A367" s="6" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="336" spans="1:9">
-      <c r="D336" s="3" t="s">
+      <c r="B367" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" s="3">
+        <v>1</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" s="3">
+        <v>2</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" s="3">
+        <v>3</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="A372" s="3">
+        <v>4</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373" s="3">
+        <v>5</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374" s="3">
+        <v>6</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="A375" s="3">
+        <v>7</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" s="3">
+        <v>8</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377" s="3">
+        <v>9</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="A378" s="3">
+        <v>10</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379" s="3">
+        <v>11</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380" s="3">
+        <v>12</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="A381" s="3">
+        <v>13</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="A382" s="3">
+        <v>14</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" s="3">
+        <v>15</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384" s="3">
+        <v>16</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="3">
+        <v>17</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="3">
+        <v>18</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="3">
+        <v>19</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="3">
+        <v>20</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B391" s="30">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" s="2" customFormat="1">
+      <c r="A393" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="B395" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="C395" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="D395" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="E395" s="32" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="3">
+        <v>1</v>
+      </c>
+      <c r="B396" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C396" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="3">
+        <v>2</v>
+      </c>
+      <c r="B397" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C397" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="3">
+        <v>3</v>
+      </c>
+      <c r="B398" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C398" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="3">
+        <v>4</v>
+      </c>
+      <c r="B399" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C399" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="3">
+        <v>5</v>
+      </c>
+      <c r="B400" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C400" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="3">
+        <v>6</v>
+      </c>
+      <c r="B401" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C401" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="3">
+        <v>7</v>
+      </c>
+      <c r="B402" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C402" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="3">
+        <v>8</v>
+      </c>
+      <c r="B403" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C403" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="3">
+        <v>9</v>
+      </c>
+      <c r="B404" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C404" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="3">
+        <v>10</v>
+      </c>
+      <c r="B405" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C405" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="3">
+        <v>11</v>
+      </c>
+      <c r="B406" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="C406" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="3">
+        <v>12</v>
+      </c>
+      <c r="B407" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="C407" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="3">
+        <v>13</v>
+      </c>
+      <c r="B408" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C408" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="3">
+        <v>14</v>
+      </c>
+      <c r="B409" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="C409" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="3">
+        <v>15</v>
+      </c>
+      <c r="B410" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C410" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="3">
+        <v>16</v>
+      </c>
+      <c r="B411" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C411" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="3">
+        <v>17</v>
+      </c>
+      <c r="B412" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C412" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="3">
+        <v>18</v>
+      </c>
+      <c r="B413" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C413" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="3">
+        <v>19</v>
+      </c>
+      <c r="B414" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="C414" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="3">
+        <v>20</v>
+      </c>
+      <c r="B415" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C415" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="3">
+        <v>21</v>
+      </c>
+      <c r="B416" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C416" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="3">
+        <v>22</v>
+      </c>
+      <c r="B417" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C417" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="3">
+        <v>23</v>
+      </c>
+      <c r="B418" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C418" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="3">
+        <v>24</v>
+      </c>
+      <c r="B419" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C419" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="3">
+        <v>25</v>
+      </c>
+      <c r="B420" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C420" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="3">
+        <v>26</v>
+      </c>
+      <c r="B421" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C421" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="3">
+        <v>27</v>
+      </c>
+      <c r="B422" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C422" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="3">
+        <v>28</v>
+      </c>
+      <c r="B423" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C423" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="3">
+        <v>29</v>
+      </c>
+      <c r="B424" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C424" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="3">
+        <v>30</v>
+      </c>
+      <c r="B425" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C425" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="3">
+        <v>31</v>
+      </c>
+      <c r="B426" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C426" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="3">
+        <v>32</v>
+      </c>
+      <c r="B427" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C427" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="3">
+        <v>33</v>
+      </c>
+      <c r="B428" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C428" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="3">
+        <v>34</v>
+      </c>
+      <c r="B429" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C429" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="3">
+        <v>35</v>
+      </c>
+      <c r="B430" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C430" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="3">
+        <v>36</v>
+      </c>
+      <c r="B431" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C431" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="3">
+        <v>37</v>
+      </c>
+      <c r="B432" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C432" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="3">
+        <v>38</v>
+      </c>
+      <c r="B433" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="C433" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="3">
+        <v>39</v>
+      </c>
+      <c r="B434" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C434" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="3">
+        <v>40</v>
+      </c>
+      <c r="B435" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C435" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="3">
+        <v>41</v>
+      </c>
+      <c r="B436" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C436" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="3">
+        <v>42</v>
+      </c>
+      <c r="B437" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C437" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="3">
+        <v>43</v>
+      </c>
+      <c r="B438" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C438" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="3">
+        <v>44</v>
+      </c>
+      <c r="B439" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C439" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" s="6" customFormat="1">
-      <c r="A340" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="3">
-        <v>1</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="3">
-        <v>2</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="3">
-        <v>3</v>
-      </c>
-      <c r="B344" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="3">
-        <v>4</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="3">
-        <v>5</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="3">
-        <v>6</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="3">
-        <v>7</v>
-      </c>
-      <c r="B348" s="3" t="s">
+      <c r="B440" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C440" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="3">
+        <v>46</v>
+      </c>
+      <c r="B441" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C441" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="3">
+        <v>47</v>
+      </c>
+      <c r="B442" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="C348" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="3">
-        <v>8</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="3">
-        <v>9</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="3">
-        <v>10</v>
-      </c>
-      <c r="B351" s="3" t="s">
+      <c r="C442" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="3">
+        <v>48</v>
+      </c>
+      <c r="B443" s="31" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="3">
-        <v>11</v>
-      </c>
-      <c r="B352" s="3" t="s">
+      <c r="C443" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="3">
+        <v>49</v>
+      </c>
+      <c r="B444" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C444" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="3">
+        <v>50</v>
+      </c>
+      <c r="B445" s="31" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="3">
-        <v>12</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="3">
-        <v>13</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="3">
-        <v>14</v>
-      </c>
-      <c r="B355" s="3" t="s">
+      <c r="C445" s="34" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="3">
-        <v>15</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="3">
-        <v>16</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="3">
-        <v>17</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" s="3">
-        <v>18</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" s="3">
-        <v>25</v>
+      <c r="D445" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C447" s="31" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C448" s="35">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -8562,4 +10275,870 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:P161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="36" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="36" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="J18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="C33" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="C34" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="B36" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="C38" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="36" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="B43" t="s">
+        <v>725</v>
+      </c>
+      <c r="I43" s="37"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="45" t="s">
+        <v>738</v>
+      </c>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="C44" t="s">
+        <v>726</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="C45" t="s">
+        <v>728</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="C46" t="s">
+        <v>727</v>
+      </c>
+      <c r="I46" s="38"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="14"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="C47" t="s">
+        <v>729</v>
+      </c>
+      <c r="I47" s="38"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="I48" s="38"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="B51" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="C53" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="C54" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="18.75">
+      <c r="C56" s="40" t="s">
+        <v>737</v>
+      </c>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="41"/>
+    </row>
+    <row r="57" spans="1:16" ht="18.75">
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="58" spans="1:16" ht="18.75">
+      <c r="C58" s="41"/>
+      <c r="D58" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="41"/>
+    </row>
+    <row r="59" spans="1:16" ht="18.75">
+      <c r="C59" s="41"/>
+      <c r="D59" s="42" t="s">
+        <v>739</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="41"/>
+    </row>
+    <row r="60" spans="1:16" ht="18.75">
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="D61" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="36" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="C69" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="C71" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="D72" t="s">
+        <v>745</v>
+      </c>
+      <c r="J72" t="s">
+        <v>747</v>
+      </c>
+      <c r="M72" t="s">
+        <v>780</v>
+      </c>
+      <c r="N72" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="D73" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="C78" t="s">
+        <v>749</v>
+      </c>
+      <c r="J78" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="C80" t="s">
+        <v>750</v>
+      </c>
+      <c r="J80" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="D83" t="s">
+        <v>392</v>
+      </c>
+      <c r="E83" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="E84" t="s">
+        <v>752</v>
+      </c>
+      <c r="J84" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="J85" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="36" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="C92" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="43"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="C93" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="43"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="C94" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" s="43"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="C95" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="44" t="s">
+        <v>762</v>
+      </c>
+      <c r="I95" s="43"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="C96" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="44" t="s">
+        <v>762</v>
+      </c>
+      <c r="I96" s="43"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="36" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="C103" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="C104" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="C106" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="C107" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="C108" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="C109" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="C111" t="s">
+        <v>792</v>
+      </c>
+      <c r="H111" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="C112" t="s">
+        <v>793</v>
+      </c>
+      <c r="H112" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="C113" t="s">
+        <v>794</v>
+      </c>
+      <c r="H113" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="C119" t="s">
+        <v>798</v>
+      </c>
+      <c r="H119" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="C120" t="s">
+        <v>800</v>
+      </c>
+      <c r="H120" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="C126" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="C127" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="C128" s="23"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+    </row>
+    <row r="129" spans="2:16">
+      <c r="C129" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16">
+      <c r="C130" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16">
+      <c r="B133" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16">
+      <c r="C135" t="s">
+        <v>779</v>
+      </c>
+      <c r="P135" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16">
+      <c r="D136" t="s">
+        <v>776</v>
+      </c>
+      <c r="F136" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16">
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="P137" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16">
+      <c r="C140" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16">
+      <c r="C142" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16">
+      <c r="D144" t="s">
+        <v>784</v>
+      </c>
+      <c r="J144" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="D146" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="E147" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="E148" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="D150" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="C151" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A154" s="36" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="17.25" customHeight="1"/>
+    <row r="156" spans="1:11">
+      <c r="B156" s="44" t="s">
+        <v>802</v>
+      </c>
+      <c r="C156" s="48"/>
+      <c r="D156" s="48"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="48"/>
+      <c r="H156" s="48"/>
+      <c r="I156" s="49"/>
+      <c r="J156" s="47"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="B157" s="44" t="s">
+        <v>803</v>
+      </c>
+      <c r="C157" s="48"/>
+      <c r="D157" s="48"/>
+      <c r="E157" s="48"/>
+      <c r="F157" s="48"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="48"/>
+      <c r="I157" s="49"/>
+      <c r="J157" s="47"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="B158" s="44" t="s">
+        <v>804</v>
+      </c>
+      <c r="C158" s="48"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="48"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="48"/>
+      <c r="I158" s="49"/>
+      <c r="J158" s="47"/>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="B159" s="44" t="s">
+        <v>805</v>
+      </c>
+      <c r="C159" s="48"/>
+      <c r="D159" s="48"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="48"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="48"/>
+      <c r="I159" s="49"/>
+      <c r="J159" s="47"/>
+      <c r="K159" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="B160" s="44" t="s">
+        <v>806</v>
+      </c>
+      <c r="C160" s="48"/>
+      <c r="D160" s="48"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="48"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="48"/>
+      <c r="I160" s="49"/>
+      <c r="J160" s="47"/>
+      <c r="K160" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="44" t="s">
+        <v>807</v>
+      </c>
+      <c r="C161" s="48"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="48"/>
+      <c r="I161" s="49"/>
+      <c r="J161" s="47"/>
+      <c r="K161" t="s">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="3. Java API" sheetId="3" r:id="rId3"/>
     <sheet name="Bài test tổng hợp từ 3 phần" sheetId="4" r:id="rId4"/>
     <sheet name="4. Method &amp; Encapsulation" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Class Design" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="1850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1886">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -5449,30 +5450,6 @@
     <t>// Do vậy ở đây hiểu là 2 method giống y sì nhau</t>
   </si>
   <si>
-    <t>public void fly (int num){</t>
-  </si>
-  <si>
-    <t>public void fly (Integer num){</t>
-  </si>
-  <si>
-    <t>//  COMPILE OK vì khác kiểu dữ liệu của tham số</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giả sử khi gọi  new Object().fly(5) thì Java sẽ tìm có kiểu dữ liệu gần nhất để gọi, tức là gọi hàm fly primitive </t>
-  </si>
-  <si>
-    <t>System.out.print("Primitive");</t>
-  </si>
-  <si>
-    <t>System.out.print("Wrapper");</t>
-  </si>
-  <si>
-    <t>Nếu như ko có hàm primitive thì Java sẽ tự động auto box  để gọi hàm fly Wrapper</t>
-  </si>
-  <si>
-    <t>Giả sử khi gọi new Object().fly(new Integer(6)) thì Java tìm hàm có kiểu dl gần nhất để gọi, tức là hàm Wrapper</t>
-  </si>
-  <si>
     <t>15. Overload cùng Autoboxing</t>
   </si>
   <si>
@@ -5596,74 +5573,6 @@
     <t>// Bắt buộc cần phải có cast tường minh về int</t>
   </si>
   <si>
-    <r>
-      <t>plane</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFD2A8FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>fly</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFF7B72"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF79C0FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>134L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
     <t>18. Overload tổng hợp</t>
   </si>
   <si>
@@ -5695,9 +5604,6 @@
   </si>
   <si>
     <t>19. Constructors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private constructor ko thể gọi </t>
   </si>
   <si>
     <t>20. Overload Constructors</t>
@@ -5953,16 +5859,212 @@
     <t>Nghĩa là Class này vẫn có constructor ko tham số mặc định được tạo ra khi tạo instance</t>
   </si>
   <si>
+    <t xml:space="preserve">Define biến trong constructor phải có this.a = a, nếu ko thì sẽ hiểu là gán </t>
+  </si>
+  <si>
+    <t>Lưu ý chọn đúng đáp án</t>
+  </si>
+  <si>
+    <t>Tricky. Lưu ý là ở đây tạo một instance mới với constructor mới</t>
+  </si>
+  <si>
+    <t>Khối khởi tạo instance có thể gọi được member static , giống như instance method và instance variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static method ,  static variable, static init block  ko thể gọi instance variable, static method, </t>
+  </si>
+  <si>
+    <t>static {</t>
+  </si>
+  <si>
+    <t>point = 1;</t>
+  </si>
+  <si>
+    <t>// COMPILE ERROR</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>public static void first() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> second();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> point = 1;</t>
+  </si>
+  <si>
+    <t>public static int staticNums;</t>
+  </si>
+  <si>
+    <t>int point;</t>
+  </si>
+  <si>
+    <t>public void second(){</t>
+  </si>
+  <si>
+    <t>staticNums = 1;</t>
+  </si>
+  <si>
+    <t>first();</t>
+  </si>
+  <si>
+    <t>staticNums = 10;</t>
+  </si>
+  <si>
+    <t>// COMPILE OK</t>
+  </si>
+  <si>
+    <t>Nếu là một hoặc nhiều tham số, cùng với kiểu dữ liệu của biến thì bắt buộc cần dấu ( )</t>
+  </si>
+  <si>
+    <t>(String a ) -&gt; …</t>
+  </si>
+  <si>
+    <t>(int a , int b ) -&gt; …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE 3: </t>
+  </si>
+  <si>
+    <t>Nếu ko có dấu { }  (tức là trường hợp single line) thì ko bắt buộc phải có return và ;</t>
+  </si>
+  <si>
+    <t>caller( (s) -&gt; "Proof");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bài test 2: </t>
+  </si>
+  <si>
+    <t>OCA Practice test</t>
+  </si>
+  <si>
+    <t>// default  ko phải là acccess modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xám </t>
+  </si>
+  <si>
+    <t>áo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quần </t>
+  </si>
+  <si>
+    <t>kaki nâu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaki xám </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jean đen </t>
+  </si>
+  <si>
+    <t>specifers có thể có nhiều trong cùng một khai báo method : Ví dụ final static void methodA() {}</t>
+  </si>
+  <si>
+    <t>Truyền mảng hợp lệ:</t>
+  </si>
+  <si>
+    <t>Truyền mảng ko hợp lệ;</t>
+  </si>
+  <si>
+    <t>test ( { 1, 2, 3 } );</t>
+  </si>
+  <si>
+    <t>// COMPILE FAIL. Truyền mảng ko hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaki đen </t>
+  </si>
+  <si>
+    <t>đen</t>
+  </si>
+  <si>
+    <t>Lưu ý lệnh gán chứ ko phải toán tử 3 ngôi :9</t>
+  </si>
+  <si>
+    <t>Số câu đúng : 34/50</t>
+  </si>
+  <si>
+    <t>trong hàm cần return biến thì cần phải chú ý mệnh đề if - else if ko return biến . Do đó bắt buộc phải return tưởng minh ngoài khối code</t>
+  </si>
+  <si>
+    <t>this() để gọi constructor ko tham số của chính class hiện tại</t>
+  </si>
+  <si>
+    <t>super() để gọi constructor ko tham số của class cha</t>
+  </si>
+  <si>
+    <t>this.abc để gọi biến instance của Class hiện tại</t>
+  </si>
+  <si>
+    <t>super.abc để gọi biến instance của class cha</t>
+  </si>
+  <si>
+    <t>1. Constructor ko tham số chỉ tự động được thêm (khi compile) khi mà trong class ko có bất kì một constructor nào khác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Private constructor ko thể gọi </t>
+  </si>
+  <si>
+    <t>3. Tricky: Có thể tạo hàm với tên y sì tên class mà ko gây lỗi COMPILE, và hàm này ko phải là constructor</t>
+  </si>
+  <si>
+    <t>5.Trong 1 constructor chỉ đuộc phép tồn tại this() hoặc super() và nó phải là khai báo đầu tiên của constructor</t>
+  </si>
+  <si>
+    <t>6. Nếu class cha khai báo một constructor có tham số, Thì class con cũng phải khai báo ít nhất một constructor có tham số</t>
+  </si>
+  <si>
+    <t>Child(String s) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    super(s);</t>
+  </si>
+  <si>
+    <t>plane.fly((int)134L);</t>
+  </si>
+  <si>
+    <t>Đối với Object reference:</t>
+  </si>
+  <si>
+    <t>Đối với mảng []</t>
+  </si>
+  <si>
+    <t>Tương tự như StringBuilder, Thì một reference copy được truyền vào trong hàm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi thay đổi giá trị của phần tử trong mảng thì mảng gốc cũng thay đổi, bởi vì reference copy này trỏ tới object </t>
+  </si>
+  <si>
+    <t>void modifyArray(int[] array) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array[0] = 100; </t>
+  </si>
+  <si>
+    <t>Đối với ArrayList&lt;&gt;</t>
+  </si>
+  <si>
+    <t>Cũng tương tự mảng</t>
+  </si>
+  <si>
+    <t>// Phần tử đầu tiên được thay đổi thành 100</t>
+  </si>
+  <si>
+    <t>Nên nhớ là hàm void vẫn có thể return;</t>
+  </si>
+  <si>
+    <t>Từ kiểu dl lớn về nhỏ cần cast tường minh, Từ kiểu dl nhỏ về lớn ko cần cast tường minh, Java đã tự động cast rồi</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tricky</t>
+      <t>Instance method, biến instance có thể gọi</t>
     </r>
     <r>
       <rPr>
@@ -5973,160 +6075,84 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:</t>
+      <t xml:space="preserve"> static method, static variable, static init block</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Có thể tạo hàm với tên y sì tên class mà ko gây lỗi COMPILE, và hàm này ko phải là constructor</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Define biến trong constructor phải có this.a = a, nếu ko thì sẽ hiểu là gán </t>
-  </si>
-  <si>
-    <t>Lưu ý chọn đúng đáp án</t>
-  </si>
-  <si>
-    <t>Tricky. Lưu ý là ở đây tạo một instance mới với constructor mới</t>
-  </si>
-  <si>
-    <t>Khối khởi tạo instance có thể gọi được member static , giống như instance method và instance variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Static method ,  static variable, static init block  ko thể gọi instance variable, static method, </t>
-  </si>
-  <si>
-    <t>Instance method, biến instance có thể gọi static method, static variable, static init block</t>
-  </si>
-  <si>
-    <t>static {</t>
-  </si>
-  <si>
-    <t>point = 1;</t>
-  </si>
-  <si>
-    <t>// COMPILE ERROR</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>public static void first() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> second();</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> point = 1;</t>
-  </si>
-  <si>
-    <t>public static int staticNums;</t>
-  </si>
-  <si>
-    <t>int point;</t>
-  </si>
-  <si>
-    <t>public void second(){</t>
-  </si>
-  <si>
-    <t>staticNums = 1;</t>
-  </si>
-  <si>
-    <t>first();</t>
-  </si>
-  <si>
-    <t>staticNums = 10;</t>
-  </si>
-  <si>
-    <t>// COMPILE OK</t>
-  </si>
-  <si>
-    <t>Dấu ngoặc tròn ()có thể bỏ qua nếu là single line</t>
-  </si>
-  <si>
-    <t>Nếu là một hoặc nhiều tham số, cùng với kiểu dữ liệu của biến thì bắt buộc cần dấu ( )</t>
-  </si>
-  <si>
-    <t>(String a ) -&gt; …</t>
-  </si>
-  <si>
-    <t>(int a , int b ) -&gt; …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RULE 3: </t>
-  </si>
-  <si>
-    <t>Nếu ko có dấu { }  (tức là trường hợp single line) thì ko bắt buộc phải có return và ;</t>
-  </si>
-  <si>
-    <t>caller( (s) -&gt; "Proof");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bài test 2: </t>
-  </si>
-  <si>
-    <t>OCA Practice test</t>
-  </si>
-  <si>
-    <t>// default  ko phải là acccess modifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">xám </t>
-  </si>
-  <si>
-    <t>áo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quần </t>
-  </si>
-  <si>
-    <t>kaki nâu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaki xám </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jean đen </t>
-  </si>
-  <si>
-    <t>specifers có thể có nhiều trong cùng một khai báo method : Ví dụ final static void methodA() {}</t>
-  </si>
-  <si>
-    <t>Truyền mảng hợp lệ:</t>
-  </si>
-  <si>
-    <t>Truyền mảng ko hợp lệ;</t>
-  </si>
-  <si>
-    <t>test ( { 1, 2, 3 } );</t>
-  </si>
-  <si>
-    <t>// COMPILE FAIL. Truyền mảng ko hợp lệ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaki đen </t>
-  </si>
-  <si>
-    <t>đen</t>
-  </si>
-  <si>
-    <t>Lưu ý lệnh gán chứ ko phải toán tử 3 ngôi :9</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>Dấu ngoặc tròn () có thể bỏ qua nếu là single line</t>
+  </si>
+  <si>
+    <t>Và dòng đầu tiên của constructor này phải là là lệnh super(param)</t>
+  </si>
+  <si>
+    <t>Khi thực hiện toán tử thì tất cả các kiểu dl như byte short đều được thăng chức về int</t>
+  </si>
+  <si>
+    <t>OCA _Mala Gupta</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>Ejava</t>
+  </si>
+  <si>
+    <t>anotherMethod</t>
+  </si>
+  <si>
+    <t>Somemethod</t>
+  </si>
+  <si>
+    <t>somemethod</t>
+  </si>
+  <si>
+    <t>CDEFG</t>
+  </si>
+  <si>
+    <t>Đối với kiểu nguyên thủy, nếu ko tìm được hàm phù hợp, thì sẽ tự động thăng chức thành kiểu dl lớn hơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byte, short, char </t>
+  </si>
+  <si>
+    <t>Nếu như ko có hàm primitive phù hợp để thăng chức thì sẽ autobox thành hàm Wrapper đúng kiểu dl</t>
+  </si>
+  <si>
+    <t>Đối với kiểu dl Wrapper, thì tìm đúng kiểu dl Wrapper cần, Nếu ko có thì tìm hàm Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ----&gt; Tìm hàm có tham số int</t>
+  </si>
+  <si>
+    <t>&gt;-----&gt;Tìm hàm có tham số long</t>
+  </si>
+  <si>
+    <t>float -&gt; Tìm hàm có tham số double</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; có thể trả về hàm với kiểu dl int &gt;&gt;&gt; Nếu ko có thì có thể trả về hàm với kiểu dl long</t>
+  </si>
+  <si>
+    <t>float &gt;&gt;&gt;&gt; có thể trả về hàm với kiểu dl double</t>
+  </si>
+  <si>
+    <t>Đối với kiểu dl Primitive, Tự động thăng chức kiểu dl trả về:</t>
+  </si>
+  <si>
+    <t>Đối với kiểu dl Wrapper, Có thể unboxing kiểu dl trả về đúng kiểu dl Wrapper</t>
+  </si>
+  <si>
+    <t>16. Autoboxing, Unboxing kiểu dl trả về</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="65">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6485,30 +6511,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFFF7B72"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFD2A8FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFFFA657"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF79C0FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
@@ -6545,6 +6547,14 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6740,27 +6750,25 @@
     <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6907,13 +6915,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
       <xdr:row>294</xdr:row>
       <xdr:rowOff>136464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>377999</xdr:colOff>
       <xdr:row>299</xdr:row>
       <xdr:rowOff>157367</xdr:rowOff>
@@ -6947,13 +6955,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>557</xdr:row>
       <xdr:rowOff>6803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>29766</xdr:colOff>
-      <xdr:row>496</xdr:row>
+      <xdr:row>560</xdr:row>
       <xdr:rowOff>189135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6973,6 +6981,234 @@
         <a:xfrm>
           <a:off x="1226345" y="89160803"/>
           <a:ext cx="1839515" cy="753832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160734</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821656" y="69151500"/>
+          <a:ext cx="1982391" cy="958453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4250531" y="69151500"/>
+          <a:ext cx="1833563" cy="946547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6679406" y="69151500"/>
+          <a:ext cx="1827610" cy="934641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160736</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9703594" y="69163407"/>
+          <a:ext cx="1994298" cy="940594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>172640</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821656" y="70473094"/>
+          <a:ext cx="1994297" cy="898922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>172640</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821656" y="71806594"/>
+          <a:ext cx="1994297" cy="1041797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9067,16 +9303,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="92" t="s">
+      <c r="D424" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="92"/>
-      <c r="F424" s="92"/>
-      <c r="G424" s="92"/>
-      <c r="H424" s="92"/>
-      <c r="I424" s="92"/>
-      <c r="J424" s="92"/>
-      <c r="K424" s="92"/>
+      <c r="E424" s="91"/>
+      <c r="F424" s="91"/>
+      <c r="G424" s="91"/>
+      <c r="H424" s="91"/>
+      <c r="I424" s="91"/>
+      <c r="J424" s="91"/>
+      <c r="K424" s="91"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -9143,16 +9379,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="92" t="s">
+      <c r="D430" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="92"/>
-      <c r="F430" s="92"/>
-      <c r="G430" s="92"/>
-      <c r="H430" s="92"/>
-      <c r="I430" s="92"/>
-      <c r="J430" s="92"/>
-      <c r="K430" s="92"/>
+      <c r="E430" s="91"/>
+      <c r="F430" s="91"/>
+      <c r="G430" s="91"/>
+      <c r="H430" s="91"/>
+      <c r="I430" s="91"/>
+      <c r="J430" s="91"/>
+      <c r="K430" s="91"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -20844,10 +21080,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P635"/>
+  <dimension ref="A1:P721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E596" sqref="E596"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A387" sqref="A387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20859,10 +21095,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="C3" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -20890,7 +21126,7 @@
         <v>1490</v>
       </c>
       <c r="F10" t="s">
-        <v>1834</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -20926,7 +21162,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="C21" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -20988,7 +21224,7 @@
         <v>1505</v>
       </c>
       <c r="C36" t="s">
-        <v>1842</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -20996,12 +21232,12 @@
         <v>1506</v>
       </c>
       <c r="J37" t="s">
-        <v>1780</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="J38" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="39" spans="2:10">
@@ -21047,7 +21283,7 @@
         <v>1513</v>
       </c>
       <c r="G48" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -21060,12 +21296,12 @@
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="57" t="s">
-        <v>1782</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="C52" s="57" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
@@ -21283,7 +21519,7 @@
     </row>
     <row r="105" spans="4:11">
       <c r="E105" t="s">
-        <v>1843</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="106" spans="4:11">
@@ -21306,7 +21542,7 @@
     </row>
     <row r="110" spans="4:11">
       <c r="E110" t="s">
-        <v>1844</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="112" spans="4:11">
@@ -21316,10 +21552,10 @@
     </row>
     <row r="113" spans="1:11">
       <c r="H113" t="s">
-        <v>1845</v>
+        <v>1832</v>
       </c>
       <c r="K113" t="s">
-        <v>1846</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -21522,7 +21758,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="E166" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -21530,12 +21766,12 @@
         <v>1577</v>
       </c>
       <c r="E167" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="E168" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -21738,16 +21974,16 @@
     </row>
     <row r="196" spans="3:10">
       <c r="C196" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="197" spans="3:10">
       <c r="C197" t="s">
-        <v>1810</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="199" spans="3:10">
-      <c r="D199" s="90" t="s">
+      <c r="D199" s="89" t="s">
         <v>1582</v>
       </c>
       <c r="E199" s="43"/>
@@ -21759,8 +21995,8 @@
     </row>
     <row r="200" spans="3:10">
       <c r="D200" s="43"/>
-      <c r="E200" s="90" t="s">
-        <v>1815</v>
+      <c r="E200" s="89" t="s">
+        <v>1803</v>
       </c>
       <c r="F200" s="43"/>
       <c r="G200" s="43"/>
@@ -21770,8 +22006,8 @@
     </row>
     <row r="201" spans="3:10">
       <c r="D201" s="43"/>
-      <c r="F201" s="90" t="s">
-        <v>1816</v>
+      <c r="F201" s="89" t="s">
+        <v>1804</v>
       </c>
       <c r="G201" s="43"/>
       <c r="H201" s="43"/>
@@ -21782,8 +22018,8 @@
     </row>
     <row r="202" spans="3:10">
       <c r="D202" s="43"/>
-      <c r="F202" s="90" t="s">
-        <v>1817</v>
+      <c r="F202" s="89" t="s">
+        <v>1805</v>
       </c>
       <c r="G202" s="43"/>
       <c r="H202" s="43"/>
@@ -21794,7 +22030,7 @@
     </row>
     <row r="203" spans="3:10">
       <c r="D203" s="43"/>
-      <c r="E203" s="90" t="s">
+      <c r="E203" s="89" t="s">
         <v>45</v>
       </c>
       <c r="F203" s="43"/>
@@ -21805,8 +22041,8 @@
     </row>
     <row r="204" spans="3:10">
       <c r="D204" s="43"/>
-      <c r="E204" s="90" t="s">
-        <v>1818</v>
+      <c r="E204" s="89" t="s">
+        <v>1806</v>
       </c>
       <c r="F204" s="43"/>
       <c r="G204" s="43"/>
@@ -21834,8 +22070,8 @@
     </row>
     <row r="207" spans="3:10">
       <c r="D207" s="43"/>
-      <c r="E207" s="90" t="s">
-        <v>1819</v>
+      <c r="E207" s="89" t="s">
+        <v>1807</v>
       </c>
       <c r="F207" s="43"/>
       <c r="G207" s="43"/>
@@ -21845,8 +22081,8 @@
     </row>
     <row r="208" spans="3:10">
       <c r="D208" s="43"/>
-      <c r="E208" s="90" t="s">
-        <v>1820</v>
+      <c r="E208" s="89" t="s">
+        <v>1808</v>
       </c>
       <c r="F208" s="43"/>
       <c r="G208" s="43"/>
@@ -21857,8 +22093,8 @@
     <row r="209" spans="4:10">
       <c r="D209" s="43"/>
       <c r="E209" s="43"/>
-      <c r="F209" s="90" t="s">
-        <v>1821</v>
+      <c r="F209" s="89" t="s">
+        <v>1809</v>
       </c>
       <c r="G209" s="43"/>
       <c r="H209" s="43" t="s">
@@ -21868,12 +22104,12 @@
       <c r="J209" s="43"/>
     </row>
     <row r="210" spans="4:10">
-      <c r="D210" s="90" t="s">
+      <c r="D210" s="89" t="s">
         <v>1020</v>
       </c>
       <c r="E210" s="43"/>
       <c r="F210" s="43" t="s">
-        <v>1822</v>
+        <v>1810</v>
       </c>
       <c r="G210" s="43"/>
       <c r="H210" s="43" t="s">
@@ -21884,7 +22120,7 @@
     </row>
     <row r="211" spans="4:10">
       <c r="D211" s="43"/>
-      <c r="E211" s="90" t="s">
+      <c r="E211" s="89" t="s">
         <v>45</v>
       </c>
       <c r="F211" s="43"/>
@@ -21912,7 +22148,7 @@
       <c r="J213" s="43"/>
     </row>
     <row r="214" spans="4:10">
-      <c r="D214" s="90"/>
+      <c r="D214" s="89"/>
       <c r="E214" s="43"/>
       <c r="F214" s="43"/>
       <c r="G214" s="43"/>
@@ -21922,8 +22158,8 @@
     </row>
     <row r="215" spans="4:10">
       <c r="D215" s="43"/>
-      <c r="E215" s="90" t="s">
-        <v>1811</v>
+      <c r="E215" s="89" t="s">
+        <v>1799</v>
       </c>
       <c r="F215" s="43"/>
       <c r="G215" s="43"/>
@@ -21933,20 +22169,20 @@
     </row>
     <row r="216" spans="4:10">
       <c r="D216" s="43"/>
-      <c r="E216" s="90"/>
+      <c r="E216" s="89"/>
       <c r="F216" s="43" t="s">
-        <v>1812</v>
+        <v>1800</v>
       </c>
       <c r="G216" s="43"/>
       <c r="H216" s="43" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
       <c r="I216" s="43"/>
       <c r="J216" s="43"/>
     </row>
     <row r="217" spans="4:10">
       <c r="D217" s="43"/>
-      <c r="E217" s="90" t="s">
+      <c r="E217" s="89" t="s">
         <v>45</v>
       </c>
       <c r="F217" s="43"/>
@@ -21957,7 +22193,7 @@
     </row>
     <row r="218" spans="4:10">
       <c r="D218" s="43"/>
-      <c r="E218" s="90"/>
+      <c r="E218" s="89"/>
       <c r="F218" s="43"/>
       <c r="G218" s="43"/>
       <c r="H218" s="43"/>
@@ -21966,8 +22202,8 @@
     </row>
     <row r="219" spans="4:10">
       <c r="D219" s="43"/>
-      <c r="E219" s="90" t="s">
-        <v>1814</v>
+      <c r="E219" s="89" t="s">
+        <v>1802</v>
       </c>
       <c r="F219" s="43"/>
       <c r="G219" s="43"/>
@@ -21976,20 +22212,20 @@
       <c r="J219" s="43"/>
     </row>
     <row r="220" spans="4:10">
-      <c r="D220" s="90"/>
+      <c r="D220" s="89"/>
       <c r="E220" s="43"/>
       <c r="F220" s="43" t="s">
-        <v>1823</v>
+        <v>1811</v>
       </c>
       <c r="G220" s="43"/>
       <c r="H220" s="43" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="I220" s="43"/>
       <c r="J220" s="43"/>
     </row>
     <row r="221" spans="4:10">
-      <c r="D221" s="90"/>
+      <c r="D221" s="89"/>
       <c r="E221" s="43" t="s">
         <v>45</v>
       </c>
@@ -22000,7 +22236,7 @@
       <c r="J221" s="43"/>
     </row>
     <row r="222" spans="4:10">
-      <c r="D222" s="90" t="s">
+      <c r="D222" s="89" t="s">
         <v>45</v>
       </c>
       <c r="E222" s="43"/>
@@ -22304,384 +22540,355 @@
         <v>45</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:10">
       <c r="A275" s="36" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:10">
       <c r="B277" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:10">
       <c r="C279" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:10">
       <c r="C281" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10">
+      <c r="D282" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
-      <c r="D283" s="58" t="s">
+    <row r="283" spans="1:10">
+      <c r="E283" s="58" t="s">
         <v>1625</v>
       </c>
-      <c r="E283" s="43"/>
       <c r="F283" s="43"/>
       <c r="G283" s="43"/>
       <c r="H283" s="43"/>
       <c r="I283" s="43"/>
-    </row>
-    <row r="284" spans="1:9">
-      <c r="D284" s="58" t="s">
+      <c r="J283" s="43"/>
+    </row>
+    <row r="284" spans="1:10">
+      <c r="E284" s="58" t="s">
         <v>1626</v>
       </c>
-      <c r="E284" s="43"/>
       <c r="F284" s="43"/>
       <c r="G284" s="43"/>
       <c r="H284" s="43"/>
       <c r="I284" s="43"/>
-    </row>
-    <row r="285" spans="1:9">
-      <c r="D285" s="58" t="s">
+      <c r="J284" s="43"/>
+    </row>
+    <row r="285" spans="1:10">
+      <c r="E285" s="58" t="s">
         <v>1627</v>
       </c>
-      <c r="E285" s="43"/>
       <c r="F285" s="43"/>
       <c r="G285" s="43"/>
       <c r="H285" s="43"/>
       <c r="I285" s="43"/>
-    </row>
-    <row r="286" spans="1:9">
-      <c r="D286" s="58" t="s">
+      <c r="J285" s="43"/>
+    </row>
+    <row r="286" spans="1:10">
+      <c r="E286" s="58" t="s">
         <v>1628</v>
       </c>
-      <c r="E286" s="43"/>
       <c r="F286" s="43"/>
       <c r="G286" s="43"/>
       <c r="H286" s="43"/>
       <c r="I286" s="43"/>
-    </row>
-    <row r="287" spans="1:9">
-      <c r="D287" s="58" t="s">
+      <c r="J286" s="43"/>
+    </row>
+    <row r="287" spans="1:10">
+      <c r="E287" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E287" s="43"/>
       <c r="F287" s="43"/>
       <c r="G287" s="43"/>
       <c r="H287" s="43"/>
       <c r="I287" s="43"/>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="D288" s="79"/>
-      <c r="E288" s="43"/>
+      <c r="J287" s="43"/>
+    </row>
+    <row r="288" spans="1:10">
+      <c r="E288" s="79"/>
       <c r="F288" s="43"/>
       <c r="G288" s="43"/>
       <c r="H288" s="43"/>
       <c r="I288" s="43"/>
-    </row>
-    <row r="289" spans="1:9">
-      <c r="D289" s="58" t="s">
+      <c r="J288" s="43"/>
+    </row>
+    <row r="289" spans="4:10">
+      <c r="E289" s="58" t="s">
         <v>1629</v>
       </c>
-      <c r="E289" s="43"/>
       <c r="F289" s="43"/>
       <c r="G289" s="43"/>
       <c r="H289" s="43"/>
       <c r="I289" s="43"/>
-    </row>
-    <row r="290" spans="1:9">
-      <c r="D290" s="58" t="s">
+      <c r="J289" s="43"/>
+    </row>
+    <row r="290" spans="4:10">
+      <c r="E290" s="58" t="s">
         <v>1630</v>
       </c>
-      <c r="E290" s="43"/>
       <c r="F290" s="43"/>
       <c r="G290" s="43"/>
       <c r="H290" s="43"/>
       <c r="I290" s="43"/>
-    </row>
-    <row r="291" spans="1:9">
-      <c r="D291" s="58" t="s">
+      <c r="J290" s="43"/>
+    </row>
+    <row r="291" spans="4:10">
+      <c r="E291" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E291" s="43"/>
       <c r="F291" s="43"/>
       <c r="G291" s="43"/>
       <c r="H291" s="43"/>
       <c r="I291" s="43"/>
-    </row>
-    <row r="293" spans="1:9">
-      <c r="D293" s="80" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E293" s="12"/>
+      <c r="J291" s="43"/>
+    </row>
+    <row r="293" spans="4:10">
+      <c r="E293" s="80" t="s">
+        <v>1727</v>
+      </c>
       <c r="F293" s="12"/>
       <c r="G293" s="12"/>
       <c r="H293" s="12"/>
-    </row>
-    <row r="294" spans="1:9">
-      <c r="D294" s="80" t="s">
+      <c r="I293" s="12"/>
+    </row>
+    <row r="294" spans="4:10">
+      <c r="E294" s="80" t="s">
         <v>1631</v>
       </c>
-      <c r="E294" s="12"/>
       <c r="F294" s="12"/>
       <c r="G294" s="12"/>
       <c r="H294" s="12"/>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="A302" s="36" t="s">
+      <c r="I294" s="12"/>
+    </row>
+    <row r="302" spans="4:10">
+      <c r="D302" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="303" spans="4:10">
+      <c r="E303" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="304" spans="4:10">
+      <c r="E304" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
+      <c r="F306" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10">
+      <c r="G307" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J307" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
+      <c r="F308" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10">
+      <c r="D310" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10">
+      <c r="A312" s="36" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
-      <c r="B304" t="s">
+    <row r="314" spans="1:10">
+      <c r="B314" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="305" spans="3:6">
-      <c r="C305" t="s">
+    <row r="315" spans="1:10">
+      <c r="C315" t="s">
         <v>1643</v>
       </c>
-      <c r="E305">
+      <c r="E315">
         <v>1</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F315" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="306" spans="3:6">
-      <c r="E306">
+    <row r="316" spans="1:10">
+      <c r="E316">
         <v>2</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F316" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="307" spans="3:6">
-      <c r="E307">
+    <row r="317" spans="1:10">
+      <c r="E317">
         <v>3</v>
       </c>
-      <c r="F307" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="309" spans="3:6">
-      <c r="C309" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="311" spans="3:6">
-      <c r="C311" t="s">
+      <c r="F317" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
+      <c r="C319" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="321" spans="3:8">
+      <c r="C321" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="312" spans="3:6">
-      <c r="D312" t="s">
+    <row r="322" spans="3:8">
+      <c r="D322" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="313" spans="3:6">
-      <c r="D313" t="s">
+    <row r="323" spans="3:8">
+      <c r="D323" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="315" spans="3:6">
-      <c r="D315" t="s">
+    <row r="325" spans="3:8">
+      <c r="D325" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="316" spans="3:6">
-      <c r="D316" t="s">
+    <row r="326" spans="3:8">
+      <c r="D326" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="317" spans="3:6">
-      <c r="D317" t="s">
+    <row r="327" spans="3:8">
+      <c r="D327" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="321" spans="3:10">
-      <c r="C321" t="s">
+    <row r="331" spans="3:8">
+      <c r="C331" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="323" spans="3:10">
-      <c r="D323" t="s">
+    <row r="333" spans="3:8">
+      <c r="D333" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="324" spans="3:10">
-      <c r="D324" t="s">
+    <row r="334" spans="3:8">
+      <c r="D334" t="s">
         <v>1649</v>
       </c>
-      <c r="H324" t="s">
+      <c r="H334" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="325" spans="3:10">
-      <c r="H325" t="s">
+    <row r="335" spans="3:8">
+      <c r="H335" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="327" spans="3:10">
-      <c r="D327" t="s">
+    <row r="337" spans="1:10">
+      <c r="D337" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="328" spans="3:10">
-      <c r="D328" t="s">
+    <row r="338" spans="1:10">
+      <c r="D338" t="s">
         <v>1653</v>
       </c>
-      <c r="H328" t="s">
+      <c r="H338" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="329" spans="3:10">
-      <c r="H329" t="s">
+    <row r="339" spans="1:10">
+      <c r="H339" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="331" spans="3:10">
-      <c r="D331" s="58" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E331" s="84"/>
-      <c r="F331" s="84"/>
-      <c r="G331" s="84"/>
-    </row>
-    <row r="332" spans="3:10">
-      <c r="D332" s="58" t="s">
-        <v>1739</v>
-      </c>
-      <c r="E332" s="84"/>
-      <c r="F332" s="84"/>
-      <c r="G332" s="84"/>
-      <c r="H332" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="333" spans="3:10">
-      <c r="D333" s="83"/>
-      <c r="H333" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="334" spans="3:10">
-      <c r="D334" s="83"/>
-    </row>
-    <row r="335" spans="3:10">
-      <c r="D335" s="58" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E335" s="43"/>
-      <c r="F335" s="43"/>
-      <c r="G335" s="43"/>
-      <c r="H335" s="43"/>
-      <c r="I335" s="43"/>
-    </row>
-    <row r="336" spans="3:10">
-      <c r="D336" s="58" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E336" s="43"/>
-      <c r="F336" s="43"/>
-      <c r="G336" s="43"/>
-      <c r="H336" s="43"/>
-      <c r="I336" s="43"/>
-      <c r="J336" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10">
-      <c r="J337" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10">
-      <c r="A338" s="36" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10">
-      <c r="C340" s="58" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D340" s="43"/>
-      <c r="E340" s="43"/>
-      <c r="F340" s="43"/>
-      <c r="G340" s="43"/>
-    </row>
     <row r="341" spans="1:10">
-      <c r="C341" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D341" s="43"/>
-      <c r="E341" s="43"/>
-      <c r="F341" s="43"/>
-      <c r="G341" s="43"/>
+      <c r="D341" s="58" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E341" s="83"/>
+      <c r="F341" s="83"/>
+      <c r="G341" s="83"/>
     </row>
     <row r="342" spans="1:10">
-      <c r="C342" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D342" s="43"/>
-      <c r="E342" s="43"/>
-      <c r="F342" s="43"/>
-      <c r="G342" s="43"/>
+      <c r="D342" s="58" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E342" s="83"/>
+      <c r="F342" s="83"/>
+      <c r="G342" s="83"/>
+      <c r="H342" t="s">
+        <v>1730</v>
+      </c>
     </row>
     <row r="343" spans="1:10">
-      <c r="C343" s="79"/>
-      <c r="D343" s="43"/>
-      <c r="E343" s="43"/>
-      <c r="F343" s="43"/>
-      <c r="G343" s="43"/>
+      <c r="D343" s="82"/>
+      <c r="H343" t="s">
+        <v>1734</v>
+      </c>
     </row>
     <row r="344" spans="1:10">
-      <c r="C344" s="58" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D344" s="43"/>
-      <c r="E344" s="43"/>
-      <c r="F344" s="43"/>
-      <c r="G344" s="43"/>
-      <c r="H344" t="s">
-        <v>1658</v>
-      </c>
+      <c r="D344" s="82"/>
     </row>
     <row r="345" spans="1:10">
-      <c r="C345" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D345" s="43"/>
+      <c r="D345" s="58" t="s">
+        <v>1728</v>
+      </c>
       <c r="E345" s="43"/>
       <c r="F345" s="43"/>
       <c r="G345" s="43"/>
-      <c r="H345" t="s">
-        <v>1659</v>
-      </c>
+      <c r="H345" s="43"/>
+      <c r="I345" s="43"/>
     </row>
     <row r="346" spans="1:10">
-      <c r="C346" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D346" s="43"/>
+      <c r="D346" s="58" t="s">
+        <v>1731</v>
+      </c>
       <c r="E346" s="43"/>
       <c r="F346" s="43"/>
       <c r="G346" s="43"/>
-      <c r="H346" t="s">
-        <v>1660</v>
+      <c r="H346" s="43"/>
+      <c r="I346" s="43"/>
+      <c r="J346" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10">
+      <c r="J347" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="348" spans="1:10">
       <c r="A348" s="36" t="s">
-        <v>1669</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="350" spans="1:10">
       <c r="C350" s="58" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="D350" s="43"/>
       <c r="E350" s="43"/>
@@ -22689,9 +22896,10 @@
       <c r="G350" s="43"/>
     </row>
     <row r="351" spans="1:10">
-      <c r="D351" s="43" t="s">
-        <v>1665</v>
-      </c>
+      <c r="C351" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D351" s="43"/>
       <c r="E351" s="43"/>
       <c r="F351" s="43"/>
       <c r="G351" s="43"/>
@@ -22714,401 +22922,223 @@
     </row>
     <row r="354" spans="1:9">
       <c r="C354" s="58" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="D354" s="43"/>
       <c r="E354" s="43"/>
       <c r="F354" s="43"/>
       <c r="G354" s="43"/>
+      <c r="H354" t="s">
+        <v>1658</v>
+      </c>
     </row>
     <row r="355" spans="1:9">
-      <c r="D355" s="43" t="s">
-        <v>1666</v>
-      </c>
+      <c r="C355" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D355" s="43"/>
       <c r="E355" s="43"/>
       <c r="F355" s="43"/>
       <c r="G355" s="43"/>
+      <c r="H355" t="s">
+        <v>1659</v>
+      </c>
     </row>
     <row r="356" spans="1:9">
-      <c r="C356" s="43" t="s">
+      <c r="C356" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D356" s="43"/>
       <c r="E356" s="43"/>
       <c r="F356" s="43"/>
       <c r="G356" s="43"/>
+      <c r="H356" t="s">
+        <v>1660</v>
+      </c>
     </row>
     <row r="358" spans="1:9">
-      <c r="C358" t="s">
-        <v>1663</v>
-      </c>
+      <c r="A358" s="36" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" s="36"/>
     </row>
     <row r="360" spans="1:9">
+      <c r="A360" s="36"/>
       <c r="C360" t="s">
-        <v>1664</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="361" spans="1:9">
-      <c r="C361" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9">
-      <c r="C364" t="s">
-        <v>1667</v>
-      </c>
+      <c r="A361" s="36"/>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" s="36"/>
+      <c r="D362" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I362" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" s="36"/>
+    </row>
+    <row r="364" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A364" s="36"/>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" s="36"/>
     </row>
     <row r="366" spans="1:9">
-      <c r="A366" s="36" t="s">
-        <v>1670</v>
-      </c>
+      <c r="A366" s="36"/>
     </row>
     <row r="367" spans="1:9">
-      <c r="B367" t="s">
-        <v>1681</v>
-      </c>
+      <c r="A367" s="36"/>
     </row>
     <row r="368" spans="1:9">
-      <c r="C368" s="58" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D368" s="43"/>
-      <c r="E368" s="43"/>
-      <c r="F368" s="43"/>
-      <c r="G368" s="43"/>
-      <c r="H368" s="43"/>
-      <c r="I368" s="43"/>
-    </row>
-    <row r="369" spans="3:9">
-      <c r="C369" s="58" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D369" s="43"/>
-      <c r="E369" s="43"/>
-      <c r="F369" s="43"/>
-      <c r="G369" s="43"/>
-      <c r="H369" s="43"/>
-      <c r="I369" s="43"/>
-    </row>
-    <row r="370" spans="3:9">
-      <c r="C370" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D370" s="43"/>
-      <c r="E370" s="43"/>
-      <c r="F370" s="43"/>
-      <c r="G370" s="43"/>
-      <c r="H370" s="43"/>
-      <c r="I370" s="43"/>
-    </row>
-    <row r="371" spans="3:9">
-      <c r="C371" s="79"/>
-      <c r="D371" s="43"/>
+      <c r="A368" s="36"/>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" s="36"/>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" s="36"/>
+      <c r="D370" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" s="36"/>
+      <c r="D371" s="58"/>
       <c r="E371" s="43"/>
       <c r="F371" s="43"/>
       <c r="G371" s="43"/>
       <c r="H371" s="43"/>
-      <c r="I371" s="43"/>
-    </row>
-    <row r="372" spans="3:9">
-      <c r="C372" s="58" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D372" s="43"/>
+    </row>
+    <row r="372" spans="1:8">
       <c r="E372" s="43"/>
       <c r="F372" s="43"/>
       <c r="G372" s="43"/>
       <c r="H372" s="43"/>
-      <c r="I372" s="43"/>
-    </row>
-    <row r="373" spans="3:9">
-      <c r="C373" s="58" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D373" s="43"/>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="D373" s="58"/>
       <c r="E373" s="43"/>
       <c r="F373" s="43"/>
       <c r="G373" s="43"/>
       <c r="H373" s="43"/>
-      <c r="I373" s="43"/>
-    </row>
-    <row r="374" spans="3:9">
-      <c r="C374" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D374" s="43"/>
-      <c r="E374" s="43"/>
-      <c r="F374" s="43"/>
-      <c r="G374" s="43"/>
-      <c r="H374" s="43"/>
-      <c r="I374" s="43"/>
-    </row>
-    <row r="375" spans="3:9">
-      <c r="C375" s="79"/>
-      <c r="D375" s="43"/>
+    </row>
+    <row r="375" spans="1:8">
       <c r="E375" s="43"/>
       <c r="F375" s="43"/>
       <c r="G375" s="43"/>
       <c r="H375" s="43"/>
-      <c r="I375" s="43"/>
-    </row>
-    <row r="376" spans="3:9">
-      <c r="C376" s="58" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D376" s="43"/>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="C376" t="s">
+        <v>1876</v>
+      </c>
       <c r="E376" s="43"/>
       <c r="F376" s="43"/>
       <c r="G376" s="43"/>
       <c r="H376" s="43"/>
-      <c r="I376" s="43"/>
-    </row>
-    <row r="377" spans="3:9">
-      <c r="C377" s="58" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D377" s="43"/>
+    </row>
+    <row r="377" spans="1:8">
       <c r="E377" s="43"/>
       <c r="F377" s="43"/>
       <c r="G377" s="43"/>
       <c r="H377" s="43"/>
-      <c r="I377" s="43"/>
-    </row>
-    <row r="378" spans="3:9">
-      <c r="C378" s="58" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D378" s="43"/>
+    </row>
+    <row r="378" spans="1:8">
       <c r="E378" s="43"/>
       <c r="F378" s="43"/>
       <c r="G378" s="43"/>
       <c r="H378" s="43"/>
-      <c r="I378" s="43"/>
-    </row>
-    <row r="379" spans="3:9">
-      <c r="C379" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D379" s="43"/>
+    </row>
+    <row r="379" spans="1:8">
       <c r="E379" s="43"/>
       <c r="F379" s="43"/>
       <c r="G379" s="43"/>
       <c r="H379" s="43"/>
-      <c r="I379" s="43"/>
-    </row>
-    <row r="382" spans="3:9">
-      <c r="C382" s="58" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="383" spans="3:9">
-      <c r="C383" s="58" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="384" spans="3:9">
-      <c r="D384" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="385" spans="2:9">
-      <c r="D385" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="387" spans="2:9">
-      <c r="B387" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="389" spans="2:9">
-      <c r="C389" s="58" t="s">
+    </row>
+    <row r="380" spans="1:8">
+      <c r="E380" s="43"/>
+      <c r="F380" s="43"/>
+      <c r="G380" s="43"/>
+      <c r="H380" s="43"/>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="E381" s="43"/>
+      <c r="F381" s="43"/>
+      <c r="G381" s="43"/>
+      <c r="H381" s="43"/>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="E382" s="43"/>
+      <c r="F382" s="43"/>
+      <c r="G382" s="43"/>
+      <c r="H382" s="43"/>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="D383" s="43"/>
+      <c r="E383" s="43"/>
+      <c r="F383" s="43"/>
+      <c r="G383" s="43"/>
+      <c r="H383" s="43"/>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="C385" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="36" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="C390" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="D391" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F391" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="D397" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="C403" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" s="36" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="B411" t="s">
         <v>1673</v>
       </c>
-      <c r="D389" s="43"/>
-      <c r="E389" s="43"/>
-      <c r="F389" s="43"/>
-      <c r="G389" s="43"/>
-      <c r="H389" s="43"/>
-      <c r="I389" s="43"/>
-    </row>
-    <row r="390" spans="2:9">
-      <c r="C390" s="58" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D390" s="43"/>
-      <c r="E390" s="43"/>
-      <c r="F390" s="43"/>
-      <c r="G390" s="43"/>
-      <c r="H390" s="43"/>
-      <c r="I390" s="43"/>
-    </row>
-    <row r="391" spans="2:9">
-      <c r="C391" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D391" s="43"/>
-      <c r="E391" s="43"/>
-      <c r="F391" s="43"/>
-      <c r="G391" s="43"/>
-      <c r="H391" s="43"/>
-      <c r="I391" s="43"/>
-    </row>
-    <row r="392" spans="2:9">
-      <c r="C392" s="79"/>
-      <c r="D392" s="43"/>
-      <c r="E392" s="43"/>
-      <c r="F392" s="43"/>
-      <c r="G392" s="43"/>
-      <c r="H392" s="43"/>
-      <c r="I392" s="43"/>
-    </row>
-    <row r="393" spans="2:9">
-      <c r="C393" s="58" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D393" s="43"/>
-      <c r="E393" s="43"/>
-      <c r="F393" s="43"/>
-      <c r="G393" s="43"/>
-      <c r="H393" s="43"/>
-      <c r="I393" s="43"/>
-    </row>
-    <row r="394" spans="2:9">
-      <c r="C394" s="58" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D394" s="43"/>
-      <c r="E394" s="43"/>
-      <c r="F394" s="43"/>
-      <c r="G394" s="43"/>
-      <c r="H394" s="43"/>
-      <c r="I394" s="43"/>
-    </row>
-    <row r="395" spans="2:9">
-      <c r="C395" s="58" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D395" s="43"/>
-      <c r="E395" s="43"/>
-      <c r="F395" s="43"/>
-      <c r="G395" s="43"/>
-      <c r="H395" s="43"/>
-      <c r="I395" s="43"/>
-    </row>
-    <row r="396" spans="2:9">
-      <c r="C396" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D396" s="43"/>
-      <c r="E396" s="43"/>
-      <c r="F396" s="43"/>
-      <c r="G396" s="43"/>
-      <c r="H396" s="43"/>
-      <c r="I396" s="43"/>
-    </row>
-    <row r="398" spans="2:9">
-      <c r="C398" s="58" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="399" spans="2:9">
-      <c r="C399" s="58" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="400" spans="2:9">
-      <c r="D400" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9">
-      <c r="D401" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9">
-      <c r="A403" s="36" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9">
-      <c r="C404" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9">
-      <c r="D405" s="58" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E405" s="43"/>
-      <c r="F405" s="43"/>
-      <c r="G405" s="43"/>
-      <c r="H405" s="43"/>
-      <c r="I405" s="43"/>
-    </row>
-    <row r="406" spans="1:9">
-      <c r="D406" s="58" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E406" s="43"/>
-      <c r="F406" s="43"/>
-      <c r="G406" s="43"/>
-      <c r="H406" s="43"/>
-      <c r="I406" s="43"/>
-    </row>
-    <row r="407" spans="1:9">
-      <c r="D407" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E407" s="43"/>
-      <c r="F407" s="43"/>
-      <c r="G407" s="43"/>
-      <c r="H407" s="43"/>
-      <c r="I407" s="43"/>
-    </row>
-    <row r="408" spans="1:9">
-      <c r="D408" s="79"/>
-      <c r="E408" s="43"/>
-      <c r="F408" s="43"/>
-      <c r="G408" s="43"/>
-      <c r="H408" s="43"/>
-      <c r="I408" s="43"/>
-    </row>
-    <row r="409" spans="1:9">
-      <c r="D409" s="58" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E409" s="43"/>
-      <c r="F409" s="43"/>
-      <c r="G409" s="43"/>
-      <c r="H409" s="43"/>
-      <c r="I409" s="43"/>
-    </row>
-    <row r="410" spans="1:9">
-      <c r="D410" s="58" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E410" s="43"/>
-      <c r="F410" s="43"/>
-      <c r="G410" s="43"/>
-      <c r="H410" s="43"/>
-      <c r="I410" s="43"/>
-    </row>
-    <row r="411" spans="1:9">
-      <c r="D411" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E411" s="43"/>
-      <c r="F411" s="43"/>
-      <c r="G411" s="43"/>
-      <c r="H411" s="43"/>
-      <c r="I411" s="43"/>
     </row>
     <row r="412" spans="1:9">
-      <c r="D412" s="58" t="s">
-        <v>1625</v>
-      </c>
+      <c r="C412" s="58" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D412" s="43"/>
       <c r="E412" s="43"/>
       <c r="F412" s="43"/>
       <c r="G412" s="43"/>
@@ -23116,9 +23146,10 @@
       <c r="I412" s="43"/>
     </row>
     <row r="413" spans="1:9">
-      <c r="D413" s="58" t="s">
-        <v>1692</v>
-      </c>
+      <c r="C413" s="58" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D413" s="43"/>
       <c r="E413" s="43"/>
       <c r="F413" s="43"/>
       <c r="G413" s="43"/>
@@ -23126,9 +23157,10 @@
       <c r="I413" s="43"/>
     </row>
     <row r="414" spans="1:9">
-      <c r="D414" s="58" t="s">
-        <v>1693</v>
-      </c>
+      <c r="C414" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D414" s="43"/>
       <c r="E414" s="43"/>
       <c r="F414" s="43"/>
       <c r="G414" s="43"/>
@@ -23136,9 +23168,8 @@
       <c r="I414" s="43"/>
     </row>
     <row r="415" spans="1:9">
-      <c r="D415" s="58" t="s">
-        <v>1694</v>
-      </c>
+      <c r="C415" s="79"/>
+      <c r="D415" s="43"/>
       <c r="E415" s="43"/>
       <c r="F415" s="43"/>
       <c r="G415" s="43"/>
@@ -23146,1430 +23177,2377 @@
       <c r="I415" s="43"/>
     </row>
     <row r="416" spans="1:9">
-      <c r="D416" s="58" t="s">
-        <v>45</v>
-      </c>
+      <c r="C416" s="58" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D416" s="43"/>
       <c r="E416" s="43"/>
       <c r="F416" s="43"/>
       <c r="G416" s="43"/>
       <c r="H416" s="43"/>
       <c r="I416" s="43"/>
     </row>
-    <row r="418" spans="3:9">
-      <c r="C418" s="58"/>
-      <c r="D418" s="58" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="420" spans="3:9">
-      <c r="C420" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="421" spans="3:9">
-      <c r="D421" s="58" t="s">
-        <v>1690</v>
-      </c>
+    <row r="417" spans="2:9">
+      <c r="C417" s="58" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D417" s="43"/>
+      <c r="E417" s="43"/>
+      <c r="F417" s="43"/>
+      <c r="G417" s="43"/>
+      <c r="H417" s="43"/>
+      <c r="I417" s="43"/>
+    </row>
+    <row r="418" spans="2:9">
+      <c r="C418" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D418" s="43"/>
+      <c r="E418" s="43"/>
+      <c r="F418" s="43"/>
+      <c r="G418" s="43"/>
+      <c r="H418" s="43"/>
+      <c r="I418" s="43"/>
+    </row>
+    <row r="419" spans="2:9">
+      <c r="C419" s="79"/>
+      <c r="D419" s="43"/>
+      <c r="E419" s="43"/>
+      <c r="F419" s="43"/>
+      <c r="G419" s="43"/>
+      <c r="H419" s="43"/>
+      <c r="I419" s="43"/>
+    </row>
+    <row r="420" spans="2:9">
+      <c r="C420" s="58" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D420" s="43"/>
+      <c r="E420" s="43"/>
+      <c r="F420" s="43"/>
+      <c r="G420" s="43"/>
+      <c r="H420" s="43"/>
+      <c r="I420" s="43"/>
+    </row>
+    <row r="421" spans="2:9">
+      <c r="C421" s="58" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D421" s="43"/>
       <c r="E421" s="43"/>
       <c r="F421" s="43"/>
       <c r="G421" s="43"/>
       <c r="H421" s="43"/>
       <c r="I421" s="43"/>
     </row>
-    <row r="422" spans="3:9">
-      <c r="D422" s="58" t="s">
-        <v>1691</v>
-      </c>
+    <row r="422" spans="2:9">
+      <c r="C422" s="58" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D422" s="43"/>
       <c r="E422" s="43"/>
       <c r="F422" s="43"/>
       <c r="G422" s="43"/>
       <c r="H422" s="43"/>
       <c r="I422" s="43"/>
     </row>
-    <row r="423" spans="3:9">
-      <c r="D423" s="58" t="s">
+    <row r="423" spans="2:9">
+      <c r="C423" s="58" t="s">
         <v>45</v>
       </c>
+      <c r="D423" s="43"/>
       <c r="E423" s="43"/>
       <c r="F423" s="43"/>
       <c r="G423" s="43"/>
       <c r="H423" s="43"/>
       <c r="I423" s="43"/>
     </row>
-    <row r="424" spans="3:9">
-      <c r="D424" s="58" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E424" s="43"/>
-      <c r="F424" s="43"/>
-      <c r="G424" s="43"/>
-      <c r="H424" s="43"/>
-      <c r="I424" s="43"/>
-    </row>
-    <row r="425" spans="3:9">
-      <c r="D425" s="58" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E425" s="43"/>
-      <c r="F425" s="43"/>
-      <c r="G425" s="43"/>
-      <c r="H425" s="43"/>
-      <c r="I425" s="43"/>
-    </row>
-    <row r="426" spans="3:9">
-      <c r="D426" s="58" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E426" s="43"/>
-      <c r="F426" s="43"/>
-      <c r="G426" s="43"/>
-      <c r="H426" s="43"/>
-      <c r="I426" s="43"/>
-    </row>
-    <row r="427" spans="3:9">
-      <c r="D427" s="58" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E427" s="43"/>
-      <c r="F427" s="43"/>
-      <c r="G427" s="43"/>
-      <c r="H427" s="43"/>
-      <c r="I427" s="43"/>
-    </row>
-    <row r="428" spans="3:9">
-      <c r="D428" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E428" s="43"/>
-      <c r="F428" s="43"/>
-      <c r="G428" s="43"/>
-      <c r="H428" s="43"/>
-      <c r="I428" s="43"/>
-    </row>
-    <row r="430" spans="3:9">
-      <c r="D430" s="58" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="431" spans="3:9">
-      <c r="D431" s="58" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="433" spans="3:9">
-      <c r="C433" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="434" spans="3:9">
-      <c r="D434" s="58" t="s">
-        <v>1703</v>
-      </c>
+    <row r="426" spans="2:9">
+      <c r="C426" s="58" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="427" spans="2:9">
+      <c r="C427" s="58" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="428" spans="2:9">
+      <c r="D428" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="429" spans="2:9">
+      <c r="D429" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="431" spans="2:9">
+      <c r="B431" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
+      <c r="C433" s="58" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D433" s="43"/>
+      <c r="E433" s="43"/>
+      <c r="F433" s="43"/>
+      <c r="G433" s="43"/>
+      <c r="H433" s="43"/>
+      <c r="I433" s="43"/>
+    </row>
+    <row r="434" spans="1:9">
+      <c r="C434" s="58" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D434" s="43"/>
       <c r="E434" s="43"/>
       <c r="F434" s="43"/>
       <c r="G434" s="43"/>
       <c r="H434" s="43"/>
       <c r="I434" s="43"/>
     </row>
-    <row r="435" spans="3:9">
-      <c r="D435" s="58" t="s">
-        <v>1704</v>
-      </c>
+    <row r="435" spans="1:9">
+      <c r="C435" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D435" s="43"/>
       <c r="E435" s="43"/>
       <c r="F435" s="43"/>
       <c r="G435" s="43"/>
       <c r="H435" s="43"/>
       <c r="I435" s="43"/>
     </row>
-    <row r="436" spans="3:9">
-      <c r="D436" s="58" t="s">
-        <v>620</v>
-      </c>
+    <row r="436" spans="1:9">
+      <c r="C436" s="79"/>
+      <c r="D436" s="43"/>
       <c r="E436" s="43"/>
       <c r="F436" s="43"/>
       <c r="G436" s="43"/>
       <c r="H436" s="43"/>
       <c r="I436" s="43"/>
     </row>
-    <row r="437" spans="3:9">
-      <c r="D437" s="79"/>
+    <row r="437" spans="1:9">
+      <c r="C437" s="58" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D437" s="43"/>
       <c r="E437" s="43"/>
       <c r="F437" s="43"/>
       <c r="G437" s="43"/>
       <c r="H437" s="43"/>
       <c r="I437" s="43"/>
     </row>
-    <row r="438" spans="3:9">
-      <c r="D438" s="58" t="s">
-        <v>1700</v>
-      </c>
+    <row r="438" spans="1:9">
+      <c r="C438" s="58" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D438" s="43"/>
       <c r="E438" s="43"/>
       <c r="F438" s="43"/>
       <c r="G438" s="43"/>
       <c r="H438" s="43"/>
       <c r="I438" s="43"/>
     </row>
-    <row r="439" spans="3:9">
-      <c r="D439" s="81" t="s">
-        <v>1701</v>
-      </c>
+    <row r="439" spans="1:9">
+      <c r="C439" s="58" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D439" s="43"/>
       <c r="E439" s="43"/>
       <c r="F439" s="43"/>
       <c r="G439" s="43"/>
       <c r="H439" s="43"/>
       <c r="I439" s="43"/>
     </row>
-    <row r="440" spans="3:9">
-      <c r="D440" s="81" t="s">
-        <v>1702</v>
-      </c>
+    <row r="440" spans="1:9">
+      <c r="C440" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D440" s="43"/>
       <c r="E440" s="43"/>
       <c r="F440" s="43"/>
       <c r="G440" s="43"/>
       <c r="H440" s="43"/>
       <c r="I440" s="43"/>
     </row>
-    <row r="441" spans="3:9">
-      <c r="D441" s="81" t="s">
+    <row r="442" spans="1:9">
+      <c r="C442" s="58" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
+      <c r="C443" s="58" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
+      <c r="D444" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
+      <c r="D445" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="A447" s="36" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="C448" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="449" spans="3:9">
+      <c r="D449" s="58" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E449" s="43"/>
+      <c r="F449" s="43"/>
+      <c r="G449" s="43"/>
+      <c r="H449" s="43"/>
+      <c r="I449" s="43"/>
+    </row>
+    <row r="450" spans="3:9">
+      <c r="D450" s="58" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E450" s="43"/>
+      <c r="F450" s="43"/>
+      <c r="G450" s="43"/>
+      <c r="H450" s="43"/>
+      <c r="I450" s="43"/>
+    </row>
+    <row r="451" spans="3:9">
+      <c r="D451" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E451" s="43"/>
+      <c r="F451" s="43"/>
+      <c r="G451" s="43"/>
+      <c r="H451" s="43"/>
+      <c r="I451" s="43"/>
+    </row>
+    <row r="452" spans="3:9">
+      <c r="D452" s="79"/>
+      <c r="E452" s="43"/>
+      <c r="F452" s="43"/>
+      <c r="G452" s="43"/>
+      <c r="H452" s="43"/>
+      <c r="I452" s="43"/>
+    </row>
+    <row r="453" spans="3:9">
+      <c r="D453" s="58" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E453" s="43"/>
+      <c r="F453" s="43"/>
+      <c r="G453" s="43"/>
+      <c r="H453" s="43"/>
+      <c r="I453" s="43"/>
+    </row>
+    <row r="454" spans="3:9">
+      <c r="D454" s="58" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E454" s="43"/>
+      <c r="F454" s="43"/>
+      <c r="G454" s="43"/>
+      <c r="H454" s="43"/>
+      <c r="I454" s="43"/>
+    </row>
+    <row r="455" spans="3:9">
+      <c r="D455" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E455" s="43"/>
+      <c r="F455" s="43"/>
+      <c r="G455" s="43"/>
+      <c r="H455" s="43"/>
+      <c r="I455" s="43"/>
+    </row>
+    <row r="456" spans="3:9">
+      <c r="D456" s="58" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E456" s="43"/>
+      <c r="F456" s="43"/>
+      <c r="G456" s="43"/>
+      <c r="H456" s="43"/>
+      <c r="I456" s="43"/>
+    </row>
+    <row r="457" spans="3:9">
+      <c r="D457" s="58" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E457" s="43"/>
+      <c r="F457" s="43"/>
+      <c r="G457" s="43"/>
+      <c r="H457" s="43"/>
+      <c r="I457" s="43"/>
+    </row>
+    <row r="458" spans="3:9">
+      <c r="D458" s="58" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E458" s="43"/>
+      <c r="F458" s="43"/>
+      <c r="G458" s="43"/>
+      <c r="H458" s="43"/>
+      <c r="I458" s="43"/>
+    </row>
+    <row r="459" spans="3:9">
+      <c r="D459" s="58" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E459" s="43"/>
+      <c r="F459" s="43"/>
+      <c r="G459" s="43"/>
+      <c r="H459" s="43"/>
+      <c r="I459" s="43"/>
+    </row>
+    <row r="460" spans="3:9">
+      <c r="D460" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E460" s="43"/>
+      <c r="F460" s="43"/>
+      <c r="G460" s="43"/>
+      <c r="H460" s="43"/>
+      <c r="I460" s="43"/>
+    </row>
+    <row r="462" spans="3:9">
+      <c r="C462" s="58"/>
+      <c r="D462" s="58" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="464" spans="3:9">
+      <c r="C464" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="465" spans="3:9">
+      <c r="D465" s="58" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E465" s="43"/>
+      <c r="F465" s="43"/>
+      <c r="G465" s="43"/>
+      <c r="H465" s="43"/>
+      <c r="I465" s="43"/>
+    </row>
+    <row r="466" spans="3:9">
+      <c r="D466" s="58" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E466" s="43"/>
+      <c r="F466" s="43"/>
+      <c r="G466" s="43"/>
+      <c r="H466" s="43"/>
+      <c r="I466" s="43"/>
+    </row>
+    <row r="467" spans="3:9">
+      <c r="D467" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E467" s="43"/>
+      <c r="F467" s="43"/>
+      <c r="G467" s="43"/>
+      <c r="H467" s="43"/>
+      <c r="I467" s="43"/>
+    </row>
+    <row r="468" spans="3:9">
+      <c r="D468" s="58" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E468" s="43"/>
+      <c r="F468" s="43"/>
+      <c r="G468" s="43"/>
+      <c r="H468" s="43"/>
+      <c r="I468" s="43"/>
+    </row>
+    <row r="469" spans="3:9">
+      <c r="D469" s="58" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E469" s="43"/>
+      <c r="F469" s="43"/>
+      <c r="G469" s="43"/>
+      <c r="H469" s="43"/>
+      <c r="I469" s="43"/>
+    </row>
+    <row r="470" spans="3:9">
+      <c r="D470" s="58" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E470" s="43"/>
+      <c r="F470" s="43"/>
+      <c r="G470" s="43"/>
+      <c r="H470" s="43"/>
+      <c r="I470" s="43"/>
+    </row>
+    <row r="471" spans="3:9">
+      <c r="D471" s="58" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E471" s="43"/>
+      <c r="F471" s="43"/>
+      <c r="G471" s="43"/>
+      <c r="H471" s="43"/>
+      <c r="I471" s="43"/>
+    </row>
+    <row r="472" spans="3:9">
+      <c r="D472" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E472" s="43"/>
+      <c r="F472" s="43"/>
+      <c r="G472" s="43"/>
+      <c r="H472" s="43"/>
+      <c r="I472" s="43"/>
+    </row>
+    <row r="474" spans="3:9">
+      <c r="D474" s="58" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="475" spans="3:9">
+      <c r="D475" s="58" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="477" spans="3:9">
+      <c r="C477" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="478" spans="3:9">
+      <c r="D478" s="58" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E478" s="43"/>
+      <c r="F478" s="43"/>
+      <c r="G478" s="43"/>
+      <c r="H478" s="43"/>
+      <c r="I478" s="43"/>
+    </row>
+    <row r="479" spans="3:9">
+      <c r="D479" s="58" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E479" s="43"/>
+      <c r="F479" s="43"/>
+      <c r="G479" s="43"/>
+      <c r="H479" s="43"/>
+      <c r="I479" s="43"/>
+    </row>
+    <row r="480" spans="3:9">
+      <c r="D480" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E480" s="43"/>
+      <c r="F480" s="43"/>
+      <c r="G480" s="43"/>
+      <c r="H480" s="43"/>
+      <c r="I480" s="43"/>
+    </row>
+    <row r="481" spans="4:9">
+      <c r="D481" s="79"/>
+      <c r="E481" s="43"/>
+      <c r="F481" s="43"/>
+      <c r="G481" s="43"/>
+      <c r="H481" s="43"/>
+      <c r="I481" s="43"/>
+    </row>
+    <row r="482" spans="4:9">
+      <c r="D482" s="58" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E482" s="43"/>
+      <c r="F482" s="43"/>
+      <c r="G482" s="43"/>
+      <c r="H482" s="43"/>
+      <c r="I482" s="43"/>
+    </row>
+    <row r="483" spans="4:9">
+      <c r="D483" s="81" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E483" s="43"/>
+      <c r="F483" s="43"/>
+      <c r="G483" s="43"/>
+      <c r="H483" s="43"/>
+      <c r="I483" s="43"/>
+    </row>
+    <row r="484" spans="4:9">
+      <c r="D484" s="81" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E484" s="43"/>
+      <c r="F484" s="43"/>
+      <c r="G484" s="43"/>
+      <c r="H484" s="43"/>
+      <c r="I484" s="43"/>
+    </row>
+    <row r="485" spans="4:9">
+      <c r="D485" s="81" t="s">
         <v>716</v>
       </c>
-      <c r="E441" s="43"/>
-      <c r="F441" s="43"/>
-      <c r="G441" s="43"/>
-      <c r="H441" s="43"/>
-      <c r="I441" s="43"/>
-    </row>
-    <row r="442" spans="3:9">
-      <c r="D442" s="81" t="s">
+      <c r="E485" s="43"/>
+      <c r="F485" s="43"/>
+      <c r="G485" s="43"/>
+      <c r="H485" s="43"/>
+      <c r="I485" s="43"/>
+    </row>
+    <row r="486" spans="4:9">
+      <c r="D486" s="81" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E486" s="43"/>
+      <c r="F486" s="43"/>
+      <c r="G486" s="43"/>
+      <c r="H486" s="43"/>
+      <c r="I486" s="43"/>
+    </row>
+    <row r="487" spans="4:9">
+      <c r="D487" s="81" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E487" s="43"/>
+      <c r="F487" s="43"/>
+      <c r="G487" s="43"/>
+      <c r="H487" s="43"/>
+      <c r="I487" s="43"/>
+    </row>
+    <row r="488" spans="4:9">
+      <c r="D488" s="81" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E488" s="43"/>
+      <c r="F488" s="43"/>
+      <c r="G488" s="43"/>
+      <c r="H488" s="43" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I488" s="43"/>
+    </row>
+    <row r="489" spans="4:9">
+      <c r="D489" s="81" t="s">
+        <v>620</v>
+      </c>
+      <c r="E489" s="43"/>
+      <c r="F489" s="43"/>
+      <c r="G489" s="43"/>
+      <c r="H489" s="43"/>
+      <c r="I489" s="43"/>
+    </row>
+    <row r="491" spans="4:9">
+      <c r="D491" s="81" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="492" spans="4:9">
+      <c r="D492" s="81" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="494" spans="4:9">
+      <c r="E494" s="58" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F494" s="43"/>
+      <c r="G494" s="43"/>
+    </row>
+    <row r="497" spans="1:7">
+      <c r="A497" s="36" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
+      <c r="B499" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7">
+      <c r="C501" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G501" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7">
+      <c r="C503" t="s">
         <v>1705</v>
       </c>
-      <c r="E442" s="43"/>
-      <c r="F442" s="43"/>
-      <c r="G442" s="43"/>
-      <c r="H442" s="43"/>
-      <c r="I442" s="43"/>
-    </row>
-    <row r="443" spans="3:9">
-      <c r="D443" s="81" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E443" s="43"/>
-      <c r="F443" s="43"/>
-      <c r="G443" s="43"/>
-      <c r="H443" s="43"/>
-      <c r="I443" s="43"/>
-    </row>
-    <row r="444" spans="3:9">
-      <c r="D444" s="81" t="s">
+      <c r="G503" t="s">
         <v>1707</v>
       </c>
-      <c r="E444" s="43"/>
-      <c r="F444" s="43"/>
-      <c r="G444" s="43"/>
-      <c r="H444" s="43" t="s">
-        <v>1650</v>
-      </c>
-      <c r="I444" s="43"/>
-    </row>
-    <row r="445" spans="3:9">
-      <c r="D445" s="81" t="s">
-        <v>620</v>
-      </c>
-      <c r="E445" s="43"/>
-      <c r="F445" s="43"/>
-      <c r="G445" s="43"/>
-      <c r="H445" s="43"/>
-      <c r="I445" s="43"/>
-    </row>
-    <row r="447" spans="3:9">
-      <c r="D447" s="81" t="s">
+    </row>
+    <row r="505" spans="1:7">
+      <c r="C505" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="448" spans="3:9">
-      <c r="D448" s="81" t="s">
+      <c r="G505" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7">
+      <c r="C507" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="450" spans="1:7">
-      <c r="E450" s="82" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7">
-      <c r="A453" s="36" t="s">
+      <c r="G507" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
-      <c r="B455" t="s">
+    <row r="509" spans="1:7">
+      <c r="A509" s="36" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
+      <c r="A510" s="36"/>
+    </row>
+    <row r="511" spans="1:7">
+      <c r="A511" s="36"/>
+      <c r="B511" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7">
+      <c r="A512" s="36"/>
+    </row>
+    <row r="514" spans="2:16">
+      <c r="B514" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="516" spans="2:16">
+      <c r="B516" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="517" spans="2:16">
+      <c r="D517" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="518" spans="2:16">
+      <c r="D518" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="520" spans="2:16">
+      <c r="E520" t="s">
+        <v>1791</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1792</v>
+      </c>
+      <c r="N520" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="521" spans="2:16">
+      <c r="D521" t="s">
+        <v>45</v>
+      </c>
+      <c r="K521" t="s">
+        <v>1824</v>
+      </c>
+      <c r="L521" t="s">
+        <v>1822</v>
+      </c>
+      <c r="M521" t="s">
+        <v>1823</v>
+      </c>
+      <c r="N521" t="s">
+        <v>1822</v>
+      </c>
+      <c r="O521" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P521" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="522" spans="2:16">
+      <c r="K522" t="s">
+        <v>1825</v>
+      </c>
+      <c r="L522" t="s">
+        <v>1826</v>
+      </c>
+      <c r="M522" t="s">
+        <v>1834</v>
+      </c>
+      <c r="N522" t="s">
+        <v>1827</v>
+      </c>
+      <c r="O522" t="s">
+        <v>1828</v>
+      </c>
+      <c r="P522" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="523" spans="2:16">
+      <c r="B523" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="2:16">
+      <c r="B524" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="525" spans="2:16">
+      <c r="B525" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="527" spans="2:16">
+      <c r="B527" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="528" spans="2:16">
+      <c r="B528" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="B531" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="B534" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="G535" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="C536" s="58" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D536" s="43"/>
+      <c r="E536" s="43"/>
+      <c r="F536" s="43"/>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="C537" s="58" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D537" s="43"/>
+      <c r="E537" s="43"/>
+      <c r="F537" s="43"/>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="C538" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D538" s="43"/>
+      <c r="E538" s="43"/>
+      <c r="F538" s="43"/>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="C539" s="82"/>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540" s="36" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" s="36" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="B543" s="43" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
-      <c r="C457" t="s">
-        <v>1712</v>
-      </c>
-      <c r="G457" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7">
-      <c r="C459" t="s">
-        <v>1714</v>
-      </c>
-      <c r="G459" t="s">
+    <row r="545" spans="1:2">
+      <c r="A545" s="36" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
-      <c r="C461" t="s">
+    <row r="546" spans="1:2">
+      <c r="B546" t="s">
         <v>1717</v>
       </c>
-      <c r="G461" t="s">
+    </row>
+    <row r="547" spans="1:2">
+      <c r="B547" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="B548" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
-      <c r="C463" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G463" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="465" spans="1:16">
-      <c r="A465" s="36" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="467" spans="1:16">
-      <c r="C467" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="469" spans="1:16">
-      <c r="C469" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="470" spans="1:16">
-      <c r="D470" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="471" spans="1:16">
-      <c r="D471" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="473" spans="1:16">
-      <c r="E473" t="s">
-        <v>1801</v>
-      </c>
-      <c r="G473" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="474" spans="1:16">
-      <c r="D474" t="s">
+    <row r="549" spans="1:2">
+      <c r="B549" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="36" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="36" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="36" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="B557" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="564" spans="2:11">
+      <c r="B564" s="84" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="565" spans="2:11">
+      <c r="C565" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="566" spans="2:11">
+      <c r="D566" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="568" spans="2:11">
+      <c r="C568" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="570" spans="2:11">
+      <c r="D570" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="571" spans="2:11">
+      <c r="D571" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="574" spans="2:11">
+      <c r="C574" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K574" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="575" spans="2:11">
+      <c r="E575" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K575" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="576" spans="2:11">
+      <c r="E576" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K576" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="577" spans="2:11">
+      <c r="E577" t="s">
+        <v>1746</v>
+      </c>
+      <c r="K577" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="578" spans="2:11">
+      <c r="E578" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K578" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="581" spans="2:11">
+      <c r="C581" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K581" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="582" spans="2:11">
+      <c r="E582" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K582" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="583" spans="2:11">
+      <c r="E583" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K583" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="586" spans="2:11">
+      <c r="B586" s="84" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="587" spans="2:11">
+      <c r="C587" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="589" spans="2:11">
+      <c r="C589" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="592" spans="2:11">
+      <c r="C592" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H592" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="B594" s="90" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="C595" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="D597" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="E598" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="36" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="B606" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="B608" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6">
+      <c r="C609" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6">
+      <c r="A613" s="57" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B613" s="57" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C613" s="57"/>
+    </row>
+    <row r="614" spans="1:6">
+      <c r="B614" s="86" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C614" s="86" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D614" s="85" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6">
+      <c r="A615" s="85">
+        <v>1</v>
+      </c>
+      <c r="B615" s="70" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C615" s="70" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D615" t="s">
+        <v>98</v>
+      </c>
+      <c r="F615" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6">
+      <c r="A616" s="85">
+        <v>2</v>
+      </c>
+      <c r="B616" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C616" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D616" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6">
+      <c r="A617" s="85">
+        <v>3</v>
+      </c>
+      <c r="B617" s="70" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C617" s="70" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D617" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6">
+      <c r="A618" s="85">
+        <v>4</v>
+      </c>
+      <c r="B618" s="70" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C618" s="70" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D618" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6">
+      <c r="A619" s="85">
+        <v>5</v>
+      </c>
+      <c r="B619" s="70" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C619" s="70" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D619" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6">
+      <c r="A620" s="85">
+        <v>6</v>
+      </c>
+      <c r="B620" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="C620" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D620" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6">
+      <c r="A621" s="85">
+        <v>7</v>
+      </c>
+      <c r="B621" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C621" s="70" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D621" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6">
+      <c r="A622" s="85">
+        <v>8</v>
+      </c>
+      <c r="B622" s="70" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C622" s="70" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D622" t="s">
+        <v>98</v>
+      </c>
+      <c r="F622" s="88" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6">
+      <c r="A623" s="85">
+        <v>9</v>
+      </c>
+      <c r="B623" s="70" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C623" s="70" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D623" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6">
+      <c r="A624" s="85">
+        <v>10</v>
+      </c>
+      <c r="B624" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C624" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D624" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6">
+      <c r="A625" s="85">
+        <v>11</v>
+      </c>
+      <c r="B625" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C625" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="D625" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6">
+      <c r="A626" s="85">
+        <v>12</v>
+      </c>
+      <c r="B626" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C626" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D626" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6">
+      <c r="A627" s="85">
+        <v>13</v>
+      </c>
+      <c r="B627" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C627" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D627" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6">
+      <c r="A628" s="85">
+        <v>14</v>
+      </c>
+      <c r="B628" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C628" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D628" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6">
+      <c r="A629" s="85">
+        <v>15</v>
+      </c>
+      <c r="B629" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C629" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D629" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6">
+      <c r="A630" s="85">
+        <v>16</v>
+      </c>
+      <c r="B630" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C630" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D630" t="s">
+        <v>98</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6">
+      <c r="A631" s="85">
+        <v>17</v>
+      </c>
+      <c r="B631" s="70" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C631" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D631" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6">
+      <c r="A632" s="85">
+        <v>18</v>
+      </c>
+      <c r="B632" s="70" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C632" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="D632" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6">
+      <c r="A633" s="85">
+        <v>19</v>
+      </c>
+      <c r="B633" s="70" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C633" s="70" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D633" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6">
+      <c r="A634" s="85">
+        <v>20</v>
+      </c>
+      <c r="B634" s="70" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C634" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D634" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6">
+      <c r="A635" s="85">
+        <v>21</v>
+      </c>
+      <c r="B635" s="70" t="s">
+        <v>688</v>
+      </c>
+      <c r="C635" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D635" t="s">
+        <v>98</v>
+      </c>
+      <c r="F635" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6">
+      <c r="A636" s="85">
+        <v>22</v>
+      </c>
+      <c r="B636" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C636" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D636" t="s">
+        <v>98</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F636" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6">
+      <c r="A637" s="85">
+        <v>23</v>
+      </c>
+      <c r="B637" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C637" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D637" t="s">
+        <v>98</v>
+      </c>
+      <c r="F637" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6">
+      <c r="A638" s="85">
+        <v>24</v>
+      </c>
+      <c r="B638" s="70" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C638" s="70" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D638" t="s">
+        <v>98</v>
+      </c>
+      <c r="F638" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6">
+      <c r="A639" s="85">
+        <v>25</v>
+      </c>
+      <c r="B639" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C639" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D639" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6">
+      <c r="A640" s="85">
+        <v>26</v>
+      </c>
+      <c r="B640" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C640" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D640" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6">
+      <c r="A641" s="85">
+        <v>27</v>
+      </c>
+      <c r="B641" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C641" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D641" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6">
+      <c r="A642" s="85">
+        <v>28</v>
+      </c>
+      <c r="B642" s="70" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C642" s="70" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D642" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6">
+      <c r="A643" s="85">
+        <v>29</v>
+      </c>
+      <c r="B643" s="70" t="s">
+        <v>638</v>
+      </c>
+      <c r="C643" s="70" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D643" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6">
+      <c r="A645" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C645" s="87">
+        <v>0.34</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6">
+      <c r="A647" s="57" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B647" s="57" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C647" s="39"/>
+    </row>
+    <row r="649" spans="1:6">
+      <c r="B649" s="86" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C649" s="86" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D649" s="85" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6">
+      <c r="A650" s="85">
+        <v>1</v>
+      </c>
+      <c r="B650" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C650" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D650" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6">
+      <c r="A651" s="85">
+        <v>2</v>
+      </c>
+      <c r="B651" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C651" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D651" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6">
+      <c r="A652" s="85">
+        <v>3</v>
+      </c>
+      <c r="B652" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C652" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D652" t="s">
+        <v>98</v>
+      </c>
+      <c r="F652" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6">
+      <c r="A653" s="85">
+        <v>4</v>
+      </c>
+      <c r="B653" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C653" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D653" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6">
+      <c r="A654" s="85">
+        <v>5</v>
+      </c>
+      <c r="B654" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C654" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D654" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6">
+      <c r="A655" s="85">
+        <v>6</v>
+      </c>
+      <c r="B655" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C655" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D655" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6">
+      <c r="A656" s="85">
+        <v>7</v>
+      </c>
+      <c r="B656" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C656" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D656" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6">
+      <c r="A657" s="85">
+        <v>8</v>
+      </c>
+      <c r="B657" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C657" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D657" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6">
+      <c r="A658" s="85">
+        <v>9</v>
+      </c>
+      <c r="B658" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C658" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D658" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6">
+      <c r="A659" s="85">
+        <v>10</v>
+      </c>
+      <c r="B659" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C659" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D659" t="s">
+        <v>49</v>
+      </c>
+      <c r="E659" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6">
+      <c r="A660" s="85">
+        <v>11</v>
+      </c>
+      <c r="B660" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="C660" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D660" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6">
+      <c r="A661" s="85">
+        <v>12</v>
+      </c>
+      <c r="B661" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C661" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D661" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6">
+      <c r="A662" s="85">
+        <v>13</v>
+      </c>
+      <c r="B662" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C662" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D662" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6">
+      <c r="A663" s="85">
+        <v>14</v>
+      </c>
+      <c r="B663" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C663" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D663" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6">
+      <c r="A664" s="85">
+        <v>15</v>
+      </c>
+      <c r="B664" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C664" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D664" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6">
+      <c r="A665" s="85">
+        <v>16</v>
+      </c>
+      <c r="B665" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C665" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D665" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6">
+      <c r="A666" s="85">
+        <v>17</v>
+      </c>
+      <c r="B666" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C666" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D666" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6">
+      <c r="A667" s="85">
+        <v>18</v>
+      </c>
+      <c r="B667" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C667" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D667" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6">
+      <c r="A668" s="85">
+        <v>19</v>
+      </c>
+      <c r="B668" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C668" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D668" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6">
+      <c r="A669" s="85">
+        <v>20</v>
+      </c>
+      <c r="B669" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C669" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D669" t="s">
+        <v>98</v>
+      </c>
+      <c r="F669" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6">
+      <c r="A670" s="85">
+        <v>21</v>
+      </c>
+      <c r="B670" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C670" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D670" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6">
+      <c r="A671" s="85">
+        <v>22</v>
+      </c>
+      <c r="B671" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C671" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D671" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6">
+      <c r="A672" s="85">
+        <v>23</v>
+      </c>
+      <c r="B672" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C672" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D672" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6">
+      <c r="A673" s="85">
+        <v>24</v>
+      </c>
+      <c r="B673" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C673" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D673" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6">
+      <c r="A674" s="85">
+        <v>25</v>
+      </c>
+      <c r="B674" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C674" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D674" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6">
+      <c r="A675" s="85">
+        <v>26</v>
+      </c>
+      <c r="B675" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C675" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D675" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6">
+      <c r="A676" s="85">
+        <v>27</v>
+      </c>
+      <c r="B676" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C676" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D676" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6">
+      <c r="A677" s="85">
+        <v>28</v>
+      </c>
+      <c r="B677" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C677" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D677" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6">
+      <c r="A678" s="85">
+        <v>29</v>
+      </c>
+      <c r="B678" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C678" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D678" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6">
+      <c r="A679" s="85">
+        <v>30</v>
+      </c>
+      <c r="B679" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C679" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D679" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6">
+      <c r="A680" s="85">
+        <v>31</v>
+      </c>
+      <c r="B680" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C680" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D680" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6">
+      <c r="A681" s="85">
+        <v>32</v>
+      </c>
+      <c r="B681" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C681" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D681" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6">
+      <c r="A682" s="85">
+        <v>33</v>
+      </c>
+      <c r="B682" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C682" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D682" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6">
+      <c r="A683" s="85">
+        <v>34</v>
+      </c>
+      <c r="B683" s="70" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C683" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D683" t="s">
+        <v>98</v>
+      </c>
+      <c r="F683" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6">
+      <c r="A684" s="85">
+        <v>35</v>
+      </c>
+      <c r="B684" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C684" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D684" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6">
+      <c r="A685" s="85">
+        <v>36</v>
+      </c>
+      <c r="B685" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C685" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D685" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6">
+      <c r="A686" s="85">
+        <v>37</v>
+      </c>
+      <c r="B686" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C686" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D686" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6">
+      <c r="A687" s="85">
+        <v>38</v>
+      </c>
+      <c r="B687" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C687" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D687" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6">
+      <c r="A688" s="85">
+        <v>39</v>
+      </c>
+      <c r="B688" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C688" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D688" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6">
+      <c r="A689" s="85">
+        <v>40</v>
+      </c>
+      <c r="B689" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C689" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D689" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6">
+      <c r="A690" s="85">
+        <v>41</v>
+      </c>
+      <c r="B690" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C690" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D690" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6">
+      <c r="A691" s="85">
+        <v>42</v>
+      </c>
+      <c r="B691" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C691" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D691" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6">
+      <c r="A692" s="85">
+        <v>43</v>
+      </c>
+      <c r="B692" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C692" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D692" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6">
+      <c r="A693" s="85">
+        <v>44</v>
+      </c>
+      <c r="B693" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C693" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D693" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6">
+      <c r="A694" s="85">
         <v>45</v>
       </c>
-      <c r="K474" t="s">
+      <c r="B694" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C694" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D694" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6">
+      <c r="A695" s="85">
+        <v>46</v>
+      </c>
+      <c r="B695" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C695" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D695" t="s">
+        <v>98</v>
+      </c>
+      <c r="F695" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6">
+      <c r="A696" s="85">
+        <v>47</v>
+      </c>
+      <c r="B696" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C696" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D696" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6">
+      <c r="A697" s="85">
+        <v>48</v>
+      </c>
+      <c r="B697" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C697" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D697" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6">
+      <c r="A698" s="85">
+        <v>49</v>
+      </c>
+      <c r="B698" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C698" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D698" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6">
+      <c r="A699" s="85">
+        <v>50</v>
+      </c>
+      <c r="B699" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C699" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D699" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6">
+      <c r="A701" t="s">
         <v>1837</v>
       </c>
-      <c r="L474" t="s">
-        <v>1835</v>
-      </c>
-      <c r="M474" t="s">
-        <v>1836</v>
-      </c>
-      <c r="N474" t="s">
-        <v>1835</v>
-      </c>
-      <c r="O474" t="s">
-        <v>1836</v>
-      </c>
-      <c r="P474" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="475" spans="1:16">
-      <c r="K475" t="s">
-        <v>1838</v>
-      </c>
-      <c r="L475" t="s">
-        <v>1839</v>
-      </c>
-      <c r="M475" t="s">
-        <v>1847</v>
-      </c>
-      <c r="N475" t="s">
-        <v>1840</v>
-      </c>
-      <c r="O475" t="s">
-        <v>1841</v>
-      </c>
-      <c r="P475" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="476" spans="1:16">
-      <c r="A476" s="36" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="478" spans="1:16">
-      <c r="A478" s="36" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="479" spans="1:16">
-      <c r="B479" s="43" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" s="36" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
-      <c r="B482" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="B483" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2">
-      <c r="B484" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="B485" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" s="36" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2">
-      <c r="A489" s="36" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
-      <c r="A491" s="36" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2">
-      <c r="B493" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="500" spans="2:11">
-      <c r="B500" s="85" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="501" spans="2:11">
-      <c r="C501" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="502" spans="2:11">
-      <c r="D502" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="504" spans="2:11">
-      <c r="C504" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="506" spans="2:11">
-      <c r="D506" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="507" spans="2:11">
-      <c r="D507" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="510" spans="2:11">
-      <c r="C510" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E510" t="s">
-        <v>1751</v>
-      </c>
-      <c r="K510" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="511" spans="2:11">
-      <c r="E511" t="s">
-        <v>1753</v>
-      </c>
-      <c r="K511" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="512" spans="2:11">
-      <c r="E512" t="s">
-        <v>1755</v>
-      </c>
-      <c r="K512" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="513" spans="2:11">
-      <c r="E513" t="s">
-        <v>1756</v>
-      </c>
-      <c r="K513" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="514" spans="2:11">
-      <c r="E514" t="s">
-        <v>1758</v>
-      </c>
-      <c r="K514" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="517" spans="2:11">
-      <c r="C517" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E517" t="s">
-        <v>1761</v>
-      </c>
-      <c r="K517" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="518" spans="2:11">
-      <c r="E518" t="s">
-        <v>1762</v>
-      </c>
-      <c r="K518" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="519" spans="2:11">
-      <c r="E519" t="s">
-        <v>1763</v>
-      </c>
-      <c r="K519" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="522" spans="2:11">
-      <c r="B522" s="85" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="523" spans="2:11">
-      <c r="C523" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="525" spans="2:11">
-      <c r="C525" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E525" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="528" spans="2:11">
-      <c r="C528" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E528" t="s">
-        <v>1771</v>
-      </c>
-      <c r="H528" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
-      <c r="B530" s="91" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5">
-      <c r="C531" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5">
-      <c r="D533" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5">
-      <c r="E534" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5">
-      <c r="A540" s="36" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5">
-      <c r="B542" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5">
-      <c r="B544" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6">
-      <c r="C545" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6">
-      <c r="A549" s="57" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B549" s="57" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C549" s="57"/>
-    </row>
-    <row r="550" spans="1:6">
-      <c r="B550" s="87" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C550" s="87" t="s">
+    </row>
+    <row r="702" spans="1:6">
+      <c r="A702" t="s">
+        <v>675</v>
+      </c>
+      <c r="B702" s="87">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6">
+      <c r="A705" s="57" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B705" s="36"/>
+    </row>
+    <row r="707" spans="1:6">
+      <c r="A707" s="92" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B707" s="92" t="s">
+        <v>647</v>
+      </c>
+      <c r="C707" s="92" t="s">
         <v>1428</v>
       </c>
-      <c r="D550" s="86" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6">
-      <c r="A551" s="86">
+    </row>
+    <row r="708" spans="1:6">
+      <c r="A708" s="70">
         <v>1</v>
       </c>
-      <c r="B551" s="70" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C551" s="70" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D551" t="s">
-        <v>98</v>
-      </c>
-      <c r="F551" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="552" spans="1:6">
-      <c r="A552" s="86">
+      <c r="B708" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C708" s="70"/>
+    </row>
+    <row r="709" spans="1:6">
+      <c r="A709" s="70">
         <v>2</v>
       </c>
-      <c r="B552" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="C552" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="D552" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6">
-      <c r="A553" s="86">
+      <c r="B709" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C709" s="70"/>
+    </row>
+    <row r="710" spans="1:6">
+      <c r="A710" s="70">
         <v>3</v>
       </c>
-      <c r="B553" s="70" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C553" s="70" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D553" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6">
-      <c r="A554" s="86">
+      <c r="B710" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C710" s="70"/>
+    </row>
+    <row r="711" spans="1:6">
+      <c r="A711" s="70">
         <v>4</v>
       </c>
-      <c r="B554" s="70" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C554" s="70" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D554" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="555" spans="1:6">
-      <c r="A555" s="86">
+      <c r="B711" s="70" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C711" s="70"/>
+      <c r="E711" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F711" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6">
+      <c r="A712" s="70">
         <v>5</v>
       </c>
-      <c r="B555" s="70" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C555" s="70" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D555" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6">
-      <c r="A556" s="86">
+      <c r="B712" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C712" s="70"/>
+      <c r="F712" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6">
+      <c r="A713" s="70">
         <v>6</v>
       </c>
-      <c r="B556" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="C556" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D556" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6">
-      <c r="A557" s="86">
+      <c r="B713" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C713" s="70"/>
+      <c r="F713" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6">
+      <c r="A714" s="70">
         <v>7</v>
       </c>
-      <c r="B557" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="C557" s="70" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D557" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="558" spans="1:6">
-      <c r="A558" s="86">
+      <c r="B714" s="70" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C714" s="70"/>
+      <c r="F714" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6">
+      <c r="A715" s="70">
         <v>8</v>
       </c>
-      <c r="B558" s="70" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C558" s="70" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D558" t="s">
-        <v>98</v>
-      </c>
-      <c r="F558" s="89" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="559" spans="1:6">
-      <c r="A559" s="86">
+      <c r="B715" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C715" s="70"/>
+    </row>
+    <row r="716" spans="1:6">
+      <c r="A716" s="70">
         <v>9</v>
       </c>
-      <c r="B559" s="70" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C559" s="70" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D559" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6">
-      <c r="A560" s="86">
+      <c r="B716" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C716" s="70"/>
+    </row>
+    <row r="717" spans="1:6">
+      <c r="A717" s="70">
         <v>10</v>
       </c>
-      <c r="B560" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C560" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="D560" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="561" spans="1:6">
-      <c r="A561" s="86">
+      <c r="B717" s="70" t="s">
+        <v>688</v>
+      </c>
+      <c r="C717" s="70"/>
+    </row>
+    <row r="718" spans="1:6">
+      <c r="E718">
+        <v>10</v>
+      </c>
+      <c r="F718">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6">
+      <c r="F719">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6">
+      <c r="F720">
         <v>11</v>
       </c>
-      <c r="B561" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C561" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="D561" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="562" spans="1:6">
-      <c r="A562" s="86">
-        <v>12</v>
-      </c>
-      <c r="B562" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C562" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D562" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6">
-      <c r="A563" s="86">
-        <v>13</v>
-      </c>
-      <c r="B563" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="C563" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D563" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6">
-      <c r="A564" s="86">
-        <v>14</v>
-      </c>
-      <c r="B564" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C564" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="D564" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="565" spans="1:6">
-      <c r="A565" s="86">
-        <v>15</v>
-      </c>
-      <c r="B565" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C565" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D565" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6">
-      <c r="A566" s="86">
-        <v>16</v>
-      </c>
-      <c r="B566" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C566" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="D566" t="s">
-        <v>98</v>
-      </c>
-      <c r="E566" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6">
-      <c r="A567" s="86">
-        <v>17</v>
-      </c>
-      <c r="B567" s="70" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C567" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="D567" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6">
-      <c r="A568" s="86">
-        <v>18</v>
-      </c>
-      <c r="B568" s="70" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C568" s="70" t="s">
-        <v>224</v>
-      </c>
-      <c r="D568" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="569" spans="1:6">
-      <c r="A569" s="86">
-        <v>19</v>
-      </c>
-      <c r="B569" s="70" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C569" s="70" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D569" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="570" spans="1:6">
-      <c r="A570" s="86">
-        <v>20</v>
-      </c>
-      <c r="B570" s="70" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C570" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D570" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="571" spans="1:6">
-      <c r="A571" s="86">
-        <v>21</v>
-      </c>
-      <c r="B571" s="70" t="s">
-        <v>688</v>
-      </c>
-      <c r="C571" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="D571" t="s">
-        <v>98</v>
-      </c>
-      <c r="F571" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6">
-      <c r="A572" s="86">
-        <v>22</v>
-      </c>
-      <c r="B572" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C572" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D572" t="s">
-        <v>98</v>
-      </c>
-      <c r="E572" t="s">
-        <v>1789</v>
-      </c>
-      <c r="F572" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="573" spans="1:6">
-      <c r="A573" s="86">
-        <v>23</v>
-      </c>
-      <c r="B573" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C573" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D573" t="s">
-        <v>98</v>
-      </c>
-      <c r="F573" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6">
-      <c r="A574" s="86">
-        <v>24</v>
-      </c>
-      <c r="B574" s="70" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C574" s="70" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D574" t="s">
-        <v>98</v>
-      </c>
-      <c r="F574" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="575" spans="1:6">
-      <c r="A575" s="86">
-        <v>25</v>
-      </c>
-      <c r="B575" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="C575" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="D575" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="576" spans="1:6">
-      <c r="A576" s="86">
-        <v>26</v>
-      </c>
-      <c r="B576" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C576" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D576" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
-      <c r="A577" s="86">
-        <v>27</v>
-      </c>
-      <c r="B577" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C577" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="D577" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
-      <c r="A578" s="86">
-        <v>28</v>
-      </c>
-      <c r="B578" s="70" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C578" s="70" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D578" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
-      <c r="A579" s="86">
-        <v>29</v>
-      </c>
-      <c r="B579" s="70" t="s">
-        <v>638</v>
-      </c>
-      <c r="C579" s="70" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D579" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
-      <c r="A581" t="s">
-        <v>1795</v>
-      </c>
-      <c r="C581" s="88">
-        <v>0.34</v>
-      </c>
-      <c r="D581" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
-      <c r="A583" s="57" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B583" s="57" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C583" s="39"/>
-    </row>
-    <row r="585" spans="1:4">
-      <c r="B585" s="87" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C585" s="87" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D585" s="86" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4">
-      <c r="A586" s="86">
-        <v>1</v>
-      </c>
-      <c r="B586" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C586" s="70"/>
-    </row>
-    <row r="587" spans="1:4">
-      <c r="A587" s="86">
-        <v>2</v>
-      </c>
-      <c r="B587" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C587" s="70"/>
-    </row>
-    <row r="588" spans="1:4">
-      <c r="A588" s="86">
-        <v>3</v>
-      </c>
-      <c r="B588" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C588" s="70"/>
-    </row>
-    <row r="589" spans="1:4">
-      <c r="A589" s="86">
-        <v>4</v>
-      </c>
-      <c r="B589" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C589" s="70"/>
-    </row>
-    <row r="590" spans="1:4">
-      <c r="A590" s="86">
-        <v>5</v>
-      </c>
-      <c r="B590" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C590" s="70"/>
-    </row>
-    <row r="591" spans="1:4">
-      <c r="A591" s="86">
-        <v>6</v>
-      </c>
-      <c r="B591" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C591" s="70"/>
-    </row>
-    <row r="592" spans="1:4">
-      <c r="A592" s="86">
-        <v>7</v>
-      </c>
-      <c r="B592" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C592" s="70"/>
-    </row>
-    <row r="593" spans="1:4">
-      <c r="A593" s="86">
-        <v>8</v>
-      </c>
-      <c r="B593" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C593" s="70"/>
-    </row>
-    <row r="594" spans="1:4">
-      <c r="A594" s="86">
-        <v>9</v>
-      </c>
-      <c r="B594" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C594" s="70"/>
-    </row>
-    <row r="595" spans="1:4">
-      <c r="A595" s="86">
+    </row>
+    <row r="721" spans="6:6">
+      <c r="F721">
         <v>10</v>
-      </c>
-      <c r="B595" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C595" s="70"/>
-      <c r="D595" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4">
-      <c r="A596" s="86">
-        <v>11</v>
-      </c>
-      <c r="B596" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="C596" s="70"/>
-    </row>
-    <row r="597" spans="1:4">
-      <c r="A597" s="86">
-        <v>12</v>
-      </c>
-      <c r="B597" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C597" s="70"/>
-    </row>
-    <row r="598" spans="1:4">
-      <c r="A598" s="86">
-        <v>13</v>
-      </c>
-      <c r="B598" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C598" s="70"/>
-    </row>
-    <row r="599" spans="1:4">
-      <c r="A599" s="86">
-        <v>14</v>
-      </c>
-      <c r="B599" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C599" s="70"/>
-    </row>
-    <row r="600" spans="1:4">
-      <c r="A600" s="86">
-        <v>15</v>
-      </c>
-      <c r="B600" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C600" s="70"/>
-    </row>
-    <row r="601" spans="1:4">
-      <c r="A601" s="86">
-        <v>16</v>
-      </c>
-      <c r="B601" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C601" s="70"/>
-    </row>
-    <row r="602" spans="1:4">
-      <c r="A602" s="86">
-        <v>17</v>
-      </c>
-      <c r="B602" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C602" s="70"/>
-    </row>
-    <row r="603" spans="1:4">
-      <c r="A603" s="86">
-        <v>18</v>
-      </c>
-      <c r="B603" s="70"/>
-      <c r="C603" s="70"/>
-    </row>
-    <row r="604" spans="1:4">
-      <c r="A604" s="86">
-        <v>19</v>
-      </c>
-      <c r="B604" s="70"/>
-      <c r="C604" s="70"/>
-    </row>
-    <row r="605" spans="1:4">
-      <c r="A605" s="86">
-        <v>20</v>
-      </c>
-      <c r="B605" s="70"/>
-      <c r="C605" s="70"/>
-    </row>
-    <row r="606" spans="1:4">
-      <c r="A606" s="86">
-        <v>21</v>
-      </c>
-      <c r="B606" s="70"/>
-      <c r="C606" s="70"/>
-    </row>
-    <row r="607" spans="1:4">
-      <c r="A607" s="86">
-        <v>22</v>
-      </c>
-      <c r="B607" s="70"/>
-      <c r="C607" s="70"/>
-    </row>
-    <row r="608" spans="1:4">
-      <c r="A608" s="86">
-        <v>23</v>
-      </c>
-      <c r="B608" s="70"/>
-      <c r="C608" s="70"/>
-    </row>
-    <row r="609" spans="1:3">
-      <c r="A609" s="86">
-        <v>24</v>
-      </c>
-      <c r="B609" s="70"/>
-      <c r="C609" s="70"/>
-    </row>
-    <row r="610" spans="1:3">
-      <c r="A610" s="86">
-        <v>25</v>
-      </c>
-      <c r="B610" s="70"/>
-      <c r="C610" s="70"/>
-    </row>
-    <row r="611" spans="1:3">
-      <c r="A611" s="86">
-        <v>26</v>
-      </c>
-      <c r="B611" s="70"/>
-      <c r="C611" s="70"/>
-    </row>
-    <row r="612" spans="1:3">
-      <c r="A612" s="86">
-        <v>27</v>
-      </c>
-      <c r="B612" s="70"/>
-      <c r="C612" s="70"/>
-    </row>
-    <row r="613" spans="1:3">
-      <c r="A613" s="86">
-        <v>28</v>
-      </c>
-      <c r="B613" s="70"/>
-      <c r="C613" s="70"/>
-    </row>
-    <row r="614" spans="1:3">
-      <c r="A614" s="86">
-        <v>29</v>
-      </c>
-      <c r="B614" s="70"/>
-      <c r="C614" s="70"/>
-    </row>
-    <row r="615" spans="1:3">
-      <c r="A615" s="86">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3">
-      <c r="A616" s="86">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3">
-      <c r="A617" s="86">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3">
-      <c r="A618" s="86">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3">
-      <c r="A619" s="86">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3">
-      <c r="A620" s="86">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3">
-      <c r="A621" s="86">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3">
-      <c r="A622" s="86">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3">
-      <c r="A623" s="86">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3">
-      <c r="A624" s="86">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1">
-      <c r="A625" s="86">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1">
-      <c r="A626" s="86">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1">
-      <c r="A627" s="86">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1">
-      <c r="A628" s="86">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1">
-      <c r="A629" s="86">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1">
-      <c r="A630" s="86">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1">
-      <c r="A631" s="86">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1">
-      <c r="A632" s="86">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1">
-      <c r="A633" s="86">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1">
-      <c r="A634" s="86">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1">
-      <c r="A635" s="86">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -24577,4 +25555,24 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="1929">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -4932,9 +4932,6 @@
     <t>// Ko hợp lệ vì kiểu trả về khai báo phía sau access modifier</t>
   </si>
   <si>
-    <t>Tên của method phải chứa chữ cái, chữ số, $ hoặc _</t>
-  </si>
-  <si>
     <t>Chữ cái đầu tiên của method ko được phép là số</t>
   </si>
   <si>
@@ -5258,9 +5255,6 @@
     <t>Tuy nhiên nếu hằng số là một reference variable, Thì vẫn có thể gọi hàm (COMPILE OK nhưng vẫn ko thể thay đổi giá trị của Object instance)</t>
   </si>
   <si>
-    <t xml:space="preserve">Đương nhiên là ko thể assign reference variable đó tới một object khác </t>
-  </si>
-  <si>
     <t>public class Init {</t>
   </si>
   <si>
@@ -5334,9 +5328,6 @@
   </si>
   <si>
     <t xml:space="preserve">Java là "pass by value", nghĩa là sẽ tạo một copy variable vào trong hàm </t>
-  </si>
-  <si>
-    <t>Đối với biến primitive, ko làm thay đổi giá trị gốc của tham số</t>
   </si>
   <si>
     <t>Đối với StringBuilder:</t>
@@ -6028,9 +6019,6 @@
   </si>
   <si>
     <t>plane.fly((int)134L);</t>
-  </si>
-  <si>
-    <t>Đối với Object reference:</t>
   </si>
   <si>
     <t>Đối với mảng []</t>
@@ -6142,10 +6130,151 @@
     <t>Đối với kiểu dl Primitive, Tự động thăng chức kiểu dl trả về:</t>
   </si>
   <si>
-    <t>Đối với kiểu dl Wrapper, Có thể unboxing kiểu dl trả về đúng kiểu dl Wrapper</t>
-  </si>
-  <si>
     <t>16. Autoboxing, Unboxing kiểu dl trả về</t>
+  </si>
+  <si>
+    <t>Đối với kiểu dl trả về là  Wrapper, Có thể unboxing về kiểu dl Wrapper, nếu ko có thì unboxing về Wrapper lớn hơn</t>
+  </si>
+  <si>
+    <t>1. Cấu trúc của khai báo kế thừa</t>
+  </si>
+  <si>
+    <t>2. Apply access modifiers</t>
+  </si>
+  <si>
+    <t>Trong OCA thì chỉ có thể apply public và default (ko tường minh) vào khai báo class</t>
+  </si>
+  <si>
+    <t>Trong 1 file thì chỉ có duy nhất 1 class hoặc interface là public</t>
+  </si>
+  <si>
+    <t>Tên của method có thể  bắt đầu bằng  chữ cái, $ hoặc _</t>
+  </si>
+  <si>
+    <t>Tên của method ko được phép chứa kí tự đặc biệt như # % ^^ &amp; * @</t>
+  </si>
+  <si>
+    <t>Đương nhiên là ko thể assign reference variable đó tới một object khác (lỗi compile)</t>
+  </si>
+  <si>
+    <t>// COMPILE OKE</t>
+  </si>
+  <si>
+    <t>values = null;</t>
+  </si>
+  <si>
+    <t>values = new ArrayList&lt;&gt; ();</t>
+  </si>
+  <si>
+    <t>// COMPILE FAIL</t>
+  </si>
+  <si>
+    <t>1. Đối với biến primitive, ko làm thay đổi giá trị gốc của tham số</t>
+  </si>
+  <si>
+    <t>2. Đối với Object reference:</t>
+  </si>
+  <si>
+    <t>3. Lưu ý khi truyền một object final vào trong mảng : Vẫn hoạt động như cách truyền một Object reference vào trong mảng (vừa đề cập ở mục 2 bên trên)</t>
+  </si>
+  <si>
+    <t>// OUTPUT : changed</t>
+  </si>
+  <si>
+    <t>Vì ở đây biến reference copy đều trỏ đến object ban đầu</t>
+  </si>
+  <si>
+    <t>Nên sẽ thay đổi thuộc tính</t>
+  </si>
+  <si>
+    <t>// OUTPUT : Init</t>
+  </si>
+  <si>
+    <t>Ở đây thì biến reference copy trỏ tới 1 object khác với object ban đầu</t>
+  </si>
+  <si>
+    <t>Nên biến reference copy thay đổi như nào thì ko ảnh hưởng đến object ban đầu</t>
+  </si>
+  <si>
+    <t>3. Khai báo contructor</t>
+  </si>
+  <si>
+    <t>Trong khai báo constructor thì this() và super() phải ở đầu dòng đầu tiên</t>
+  </si>
+  <si>
+    <t>Nếu dòng đầu tiên là comment rồi mới đến this() hoặc super() thì vẫn hợp lệ</t>
+  </si>
+  <si>
+    <t>Nếu như class cha có ít nhất 1 constructor ko tham số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule 1 : </t>
+  </si>
+  <si>
+    <t>Rule 2 :</t>
+  </si>
+  <si>
+    <t>Thì class con bắt buộc phải có constructor mà có hàm gọi đến constructor có tham số của lớp cha, tức là super (param)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule 3: </t>
+  </si>
+  <si>
+    <t>Tại lớp con, và constructor ko tham số mà ko định nghĩa hàm super()</t>
+  </si>
+  <si>
+    <t>Thì Java tự động gọi hàm super() ko tham số của lớp cha</t>
+  </si>
+  <si>
+    <t>// OUTPUT :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ParentConsructor</t>
+  </si>
+  <si>
+    <t>Child Constructor</t>
+  </si>
+  <si>
+    <t>public class Parent {</t>
+  </si>
+  <si>
+    <t>public class Child extends Mammal {</t>
+  </si>
+  <si>
+    <t>public Parent ( String  age) {}</t>
+  </si>
+  <si>
+    <t>public Child (String age) {</t>
+  </si>
+  <si>
+    <t>super( age );</t>
+  </si>
+  <si>
+    <t>Tuy nhiên ở lớp con mà khai báo thêm một constructor không tham số và ở lớp cha ko có construtor không tham số Thì sẽ báo lỗi compile</t>
+  </si>
+  <si>
+    <t>Nghĩa là nếu khai báo constructor  ko tham số ở lớp con, thì phải có cách nào đó gọi hàm super() tới constructor ở lớp cha</t>
+  </si>
+  <si>
+    <t>Mà ở lớp cha ko có. Nên sẽ báo lỗi compile ở constructor lớp con</t>
+  </si>
+  <si>
+    <t>public Child( ){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//. COMPILE FAIL, kể cả có khai báo super() đi chăng nữa vì ko tìm thấy constructor ko tham số ở lớp cha </t>
+  </si>
+  <si>
+    <t>4. Override methods</t>
+  </si>
+  <si>
+    <t>Method ở lớp con bắt buộc phải cùng kiểu dl trả về  với method ở class cha</t>
+  </si>
+  <si>
+    <t>Method ở lớp con bắt buộc phải có kiểu access modifier rộng hơn với method ở class cha</t>
+  </si>
+  <si>
+    <t>Method ở lớp con ko được throw 1 checked exception mới hoặc 1 exception bất kì nào  rộng hơn lớp cha</t>
   </si>
 </sst>
 </file>
@@ -6765,10 +6894,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6917,13 +7046,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>136464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>377999</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>157367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6955,13 +7084,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>557</xdr:row>
+      <xdr:row>588</xdr:row>
       <xdr:rowOff>6803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>29766</xdr:colOff>
-      <xdr:row>560</xdr:row>
+      <xdr:row>591</xdr:row>
       <xdr:rowOff>189135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6993,13 +7122,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>160734</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>17859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7031,13 +7160,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>5953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7069,13 +7198,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>184547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7107,13 +7236,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>160736</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>11907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7145,13 +7274,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>172640</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>402</xdr:row>
       <xdr:rowOff>136922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7183,13 +7312,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>172640</xdr:colOff>
-      <xdr:row>382</xdr:row>
+      <xdr:row>410</xdr:row>
       <xdr:rowOff>89297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7209,6 +7338,315 @@
         <a:xfrm>
           <a:off x="1821656" y="71806594"/>
           <a:ext cx="1994297" cy="1041797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470296</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821656" y="74664095"/>
+          <a:ext cx="2291953" cy="1107280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821657" y="76188094"/>
+          <a:ext cx="2369344" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>440</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821657" y="77521595"/>
+          <a:ext cx="2393156" cy="964406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339329</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>172642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1839516" y="60090844"/>
+          <a:ext cx="2143126" cy="1434704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821656" y="62305407"/>
+          <a:ext cx="2434828" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>197069</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="610914" y="381001"/>
+          <a:ext cx="5084379" cy="1813034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85396</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1221828" y="6477000"/>
+          <a:ext cx="2529051" cy="1326931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>551794</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276398" y="6477000"/>
+          <a:ext cx="2384534" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9303,16 +9741,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="91" t="s">
+      <c r="D424" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="91"/>
-      <c r="F424" s="91"/>
-      <c r="G424" s="91"/>
-      <c r="H424" s="91"/>
-      <c r="I424" s="91"/>
-      <c r="J424" s="91"/>
-      <c r="K424" s="91"/>
+      <c r="E424" s="92"/>
+      <c r="F424" s="92"/>
+      <c r="G424" s="92"/>
+      <c r="H424" s="92"/>
+      <c r="I424" s="92"/>
+      <c r="J424" s="92"/>
+      <c r="K424" s="92"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -9379,16 +9817,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="91" t="s">
+      <c r="D430" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="91"/>
-      <c r="F430" s="91"/>
-      <c r="G430" s="91"/>
-      <c r="H430" s="91"/>
-      <c r="I430" s="91"/>
-      <c r="J430" s="91"/>
-      <c r="K430" s="91"/>
+      <c r="E430" s="92"/>
+      <c r="F430" s="92"/>
+      <c r="G430" s="92"/>
+      <c r="H430" s="92"/>
+      <c r="I430" s="92"/>
+      <c r="J430" s="92"/>
+      <c r="K430" s="92"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -21080,10 +21518,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P721"/>
+  <dimension ref="A1:P752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387"/>
+    <sheetView topLeftCell="A315" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K328" sqref="K328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21095,10 +21533,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="C3" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -21126,7 +21564,7 @@
         <v>1490</v>
       </c>
       <c r="F10" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -21139,7 +21577,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="36" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -21147,22 +21585,27 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="C19" t="s">
-        <v>1493</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="C20" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="C21" t="s">
-        <v>1722</v>
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -21172,12 +21615,12 @@
     </row>
     <row r="24" spans="1:7">
       <c r="D24" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="D25" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -21187,121 +21630,121 @@
     </row>
     <row r="28" spans="1:7">
       <c r="D28" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G28" t="s">
         <v>1497</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="D29" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G29" t="s">
         <v>1499</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="D30" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G30" t="s">
         <v>1501</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="36" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C36" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="C37" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="J37" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="J38" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="C39" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="C42" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="C43" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="C44" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="C45" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G45" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="C48" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G48" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="C49" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G49" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="57" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="C52" s="57" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
@@ -21312,30 +21755,30 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="36" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="C57" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D57" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="D58" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="D59" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -21345,80 +21788,80 @@
     </row>
     <row r="62" spans="1:9">
       <c r="D62" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H62" t="s">
         <v>1523</v>
-      </c>
-      <c r="H62" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="D63" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H63" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="36" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C67" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="C68" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="C71" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D71" t="s">
         <v>1530</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="D73" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="C76" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="D78" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I78" t="s">
         <v>1533</v>
-      </c>
-      <c r="I78" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="D80" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I80" t="s">
         <v>1535</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="83" spans="3:9">
       <c r="C83" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="84" spans="3:9">
       <c r="E84" s="58" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F84" s="43"/>
       <c r="G84" s="43"/>
@@ -21427,7 +21870,7 @@
     </row>
     <row r="85" spans="3:9">
       <c r="E85" s="58" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F85" s="43"/>
       <c r="G85" s="43"/>
@@ -21445,20 +21888,20 @@
     </row>
     <row r="88" spans="3:9">
       <c r="D88" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="89" spans="3:9">
       <c r="E89" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="90" spans="3:9">
       <c r="F90" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I90" t="s">
         <v>1540</v>
-      </c>
-      <c r="I90" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="91" spans="3:9">
@@ -21468,20 +21911,20 @@
     </row>
     <row r="92" spans="3:9">
       <c r="D92" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="94" spans="3:9">
       <c r="E94" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="95" spans="3:9">
       <c r="F95" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I95" t="s">
         <v>1550</v>
-      </c>
-      <c r="I95" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="96" spans="3:9">
@@ -21491,20 +21934,20 @@
     </row>
     <row r="97" spans="4:11">
       <c r="D97" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="99" spans="4:11">
       <c r="E99" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="100" spans="4:11">
       <c r="F100" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I100" t="s">
         <v>1544</v>
-      </c>
-      <c r="I100" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="101" spans="4:11">
@@ -21514,25 +21957,25 @@
     </row>
     <row r="103" spans="4:11">
       <c r="D103" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="105" spans="4:11">
       <c r="E105" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="106" spans="4:11">
       <c r="G106" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="107" spans="4:11">
       <c r="H107" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K107" t="s">
         <v>1547</v>
-      </c>
-      <c r="K107" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="108" spans="4:11">
@@ -21542,20 +21985,20 @@
     </row>
     <row r="110" spans="4:11">
       <c r="E110" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="112" spans="4:11">
       <c r="G112" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="H113" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="K113" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -21565,23 +22008,23 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="36" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="B117" s="65" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="B118" s="65" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C118" s="65"/>
       <c r="D118" s="65"/>
       <c r="E118" s="65"/>
       <c r="F118" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -21592,13 +22035,13 @@
     </row>
     <row r="120" spans="1:11">
       <c r="B120" s="65" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C120" s="65"/>
       <c r="D120" s="65"/>
       <c r="E120" s="65"/>
       <c r="F120" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -21609,43 +22052,43 @@
     </row>
     <row r="122" spans="1:11">
       <c r="B122" s="65" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C122" s="65"/>
       <c r="D122" s="65"/>
       <c r="E122" s="65"/>
       <c r="F122" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="C124" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="C125" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="D126" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="E128" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="129" spans="4:7">
       <c r="F129" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="130" spans="4:7">
       <c r="G130" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="131" spans="4:7">
@@ -21655,25 +22098,25 @@
     </row>
     <row r="132" spans="4:7">
       <c r="D132" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="135" spans="4:7">
       <c r="E135" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F135" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="137" spans="4:7">
       <c r="G137" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="138" spans="4:7">
       <c r="G138" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="140" spans="4:7">
@@ -21683,30 +22126,30 @@
     </row>
     <row r="142" spans="4:7">
       <c r="E142" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="143" spans="4:7">
       <c r="E143" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="145" spans="5:10">
       <c r="F145" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="147" spans="5:10">
       <c r="G147" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="148" spans="5:10">
       <c r="G148" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J148" t="s">
         <v>1569</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="150" spans="5:10">
@@ -21716,30 +22159,30 @@
     </row>
     <row r="152" spans="5:10">
       <c r="E152" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="153" spans="5:10">
       <c r="E153" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="155" spans="5:10">
       <c r="F155" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="157" spans="5:10">
       <c r="G157" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="158" spans="5:10">
       <c r="G158" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J158" t="s">
         <v>1569</v>
-      </c>
-      <c r="J158" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="159" spans="5:10">
@@ -21753,30 +22196,30 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="36" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="E166" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E167" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="E168" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="C171" s="58" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="D171" s="43"/>
       <c r="E171" s="43"/>
@@ -21786,7 +22229,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="C172" s="58" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="D172" s="43"/>
       <c r="E172" s="43"/>
@@ -21796,7 +22239,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="C173" s="58" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="D173" s="43"/>
       <c r="E173" s="43"/>
@@ -21824,7 +22267,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="C176" s="58" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D176" s="43"/>
       <c r="E176" s="43"/>
@@ -21834,7 +22277,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="C177" s="58" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="D177" s="43"/>
       <c r="E177" s="43"/>
@@ -21854,7 +22297,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="36" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -21862,17 +22305,17 @@
         <v>165</v>
       </c>
       <c r="C182" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="C183" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="D184" s="58" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E184" s="43"/>
       <c r="F184" s="43"/>
@@ -21882,7 +22325,7 @@
     </row>
     <row r="185" spans="1:9">
       <c r="D185" s="58" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E185" s="43"/>
       <c r="F185" s="43"/>
@@ -21900,7 +22343,7 @@
     </row>
     <row r="187" spans="1:9">
       <c r="D187" s="58" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E187" s="43"/>
       <c r="F187" s="43"/>
@@ -21920,7 +22363,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="D189" s="58" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E189" s="43"/>
       <c r="F189" s="43"/>
@@ -21930,26 +22373,26 @@
     </row>
     <row r="190" spans="1:9">
       <c r="D190" s="58" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E190" s="43"/>
       <c r="F190" s="43"/>
       <c r="G190" s="43"/>
       <c r="H190" s="43"/>
       <c r="I190" s="43" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="D191" s="58" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E191" s="43"/>
       <c r="F191" s="43"/>
       <c r="G191" s="43"/>
       <c r="H191" s="43"/>
       <c r="I191" s="43" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -21974,17 +22417,17 @@
     </row>
     <row r="196" spans="3:10">
       <c r="C196" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="197" spans="3:10">
       <c r="C197" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="199" spans="3:10">
       <c r="D199" s="89" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E199" s="43"/>
       <c r="F199" s="43"/>
@@ -21996,7 +22439,7 @@
     <row r="200" spans="3:10">
       <c r="D200" s="43"/>
       <c r="E200" s="89" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="F200" s="43"/>
       <c r="G200" s="43"/>
@@ -22007,24 +22450,24 @@
     <row r="201" spans="3:10">
       <c r="D201" s="43"/>
       <c r="F201" s="89" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="G201" s="43"/>
       <c r="H201" s="43"/>
       <c r="I201" s="43" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="J201" s="43"/>
     </row>
     <row r="202" spans="3:10">
       <c r="D202" s="43"/>
       <c r="F202" s="89" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="G202" s="43"/>
       <c r="H202" s="43"/>
       <c r="I202" s="43" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="J202" s="43"/>
     </row>
@@ -22042,7 +22485,7 @@
     <row r="204" spans="3:10">
       <c r="D204" s="43"/>
       <c r="E204" s="89" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="F204" s="43"/>
       <c r="G204" s="43"/>
@@ -22071,7 +22514,7 @@
     <row r="207" spans="3:10">
       <c r="D207" s="43"/>
       <c r="E207" s="89" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="F207" s="43"/>
       <c r="G207" s="43"/>
@@ -22082,7 +22525,7 @@
     <row r="208" spans="3:10">
       <c r="D208" s="43"/>
       <c r="E208" s="89" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="F208" s="43"/>
       <c r="G208" s="43"/>
@@ -22094,11 +22537,11 @@
       <c r="D209" s="43"/>
       <c r="E209" s="43"/>
       <c r="F209" s="89" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="G209" s="43"/>
       <c r="H209" s="43" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="I209" s="43"/>
       <c r="J209" s="43"/>
@@ -22109,11 +22552,11 @@
       </c>
       <c r="E210" s="43"/>
       <c r="F210" s="43" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="G210" s="43"/>
       <c r="H210" s="43" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="I210" s="43"/>
       <c r="J210" s="43"/>
@@ -22159,7 +22602,7 @@
     <row r="215" spans="4:10">
       <c r="D215" s="43"/>
       <c r="E215" s="89" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="F215" s="43"/>
       <c r="G215" s="43"/>
@@ -22171,11 +22614,11 @@
       <c r="D216" s="43"/>
       <c r="E216" s="89"/>
       <c r="F216" s="43" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="G216" s="43"/>
       <c r="H216" s="43" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="I216" s="43"/>
       <c r="J216" s="43"/>
@@ -22203,7 +22646,7 @@
     <row r="219" spans="4:10">
       <c r="D219" s="43"/>
       <c r="E219" s="89" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="F219" s="43"/>
       <c r="G219" s="43"/>
@@ -22215,11 +22658,11 @@
       <c r="D220" s="89"/>
       <c r="E220" s="43"/>
       <c r="F220" s="43" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="G220" s="43"/>
       <c r="H220" s="43" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="I220" s="43"/>
       <c r="J220" s="43"/>
@@ -22262,30 +22705,30 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="36" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="228" spans="1:12">
       <c r="B228" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C228" t="s">
         <v>1594</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="229" spans="1:12">
       <c r="C229" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="230" spans="1:12">
       <c r="D230" t="s">
-        <v>1597</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="232" spans="1:12">
       <c r="D232" s="58" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E232" s="43"/>
       <c r="F232" s="43"/>
@@ -22298,7 +22741,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="D233" s="58" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E233" s="43"/>
       <c r="F233" s="43"/>
@@ -22322,7 +22765,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="D235" s="58" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="E235" s="43"/>
       <c r="F235" s="43"/>
@@ -22348,7 +22791,7 @@
     </row>
     <row r="237" spans="1:12">
       <c r="D237" s="58" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E237" s="43"/>
       <c r="F237" s="43"/>
@@ -22383,7 +22826,7 @@
     </row>
     <row r="240" spans="1:12">
       <c r="D240" s="58" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="E240" s="43"/>
       <c r="F240" s="43"/>
@@ -22394,23 +22837,22 @@
       <c r="K240" s="43"/>
       <c r="L240" s="43"/>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" ht="15.75" customHeight="1">
       <c r="D241" s="58" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E241" s="43"/>
       <c r="F241" s="43"/>
       <c r="G241" s="43"/>
       <c r="H241" s="43"/>
       <c r="I241" s="43"/>
-      <c r="J241" s="43"/>
+      <c r="J241" s="50" t="s">
+        <v>1889</v>
+      </c>
       <c r="K241" s="43"/>
       <c r="L241" s="43"/>
     </row>
     <row r="242" spans="1:12">
-      <c r="D242" s="58" t="s">
-        <v>620</v>
-      </c>
       <c r="E242" s="43"/>
       <c r="F242" s="43"/>
       <c r="G242" s="43"/>
@@ -22421,9 +22863,6 @@
       <c r="L242" s="43"/>
     </row>
     <row r="243" spans="1:12">
-      <c r="D243" s="58" t="s">
-        <v>45</v>
-      </c>
       <c r="E243" s="43"/>
       <c r="F243" s="43"/>
       <c r="G243" s="43"/>
@@ -22433,161 +22872,181 @@
       <c r="K243" s="43"/>
       <c r="L243" s="43"/>
     </row>
+    <row r="244" spans="1:12">
+      <c r="D244" s="58"/>
+      <c r="E244" s="43" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F244" s="43"/>
+      <c r="G244" s="43"/>
+      <c r="H244" s="43"/>
+      <c r="I244" s="43"/>
+      <c r="J244" s="39" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K244" s="39"/>
+      <c r="L244" s="43"/>
+    </row>
+    <row r="245" spans="1:12">
+      <c r="D245" s="58"/>
+      <c r="E245" s="43" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F245" s="43"/>
+      <c r="G245" s="43"/>
+      <c r="H245" s="43"/>
+      <c r="I245" s="43"/>
+      <c r="J245" s="39" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K245" s="39"/>
+      <c r="L245" s="43"/>
+    </row>
     <row r="246" spans="1:12">
-      <c r="A246" s="36" t="s">
+      <c r="D246" s="58" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
+      <c r="D247" s="58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
+      <c r="A248" s="36" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
+      <c r="B250" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
+      <c r="B251" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
-      <c r="B248" t="s">
+    <row r="253" spans="1:12">
+      <c r="A253" s="36" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
-      <c r="B249" t="s">
+    <row r="255" spans="1:12">
+      <c r="B255" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="251" spans="1:12">
-      <c r="A251" s="36" t="s">
+      <c r="C255" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
-      <c r="B253" t="s">
+    <row r="256" spans="1:12">
+      <c r="C256" t="s">
         <v>1608</v>
       </c>
-      <c r="C253" t="s">
+    </row>
+    <row r="258" spans="4:9">
+      <c r="D258" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="259" spans="4:9">
+      <c r="E259" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
-      <c r="C254" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12">
-      <c r="D256" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="257" spans="4:9">
-      <c r="E257" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="258" spans="4:9">
-      <c r="E258" t="s">
+    <row r="260" spans="4:9">
+      <c r="E260" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="259" spans="4:9">
-      <c r="F259" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="260" spans="4:9">
-      <c r="G260" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="261" spans="4:9">
       <c r="F261" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="262" spans="4:9">
+      <c r="G262" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="263" spans="4:9">
+      <c r="F263" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="4:9">
-      <c r="E262" t="s">
+    <row r="264" spans="4:9">
+      <c r="E264" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="4:9">
-      <c r="D264" t="s">
-        <v>1512</v>
-      </c>
-    </row>
     <row r="266" spans="4:9">
-      <c r="E266" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I266" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="267" spans="4:9">
-      <c r="E267" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I267" t="s">
-        <v>1617</v>
+      <c r="D266" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="268" spans="4:9">
+      <c r="E268" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="269" spans="4:9">
       <c r="E269" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I269" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="271" spans="4:9">
+      <c r="E271" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10">
+      <c r="F273" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I273" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="271" spans="4:9">
-      <c r="F271" t="s">
+    <row r="274" spans="1:10">
+      <c r="E274" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
+      <c r="A277" s="36" t="s">
         <v>1619</v>
       </c>
-      <c r="I271" t="s">
+    </row>
+    <row r="279" spans="1:10">
+      <c r="B279" t="s">
         <v>1620</v>
-      </c>
-    </row>
-    <row r="272" spans="4:9">
-      <c r="E272" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10">
-      <c r="A275" s="36" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10">
-      <c r="B277" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10">
-      <c r="C279" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="281" spans="1:10">
       <c r="C281" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10">
-      <c r="D282" t="s">
-        <v>1624</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="283" spans="1:10">
-      <c r="E283" s="58" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F283" s="43"/>
-      <c r="G283" s="43"/>
-      <c r="H283" s="43"/>
-      <c r="I283" s="43"/>
-      <c r="J283" s="43"/>
+      <c r="C283" t="s">
+        <v>1894</v>
+      </c>
     </row>
     <row r="284" spans="1:10">
-      <c r="E284" s="58" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F284" s="43"/>
-      <c r="G284" s="43"/>
-      <c r="H284" s="43"/>
-      <c r="I284" s="43"/>
-      <c r="J284" s="43"/>
+      <c r="D284" t="s">
+        <v>1621</v>
+      </c>
     </row>
     <row r="285" spans="1:10">
       <c r="E285" s="58" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="F285" s="43"/>
       <c r="G285" s="43"/>
@@ -22597,7 +23056,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="E286" s="58" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="F286" s="43"/>
       <c r="G286" s="43"/>
@@ -22607,7 +23066,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="E287" s="58" t="s">
-        <v>45</v>
+        <v>1624</v>
       </c>
       <c r="F287" s="43"/>
       <c r="G287" s="43"/>
@@ -22616,7 +23075,9 @@
       <c r="J287" s="43"/>
     </row>
     <row r="288" spans="1:10">
-      <c r="E288" s="79"/>
+      <c r="E288" s="58" t="s">
+        <v>1625</v>
+      </c>
       <c r="F288" s="43"/>
       <c r="G288" s="43"/>
       <c r="H288" s="43"/>
@@ -22625,7 +23086,7 @@
     </row>
     <row r="289" spans="4:10">
       <c r="E289" s="58" t="s">
-        <v>1629</v>
+        <v>45</v>
       </c>
       <c r="F289" s="43"/>
       <c r="G289" s="43"/>
@@ -22634,9 +23095,7 @@
       <c r="J289" s="43"/>
     </row>
     <row r="290" spans="4:10">
-      <c r="E290" s="58" t="s">
-        <v>1630</v>
-      </c>
+      <c r="E290" s="79"/>
       <c r="F290" s="43"/>
       <c r="G290" s="43"/>
       <c r="H290" s="43"/>
@@ -22645,7 +23104,7 @@
     </row>
     <row r="291" spans="4:10">
       <c r="E291" s="58" t="s">
-        <v>45</v>
+        <v>1626</v>
       </c>
       <c r="F291" s="43"/>
       <c r="G291" s="43"/>
@@ -22653,1003 +23112,810 @@
       <c r="I291" s="43"/>
       <c r="J291" s="43"/>
     </row>
+    <row r="292" spans="4:10">
+      <c r="E292" s="58" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F292" s="43"/>
+      <c r="G292" s="43"/>
+      <c r="H292" s="43"/>
+      <c r="I292" s="43"/>
+      <c r="J292" s="43"/>
+    </row>
     <row r="293" spans="4:10">
-      <c r="E293" s="80" t="s">
+      <c r="E293" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F293" s="43"/>
+      <c r="G293" s="43"/>
+      <c r="H293" s="43"/>
+      <c r="I293" s="43"/>
+      <c r="J293" s="43"/>
+    </row>
+    <row r="295" spans="4:10">
+      <c r="E295" s="80" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F295" s="12"/>
+      <c r="G295" s="12"/>
+      <c r="H295" s="12"/>
+      <c r="I295" s="12"/>
+    </row>
+    <row r="296" spans="4:10">
+      <c r="E296" s="80" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F296" s="12"/>
+      <c r="G296" s="12"/>
+      <c r="H296" s="12"/>
+      <c r="I296" s="12"/>
+    </row>
+    <row r="304" spans="4:10">
+      <c r="D304" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="305" spans="3:10">
+      <c r="E305" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="306" spans="3:10">
+      <c r="E306" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="308" spans="3:10">
+      <c r="F308" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="309" spans="3:10">
+      <c r="G309" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J309" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="310" spans="3:10">
+      <c r="F310" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312" spans="3:10">
+      <c r="D312" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="315" spans="3:10">
+      <c r="C315" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="322" spans="8:11">
+      <c r="H322" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K322" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="323" spans="8:11">
+      <c r="K323" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="332" spans="8:11">
+      <c r="I332" t="s">
+        <v>1899</v>
+      </c>
+      <c r="K332" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="334" spans="8:11">
+      <c r="K334" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="36" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="B342" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="C343" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="E344">
+        <v>2</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="E345">
+        <v>3</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="C347" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="C349" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="D350" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="D351" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="353" spans="3:8">
+      <c r="D353" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="354" spans="3:8">
+      <c r="D354" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="355" spans="3:8">
+      <c r="D355" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="359" spans="3:8">
+      <c r="C359" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="361" spans="3:8">
+      <c r="D361" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="362" spans="3:8">
+      <c r="D362" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H362" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="363" spans="3:8">
+      <c r="H363" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="365" spans="3:8">
+      <c r="D365" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="366" spans="3:8">
+      <c r="D366" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H366" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="367" spans="3:8">
+      <c r="H367" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10">
+      <c r="D369" s="58" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E369" s="83"/>
+      <c r="F369" s="83"/>
+      <c r="G369" s="83"/>
+    </row>
+    <row r="370" spans="1:10">
+      <c r="D370" s="58" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E370" s="83"/>
+      <c r="F370" s="83"/>
+      <c r="G370" s="83"/>
+      <c r="H370" t="s">
         <v>1727</v>
       </c>
-      <c r="F293" s="12"/>
-      <c r="G293" s="12"/>
-      <c r="H293" s="12"/>
-      <c r="I293" s="12"/>
-    </row>
-    <row r="294" spans="4:10">
-      <c r="E294" s="80" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F294" s="12"/>
-      <c r="G294" s="12"/>
-      <c r="H294" s="12"/>
-      <c r="I294" s="12"/>
-    </row>
-    <row r="302" spans="4:10">
-      <c r="D302" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="303" spans="4:10">
-      <c r="E303" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="304" spans="4:10">
-      <c r="E304" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10">
-      <c r="F306" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10">
-      <c r="G307" t="s">
-        <v>1856</v>
-      </c>
-      <c r="J307" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10">
-      <c r="F308" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10">
-      <c r="D310" t="s">
-        <v>1857</v>
-      </c>
-      <c r="F310" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10">
-      <c r="A312" s="36" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10">
-      <c r="B314" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10">
-      <c r="C315" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E315">
-        <v>1</v>
-      </c>
-      <c r="F315" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10">
-      <c r="E316">
-        <v>2</v>
-      </c>
-      <c r="F316" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10">
-      <c r="E317">
-        <v>3</v>
-      </c>
-      <c r="F317" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10">
-      <c r="C319" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="321" spans="3:8">
-      <c r="C321" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="322" spans="3:8">
-      <c r="D322" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="323" spans="3:8">
-      <c r="D323" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="325" spans="3:8">
-      <c r="D325" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="326" spans="3:8">
-      <c r="D326" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="327" spans="3:8">
-      <c r="D327" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="331" spans="3:8">
-      <c r="C331" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="333" spans="3:8">
-      <c r="D333" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="334" spans="3:8">
-      <c r="D334" t="s">
-        <v>1649</v>
-      </c>
-      <c r="H334" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="335" spans="3:8">
-      <c r="H335" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10">
-      <c r="D337" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10">
-      <c r="D338" t="s">
-        <v>1653</v>
-      </c>
-      <c r="H338" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10">
-      <c r="H339" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10">
-      <c r="D341" s="58" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E341" s="83"/>
-      <c r="F341" s="83"/>
-      <c r="G341" s="83"/>
-    </row>
-    <row r="342" spans="1:10">
-      <c r="D342" s="58" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E342" s="83"/>
-      <c r="F342" s="83"/>
-      <c r="G342" s="83"/>
-      <c r="H342" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10">
-      <c r="D343" s="82"/>
-      <c r="H343" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10">
-      <c r="D344" s="82"/>
-    </row>
-    <row r="345" spans="1:10">
-      <c r="D345" s="58" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E345" s="43"/>
-      <c r="F345" s="43"/>
-      <c r="G345" s="43"/>
-      <c r="H345" s="43"/>
-      <c r="I345" s="43"/>
-    </row>
-    <row r="346" spans="1:10">
-      <c r="D346" s="58" t="s">
+    </row>
+    <row r="371" spans="1:10">
+      <c r="D371" s="82"/>
+      <c r="H371" t="s">
         <v>1731</v>
       </c>
-      <c r="E346" s="43"/>
-      <c r="F346" s="43"/>
-      <c r="G346" s="43"/>
-      <c r="H346" s="43"/>
-      <c r="I346" s="43"/>
-      <c r="J346" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10">
-      <c r="J347" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10">
-      <c r="A348" s="36" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10">
-      <c r="C350" s="58" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D350" s="43"/>
-      <c r="E350" s="43"/>
-      <c r="F350" s="43"/>
-      <c r="G350" s="43"/>
-    </row>
-    <row r="351" spans="1:10">
-      <c r="C351" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D351" s="43"/>
-      <c r="E351" s="43"/>
-      <c r="F351" s="43"/>
-      <c r="G351" s="43"/>
-    </row>
-    <row r="352" spans="1:10">
-      <c r="C352" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D352" s="43"/>
-      <c r="E352" s="43"/>
-      <c r="F352" s="43"/>
-      <c r="G352" s="43"/>
-    </row>
-    <row r="353" spans="1:9">
-      <c r="C353" s="79"/>
-      <c r="D353" s="43"/>
-      <c r="E353" s="43"/>
-      <c r="F353" s="43"/>
-      <c r="G353" s="43"/>
-    </row>
-    <row r="354" spans="1:9">
-      <c r="C354" s="58" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D354" s="43"/>
-      <c r="E354" s="43"/>
-      <c r="F354" s="43"/>
-      <c r="G354" s="43"/>
-      <c r="H354" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9">
-      <c r="C355" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D355" s="43"/>
-      <c r="E355" s="43"/>
-      <c r="F355" s="43"/>
-      <c r="G355" s="43"/>
-      <c r="H355" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9">
-      <c r="C356" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D356" s="43"/>
-      <c r="E356" s="43"/>
-      <c r="F356" s="43"/>
-      <c r="G356" s="43"/>
-      <c r="H356" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9">
-      <c r="A358" s="36" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9">
-      <c r="A359" s="36"/>
-    </row>
-    <row r="360" spans="1:9">
-      <c r="A360" s="36"/>
-      <c r="C360" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9">
-      <c r="A361" s="36"/>
-    </row>
-    <row r="362" spans="1:9">
-      <c r="A362" s="36"/>
-      <c r="D362" t="s">
-        <v>1875</v>
-      </c>
-      <c r="F362" t="s">
-        <v>1878</v>
-      </c>
-      <c r="I362" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9">
-      <c r="A363" s="36"/>
-    </row>
-    <row r="364" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A364" s="36"/>
-    </row>
-    <row r="365" spans="1:9">
-      <c r="A365" s="36"/>
-    </row>
-    <row r="366" spans="1:9">
-      <c r="A366" s="36"/>
-    </row>
-    <row r="367" spans="1:9">
-      <c r="A367" s="36"/>
-    </row>
-    <row r="368" spans="1:9">
-      <c r="A368" s="36"/>
-    </row>
-    <row r="369" spans="1:8">
-      <c r="A369" s="36"/>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="A370" s="36"/>
-      <c r="D370" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
-      <c r="A371" s="36"/>
-      <c r="D371" s="58"/>
-      <c r="E371" s="43"/>
-      <c r="F371" s="43"/>
-      <c r="G371" s="43"/>
-      <c r="H371" s="43"/>
-    </row>
-    <row r="372" spans="1:8">
-      <c r="E372" s="43"/>
-      <c r="F372" s="43"/>
-      <c r="G372" s="43"/>
-      <c r="H372" s="43"/>
-    </row>
-    <row r="373" spans="1:8">
-      <c r="D373" s="58"/>
+    </row>
+    <row r="372" spans="1:10">
+      <c r="D372" s="82"/>
+    </row>
+    <row r="373" spans="1:10">
+      <c r="D373" s="58" t="s">
+        <v>1725</v>
+      </c>
       <c r="E373" s="43"/>
       <c r="F373" s="43"/>
       <c r="G373" s="43"/>
       <c r="H373" s="43"/>
-    </row>
-    <row r="375" spans="1:8">
-      <c r="E375" s="43"/>
-      <c r="F375" s="43"/>
-      <c r="G375" s="43"/>
-      <c r="H375" s="43"/>
-    </row>
-    <row r="376" spans="1:8">
-      <c r="C376" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E376" s="43"/>
-      <c r="F376" s="43"/>
-      <c r="G376" s="43"/>
-      <c r="H376" s="43"/>
-    </row>
-    <row r="377" spans="1:8">
-      <c r="E377" s="43"/>
-      <c r="F377" s="43"/>
-      <c r="G377" s="43"/>
-      <c r="H377" s="43"/>
-    </row>
-    <row r="378" spans="1:8">
+      <c r="I373" s="43"/>
+    </row>
+    <row r="374" spans="1:10">
+      <c r="D374" s="58" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E374" s="43"/>
+      <c r="F374" s="43"/>
+      <c r="G374" s="43"/>
+      <c r="H374" s="43"/>
+      <c r="I374" s="43"/>
+      <c r="J374" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10">
+      <c r="J375" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10">
+      <c r="A376" s="36" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10">
+      <c r="C378" s="58" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D378" s="43"/>
       <c r="E378" s="43"/>
       <c r="F378" s="43"/>
       <c r="G378" s="43"/>
-      <c r="H378" s="43"/>
-    </row>
-    <row r="379" spans="1:8">
+    </row>
+    <row r="379" spans="1:10">
+      <c r="C379" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D379" s="43"/>
       <c r="E379" s="43"/>
       <c r="F379" s="43"/>
       <c r="G379" s="43"/>
-      <c r="H379" s="43"/>
-    </row>
-    <row r="380" spans="1:8">
+    </row>
+    <row r="380" spans="1:10">
+      <c r="C380" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D380" s="43"/>
       <c r="E380" s="43"/>
       <c r="F380" s="43"/>
       <c r="G380" s="43"/>
-      <c r="H380" s="43"/>
-    </row>
-    <row r="381" spans="1:8">
+    </row>
+    <row r="381" spans="1:10">
+      <c r="C381" s="79"/>
+      <c r="D381" s="43"/>
       <c r="E381" s="43"/>
       <c r="F381" s="43"/>
       <c r="G381" s="43"/>
-      <c r="H381" s="43"/>
-    </row>
-    <row r="382" spans="1:8">
+    </row>
+    <row r="382" spans="1:10">
+      <c r="C382" s="58" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D382" s="43"/>
       <c r="E382" s="43"/>
       <c r="F382" s="43"/>
       <c r="G382" s="43"/>
-      <c r="H382" s="43"/>
-    </row>
-    <row r="383" spans="1:8">
+      <c r="H382" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10">
+      <c r="C383" s="58" t="s">
+        <v>135</v>
+      </c>
       <c r="D383" s="43"/>
       <c r="E383" s="43"/>
       <c r="F383" s="43"/>
       <c r="G383" s="43"/>
-      <c r="H383" s="43"/>
-    </row>
-    <row r="385" spans="1:6">
-      <c r="C385" t="s">
+      <c r="H383" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10">
+      <c r="C384" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D384" s="43"/>
+      <c r="E384" s="43"/>
+      <c r="F384" s="43"/>
+      <c r="G384" s="43"/>
+      <c r="H384" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" s="36" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" s="36"/>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" s="36"/>
+      <c r="C388" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" s="36"/>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" s="36"/>
+      <c r="D390" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1874</v>
+      </c>
+      <c r="I390" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" s="36"/>
+    </row>
+    <row r="392" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A392" s="36"/>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" s="36"/>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" s="36"/>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" s="36"/>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" s="36"/>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" s="36"/>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" s="36"/>
+      <c r="D398" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" s="36"/>
+      <c r="D399" s="58"/>
+      <c r="E399" s="43"/>
+      <c r="F399" s="43"/>
+      <c r="G399" s="43"/>
+      <c r="H399" s="43"/>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="E400" s="43"/>
+      <c r="F400" s="43"/>
+      <c r="G400" s="43"/>
+      <c r="H400" s="43"/>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="D401" s="58"/>
+      <c r="E401" s="43"/>
+      <c r="F401" s="43"/>
+      <c r="G401" s="43"/>
+      <c r="H401" s="43"/>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="E403" s="43"/>
+      <c r="F403" s="43"/>
+      <c r="G403" s="43"/>
+      <c r="H403" s="43"/>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="C404" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E404" s="43"/>
+      <c r="F404" s="43"/>
+      <c r="G404" s="43"/>
+      <c r="H404" s="43"/>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="E405" s="43"/>
+      <c r="F405" s="43"/>
+      <c r="G405" s="43"/>
+      <c r="H405" s="43"/>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="E406" s="43"/>
+      <c r="F406" s="43"/>
+      <c r="G406" s="43"/>
+      <c r="H406" s="43"/>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="E407" s="43"/>
+      <c r="F407" s="43"/>
+      <c r="G407" s="43"/>
+      <c r="H407" s="43"/>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="E408" s="43"/>
+      <c r="F408" s="43"/>
+      <c r="G408" s="43"/>
+      <c r="H408" s="43"/>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="E409" s="43"/>
+      <c r="F409" s="43"/>
+      <c r="G409" s="43"/>
+      <c r="H409" s="43"/>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="E410" s="43"/>
+      <c r="F410" s="43"/>
+      <c r="G410" s="43"/>
+      <c r="H410" s="43"/>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="D411" s="43"/>
+      <c r="E411" s="43"/>
+      <c r="F411" s="43"/>
+      <c r="G411" s="43"/>
+      <c r="H411" s="43"/>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="C413" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="A415" s="36" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="418" spans="3:6">
+      <c r="C418" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="419" spans="3:6">
+      <c r="D419" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F419" t="s">
         <v>1877</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
-      <c r="A387" s="36" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6">
-      <c r="C390" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
-      <c r="D391" t="s">
-        <v>1875</v>
-      </c>
-      <c r="F391" t="s">
+    <row r="427" spans="3:6">
+      <c r="D427" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
+      <c r="C435" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
-      <c r="D397" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9">
-      <c r="C403" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9">
-      <c r="A410" s="36" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9">
-      <c r="B411" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9">
-      <c r="C412" s="58" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D412" s="43"/>
-      <c r="E412" s="43"/>
-      <c r="F412" s="43"/>
-      <c r="G412" s="43"/>
-      <c r="H412" s="43"/>
-      <c r="I412" s="43"/>
-    </row>
-    <row r="413" spans="1:9">
-      <c r="C413" s="58" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D413" s="43"/>
-      <c r="E413" s="43"/>
-      <c r="F413" s="43"/>
-      <c r="G413" s="43"/>
-      <c r="H413" s="43"/>
-      <c r="I413" s="43"/>
-    </row>
-    <row r="414" spans="1:9">
-      <c r="C414" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D414" s="43"/>
-      <c r="E414" s="43"/>
-      <c r="F414" s="43"/>
-      <c r="G414" s="43"/>
-      <c r="H414" s="43"/>
-      <c r="I414" s="43"/>
-    </row>
-    <row r="415" spans="1:9">
-      <c r="C415" s="79"/>
-      <c r="D415" s="43"/>
-      <c r="E415" s="43"/>
-      <c r="F415" s="43"/>
-      <c r="G415" s="43"/>
-      <c r="H415" s="43"/>
-      <c r="I415" s="43"/>
-    </row>
-    <row r="416" spans="1:9">
-      <c r="C416" s="58" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D416" s="43"/>
-      <c r="E416" s="43"/>
-      <c r="F416" s="43"/>
-      <c r="G416" s="43"/>
-      <c r="H416" s="43"/>
-      <c r="I416" s="43"/>
-    </row>
-    <row r="417" spans="2:9">
-      <c r="C417" s="58" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D417" s="43"/>
-      <c r="E417" s="43"/>
-      <c r="F417" s="43"/>
-      <c r="G417" s="43"/>
-      <c r="H417" s="43"/>
-      <c r="I417" s="43"/>
-    </row>
-    <row r="418" spans="2:9">
-      <c r="C418" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D418" s="43"/>
-      <c r="E418" s="43"/>
-      <c r="F418" s="43"/>
-      <c r="G418" s="43"/>
-      <c r="H418" s="43"/>
-      <c r="I418" s="43"/>
-    </row>
-    <row r="419" spans="2:9">
-      <c r="C419" s="79"/>
-      <c r="D419" s="43"/>
-      <c r="E419" s="43"/>
-      <c r="F419" s="43"/>
-      <c r="G419" s="43"/>
-      <c r="H419" s="43"/>
-      <c r="I419" s="43"/>
-    </row>
-    <row r="420" spans="2:9">
-      <c r="C420" s="58" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D420" s="43"/>
-      <c r="E420" s="43"/>
-      <c r="F420" s="43"/>
-      <c r="G420" s="43"/>
-      <c r="H420" s="43"/>
-      <c r="I420" s="43"/>
-    </row>
-    <row r="421" spans="2:9">
-      <c r="C421" s="58" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D421" s="43"/>
-      <c r="E421" s="43"/>
-      <c r="F421" s="43"/>
-      <c r="G421" s="43"/>
-      <c r="H421" s="43"/>
-      <c r="I421" s="43"/>
-    </row>
-    <row r="422" spans="2:9">
-      <c r="C422" s="58" t="s">
+    <row r="441" spans="1:9">
+      <c r="A441" s="36" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
+      <c r="B442" t="s">
         <v>1670</v>
-      </c>
-      <c r="D422" s="43"/>
-      <c r="E422" s="43"/>
-      <c r="F422" s="43"/>
-      <c r="G422" s="43"/>
-      <c r="H422" s="43"/>
-      <c r="I422" s="43"/>
-    </row>
-    <row r="423" spans="2:9">
-      <c r="C423" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D423" s="43"/>
-      <c r="E423" s="43"/>
-      <c r="F423" s="43"/>
-      <c r="G423" s="43"/>
-      <c r="H423" s="43"/>
-      <c r="I423" s="43"/>
-    </row>
-    <row r="426" spans="2:9">
-      <c r="C426" s="58" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="427" spans="2:9">
-      <c r="C427" s="58" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="428" spans="2:9">
-      <c r="D428" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="429" spans="2:9">
-      <c r="D429" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="431" spans="2:9">
-      <c r="B431" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9">
-      <c r="C433" s="58" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D433" s="43"/>
-      <c r="E433" s="43"/>
-      <c r="F433" s="43"/>
-      <c r="G433" s="43"/>
-      <c r="H433" s="43"/>
-      <c r="I433" s="43"/>
-    </row>
-    <row r="434" spans="1:9">
-      <c r="C434" s="58" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D434" s="43"/>
-      <c r="E434" s="43"/>
-      <c r="F434" s="43"/>
-      <c r="G434" s="43"/>
-      <c r="H434" s="43"/>
-      <c r="I434" s="43"/>
-    </row>
-    <row r="435" spans="1:9">
-      <c r="C435" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D435" s="43"/>
-      <c r="E435" s="43"/>
-      <c r="F435" s="43"/>
-      <c r="G435" s="43"/>
-      <c r="H435" s="43"/>
-      <c r="I435" s="43"/>
-    </row>
-    <row r="436" spans="1:9">
-      <c r="C436" s="79"/>
-      <c r="D436" s="43"/>
-      <c r="E436" s="43"/>
-      <c r="F436" s="43"/>
-      <c r="G436" s="43"/>
-      <c r="H436" s="43"/>
-      <c r="I436" s="43"/>
-    </row>
-    <row r="437" spans="1:9">
-      <c r="C437" s="58" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D437" s="43"/>
-      <c r="E437" s="43"/>
-      <c r="F437" s="43"/>
-      <c r="G437" s="43"/>
-      <c r="H437" s="43"/>
-      <c r="I437" s="43"/>
-    </row>
-    <row r="438" spans="1:9">
-      <c r="C438" s="58" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D438" s="43"/>
-      <c r="E438" s="43"/>
-      <c r="F438" s="43"/>
-      <c r="G438" s="43"/>
-      <c r="H438" s="43"/>
-      <c r="I438" s="43"/>
-    </row>
-    <row r="439" spans="1:9">
-      <c r="C439" s="58" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D439" s="43"/>
-      <c r="E439" s="43"/>
-      <c r="F439" s="43"/>
-      <c r="G439" s="43"/>
-      <c r="H439" s="43"/>
-      <c r="I439" s="43"/>
-    </row>
-    <row r="440" spans="1:9">
-      <c r="C440" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D440" s="43"/>
-      <c r="E440" s="43"/>
-      <c r="F440" s="43"/>
-      <c r="G440" s="43"/>
-      <c r="H440" s="43"/>
-      <c r="I440" s="43"/>
-    </row>
-    <row r="442" spans="1:9">
-      <c r="C442" s="58" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="443" spans="1:9">
       <c r="C443" s="58" t="s">
-        <v>1676</v>
-      </c>
+        <v>1660</v>
+      </c>
+      <c r="D443" s="43"/>
+      <c r="E443" s="43"/>
+      <c r="F443" s="43"/>
+      <c r="G443" s="43"/>
+      <c r="H443" s="43"/>
+      <c r="I443" s="43"/>
     </row>
     <row r="444" spans="1:9">
-      <c r="D444" t="s">
-        <v>1677</v>
-      </c>
+      <c r="C444" s="58" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D444" s="43"/>
+      <c r="E444" s="43"/>
+      <c r="F444" s="43"/>
+      <c r="G444" s="43"/>
+      <c r="H444" s="43"/>
+      <c r="I444" s="43"/>
     </row>
     <row r="445" spans="1:9">
-      <c r="D445" t="s">
-        <v>1678</v>
-      </c>
+      <c r="C445" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D445" s="43"/>
+      <c r="E445" s="43"/>
+      <c r="F445" s="43"/>
+      <c r="G445" s="43"/>
+      <c r="H445" s="43"/>
+      <c r="I445" s="43"/>
+    </row>
+    <row r="446" spans="1:9">
+      <c r="C446" s="79"/>
+      <c r="D446" s="43"/>
+      <c r="E446" s="43"/>
+      <c r="F446" s="43"/>
+      <c r="G446" s="43"/>
+      <c r="H446" s="43"/>
+      <c r="I446" s="43"/>
     </row>
     <row r="447" spans="1:9">
-      <c r="A447" s="36" t="s">
-        <v>1679</v>
-      </c>
+      <c r="C447" s="58" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D447" s="43"/>
+      <c r="E447" s="43"/>
+      <c r="F447" s="43"/>
+      <c r="G447" s="43"/>
+      <c r="H447" s="43"/>
+      <c r="I447" s="43"/>
     </row>
     <row r="448" spans="1:9">
-      <c r="C448" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="449" spans="3:9">
-      <c r="D449" s="58" t="s">
-        <v>1680</v>
-      </c>
+      <c r="C448" s="58" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D448" s="43"/>
+      <c r="E448" s="43"/>
+      <c r="F448" s="43"/>
+      <c r="G448" s="43"/>
+      <c r="H448" s="43"/>
+      <c r="I448" s="43"/>
+    </row>
+    <row r="449" spans="2:9">
+      <c r="C449" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D449" s="43"/>
       <c r="E449" s="43"/>
       <c r="F449" s="43"/>
       <c r="G449" s="43"/>
       <c r="H449" s="43"/>
       <c r="I449" s="43"/>
     </row>
-    <row r="450" spans="3:9">
-      <c r="D450" s="58" t="s">
-        <v>1681</v>
-      </c>
+    <row r="450" spans="2:9">
+      <c r="C450" s="79"/>
+      <c r="D450" s="43"/>
       <c r="E450" s="43"/>
       <c r="F450" s="43"/>
       <c r="G450" s="43"/>
       <c r="H450" s="43"/>
       <c r="I450" s="43"/>
     </row>
-    <row r="451" spans="3:9">
-      <c r="D451" s="58" t="s">
-        <v>45</v>
-      </c>
+    <row r="451" spans="2:9">
+      <c r="C451" s="58" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D451" s="43"/>
       <c r="E451" s="43"/>
       <c r="F451" s="43"/>
       <c r="G451" s="43"/>
       <c r="H451" s="43"/>
       <c r="I451" s="43"/>
     </row>
-    <row r="452" spans="3:9">
-      <c r="D452" s="79"/>
+    <row r="452" spans="2:9">
+      <c r="C452" s="58" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D452" s="43"/>
       <c r="E452" s="43"/>
       <c r="F452" s="43"/>
       <c r="G452" s="43"/>
       <c r="H452" s="43"/>
       <c r="I452" s="43"/>
     </row>
-    <row r="453" spans="3:9">
-      <c r="D453" s="58" t="s">
-        <v>1682</v>
-      </c>
+    <row r="453" spans="2:9">
+      <c r="C453" s="58" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D453" s="43"/>
       <c r="E453" s="43"/>
       <c r="F453" s="43"/>
       <c r="G453" s="43"/>
       <c r="H453" s="43"/>
       <c r="I453" s="43"/>
     </row>
-    <row r="454" spans="3:9">
-      <c r="D454" s="58" t="s">
-        <v>1683</v>
-      </c>
+    <row r="454" spans="2:9">
+      <c r="C454" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D454" s="43"/>
       <c r="E454" s="43"/>
       <c r="F454" s="43"/>
       <c r="G454" s="43"/>
       <c r="H454" s="43"/>
       <c r="I454" s="43"/>
     </row>
-    <row r="455" spans="3:9">
-      <c r="D455" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E455" s="43"/>
-      <c r="F455" s="43"/>
-      <c r="G455" s="43"/>
-      <c r="H455" s="43"/>
-      <c r="I455" s="43"/>
-    </row>
-    <row r="456" spans="3:9">
-      <c r="D456" s="58" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E456" s="43"/>
-      <c r="F456" s="43"/>
-      <c r="G456" s="43"/>
-      <c r="H456" s="43"/>
-      <c r="I456" s="43"/>
-    </row>
-    <row r="457" spans="3:9">
-      <c r="D457" s="58" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E457" s="43"/>
-      <c r="F457" s="43"/>
-      <c r="G457" s="43"/>
-      <c r="H457" s="43"/>
-      <c r="I457" s="43"/>
-    </row>
-    <row r="458" spans="3:9">
-      <c r="D458" s="58" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E458" s="43"/>
-      <c r="F458" s="43"/>
-      <c r="G458" s="43"/>
-      <c r="H458" s="43"/>
-      <c r="I458" s="43"/>
-    </row>
-    <row r="459" spans="3:9">
-      <c r="D459" s="58" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E459" s="43"/>
-      <c r="F459" s="43"/>
-      <c r="G459" s="43"/>
-      <c r="H459" s="43"/>
-      <c r="I459" s="43"/>
-    </row>
-    <row r="460" spans="3:9">
-      <c r="D460" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E460" s="43"/>
-      <c r="F460" s="43"/>
-      <c r="G460" s="43"/>
-      <c r="H460" s="43"/>
-      <c r="I460" s="43"/>
-    </row>
-    <row r="462" spans="3:9">
-      <c r="C462" s="58"/>
-      <c r="D462" s="58" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="464" spans="3:9">
-      <c r="C464" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="465" spans="3:9">
-      <c r="D465" s="58" t="s">
-        <v>1682</v>
-      </c>
+    <row r="457" spans="2:9">
+      <c r="C457" s="58" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="458" spans="2:9">
+      <c r="C458" s="58" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="459" spans="2:9">
+      <c r="D459" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="460" spans="2:9">
+      <c r="D460" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="462" spans="2:9">
+      <c r="B462" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="464" spans="2:9">
+      <c r="C464" s="58" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D464" s="43"/>
+      <c r="E464" s="43"/>
+      <c r="F464" s="43"/>
+      <c r="G464" s="43"/>
+      <c r="H464" s="43"/>
+      <c r="I464" s="43"/>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="C465" s="58" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D465" s="43"/>
       <c r="E465" s="43"/>
       <c r="F465" s="43"/>
       <c r="G465" s="43"/>
       <c r="H465" s="43"/>
       <c r="I465" s="43"/>
     </row>
-    <row r="466" spans="3:9">
-      <c r="D466" s="58" t="s">
-        <v>1683</v>
-      </c>
+    <row r="466" spans="1:9">
+      <c r="C466" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D466" s="43"/>
       <c r="E466" s="43"/>
       <c r="F466" s="43"/>
       <c r="G466" s="43"/>
       <c r="H466" s="43"/>
       <c r="I466" s="43"/>
     </row>
-    <row r="467" spans="3:9">
-      <c r="D467" s="58" t="s">
-        <v>45</v>
-      </c>
+    <row r="467" spans="1:9">
+      <c r="C467" s="79"/>
+      <c r="D467" s="43"/>
       <c r="E467" s="43"/>
       <c r="F467" s="43"/>
       <c r="G467" s="43"/>
       <c r="H467" s="43"/>
       <c r="I467" s="43"/>
     </row>
-    <row r="468" spans="3:9">
-      <c r="D468" s="58" t="s">
-        <v>1625</v>
-      </c>
+    <row r="468" spans="1:9">
+      <c r="C468" s="58" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D468" s="43"/>
       <c r="E468" s="43"/>
       <c r="F468" s="43"/>
       <c r="G468" s="43"/>
       <c r="H468" s="43"/>
       <c r="I468" s="43"/>
     </row>
-    <row r="469" spans="3:9">
-      <c r="D469" s="58" t="s">
-        <v>1684</v>
-      </c>
+    <row r="469" spans="1:9">
+      <c r="C469" s="58" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D469" s="43"/>
       <c r="E469" s="43"/>
       <c r="F469" s="43"/>
       <c r="G469" s="43"/>
       <c r="H469" s="43"/>
       <c r="I469" s="43"/>
     </row>
-    <row r="470" spans="3:9">
-      <c r="D470" s="58" t="s">
-        <v>1685</v>
-      </c>
+    <row r="470" spans="1:9">
+      <c r="C470" s="58" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D470" s="43"/>
       <c r="E470" s="43"/>
       <c r="F470" s="43"/>
       <c r="G470" s="43"/>
       <c r="H470" s="43"/>
       <c r="I470" s="43"/>
     </row>
-    <row r="471" spans="3:9">
-      <c r="D471" s="58" t="s">
-        <v>1686</v>
-      </c>
+    <row r="471" spans="1:9">
+      <c r="C471" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D471" s="43"/>
       <c r="E471" s="43"/>
       <c r="F471" s="43"/>
       <c r="G471" s="43"/>
       <c r="H471" s="43"/>
       <c r="I471" s="43"/>
     </row>
-    <row r="472" spans="3:9">
-      <c r="D472" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E472" s="43"/>
-      <c r="F472" s="43"/>
-      <c r="G472" s="43"/>
-      <c r="H472" s="43"/>
-      <c r="I472" s="43"/>
-    </row>
-    <row r="474" spans="3:9">
-      <c r="D474" s="58" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="475" spans="3:9">
-      <c r="D475" s="58" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="477" spans="3:9">
-      <c r="C477" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="478" spans="3:9">
-      <c r="D478" s="58" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E478" s="43"/>
-      <c r="F478" s="43"/>
-      <c r="G478" s="43"/>
-      <c r="H478" s="43"/>
-      <c r="I478" s="43"/>
-    </row>
-    <row r="479" spans="3:9">
-      <c r="D479" s="58" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E479" s="43"/>
-      <c r="F479" s="43"/>
-      <c r="G479" s="43"/>
-      <c r="H479" s="43"/>
-      <c r="I479" s="43"/>
-    </row>
-    <row r="480" spans="3:9">
+    <row r="473" spans="1:9">
+      <c r="C473" s="58" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="C474" s="58" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="D475" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="D476" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478" s="36" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="C479" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
       <c r="D480" s="58" t="s">
-        <v>620</v>
+        <v>1677</v>
       </c>
       <c r="E480" s="43"/>
       <c r="F480" s="43"/>
@@ -23657,17 +23923,19 @@
       <c r="H480" s="43"/>
       <c r="I480" s="43"/>
     </row>
-    <row r="481" spans="4:9">
-      <c r="D481" s="79"/>
+    <row r="481" spans="3:9">
+      <c r="D481" s="58" t="s">
+        <v>1678</v>
+      </c>
       <c r="E481" s="43"/>
       <c r="F481" s="43"/>
       <c r="G481" s="43"/>
       <c r="H481" s="43"/>
       <c r="I481" s="43"/>
     </row>
-    <row r="482" spans="4:9">
+    <row r="482" spans="3:9">
       <c r="D482" s="58" t="s">
-        <v>1692</v>
+        <v>45</v>
       </c>
       <c r="E482" s="43"/>
       <c r="F482" s="43"/>
@@ -23675,19 +23943,17 @@
       <c r="H482" s="43"/>
       <c r="I482" s="43"/>
     </row>
-    <row r="483" spans="4:9">
-      <c r="D483" s="81" t="s">
-        <v>1693</v>
-      </c>
+    <row r="483" spans="3:9">
+      <c r="D483" s="79"/>
       <c r="E483" s="43"/>
       <c r="F483" s="43"/>
       <c r="G483" s="43"/>
       <c r="H483" s="43"/>
       <c r="I483" s="43"/>
     </row>
-    <row r="484" spans="4:9">
-      <c r="D484" s="81" t="s">
-        <v>1694</v>
+    <row r="484" spans="3:9">
+      <c r="D484" s="58" t="s">
+        <v>1679</v>
       </c>
       <c r="E484" s="43"/>
       <c r="F484" s="43"/>
@@ -23695,9 +23961,9 @@
       <c r="H484" s="43"/>
       <c r="I484" s="43"/>
     </row>
-    <row r="485" spans="4:9">
-      <c r="D485" s="81" t="s">
-        <v>716</v>
+    <row r="485" spans="3:9">
+      <c r="D485" s="58" t="s">
+        <v>1680</v>
       </c>
       <c r="E485" s="43"/>
       <c r="F485" s="43"/>
@@ -23705,9 +23971,9 @@
       <c r="H485" s="43"/>
       <c r="I485" s="43"/>
     </row>
-    <row r="486" spans="4:9">
-      <c r="D486" s="81" t="s">
-        <v>1697</v>
+    <row r="486" spans="3:9">
+      <c r="D486" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="E486" s="43"/>
       <c r="F486" s="43"/>
@@ -23715,9 +23981,9 @@
       <c r="H486" s="43"/>
       <c r="I486" s="43"/>
     </row>
-    <row r="487" spans="4:9">
-      <c r="D487" s="81" t="s">
-        <v>1698</v>
+    <row r="487" spans="3:9">
+      <c r="D487" s="58" t="s">
+        <v>1622</v>
       </c>
       <c r="E487" s="43"/>
       <c r="F487" s="43"/>
@@ -23725,21 +23991,19 @@
       <c r="H487" s="43"/>
       <c r="I487" s="43"/>
     </row>
-    <row r="488" spans="4:9">
-      <c r="D488" s="81" t="s">
-        <v>1699</v>
+    <row r="488" spans="3:9">
+      <c r="D488" s="58" t="s">
+        <v>1681</v>
       </c>
       <c r="E488" s="43"/>
       <c r="F488" s="43"/>
       <c r="G488" s="43"/>
-      <c r="H488" s="43" t="s">
-        <v>1650</v>
-      </c>
+      <c r="H488" s="43"/>
       <c r="I488" s="43"/>
     </row>
-    <row r="489" spans="4:9">
-      <c r="D489" s="81" t="s">
-        <v>620</v>
+    <row r="489" spans="3:9">
+      <c r="D489" s="58" t="s">
+        <v>1682</v>
       </c>
       <c r="E489" s="43"/>
       <c r="F489" s="43"/>
@@ -23747,1004 +24011,848 @@
       <c r="H489" s="43"/>
       <c r="I489" s="43"/>
     </row>
-    <row r="491" spans="4:9">
-      <c r="D491" s="81" t="s">
+    <row r="490" spans="3:9">
+      <c r="D490" s="58" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E490" s="43"/>
+      <c r="F490" s="43"/>
+      <c r="G490" s="43"/>
+      <c r="H490" s="43"/>
+      <c r="I490" s="43"/>
+    </row>
+    <row r="491" spans="3:9">
+      <c r="D491" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E491" s="43"/>
+      <c r="F491" s="43"/>
+      <c r="G491" s="43"/>
+      <c r="H491" s="43"/>
+      <c r="I491" s="43"/>
+    </row>
+    <row r="493" spans="3:9">
+      <c r="C493" s="58"/>
+      <c r="D493" s="58" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="495" spans="3:9">
+      <c r="C495" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="496" spans="3:9">
+      <c r="D496" s="58" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E496" s="43"/>
+      <c r="F496" s="43"/>
+      <c r="G496" s="43"/>
+      <c r="H496" s="43"/>
+      <c r="I496" s="43"/>
+    </row>
+    <row r="497" spans="3:9">
+      <c r="D497" s="58" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E497" s="43"/>
+      <c r="F497" s="43"/>
+      <c r="G497" s="43"/>
+      <c r="H497" s="43"/>
+      <c r="I497" s="43"/>
+    </row>
+    <row r="498" spans="3:9">
+      <c r="D498" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E498" s="43"/>
+      <c r="F498" s="43"/>
+      <c r="G498" s="43"/>
+      <c r="H498" s="43"/>
+      <c r="I498" s="43"/>
+    </row>
+    <row r="499" spans="3:9">
+      <c r="D499" s="58" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E499" s="43"/>
+      <c r="F499" s="43"/>
+      <c r="G499" s="43"/>
+      <c r="H499" s="43"/>
+      <c r="I499" s="43"/>
+    </row>
+    <row r="500" spans="3:9">
+      <c r="D500" s="58" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E500" s="43"/>
+      <c r="F500" s="43"/>
+      <c r="G500" s="43"/>
+      <c r="H500" s="43"/>
+      <c r="I500" s="43"/>
+    </row>
+    <row r="501" spans="3:9">
+      <c r="D501" s="58" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E501" s="43"/>
+      <c r="F501" s="43"/>
+      <c r="G501" s="43"/>
+      <c r="H501" s="43"/>
+      <c r="I501" s="43"/>
+    </row>
+    <row r="502" spans="3:9">
+      <c r="D502" s="58" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E502" s="43"/>
+      <c r="F502" s="43"/>
+      <c r="G502" s="43"/>
+      <c r="H502" s="43"/>
+      <c r="I502" s="43"/>
+    </row>
+    <row r="503" spans="3:9">
+      <c r="D503" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E503" s="43"/>
+      <c r="F503" s="43"/>
+      <c r="G503" s="43"/>
+      <c r="H503" s="43"/>
+      <c r="I503" s="43"/>
+    </row>
+    <row r="505" spans="3:9">
+      <c r="D505" s="58" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="506" spans="3:9">
+      <c r="D506" s="58" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="508" spans="3:9">
+      <c r="C508" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="509" spans="3:9">
+      <c r="D509" s="58" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E509" s="43"/>
+      <c r="F509" s="43"/>
+      <c r="G509" s="43"/>
+      <c r="H509" s="43"/>
+      <c r="I509" s="43"/>
+    </row>
+    <row r="510" spans="3:9">
+      <c r="D510" s="58" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E510" s="43"/>
+      <c r="F510" s="43"/>
+      <c r="G510" s="43"/>
+      <c r="H510" s="43"/>
+      <c r="I510" s="43"/>
+    </row>
+    <row r="511" spans="3:9">
+      <c r="D511" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E511" s="43"/>
+      <c r="F511" s="43"/>
+      <c r="G511" s="43"/>
+      <c r="H511" s="43"/>
+      <c r="I511" s="43"/>
+    </row>
+    <row r="512" spans="3:9">
+      <c r="D512" s="79"/>
+      <c r="E512" s="43"/>
+      <c r="F512" s="43"/>
+      <c r="G512" s="43"/>
+      <c r="H512" s="43"/>
+      <c r="I512" s="43"/>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="D513" s="58" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E513" s="43"/>
+      <c r="F513" s="43"/>
+      <c r="G513" s="43"/>
+      <c r="H513" s="43"/>
+      <c r="I513" s="43"/>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="D514" s="81" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E514" s="43"/>
+      <c r="F514" s="43"/>
+      <c r="G514" s="43"/>
+      <c r="H514" s="43"/>
+      <c r="I514" s="43"/>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="D515" s="81" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E515" s="43"/>
+      <c r="F515" s="43"/>
+      <c r="G515" s="43"/>
+      <c r="H515" s="43"/>
+      <c r="I515" s="43"/>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="D516" s="81" t="s">
+        <v>716</v>
+      </c>
+      <c r="E516" s="43"/>
+      <c r="F516" s="43"/>
+      <c r="G516" s="43"/>
+      <c r="H516" s="43"/>
+      <c r="I516" s="43"/>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="D517" s="81" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E517" s="43"/>
+      <c r="F517" s="43"/>
+      <c r="G517" s="43"/>
+      <c r="H517" s="43"/>
+      <c r="I517" s="43"/>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="D518" s="81" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E518" s="43"/>
+      <c r="F518" s="43"/>
+      <c r="G518" s="43"/>
+      <c r="H518" s="43"/>
+      <c r="I518" s="43"/>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="D519" s="81" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E519" s="43"/>
+      <c r="F519" s="43"/>
+      <c r="G519" s="43"/>
+      <c r="H519" s="43" t="s">
+        <v>1647</v>
+      </c>
+      <c r="I519" s="43"/>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="D520" s="81" t="s">
+        <v>620</v>
+      </c>
+      <c r="E520" s="43"/>
+      <c r="F520" s="43"/>
+      <c r="G520" s="43"/>
+      <c r="H520" s="43"/>
+      <c r="I520" s="43"/>
+    </row>
+    <row r="522" spans="1:9">
+      <c r="D522" s="81" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="D523" s="81" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="E525" s="58" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F525" s="43"/>
+      <c r="G525" s="43"/>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="A528" s="36" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="B530" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="C532" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="492" spans="4:9">
-      <c r="D492" s="81" t="s">
+      <c r="G532" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="494" spans="4:9">
-      <c r="E494" s="58" t="s">
-        <v>1850</v>
-      </c>
-      <c r="F494" s="43"/>
-      <c r="G494" s="43"/>
-    </row>
-    <row r="497" spans="1:7">
-      <c r="A497" s="36" t="s">
+    <row r="534" spans="1:7">
+      <c r="C534" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="499" spans="1:7">
-      <c r="B499" t="s">
+      <c r="G534" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="C536" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G536" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="C538" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="501" spans="1:7">
-      <c r="C501" t="s">
-        <v>1703</v>
-      </c>
-      <c r="G501" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="503" spans="1:7">
-      <c r="C503" t="s">
-        <v>1705</v>
-      </c>
-      <c r="G503" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7">
-      <c r="C505" t="s">
+      <c r="G538" t="s">
         <v>1708</v>
       </c>
-      <c r="G505" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7">
-      <c r="C507" t="s">
-        <v>1709</v>
-      </c>
-      <c r="G507" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7">
-      <c r="A509" s="36" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7">
-      <c r="A510" s="36"/>
-    </row>
-    <row r="511" spans="1:7">
-      <c r="A511" s="36"/>
-      <c r="B511" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7">
-      <c r="A512" s="36"/>
-    </row>
-    <row r="514" spans="2:16">
-      <c r="B514" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="516" spans="2:16">
-      <c r="B516" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="517" spans="2:16">
-      <c r="D517" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="518" spans="2:16">
-      <c r="D518" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="520" spans="2:16">
-      <c r="E520" t="s">
-        <v>1791</v>
-      </c>
-      <c r="G520" t="s">
-        <v>1792</v>
-      </c>
-      <c r="N520" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="521" spans="2:16">
-      <c r="D521" t="s">
-        <v>45</v>
-      </c>
-      <c r="K521" t="s">
-        <v>1824</v>
-      </c>
-      <c r="L521" t="s">
-        <v>1822</v>
-      </c>
-      <c r="M521" t="s">
-        <v>1823</v>
-      </c>
-      <c r="N521" t="s">
-        <v>1822</v>
-      </c>
-      <c r="O521" t="s">
-        <v>1823</v>
-      </c>
-      <c r="P521" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="522" spans="2:16">
-      <c r="K522" t="s">
-        <v>1825</v>
-      </c>
-      <c r="L522" t="s">
-        <v>1826</v>
-      </c>
-      <c r="M522" t="s">
-        <v>1834</v>
-      </c>
-      <c r="N522" t="s">
-        <v>1827</v>
-      </c>
-      <c r="O522" t="s">
-        <v>1828</v>
-      </c>
-      <c r="P522" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="523" spans="2:16">
-      <c r="B523" s="47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="524" spans="2:16">
-      <c r="B524" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="525" spans="2:16">
-      <c r="B525" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="527" spans="2:16">
-      <c r="B527" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="528" spans="2:16">
-      <c r="B528" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="531" spans="1:7">
-      <c r="B531" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="534" spans="1:7">
-      <c r="B534" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="535" spans="1:7">
-      <c r="G535" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7">
-      <c r="C536" s="58" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D536" s="43"/>
-      <c r="E536" s="43"/>
-      <c r="F536" s="43"/>
-    </row>
-    <row r="537" spans="1:7">
-      <c r="C537" s="58" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D537" s="43"/>
-      <c r="E537" s="43"/>
-      <c r="F537" s="43"/>
-    </row>
-    <row r="538" spans="1:7">
-      <c r="C538" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D538" s="43"/>
-      <c r="E538" s="43"/>
-      <c r="F538" s="43"/>
-    </row>
-    <row r="539" spans="1:7">
-      <c r="C539" s="82"/>
     </row>
     <row r="540" spans="1:7">
       <c r="A540" s="36" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541" s="36"/>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" s="36"/>
+      <c r="B542" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543" s="36"/>
+    </row>
+    <row r="545" spans="2:16">
+      <c r="B545" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="547" spans="2:16">
+      <c r="B547" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="548" spans="2:16">
+      <c r="D548" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="549" spans="2:16">
+      <c r="D549" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="551" spans="2:16">
+      <c r="E551" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G551" t="s">
+        <v>1789</v>
+      </c>
+      <c r="N551" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="552" spans="2:16">
+      <c r="D552" t="s">
+        <v>45</v>
+      </c>
+      <c r="K552" t="s">
+        <v>1821</v>
+      </c>
+      <c r="L552" t="s">
+        <v>1819</v>
+      </c>
+      <c r="M552" t="s">
+        <v>1820</v>
+      </c>
+      <c r="N552" t="s">
+        <v>1819</v>
+      </c>
+      <c r="O552" t="s">
+        <v>1820</v>
+      </c>
+      <c r="P552" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="553" spans="2:16">
+      <c r="K553" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L553" t="s">
+        <v>1823</v>
+      </c>
+      <c r="M553" t="s">
+        <v>1831</v>
+      </c>
+      <c r="N553" t="s">
+        <v>1824</v>
+      </c>
+      <c r="O553" t="s">
+        <v>1825</v>
+      </c>
+      <c r="P553" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="554" spans="2:16">
+      <c r="B554" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555" spans="2:16">
+      <c r="B555" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="556" spans="2:16">
+      <c r="B556" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="558" spans="2:16">
+      <c r="B558" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="559" spans="2:16">
+      <c r="B559" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
+      <c r="B562" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7">
+      <c r="B565" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7">
+      <c r="G566" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7">
+      <c r="C567" s="58" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D567" s="43"/>
+      <c r="E567" s="43"/>
+      <c r="F567" s="43"/>
+    </row>
+    <row r="568" spans="1:7">
+      <c r="C568" s="58" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D568" s="43"/>
+      <c r="E568" s="43"/>
+      <c r="F568" s="43"/>
+    </row>
+    <row r="569" spans="1:7">
+      <c r="C569" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D569" s="43"/>
+      <c r="E569" s="43"/>
+      <c r="F569" s="43"/>
+    </row>
+    <row r="570" spans="1:7">
+      <c r="C570" s="82"/>
+    </row>
+    <row r="571" spans="1:7">
+      <c r="A571" s="36" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7">
+      <c r="A573" s="36" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7">
+      <c r="B574" s="43" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7">
+      <c r="A576" s="36" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
-      <c r="A542" s="36" t="s">
+    <row r="577" spans="1:2">
+      <c r="B577" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
-      <c r="B543" s="43" t="s">
+    <row r="578" spans="1:2">
+      <c r="B578" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
-      <c r="A545" s="36" t="s">
+    <row r="579" spans="1:2">
+      <c r="B579" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
-      <c r="B546" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2">
-      <c r="B547" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2">
-      <c r="B548" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2">
-      <c r="B549" t="s">
+    <row r="580" spans="1:2">
+      <c r="B580" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
-      <c r="A551" s="36" t="s">
+    <row r="582" spans="1:2">
+      <c r="A582" s="36" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="36" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="36" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="B588" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
-      <c r="A553" s="36" t="s">
+    <row r="595" spans="2:11">
+      <c r="B595" s="84" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="596" spans="2:11">
+      <c r="C596" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="597" spans="2:11">
+      <c r="D597" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="599" spans="2:11">
+      <c r="C599" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="601" spans="2:11">
+      <c r="D601" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="602" spans="2:11">
+      <c r="D602" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="605" spans="2:11">
+      <c r="C605" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E605" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="555" spans="1:2">
-      <c r="A555" s="36" t="s">
+      <c r="K605" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
-      <c r="B557" t="s">
+    <row r="606" spans="2:11">
+      <c r="E606" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="564" spans="2:11">
-      <c r="B564" s="84" t="s">
+      <c r="K606" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="607" spans="2:11">
+      <c r="E607" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K607" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="608" spans="2:11">
+      <c r="E608" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K608" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="609" spans="2:11">
+      <c r="E609" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K609" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="612" spans="2:11">
+      <c r="C612" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K612" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="613" spans="2:11">
+      <c r="E613" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K613" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="614" spans="2:11">
+      <c r="E614" t="s">
+        <v>1750</v>
+      </c>
+      <c r="K614" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="617" spans="2:11">
+      <c r="B617" s="84" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="618" spans="2:11">
+      <c r="C618" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="620" spans="2:11">
+      <c r="C620" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E620" t="s">
         <v>1757</v>
       </c>
-      <c r="C564" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="565" spans="2:11">
-      <c r="C565" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="566" spans="2:11">
-      <c r="D566" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="568" spans="2:11">
-      <c r="C568" t="s">
+    </row>
+    <row r="623" spans="2:11">
+      <c r="C623" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E623" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H623" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="B625" s="90" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="570" spans="2:11">
-      <c r="D570" t="s">
+    <row r="626" spans="1:5">
+      <c r="C626" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="571" spans="2:11">
-      <c r="D571" t="s">
+    <row r="628" spans="1:5">
+      <c r="D628" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="E629" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="574" spans="2:11">
-      <c r="C574" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E574" t="s">
-        <v>1741</v>
-      </c>
-      <c r="K574" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="575" spans="2:11">
-      <c r="E575" t="s">
-        <v>1743</v>
-      </c>
-      <c r="K575" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="576" spans="2:11">
-      <c r="E576" t="s">
-        <v>1745</v>
-      </c>
-      <c r="K576" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="577" spans="2:11">
-      <c r="E577" t="s">
-        <v>1746</v>
-      </c>
-      <c r="K577" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="578" spans="2:11">
-      <c r="E578" t="s">
-        <v>1748</v>
-      </c>
-      <c r="K578" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="581" spans="2:11">
-      <c r="C581" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E581" t="s">
-        <v>1751</v>
-      </c>
-      <c r="K581" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="582" spans="2:11">
-      <c r="E582" t="s">
-        <v>1752</v>
-      </c>
-      <c r="K582" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="583" spans="2:11">
-      <c r="E583" t="s">
-        <v>1753</v>
-      </c>
-      <c r="K583" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="586" spans="2:11">
-      <c r="B586" s="84" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="587" spans="2:11">
-      <c r="C587" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="589" spans="2:11">
-      <c r="C589" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E589" t="s">
+    <row r="635" spans="1:5">
+      <c r="A635" s="36" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="592" spans="2:11">
-      <c r="C592" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E592" t="s">
+    <row r="637" spans="1:5">
+      <c r="B637" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="B639" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="C640" t="s">
         <v>1761</v>
       </c>
-      <c r="H592" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="594" spans="1:5">
-      <c r="B594" s="90" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="595" spans="1:5">
-      <c r="C595" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="597" spans="1:5">
-      <c r="D597" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="598" spans="1:5">
-      <c r="E598" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="604" spans="1:5">
-      <c r="A604" s="36" t="s">
+    </row>
+    <row r="644" spans="1:6">
+      <c r="A644" s="57" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="606" spans="1:5">
-      <c r="B606" t="s">
+      <c r="B644" s="57" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C644" s="57"/>
+    </row>
+    <row r="645" spans="1:6">
+      <c r="B645" s="86" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="608" spans="1:5">
-      <c r="B608" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="609" spans="1:6">
-      <c r="C609" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="613" spans="1:6">
-      <c r="A613" s="57" t="s">
+      <c r="C645" s="86" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D645" s="85" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6">
+      <c r="A646" s="85">
+        <v>1</v>
+      </c>
+      <c r="B646" s="70" t="s">
         <v>1766</v>
       </c>
-      <c r="B613" s="57" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C613" s="57"/>
-    </row>
-    <row r="614" spans="1:6">
-      <c r="B614" s="86" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C614" s="86" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D614" s="85" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="615" spans="1:6">
-      <c r="A615" s="85">
-        <v>1</v>
-      </c>
-      <c r="B615" s="70" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C615" s="70" t="s">
+      <c r="C646" s="70" t="s">
         <v>1384</v>
       </c>
-      <c r="D615" t="s">
+      <c r="D646" t="s">
         <v>98</v>
       </c>
-      <c r="F615" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="616" spans="1:6">
-      <c r="A616" s="85">
+      <c r="F646" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6">
+      <c r="A647" s="85">
         <v>2</v>
       </c>
-      <c r="B616" s="70" t="s">
+      <c r="B647" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="C616" s="70" t="s">
+      <c r="C647" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="D616" t="s">
+      <c r="D647" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
-      <c r="A617" s="85">
+    <row r="648" spans="1:6">
+      <c r="A648" s="85">
         <v>3</v>
       </c>
-      <c r="B617" s="70" t="s">
+      <c r="B648" s="70" t="s">
         <v>1374</v>
       </c>
-      <c r="C617" s="70" t="s">
+      <c r="C648" s="70" t="s">
         <v>1374</v>
       </c>
-      <c r="D617" t="s">
+      <c r="D648" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
-      <c r="A618" s="85">
+    <row r="649" spans="1:6">
+      <c r="A649" s="85">
         <v>4</v>
       </c>
-      <c r="B618" s="70" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C618" s="70" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D618" t="s">
+      <c r="B649" s="70" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C649" s="70" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D649" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="619" spans="1:6">
-      <c r="A619" s="85">
-        <v>5</v>
-      </c>
-      <c r="B619" s="70" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C619" s="70" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D619" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="620" spans="1:6">
-      <c r="A620" s="85">
-        <v>6</v>
-      </c>
-      <c r="B620" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="C620" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D620" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="621" spans="1:6">
-      <c r="A621" s="85">
-        <v>7</v>
-      </c>
-      <c r="B621" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="C621" s="70" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D621" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="622" spans="1:6">
-      <c r="A622" s="85">
-        <v>8</v>
-      </c>
-      <c r="B622" s="70" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C622" s="70" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D622" t="s">
-        <v>98</v>
-      </c>
-      <c r="F622" s="88" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="623" spans="1:6">
-      <c r="A623" s="85">
-        <v>9</v>
-      </c>
-      <c r="B623" s="70" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C623" s="70" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D623" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="624" spans="1:6">
-      <c r="A624" s="85">
-        <v>10</v>
-      </c>
-      <c r="B624" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C624" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="D624" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="625" spans="1:6">
-      <c r="A625" s="85">
-        <v>11</v>
-      </c>
-      <c r="B625" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C625" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="D625" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="626" spans="1:6">
-      <c r="A626" s="85">
-        <v>12</v>
-      </c>
-      <c r="B626" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C626" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D626" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="627" spans="1:6">
-      <c r="A627" s="85">
-        <v>13</v>
-      </c>
-      <c r="B627" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="C627" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D627" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="628" spans="1:6">
-      <c r="A628" s="85">
-        <v>14</v>
-      </c>
-      <c r="B628" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C628" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="D628" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="629" spans="1:6">
-      <c r="A629" s="85">
-        <v>15</v>
-      </c>
-      <c r="B629" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C629" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D629" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="630" spans="1:6">
-      <c r="A630" s="85">
-        <v>16</v>
-      </c>
-      <c r="B630" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C630" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="D630" t="s">
-        <v>98</v>
-      </c>
-      <c r="E630" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="631" spans="1:6">
-      <c r="A631" s="85">
-        <v>17</v>
-      </c>
-      <c r="B631" s="70" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C631" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="D631" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="632" spans="1:6">
-      <c r="A632" s="85">
-        <v>18</v>
-      </c>
-      <c r="B632" s="70" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C632" s="70" t="s">
-        <v>224</v>
-      </c>
-      <c r="D632" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="633" spans="1:6">
-      <c r="A633" s="85">
-        <v>19</v>
-      </c>
-      <c r="B633" s="70" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C633" s="70" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D633" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="634" spans="1:6">
-      <c r="A634" s="85">
-        <v>20</v>
-      </c>
-      <c r="B634" s="70" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C634" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D634" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="635" spans="1:6">
-      <c r="A635" s="85">
-        <v>21</v>
-      </c>
-      <c r="B635" s="70" t="s">
-        <v>688</v>
-      </c>
-      <c r="C635" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="D635" t="s">
-        <v>98</v>
-      </c>
-      <c r="F635" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="636" spans="1:6">
-      <c r="A636" s="85">
-        <v>22</v>
-      </c>
-      <c r="B636" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C636" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D636" t="s">
-        <v>98</v>
-      </c>
-      <c r="E636" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F636" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="637" spans="1:6">
-      <c r="A637" s="85">
-        <v>23</v>
-      </c>
-      <c r="B637" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C637" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D637" t="s">
-        <v>98</v>
-      </c>
-      <c r="F637" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="638" spans="1:6">
-      <c r="A638" s="85">
-        <v>24</v>
-      </c>
-      <c r="B638" s="70" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C638" s="70" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D638" t="s">
-        <v>98</v>
-      </c>
-      <c r="F638" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="639" spans="1:6">
-      <c r="A639" s="85">
-        <v>25</v>
-      </c>
-      <c r="B639" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="C639" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="D639" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="640" spans="1:6">
-      <c r="A640" s="85">
-        <v>26</v>
-      </c>
-      <c r="B640" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C640" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D640" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="641" spans="1:6">
-      <c r="A641" s="85">
-        <v>27</v>
-      </c>
-      <c r="B641" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C641" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="D641" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="642" spans="1:6">
-      <c r="A642" s="85">
-        <v>28</v>
-      </c>
-      <c r="B642" s="70" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C642" s="70" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D642" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="643" spans="1:6">
-      <c r="A643" s="85">
-        <v>29</v>
-      </c>
-      <c r="B643" s="70" t="s">
-        <v>638</v>
-      </c>
-      <c r="C643" s="70" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D643" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="645" spans="1:6">
-      <c r="A645" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C645" s="87">
-        <v>0.34</v>
-      </c>
-      <c r="D645" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="647" spans="1:6">
-      <c r="A647" s="57" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B647" s="57" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C647" s="39"/>
-    </row>
-    <row r="649" spans="1:6">
-      <c r="B649" s="86" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C649" s="86" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D649" s="85" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="650" spans="1:6">
       <c r="A650" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B650" s="70" t="s">
-        <v>257</v>
+        <v>1772</v>
       </c>
       <c r="C650" s="70" t="s">
-        <v>257</v>
+        <v>1778</v>
       </c>
       <c r="D650" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="651" spans="1:6">
       <c r="A651" s="85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B651" s="70" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C651" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D651" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="652" spans="1:6">
       <c r="A652" s="85">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B652" s="70" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="C652" s="70" t="s">
-        <v>213</v>
+        <v>1779</v>
       </c>
       <c r="D652" t="s">
         <v>98</v>
       </c>
-      <c r="F652" t="s">
-        <v>1838</v>
-      </c>
     </row>
     <row r="653" spans="1:6">
       <c r="A653" s="85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B653" s="70" t="s">
-        <v>213</v>
+        <v>1773</v>
       </c>
       <c r="C653" s="70" t="s">
-        <v>213</v>
+        <v>1375</v>
       </c>
       <c r="D653" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="F653" s="88" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="654" spans="1:6">
       <c r="A654" s="85">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B654" s="70" t="s">
-        <v>216</v>
+        <v>1378</v>
       </c>
       <c r="C654" s="70" t="s">
-        <v>216</v>
+        <v>1378</v>
       </c>
       <c r="D654" t="s">
         <v>49</v>
@@ -24752,27 +24860,27 @@
     </row>
     <row r="655" spans="1:6">
       <c r="A655" s="85">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B655" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C655" s="70" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D655" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="656" spans="1:6">
       <c r="A656" s="85">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B656" s="70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C656" s="70" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D656" t="s">
         <v>98</v>
@@ -24780,27 +24888,27 @@
     </row>
     <row r="657" spans="1:6">
       <c r="A657" s="85">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B657" s="70" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C657" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D657" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="658" spans="1:6">
       <c r="A658" s="85">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B658" s="70" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="C658" s="70" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="D658" t="s">
         <v>49</v>
@@ -24808,30 +24916,27 @@
     </row>
     <row r="659" spans="1:6">
       <c r="A659" s="85">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B659" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C659" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D659" t="s">
         <v>49</v>
       </c>
-      <c r="E659" t="s">
-        <v>1836</v>
-      </c>
     </row>
     <row r="660" spans="1:6">
       <c r="A660" s="85">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B660" s="70" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="C660" s="70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D660" t="s">
         <v>98</v>
@@ -24839,27 +24944,30 @@
     </row>
     <row r="661" spans="1:6">
       <c r="A661" s="85">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B661" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C661" s="70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D661" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="662" spans="1:6">
       <c r="A662" s="85">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B662" s="70" t="s">
-        <v>222</v>
+        <v>1381</v>
       </c>
       <c r="C662" s="70" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="D662" t="s">
         <v>98</v>
@@ -24867,13 +24975,13 @@
     </row>
     <row r="663" spans="1:6">
       <c r="A663" s="85">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B663" s="70" t="s">
-        <v>222</v>
+        <v>1774</v>
       </c>
       <c r="C663" s="70" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D663" t="s">
         <v>49</v>
@@ -24881,100 +24989,112 @@
     </row>
     <row r="664" spans="1:6">
       <c r="A664" s="85">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B664" s="70" t="s">
-        <v>257</v>
+        <v>1381</v>
       </c>
       <c r="C664" s="70" t="s">
-        <v>257</v>
+        <v>1780</v>
       </c>
       <c r="D664" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="665" spans="1:6">
       <c r="A665" s="85">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B665" s="70" t="s">
-        <v>216</v>
+        <v>1775</v>
       </c>
       <c r="C665" s="70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D665" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="666" spans="1:6">
       <c r="A666" s="85">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B666" s="70" t="s">
-        <v>213</v>
+        <v>688</v>
       </c>
       <c r="C666" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D666" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="F666" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="667" spans="1:6">
       <c r="A667" s="85">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B667" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C667" s="70" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D667" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F667" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="668" spans="1:6">
       <c r="A668" s="85">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B668" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C668" s="70" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D668" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="F668" t="s">
+        <v>1793</v>
       </c>
     </row>
     <row r="669" spans="1:6">
       <c r="A669" s="85">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B669" s="70" t="s">
-        <v>257</v>
+        <v>1378</v>
       </c>
       <c r="C669" s="70" t="s">
-        <v>213</v>
+        <v>1375</v>
       </c>
       <c r="D669" t="s">
         <v>98</v>
       </c>
       <c r="F669" t="s">
-        <v>1860</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="670" spans="1:6">
       <c r="A670" s="85">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B670" s="70" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="C670" s="70" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="D670" t="s">
         <v>49</v>
@@ -24982,13 +25102,13 @@
     </row>
     <row r="671" spans="1:6">
       <c r="A671" s="85">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B671" s="70" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C671" s="70" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D671" t="s">
         <v>49</v>
@@ -24996,13 +25116,13 @@
     </row>
     <row r="672" spans="1:6">
       <c r="A672" s="85">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B672" s="70" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C672" s="70" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="D672" t="s">
         <v>49</v>
@@ -25010,139 +25130,86 @@
     </row>
     <row r="673" spans="1:6">
       <c r="A673" s="85">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B673" s="70" t="s">
-        <v>257</v>
+        <v>1777</v>
       </c>
       <c r="C673" s="70" t="s">
-        <v>222</v>
+        <v>1777</v>
       </c>
       <c r="D673" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="674" spans="1:6">
       <c r="A674" s="85">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B674" s="70" t="s">
-        <v>222</v>
+        <v>638</v>
       </c>
       <c r="C674" s="70" t="s">
-        <v>222</v>
+        <v>1781</v>
       </c>
       <c r="D674" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="675" spans="1:6">
-      <c r="A675" s="85">
-        <v>26</v>
-      </c>
-      <c r="B675" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C675" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D675" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="676" spans="1:6">
-      <c r="A676" s="85">
-        <v>27</v>
-      </c>
-      <c r="B676" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C676" s="70" t="s">
-        <v>216</v>
+      <c r="A676" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C676" s="87">
+        <v>0.34</v>
       </c>
       <c r="D676" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="677" spans="1:6">
-      <c r="A677" s="85">
-        <v>28</v>
-      </c>
-      <c r="B677" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C677" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="D677" t="s">
-        <v>49</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="678" spans="1:6">
-      <c r="A678" s="85">
-        <v>29</v>
-      </c>
-      <c r="B678" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C678" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D678" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="679" spans="1:6">
-      <c r="A679" s="85">
-        <v>30</v>
-      </c>
-      <c r="B679" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C679" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="D679" t="s">
-        <v>49</v>
-      </c>
+      <c r="A678" s="57" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B678" s="57" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C678" s="39"/>
     </row>
     <row r="680" spans="1:6">
-      <c r="A680" s="85">
-        <v>31</v>
-      </c>
-      <c r="B680" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C680" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D680" t="s">
-        <v>98</v>
+      <c r="B680" s="86" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C680" s="86" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D680" s="85" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="681" spans="1:6">
       <c r="A681" s="85">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B681" s="70" t="s">
         <v>257</v>
       </c>
       <c r="C681" s="70" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="D681" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="682" spans="1:6">
       <c r="A682" s="85">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B682" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C682" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D682" t="s">
         <v>49</v>
@@ -25150,30 +25217,30 @@
     </row>
     <row r="683" spans="1:6">
       <c r="A683" s="85">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B683" s="70" t="s">
-        <v>1472</v>
+        <v>257</v>
       </c>
       <c r="C683" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D683" t="s">
         <v>98</v>
       </c>
       <c r="F683" t="s">
-        <v>1861</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="684" spans="1:6">
       <c r="A684" s="85">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B684" s="70" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="C684" s="70" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="D684" t="s">
         <v>49</v>
@@ -25181,55 +25248,55 @@
     </row>
     <row r="685" spans="1:6">
       <c r="A685" s="85">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B685" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C685" s="70" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D685" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="686" spans="1:6">
       <c r="A686" s="85">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B686" s="70" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C686" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D686" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="687" spans="1:6">
       <c r="A687" s="85">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B687" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C687" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D687" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="688" spans="1:6">
       <c r="A688" s="85">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B688" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C688" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D688" t="s">
         <v>49</v>
@@ -25237,13 +25304,13 @@
     </row>
     <row r="689" spans="1:6">
       <c r="A689" s="85">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B689" s="70" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C689" s="70" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="D689" t="s">
         <v>49</v>
@@ -25251,41 +25318,44 @@
     </row>
     <row r="690" spans="1:6">
       <c r="A690" s="85">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B690" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C690" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D690" t="s">
         <v>49</v>
       </c>
+      <c r="E690" t="s">
+        <v>1833</v>
+      </c>
     </row>
     <row r="691" spans="1:6">
       <c r="A691" s="85">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B691" s="70" t="s">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c r="C691" s="70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D691" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="692" spans="1:6">
       <c r="A692" s="85">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B692" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C692" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D692" t="s">
         <v>49</v>
@@ -25293,13 +25363,13 @@
     </row>
     <row r="693" spans="1:6">
       <c r="A693" s="85">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B693" s="70" t="s">
         <v>222</v>
       </c>
       <c r="C693" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D693" t="s">
         <v>98</v>
@@ -25307,44 +25377,41 @@
     </row>
     <row r="694" spans="1:6">
       <c r="A694" s="85">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B694" s="70" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C694" s="70" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D694" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="695" spans="1:6">
       <c r="A695" s="85">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B695" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C695" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D695" t="s">
-        <v>98</v>
-      </c>
-      <c r="F695" t="s">
-        <v>1866</v>
+        <v>49</v>
       </c>
     </row>
     <row r="696" spans="1:6">
       <c r="A696" s="85">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B696" s="70" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C696" s="70" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D696" t="s">
         <v>49</v>
@@ -25352,27 +25419,27 @@
     </row>
     <row r="697" spans="1:6">
       <c r="A697" s="85">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B697" s="70" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="C697" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D697" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="698" spans="1:6">
       <c r="A698" s="85">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B698" s="70" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C698" s="70" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D698" t="s">
         <v>49</v>
@@ -25380,173 +25447,616 @@
     </row>
     <row r="699" spans="1:6">
       <c r="A699" s="85">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B699" s="70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C699" s="70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D699" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="700" spans="1:6">
+      <c r="A700" s="85">
+        <v>20</v>
+      </c>
+      <c r="B700" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C700" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D700" t="s">
+        <v>98</v>
+      </c>
+      <c r="F700" t="s">
+        <v>1856</v>
+      </c>
+    </row>
     <row r="701" spans="1:6">
-      <c r="A701" t="s">
-        <v>1837</v>
+      <c r="A701" s="85">
+        <v>21</v>
+      </c>
+      <c r="B701" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C701" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D701" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="702" spans="1:6">
-      <c r="A702" t="s">
-        <v>675</v>
-      </c>
-      <c r="B702" s="87">
-        <v>0.68</v>
+      <c r="A702" s="85">
+        <v>22</v>
+      </c>
+      <c r="B702" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C702" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D702" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6">
+      <c r="A703" s="85">
+        <v>23</v>
+      </c>
+      <c r="B703" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C703" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D703" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6">
+      <c r="A704" s="85">
+        <v>24</v>
+      </c>
+      <c r="B704" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C704" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D704" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="705" spans="1:6">
-      <c r="A705" s="57" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B705" s="36"/>
+      <c r="A705" s="85">
+        <v>25</v>
+      </c>
+      <c r="B705" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C705" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D705" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6">
+      <c r="A706" s="85">
+        <v>26</v>
+      </c>
+      <c r="B706" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C706" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D706" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="707" spans="1:6">
-      <c r="A707" s="92" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B707" s="92" t="s">
-        <v>647</v>
-      </c>
-      <c r="C707" s="92" t="s">
-        <v>1428</v>
+      <c r="A707" s="85">
+        <v>27</v>
+      </c>
+      <c r="B707" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C707" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D707" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="708" spans="1:6">
-      <c r="A708" s="70">
-        <v>1</v>
+      <c r="A708" s="85">
+        <v>28</v>
       </c>
       <c r="B708" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C708" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D708" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6">
+      <c r="A709" s="85">
+        <v>29</v>
+      </c>
+      <c r="B709" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C709" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D709" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6">
+      <c r="A710" s="85">
+        <v>30</v>
+      </c>
+      <c r="B710" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C710" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D710" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6">
+      <c r="A711" s="85">
+        <v>31</v>
+      </c>
+      <c r="B711" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C711" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="C708" s="70"/>
-    </row>
-    <row r="709" spans="1:6">
-      <c r="A709" s="70">
-        <v>2</v>
-      </c>
-      <c r="B709" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C709" s="70"/>
-    </row>
-    <row r="710" spans="1:6">
-      <c r="A710" s="70">
-        <v>3</v>
-      </c>
-      <c r="B710" s="70" t="s">
+      <c r="D711" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6">
+      <c r="A712" s="85">
+        <v>32</v>
+      </c>
+      <c r="B712" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C712" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="C710" s="70"/>
-    </row>
-    <row r="711" spans="1:6">
-      <c r="A711" s="70">
-        <v>4</v>
-      </c>
-      <c r="B711" s="70" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C711" s="70"/>
-      <c r="E711" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F711" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="712" spans="1:6">
-      <c r="A712" s="70">
-        <v>5</v>
-      </c>
-      <c r="B712" s="70" t="s">
+      <c r="D712" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6">
+      <c r="A713" s="85">
+        <v>33</v>
+      </c>
+      <c r="B713" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C713" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D713" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6">
+      <c r="A714" s="85">
+        <v>34</v>
+      </c>
+      <c r="B714" s="70" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C714" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="C712" s="70"/>
-      <c r="F712" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="713" spans="1:6">
-      <c r="A713" s="70">
-        <v>6</v>
-      </c>
-      <c r="B713" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C713" s="70"/>
-      <c r="F713" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="714" spans="1:6">
-      <c r="A714" s="70">
-        <v>7</v>
-      </c>
-      <c r="B714" s="70" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C714" s="70"/>
+      <c r="D714" t="s">
+        <v>98</v>
+      </c>
       <c r="F714" t="s">
-        <v>1872</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="715" spans="1:6">
-      <c r="A715" s="70">
-        <v>8</v>
+      <c r="A715" s="85">
+        <v>35</v>
       </c>
       <c r="B715" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="C715" s="70"/>
+      <c r="C715" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D715" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="716" spans="1:6">
-      <c r="A716" s="70">
+      <c r="A716" s="85">
+        <v>36</v>
+      </c>
+      <c r="B716" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C716" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D716" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6">
+      <c r="A717" s="85">
+        <v>37</v>
+      </c>
+      <c r="B717" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C717" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D717" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6">
+      <c r="A718" s="85">
+        <v>38</v>
+      </c>
+      <c r="B718" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C718" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D718" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6">
+      <c r="A719" s="85">
+        <v>39</v>
+      </c>
+      <c r="B719" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C719" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D719" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6">
+      <c r="A720" s="85">
+        <v>40</v>
+      </c>
+      <c r="B720" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C720" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D720" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6">
+      <c r="A721" s="85">
+        <v>41</v>
+      </c>
+      <c r="B721" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C721" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D721" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6">
+      <c r="A722" s="85">
+        <v>42</v>
+      </c>
+      <c r="B722" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C722" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D722" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6">
+      <c r="A723" s="85">
+        <v>43</v>
+      </c>
+      <c r="B723" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C723" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D723" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6">
+      <c r="A724" s="85">
+        <v>44</v>
+      </c>
+      <c r="B724" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C724" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D724" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6">
+      <c r="A725" s="85">
+        <v>45</v>
+      </c>
+      <c r="B725" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C725" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D725" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6">
+      <c r="A726" s="85">
+        <v>46</v>
+      </c>
+      <c r="B726" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C726" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D726" t="s">
+        <v>98</v>
+      </c>
+      <c r="F726" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6">
+      <c r="A727" s="85">
+        <v>47</v>
+      </c>
+      <c r="B727" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C727" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D727" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6">
+      <c r="A728" s="85">
+        <v>48</v>
+      </c>
+      <c r="B728" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C728" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D728" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6">
+      <c r="A729" s="85">
+        <v>49</v>
+      </c>
+      <c r="B729" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C729" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D729" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6">
+      <c r="A730" s="85">
+        <v>50</v>
+      </c>
+      <c r="B730" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C730" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D730" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6">
+      <c r="A732" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6">
+      <c r="A733" t="s">
+        <v>675</v>
+      </c>
+      <c r="B733" s="87">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6">
+      <c r="A736" s="57" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B736" s="36"/>
+    </row>
+    <row r="738" spans="1:6">
+      <c r="A738" s="91" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B738" s="91" t="s">
+        <v>647</v>
+      </c>
+      <c r="C738" s="91" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6">
+      <c r="A739" s="70">
+        <v>1</v>
+      </c>
+      <c r="B739" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C739" s="70"/>
+    </row>
+    <row r="740" spans="1:6">
+      <c r="A740" s="70">
+        <v>2</v>
+      </c>
+      <c r="B740" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C740" s="70"/>
+    </row>
+    <row r="741" spans="1:6">
+      <c r="A741" s="70">
+        <v>3</v>
+      </c>
+      <c r="B741" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C741" s="70"/>
+    </row>
+    <row r="742" spans="1:6">
+      <c r="A742" s="70">
+        <v>4</v>
+      </c>
+      <c r="B742" s="70" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C742" s="70"/>
+      <c r="E742" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F742" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6">
+      <c r="A743" s="70">
+        <v>5</v>
+      </c>
+      <c r="B743" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C743" s="70"/>
+      <c r="F743" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6">
+      <c r="A744" s="70">
+        <v>6</v>
+      </c>
+      <c r="B744" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C744" s="70"/>
+      <c r="F744" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6">
+      <c r="A745" s="70">
+        <v>7</v>
+      </c>
+      <c r="B745" s="70" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C745" s="70"/>
+      <c r="F745" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6">
+      <c r="A746" s="70">
+        <v>8</v>
+      </c>
+      <c r="B746" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C746" s="70"/>
+    </row>
+    <row r="747" spans="1:6">
+      <c r="A747" s="70">
         <v>9</v>
       </c>
-      <c r="B716" s="70" t="s">
+      <c r="B747" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="C716" s="70"/>
-    </row>
-    <row r="717" spans="1:6">
-      <c r="A717" s="70">
+      <c r="C747" s="70"/>
+    </row>
+    <row r="748" spans="1:6">
+      <c r="A748" s="70">
         <v>10</v>
       </c>
-      <c r="B717" s="70" t="s">
+      <c r="B748" s="70" t="s">
         <v>688</v>
       </c>
-      <c r="C717" s="70"/>
-    </row>
-    <row r="718" spans="1:6">
-      <c r="E718">
+      <c r="C748" s="70"/>
+    </row>
+    <row r="749" spans="1:6">
+      <c r="E749">
         <v>10</v>
       </c>
-      <c r="F718">
+      <c r="F749">
         <v>20</v>
       </c>
     </row>
-    <row r="719" spans="1:6">
-      <c r="F719">
+    <row r="750" spans="1:6">
+      <c r="F750">
         <v>10</v>
       </c>
     </row>
-    <row r="720" spans="1:6">
-      <c r="F720">
+    <row r="751" spans="1:6">
+      <c r="F751">
         <v>11</v>
       </c>
     </row>
-    <row r="721" spans="6:6">
-      <c r="F721">
+    <row r="752" spans="1:6">
+      <c r="F752">
         <v>10</v>
       </c>
     </row>
@@ -25559,20 +26069,228 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" s="36" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="36" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="36" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="D31" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="E32" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="D35" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="E36" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="F37" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="D45" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="E46" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="14.25" customHeight="1"/>
+    <row r="49" spans="2:7">
+      <c r="D49" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="E50" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="F51" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="E54" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="C60" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="C70" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="D71" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="D72" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="36" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="C78" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="C80" t="s">
+        <v>1928</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="1929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="1958">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -6268,20 +6268,150 @@
     <t>4. Override methods</t>
   </si>
   <si>
-    <t>Method ở lớp con bắt buộc phải cùng kiểu dl trả về  với method ở class cha</t>
-  </si>
-  <si>
-    <t>Method ở lớp con bắt buộc phải có kiểu access modifier rộng hơn với method ở class cha</t>
-  </si>
-  <si>
-    <t>Method ở lớp con ko được throw 1 checked exception mới hoặc 1 exception bất kì nào  rộng hơn lớp cha</t>
+    <t>kiểu trả về của method</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Signature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ở đây là : </t>
+    </r>
+  </si>
+  <si>
+    <t>danh sách tham số, kiểu dl của tham số</t>
+  </si>
+  <si>
+    <t>5. Khai báo private method ở lớp cha thì method ở lớp con cùng signature ko phải là method override</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Method ở lớp con bắt buộc phải cùng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>signature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> với method ở class cha</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Method ở lớp con bắt buộc phải có kiểu access modifier rộng hơn với method ở class cha</t>
+  </si>
+  <si>
+    <t>3. Method ở lớp con ko được throw 1 checked exception mới hoặc 1 exception bất kì nào  rộng hơn lớp cha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Nếu method ở lớp cha trả về giá trị, thì method override ở lớp con phải trả về đúng kiểu dl hoặc subclass của kiểu dl </t>
+  </si>
+  <si>
+    <t>private String getAge () { return "50"}</t>
+  </si>
+  <si>
+    <t>public class Child () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public  String getAge () { return "20" } </t>
+  </si>
+  <si>
+    <t>// Đây là method tự định nghĩa ở lớp con</t>
+  </si>
+  <si>
+    <t>// Không phải là method override</t>
+  </si>
+  <si>
+    <t>5. Nếu method ở lớp cha ko phải là static, thì method override ở lớp con ko được gắn là static</t>
+  </si>
+  <si>
+    <t>Tương tự, Nếu method ở lớp cha là static, thì method ở lớp con cũng phải là static</t>
+  </si>
+  <si>
+    <t>6. Override method vs Hiding method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Hiding Method : </t>
+  </si>
+  <si>
+    <t>Xảy ra khi method ở class cha khai báo static method, class con cũng khai báo cùng sinature static giống như class cha</t>
+  </si>
+  <si>
+    <t>7. Final methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nếu khai báo method override -&gt; Lỗi COMPILE </t>
+  </si>
+  <si>
+    <t>final method :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> không thể override,</t>
+  </si>
+  <si>
+    <t>public class Bird {</t>
+  </si>
+  <si>
+    <t>pubilc final boolean hasFeathers () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> return true;</t>
+  </si>
+  <si>
+    <t>public class Penguin {</t>
+  </si>
+  <si>
+    <t>public final boolean hasFeathers ( ) {</t>
+  </si>
+  <si>
+    <t>8. Kế thừa variable</t>
+  </si>
+  <si>
+    <t>Không giống như override method, Thì ko có khái niệm override lại variable</t>
+  </si>
+  <si>
+    <t>Mà chỉ có khái niệm hidden varriable</t>
+  </si>
+  <si>
+    <t>Nếu truy cập một varriable từ parent Class -&gt; Variable từ parentClass được sử dụng</t>
+  </si>
+  <si>
+    <t>Nếu truy cập một variable từ Child class -&gt; Variable từ child Class được sử dụng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="62">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6688,6 +6818,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6728,7 +6866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6897,6 +7035,10 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -26069,21 +26211,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="47"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="94" t="s">
         <v>1882</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="94" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -26098,7 +26243,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="94" t="s">
         <v>1902</v>
       </c>
     </row>
@@ -26250,42 +26395,222 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:6">
       <c r="C70" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:6">
       <c r="D71" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:6">
       <c r="D72" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="36" t="s">
+    <row r="74" spans="1:6">
+      <c r="A74" s="94" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="B76" t="s">
+    <row r="76" spans="1:6">
+      <c r="B76" s="93" t="s">
         <v>1593</v>
       </c>
       <c r="C76" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="D77" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="F78" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="C78" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:6">
       <c r="C80" t="s">
-        <v>1928</v>
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="C82" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="C84" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="C86" s="47" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="C87" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="94" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="C93" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="C98" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="94" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="B103" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="94" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="94" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="D114" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="C119" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="D120" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="C121" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="C126" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="D127" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="C128" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="B129" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="94" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="B133" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="B134" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="B136" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137" t="s">
+        <v>1957</v>
       </c>
     </row>
   </sheetData>

--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="1958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="2116">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -4968,9 +4968,6 @@
     <t xml:space="preserve">Rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">Tuy nhiên có một số specifier không được phép khai báo cùng nhau như : </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hợp lệ ; </t>
   </si>
   <si>
@@ -4993,9 +4990,6 @@
   </si>
   <si>
     <t>public void final walk_6() {}</t>
-  </si>
-  <si>
-    <t>Speicifiers phải đứng trước kiểu trả về của method</t>
   </si>
   <si>
     <t>Sai. Specifier phải đứng trước khiểu trả về của method</t>
@@ -5768,12 +5762,6 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>final - abstract</t>
-  </si>
-  <si>
-    <t>static - abstract</t>
-  </si>
-  <si>
     <t>Chốt lại : access modifier và specifier phải đứng trước kiểu trả về của phương thức,</t>
   </si>
   <si>
@@ -5953,9 +5941,6 @@
   </si>
   <si>
     <t xml:space="preserve">jean đen </t>
-  </si>
-  <si>
-    <t>specifers có thể có nhiều trong cùng một khai báo method : Ví dụ final static void methodA() {}</t>
   </si>
   <si>
     <t>Truyền mảng hợp lệ:</t>
@@ -6401,17 +6386,568 @@
     <t>Mà chỉ có khái niệm hidden varriable</t>
   </si>
   <si>
-    <t>Nếu truy cập một varriable từ parent Class -&gt; Variable từ parentClass được sử dụng</t>
-  </si>
-  <si>
-    <t>Nếu truy cập một variable từ Child class -&gt; Variable từ child Class được sử dụng</t>
+    <t>Nếu truy cập một varriable từ parent Class (Ở đây là biến reference khai báo )-&gt; Variable từ parentClass được sử dụng</t>
+  </si>
+  <si>
+    <t>Nếu truy cập một variable từ Child class (Ở đây là biến refernce khai báo) -&gt; Variable từ child Class được sử dụng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTPUT : </t>
+  </si>
+  <si>
+    <t>9. Abstract class</t>
+  </si>
+  <si>
+    <t>public abstract class Turtle {</t>
+  </si>
+  <si>
+    <t>public abstract void swim ( ) { }</t>
+  </si>
+  <si>
+    <t>public abstract int getAge ( ) {</t>
+  </si>
+  <si>
+    <t>return 10;</t>
+  </si>
+  <si>
+    <t>// COMPILE FAIL. Ko đc phép chứa thân hàm</t>
+  </si>
+  <si>
+    <t>// COMPILE Fail. Abstract class phải chứa dấu ; ở cuối, ko được tồn tại dấu { }</t>
+  </si>
+  <si>
+    <t>HỢP LỆ:</t>
+  </si>
+  <si>
+    <t>KHÔNG HỢP LỆ:</t>
+  </si>
+  <si>
+    <t>public abstract void swim ( );</t>
+  </si>
+  <si>
+    <t>public abstract boolean hasFoo ( ) ;</t>
+  </si>
+  <si>
+    <t>1. Trong abstract class thì có thể tồn tại cả abstract method và non-abstract method</t>
+  </si>
+  <si>
+    <t>2. Abstract method chỉ tồn tại trong abstract class</t>
+  </si>
+  <si>
+    <t>3. Một abstract method phải chứa dấu ; ở cuối , ko được chứa thân hàm</t>
+  </si>
+  <si>
+    <t>public final abstract class Turtle {</t>
+  </si>
+  <si>
+    <t>// COMPILE Fail. Abstract class không được gán final</t>
+  </si>
+  <si>
+    <t>public final abstract void run ( );</t>
+  </si>
+  <si>
+    <t>// COMPILE FAIL. Abstract method không được gán final</t>
+  </si>
+  <si>
+    <t>5. Một abstract method không được gán là private.</t>
+  </si>
+  <si>
+    <t>KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <t>public abstract class Animal {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private abstract void sing();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// COMPILE FAIL. Abstract method ko thể là private access </t>
+  </si>
+  <si>
+    <t>public class Fish extends Animal{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @Override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private void sing() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    protected abstract void sing();</t>
+  </si>
+  <si>
+    <t>Method implemetn lại abstract method ko thể có acccess modifier hẹp hơn abstract method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// COMPILE FAIL. Method implement khong được phép có access modifier hẹp hơn </t>
+  </si>
+  <si>
+    <t>6. Không thể tạo instance từ 1 abstract class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class con cấp gần nhất phải implement tất cả các abstract method </t>
+  </si>
+  <si>
+    <t>public abstract String getName ( );</t>
+  </si>
+  <si>
+    <t>public class Walrus extends Animal {</t>
+  </si>
+  <si>
+    <t>// COMPILE FAIL. Class con cấp gần nhất ko implment abstract methods</t>
+  </si>
+  <si>
+    <t>7. Nếu là abstract class nhiều cấp thì Class con gần nhất phải implment tất cả các abstract class của tất cả các cấp</t>
+  </si>
+  <si>
+    <t>public abstract String getName () ;</t>
+  </si>
+  <si>
+    <t>public abstract class BigCat extends Animal () {</t>
+  </si>
+  <si>
+    <t>public abstract void roar () ;</t>
+  </si>
+  <si>
+    <t>pulic class Lion extends BigCat {</t>
+  </si>
+  <si>
+    <t>public String getName() {</t>
+  </si>
+  <si>
+    <t>return "Lion";</t>
+  </si>
+  <si>
+    <t>public void roar() {</t>
+  </si>
+  <si>
+    <t>System.out.println("The Lion lets out a loud ROAR!");</t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Đã implement tất cả các abstract class của các cấp</t>
+  </si>
+  <si>
+    <t>10. Interface</t>
+  </si>
+  <si>
+    <t>1. specifers có thể có nhiều trong cùng một khai báo method : Ví dụ final static void methodA() {}</t>
+  </si>
+  <si>
+    <t>2. Speicifiers phải đứng trước kiểu trả về của method</t>
+  </si>
+  <si>
+    <t>3.Đối với 1 class thông thường (ko phải là abstract class ) thì chỉ được phép cặp static - final đi được với nhau ()</t>
+  </si>
+  <si>
+    <t>SAI. Chỉ có duy nhất cặp static -final đi được với nhau</t>
+  </si>
+  <si>
+    <t>public void abstract final void walk_8 ( ) {}</t>
+  </si>
+  <si>
+    <t>public void static abstract void walk_7( ) { }</t>
+  </si>
+  <si>
+    <t>Sai. Chỉ có duy nhất cặp static - final đi được với nhau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hợp lệ, static-final đi được với nhau, Thứ tự của cặp này thế nào không quan trọng, miễn là đứng trước kiểu trả về của method </t>
+  </si>
+  <si>
+    <t>Hợp lệ, specifiers đứng trước kiểu trả về của method</t>
+  </si>
+  <si>
+    <t>4. Một abstract class không được gán final,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Một abstract method không được gán final hay static </t>
+  </si>
+  <si>
+    <t>public abstract static void walk ( );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// COMPILE FAI. Abstract method không được gán static </t>
+  </si>
+  <si>
+    <t>Cấu trúc : Implement 1 interface</t>
+  </si>
+  <si>
+    <t>Cấu trúc: Định nghĩa 1 interface</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Đối với biến trong interface thì mặc định là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public static final</t>
+    </r>
+  </si>
+  <si>
+    <t>Khai báo tên interface chỉ chấp nhận duy nhất 1 specifiers là abstract</t>
+  </si>
+  <si>
+    <t>Giống với class, thì Khai báo interface chỉ chấp nhận public hoặc default (tức là ko có access modifier)</t>
+  </si>
+  <si>
+    <t>public abstract interface canDo {</t>
+  </si>
+  <si>
+    <t>Không thể tạo instance với interface ( vì interface mặc định là abstract)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đối với method trong interface thì mặc định là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public abstract . Không được kèm theo một specifiers nào khác</t>
+    </r>
+  </si>
+  <si>
+    <t>Chốt lại đối với abstract class hoặc interface :  Thì method ko được gán static hoặc final</t>
+  </si>
+  <si>
+    <t>11. Kế thừa một interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 interface kế thừa nhiều interface khác </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 abract class cũng có thể implement nhiều interface khác </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhưng 1 class thường không thể implement nhiều interface </t>
+  </si>
+  <si>
+    <t>12. Mối quan hệ giữa class và interface</t>
+  </si>
+  <si>
+    <t>Inteface chỉ được phép extends Interface khác, ko có khái nhiệm implements Interface khác</t>
+  </si>
+  <si>
+    <t>Class, Abstract class chỉ được phép implments interface</t>
+  </si>
+  <si>
+    <t>Interface cũng không có khái niệm extends Abstract class</t>
+  </si>
+  <si>
+    <t>13. Lưu ý khi implements nhiều interface mà giữa các interface có các method giống nhau về tên method, danh sách tham số , kiểu dl tham số</t>
+  </si>
+  <si>
+    <t>public interface Herbivore {</t>
+  </si>
+  <si>
+    <t>public int eatPlants();</t>
+  </si>
+  <si>
+    <t>public interface Omnivore {</t>
+  </si>
+  <si>
+    <t>public void eatPlants();</t>
+  </si>
+  <si>
+    <t>public class Bear implements Herbivore, Omnivore {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public int eatPlants() { </t>
+  </si>
+  <si>
+    <t>System.out.println("Eating plants: 10");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void eatPlants() { </t>
+  </si>
+  <si>
+    <t>System.out.println("Eating plants");</t>
+  </si>
+  <si>
+    <t>// COMPILE FAIL. Vì 2 interface đều có method giống nhau về tên method và danh sách tham số, kiểu dl tham số</t>
+  </si>
+  <si>
+    <t>Tương tự đối với interface và abstract class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public interface Supervore extends Herbivore, Omnivore {} </t>
+  </si>
+  <si>
+    <t>public abstract class AbstractBear implements Herbivore, Omnivore {}</t>
+  </si>
+  <si>
+    <t>14. Biến trong interface</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Biến trong interface mặc định là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public static final </t>
+    </r>
+  </si>
+  <si>
+    <t>Do vậy bất kì cách khai báo biến là private, protected đều sẽ là lỗi compile</t>
+  </si>
+  <si>
+    <t>Khi khai báo biến trong interface thì phải có giá trị  vì nó là final</t>
+  </si>
+  <si>
+    <t>15. Default method trong interface</t>
+  </si>
+  <si>
+    <t>1 .Đây là một feature mới trong interface của JAVA 8*, chứ ko phải là access modifier default</t>
+  </si>
+  <si>
+    <t>Nghĩa là khai báo default method trong interface thì method này luôn có access modifier là public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 . Nếu không có từ default thì nghĩa là đây ko phải là default method </t>
+  </si>
+  <si>
+    <t>3. Default method phải có thân hàm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. default method không chấp nhận bất cứ một specifiers nào cả </t>
+  </si>
+  <si>
+    <t>5. default method chỉ chấp nhận duy nhất một access modifiers là public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ </t>
+  </si>
+  <si>
+    <t>public interface Carnivore {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public default void eatMeat(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">public int getRequiredFoodAmount() { </t>
+  </si>
+  <si>
+    <t>return 13;</t>
+  </si>
+  <si>
+    <t>// COMPILE FAIL. Default method phải có chứa thân hàm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// COMPILE FAIL.  Việc 1 method có thân hàm trong 1 interface chỉ có thể là static method hoặc default method. Mà method này ko được gán là default </t>
+  </si>
+  <si>
+    <t>6. Có thể khai báo nhiều default method trong 1 interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HỢP LỆ: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>public interface CanBurrow{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   default void a(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   default void b(){</t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Có thể khai báo nhiều default method trong 1 interface</t>
+  </si>
+  <si>
+    <t>Ví dụ : Triển khai lại default method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Interface có thể triển khai lại default method, hoặc cũng có thể biến default method đó thành một abtract method </t>
+  </si>
+  <si>
+    <t>public interface HasWork {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default String getName(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return "This is Default Name";</t>
+  </si>
+  <si>
+    <t>public interface HomeWork extends HasWork{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default String getName() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return "This is home work";</t>
+  </si>
+  <si>
+    <t>Ví dụ : Biến nó thành một method abstract trong interface, để 1 class nào đó implements method này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    String getName();</t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Biến default method thành 1 abstract method thông thường trong interface</t>
+  </si>
+  <si>
+    <t>16. Đa kết thừa interface với default method</t>
+  </si>
+  <si>
+    <t>1 Class kế thừa nhiều inteface mà định nghĩa hàm default method giống nhau ( về tên method và ds tham số, kiểu dl tham số )</t>
+  </si>
+  <si>
+    <t>Thì sẽ báo lỗi compile</t>
+  </si>
+  <si>
+    <t>public interface Walk {</t>
+  </si>
+  <si>
+    <t>public default int getSpeed() {</t>
+  </si>
+  <si>
+    <t>return 5;</t>
+  </si>
+  <si>
+    <t>public interface Run {</t>
+  </si>
+  <si>
+    <t>public class Cat implements Walk, Run {</t>
+  </si>
+  <si>
+    <t>System.out.println(new Cat().getSpeed());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// COMPILE FAIL. 2 interface có default method giống hết nhau. Java ko thể biết được là sẽ implement defaul t method của interface nào </t>
+  </si>
+  <si>
+    <t>public int getSpeed ( ) {</t>
+  </si>
+  <si>
+    <t>Tuy nhiên nếu class  đó định nghĩa một method riêng thì ko xảy ra vấn đề gì. Nghĩa là sẽ ko dùng hàm default của interface nào cả</t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Vì khai báo thêm một method của riêng class này.</t>
+  </si>
+  <si>
+    <t>return 99999999;</t>
+  </si>
+  <si>
+    <t>// OUTPUT : 99999999;</t>
+  </si>
+  <si>
+    <t>17 . Static method trong interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÍ dụ: </t>
+  </si>
+  <si>
+    <t>HỢP LỆ</t>
+  </si>
+  <si>
+    <t>public interface Hop {</t>
+  </si>
+  <si>
+    <t>static int getJumpHeight() {</t>
+  </si>
+  <si>
+    <t>return 8;</t>
+  </si>
+  <si>
+    <t>public class Bunny implements Hop {</t>
+  </si>
+  <si>
+    <t>public void printDetails() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System.out.println(Hop.getJumpHeight()); </t>
+  </si>
+  <si>
+    <t>1. Giống như với mọi method trong interface, thì access modifier của static method phải là public</t>
+  </si>
+  <si>
+    <t>2. Để dùng được static method thì phải dùng thông qua tên của interface</t>
+  </si>
+  <si>
+    <t>3. Không giống như default method, Thì static method cho phép việc đa kế thừa interface thoải mái. Vì bắt buộc phải gọi static method thông qua tên interface,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. Đa hình </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghĩa là </t>
+  </si>
+  <si>
+    <t>Child instance = new Child ( );</t>
+  </si>
+  <si>
+    <t>Interface interface = instance;</t>
+  </si>
+  <si>
+    <t>Parent objParent = instance;</t>
+  </si>
+  <si>
+    <t>AbstractClass absObject = instance;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi một object được assign sang một kiểu dl reference mới. Chỉ có method </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có thể tạo refeence variable có kiểu dl là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Parent, Interface, Abstract Parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> từ một instance class </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="63">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6821,10 +7357,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="3"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6866,7 +7429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7033,12 +7596,18 @@
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7188,13 +7757,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>136464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>377999</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>157367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7226,13 +7795,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>588</xdr:row>
+      <xdr:row>591</xdr:row>
       <xdr:rowOff>6803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>29766</xdr:colOff>
-      <xdr:row>591</xdr:row>
+      <xdr:row>594</xdr:row>
       <xdr:rowOff>189135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7264,13 +7833,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>160734</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>17859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7302,13 +7871,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>5953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7340,13 +7909,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>184547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7378,13 +7947,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>160736</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>11907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7416,13 +7985,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>398</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>172640</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>136922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7454,13 +8023,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>172640</xdr:colOff>
-      <xdr:row>410</xdr:row>
+      <xdr:row>413</xdr:row>
       <xdr:rowOff>89297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7492,13 +8061,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>420</xdr:row>
+      <xdr:row>423</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>470296</xdr:colOff>
-      <xdr:row>425</xdr:row>
+      <xdr:row>428</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7530,13 +8099,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>428</xdr:row>
+      <xdr:row>431</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>436</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7568,13 +8137,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>438</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>440</xdr:row>
+      <xdr:row>443</xdr:row>
       <xdr:rowOff>11907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7606,13 +8175,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>17860</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>339329</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>172642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7644,13 +8213,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7789,6 +8358,196 @@
         <a:xfrm>
           <a:off x="4276398" y="6477000"/>
           <a:ext cx="2384534" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604346</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1221829" y="26282432"/>
+          <a:ext cx="1826172" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>610913</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13137</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>19706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3665482" y="26282430"/>
+          <a:ext cx="1845879" cy="1353207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11681</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>171766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1221828" y="27806431"/>
+          <a:ext cx="3677163" cy="2267266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>149088</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>29418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463826</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1374914" y="47646135"/>
+          <a:ext cx="3992216" cy="1560843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>149086</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>38054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1374912" y="49968978"/>
+          <a:ext cx="5010979" cy="2638793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9883,16 +10642,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="92" t="s">
+      <c r="D424" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="92"/>
-      <c r="F424" s="92"/>
-      <c r="G424" s="92"/>
-      <c r="H424" s="92"/>
-      <c r="I424" s="92"/>
-      <c r="J424" s="92"/>
-      <c r="K424" s="92"/>
+      <c r="E424" s="98"/>
+      <c r="F424" s="98"/>
+      <c r="G424" s="98"/>
+      <c r="H424" s="98"/>
+      <c r="I424" s="98"/>
+      <c r="J424" s="98"/>
+      <c r="K424" s="98"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -9959,16 +10718,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="92" t="s">
+      <c r="D430" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="92"/>
-      <c r="F430" s="92"/>
-      <c r="G430" s="92"/>
-      <c r="H430" s="92"/>
-      <c r="I430" s="92"/>
-      <c r="J430" s="92"/>
-      <c r="K430" s="92"/>
+      <c r="E430" s="98"/>
+      <c r="F430" s="98"/>
+      <c r="G430" s="98"/>
+      <c r="H430" s="98"/>
+      <c r="I430" s="98"/>
+      <c r="J430" s="98"/>
+      <c r="K430" s="98"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -21660,10 +22419,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P752"/>
+  <dimension ref="A1:R755"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K328" sqref="K328"/>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21675,10 +22434,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C3" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -21706,7 +22465,7 @@
         <v>1490</v>
       </c>
       <c r="F10" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -21727,12 +22486,12 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="C19" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -21742,12 +22501,12 @@
     </row>
     <row r="21" spans="1:7">
       <c r="C21" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -21762,7 +22521,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="D25" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -21799,599 +22558,647 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:18">
       <c r="B34" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:18">
       <c r="B36" t="s">
         <v>1504</v>
       </c>
       <c r="C36" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="C37" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="C38" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="C40" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41" t="s">
         <v>1505</v>
       </c>
-      <c r="J37" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="J38" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="C39" t="s">
+    </row>
+    <row r="42" spans="2:18">
+      <c r="C42" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G42" s="92" t="s">
+        <v>2007</v>
+      </c>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="C43" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G43" s="92" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="C44" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G44" s="92" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="C45" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G45" s="50" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="C42" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="C43" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="C44" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="C45" t="s">
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+    </row>
+    <row r="47" spans="2:18">
+      <c r="B47" t="s">
         <v>1510</v>
       </c>
-      <c r="G45" t="s">
+    </row>
+    <row r="48" spans="2:18">
+      <c r="C48" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G48" s="57" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="36"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="C49" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G49" s="57" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="36"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="C50" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G50" s="57" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="36"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="C51" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G51" s="57" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="36"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="B54" s="57" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="C55" s="57" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="36" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="B58" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
-      <c r="B47" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="C48" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="C49" t="s">
-        <v>1513</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="B51" s="57" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="C52" s="57" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="36" t="s">
+    <row r="60" spans="1:12">
+      <c r="C60" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" t="s">
+      <c r="D60" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="D61" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="C57" t="s">
+    <row r="62" spans="1:12">
+      <c r="D62" t="s">
         <v>1519</v>
       </c>
-      <c r="D57" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="D58" t="s">
+    </row>
+    <row r="64" spans="1:12">
+      <c r="C64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="D65" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="D59" t="s">
+      <c r="H65" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="C61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="D62" t="s">
+    <row r="66" spans="1:8">
+      <c r="D66" t="s">
         <v>1522</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H66" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="36" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="D63" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="36" t="s">
+      <c r="C70" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="C71" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="B67" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="74" spans="1:8">
+      <c r="C74" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="C68" t="s">
+      <c r="D74" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="C71" t="s">
+    <row r="76" spans="1:8">
+      <c r="D76" t="s">
         <v>1529</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="79" spans="1:8">
+      <c r="C79" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9">
+      <c r="D81" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="D73" t="s">
+      <c r="I81" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="C76" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="D78" t="s">
+    <row r="83" spans="3:9">
+      <c r="D83" t="s">
         <v>1532</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I83" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="D80" t="s">
+    <row r="86" spans="3:9">
+      <c r="C86" t="s">
         <v>1534</v>
       </c>
-      <c r="I80" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9">
-      <c r="C83" t="s">
+    </row>
+    <row r="87" spans="3:9">
+      <c r="E87" s="58" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+    </row>
+    <row r="88" spans="3:9">
+      <c r="E88" s="58" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+    </row>
+    <row r="89" spans="3:9">
+      <c r="E89" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+    </row>
+    <row r="91" spans="3:9">
+      <c r="D91" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9">
+      <c r="E92" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="84" spans="3:9">
-      <c r="E84" s="58" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-    </row>
-    <row r="85" spans="3:9">
-      <c r="E85" s="58" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-    </row>
-    <row r="86" spans="3:9">
-      <c r="E86" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-    </row>
-    <row r="88" spans="3:9">
-      <c r="D88" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9">
-      <c r="E89" t="s">
+    <row r="93" spans="3:9">
+      <c r="F93" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I93" t="s">
         <v>1538</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9">
-      <c r="F90" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I90" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9">
-      <c r="E91" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9">
-      <c r="D92" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="94" spans="3:9">
       <c r="E94" t="s">
-        <v>1538</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="3:9">
-      <c r="F95" t="s">
+      <c r="D95" t="s">
         <v>1549</v>
       </c>
-      <c r="I95" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9">
-      <c r="E96" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="97" spans="4:11">
-      <c r="D97" t="s">
-        <v>1537</v>
+      <c r="E97" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11">
+      <c r="F98" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="99" spans="4:11">
       <c r="E99" t="s">
-        <v>1538</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="4:11">
-      <c r="F100" t="s">
+      <c r="D100" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="102" spans="4:11">
+      <c r="E102" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="103" spans="4:11">
+      <c r="F103" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="104" spans="4:11">
+      <c r="E104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="4:11">
+      <c r="D106" t="s">
         <v>1543</v>
       </c>
-      <c r="I100" t="s">
+    </row>
+    <row r="108" spans="4:11">
+      <c r="E108" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="109" spans="4:11">
+      <c r="G109" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="110" spans="4:11">
+      <c r="H110" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="101" spans="4:11">
-      <c r="E101" t="s">
+      <c r="K110" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="111" spans="4:11">
+      <c r="G111" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="4:11">
-      <c r="D103" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="105" spans="4:11">
-      <c r="E105" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="106" spans="4:11">
-      <c r="G106" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="107" spans="4:11">
-      <c r="H107" t="s">
-        <v>1546</v>
-      </c>
-      <c r="K107" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="108" spans="4:11">
-      <c r="G108" t="s">
+    <row r="113" spans="1:11">
+      <c r="E113" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="G115" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="H116" t="s">
+        <v>1824</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="G117" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="4:11">
-      <c r="E110" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="112" spans="4:11">
-      <c r="G112" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="H113" t="s">
-        <v>1829</v>
-      </c>
-      <c r="K113" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="G114" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="36" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="B117" s="65" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="B118" s="65" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C118" s="65"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="65"/>
-      <c r="F118" t="s">
-        <v>1554</v>
-      </c>
-    </row>
     <row r="119" spans="1:11">
-      <c r="B119" s="65"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="65"/>
+      <c r="A119" s="36" t="s">
+        <v>1550</v>
+      </c>
     </row>
     <row r="120" spans="1:11">
       <c r="B120" s="65" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C120" s="65"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="65"/>
-      <c r="F120" t="s">
-        <v>1556</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="B121" s="65"/>
+      <c r="B121" s="65" t="s">
+        <v>1551</v>
+      </c>
       <c r="C121" s="65"/>
       <c r="D121" s="65"/>
       <c r="E121" s="65"/>
+      <c r="F121" t="s">
+        <v>1552</v>
+      </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="B122" s="65" t="s">
-        <v>1557</v>
-      </c>
+      <c r="B122" s="65"/>
       <c r="C122" s="65"/>
       <c r="D122" s="65"/>
       <c r="E122" s="65"/>
-      <c r="F122" t="s">
+    </row>
+    <row r="123" spans="1:11">
+      <c r="B123" s="65" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C123" s="65"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="B125" s="65" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C125" s="65"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="65"/>
+      <c r="F125" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="C127" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="C128" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7">
+      <c r="D129" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="C124" t="s">
+    <row r="131" spans="4:7">
+      <c r="E131" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7">
+      <c r="F132" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="C125" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="D126" t="s">
+    <row r="133" spans="4:7">
+      <c r="G133" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="E128" t="s">
+    <row r="134" spans="4:7">
+      <c r="F134" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="4:7">
+      <c r="D135" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="138" spans="4:7">
+      <c r="E138" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="140" spans="4:7">
+      <c r="G140" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="141" spans="4:7">
+      <c r="G141" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="143" spans="4:7">
+      <c r="F143" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="5:10">
+      <c r="E145" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="146" spans="5:10">
+      <c r="E146" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="148" spans="5:10">
+      <c r="F148" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="150" spans="5:10">
+      <c r="G150" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="151" spans="5:10">
+      <c r="G151" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="153" spans="5:10">
+      <c r="F153" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="5:10">
+      <c r="E155" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="156" spans="5:10">
+      <c r="E156" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="158" spans="5:10">
+      <c r="F158" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="160" spans="5:10">
+      <c r="G160" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="G161" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="F162" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="C166" s="65"/>
+      <c r="D166" s="65"/>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="36" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="129" spans="4:7">
-      <c r="F129" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="130" spans="4:7">
-      <c r="G130" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="131" spans="4:7">
-      <c r="F131" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="132" spans="4:7">
-      <c r="D132" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="135" spans="4:7">
-      <c r="E135" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="137" spans="4:7">
-      <c r="G137" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="138" spans="4:7">
-      <c r="G138" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="140" spans="4:7">
-      <c r="F140" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="4:7">
-      <c r="E142" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="143" spans="4:7">
-      <c r="E143" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="145" spans="5:10">
-      <c r="F145" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="147" spans="5:10">
-      <c r="G147" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="148" spans="5:10">
-      <c r="G148" t="s">
-        <v>1568</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="150" spans="5:10">
-      <c r="F150" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="5:10">
-      <c r="E152" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="153" spans="5:10">
-      <c r="E153" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="155" spans="5:10">
-      <c r="F155" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="157" spans="5:10">
-      <c r="G157" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="158" spans="5:10">
-      <c r="G158" t="s">
-        <v>1568</v>
-      </c>
-      <c r="J158" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="159" spans="5:10">
-      <c r="F159" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="C163" s="65"/>
-      <c r="D163" s="65"/>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="36" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="E166" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E167" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="E168" t="s">
+    <row r="169" spans="1:10">
+      <c r="E169" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="B170" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E170" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
-      <c r="C171" s="58" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D171" s="43"/>
-      <c r="E171" s="43"/>
-      <c r="F171" s="43"/>
-      <c r="G171" s="43"/>
-      <c r="H171" s="43"/>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="C172" s="58" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D172" s="43"/>
-      <c r="E172" s="43"/>
-      <c r="F172" s="43"/>
-      <c r="G172" s="43"/>
-      <c r="H172" s="43"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="C173" s="58" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D173" s="43"/>
-      <c r="E173" s="43"/>
-      <c r="F173" s="43"/>
-      <c r="G173" s="43"/>
-      <c r="H173" s="43"/>
-    </row>
-    <row r="174" spans="1:8">
+    <row r="171" spans="1:10">
+      <c r="E171" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="C174" s="58" t="s">
-        <v>45</v>
+        <v>1620</v>
       </c>
       <c r="D174" s="43"/>
       <c r="E174" s="43"/>
@@ -22399,17 +23206,19 @@
       <c r="G174" s="43"/>
       <c r="H174" s="43"/>
     </row>
-    <row r="175" spans="1:8">
-      <c r="C175" s="79"/>
+    <row r="175" spans="1:10">
+      <c r="C175" s="58" t="s">
+        <v>1627</v>
+      </c>
       <c r="D175" s="43"/>
       <c r="E175" s="43"/>
       <c r="F175" s="43"/>
       <c r="G175" s="43"/>
       <c r="H175" s="43"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:10">
       <c r="C176" s="58" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D176" s="43"/>
       <c r="E176" s="43"/>
@@ -22419,7 +23228,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="C177" s="58" t="s">
-        <v>1632</v>
+        <v>45</v>
       </c>
       <c r="D177" s="43"/>
       <c r="E177" s="43"/>
@@ -22428,64 +23237,64 @@
       <c r="H177" s="43"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="C178" s="58" t="s">
-        <v>45</v>
-      </c>
+      <c r="C178" s="79"/>
       <c r="D178" s="43"/>
       <c r="E178" s="43"/>
       <c r="F178" s="43"/>
       <c r="G178" s="43"/>
       <c r="H178" s="43"/>
     </row>
+    <row r="179" spans="1:9">
+      <c r="C179" s="58" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D179" s="43"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="43"/>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43"/>
+    </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="36" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="B182" t="s">
+      <c r="C180" s="58" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D180" s="43"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="43"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="C181" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D181" s="43"/>
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="36" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="B185" t="s">
         <v>165</v>
       </c>
-      <c r="C182" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="C183" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="D184" s="58" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E184" s="43"/>
-      <c r="F184" s="43"/>
-      <c r="G184" s="43"/>
-      <c r="H184" s="43"/>
-      <c r="I184" s="43"/>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="D185" s="58" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E185" s="43"/>
-      <c r="F185" s="43"/>
-      <c r="G185" s="43"/>
-      <c r="H185" s="43"/>
-      <c r="I185" s="43"/>
+      <c r="C185" t="s">
+        <v>1578</v>
+      </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="D186" s="79"/>
-      <c r="E186" s="43"/>
-      <c r="F186" s="43"/>
-      <c r="G186" s="43"/>
-      <c r="H186" s="43"/>
-      <c r="I186" s="43"/>
+      <c r="C186" t="s">
+        <v>1586</v>
+      </c>
     </row>
     <row r="187" spans="1:9">
       <c r="D187" s="58" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E187" s="43"/>
       <c r="F187" s="43"/>
@@ -22495,7 +23304,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="D188" s="58" t="s">
-        <v>716</v>
+        <v>1580</v>
       </c>
       <c r="E188" s="43"/>
       <c r="F188" s="43"/>
@@ -22504,9 +23313,7 @@
       <c r="I188" s="43"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="D189" s="58" t="s">
-        <v>1584</v>
-      </c>
+      <c r="D189" s="79"/>
       <c r="E189" s="43"/>
       <c r="F189" s="43"/>
       <c r="G189" s="43"/>
@@ -22515,31 +23322,27 @@
     </row>
     <row r="190" spans="1:9">
       <c r="D190" s="58" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E190" s="43"/>
       <c r="F190" s="43"/>
       <c r="G190" s="43"/>
       <c r="H190" s="43"/>
-      <c r="I190" s="43" t="s">
-        <v>1587</v>
-      </c>
+      <c r="I190" s="43"/>
     </row>
     <row r="191" spans="1:9">
       <c r="D191" s="58" t="s">
-        <v>1586</v>
+        <v>716</v>
       </c>
       <c r="E191" s="43"/>
       <c r="F191" s="43"/>
       <c r="G191" s="43"/>
       <c r="H191" s="43"/>
-      <c r="I191" s="43" t="s">
-        <v>1589</v>
-      </c>
+      <c r="I191" s="43"/>
     </row>
     <row r="192" spans="1:9">
       <c r="D192" s="58" t="s">
-        <v>620</v>
+        <v>1582</v>
       </c>
       <c r="E192" s="43"/>
       <c r="F192" s="43"/>
@@ -22549,74 +23352,73 @@
     </row>
     <row r="193" spans="3:10">
       <c r="D193" s="58" t="s">
-        <v>45</v>
+        <v>1583</v>
       </c>
       <c r="E193" s="43"/>
       <c r="F193" s="43"/>
       <c r="G193" s="43"/>
       <c r="H193" s="43"/>
-      <c r="I193" s="43"/>
+      <c r="I193" s="43" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="194" spans="3:10">
+      <c r="D194" s="58" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43"/>
+      <c r="G194" s="43"/>
+      <c r="H194" s="43"/>
+      <c r="I194" s="43" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="195" spans="3:10">
+      <c r="D195" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E195" s="43"/>
+      <c r="F195" s="43"/>
+      <c r="G195" s="43"/>
+      <c r="H195" s="43"/>
+      <c r="I195" s="43"/>
     </row>
     <row r="196" spans="3:10">
-      <c r="C196" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="197" spans="3:10">
-      <c r="C197" t="s">
-        <v>1858</v>
-      </c>
+      <c r="D196" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E196" s="43"/>
+      <c r="F196" s="43"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="43"/>
+      <c r="I196" s="43"/>
     </row>
     <row r="199" spans="3:10">
-      <c r="D199" s="89" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E199" s="43"/>
-      <c r="F199" s="43"/>
-      <c r="G199" s="43"/>
-      <c r="H199" s="43"/>
-      <c r="I199" s="43"/>
-      <c r="J199" s="43"/>
+      <c r="C199" t="s">
+        <v>1791</v>
+      </c>
     </row>
     <row r="200" spans="3:10">
-      <c r="D200" s="43"/>
-      <c r="E200" s="89" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F200" s="43"/>
-      <c r="G200" s="43"/>
-      <c r="H200" s="43"/>
-      <c r="I200" s="43"/>
-      <c r="J200" s="43"/>
-    </row>
-    <row r="201" spans="3:10">
-      <c r="D201" s="43"/>
-      <c r="F201" s="89" t="s">
-        <v>1801</v>
-      </c>
-      <c r="G201" s="43"/>
-      <c r="H201" s="43"/>
-      <c r="I201" s="43" t="s">
-        <v>1590</v>
-      </c>
-      <c r="J201" s="43"/>
+      <c r="C200" t="s">
+        <v>1853</v>
+      </c>
     </row>
     <row r="202" spans="3:10">
-      <c r="D202" s="43"/>
-      <c r="F202" s="89" t="s">
-        <v>1802</v>
-      </c>
+      <c r="D202" s="89" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E202" s="43"/>
+      <c r="F202" s="43"/>
       <c r="G202" s="43"/>
       <c r="H202" s="43"/>
-      <c r="I202" s="43" t="s">
-        <v>1590</v>
-      </c>
+      <c r="I202" s="43"/>
       <c r="J202" s="43"/>
     </row>
     <row r="203" spans="3:10">
       <c r="D203" s="43"/>
       <c r="E203" s="89" t="s">
-        <v>45</v>
+        <v>1796</v>
       </c>
       <c r="F203" s="43"/>
       <c r="G203" s="43"/>
@@ -22626,27 +23428,33 @@
     </row>
     <row r="204" spans="3:10">
       <c r="D204" s="43"/>
-      <c r="E204" s="89" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F204" s="43"/>
+      <c r="F204" s="89" t="s">
+        <v>1797</v>
+      </c>
       <c r="G204" s="43"/>
       <c r="H204" s="43"/>
-      <c r="I204" s="43"/>
+      <c r="I204" s="43" t="s">
+        <v>1588</v>
+      </c>
       <c r="J204" s="43"/>
     </row>
     <row r="205" spans="3:10">
-      <c r="D205" s="79"/>
-      <c r="E205" s="43"/>
-      <c r="F205" s="43"/>
+      <c r="D205" s="43"/>
+      <c r="F205" s="89" t="s">
+        <v>1798</v>
+      </c>
       <c r="G205" s="43"/>
       <c r="H205" s="43"/>
-      <c r="I205" s="43"/>
+      <c r="I205" s="43" t="s">
+        <v>1588</v>
+      </c>
       <c r="J205" s="43"/>
     </row>
     <row r="206" spans="3:10">
-      <c r="D206" s="79"/>
-      <c r="E206" s="43"/>
+      <c r="D206" s="43"/>
+      <c r="E206" s="89" t="s">
+        <v>45</v>
+      </c>
       <c r="F206" s="43"/>
       <c r="G206" s="43"/>
       <c r="H206" s="43"/>
@@ -22656,7 +23464,7 @@
     <row r="207" spans="3:10">
       <c r="D207" s="43"/>
       <c r="E207" s="89" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="F207" s="43"/>
       <c r="G207" s="43"/>
@@ -22665,10 +23473,8 @@
       <c r="J207" s="43"/>
     </row>
     <row r="208" spans="3:10">
-      <c r="D208" s="43"/>
-      <c r="E208" s="89" t="s">
-        <v>1805</v>
-      </c>
+      <c r="D208" s="79"/>
+      <c r="E208" s="43"/>
       <c r="F208" s="43"/>
       <c r="G208" s="43"/>
       <c r="H208" s="43"/>
@@ -22676,37 +23482,29 @@
       <c r="J208" s="43"/>
     </row>
     <row r="209" spans="4:10">
-      <c r="D209" s="43"/>
+      <c r="D209" s="79"/>
       <c r="E209" s="43"/>
-      <c r="F209" s="89" t="s">
-        <v>1806</v>
-      </c>
+      <c r="F209" s="43"/>
       <c r="G209" s="43"/>
-      <c r="H209" s="43" t="s">
-        <v>1591</v>
-      </c>
+      <c r="H209" s="43"/>
       <c r="I209" s="43"/>
       <c r="J209" s="43"/>
     </row>
     <row r="210" spans="4:10">
-      <c r="D210" s="89" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E210" s="43"/>
-      <c r="F210" s="43" t="s">
-        <v>1807</v>
-      </c>
+      <c r="D210" s="43"/>
+      <c r="E210" s="89" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F210" s="43"/>
       <c r="G210" s="43"/>
-      <c r="H210" s="43" t="s">
-        <v>1591</v>
-      </c>
+      <c r="H210" s="43"/>
       <c r="I210" s="43"/>
       <c r="J210" s="43"/>
     </row>
     <row r="211" spans="4:10">
       <c r="D211" s="43"/>
       <c r="E211" s="89" t="s">
-        <v>45</v>
+        <v>1801</v>
       </c>
       <c r="F211" s="43"/>
       <c r="G211" s="43"/>
@@ -22715,26 +23513,38 @@
       <c r="J211" s="43"/>
     </row>
     <row r="212" spans="4:10">
-      <c r="D212" s="79"/>
+      <c r="D212" s="43"/>
       <c r="E212" s="43"/>
-      <c r="F212" s="43"/>
+      <c r="F212" s="89" t="s">
+        <v>1802</v>
+      </c>
       <c r="G212" s="43"/>
-      <c r="H212" s="43"/>
+      <c r="H212" s="43" t="s">
+        <v>1589</v>
+      </c>
       <c r="I212" s="43"/>
       <c r="J212" s="43"/>
     </row>
     <row r="213" spans="4:10">
-      <c r="D213" s="43"/>
+      <c r="D213" s="89" t="s">
+        <v>1020</v>
+      </c>
       <c r="E213" s="43"/>
-      <c r="F213" s="43"/>
+      <c r="F213" s="43" t="s">
+        <v>1803</v>
+      </c>
       <c r="G213" s="43"/>
-      <c r="H213" s="43"/>
+      <c r="H213" s="43" t="s">
+        <v>1589</v>
+      </c>
       <c r="I213" s="43"/>
       <c r="J213" s="43"/>
     </row>
     <row r="214" spans="4:10">
-      <c r="D214" s="89"/>
-      <c r="E214" s="43"/>
+      <c r="D214" s="43"/>
+      <c r="E214" s="89" t="s">
+        <v>45</v>
+      </c>
       <c r="F214" s="43"/>
       <c r="G214" s="43"/>
       <c r="H214" s="43"/>
@@ -22742,10 +23552,8 @@
       <c r="J214" s="43"/>
     </row>
     <row r="215" spans="4:10">
-      <c r="D215" s="43"/>
-      <c r="E215" s="89" t="s">
-        <v>1796</v>
-      </c>
+      <c r="D215" s="79"/>
+      <c r="E215" s="43"/>
       <c r="F215" s="43"/>
       <c r="G215" s="43"/>
       <c r="H215" s="43"/>
@@ -22754,22 +23562,16 @@
     </row>
     <row r="216" spans="4:10">
       <c r="D216" s="43"/>
-      <c r="E216" s="89"/>
-      <c r="F216" s="43" t="s">
-        <v>1797</v>
-      </c>
+      <c r="E216" s="43"/>
+      <c r="F216" s="43"/>
       <c r="G216" s="43"/>
-      <c r="H216" s="43" t="s">
-        <v>1798</v>
-      </c>
+      <c r="H216" s="43"/>
       <c r="I216" s="43"/>
       <c r="J216" s="43"/>
     </row>
     <row r="217" spans="4:10">
-      <c r="D217" s="43"/>
-      <c r="E217" s="89" t="s">
-        <v>45</v>
-      </c>
+      <c r="D217" s="89"/>
+      <c r="E217" s="43"/>
       <c r="F217" s="43"/>
       <c r="G217" s="43"/>
       <c r="H217" s="43"/>
@@ -22778,7 +23580,9 @@
     </row>
     <row r="218" spans="4:10">
       <c r="D218" s="43"/>
-      <c r="E218" s="89"/>
+      <c r="E218" s="89" t="s">
+        <v>1792</v>
+      </c>
       <c r="F218" s="43"/>
       <c r="G218" s="43"/>
       <c r="H218" s="43"/>
@@ -22787,33 +23591,31 @@
     </row>
     <row r="219" spans="4:10">
       <c r="D219" s="43"/>
-      <c r="E219" s="89" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F219" s="43"/>
+      <c r="E219" s="89"/>
+      <c r="F219" s="43" t="s">
+        <v>1793</v>
+      </c>
       <c r="G219" s="43"/>
-      <c r="H219" s="43"/>
+      <c r="H219" s="43" t="s">
+        <v>1794</v>
+      </c>
       <c r="I219" s="43"/>
       <c r="J219" s="43"/>
     </row>
     <row r="220" spans="4:10">
-      <c r="D220" s="89"/>
-      <c r="E220" s="43"/>
-      <c r="F220" s="43" t="s">
-        <v>1808</v>
-      </c>
+      <c r="D220" s="43"/>
+      <c r="E220" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F220" s="43"/>
       <c r="G220" s="43"/>
-      <c r="H220" s="43" t="s">
-        <v>1809</v>
-      </c>
+      <c r="H220" s="43"/>
       <c r="I220" s="43"/>
       <c r="J220" s="43"/>
     </row>
     <row r="221" spans="4:10">
-      <c r="D221" s="89"/>
-      <c r="E221" s="43" t="s">
-        <v>45</v>
-      </c>
+      <c r="D221" s="43"/>
+      <c r="E221" s="89"/>
       <c r="F221" s="43"/>
       <c r="G221" s="43"/>
       <c r="H221" s="43"/>
@@ -22821,10 +23623,10 @@
       <c r="J221" s="43"/>
     </row>
     <row r="222" spans="4:10">
-      <c r="D222" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="E222" s="43"/>
+      <c r="D222" s="43"/>
+      <c r="E222" s="89" t="s">
+        <v>1795</v>
+      </c>
       <c r="F222" s="43"/>
       <c r="G222" s="43"/>
       <c r="H222" s="43"/>
@@ -22832,82 +23634,80 @@
       <c r="J222" s="43"/>
     </row>
     <row r="223" spans="4:10">
-      <c r="D223" s="58"/>
+      <c r="D223" s="89"/>
       <c r="E223" s="43"/>
-      <c r="F223" s="43"/>
+      <c r="F223" s="43" t="s">
+        <v>1804</v>
+      </c>
       <c r="G223" s="43"/>
-      <c r="H223" s="43"/>
+      <c r="H223" s="43" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I223" s="43"/>
+      <c r="J223" s="43"/>
     </row>
     <row r="224" spans="4:10">
-      <c r="D224" s="36"/>
-      <c r="E224" s="36"/>
-      <c r="F224" s="36"/>
-      <c r="G224" s="36"/>
-      <c r="H224" s="36"/>
+      <c r="D224" s="89"/>
+      <c r="E224" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F224" s="43"/>
+      <c r="G224" s="43"/>
+      <c r="H224" s="43"/>
+      <c r="I224" s="43"/>
+      <c r="J224" s="43"/>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="D225" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E225" s="43"/>
+      <c r="F225" s="43"/>
+      <c r="G225" s="43"/>
+      <c r="H225" s="43"/>
+      <c r="I225" s="43"/>
+      <c r="J225" s="43"/>
     </row>
     <row r="226" spans="1:12">
-      <c r="A226" s="36" t="s">
+      <c r="D226" s="58"/>
+      <c r="E226" s="43"/>
+      <c r="F226" s="43"/>
+      <c r="G226" s="43"/>
+      <c r="H226" s="43"/>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="D227" s="36"/>
+      <c r="E227" s="36"/>
+      <c r="F227" s="36"/>
+      <c r="G227" s="36"/>
+      <c r="H227" s="36"/>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" s="36" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="B231" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C231" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
-      <c r="B228" t="s">
+    <row r="232" spans="1:12">
+      <c r="C232" t="s">
         <v>1593</v>
       </c>
-      <c r="C228" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12">
-      <c r="C229" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12">
-      <c r="D230" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12">
-      <c r="D232" s="58" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E232" s="43"/>
-      <c r="F232" s="43"/>
-      <c r="G232" s="43"/>
-      <c r="H232" s="43"/>
-      <c r="I232" s="43"/>
-      <c r="J232" s="43"/>
-      <c r="K232" s="43"/>
-      <c r="L232" s="43"/>
     </row>
     <row r="233" spans="1:12">
-      <c r="D233" s="58" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E233" s="43"/>
-      <c r="F233" s="43"/>
-      <c r="G233" s="43"/>
-      <c r="H233" s="43"/>
-      <c r="I233" s="43"/>
-      <c r="J233" s="43"/>
-      <c r="K233" s="43"/>
-      <c r="L233" s="43"/>
-    </row>
-    <row r="234" spans="1:12">
-      <c r="D234" s="79"/>
-      <c r="E234" s="43"/>
-      <c r="F234" s="43"/>
-      <c r="G234" s="43"/>
-      <c r="H234" s="43"/>
-      <c r="I234" s="43"/>
-      <c r="J234" s="43"/>
-      <c r="K234" s="43"/>
-      <c r="L234" s="43"/>
+      <c r="D233" t="s">
+        <v>1883</v>
+      </c>
     </row>
     <row r="235" spans="1:12">
       <c r="D235" s="58" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="E235" s="43"/>
       <c r="F235" s="43"/>
@@ -22920,7 +23720,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="D236" s="58" t="s">
-        <v>716</v>
+        <v>1595</v>
       </c>
       <c r="E236" s="43"/>
       <c r="F236" s="43"/>
@@ -22932,9 +23732,7 @@
       <c r="L236" s="43"/>
     </row>
     <row r="237" spans="1:12">
-      <c r="D237" s="58" t="s">
-        <v>1599</v>
-      </c>
+      <c r="D237" s="79"/>
       <c r="E237" s="43"/>
       <c r="F237" s="43"/>
       <c r="G237" s="43"/>
@@ -22945,7 +23743,9 @@
       <c r="L237" s="43"/>
     </row>
     <row r="238" spans="1:12">
-      <c r="D238" s="79"/>
+      <c r="D238" s="58" t="s">
+        <v>1596</v>
+      </c>
       <c r="E238" s="43"/>
       <c r="F238" s="43"/>
       <c r="G238" s="43"/>
@@ -22956,7 +23756,9 @@
       <c r="L238" s="43"/>
     </row>
     <row r="239" spans="1:12">
-      <c r="D239" s="79"/>
+      <c r="D239" s="58" t="s">
+        <v>716</v>
+      </c>
       <c r="E239" s="43"/>
       <c r="F239" s="43"/>
       <c r="G239" s="43"/>
@@ -22968,7 +23770,7 @@
     </row>
     <row r="240" spans="1:12">
       <c r="D240" s="58" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="E240" s="43"/>
       <c r="F240" s="43"/>
@@ -22979,22 +23781,19 @@
       <c r="K240" s="43"/>
       <c r="L240" s="43"/>
     </row>
-    <row r="241" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D241" s="58" t="s">
-        <v>1601</v>
-      </c>
+    <row r="241" spans="1:12">
+      <c r="D241" s="79"/>
       <c r="E241" s="43"/>
       <c r="F241" s="43"/>
       <c r="G241" s="43"/>
       <c r="H241" s="43"/>
       <c r="I241" s="43"/>
-      <c r="J241" s="50" t="s">
-        <v>1889</v>
-      </c>
+      <c r="J241" s="43"/>
       <c r="K241" s="43"/>
       <c r="L241" s="43"/>
     </row>
     <row r="242" spans="1:12">
+      <c r="D242" s="79"/>
       <c r="E242" s="43"/>
       <c r="F242" s="43"/>
       <c r="G242" s="43"/>
@@ -23005,6 +23804,9 @@
       <c r="L242" s="43"/>
     </row>
     <row r="243" spans="1:12">
+      <c r="D243" s="58" t="s">
+        <v>1598</v>
+      </c>
       <c r="E243" s="43"/>
       <c r="F243" s="43"/>
       <c r="G243" s="43"/>
@@ -23014,211 +23816,216 @@
       <c r="K243" s="43"/>
       <c r="L243" s="43"/>
     </row>
-    <row r="244" spans="1:12">
-      <c r="D244" s="58"/>
-      <c r="E244" s="43" t="s">
-        <v>1890</v>
-      </c>
+    <row r="244" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D244" s="58" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E244" s="43"/>
       <c r="F244" s="43"/>
       <c r="G244" s="43"/>
       <c r="H244" s="43"/>
       <c r="I244" s="43"/>
-      <c r="J244" s="39" t="s">
-        <v>1892</v>
-      </c>
-      <c r="K244" s="39"/>
+      <c r="J244" s="50" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K244" s="43"/>
       <c r="L244" s="43"/>
     </row>
     <row r="245" spans="1:12">
-      <c r="D245" s="58"/>
-      <c r="E245" s="43" t="s">
-        <v>1891</v>
-      </c>
+      <c r="E245" s="43"/>
       <c r="F245" s="43"/>
       <c r="G245" s="43"/>
       <c r="H245" s="43"/>
       <c r="I245" s="43"/>
-      <c r="J245" s="39" t="s">
-        <v>1892</v>
-      </c>
-      <c r="K245" s="39"/>
+      <c r="J245" s="43"/>
+      <c r="K245" s="43"/>
       <c r="L245" s="43"/>
     </row>
     <row r="246" spans="1:12">
-      <c r="D246" s="58" t="s">
+      <c r="E246" s="43"/>
+      <c r="F246" s="43"/>
+      <c r="G246" s="43"/>
+      <c r="H246" s="43"/>
+      <c r="I246" s="43"/>
+      <c r="J246" s="43"/>
+      <c r="K246" s="43"/>
+      <c r="L246" s="43"/>
+    </row>
+    <row r="247" spans="1:12">
+      <c r="D247" s="58"/>
+      <c r="E247" s="43" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F247" s="43"/>
+      <c r="G247" s="43"/>
+      <c r="H247" s="43"/>
+      <c r="I247" s="43"/>
+      <c r="J247" s="39" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K247" s="39"/>
+      <c r="L247" s="43"/>
+    </row>
+    <row r="248" spans="1:12">
+      <c r="D248" s="58"/>
+      <c r="E248" s="43" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F248" s="43"/>
+      <c r="G248" s="43"/>
+      <c r="H248" s="43"/>
+      <c r="I248" s="43"/>
+      <c r="J248" s="39" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K248" s="39"/>
+      <c r="L248" s="43"/>
+    </row>
+    <row r="249" spans="1:12">
+      <c r="D249" s="58" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
-      <c r="D247" s="58" t="s">
+    <row r="250" spans="1:12">
+      <c r="D250" s="58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
-      <c r="A248" s="36" t="s">
+    <row r="251" spans="1:12">
+      <c r="A251" s="36" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="B253" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
+      <c r="B254" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
-      <c r="B250" t="s">
+    <row r="256" spans="1:12">
+      <c r="A256" s="36" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
-      <c r="B251" t="s">
+    <row r="258" spans="2:9">
+      <c r="B258" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="253" spans="1:12">
-      <c r="A253" s="36" t="s">
+      <c r="C258" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
-      <c r="B255" t="s">
+    <row r="259" spans="2:9">
+      <c r="C259" t="s">
         <v>1606</v>
       </c>
-      <c r="C255" t="s">
+    </row>
+    <row r="261" spans="2:9">
+      <c r="D261" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9">
+      <c r="E262" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
-      <c r="C256" t="s">
+    <row r="263" spans="2:9">
+      <c r="E263" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9">
+      <c r="F264" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="258" spans="4:9">
-      <c r="D258" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="259" spans="4:9">
-      <c r="E259" t="s">
+    <row r="265" spans="2:9">
+      <c r="G265" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="260" spans="4:9">
-      <c r="E260" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="261" spans="4:9">
-      <c r="F261" t="s">
+    <row r="266" spans="2:9">
+      <c r="F266" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9">
+      <c r="E267" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9">
+      <c r="D269" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9">
+      <c r="E271" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="262" spans="4:9">
-      <c r="G262" t="s">
+      <c r="I271" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="263" spans="4:9">
-      <c r="F263" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="264" spans="4:9">
-      <c r="E264" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="266" spans="4:9">
-      <c r="D266" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="268" spans="4:9">
-      <c r="E268" t="s">
+    <row r="272" spans="2:9">
+      <c r="E272" t="s">
         <v>1612</v>
       </c>
-      <c r="I268" t="s">
+      <c r="I272" t="s">
         <v>1613</v>
-      </c>
-    </row>
-    <row r="269" spans="4:9">
-      <c r="E269" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I269" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="271" spans="4:9">
-      <c r="E271" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10">
-      <c r="F273" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I273" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="274" spans="1:10">
       <c r="E274" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
+      <c r="F276" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I276" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
+      <c r="E277" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
-      <c r="A277" s="36" t="s">
+    <row r="280" spans="1:10">
+      <c r="A280" s="36" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10">
+      <c r="B282" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
+      <c r="C284" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
+      <c r="C286" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
+      <c r="D287" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
-      <c r="B279" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10">
-      <c r="C281" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10">
-      <c r="C283" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10">
-      <c r="D284" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10">
-      <c r="E285" s="58" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F285" s="43"/>
-      <c r="G285" s="43"/>
-      <c r="H285" s="43"/>
-      <c r="I285" s="43"/>
-      <c r="J285" s="43"/>
-    </row>
-    <row r="286" spans="1:10">
-      <c r="E286" s="58" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F286" s="43"/>
-      <c r="G286" s="43"/>
-      <c r="H286" s="43"/>
-      <c r="I286" s="43"/>
-      <c r="J286" s="43"/>
-    </row>
-    <row r="287" spans="1:10">
-      <c r="E287" s="58" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F287" s="43"/>
-      <c r="G287" s="43"/>
-      <c r="H287" s="43"/>
-      <c r="I287" s="43"/>
-      <c r="J287" s="43"/>
     </row>
     <row r="288" spans="1:10">
       <c r="E288" s="58" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="F288" s="43"/>
       <c r="G288" s="43"/>
@@ -23226,9 +24033,9 @@
       <c r="I288" s="43"/>
       <c r="J288" s="43"/>
     </row>
-    <row r="289" spans="4:10">
+    <row r="289" spans="5:10">
       <c r="E289" s="58" t="s">
-        <v>45</v>
+        <v>1621</v>
       </c>
       <c r="F289" s="43"/>
       <c r="G289" s="43"/>
@@ -23236,17 +24043,19 @@
       <c r="I289" s="43"/>
       <c r="J289" s="43"/>
     </row>
-    <row r="290" spans="4:10">
-      <c r="E290" s="79"/>
+    <row r="290" spans="5:10">
+      <c r="E290" s="58" t="s">
+        <v>1622</v>
+      </c>
       <c r="F290" s="43"/>
       <c r="G290" s="43"/>
       <c r="H290" s="43"/>
       <c r="I290" s="43"/>
       <c r="J290" s="43"/>
     </row>
-    <row r="291" spans="4:10">
+    <row r="291" spans="5:10">
       <c r="E291" s="58" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="F291" s="43"/>
       <c r="G291" s="43"/>
@@ -23254,9 +24063,9 @@
       <c r="I291" s="43"/>
       <c r="J291" s="43"/>
     </row>
-    <row r="292" spans="4:10">
+    <row r="292" spans="5:10">
       <c r="E292" s="58" t="s">
-        <v>1627</v>
+        <v>45</v>
       </c>
       <c r="F292" s="43"/>
       <c r="G292" s="43"/>
@@ -23264,309 +24073,312 @@
       <c r="I292" s="43"/>
       <c r="J292" s="43"/>
     </row>
-    <row r="293" spans="4:10">
-      <c r="E293" s="58" t="s">
-        <v>45</v>
-      </c>
+    <row r="293" spans="5:10">
+      <c r="E293" s="79"/>
       <c r="F293" s="43"/>
       <c r="G293" s="43"/>
       <c r="H293" s="43"/>
       <c r="I293" s="43"/>
       <c r="J293" s="43"/>
     </row>
-    <row r="295" spans="4:10">
-      <c r="E295" s="80" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F295" s="12"/>
-      <c r="G295" s="12"/>
-      <c r="H295" s="12"/>
-      <c r="I295" s="12"/>
-    </row>
-    <row r="296" spans="4:10">
-      <c r="E296" s="80" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F296" s="12"/>
-      <c r="G296" s="12"/>
-      <c r="H296" s="12"/>
-      <c r="I296" s="12"/>
-    </row>
-    <row r="304" spans="4:10">
-      <c r="D304" t="s">
+    <row r="294" spans="5:10">
+      <c r="E294" s="58" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F294" s="43"/>
+      <c r="G294" s="43"/>
+      <c r="H294" s="43"/>
+      <c r="I294" s="43"/>
+      <c r="J294" s="43"/>
+    </row>
+    <row r="295" spans="5:10">
+      <c r="E295" s="58" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F295" s="43"/>
+      <c r="G295" s="43"/>
+      <c r="H295" s="43"/>
+      <c r="I295" s="43"/>
+      <c r="J295" s="43"/>
+    </row>
+    <row r="296" spans="5:10">
+      <c r="E296" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F296" s="43"/>
+      <c r="G296" s="43"/>
+      <c r="H296" s="43"/>
+      <c r="I296" s="43"/>
+      <c r="J296" s="43"/>
+    </row>
+    <row r="298" spans="5:10">
+      <c r="E298" s="80" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F298" s="12"/>
+      <c r="G298" s="12"/>
+      <c r="H298" s="12"/>
+      <c r="I298" s="12"/>
+    </row>
+    <row r="299" spans="5:10">
+      <c r="E299" s="80" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F299" s="12"/>
+      <c r="G299" s="12"/>
+      <c r="H299" s="12"/>
+      <c r="I299" s="12"/>
+    </row>
+    <row r="307" spans="3:10">
+      <c r="D307" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="308" spans="3:10">
+      <c r="E308" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="309" spans="3:10">
+      <c r="E309" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="311" spans="3:10">
+      <c r="F311" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="312" spans="3:10">
+      <c r="G312" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J312" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="313" spans="3:10">
+      <c r="F313" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="315" spans="3:10">
+      <c r="D315" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="305" spans="3:10">
-      <c r="E305" t="s">
+      <c r="F315" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="306" spans="3:10">
-      <c r="E306" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="308" spans="3:10">
-      <c r="F308" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="309" spans="3:10">
-      <c r="G309" t="s">
-        <v>1852</v>
-      </c>
-      <c r="J309" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="310" spans="3:10">
-      <c r="F310" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="312" spans="3:10">
-      <c r="D312" t="s">
-        <v>1853</v>
-      </c>
-      <c r="F312" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="315" spans="3:10">
-      <c r="C315" t="s">
+    <row r="318" spans="3:10">
+      <c r="C318" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="325" spans="8:11">
+      <c r="H325" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K325" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="326" spans="8:11">
+      <c r="K326" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="335" spans="8:11">
+      <c r="I335" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K335" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="322" spans="8:11">
-      <c r="H322" t="s">
+    <row r="337" spans="1:11">
+      <c r="K337" t="s">
         <v>1896</v>
       </c>
-      <c r="K322" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="323" spans="8:11">
-      <c r="K323" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="332" spans="8:11">
-      <c r="I332" t="s">
-        <v>1899</v>
-      </c>
-      <c r="K332" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="334" spans="8:11">
-      <c r="K334" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="A340" s="36" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="B342" t="s">
+    </row>
+    <row r="343" spans="1:11">
+      <c r="A343" s="36" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
+      <c r="B345" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11">
+      <c r="C346" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
-      <c r="C343" t="s">
+    <row r="347" spans="1:11">
+      <c r="E347">
+        <v>2</v>
+      </c>
+      <c r="F347" t="s">
         <v>1640</v>
       </c>
-      <c r="E343">
-        <v>1</v>
-      </c>
-      <c r="F343" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="E344">
-        <v>2</v>
-      </c>
-      <c r="F344" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="E345">
+    </row>
+    <row r="348" spans="1:11">
+      <c r="E348">
         <v>3</v>
       </c>
-      <c r="F345" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="C347" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="C349" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="D350" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="D351" t="s">
-        <v>1635</v>
+      <c r="F348" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
+      <c r="C350" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11">
+      <c r="C352" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="353" spans="3:8">
       <c r="D353" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="354" spans="3:8">
       <c r="D354" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="355" spans="3:8">
-      <c r="D355" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="359" spans="3:8">
-      <c r="C359" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="361" spans="3:8">
-      <c r="D361" t="s">
-        <v>1645</v>
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="356" spans="3:8">
+      <c r="D356" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="357" spans="3:8">
+      <c r="D357" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="358" spans="3:8">
+      <c r="D358" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="362" spans="3:8">
-      <c r="D362" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H362" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="363" spans="3:8">
-      <c r="H363" t="s">
-        <v>1648</v>
+      <c r="C362" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="364" spans="3:8">
+      <c r="D364" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="365" spans="3:8">
       <c r="D365" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H365" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="366" spans="3:8">
+      <c r="H366" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="368" spans="3:8">
+      <c r="D368" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10">
+      <c r="D369" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H369" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10">
+      <c r="H370" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="366" spans="3:8">
-      <c r="D366" t="s">
-        <v>1650</v>
-      </c>
-      <c r="H366" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="367" spans="3:8">
-      <c r="H367" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10">
-      <c r="D369" s="58" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E369" s="83"/>
-      <c r="F369" s="83"/>
-      <c r="G369" s="83"/>
-    </row>
-    <row r="370" spans="1:10">
-      <c r="D370" s="58" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E370" s="83"/>
-      <c r="F370" s="83"/>
-      <c r="G370" s="83"/>
-      <c r="H370" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10">
-      <c r="D371" s="82"/>
-      <c r="H371" t="s">
-        <v>1731</v>
-      </c>
-    </row>
     <row r="372" spans="1:10">
-      <c r="D372" s="82"/>
+      <c r="D372" s="58" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E372" s="83"/>
+      <c r="F372" s="83"/>
+      <c r="G372" s="83"/>
     </row>
     <row r="373" spans="1:10">
       <c r="D373" s="58" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E373" s="83"/>
+      <c r="F373" s="83"/>
+      <c r="G373" s="83"/>
+      <c r="H373" t="s">
         <v>1725</v>
       </c>
-      <c r="E373" s="43"/>
-      <c r="F373" s="43"/>
-      <c r="G373" s="43"/>
-      <c r="H373" s="43"/>
-      <c r="I373" s="43"/>
     </row>
     <row r="374" spans="1:10">
-      <c r="D374" s="58" t="s">
+      <c r="D374" s="82"/>
+      <c r="H374" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10">
+      <c r="D375" s="82"/>
+    </row>
+    <row r="376" spans="1:10">
+      <c r="D376" s="58" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E376" s="43"/>
+      <c r="F376" s="43"/>
+      <c r="G376" s="43"/>
+      <c r="H376" s="43"/>
+      <c r="I376" s="43"/>
+    </row>
+    <row r="377" spans="1:10">
+      <c r="D377" s="58" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E377" s="43"/>
+      <c r="F377" s="43"/>
+      <c r="G377" s="43"/>
+      <c r="H377" s="43"/>
+      <c r="I377" s="43"/>
+      <c r="J377" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10">
+      <c r="J378" t="s">
         <v>1728</v>
       </c>
-      <c r="E374" s="43"/>
-      <c r="F374" s="43"/>
-      <c r="G374" s="43"/>
-      <c r="H374" s="43"/>
-      <c r="I374" s="43"/>
-      <c r="J374" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10">
-      <c r="J375" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10">
-      <c r="A376" s="36" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10">
-      <c r="C378" s="58" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D378" s="43"/>
-      <c r="E378" s="43"/>
-      <c r="F378" s="43"/>
-      <c r="G378" s="43"/>
     </row>
     <row r="379" spans="1:10">
-      <c r="C379" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D379" s="43"/>
-      <c r="E379" s="43"/>
-      <c r="F379" s="43"/>
-      <c r="G379" s="43"/>
-    </row>
-    <row r="380" spans="1:10">
-      <c r="C380" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D380" s="43"/>
-      <c r="E380" s="43"/>
-      <c r="F380" s="43"/>
-      <c r="G380" s="43"/>
+      <c r="A379" s="36" t="s">
+        <v>1650</v>
+      </c>
     </row>
     <row r="381" spans="1:10">
-      <c r="C381" s="79"/>
+      <c r="C381" s="58" t="s">
+        <v>1651</v>
+      </c>
       <c r="D381" s="43"/>
       <c r="E381" s="43"/>
       <c r="F381" s="43"/>
@@ -23574,82 +24386,98 @@
     </row>
     <row r="382" spans="1:10">
       <c r="C382" s="58" t="s">
-        <v>1654</v>
+        <v>135</v>
       </c>
       <c r="D382" s="43"/>
       <c r="E382" s="43"/>
       <c r="F382" s="43"/>
       <c r="G382" s="43"/>
-      <c r="H382" t="s">
-        <v>1655</v>
-      </c>
     </row>
     <row r="383" spans="1:10">
       <c r="C383" s="58" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="D383" s="43"/>
       <c r="E383" s="43"/>
       <c r="F383" s="43"/>
       <c r="G383" s="43"/>
-      <c r="H383" t="s">
-        <v>1656</v>
-      </c>
     </row>
     <row r="384" spans="1:10">
-      <c r="C384" s="58" t="s">
-        <v>45</v>
-      </c>
+      <c r="C384" s="79"/>
       <c r="D384" s="43"/>
       <c r="E384" s="43"/>
       <c r="F384" s="43"/>
       <c r="G384" s="43"/>
-      <c r="H384" t="s">
-        <v>1657</v>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="C385" s="58" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D385" s="43"/>
+      <c r="E385" s="43"/>
+      <c r="F385" s="43"/>
+      <c r="G385" s="43"/>
+      <c r="H385" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="386" spans="1:9">
-      <c r="A386" s="36" t="s">
-        <v>1658</v>
+      <c r="C386" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D386" s="43"/>
+      <c r="E386" s="43"/>
+      <c r="F386" s="43"/>
+      <c r="G386" s="43"/>
+      <c r="H386" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="387" spans="1:9">
-      <c r="A387" s="36"/>
-    </row>
-    <row r="388" spans="1:9">
-      <c r="A388" s="36"/>
-      <c r="C388" t="s">
-        <v>1870</v>
+      <c r="C387" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D387" s="43"/>
+      <c r="E387" s="43"/>
+      <c r="F387" s="43"/>
+      <c r="G387" s="43"/>
+      <c r="H387" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="389" spans="1:9">
-      <c r="A389" s="36"/>
+      <c r="A389" s="36" t="s">
+        <v>1656</v>
+      </c>
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="36"/>
-      <c r="D390" t="s">
-        <v>1871</v>
-      </c>
-      <c r="F390" t="s">
-        <v>1874</v>
-      </c>
-      <c r="I390" t="s">
-        <v>1875</v>
-      </c>
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="36"/>
-    </row>
-    <row r="392" spans="1:9" ht="14.25" customHeight="1">
+      <c r="C391" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
       <c r="A392" s="36"/>
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="36"/>
+      <c r="D393" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I393" t="s">
+        <v>1870</v>
+      </c>
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="36"/>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" ht="14.25" customHeight="1">
       <c r="A395" s="36"/>
     </row>
     <row r="396" spans="1:9">
@@ -23660,30 +24488,26 @@
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="36"/>
-      <c r="D398" t="s">
-        <v>1876</v>
-      </c>
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="36"/>
-      <c r="D399" s="58"/>
-      <c r="E399" s="43"/>
-      <c r="F399" s="43"/>
-      <c r="G399" s="43"/>
-      <c r="H399" s="43"/>
     </row>
     <row r="400" spans="1:9">
-      <c r="E400" s="43"/>
-      <c r="F400" s="43"/>
-      <c r="G400" s="43"/>
-      <c r="H400" s="43"/>
+      <c r="A400" s="36"/>
     </row>
     <row r="401" spans="1:8">
-      <c r="D401" s="58"/>
-      <c r="E401" s="43"/>
-      <c r="F401" s="43"/>
-      <c r="G401" s="43"/>
-      <c r="H401" s="43"/>
+      <c r="A401" s="36"/>
+      <c r="D401" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="A402" s="36"/>
+      <c r="D402" s="58"/>
+      <c r="E402" s="43"/>
+      <c r="F402" s="43"/>
+      <c r="G402" s="43"/>
+      <c r="H402" s="43"/>
     </row>
     <row r="403" spans="1:8">
       <c r="E403" s="43"/>
@@ -23692,19 +24516,11 @@
       <c r="H403" s="43"/>
     </row>
     <row r="404" spans="1:8">
-      <c r="C404" t="s">
-        <v>1872</v>
-      </c>
+      <c r="D404" s="58"/>
       <c r="E404" s="43"/>
       <c r="F404" s="43"/>
       <c r="G404" s="43"/>
       <c r="H404" s="43"/>
-    </row>
-    <row r="405" spans="1:8">
-      <c r="E405" s="43"/>
-      <c r="F405" s="43"/>
-      <c r="G405" s="43"/>
-      <c r="H405" s="43"/>
     </row>
     <row r="406" spans="1:8">
       <c r="E406" s="43"/>
@@ -23713,6 +24529,9 @@
       <c r="H406" s="43"/>
     </row>
     <row r="407" spans="1:8">
+      <c r="C407" t="s">
+        <v>1867</v>
+      </c>
       <c r="E407" s="43"/>
       <c r="F407" s="43"/>
       <c r="G407" s="43"/>
@@ -23737,90 +24556,77 @@
       <c r="H410" s="43"/>
     </row>
     <row r="411" spans="1:8">
-      <c r="D411" s="43"/>
       <c r="E411" s="43"/>
       <c r="F411" s="43"/>
       <c r="G411" s="43"/>
       <c r="H411" s="43"/>
     </row>
+    <row r="412" spans="1:8">
+      <c r="E412" s="43"/>
+      <c r="F412" s="43"/>
+      <c r="G412" s="43"/>
+      <c r="H412" s="43"/>
+    </row>
     <row r="413" spans="1:8">
-      <c r="C413" t="s">
+      <c r="E413" s="43"/>
+      <c r="F413" s="43"/>
+      <c r="G413" s="43"/>
+      <c r="H413" s="43"/>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="D414" s="43"/>
+      <c r="E414" s="43"/>
+      <c r="F414" s="43"/>
+      <c r="G414" s="43"/>
+      <c r="H414" s="43"/>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="C416" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="36" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="C421" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="D422" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F422" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="D430" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
-      <c r="A415" s="36" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="418" spans="3:6">
-      <c r="C418" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="419" spans="3:6">
-      <c r="D419" t="s">
-        <v>1871</v>
-      </c>
-      <c r="F419" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="427" spans="3:6">
-      <c r="D427" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9">
-      <c r="C435" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9">
-      <c r="A441" s="36" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9">
-      <c r="B442" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9">
-      <c r="C443" s="58" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D443" s="43"/>
-      <c r="E443" s="43"/>
-      <c r="F443" s="43"/>
-      <c r="G443" s="43"/>
-      <c r="H443" s="43"/>
-      <c r="I443" s="43"/>
+    <row r="438" spans="1:9">
+      <c r="C438" t="s">
+        <v>1876</v>
+      </c>
     </row>
     <row r="444" spans="1:9">
-      <c r="C444" s="58" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D444" s="43"/>
-      <c r="E444" s="43"/>
-      <c r="F444" s="43"/>
-      <c r="G444" s="43"/>
-      <c r="H444" s="43"/>
-      <c r="I444" s="43"/>
+      <c r="A444" s="36" t="s">
+        <v>1657</v>
+      </c>
     </row>
     <row r="445" spans="1:9">
-      <c r="C445" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D445" s="43"/>
-      <c r="E445" s="43"/>
-      <c r="F445" s="43"/>
-      <c r="G445" s="43"/>
-      <c r="H445" s="43"/>
-      <c r="I445" s="43"/>
+      <c r="B445" t="s">
+        <v>1668</v>
+      </c>
     </row>
     <row r="446" spans="1:9">
-      <c r="C446" s="79"/>
+      <c r="C446" s="58" t="s">
+        <v>1658</v>
+      </c>
       <c r="D446" s="43"/>
       <c r="E446" s="43"/>
       <c r="F446" s="43"/>
@@ -23830,7 +24636,7 @@
     </row>
     <row r="447" spans="1:9">
       <c r="C447" s="58" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="D447" s="43"/>
       <c r="E447" s="43"/>
@@ -23841,7 +24647,7 @@
     </row>
     <row r="448" spans="1:9">
       <c r="C448" s="58" t="s">
-        <v>1663</v>
+        <v>45</v>
       </c>
       <c r="D448" s="43"/>
       <c r="E448" s="43"/>
@@ -23850,10 +24656,8 @@
       <c r="H448" s="43"/>
       <c r="I448" s="43"/>
     </row>
-    <row r="449" spans="2:9">
-      <c r="C449" s="58" t="s">
-        <v>45</v>
-      </c>
+    <row r="449" spans="3:9">
+      <c r="C449" s="79"/>
       <c r="D449" s="43"/>
       <c r="E449" s="43"/>
       <c r="F449" s="43"/>
@@ -23861,8 +24665,10 @@
       <c r="H449" s="43"/>
       <c r="I449" s="43"/>
     </row>
-    <row r="450" spans="2:9">
-      <c r="C450" s="79"/>
+    <row r="450" spans="3:9">
+      <c r="C450" s="58" t="s">
+        <v>1660</v>
+      </c>
       <c r="D450" s="43"/>
       <c r="E450" s="43"/>
       <c r="F450" s="43"/>
@@ -23870,9 +24676,9 @@
       <c r="H450" s="43"/>
       <c r="I450" s="43"/>
     </row>
-    <row r="451" spans="2:9">
+    <row r="451" spans="3:9">
       <c r="C451" s="58" t="s">
-        <v>1626</v>
+        <v>1661</v>
       </c>
       <c r="D451" s="43"/>
       <c r="E451" s="43"/>
@@ -23881,9 +24687,9 @@
       <c r="H451" s="43"/>
       <c r="I451" s="43"/>
     </row>
-    <row r="452" spans="2:9">
+    <row r="452" spans="3:9">
       <c r="C452" s="58" t="s">
-        <v>1664</v>
+        <v>45</v>
       </c>
       <c r="D452" s="43"/>
       <c r="E452" s="43"/>
@@ -23892,10 +24698,8 @@
       <c r="H452" s="43"/>
       <c r="I452" s="43"/>
     </row>
-    <row r="453" spans="2:9">
-      <c r="C453" s="58" t="s">
-        <v>1667</v>
-      </c>
+    <row r="453" spans="3:9">
+      <c r="C453" s="79"/>
       <c r="D453" s="43"/>
       <c r="E453" s="43"/>
       <c r="F453" s="43"/>
@@ -23903,9 +24707,9 @@
       <c r="H453" s="43"/>
       <c r="I453" s="43"/>
     </row>
-    <row r="454" spans="2:9">
+    <row r="454" spans="3:9">
       <c r="C454" s="58" t="s">
-        <v>45</v>
+        <v>1624</v>
       </c>
       <c r="D454" s="43"/>
       <c r="E454" s="43"/>
@@ -23914,66 +24718,68 @@
       <c r="H454" s="43"/>
       <c r="I454" s="43"/>
     </row>
-    <row r="457" spans="2:9">
+    <row r="455" spans="3:9">
+      <c r="C455" s="58" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D455" s="43"/>
+      <c r="E455" s="43"/>
+      <c r="F455" s="43"/>
+      <c r="G455" s="43"/>
+      <c r="H455" s="43"/>
+      <c r="I455" s="43"/>
+    </row>
+    <row r="456" spans="3:9">
+      <c r="C456" s="58" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D456" s="43"/>
+      <c r="E456" s="43"/>
+      <c r="F456" s="43"/>
+      <c r="G456" s="43"/>
+      <c r="H456" s="43"/>
+      <c r="I456" s="43"/>
+    </row>
+    <row r="457" spans="3:9">
       <c r="C457" s="58" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="458" spans="2:9">
-      <c r="C458" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D457" s="43"/>
+      <c r="E457" s="43"/>
+      <c r="F457" s="43"/>
+      <c r="G457" s="43"/>
+      <c r="H457" s="43"/>
+      <c r="I457" s="43"/>
+    </row>
+    <row r="460" spans="3:9">
+      <c r="C460" s="58" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="461" spans="3:9">
+      <c r="C461" s="58" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="462" spans="3:9">
+      <c r="D462" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="459" spans="2:9">
-      <c r="D459" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="460" spans="2:9">
-      <c r="D460" t="s">
+    <row r="463" spans="3:9">
+      <c r="D463" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="465" spans="2:9">
+      <c r="B465" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="462" spans="2:9">
-      <c r="B462" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="464" spans="2:9">
-      <c r="C464" s="58" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D464" s="43"/>
-      <c r="E464" s="43"/>
-      <c r="F464" s="43"/>
-      <c r="G464" s="43"/>
-      <c r="H464" s="43"/>
-      <c r="I464" s="43"/>
-    </row>
-    <row r="465" spans="1:9">
-      <c r="C465" s="58" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D465" s="43"/>
-      <c r="E465" s="43"/>
-      <c r="F465" s="43"/>
-      <c r="G465" s="43"/>
-      <c r="H465" s="43"/>
-      <c r="I465" s="43"/>
-    </row>
-    <row r="466" spans="1:9">
-      <c r="C466" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D466" s="43"/>
-      <c r="E466" s="43"/>
-      <c r="F466" s="43"/>
-      <c r="G466" s="43"/>
-      <c r="H466" s="43"/>
-      <c r="I466" s="43"/>
-    </row>
-    <row r="467" spans="1:9">
-      <c r="C467" s="79"/>
+    <row r="467" spans="2:9">
+      <c r="C467" s="58" t="s">
+        <v>1660</v>
+      </c>
       <c r="D467" s="43"/>
       <c r="E467" s="43"/>
       <c r="F467" s="43"/>
@@ -23981,9 +24787,9 @@
       <c r="H467" s="43"/>
       <c r="I467" s="43"/>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="2:9">
       <c r="C468" s="58" t="s">
-        <v>1626</v>
+        <v>1661</v>
       </c>
       <c r="D468" s="43"/>
       <c r="E468" s="43"/>
@@ -23992,9 +24798,9 @@
       <c r="H468" s="43"/>
       <c r="I468" s="43"/>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="2:9">
       <c r="C469" s="58" t="s">
-        <v>1664</v>
+        <v>45</v>
       </c>
       <c r="D469" s="43"/>
       <c r="E469" s="43"/>
@@ -24003,10 +24809,8 @@
       <c r="H469" s="43"/>
       <c r="I469" s="43"/>
     </row>
-    <row r="470" spans="1:9">
-      <c r="C470" s="58" t="s">
-        <v>1667</v>
-      </c>
+    <row r="470" spans="2:9">
+      <c r="C470" s="79"/>
       <c r="D470" s="43"/>
       <c r="E470" s="43"/>
       <c r="F470" s="43"/>
@@ -24014,9 +24818,9 @@
       <c r="H470" s="43"/>
       <c r="I470" s="43"/>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="2:9">
       <c r="C471" s="58" t="s">
-        <v>45</v>
+        <v>1624</v>
       </c>
       <c r="D471" s="43"/>
       <c r="E471" s="43"/>
@@ -24025,77 +24829,82 @@
       <c r="H471" s="43"/>
       <c r="I471" s="43"/>
     </row>
-    <row r="473" spans="1:9">
+    <row r="472" spans="2:9">
+      <c r="C472" s="58" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D472" s="43"/>
+      <c r="E472" s="43"/>
+      <c r="F472" s="43"/>
+      <c r="G472" s="43"/>
+      <c r="H472" s="43"/>
+      <c r="I472" s="43"/>
+    </row>
+    <row r="473" spans="2:9">
       <c r="C473" s="58" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D473" s="43"/>
+      <c r="E473" s="43"/>
+      <c r="F473" s="43"/>
+      <c r="G473" s="43"/>
+      <c r="H473" s="43"/>
+      <c r="I473" s="43"/>
+    </row>
+    <row r="474" spans="2:9">
+      <c r="C474" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D474" s="43"/>
+      <c r="E474" s="43"/>
+      <c r="F474" s="43"/>
+      <c r="G474" s="43"/>
+      <c r="H474" s="43"/>
+      <c r="I474" s="43"/>
+    </row>
+    <row r="476" spans="2:9">
+      <c r="C476" s="58" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="477" spans="2:9">
+      <c r="C477" s="58" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="478" spans="2:9">
+      <c r="D478" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
-      <c r="C474" s="58" t="s">
+    <row r="479" spans="2:9">
+      <c r="D479" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
-      <c r="D475" t="s">
+    <row r="481" spans="1:9">
+      <c r="A481" s="36" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
-      <c r="D476" t="s">
+    <row r="482" spans="1:9">
+      <c r="C482" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="D483" s="58" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="478" spans="1:9">
-      <c r="A478" s="36" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9">
-      <c r="C479" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9">
-      <c r="D480" s="58" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E480" s="43"/>
-      <c r="F480" s="43"/>
-      <c r="G480" s="43"/>
-      <c r="H480" s="43"/>
-      <c r="I480" s="43"/>
-    </row>
-    <row r="481" spans="3:9">
-      <c r="D481" s="58" t="s">
-        <v>1678</v>
-      </c>
-      <c r="E481" s="43"/>
-      <c r="F481" s="43"/>
-      <c r="G481" s="43"/>
-      <c r="H481" s="43"/>
-      <c r="I481" s="43"/>
-    </row>
-    <row r="482" spans="3:9">
-      <c r="D482" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E482" s="43"/>
-      <c r="F482" s="43"/>
-      <c r="G482" s="43"/>
-      <c r="H482" s="43"/>
-      <c r="I482" s="43"/>
-    </row>
-    <row r="483" spans="3:9">
-      <c r="D483" s="79"/>
       <c r="E483" s="43"/>
       <c r="F483" s="43"/>
       <c r="G483" s="43"/>
       <c r="H483" s="43"/>
       <c r="I483" s="43"/>
     </row>
-    <row r="484" spans="3:9">
+    <row r="484" spans="1:9">
       <c r="D484" s="58" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E484" s="43"/>
       <c r="F484" s="43"/>
@@ -24103,9 +24912,9 @@
       <c r="H484" s="43"/>
       <c r="I484" s="43"/>
     </row>
-    <row r="485" spans="3:9">
+    <row r="485" spans="1:9">
       <c r="D485" s="58" t="s">
-        <v>1680</v>
+        <v>45</v>
       </c>
       <c r="E485" s="43"/>
       <c r="F485" s="43"/>
@@ -24113,19 +24922,17 @@
       <c r="H485" s="43"/>
       <c r="I485" s="43"/>
     </row>
-    <row r="486" spans="3:9">
-      <c r="D486" s="58" t="s">
-        <v>45</v>
-      </c>
+    <row r="486" spans="1:9">
+      <c r="D486" s="79"/>
       <c r="E486" s="43"/>
       <c r="F486" s="43"/>
       <c r="G486" s="43"/>
       <c r="H486" s="43"/>
       <c r="I486" s="43"/>
     </row>
-    <row r="487" spans="3:9">
+    <row r="487" spans="1:9">
       <c r="D487" s="58" t="s">
-        <v>1622</v>
+        <v>1677</v>
       </c>
       <c r="E487" s="43"/>
       <c r="F487" s="43"/>
@@ -24133,9 +24940,9 @@
       <c r="H487" s="43"/>
       <c r="I487" s="43"/>
     </row>
-    <row r="488" spans="3:9">
+    <row r="488" spans="1:9">
       <c r="D488" s="58" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="E488" s="43"/>
       <c r="F488" s="43"/>
@@ -24143,9 +24950,9 @@
       <c r="H488" s="43"/>
       <c r="I488" s="43"/>
     </row>
-    <row r="489" spans="3:9">
+    <row r="489" spans="1:9">
       <c r="D489" s="58" t="s">
-        <v>1682</v>
+        <v>45</v>
       </c>
       <c r="E489" s="43"/>
       <c r="F489" s="43"/>
@@ -24153,9 +24960,9 @@
       <c r="H489" s="43"/>
       <c r="I489" s="43"/>
     </row>
-    <row r="490" spans="3:9">
+    <row r="490" spans="1:9">
       <c r="D490" s="58" t="s">
-        <v>1683</v>
+        <v>1620</v>
       </c>
       <c r="E490" s="43"/>
       <c r="F490" s="43"/>
@@ -24163,9 +24970,9 @@
       <c r="H490" s="43"/>
       <c r="I490" s="43"/>
     </row>
-    <row r="491" spans="3:9">
+    <row r="491" spans="1:9">
       <c r="D491" s="58" t="s">
-        <v>45</v>
+        <v>1679</v>
       </c>
       <c r="E491" s="43"/>
       <c r="F491" s="43"/>
@@ -24173,50 +24980,50 @@
       <c r="H491" s="43"/>
       <c r="I491" s="43"/>
     </row>
-    <row r="493" spans="3:9">
-      <c r="C493" s="58"/>
+    <row r="492" spans="1:9">
+      <c r="D492" s="58" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E492" s="43"/>
+      <c r="F492" s="43"/>
+      <c r="G492" s="43"/>
+      <c r="H492" s="43"/>
+      <c r="I492" s="43"/>
+    </row>
+    <row r="493" spans="1:9">
       <c r="D493" s="58" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="495" spans="3:9">
-      <c r="C495" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="496" spans="3:9">
+        <v>1681</v>
+      </c>
+      <c r="E493" s="43"/>
+      <c r="F493" s="43"/>
+      <c r="G493" s="43"/>
+      <c r="H493" s="43"/>
+      <c r="I493" s="43"/>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="D494" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E494" s="43"/>
+      <c r="F494" s="43"/>
+      <c r="G494" s="43"/>
+      <c r="H494" s="43"/>
+      <c r="I494" s="43"/>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="C496" s="58"/>
       <c r="D496" s="58" t="s">
-        <v>1679</v>
-      </c>
-      <c r="E496" s="43"/>
-      <c r="F496" s="43"/>
-      <c r="G496" s="43"/>
-      <c r="H496" s="43"/>
-      <c r="I496" s="43"/>
-    </row>
-    <row r="497" spans="3:9">
-      <c r="D497" s="58" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E497" s="43"/>
-      <c r="F497" s="43"/>
-      <c r="G497" s="43"/>
-      <c r="H497" s="43"/>
-      <c r="I497" s="43"/>
+        <v>1682</v>
+      </c>
     </row>
     <row r="498" spans="3:9">
-      <c r="D498" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E498" s="43"/>
-      <c r="F498" s="43"/>
-      <c r="G498" s="43"/>
-      <c r="H498" s="43"/>
-      <c r="I498" s="43"/>
+      <c r="C498" t="s">
+        <v>1683</v>
+      </c>
     </row>
     <row r="499" spans="3:9">
       <c r="D499" s="58" t="s">
-        <v>1622</v>
+        <v>1677</v>
       </c>
       <c r="E499" s="43"/>
       <c r="F499" s="43"/>
@@ -24226,7 +25033,7 @@
     </row>
     <row r="500" spans="3:9">
       <c r="D500" s="58" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="E500" s="43"/>
       <c r="F500" s="43"/>
@@ -24236,7 +25043,7 @@
     </row>
     <row r="501" spans="3:9">
       <c r="D501" s="58" t="s">
-        <v>1682</v>
+        <v>45</v>
       </c>
       <c r="E501" s="43"/>
       <c r="F501" s="43"/>
@@ -24246,7 +25053,7 @@
     </row>
     <row r="502" spans="3:9">
       <c r="D502" s="58" t="s">
-        <v>1683</v>
+        <v>1620</v>
       </c>
       <c r="E502" s="43"/>
       <c r="F502" s="43"/>
@@ -24256,7 +25063,7 @@
     </row>
     <row r="503" spans="3:9">
       <c r="D503" s="58" t="s">
-        <v>45</v>
+        <v>1679</v>
       </c>
       <c r="E503" s="43"/>
       <c r="F503" s="43"/>
@@ -24264,62 +25071,64 @@
       <c r="H503" s="43"/>
       <c r="I503" s="43"/>
     </row>
+    <row r="504" spans="3:9">
+      <c r="D504" s="58" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E504" s="43"/>
+      <c r="F504" s="43"/>
+      <c r="G504" s="43"/>
+      <c r="H504" s="43"/>
+      <c r="I504" s="43"/>
+    </row>
     <row r="505" spans="3:9">
       <c r="D505" s="58" t="s">
-        <v>1686</v>
-      </c>
+        <v>1681</v>
+      </c>
+      <c r="E505" s="43"/>
+      <c r="F505" s="43"/>
+      <c r="G505" s="43"/>
+      <c r="H505" s="43"/>
+      <c r="I505" s="43"/>
     </row>
     <row r="506" spans="3:9">
       <c r="D506" s="58" t="s">
-        <v>1687</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E506" s="43"/>
+      <c r="F506" s="43"/>
+      <c r="G506" s="43"/>
+      <c r="H506" s="43"/>
+      <c r="I506" s="43"/>
     </row>
     <row r="508" spans="3:9">
-      <c r="C508" t="s">
-        <v>1688</v>
+      <c r="D508" s="58" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="509" spans="3:9">
       <c r="D509" s="58" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E509" s="43"/>
-      <c r="F509" s="43"/>
-      <c r="G509" s="43"/>
-      <c r="H509" s="43"/>
-      <c r="I509" s="43"/>
-    </row>
-    <row r="510" spans="3:9">
-      <c r="D510" s="58" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E510" s="43"/>
-      <c r="F510" s="43"/>
-      <c r="G510" s="43"/>
-      <c r="H510" s="43"/>
-      <c r="I510" s="43"/>
+        <v>1685</v>
+      </c>
     </row>
     <row r="511" spans="3:9">
-      <c r="D511" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="E511" s="43"/>
-      <c r="F511" s="43"/>
-      <c r="G511" s="43"/>
-      <c r="H511" s="43"/>
-      <c r="I511" s="43"/>
+      <c r="C511" t="s">
+        <v>1686</v>
+      </c>
     </row>
     <row r="512" spans="3:9">
-      <c r="D512" s="79"/>
+      <c r="D512" s="58" t="s">
+        <v>1690</v>
+      </c>
       <c r="E512" s="43"/>
       <c r="F512" s="43"/>
       <c r="G512" s="43"/>
       <c r="H512" s="43"/>
       <c r="I512" s="43"/>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="4:9">
       <c r="D513" s="58" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="E513" s="43"/>
       <c r="F513" s="43"/>
@@ -24327,9 +25136,9 @@
       <c r="H513" s="43"/>
       <c r="I513" s="43"/>
     </row>
-    <row r="514" spans="1:9">
-      <c r="D514" s="81" t="s">
-        <v>1690</v>
+    <row r="514" spans="4:9">
+      <c r="D514" s="58" t="s">
+        <v>620</v>
       </c>
       <c r="E514" s="43"/>
       <c r="F514" s="43"/>
@@ -24337,19 +25146,17 @@
       <c r="H514" s="43"/>
       <c r="I514" s="43"/>
     </row>
-    <row r="515" spans="1:9">
-      <c r="D515" s="81" t="s">
-        <v>1691</v>
-      </c>
+    <row r="515" spans="4:9">
+      <c r="D515" s="79"/>
       <c r="E515" s="43"/>
       <c r="F515" s="43"/>
       <c r="G515" s="43"/>
       <c r="H515" s="43"/>
       <c r="I515" s="43"/>
     </row>
-    <row r="516" spans="1:9">
-      <c r="D516" s="81" t="s">
-        <v>716</v>
+    <row r="516" spans="4:9">
+      <c r="D516" s="58" t="s">
+        <v>1687</v>
       </c>
       <c r="E516" s="43"/>
       <c r="F516" s="43"/>
@@ -24357,9 +25164,9 @@
       <c r="H516" s="43"/>
       <c r="I516" s="43"/>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="4:9">
       <c r="D517" s="81" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="E517" s="43"/>
       <c r="F517" s="43"/>
@@ -24367,9 +25174,9 @@
       <c r="H517" s="43"/>
       <c r="I517" s="43"/>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="4:9">
       <c r="D518" s="81" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="E518" s="43"/>
       <c r="F518" s="43"/>
@@ -24377,21 +25184,19 @@
       <c r="H518" s="43"/>
       <c r="I518" s="43"/>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="4:9">
       <c r="D519" s="81" t="s">
-        <v>1696</v>
+        <v>716</v>
       </c>
       <c r="E519" s="43"/>
       <c r="F519" s="43"/>
       <c r="G519" s="43"/>
-      <c r="H519" s="43" t="s">
-        <v>1647</v>
-      </c>
+      <c r="H519" s="43"/>
       <c r="I519" s="43"/>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="4:9">
       <c r="D520" s="81" t="s">
-        <v>620</v>
+        <v>1692</v>
       </c>
       <c r="E520" s="43"/>
       <c r="F520" s="43"/>
@@ -24399,658 +25204,648 @@
       <c r="H520" s="43"/>
       <c r="I520" s="43"/>
     </row>
-    <row r="522" spans="1:9">
+    <row r="521" spans="4:9">
+      <c r="D521" s="81" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E521" s="43"/>
+      <c r="F521" s="43"/>
+      <c r="G521" s="43"/>
+      <c r="H521" s="43"/>
+      <c r="I521" s="43"/>
+    </row>
+    <row r="522" spans="4:9">
       <c r="D522" s="81" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E522" s="43"/>
+      <c r="F522" s="43"/>
+      <c r="G522" s="43"/>
+      <c r="H522" s="43" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I522" s="43"/>
+    </row>
+    <row r="523" spans="4:9">
+      <c r="D523" s="81" t="s">
+        <v>620</v>
+      </c>
+      <c r="E523" s="43"/>
+      <c r="F523" s="43"/>
+      <c r="G523" s="43"/>
+      <c r="H523" s="43"/>
+      <c r="I523" s="43"/>
+    </row>
+    <row r="525" spans="4:9">
+      <c r="D525" s="81" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="526" spans="4:9">
+      <c r="D526" s="81" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="528" spans="4:9">
+      <c r="E528" s="58" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F528" s="43"/>
+      <c r="G528" s="43"/>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531" s="36" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
-      <c r="D523" s="81" t="s">
+    <row r="533" spans="1:7">
+      <c r="B533" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="C535" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="525" spans="1:9">
-      <c r="E525" s="58" t="s">
-        <v>1847</v>
-      </c>
-      <c r="F525" s="43"/>
-      <c r="G525" s="43"/>
-    </row>
-    <row r="528" spans="1:9">
-      <c r="A528" s="36" t="s">
+      <c r="G535" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
-      <c r="B530" t="s">
+    <row r="537" spans="1:7">
+      <c r="C537" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="C539" t="s">
         <v>1703</v>
       </c>
-    </row>
-    <row r="532" spans="1:7">
-      <c r="C532" t="s">
-        <v>1700</v>
-      </c>
-      <c r="G532" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="534" spans="1:7">
-      <c r="C534" t="s">
-        <v>1702</v>
-      </c>
-      <c r="G534" t="s">
+      <c r="G539" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="C541" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="536" spans="1:7">
-      <c r="C536" t="s">
-        <v>1705</v>
-      </c>
-      <c r="G536" t="s">
+      <c r="G541" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543" s="36" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
-      <c r="C538" t="s">
-        <v>1706</v>
-      </c>
-      <c r="G538" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="540" spans="1:7">
-      <c r="A540" s="36" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="541" spans="1:7">
-      <c r="A541" s="36"/>
-    </row>
-    <row r="542" spans="1:7">
-      <c r="A542" s="36"/>
-      <c r="B542" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7">
-      <c r="A543" s="36"/>
-    </row>
-    <row r="545" spans="2:16">
+    <row r="544" spans="1:7">
+      <c r="A544" s="36"/>
+    </row>
+    <row r="545" spans="1:16">
+      <c r="A545" s="36"/>
       <c r="B545" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="547" spans="2:16">
-      <c r="B547" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="548" spans="2:16">
-      <c r="D548" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="549" spans="2:16">
-      <c r="D549" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="551" spans="2:16">
-      <c r="E551" t="s">
-        <v>1788</v>
-      </c>
-      <c r="G551" t="s">
-        <v>1789</v>
-      </c>
-      <c r="N551" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="552" spans="2:16">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16">
+      <c r="A546" s="36"/>
+    </row>
+    <row r="548" spans="1:16">
+      <c r="B548" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16">
+      <c r="B550" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16">
+      <c r="D551" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16">
       <c r="D552" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16">
+      <c r="E554" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G554" t="s">
+        <v>1785</v>
+      </c>
+      <c r="N554" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16">
+      <c r="D555" t="s">
         <v>45</v>
       </c>
-      <c r="K552" t="s">
+      <c r="K555" t="s">
+        <v>1817</v>
+      </c>
+      <c r="L555" t="s">
+        <v>1815</v>
+      </c>
+      <c r="M555" t="s">
+        <v>1816</v>
+      </c>
+      <c r="N555" t="s">
+        <v>1815</v>
+      </c>
+      <c r="O555" t="s">
+        <v>1816</v>
+      </c>
+      <c r="P555" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16">
+      <c r="K556" t="s">
+        <v>1818</v>
+      </c>
+      <c r="L556" t="s">
+        <v>1819</v>
+      </c>
+      <c r="M556" t="s">
+        <v>1826</v>
+      </c>
+      <c r="N556" t="s">
+        <v>1820</v>
+      </c>
+      <c r="O556" t="s">
         <v>1821</v>
       </c>
-      <c r="L552" t="s">
+      <c r="P556" t="s">
         <v>1819</v>
       </c>
-      <c r="M552" t="s">
-        <v>1820</v>
-      </c>
-      <c r="N552" t="s">
-        <v>1819</v>
-      </c>
-      <c r="O552" t="s">
-        <v>1820</v>
-      </c>
-      <c r="P552" t="s">
+    </row>
+    <row r="557" spans="1:16">
+      <c r="B557" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16">
+      <c r="B558" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16">
+      <c r="B559" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
+      <c r="B561" t="s">
         <v>1832</v>
-      </c>
-    </row>
-    <row r="553" spans="2:16">
-      <c r="K553" t="s">
-        <v>1822</v>
-      </c>
-      <c r="L553" t="s">
-        <v>1823</v>
-      </c>
-      <c r="M553" t="s">
-        <v>1831</v>
-      </c>
-      <c r="N553" t="s">
-        <v>1824</v>
-      </c>
-      <c r="O553" t="s">
-        <v>1825</v>
-      </c>
-      <c r="P553" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="554" spans="2:16">
-      <c r="B554" s="47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="555" spans="2:16">
-      <c r="B555" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="556" spans="2:16">
-      <c r="B556" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="558" spans="2:16">
-      <c r="B558" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="559" spans="2:16">
-      <c r="B559" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="562" spans="1:7">
       <c r="B562" t="s">
-        <v>1843</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="565" spans="1:7">
       <c r="B565" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="566" spans="1:7">
-      <c r="G566" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="567" spans="1:7">
-      <c r="C567" s="58" t="s">
-        <v>1845</v>
-      </c>
-      <c r="D567" s="43"/>
-      <c r="E567" s="43"/>
-      <c r="F567" s="43"/>
+        <v>1838</v>
+      </c>
     </row>
     <row r="568" spans="1:7">
-      <c r="C568" s="58" t="s">
-        <v>1846</v>
-      </c>
-      <c r="D568" s="43"/>
-      <c r="E568" s="43"/>
-      <c r="F568" s="43"/>
+      <c r="B568" t="s">
+        <v>1839</v>
+      </c>
     </row>
     <row r="569" spans="1:7">
-      <c r="C569" s="58" t="s">
+      <c r="G569" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7">
+      <c r="C570" s="58" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D570" s="43"/>
+      <c r="E570" s="43"/>
+      <c r="F570" s="43"/>
+    </row>
+    <row r="571" spans="1:7">
+      <c r="C571" s="58" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D571" s="43"/>
+      <c r="E571" s="43"/>
+      <c r="F571" s="43"/>
+    </row>
+    <row r="572" spans="1:7">
+      <c r="C572" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D569" s="43"/>
-      <c r="E569" s="43"/>
-      <c r="F569" s="43"/>
-    </row>
-    <row r="570" spans="1:7">
-      <c r="C570" s="82"/>
-    </row>
-    <row r="571" spans="1:7">
-      <c r="A571" s="36" t="s">
-        <v>1710</v>
-      </c>
+      <c r="D572" s="43"/>
+      <c r="E572" s="43"/>
+      <c r="F572" s="43"/>
     </row>
     <row r="573" spans="1:7">
-      <c r="A573" s="36" t="s">
-        <v>1711</v>
-      </c>
+      <c r="C573" s="82"/>
     </row>
     <row r="574" spans="1:7">
-      <c r="B574" s="43" t="s">
-        <v>1712</v>
+      <c r="A574" s="36" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="576" spans="1:7">
       <c r="A576" s="36" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="B577" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2">
-      <c r="B578" t="s">
-        <v>1715</v>
+      <c r="B577" s="43" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="579" spans="1:2">
-      <c r="B579" t="s">
-        <v>1716</v>
+      <c r="A579" s="36" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="B580" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="B581" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="B582" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="B583" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
-      <c r="A582" s="36" t="s">
+    <row r="585" spans="1:2">
+      <c r="A585" s="36" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="36" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="36" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
-      <c r="A584" s="36" t="s">
+    <row r="591" spans="1:2">
+      <c r="B591" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="586" spans="1:2">
-      <c r="A586" s="36" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2">
-      <c r="B588" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="595" spans="2:11">
-      <c r="B595" s="84" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C595" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="596" spans="2:11">
-      <c r="C596" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="597" spans="2:11">
-      <c r="D597" t="s">
-        <v>1747</v>
+    <row r="598" spans="2:11">
+      <c r="B598" s="84" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="599" spans="2:11">
       <c r="C599" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="601" spans="2:11">
-      <c r="D601" t="s">
-        <v>1811</v>
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="600" spans="2:11">
+      <c r="D600" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="602" spans="2:11">
-      <c r="D602" t="s">
-        <v>1812</v>
+      <c r="C602" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="604" spans="2:11">
+      <c r="D604" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="605" spans="2:11">
-      <c r="C605" t="s">
+      <c r="D605" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="608" spans="2:11">
+      <c r="C608" t="s">
         <v>1447</v>
       </c>
-      <c r="E605" t="s">
-        <v>1738</v>
-      </c>
-      <c r="K605" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="606" spans="2:11">
-      <c r="E606" t="s">
-        <v>1740</v>
-      </c>
-      <c r="K606" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="607" spans="2:11">
-      <c r="E607" t="s">
-        <v>1742</v>
-      </c>
-      <c r="K607" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="608" spans="2:11">
       <c r="E608" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
       <c r="K608" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="609" spans="2:11">
       <c r="E609" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="K609" t="s">
-        <v>1744</v>
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="610" spans="2:11">
+      <c r="E610" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K610" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="611" spans="2:11">
+      <c r="E611" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K611" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="612" spans="2:11">
-      <c r="C612" t="s">
+      <c r="E612" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K612" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="615" spans="2:11">
+      <c r="C615" t="s">
         <v>1489</v>
       </c>
-      <c r="E612" t="s">
+      <c r="E615" t="s">
+        <v>1746</v>
+      </c>
+      <c r="K615" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="616" spans="2:11">
+      <c r="E616" t="s">
+        <v>1747</v>
+      </c>
+      <c r="K616" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="617" spans="2:11">
+      <c r="E617" t="s">
         <v>1748</v>
       </c>
-      <c r="K612" t="s">
+      <c r="K617" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="613" spans="2:11">
-      <c r="E613" t="s">
-        <v>1749</v>
-      </c>
-      <c r="K613" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="614" spans="2:11">
-      <c r="E614" t="s">
-        <v>1750</v>
-      </c>
-      <c r="K614" t="s">
+    <row r="620" spans="2:11">
+      <c r="B620" s="84" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="617" spans="2:11">
-      <c r="B617" s="84" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="618" spans="2:11">
-      <c r="C618" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="620" spans="2:11">
-      <c r="C620" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E620" t="s">
-        <v>1757</v>
+    <row r="621" spans="2:11">
+      <c r="C621" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="623" spans="2:11">
       <c r="C623" t="s">
-        <v>1511</v>
+        <v>1447</v>
       </c>
       <c r="E623" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="C626" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E626" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H626" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
+      <c r="B628" s="90" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
+      <c r="C629" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
+      <c r="D631" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="E632" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
+      <c r="A638" s="36" t="s">
         <v>1758</v>
       </c>
-      <c r="H623" t="s">
+    </row>
+    <row r="640" spans="1:8">
+      <c r="B640" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6">
+      <c r="B642" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6">
+      <c r="C643" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
-      <c r="B625" s="90" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="626" spans="1:5">
-      <c r="C626" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="628" spans="1:5">
-      <c r="D628" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="629" spans="1:5">
-      <c r="E629" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="635" spans="1:5">
-      <c r="A635" s="36" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="637" spans="1:5">
-      <c r="B637" t="s">
+    <row r="647" spans="1:6">
+      <c r="A647" s="57" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B647" s="57" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="639" spans="1:5">
-      <c r="B639" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="640" spans="1:5">
-      <c r="C640" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="644" spans="1:6">
-      <c r="A644" s="57" t="s">
+      <c r="C647" s="57"/>
+    </row>
+    <row r="648" spans="1:6">
+      <c r="B648" s="86" t="s">
         <v>1763</v>
       </c>
-      <c r="B644" s="57" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C644" s="57"/>
-    </row>
-    <row r="645" spans="1:6">
-      <c r="B645" s="86" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C645" s="86" t="s">
+      <c r="C648" s="86" t="s">
         <v>1428</v>
       </c>
-      <c r="D645" s="85" t="s">
+      <c r="D648" s="85" t="s">
         <v>649</v>
-      </c>
-    </row>
-    <row r="646" spans="1:6">
-      <c r="A646" s="85">
-        <v>1</v>
-      </c>
-      <c r="B646" s="70" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C646" s="70" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D646" t="s">
-        <v>98</v>
-      </c>
-      <c r="F646" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="647" spans="1:6">
-      <c r="A647" s="85">
-        <v>2</v>
-      </c>
-      <c r="B647" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="C647" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="D647" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="648" spans="1:6">
-      <c r="A648" s="85">
-        <v>3</v>
-      </c>
-      <c r="B648" s="70" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C648" s="70" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D648" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="649" spans="1:6">
       <c r="A649" s="85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B649" s="70" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
       <c r="C649" s="70" t="s">
-        <v>1771</v>
+        <v>1384</v>
       </c>
       <c r="D649" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="F649" t="s">
+        <v>1780</v>
       </c>
     </row>
     <row r="650" spans="1:6">
       <c r="A650" s="85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B650" s="70" t="s">
-        <v>1772</v>
+        <v>220</v>
       </c>
       <c r="C650" s="70" t="s">
-        <v>1778</v>
+        <v>220</v>
       </c>
       <c r="D650" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="651" spans="1:6">
       <c r="A651" s="85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B651" s="70" t="s">
-        <v>340</v>
+        <v>1374</v>
       </c>
       <c r="C651" s="70" t="s">
-        <v>213</v>
+        <v>1374</v>
       </c>
       <c r="D651" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="652" spans="1:6">
       <c r="A652" s="85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B652" s="70" t="s">
-        <v>215</v>
+        <v>1767</v>
       </c>
       <c r="C652" s="70" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
       <c r="D652" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="653" spans="1:6">
       <c r="A653" s="85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B653" s="70" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="C653" s="70" t="s">
-        <v>1375</v>
+        <v>1774</v>
       </c>
       <c r="D653" t="s">
         <v>98</v>
       </c>
-      <c r="F653" s="88" t="s">
-        <v>1785</v>
-      </c>
     </row>
     <row r="654" spans="1:6">
       <c r="A654" s="85">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B654" s="70" t="s">
-        <v>1378</v>
+        <v>340</v>
       </c>
       <c r="C654" s="70" t="s">
-        <v>1378</v>
+        <v>213</v>
       </c>
       <c r="D654" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="655" spans="1:6">
       <c r="A655" s="85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B655" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C655" s="70" t="s">
-        <v>216</v>
+        <v>1775</v>
       </c>
       <c r="D655" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="656" spans="1:6">
       <c r="A656" s="85">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B656" s="70" t="s">
-        <v>216</v>
+        <v>1769</v>
       </c>
       <c r="C656" s="70" t="s">
-        <v>223</v>
+        <v>1375</v>
       </c>
       <c r="D656" t="s">
         <v>98</v>
       </c>
+      <c r="F656" s="88" t="s">
+        <v>1781</v>
+      </c>
     </row>
     <row r="657" spans="1:6">
       <c r="A657" s="85">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B657" s="70" t="s">
-        <v>257</v>
+        <v>1378</v>
       </c>
       <c r="C657" s="70" t="s">
-        <v>213</v>
+        <v>1378</v>
       </c>
       <c r="D657" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="658" spans="1:6">
       <c r="A658" s="85">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B658" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C658" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D658" t="s">
         <v>49</v>
@@ -25058,27 +25853,27 @@
     </row>
     <row r="659" spans="1:6">
       <c r="A659" s="85">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B659" s="70" t="s">
         <v>216</v>
       </c>
       <c r="C659" s="70" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D659" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="660" spans="1:6">
       <c r="A660" s="85">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B660" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C660" s="70" t="s">
         <v>213</v>
-      </c>
-      <c r="C660" s="70" t="s">
-        <v>217</v>
       </c>
       <c r="D660" t="s">
         <v>98</v>
@@ -25086,72 +25881,72 @@
     </row>
     <row r="661" spans="1:6">
       <c r="A661" s="85">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B661" s="70" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="C661" s="70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D661" t="s">
-        <v>98</v>
-      </c>
-      <c r="E661" t="s">
-        <v>1786</v>
+        <v>49</v>
       </c>
     </row>
     <row r="662" spans="1:6">
       <c r="A662" s="85">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B662" s="70" t="s">
-        <v>1381</v>
+        <v>216</v>
       </c>
       <c r="C662" s="70" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D662" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="663" spans="1:6">
       <c r="A663" s="85">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B663" s="70" t="s">
-        <v>1774</v>
+        <v>213</v>
       </c>
       <c r="C663" s="70" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D663" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="664" spans="1:6">
       <c r="A664" s="85">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B664" s="70" t="s">
-        <v>1381</v>
+        <v>257</v>
       </c>
       <c r="C664" s="70" t="s">
-        <v>1780</v>
+        <v>216</v>
       </c>
       <c r="D664" t="s">
         <v>98</v>
       </c>
+      <c r="E664" t="s">
+        <v>1782</v>
+      </c>
     </row>
     <row r="665" spans="1:6">
       <c r="A665" s="85">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B665" s="70" t="s">
-        <v>1775</v>
+        <v>1381</v>
       </c>
       <c r="C665" s="70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D665" t="s">
         <v>98</v>
@@ -25159,126 +25954,126 @@
     </row>
     <row r="666" spans="1:6">
       <c r="A666" s="85">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B666" s="70" t="s">
-        <v>688</v>
+        <v>1770</v>
       </c>
       <c r="C666" s="70" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="D666" t="s">
-        <v>98</v>
-      </c>
-      <c r="F666" t="s">
-        <v>1791</v>
+        <v>49</v>
       </c>
     </row>
     <row r="667" spans="1:6">
       <c r="A667" s="85">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B667" s="70" t="s">
-        <v>213</v>
+        <v>1381</v>
       </c>
       <c r="C667" s="70" t="s">
-        <v>217</v>
+        <v>1776</v>
       </c>
       <c r="D667" t="s">
         <v>98</v>
       </c>
-      <c r="E667" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F667" t="s">
-        <v>1792</v>
-      </c>
     </row>
     <row r="668" spans="1:6">
       <c r="A668" s="85">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B668" s="70" t="s">
-        <v>213</v>
+        <v>1771</v>
       </c>
       <c r="C668" s="70" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D668" t="s">
         <v>98</v>
       </c>
-      <c r="F668" t="s">
-        <v>1793</v>
-      </c>
     </row>
     <row r="669" spans="1:6">
       <c r="A669" s="85">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B669" s="70" t="s">
-        <v>1378</v>
+        <v>688</v>
       </c>
       <c r="C669" s="70" t="s">
-        <v>1375</v>
+        <v>257</v>
       </c>
       <c r="D669" t="s">
         <v>98</v>
       </c>
       <c r="F669" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="670" spans="1:6">
       <c r="A670" s="85">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B670" s="70" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C670" s="70" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D670" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E670" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F670" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="671" spans="1:6">
       <c r="A671" s="85">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B671" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C671" s="70" t="s">
         <v>222</v>
       </c>
       <c r="D671" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="F671" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="672" spans="1:6">
       <c r="A672" s="85">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B672" s="70" t="s">
-        <v>257</v>
+        <v>1378</v>
       </c>
       <c r="C672" s="70" t="s">
-        <v>257</v>
+        <v>1375</v>
       </c>
       <c r="D672" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="F672" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="673" spans="1:6">
       <c r="A673" s="85">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B673" s="70" t="s">
-        <v>1777</v>
+        <v>221</v>
       </c>
       <c r="C673" s="70" t="s">
-        <v>1777</v>
+        <v>221</v>
       </c>
       <c r="D673" t="s">
         <v>49</v>
@@ -25286,103 +26081,100 @@
     </row>
     <row r="674" spans="1:6">
       <c r="A674" s="85">
+        <v>26</v>
+      </c>
+      <c r="B674" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C674" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D674" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6">
+      <c r="A675" s="85">
+        <v>27</v>
+      </c>
+      <c r="B675" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C675" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D675" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6">
+      <c r="A676" s="85">
+        <v>28</v>
+      </c>
+      <c r="B676" s="70" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C676" s="70" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D676" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6">
+      <c r="A677" s="85">
         <v>29</v>
       </c>
-      <c r="B674" s="70" t="s">
+      <c r="B677" s="70" t="s">
         <v>638</v>
       </c>
-      <c r="C674" s="70" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D674" t="s">
+      <c r="C677" s="70" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D677" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="676" spans="1:6">
-      <c r="A676" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C676" s="87">
+    <row r="679" spans="1:6">
+      <c r="A679" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C679" s="87">
         <v>0.34</v>
       </c>
-      <c r="D676" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="678" spans="1:6">
-      <c r="A678" s="57" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B678" s="57" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C678" s="39"/>
-    </row>
-    <row r="680" spans="1:6">
-      <c r="B680" s="86" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C680" s="86" t="s">
+      <c r="D679" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6">
+      <c r="A681" s="57" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B681" s="57" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C681" s="39"/>
+    </row>
+    <row r="683" spans="1:6">
+      <c r="B683" s="86" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C683" s="86" t="s">
         <v>1428</v>
       </c>
-      <c r="D680" s="85" t="s">
+      <c r="D683" s="85" t="s">
         <v>649</v>
-      </c>
-    </row>
-    <row r="681" spans="1:6">
-      <c r="A681" s="85">
-        <v>1</v>
-      </c>
-      <c r="B681" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C681" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="D681" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="682" spans="1:6">
-      <c r="A682" s="85">
-        <v>2</v>
-      </c>
-      <c r="B682" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C682" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="D682" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="683" spans="1:6">
-      <c r="A683" s="85">
-        <v>3</v>
-      </c>
-      <c r="B683" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C683" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D683" t="s">
-        <v>98</v>
-      </c>
-      <c r="F683" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="684" spans="1:6">
       <c r="A684" s="85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B684" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C684" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D684" t="s">
         <v>49</v>
@@ -25390,7 +26182,7 @@
     </row>
     <row r="685" spans="1:6">
       <c r="A685" s="85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B685" s="70" t="s">
         <v>216</v>
@@ -25404,35 +26196,38 @@
     </row>
     <row r="686" spans="1:6">
       <c r="A686" s="85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B686" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C686" s="70" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="D686" t="s">
         <v>98</v>
       </c>
+      <c r="F686" t="s">
+        <v>1830</v>
+      </c>
     </row>
     <row r="687" spans="1:6">
       <c r="A687" s="85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B687" s="70" t="s">
         <v>213</v>
       </c>
       <c r="C687" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D687" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="688" spans="1:6">
       <c r="A688" s="85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B688" s="70" t="s">
         <v>216</v>
@@ -25446,58 +26241,55 @@
     </row>
     <row r="689" spans="1:6">
       <c r="A689" s="85">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B689" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C689" s="70" t="s">
         <v>257</v>
       </c>
       <c r="D689" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="690" spans="1:6">
       <c r="A690" s="85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B690" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C690" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D690" t="s">
-        <v>49</v>
-      </c>
-      <c r="E690" t="s">
-        <v>1833</v>
+        <v>98</v>
       </c>
     </row>
     <row r="691" spans="1:6">
       <c r="A691" s="85">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B691" s="70" t="s">
-        <v>340</v>
+        <v>216</v>
       </c>
       <c r="C691" s="70" t="s">
         <v>216</v>
       </c>
       <c r="D691" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="692" spans="1:6">
       <c r="A692" s="85">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B692" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C692" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D692" t="s">
         <v>49</v>
@@ -25505,41 +26297,44 @@
     </row>
     <row r="693" spans="1:6">
       <c r="A693" s="85">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B693" s="70" t="s">
         <v>222</v>
       </c>
       <c r="C693" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D693" t="s">
-        <v>98</v>
+        <v>49</v>
+      </c>
+      <c r="E693" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="694" spans="1:6">
       <c r="A694" s="85">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B694" s="70" t="s">
-        <v>222</v>
+        <v>340</v>
       </c>
       <c r="C694" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D694" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="695" spans="1:6">
       <c r="A695" s="85">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B695" s="70" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="C695" s="70" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="D695" t="s">
         <v>49</v>
@@ -25547,27 +26342,27 @@
     </row>
     <row r="696" spans="1:6">
       <c r="A696" s="85">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B696" s="70" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C696" s="70" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="D696" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="697" spans="1:6">
       <c r="A697" s="85">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B697" s="70" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C697" s="70" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D697" t="s">
         <v>49</v>
@@ -25575,13 +26370,13 @@
     </row>
     <row r="698" spans="1:6">
       <c r="A698" s="85">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B698" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C698" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D698" t="s">
         <v>49</v>
@@ -25589,7 +26384,7 @@
     </row>
     <row r="699" spans="1:6">
       <c r="A699" s="85">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B699" s="70" t="s">
         <v>216</v>
@@ -25603,30 +26398,27 @@
     </row>
     <row r="700" spans="1:6">
       <c r="A700" s="85">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B700" s="70" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="C700" s="70" t="s">
         <v>213</v>
       </c>
       <c r="D700" t="s">
-        <v>98</v>
-      </c>
-      <c r="F700" t="s">
-        <v>1856</v>
+        <v>49</v>
       </c>
     </row>
     <row r="701" spans="1:6">
       <c r="A701" s="85">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B701" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C701" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D701" t="s">
         <v>49</v>
@@ -25634,13 +26426,13 @@
     </row>
     <row r="702" spans="1:6">
       <c r="A702" s="85">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B702" s="70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C702" s="70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D702" t="s">
         <v>49</v>
@@ -25648,41 +26440,44 @@
     </row>
     <row r="703" spans="1:6">
       <c r="A703" s="85">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B703" s="70" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C703" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D703" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="F703" t="s">
+        <v>1851</v>
       </c>
     </row>
     <row r="704" spans="1:6">
       <c r="A704" s="85">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B704" s="70" t="s">
         <v>257</v>
       </c>
       <c r="C704" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D704" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="705" spans="1:6">
       <c r="A705" s="85">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B705" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C705" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D705" t="s">
         <v>49</v>
@@ -25690,13 +26485,13 @@
     </row>
     <row r="706" spans="1:6">
       <c r="A706" s="85">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B706" s="70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C706" s="70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D706" t="s">
         <v>49</v>
@@ -25704,13 +26499,13 @@
     </row>
     <row r="707" spans="1:6">
       <c r="A707" s="85">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B707" s="70" t="s">
         <v>257</v>
       </c>
       <c r="C707" s="70" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D707" t="s">
         <v>98</v>
@@ -25718,13 +26513,13 @@
     </row>
     <row r="708" spans="1:6">
       <c r="A708" s="85">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B708" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C708" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D708" t="s">
         <v>49</v>
@@ -25732,13 +26527,13 @@
     </row>
     <row r="709" spans="1:6">
       <c r="A709" s="85">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B709" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C709" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D709" t="s">
         <v>49</v>
@@ -25746,55 +26541,55 @@
     </row>
     <row r="710" spans="1:6">
       <c r="A710" s="85">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B710" s="70" t="s">
         <v>257</v>
       </c>
       <c r="C710" s="70" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D710" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="711" spans="1:6">
       <c r="A711" s="85">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B711" s="70" t="s">
         <v>257</v>
       </c>
       <c r="C711" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D711" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="712" spans="1:6">
       <c r="A712" s="85">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B712" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C712" s="70" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D712" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="713" spans="1:6">
       <c r="A713" s="85">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B713" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C713" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D713" t="s">
         <v>49</v>
@@ -25802,72 +26597,72 @@
     </row>
     <row r="714" spans="1:6">
       <c r="A714" s="85">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B714" s="70" t="s">
-        <v>1472</v>
+        <v>257</v>
       </c>
       <c r="C714" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D714" t="s">
         <v>98</v>
       </c>
-      <c r="F714" t="s">
-        <v>1857</v>
-      </c>
     </row>
     <row r="715" spans="1:6">
       <c r="A715" s="85">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B715" s="70" t="s">
         <v>257</v>
       </c>
       <c r="C715" s="70" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D715" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="716" spans="1:6">
       <c r="A716" s="85">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B716" s="70" t="s">
         <v>222</v>
       </c>
       <c r="C716" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D716" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="717" spans="1:6">
       <c r="A717" s="85">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B717" s="70" t="s">
-        <v>213</v>
+        <v>1472</v>
       </c>
       <c r="C717" s="70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D717" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="F717" t="s">
+        <v>1852</v>
       </c>
     </row>
     <row r="718" spans="1:6">
       <c r="A718" s="85">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B718" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C718" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D718" t="s">
         <v>49</v>
@@ -25875,27 +26670,27 @@
     </row>
     <row r="719" spans="1:6">
       <c r="A719" s="85">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B719" s="70" t="s">
         <v>222</v>
       </c>
       <c r="C719" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D719" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="720" spans="1:6">
       <c r="A720" s="85">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B720" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C720" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D720" t="s">
         <v>49</v>
@@ -25903,13 +26698,13 @@
     </row>
     <row r="721" spans="1:6">
       <c r="A721" s="85">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B721" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C721" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D721" t="s">
         <v>49</v>
@@ -25917,13 +26712,13 @@
     </row>
     <row r="722" spans="1:6">
       <c r="A722" s="85">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B722" s="70" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C722" s="70" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D722" t="s">
         <v>49</v>
@@ -25931,13 +26726,13 @@
     </row>
     <row r="723" spans="1:6">
       <c r="A723" s="85">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B723" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C723" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D723" t="s">
         <v>49</v>
@@ -25945,72 +26740,69 @@
     </row>
     <row r="724" spans="1:6">
       <c r="A724" s="85">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B724" s="70" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C724" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D724" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="725" spans="1:6">
       <c r="A725" s="85">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B725" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C725" s="70" t="s">
         <v>213</v>
       </c>
       <c r="D725" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="726" spans="1:6">
       <c r="A726" s="85">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B726" s="70" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C726" s="70" t="s">
         <v>222</v>
       </c>
       <c r="D726" t="s">
-        <v>98</v>
-      </c>
-      <c r="F726" t="s">
-        <v>1862</v>
+        <v>49</v>
       </c>
     </row>
     <row r="727" spans="1:6">
       <c r="A727" s="85">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B727" s="70" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C727" s="70" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="D727" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="728" spans="1:6">
       <c r="A728" s="85">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B728" s="70" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C728" s="70" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D728" t="s">
         <v>98</v>
@@ -26018,187 +26810,232 @@
     </row>
     <row r="729" spans="1:6">
       <c r="A729" s="85">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B729" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C729" s="70" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D729" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="F729" t="s">
+        <v>1857</v>
       </c>
     </row>
     <row r="730" spans="1:6">
       <c r="A730" s="85">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B730" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C730" s="70" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D730" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="731" spans="1:6">
+      <c r="A731" s="85">
+        <v>48</v>
+      </c>
+      <c r="B731" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C731" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D731" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="732" spans="1:6">
-      <c r="A732" t="s">
-        <v>1834</v>
+      <c r="A732" s="85">
+        <v>49</v>
+      </c>
+      <c r="B732" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C732" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D732" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="733" spans="1:6">
-      <c r="A733" t="s">
+      <c r="A733" s="85">
+        <v>50</v>
+      </c>
+      <c r="B733" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C733" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D733" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6">
+      <c r="A735" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6">
+      <c r="A736" t="s">
         <v>675</v>
       </c>
-      <c r="B733" s="87">
+      <c r="B736" s="87">
         <v>0.68</v>
       </c>
     </row>
-    <row r="736" spans="1:6">
-      <c r="A736" s="57" t="s">
-        <v>1863</v>
-      </c>
-      <c r="B736" s="36"/>
-    </row>
-    <row r="738" spans="1:6">
-      <c r="A738" s="91" t="s">
+    <row r="739" spans="1:6">
+      <c r="A739" s="57" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B739" s="36"/>
+    </row>
+    <row r="741" spans="1:6">
+      <c r="A741" s="91" t="s">
         <v>1353</v>
       </c>
-      <c r="B738" s="91" t="s">
+      <c r="B741" s="91" t="s">
         <v>647</v>
       </c>
-      <c r="C738" s="91" t="s">
+      <c r="C741" s="91" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="739" spans="1:6">
-      <c r="A739" s="70">
-        <v>1</v>
-      </c>
-      <c r="B739" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C739" s="70"/>
-    </row>
-    <row r="740" spans="1:6">
-      <c r="A740" s="70">
-        <v>2</v>
-      </c>
-      <c r="B740" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C740" s="70"/>
-    </row>
-    <row r="741" spans="1:6">
-      <c r="A741" s="70">
-        <v>3</v>
-      </c>
-      <c r="B741" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C741" s="70"/>
     </row>
     <row r="742" spans="1:6">
       <c r="A742" s="70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B742" s="70" t="s">
-        <v>1864</v>
+        <v>213</v>
       </c>
       <c r="C742" s="70"/>
-      <c r="E742" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F742" t="s">
-        <v>1866</v>
-      </c>
     </row>
     <row r="743" spans="1:6">
       <c r="A743" s="70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B743" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C743" s="70"/>
-      <c r="F743" t="s">
-        <v>1865</v>
-      </c>
     </row>
     <row r="744" spans="1:6">
       <c r="A744" s="70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B744" s="70" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C744" s="70"/>
-      <c r="F744" t="s">
-        <v>1867</v>
-      </c>
     </row>
     <row r="745" spans="1:6">
       <c r="A745" s="70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B745" s="70" t="s">
-        <v>1869</v>
+        <v>1859</v>
       </c>
       <c r="C745" s="70"/>
+      <c r="E745" t="s">
+        <v>1860</v>
+      </c>
       <c r="F745" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="746" spans="1:6">
       <c r="A746" s="70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B746" s="70" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C746" s="70"/>
+      <c r="F746" t="s">
+        <v>1860</v>
+      </c>
     </row>
     <row r="747" spans="1:6">
       <c r="A747" s="70">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B747" s="70" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C747" s="70"/>
+      <c r="F747" t="s">
+        <v>1862</v>
+      </c>
     </row>
     <row r="748" spans="1:6">
       <c r="A748" s="70">
+        <v>7</v>
+      </c>
+      <c r="B748" s="70" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C748" s="70"/>
+      <c r="F748" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6">
+      <c r="A749" s="70">
+        <v>8</v>
+      </c>
+      <c r="B749" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C749" s="70"/>
+    </row>
+    <row r="750" spans="1:6">
+      <c r="A750" s="70">
+        <v>9</v>
+      </c>
+      <c r="B750" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C750" s="70"/>
+    </row>
+    <row r="751" spans="1:6">
+      <c r="A751" s="70">
         <v>10</v>
       </c>
-      <c r="B748" s="70" t="s">
+      <c r="B751" s="70" t="s">
         <v>688</v>
       </c>
-      <c r="C748" s="70"/>
-    </row>
-    <row r="749" spans="1:6">
-      <c r="E749">
+      <c r="C751" s="70"/>
+    </row>
+    <row r="752" spans="1:6">
+      <c r="E752">
         <v>10</v>
       </c>
-      <c r="F749">
+      <c r="F752">
         <v>20</v>
       </c>
     </row>
-    <row r="750" spans="1:6">
-      <c r="F750">
+    <row r="753" spans="6:6">
+      <c r="F753">
         <v>10</v>
       </c>
     </row>
-    <row r="751" spans="1:6">
-      <c r="F751">
+    <row r="754" spans="6:6">
+      <c r="F754">
         <v>11</v>
       </c>
     </row>
-    <row r="752" spans="1:6">
-      <c r="F752">
+    <row r="755" spans="6:6">
+      <c r="F755">
         <v>10</v>
       </c>
     </row>
@@ -26211,10 +27048,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:K518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G509" sqref="G509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26224,63 +27061,63 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="94" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="94" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="94" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="C24" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="C28" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="C29" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="E32" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="33" spans="3:6">
@@ -26290,17 +27127,17 @@
     </row>
     <row r="35" spans="3:6">
       <c r="D35" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="E36" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="F37" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="38" spans="3:6">
@@ -26315,27 +27152,27 @@
     </row>
     <row r="41" spans="3:6">
       <c r="C41" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="D45" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="E46" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -26346,17 +27183,17 @@
     <row r="48" spans="3:6" ht="14.25" customHeight="1"/>
     <row r="49" spans="2:7">
       <c r="D49" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="E50" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="F51" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -26366,10 +27203,10 @@
     </row>
     <row r="54" spans="2:7">
       <c r="E54" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="G54" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -26384,96 +27221,96 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="C59" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="C60" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="D71" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="D72" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="94" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="93" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C76" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="D77" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="F77" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="F78" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="C80" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="C82" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="C84" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="C86" s="47" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="C87" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="94" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="C93" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -26483,15 +27320,15 @@
     </row>
     <row r="96" spans="1:3">
       <c r="B96" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="C98" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="G98" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -26499,55 +27336,55 @@
         <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="94" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="B103" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="94" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="94" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="D113" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="114" spans="2:7">
       <c r="D114" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="119" spans="2:7">
       <c r="C119" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="120" spans="2:7">
       <c r="D120" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="121" spans="2:7">
@@ -26562,15 +27399,15 @@
     </row>
     <row r="124" spans="2:7">
       <c r="B124" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="126" spans="2:7">
       <c r="C126" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="G126" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="127" spans="2:7">
@@ -26590,27 +27427,1502 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="94" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="B133" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="B134" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="B136" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="B137" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4">
+      <c r="C160" s="36" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="D161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="94" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="B167" s="36" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="C169" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="C171" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="C173" t="s">
+        <v>2008</v>
+      </c>
+      <c r="H173" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="D175" s="57" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="177" spans="3:10">
+      <c r="E177" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J177" s="57" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="178" spans="3:10">
+      <c r="F178" t="s">
+        <v>1956</v>
+      </c>
+      <c r="J178" s="57" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="179" spans="3:10">
+      <c r="F179" t="s">
         <v>1957</v>
+      </c>
+    </row>
+    <row r="180" spans="3:10">
+      <c r="G180" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J180" s="57" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="181" spans="3:10">
+      <c r="F181" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="3:10">
+      <c r="F183" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J183" s="57" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="184" spans="3:10">
+      <c r="F184" t="s">
+        <v>2010</v>
+      </c>
+      <c r="J184" s="57" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="185" spans="3:10">
+      <c r="E185" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186" spans="3:10">
+      <c r="D186" s="92" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="187" spans="3:10">
+      <c r="E187" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="188" spans="3:10">
+      <c r="F188" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="189" spans="3:10">
+      <c r="F189" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="190" spans="3:10">
+      <c r="E190" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="3:10">
+      <c r="C192" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="193" spans="3:10">
+      <c r="C193" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="195" spans="3:10">
+      <c r="D195" s="57" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="196" spans="3:10">
+      <c r="E196" s="96" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F196" s="95"/>
+      <c r="G196" s="95"/>
+      <c r="H196" s="95"/>
+    </row>
+    <row r="197" spans="3:10">
+      <c r="E197" s="96" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F197" s="95"/>
+      <c r="G197" s="95"/>
+      <c r="H197" s="95"/>
+      <c r="J197" s="57" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="198" spans="3:10">
+      <c r="E198" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F198" s="95"/>
+      <c r="G198" s="95"/>
+      <c r="H198" s="95"/>
+    </row>
+    <row r="201" spans="3:10">
+      <c r="D201" s="57" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="203" spans="3:10">
+      <c r="E203" s="58" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F203" s="43"/>
+      <c r="G203" s="43"/>
+      <c r="H203" s="43"/>
+      <c r="I203" s="43"/>
+    </row>
+    <row r="204" spans="3:10">
+      <c r="E204" s="58" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F204" s="43"/>
+      <c r="G204" s="43"/>
+      <c r="H204" s="43"/>
+      <c r="I204" s="43"/>
+    </row>
+    <row r="205" spans="3:10">
+      <c r="E205" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F205" s="43"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="43"/>
+      <c r="I205" s="43"/>
+    </row>
+    <row r="206" spans="3:10">
+      <c r="E206" s="43"/>
+      <c r="F206" s="43"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="43"/>
+      <c r="I206" s="43"/>
+    </row>
+    <row r="208" spans="3:10">
+      <c r="E208" s="97" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F208" s="97"/>
+      <c r="G208" s="97"/>
+      <c r="H208" s="97"/>
+    </row>
+    <row r="209" spans="3:10">
+      <c r="E209" s="97"/>
+      <c r="F209" s="97"/>
+      <c r="G209" s="97"/>
+      <c r="H209" s="97"/>
+    </row>
+    <row r="210" spans="3:10">
+      <c r="E210" s="97" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F210" s="97"/>
+      <c r="G210" s="97"/>
+      <c r="H210" s="97"/>
+    </row>
+    <row r="211" spans="3:10">
+      <c r="E211" s="97" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F211" s="97"/>
+      <c r="G211" s="97"/>
+      <c r="H211" s="97"/>
+      <c r="J211" s="57" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="212" spans="3:10">
+      <c r="E212" s="97"/>
+      <c r="F212" s="97"/>
+      <c r="G212" s="97"/>
+      <c r="H212" s="97"/>
+    </row>
+    <row r="213" spans="3:10">
+      <c r="E213" s="97" t="s">
+        <v>620</v>
+      </c>
+      <c r="F213" s="97"/>
+      <c r="G213" s="97"/>
+      <c r="H213" s="97"/>
+    </row>
+    <row r="214" spans="3:10">
+      <c r="E214" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F214" s="97"/>
+      <c r="G214" s="97"/>
+      <c r="H214" s="97"/>
+    </row>
+    <row r="216" spans="3:10">
+      <c r="C216" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="217" spans="3:10">
+      <c r="C217" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="219" spans="3:10">
+      <c r="D219" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="220" spans="3:10">
+      <c r="E220" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="222" spans="3:10">
+      <c r="D222" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="224" spans="3:10">
+      <c r="D224" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H224" s="57" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="226" spans="3:8">
+      <c r="D226" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228" spans="3:8">
+      <c r="C228" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8">
+      <c r="D230" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="231" spans="3:8">
+      <c r="E231" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="233" spans="3:8">
+      <c r="D233" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="3:8">
+      <c r="D235" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="236" spans="3:8">
+      <c r="E236" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="237" spans="3:8">
+      <c r="D237" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="3:8">
+      <c r="D239" t="s">
+        <v>1992</v>
+      </c>
+      <c r="H239" s="92" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="240" spans="3:8">
+      <c r="E240" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="F241" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="E242" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="E243" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="F244" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="E245" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="D246" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="94" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="B250" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282" s="36" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="D283" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="E287" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="E289" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="C290">
+        <v>3</v>
+      </c>
+      <c r="D290" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="C292">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="D295" s="47" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="94" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="B300" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C300" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="C301" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="C302" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D302" s="28"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="D304" s="28"/>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="94" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="D306" s="28"/>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="B307" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="D308" s="28"/>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="B309" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="B310" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D310" s="28"/>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="94" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="B315" s="18" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C315" s="18"/>
+      <c r="D315" s="18"/>
+      <c r="E315" s="18"/>
+      <c r="F315" s="18"/>
+      <c r="G315" s="18"/>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="B316" s="18"/>
+      <c r="C316" s="18" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D316" s="18"/>
+      <c r="E316" s="18"/>
+      <c r="F316" s="18"/>
+      <c r="G316" s="18"/>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="B317" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C317" s="18"/>
+      <c r="D317" s="18"/>
+      <c r="E317" s="18"/>
+      <c r="F317" s="18"/>
+      <c r="G317" s="18"/>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="B318" s="18" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C318" s="18"/>
+      <c r="D318" s="18"/>
+      <c r="E318" s="18"/>
+      <c r="F318" s="18"/>
+      <c r="G318" s="18"/>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="B319" s="18"/>
+      <c r="C319" s="18" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D319" s="18"/>
+      <c r="E319" s="18"/>
+      <c r="F319" s="18"/>
+      <c r="G319" s="18"/>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="B320" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C320" s="18"/>
+      <c r="D320" s="18"/>
+      <c r="E320" s="18"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="18"/>
+    </row>
+    <row r="321" spans="2:9">
+      <c r="B321" s="18"/>
+      <c r="C321" s="18"/>
+      <c r="D321" s="18"/>
+      <c r="E321" s="18"/>
+      <c r="F321" s="18"/>
+      <c r="G321" s="18"/>
+    </row>
+    <row r="322" spans="2:9">
+      <c r="B322" s="18" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C322" s="18"/>
+      <c r="D322" s="18"/>
+      <c r="E322" s="18"/>
+      <c r="F322" s="18"/>
+      <c r="G322" s="18"/>
+      <c r="I322" s="57" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="323" spans="2:9">
+      <c r="B323" s="18"/>
+      <c r="C323" s="18" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D323" s="18"/>
+      <c r="E323" s="18"/>
+      <c r="F323" s="18"/>
+      <c r="G323" s="18"/>
+    </row>
+    <row r="324" spans="2:9">
+      <c r="B324" s="18"/>
+      <c r="C324" s="18"/>
+      <c r="D324" s="18" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E324" s="18"/>
+      <c r="F324" s="18"/>
+      <c r="G324" s="18"/>
+    </row>
+    <row r="325" spans="2:9">
+      <c r="B325" s="18"/>
+      <c r="C325" s="18"/>
+      <c r="D325" s="18" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E325" s="18"/>
+      <c r="F325" s="18"/>
+      <c r="G325" s="18"/>
+    </row>
+    <row r="326" spans="2:9">
+      <c r="B326" s="18"/>
+      <c r="C326" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D326" s="18"/>
+      <c r="E326" s="18"/>
+      <c r="F326" s="18"/>
+      <c r="G326" s="18"/>
+    </row>
+    <row r="327" spans="2:9">
+      <c r="B327" s="18"/>
+      <c r="C327" s="18"/>
+      <c r="D327" s="18"/>
+      <c r="E327" s="18"/>
+      <c r="F327" s="18"/>
+      <c r="G327" s="18"/>
+    </row>
+    <row r="328" spans="2:9">
+      <c r="B328" s="18"/>
+      <c r="C328" s="18" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D328" s="18"/>
+      <c r="E328" s="18"/>
+      <c r="F328" s="18"/>
+      <c r="G328" s="18"/>
+    </row>
+    <row r="329" spans="2:9">
+      <c r="B329" s="18"/>
+      <c r="C329" s="18"/>
+      <c r="D329" s="18" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E329" s="18"/>
+      <c r="F329" s="18"/>
+      <c r="G329" s="18"/>
+    </row>
+    <row r="330" spans="2:9">
+      <c r="B330" s="18"/>
+      <c r="C330" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D330" s="18"/>
+      <c r="E330" s="18"/>
+      <c r="F330" s="18"/>
+      <c r="G330" s="18"/>
+    </row>
+    <row r="331" spans="2:9">
+      <c r="B331" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="333" spans="2:9">
+      <c r="B333" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="335" spans="2:9">
+      <c r="C335" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="336" spans="2:9">
+      <c r="D336" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10">
+      <c r="C337" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10">
+      <c r="C338" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10">
+      <c r="D339" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10">
+      <c r="C340" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10">
+      <c r="C341" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J341" s="57" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10">
+      <c r="C344" t="s">
+        <v>2042</v>
+      </c>
+      <c r="J344" s="57" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10">
+      <c r="A347" s="94" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10">
+      <c r="B349" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G349" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10">
+      <c r="B351" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="94" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="B356" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C356" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="C357" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="C359" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="C361" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="C363" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="C365" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="C367" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="369" spans="3:10">
+      <c r="C369" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="370" spans="3:10">
+      <c r="D370" s="57" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="372" spans="3:10">
+      <c r="E372" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="373" spans="3:10">
+      <c r="F373" t="s">
+        <v>2056</v>
+      </c>
+      <c r="J373" s="57" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="374" spans="3:10">
+      <c r="F374" t="s">
+        <v>2057</v>
+      </c>
+      <c r="J374" s="57" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="375" spans="3:10">
+      <c r="G375" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="376" spans="3:10">
+      <c r="F376" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="377" spans="3:10">
+      <c r="E377" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="381" spans="3:10">
+      <c r="D381" s="36" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="382" spans="3:10">
+      <c r="E382" s="58" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F382" s="43"/>
+      <c r="G382" s="43"/>
+      <c r="H382" s="43"/>
+      <c r="J382" s="92" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="383" spans="3:10">
+      <c r="E383" s="58" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F383" s="43"/>
+      <c r="G383" s="43"/>
+      <c r="H383" s="43"/>
+    </row>
+    <row r="384" spans="3:10">
+      <c r="E384" s="79"/>
+      <c r="F384" s="43"/>
+      <c r="G384" s="43"/>
+      <c r="H384" s="43"/>
+    </row>
+    <row r="385" spans="3:10">
+      <c r="E385" s="58" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F385" s="43"/>
+      <c r="G385" s="43"/>
+      <c r="H385" s="43"/>
+    </row>
+    <row r="386" spans="3:10">
+      <c r="E386" s="58" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F386" s="43"/>
+      <c r="G386" s="43"/>
+      <c r="H386" s="43"/>
+    </row>
+    <row r="387" spans="3:10">
+      <c r="E387" s="58" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F387" s="43"/>
+      <c r="G387" s="43"/>
+      <c r="H387" s="43"/>
+    </row>
+    <row r="388" spans="3:10">
+      <c r="E388" s="58" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F388" s="43"/>
+      <c r="G388" s="43"/>
+      <c r="H388" s="43"/>
+    </row>
+    <row r="389" spans="3:10">
+      <c r="E389" s="58" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F389" s="43"/>
+      <c r="G389" s="43"/>
+      <c r="H389" s="43"/>
+    </row>
+    <row r="390" spans="3:10">
+      <c r="E390" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F390" s="43"/>
+      <c r="G390" s="43"/>
+      <c r="H390" s="43"/>
+    </row>
+    <row r="392" spans="3:10">
+      <c r="C392" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="395" spans="3:10">
+      <c r="D395" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="397" spans="3:10">
+      <c r="E397" s="22" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F397" s="18"/>
+      <c r="G397" s="18"/>
+      <c r="H397" s="18"/>
+      <c r="I397" s="18"/>
+      <c r="J397" s="18"/>
+    </row>
+    <row r="398" spans="3:10">
+      <c r="E398" s="23"/>
+      <c r="F398" s="18"/>
+      <c r="G398" s="18"/>
+      <c r="H398" s="18"/>
+      <c r="I398" s="18"/>
+      <c r="J398" s="18"/>
+    </row>
+    <row r="399" spans="3:10">
+      <c r="E399" s="22" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F399" s="18"/>
+      <c r="G399" s="18"/>
+      <c r="H399" s="18"/>
+      <c r="I399" s="18"/>
+      <c r="J399" s="18"/>
+    </row>
+    <row r="400" spans="3:10">
+      <c r="E400" s="22" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F400" s="18"/>
+      <c r="G400" s="18"/>
+      <c r="H400" s="18"/>
+      <c r="I400" s="18"/>
+      <c r="J400" s="18"/>
+    </row>
+    <row r="401" spans="4:10">
+      <c r="E401" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="F401" s="18"/>
+      <c r="G401" s="18"/>
+      <c r="H401" s="18"/>
+      <c r="I401" s="18"/>
+      <c r="J401" s="18"/>
+    </row>
+    <row r="402" spans="4:10">
+      <c r="E402" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F402" s="18"/>
+      <c r="G402" s="18"/>
+      <c r="H402" s="18"/>
+      <c r="I402" s="18"/>
+      <c r="J402" s="18"/>
+    </row>
+    <row r="403" spans="4:10">
+      <c r="E403" s="18"/>
+      <c r="F403" s="18"/>
+      <c r="G403" s="18"/>
+      <c r="H403" s="18"/>
+      <c r="I403" s="18"/>
+      <c r="J403" s="18"/>
+    </row>
+    <row r="404" spans="4:10">
+      <c r="E404" s="22" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F404" s="18"/>
+      <c r="G404" s="18"/>
+      <c r="H404" s="18"/>
+      <c r="I404" s="18"/>
+      <c r="J404" s="18"/>
+    </row>
+    <row r="405" spans="4:10">
+      <c r="E405" s="23"/>
+      <c r="F405" s="18"/>
+      <c r="G405" s="18"/>
+      <c r="H405" s="18"/>
+      <c r="I405" s="18"/>
+      <c r="J405" s="18"/>
+    </row>
+    <row r="406" spans="4:10">
+      <c r="E406" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F406" s="18"/>
+      <c r="G406" s="18"/>
+      <c r="H406" s="18"/>
+      <c r="I406" s="18"/>
+      <c r="J406" s="18"/>
+    </row>
+    <row r="407" spans="4:10">
+      <c r="E407" s="22" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F407" s="18"/>
+      <c r="G407" s="18"/>
+      <c r="H407" s="18"/>
+      <c r="I407" s="18"/>
+      <c r="J407" s="18"/>
+    </row>
+    <row r="408" spans="4:10">
+      <c r="E408" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="F408" s="18"/>
+      <c r="G408" s="18"/>
+      <c r="H408" s="18"/>
+      <c r="I408" s="18"/>
+      <c r="J408" s="18"/>
+    </row>
+    <row r="409" spans="4:10">
+      <c r="E409" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F409" s="18"/>
+      <c r="G409" s="18"/>
+      <c r="H409" s="18"/>
+      <c r="I409" s="18"/>
+      <c r="J409" s="18"/>
+    </row>
+    <row r="411" spans="4:10">
+      <c r="D411" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="414" spans="4:10">
+      <c r="E414" s="22" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F414" s="18"/>
+      <c r="G414" s="18"/>
+      <c r="H414" s="18"/>
+      <c r="I414" s="18"/>
+    </row>
+    <row r="415" spans="4:10">
+      <c r="E415" s="23"/>
+      <c r="F415" s="18"/>
+      <c r="G415" s="18"/>
+      <c r="H415" s="18"/>
+      <c r="I415" s="18"/>
+    </row>
+    <row r="416" spans="4:10">
+      <c r="E416" s="22" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F416" s="18"/>
+      <c r="G416" s="18"/>
+      <c r="H416" s="18"/>
+      <c r="I416" s="18"/>
+    </row>
+    <row r="417" spans="1:11">
+      <c r="E417" s="22" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F417" s="18"/>
+      <c r="G417" s="18"/>
+      <c r="H417" s="18"/>
+      <c r="I417" s="18"/>
+    </row>
+    <row r="418" spans="1:11">
+      <c r="E418" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="F418" s="18"/>
+      <c r="G418" s="18"/>
+      <c r="H418" s="18"/>
+      <c r="I418" s="18"/>
+    </row>
+    <row r="419" spans="1:11">
+      <c r="E419" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F419" s="18"/>
+      <c r="G419" s="18"/>
+      <c r="H419" s="18"/>
+      <c r="I419" s="18"/>
+    </row>
+    <row r="421" spans="1:11">
+      <c r="E421" s="58" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F421" s="43"/>
+      <c r="G421" s="43"/>
+      <c r="H421" s="43"/>
+      <c r="I421" s="43"/>
+      <c r="J421" s="43"/>
+    </row>
+    <row r="422" spans="1:11">
+      <c r="E422" s="58" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F422" s="43"/>
+      <c r="G422" s="43"/>
+      <c r="H422" s="43"/>
+      <c r="I422" s="43"/>
+      <c r="J422" s="43"/>
+      <c r="K422" s="50" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11">
+      <c r="E423" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F423" s="43"/>
+      <c r="G423" s="43"/>
+      <c r="H423" s="43"/>
+      <c r="I423" s="43"/>
+      <c r="J423" s="43"/>
+    </row>
+    <row r="426" spans="1:11">
+      <c r="A426" s="94" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11">
+      <c r="B428" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11">
+      <c r="B429" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11">
+      <c r="C431" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11">
+      <c r="D432" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="433" spans="3:9">
+      <c r="E433" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="434" spans="3:9">
+      <c r="D434" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="435" spans="3:9">
+      <c r="C435" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="437" spans="3:9">
+      <c r="C437" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="438" spans="3:9">
+      <c r="D438" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="439" spans="3:9">
+      <c r="E439" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="440" spans="3:9">
+      <c r="D440" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="441" spans="3:9">
+      <c r="C441" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="443" spans="3:9">
+      <c r="C443" t="s">
+        <v>2088</v>
+      </c>
+      <c r="I443" s="57" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="444" spans="3:9">
+      <c r="D444" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="445" spans="3:9">
+      <c r="E445" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="446" spans="3:9">
+      <c r="D446" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="447" spans="3:9">
+      <c r="C447" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="451" spans="2:5">
+      <c r="B451" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5">
+      <c r="C453" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5">
+      <c r="D454" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="455" spans="2:5">
+      <c r="E455" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5">
+      <c r="D456" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5">
+      <c r="C457" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5">
+      <c r="C459" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5">
+      <c r="D460" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="461" spans="2:5">
+      <c r="E461" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5">
+      <c r="D462" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="463" spans="2:5">
+      <c r="C463" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10">
+      <c r="C465" t="s">
+        <v>2088</v>
+      </c>
+      <c r="H465" s="92" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10">
+      <c r="D467" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10">
+      <c r="E468" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10">
+      <c r="D469" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10">
+      <c r="D472" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10">
+      <c r="E473" t="s">
+        <v>2089</v>
+      </c>
+      <c r="J473" s="36" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10">
+      <c r="D474" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10">
+      <c r="C475" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10">
+      <c r="A478" s="94" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10">
+      <c r="B480" s="36" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C480" s="43" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D480" s="43"/>
+      <c r="E480" s="43"/>
+      <c r="F480" s="43"/>
+      <c r="G480" s="43"/>
+      <c r="H480" s="43"/>
+      <c r="I480" s="43"/>
+      <c r="J480" s="43"/>
+    </row>
+    <row r="481" spans="3:10">
+      <c r="C481" s="43"/>
+      <c r="D481" s="43"/>
+      <c r="E481" s="43"/>
+      <c r="F481" s="43"/>
+      <c r="G481" s="43"/>
+      <c r="H481" s="43"/>
+      <c r="I481" s="43"/>
+      <c r="J481" s="43"/>
+    </row>
+    <row r="482" spans="3:10">
+      <c r="C482" s="43" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D482" s="43"/>
+      <c r="E482" s="43"/>
+      <c r="F482" s="43"/>
+      <c r="G482" s="43"/>
+      <c r="H482" s="43"/>
+      <c r="I482" s="43"/>
+      <c r="J482" s="43"/>
+    </row>
+    <row r="484" spans="3:10">
+      <c r="C484" s="43" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="487" spans="3:10">
+      <c r="D487" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="488" spans="3:10">
+      <c r="E488" s="92" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="489" spans="3:10">
+      <c r="F489" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="490" spans="3:10">
+      <c r="G490" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="491" spans="3:10">
+      <c r="H491" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="492" spans="3:10">
+      <c r="G492" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="493" spans="3:10">
+      <c r="F493" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="496" spans="3:10">
+      <c r="F496" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="G497" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="H498" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" ht="18" customHeight="1">
+      <c r="G499" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="F500" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="A503" s="94" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="B506" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="D507" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="E509" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="E511" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5">
+      <c r="E513" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="515" spans="2:5">
+      <c r="E515" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5">
+      <c r="B518" t="s">
+        <v>2114</v>
       </c>
     </row>
   </sheetData>

--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="2193">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -6205,9 +6205,6 @@
     <t xml:space="preserve">Rule 3: </t>
   </si>
   <si>
-    <t>Tại lớp con, và constructor ko tham số mà ko định nghĩa hàm super()</t>
-  </si>
-  <si>
     <t>Thì Java tự động gọi hàm super() ko tham số của lớp cha</t>
   </si>
   <si>
@@ -6238,9 +6235,6 @@
     <t>Tuy nhiên ở lớp con mà khai báo thêm một constructor không tham số và ở lớp cha ko có construtor không tham số Thì sẽ báo lỗi compile</t>
   </si>
   <si>
-    <t>Nghĩa là nếu khai báo constructor  ko tham số ở lớp con, thì phải có cách nào đó gọi hàm super() tới constructor ở lớp cha</t>
-  </si>
-  <si>
     <t>Mà ở lớp cha ko có. Nên sẽ báo lỗi compile ở constructor lớp con</t>
   </si>
   <si>
@@ -6254,29 +6248,6 @@
   </si>
   <si>
     <t>kiểu trả về của method</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Signature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ở đây là : </t>
-    </r>
   </si>
   <si>
     <t>danh sách tham số, kiểu dl của tham số</t>
@@ -6640,9 +6611,6 @@
     <t>Inteface chỉ được phép extends Interface khác, ko có khái nhiệm implements Interface khác</t>
   </si>
   <si>
-    <t>Class, Abstract class chỉ được phép implments interface</t>
-  </si>
-  <si>
     <t>Interface cũng không có khái niệm extends Abstract class</t>
   </si>
   <si>
@@ -6842,9 +6810,6 @@
     <t>System.out.println(new Cat().getSpeed());</t>
   </si>
   <si>
-    <t xml:space="preserve">// COMPILE FAIL. 2 interface có default method giống hết nhau. Java ko thể biết được là sẽ implement defaul t method của interface nào </t>
-  </si>
-  <si>
     <t>public int getSpeed ( ) {</t>
   </si>
   <si>
@@ -6912,9 +6877,6 @@
   </si>
   <si>
     <t>AbstractClass absObject = instance;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khi một object được assign sang một kiểu dl reference mới. Chỉ có method </t>
   </si>
   <si>
     <r>
@@ -6942,12 +6904,281 @@
       <t xml:space="preserve"> từ một instance class </t>
     </r>
   </si>
+  <si>
+    <t>Khi một object được assign sang một kiểu dl reference mới. Chỉ có method và biến của reference đó gọi được mà ko cần CAST tường minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghĩa là : </t>
+  </si>
+  <si>
+    <t>objParent.doFromParent( );</t>
+  </si>
+  <si>
+    <t>objParent.a;</t>
+  </si>
+  <si>
+    <t>// Gọi method từ class Parent</t>
+  </si>
+  <si>
+    <t>// Gọi vars từ class Parent</t>
+  </si>
+  <si>
+    <t>interface.canFromInterface( ) ;</t>
+  </si>
+  <si>
+    <t>// Gọi method từ interface</t>
+  </si>
+  <si>
+    <t>// Gọi vars từ interface</t>
+  </si>
+  <si>
+    <t>interface.b;</t>
+  </si>
+  <si>
+    <t>absObject.workFromAbstract( );</t>
+  </si>
+  <si>
+    <t>absObject.c;</t>
+  </si>
+  <si>
+    <t>// Gọi method từ Abstract Class</t>
+  </si>
+  <si>
+    <t>// Gọi vars từ abstract Clas</t>
+  </si>
+  <si>
+    <t>Abstract Class có thể kế thừa 1 class thường khác</t>
+  </si>
+  <si>
+    <t>Nghĩa là nếu khai báo constructor  ko tham số ở lớp con, thì khi đó Java hiểu là dùng  super() tới constructor ở lớp cha</t>
+  </si>
+  <si>
+    <t>Cơ bản nhưng vẫn nhắc lại:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tại lớp con, và constructor ko tham số mà ko định nghĩa hàm super()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Signature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ở bao gồm 2 điều kiện:</t>
+    </r>
+  </si>
+  <si>
+    <t>Class, Abstract class chỉ được phép implements interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// COMPILE FAIL. 2 interface có default method giống hết nhau. Java ko thể biết được là sẽ implement defau t method của interface nào </t>
+  </si>
+  <si>
+    <t>19. Object vs Reference</t>
+  </si>
+  <si>
+    <t>Mọi object đều có thể assign lại cho class Object</t>
+  </si>
+  <si>
+    <t>20. Casting object</t>
+  </si>
+  <si>
+    <t>Lemur lemur = new Lemur()</t>
+  </si>
+  <si>
+    <t>// 1 obj instance Lemur</t>
+  </si>
+  <si>
+    <t>// Gán obj Lemur cho 1 reference khác</t>
+  </si>
+  <si>
+    <t>Primate primate = lemur;</t>
+  </si>
+  <si>
+    <t>Lemur lemur 2 = primate ;</t>
+  </si>
+  <si>
+    <t>Lemur lemur 2 = (Lemur) primate ;</t>
+  </si>
+  <si>
+    <t>System.out.print( lemur2.age)</t>
+  </si>
+  <si>
+    <t>Sytem.out.print (lemur2.isTailStriped () );</t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Có thể truy cập tới tất cả method và variables của Lemur Class</t>
+  </si>
+  <si>
+    <t>// COMPILE FAIL. Convert SUPER Class về SUB Class cần phải có cas tường minh</t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Convert SUPER class về SUB class đã có cast tường minh</t>
+  </si>
+  <si>
+    <t>1. Khi convert từ SUPER Class về SubClass cần phải có cast tường minh</t>
+  </si>
+  <si>
+    <t>2. Không được phép cast về 1 kiểu dl ko liên quan</t>
+  </si>
+  <si>
+    <t>public class Bird {}</t>
+  </si>
+  <si>
+    <t>public class Fish {</t>
+  </si>
+  <si>
+    <t>Fish fish = new Fish();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird bird = (Bird)fish; </t>
+  </si>
+  <si>
+    <t>// COMPILE FAIL. Bird và Fish là 2 class chẳng liên quan gì đến nhau</t>
+  </si>
+  <si>
+    <t>3. Mặc dù có thể code compile. Nhưng khi chạy sẽ báo lỗi cast khi convert Super CLASS về sub Class như sau:</t>
+  </si>
+  <si>
+    <t>public class Rodent {</t>
+  </si>
+  <si>
+    <t>public class Capybara extends Rodent {</t>
+  </si>
+  <si>
+    <t>Rodent rodent = new Rodent();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capybara capybara = (Capybara)rodent; </t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Nhưng sẽ báo lỗi ClassCastExxception at runtime</t>
+  </si>
+  <si>
+    <t>21. Virtuals methods - Hàm ảo</t>
+  </si>
+  <si>
+    <t>Hàm ảo là hàm mà ko xác định được cụ thể implement cho đến khi RunTime</t>
+  </si>
+  <si>
+    <t>Tất cả non-final, non-static, non-private có thể là hàm ảo</t>
+  </si>
+  <si>
+    <t>return "Unknown";</t>
+  </si>
+  <si>
+    <t>public void displayInformation() {</t>
+  </si>
+  <si>
+    <t>System.out.println("The bird name is: "+getName());</t>
+  </si>
+  <si>
+    <t>public class Peacock extends Bird {</t>
+  </si>
+  <si>
+    <t>return "Peacock";</t>
+  </si>
+  <si>
+    <t>Bird bird = new Peacock();</t>
+  </si>
+  <si>
+    <t>bird.displayInformation();</t>
+  </si>
+  <si>
+    <t>// OUTPUT : The bird name is Peacok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Giải thích : Vì ở đây hàm getName đã được override lại </t>
+  </si>
+  <si>
+    <t>22. Polymorphic Parameters</t>
+  </si>
+  <si>
+    <t>public class Reptile {</t>
+  </si>
+  <si>
+    <t>return "Reptile";</t>
+  </si>
+  <si>
+    <t>public class Alligator extends Reptile {</t>
+  </si>
+  <si>
+    <t>return "Alligator";</t>
+  </si>
+  <si>
+    <t>public class Crocodile extends Reptile {</t>
+  </si>
+  <si>
+    <t>return "Crocodile";</t>
+  </si>
+  <si>
+    <t>public class ZooWorker {</t>
+  </si>
+  <si>
+    <t>public static void feed(Reptile reptile) {</t>
+  </si>
+  <si>
+    <t>System.out.println("Feeding reptile "+reptile.getName());</t>
+  </si>
+  <si>
+    <t>feed(new Alligator());</t>
+  </si>
+  <si>
+    <t>feed(new Crocodile());</t>
+  </si>
+  <si>
+    <t>feed(new Reptile());</t>
+  </si>
+  <si>
+    <t>Có thể truyền class hoặc subClass Reptile vào OK</t>
+  </si>
+  <si>
+    <t>23. Đa hình và override</t>
+  </si>
+  <si>
+    <t>Một trong các tính năng của đa hình là khả năng truyền instance của 1 class hoặc 1 interface vào trong 1 method</t>
+  </si>
+  <si>
+    <t>Bài test 1:  OCA _ STUDY GUIDE</t>
+  </si>
+  <si>
+    <t>B E</t>
+  </si>
+  <si>
+    <t>A D</t>
+  </si>
+  <si>
+    <t>C E</t>
+  </si>
+  <si>
+    <t>B C D</t>
+  </si>
+  <si>
+    <t>A B G</t>
+  </si>
+  <si>
+    <t>A D E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="67">
+  <fonts count="72">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7389,6 +7620,41 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF231F20"/>
+      <name val="SourceCodePro-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -7429,7 +7695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7606,6 +7872,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -8294,13 +8575,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85396</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8332,13 +8613,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>551794</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8548,6 +8829,82 @@
         <a:xfrm>
           <a:off x="1374912" y="49968978"/>
           <a:ext cx="5010979" cy="2638793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>536</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163275</xdr:colOff>
+      <xdr:row>549</xdr:row>
+      <xdr:rowOff>133714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608135" y="102327808"/>
+          <a:ext cx="4420217" cy="2610214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>73269</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7912</xdr:colOff>
+      <xdr:row>544</xdr:row>
+      <xdr:rowOff>131409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5546481" y="102144635"/>
+          <a:ext cx="4191585" cy="1838582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10642,16 +10999,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="98" t="s">
+      <c r="D424" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="98"/>
-      <c r="F424" s="98"/>
-      <c r="G424" s="98"/>
-      <c r="H424" s="98"/>
-      <c r="I424" s="98"/>
-      <c r="J424" s="98"/>
-      <c r="K424" s="98"/>
+      <c r="E424" s="105"/>
+      <c r="F424" s="105"/>
+      <c r="G424" s="105"/>
+      <c r="H424" s="105"/>
+      <c r="I424" s="105"/>
+      <c r="J424" s="105"/>
+      <c r="K424" s="105"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -10718,16 +11075,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="98" t="s">
+      <c r="D430" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="98"/>
-      <c r="F430" s="98"/>
-      <c r="G430" s="98"/>
-      <c r="H430" s="98"/>
-      <c r="I430" s="98"/>
-      <c r="J430" s="98"/>
-      <c r="K430" s="98"/>
+      <c r="E430" s="105"/>
+      <c r="F430" s="105"/>
+      <c r="G430" s="105"/>
+      <c r="H430" s="105"/>
+      <c r="I430" s="105"/>
+      <c r="J430" s="105"/>
+      <c r="K430" s="105"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -22421,8 +22778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R755"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A718" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J199" sqref="J199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22568,17 +22925,17 @@
         <v>1504</v>
       </c>
       <c r="C36" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="38" spans="2:18">
       <c r="C38" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="40" spans="2:18">
       <c r="C40" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="41" spans="2:18">
@@ -22591,7 +22948,7 @@
         <v>1506</v>
       </c>
       <c r="G42" s="92" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
@@ -22610,7 +22967,7 @@
         <v>1507</v>
       </c>
       <c r="G43" s="92" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="H43" s="50"/>
       <c r="I43" s="50"/>
@@ -22629,7 +22986,7 @@
         <v>1508</v>
       </c>
       <c r="G44" s="92" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
@@ -22692,10 +23049,10 @@
     </row>
     <row r="50" spans="1:12">
       <c r="C50" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="G50" s="57" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="H50" s="57"/>
       <c r="I50" s="57"/>
@@ -22705,10 +23062,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="C51" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="G51" s="57" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="H51" s="57"/>
       <c r="I51" s="57"/>
@@ -23358,7 +23715,7 @@
       <c r="F193" s="43"/>
       <c r="G193" s="43"/>
       <c r="H193" s="43"/>
-      <c r="I193" s="43" t="s">
+      <c r="I193" s="57" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -23370,7 +23727,7 @@
       <c r="F194" s="43"/>
       <c r="G194" s="43"/>
       <c r="H194" s="43"/>
-      <c r="I194" s="43" t="s">
+      <c r="I194" s="92" t="s">
         <v>1587</v>
       </c>
     </row>
@@ -27048,10 +27405,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K518"/>
+  <dimension ref="A1:L718"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G509" sqref="G509"/>
+    <sheetView tabSelected="1" topLeftCell="A661" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B680" sqref="B680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27112,12 +27469,12 @@
     </row>
     <row r="31" spans="1:5">
       <c r="D31" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="E32" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="33" spans="3:6">
@@ -27127,17 +27484,17 @@
     </row>
     <row r="35" spans="3:6">
       <c r="D35" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="E36" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="F37" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="38" spans="3:6">
@@ -27152,27 +27509,27 @@
     </row>
     <row r="41" spans="3:6">
       <c r="C41" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" t="s">
-        <v>1916</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="D45" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="E46" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -27183,17 +27540,17 @@
     <row r="48" spans="3:6" ht="14.25" customHeight="1"/>
     <row r="49" spans="2:7">
       <c r="D49" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="E50" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="F51" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -27203,10 +27560,10 @@
     </row>
     <row r="54" spans="2:7">
       <c r="E54" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="G54" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -27224,111 +27581,116 @@
         <v>1904</v>
       </c>
       <c r="C59" t="s">
-        <v>1905</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="C60" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="C61" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="C71" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="C70" t="s">
+    <row r="72" spans="1:8">
+      <c r="D72" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="D71" t="s">
+    <row r="73" spans="1:8">
+      <c r="D73" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="D72" t="s">
+    <row r="75" spans="1:8">
+      <c r="A75" s="94" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77" s="93" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="D78" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="H79" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="C81" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="C83" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="C85" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="C87" s="47" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="C88" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="94" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="94" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="B76" s="93" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="D77" t="s">
-        <v>1922</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="F78" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="C80" t="s">
+    <row r="94" spans="1:3">
+      <c r="C94" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="C82" t="s">
+    <row r="95" spans="1:3">
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="B97" t="s">
         <v>1927</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="C84" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="C86" s="47" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="C87" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="94" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="B92" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="C93" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="B94" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="B96" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="C98" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="G98" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -27336,55 +27698,55 @@
         <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="94" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="B103" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="94" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="94" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="D113" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="114" spans="2:7">
       <c r="D114" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="119" spans="2:7">
       <c r="C119" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="120" spans="2:7">
       <c r="D120" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="121" spans="2:7">
@@ -27399,14 +27761,14 @@
     </row>
     <row r="124" spans="2:7">
       <c r="B124" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="126" spans="2:7">
       <c r="C126" t="s">
-        <v>1947</v>
-      </c>
-      <c r="G126" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G126" s="57" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -27427,32 +27789,32 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="94" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="B133" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="B134" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="B136" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="B137" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="160" spans="3:4">
       <c r="C160" s="36" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -27465,7 +27827,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="94" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -27473,59 +27835,59 @@
         <v>1715</v>
       </c>
       <c r="C167" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="C169" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="C171" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="C173" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="H173" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="D175" s="57" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="177" spans="3:10">
       <c r="E177" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="J177" s="57" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="178" spans="3:10">
       <c r="F178" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="J178" s="57" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="179" spans="3:10">
       <c r="F179" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="180" spans="3:10">
       <c r="G180" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="J180" s="57" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="181" spans="3:10">
@@ -27535,18 +27897,18 @@
     </row>
     <row r="183" spans="3:10">
       <c r="F183" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="J183" s="57" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="184" spans="3:10">
       <c r="F184" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="J184" s="57" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="185" spans="3:10">
@@ -27556,22 +27918,22 @@
     </row>
     <row r="186" spans="3:10">
       <c r="D186" s="92" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="187" spans="3:10">
       <c r="E187" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="188" spans="3:10">
       <c r="F188" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="189" spans="3:10">
       <c r="F189" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="190" spans="3:10">
@@ -27581,22 +27943,22 @@
     </row>
     <row r="192" spans="3:10">
       <c r="C192" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="193" spans="3:10">
       <c r="C193" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="195" spans="3:10">
       <c r="D195" s="57" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="196" spans="3:10">
       <c r="E196" s="96" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="F196" s="95"/>
       <c r="G196" s="95"/>
@@ -27604,13 +27966,13 @@
     </row>
     <row r="197" spans="3:10">
       <c r="E197" s="96" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="F197" s="95"/>
       <c r="G197" s="95"/>
       <c r="H197" s="95"/>
       <c r="J197" s="57" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="198" spans="3:10">
@@ -27623,12 +27985,12 @@
     </row>
     <row r="201" spans="3:10">
       <c r="D201" s="57" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="203" spans="3:10">
       <c r="E203" s="58" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="F203" s="43"/>
       <c r="G203" s="43"/>
@@ -27637,7 +27999,7 @@
     </row>
     <row r="204" spans="3:10">
       <c r="E204" s="58" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="F204" s="43"/>
       <c r="G204" s="43"/>
@@ -27662,7 +28024,7 @@
     </row>
     <row r="208" spans="3:10">
       <c r="E208" s="97" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="F208" s="97"/>
       <c r="G208" s="97"/>
@@ -27676,7 +28038,7 @@
     </row>
     <row r="210" spans="3:10">
       <c r="E210" s="97" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="F210" s="97"/>
       <c r="G210" s="97"/>
@@ -27684,13 +28046,13 @@
     </row>
     <row r="211" spans="3:10">
       <c r="E211" s="97" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="F211" s="97"/>
       <c r="G211" s="97"/>
       <c r="H211" s="97"/>
       <c r="J211" s="57" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="212" spans="3:10">
@@ -27717,22 +28079,22 @@
     </row>
     <row r="216" spans="3:10">
       <c r="C216" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="217" spans="3:10">
       <c r="C217" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="219" spans="3:10">
       <c r="D219" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="220" spans="3:10">
       <c r="E220" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="222" spans="3:10">
@@ -27742,10 +28104,10 @@
     </row>
     <row r="224" spans="3:10">
       <c r="D224" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="H224" s="57" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="226" spans="3:8">
@@ -27755,17 +28117,17 @@
     </row>
     <row r="228" spans="3:8">
       <c r="C228" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="230" spans="3:8">
       <c r="D230" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="231" spans="3:8">
       <c r="E231" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="233" spans="3:8">
@@ -27775,12 +28137,12 @@
     </row>
     <row r="235" spans="3:8">
       <c r="D235" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="236" spans="3:8">
       <c r="E236" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="237" spans="3:8">
@@ -27790,20 +28152,20 @@
     </row>
     <row r="239" spans="3:8">
       <c r="D239" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="H239" s="92" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="240" spans="3:8">
       <c r="E240" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="F241" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -27813,12 +28175,12 @@
     </row>
     <row r="243" spans="1:6">
       <c r="E243" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="F244" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -27833,17 +28195,17 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="94" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="B250" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="282" spans="2:5">
@@ -27854,12 +28216,12 @@
         <v>1</v>
       </c>
       <c r="D282" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="283" spans="2:5">
       <c r="D283" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="285" spans="2:5">
@@ -27867,70 +28229,80 @@
         <v>2</v>
       </c>
       <c r="D285" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="287" spans="2:5">
       <c r="E287" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
       <c r="E289" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:12">
       <c r="C290">
         <v>3</v>
       </c>
       <c r="D290" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
       <c r="C292">
         <v>4</v>
       </c>
       <c r="D292" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
+      <c r="B295" s="98" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C295" s="39"/>
+      <c r="D295" s="39"/>
+      <c r="E295" s="57"/>
+      <c r="F295" s="57"/>
+      <c r="G295" s="57"/>
+      <c r="H295" s="57"/>
+      <c r="I295" s="57"/>
+      <c r="J295" s="57"/>
+      <c r="K295" s="36"/>
+      <c r="L295" s="36"/>
+    </row>
+    <row r="298" spans="1:12">
+      <c r="A298" s="94" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
-      <c r="D295" s="47" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298" s="94" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:12">
       <c r="B300" t="s">
         <v>1604</v>
       </c>
       <c r="C300" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
       <c r="C301" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
       <c r="C302" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D302" s="28"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:12">
       <c r="D304" s="28"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="94" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -27938,7 +28310,7 @@
     </row>
     <row r="307" spans="1:7">
       <c r="B307" t="s">
-        <v>2027</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -27946,45 +28318,40 @@
     </row>
     <row r="309" spans="1:7">
       <c r="B309" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="B310" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="D310" s="28"/>
     </row>
-    <row r="313" spans="1:7">
-      <c r="A313" s="94" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
-      <c r="B315" s="18" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C315" s="18"/>
-      <c r="D315" s="18"/>
-      <c r="E315" s="18"/>
-      <c r="F315" s="18"/>
-      <c r="G315" s="18"/>
+    <row r="312" spans="1:7">
+      <c r="B312" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="94" t="s">
+        <v>2025</v>
+      </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="B316" s="18"/>
-      <c r="C316" s="18" t="s">
-        <v>2031</v>
-      </c>
+      <c r="B316" s="18" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C316" s="18"/>
       <c r="D316" s="18"/>
       <c r="E316" s="18"/>
       <c r="F316" s="18"/>
       <c r="G316" s="18"/>
     </row>
     <row r="317" spans="1:7">
-      <c r="B317" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C317" s="18"/>
+      <c r="B317" s="18"/>
+      <c r="C317" s="18" t="s">
+        <v>2027</v>
+      </c>
       <c r="D317" s="18"/>
       <c r="E317" s="18"/>
       <c r="F317" s="18"/>
@@ -27992,7 +28359,7 @@
     </row>
     <row r="318" spans="1:7">
       <c r="B318" s="18" t="s">
-        <v>2032</v>
+        <v>45</v>
       </c>
       <c r="C318" s="18"/>
       <c r="D318" s="18"/>
@@ -28001,27 +28368,29 @@
       <c r="G318" s="18"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="B319" s="18"/>
-      <c r="C319" s="18" t="s">
-        <v>2033</v>
-      </c>
+      <c r="B319" s="18" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C319" s="18"/>
       <c r="D319" s="18"/>
       <c r="E319" s="18"/>
       <c r="F319" s="18"/>
       <c r="G319" s="18"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="B320" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C320" s="18"/>
+      <c r="B320" s="18"/>
+      <c r="C320" s="18" t="s">
+        <v>2029</v>
+      </c>
       <c r="D320" s="18"/>
       <c r="E320" s="18"/>
       <c r="F320" s="18"/>
       <c r="G320" s="18"/>
     </row>
     <row r="321" spans="2:9">
-      <c r="B321" s="18"/>
+      <c r="B321" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="C321" s="18"/>
       <c r="D321" s="18"/>
       <c r="E321" s="18"/>
@@ -28029,34 +28398,32 @@
       <c r="G321" s="18"/>
     </row>
     <row r="322" spans="2:9">
-      <c r="B322" s="18" t="s">
-        <v>2034</v>
-      </c>
+      <c r="B322" s="18"/>
       <c r="C322" s="18"/>
       <c r="D322" s="18"/>
       <c r="E322" s="18"/>
       <c r="F322" s="18"/>
       <c r="G322" s="18"/>
-      <c r="I322" s="57" t="s">
-        <v>2039</v>
-      </c>
     </row>
     <row r="323" spans="2:9">
-      <c r="B323" s="18"/>
-      <c r="C323" s="18" t="s">
-        <v>2035</v>
-      </c>
+      <c r="B323" s="18" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C323" s="18"/>
       <c r="D323" s="18"/>
       <c r="E323" s="18"/>
       <c r="F323" s="18"/>
       <c r="G323" s="18"/>
+      <c r="I323" s="57" t="s">
+        <v>2035</v>
+      </c>
     </row>
     <row r="324" spans="2:9">
       <c r="B324" s="18"/>
-      <c r="C324" s="18"/>
-      <c r="D324" s="18" t="s">
-        <v>2036</v>
-      </c>
+      <c r="C324" s="18" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D324" s="18"/>
       <c r="E324" s="18"/>
       <c r="F324" s="18"/>
       <c r="G324" s="18"/>
@@ -28065,7 +28432,7 @@
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
       <c r="D325" s="18" t="s">
-        <v>1958</v>
+        <v>2032</v>
       </c>
       <c r="E325" s="18"/>
       <c r="F325" s="18"/>
@@ -28073,17 +28440,19 @@
     </row>
     <row r="326" spans="2:9">
       <c r="B326" s="18"/>
-      <c r="C326" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D326" s="18"/>
+      <c r="C326" s="18"/>
+      <c r="D326" s="18" t="s">
+        <v>1955</v>
+      </c>
       <c r="E326" s="18"/>
       <c r="F326" s="18"/>
       <c r="G326" s="18"/>
     </row>
     <row r="327" spans="2:9">
       <c r="B327" s="18"/>
-      <c r="C327" s="18"/>
+      <c r="C327" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="D327" s="18"/>
       <c r="E327" s="18"/>
       <c r="F327" s="18"/>
@@ -28091,9 +28460,7 @@
     </row>
     <row r="328" spans="2:9">
       <c r="B328" s="18"/>
-      <c r="C328" s="18" t="s">
-        <v>2037</v>
-      </c>
+      <c r="C328" s="18"/>
       <c r="D328" s="18"/>
       <c r="E328" s="18"/>
       <c r="F328" s="18"/>
@@ -28101,228 +28468,230 @@
     </row>
     <row r="329" spans="2:9">
       <c r="B329" s="18"/>
-      <c r="C329" s="18"/>
-      <c r="D329" s="18" t="s">
-        <v>2038</v>
-      </c>
+      <c r="C329" s="18" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D329" s="18"/>
       <c r="E329" s="18"/>
       <c r="F329" s="18"/>
       <c r="G329" s="18"/>
     </row>
     <row r="330" spans="2:9">
       <c r="B330" s="18"/>
-      <c r="C330" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D330" s="18"/>
+      <c r="C330" s="18"/>
+      <c r="D330" s="18" t="s">
+        <v>2034</v>
+      </c>
       <c r="E330" s="18"/>
       <c r="F330" s="18"/>
       <c r="G330" s="18"/>
     </row>
     <row r="331" spans="2:9">
-      <c r="B331" t="s">
+      <c r="B331" s="18"/>
+      <c r="C331" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="333" spans="2:9">
-      <c r="B333" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="335" spans="2:9">
-      <c r="C335" t="s">
-        <v>2030</v>
+      <c r="D331" s="18"/>
+      <c r="E331" s="18"/>
+      <c r="F331" s="18"/>
+      <c r="G331" s="18"/>
+    </row>
+    <row r="332" spans="2:9">
+      <c r="B332" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="334" spans="2:9">
+      <c r="B334" t="s">
+        <v>2036</v>
       </c>
     </row>
     <row r="336" spans="2:9">
-      <c r="D336" t="s">
-        <v>2031</v>
+      <c r="C336" t="s">
+        <v>2026</v>
       </c>
     </row>
     <row r="337" spans="1:10">
-      <c r="C337" t="s">
-        <v>45</v>
+      <c r="D337" t="s">
+        <v>2027</v>
       </c>
     </row>
     <row r="338" spans="1:10">
       <c r="C338" t="s">
-        <v>2032</v>
+        <v>45</v>
       </c>
     </row>
     <row r="339" spans="1:10">
-      <c r="D339" t="s">
-        <v>2033</v>
+      <c r="C339" t="s">
+        <v>2028</v>
       </c>
     </row>
     <row r="340" spans="1:10">
-      <c r="C340" t="s">
-        <v>45</v>
+      <c r="D340" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="341" spans="1:10">
       <c r="C341" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10">
+      <c r="C342" t="s">
+        <v>2037</v>
+      </c>
+      <c r="J342" s="57" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10">
+      <c r="C345" t="s">
+        <v>2038</v>
+      </c>
+      <c r="J345" s="57" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10">
+      <c r="A348" s="94" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10">
+      <c r="B350" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G350" t="s">
         <v>2041</v>
       </c>
-      <c r="J341" s="57" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10">
-      <c r="C344" t="s">
+    </row>
+    <row r="352" spans="1:10">
+      <c r="B352" t="s">
         <v>2042</v>
       </c>
-      <c r="J344" s="57" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10">
-      <c r="A347" s="94" t="s">
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="94" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
-      <c r="B349" t="s">
+    <row r="357" spans="1:3">
+      <c r="B357" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C357" t="s">
         <v>2044</v>
       </c>
-      <c r="G349" t="s">
+    </row>
+    <row r="358" spans="1:3">
+      <c r="C358" t="s">
         <v>2045</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
-      <c r="B351" t="s">
+    <row r="360" spans="1:3">
+      <c r="C360" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
-      <c r="A354" s="94" t="s">
+    <row r="362" spans="1:3">
+      <c r="C362" t="s">
         <v>2047</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
-      <c r="B356" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C356" t="s">
+    <row r="364" spans="1:3">
+      <c r="C364" t="s">
         <v>2048</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
-      <c r="C357" t="s">
+    <row r="366" spans="1:3">
+      <c r="C366" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
-      <c r="C359" t="s">
+    <row r="368" spans="1:3">
+      <c r="C368" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="370" spans="3:10">
+      <c r="C370" t="s">
         <v>2050</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
-      <c r="C361" t="s">
+    <row r="371" spans="3:10">
+      <c r="D371" s="57" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="373" spans="3:10">
+      <c r="E373" t="s">
         <v>2051</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="C363" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="C365" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="C367" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="369" spans="3:10">
-      <c r="C369" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="370" spans="3:10">
-      <c r="D370" s="57" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="372" spans="3:10">
-      <c r="E372" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="373" spans="3:10">
-      <c r="F373" t="s">
-        <v>2056</v>
-      </c>
-      <c r="J373" s="57" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="374" spans="3:10">
       <c r="F374" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="J374" s="57" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="375" spans="3:10">
-      <c r="G375" t="s">
+      <c r="F375" t="s">
+        <v>2053</v>
+      </c>
+      <c r="J375" s="57" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="376" spans="3:10">
+      <c r="G376" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="377" spans="3:10">
+      <c r="F377" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="378" spans="3:10">
+      <c r="E378" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="382" spans="3:10">
+      <c r="D382" s="36" t="s">
         <v>2058</v>
-      </c>
-    </row>
-    <row r="376" spans="3:10">
-      <c r="F376" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="377" spans="3:10">
-      <c r="E377" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="381" spans="3:10">
-      <c r="D381" s="36" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="382" spans="3:10">
-      <c r="E382" s="58" t="s">
-        <v>2066</v>
-      </c>
-      <c r="F382" s="43"/>
-      <c r="G382" s="43"/>
-      <c r="H382" s="43"/>
-      <c r="J382" s="92" t="s">
-        <v>2069</v>
       </c>
     </row>
     <row r="383" spans="3:10">
       <c r="E383" s="58" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="F383" s="43"/>
       <c r="G383" s="43"/>
       <c r="H383" s="43"/>
+      <c r="J383" s="92" t="s">
+        <v>2065</v>
+      </c>
     </row>
     <row r="384" spans="3:10">
-      <c r="E384" s="79"/>
+      <c r="E384" s="58" t="s">
+        <v>2063</v>
+      </c>
       <c r="F384" s="43"/>
       <c r="G384" s="43"/>
       <c r="H384" s="43"/>
     </row>
     <row r="385" spans="3:10">
-      <c r="E385" s="58" t="s">
-        <v>2063</v>
-      </c>
+      <c r="E385" s="79"/>
       <c r="F385" s="43"/>
       <c r="G385" s="43"/>
       <c r="H385" s="43"/>
     </row>
     <row r="386" spans="3:10">
       <c r="E386" s="58" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="F386" s="43"/>
       <c r="G386" s="43"/>
@@ -28330,7 +28699,7 @@
     </row>
     <row r="387" spans="3:10">
       <c r="E387" s="58" t="s">
-        <v>2068</v>
+        <v>2060</v>
       </c>
       <c r="F387" s="43"/>
       <c r="G387" s="43"/>
@@ -28338,7 +28707,7 @@
     </row>
     <row r="388" spans="3:10">
       <c r="E388" s="58" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F388" s="43"/>
       <c r="G388" s="43"/>
@@ -28346,7 +28715,7 @@
     </row>
     <row r="389" spans="3:10">
       <c r="E389" s="58" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="F389" s="43"/>
       <c r="G389" s="43"/>
@@ -28354,34 +28723,34 @@
     </row>
     <row r="390" spans="3:10">
       <c r="E390" s="58" t="s">
-        <v>45</v>
+        <v>2059</v>
       </c>
       <c r="F390" s="43"/>
       <c r="G390" s="43"/>
       <c r="H390" s="43"/>
     </row>
-    <row r="392" spans="3:10">
-      <c r="C392" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="395" spans="3:10">
-      <c r="D395" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="397" spans="3:10">
-      <c r="E397" s="22" t="s">
-        <v>2072</v>
-      </c>
-      <c r="F397" s="18"/>
-      <c r="G397" s="18"/>
-      <c r="H397" s="18"/>
-      <c r="I397" s="18"/>
-      <c r="J397" s="18"/>
+    <row r="391" spans="3:10">
+      <c r="E391" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F391" s="43"/>
+      <c r="G391" s="43"/>
+      <c r="H391" s="43"/>
+    </row>
+    <row r="393" spans="3:10">
+      <c r="C393" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="396" spans="3:10">
+      <c r="D396" t="s">
+        <v>2066</v>
+      </c>
     </row>
     <row r="398" spans="3:10">
-      <c r="E398" s="23"/>
+      <c r="E398" s="22" t="s">
+        <v>2068</v>
+      </c>
       <c r="F398" s="18"/>
       <c r="G398" s="18"/>
       <c r="H398" s="18"/>
@@ -28389,9 +28758,7 @@
       <c r="J398" s="18"/>
     </row>
     <row r="399" spans="3:10">
-      <c r="E399" s="22" t="s">
-        <v>2073</v>
-      </c>
+      <c r="E399" s="23"/>
       <c r="F399" s="18"/>
       <c r="G399" s="18"/>
       <c r="H399" s="18"/>
@@ -28400,7 +28767,7 @@
     </row>
     <row r="400" spans="3:10">
       <c r="E400" s="22" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="F400" s="18"/>
       <c r="G400" s="18"/>
@@ -28410,7 +28777,7 @@
     </row>
     <row r="401" spans="4:10">
       <c r="E401" s="22" t="s">
-        <v>620</v>
+        <v>2070</v>
       </c>
       <c r="F401" s="18"/>
       <c r="G401" s="18"/>
@@ -28420,7 +28787,7 @@
     </row>
     <row r="402" spans="4:10">
       <c r="E402" s="22" t="s">
-        <v>45</v>
+        <v>620</v>
       </c>
       <c r="F402" s="18"/>
       <c r="G402" s="18"/>
@@ -28429,7 +28796,9 @@
       <c r="J402" s="18"/>
     </row>
     <row r="403" spans="4:10">
-      <c r="E403" s="18"/>
+      <c r="E403" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="F403" s="18"/>
       <c r="G403" s="18"/>
       <c r="H403" s="18"/>
@@ -28437,9 +28806,7 @@
       <c r="J403" s="18"/>
     </row>
     <row r="404" spans="4:10">
-      <c r="E404" s="22" t="s">
-        <v>2075</v>
-      </c>
+      <c r="E404" s="18"/>
       <c r="F404" s="18"/>
       <c r="G404" s="18"/>
       <c r="H404" s="18"/>
@@ -28447,7 +28814,9 @@
       <c r="J404" s="18"/>
     </row>
     <row r="405" spans="4:10">
-      <c r="E405" s="23"/>
+      <c r="E405" s="22" t="s">
+        <v>2071</v>
+      </c>
       <c r="F405" s="18"/>
       <c r="G405" s="18"/>
       <c r="H405" s="18"/>
@@ -28455,9 +28824,7 @@
       <c r="J405" s="18"/>
     </row>
     <row r="406" spans="4:10">
-      <c r="E406" s="22" t="s">
-        <v>2076</v>
-      </c>
+      <c r="E406" s="23"/>
       <c r="F406" s="18"/>
       <c r="G406" s="18"/>
       <c r="H406" s="18"/>
@@ -28466,7 +28833,7 @@
     </row>
     <row r="407" spans="4:10">
       <c r="E407" s="22" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="F407" s="18"/>
       <c r="G407" s="18"/>
@@ -28476,7 +28843,7 @@
     </row>
     <row r="408" spans="4:10">
       <c r="E408" s="22" t="s">
-        <v>620</v>
+        <v>2073</v>
       </c>
       <c r="F408" s="18"/>
       <c r="G408" s="18"/>
@@ -28486,7 +28853,7 @@
     </row>
     <row r="409" spans="4:10">
       <c r="E409" s="22" t="s">
-        <v>45</v>
+        <v>620</v>
       </c>
       <c r="F409" s="18"/>
       <c r="G409" s="18"/>
@@ -28494,31 +28861,32 @@
       <c r="I409" s="18"/>
       <c r="J409" s="18"/>
     </row>
-    <row r="411" spans="4:10">
-      <c r="D411" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="414" spans="4:10">
-      <c r="E414" s="22" t="s">
-        <v>2072</v>
-      </c>
-      <c r="F414" s="18"/>
-      <c r="G414" s="18"/>
-      <c r="H414" s="18"/>
-      <c r="I414" s="18"/>
+    <row r="410" spans="4:10">
+      <c r="E410" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F410" s="18"/>
+      <c r="G410" s="18"/>
+      <c r="H410" s="18"/>
+      <c r="I410" s="18"/>
+      <c r="J410" s="18"/>
+    </row>
+    <row r="412" spans="4:10">
+      <c r="D412" t="s">
+        <v>2074</v>
+      </c>
     </row>
     <row r="415" spans="4:10">
-      <c r="E415" s="23"/>
+      <c r="E415" s="22" t="s">
+        <v>2068</v>
+      </c>
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
       <c r="H415" s="18"/>
       <c r="I415" s="18"/>
     </row>
     <row r="416" spans="4:10">
-      <c r="E416" s="22" t="s">
-        <v>2073</v>
-      </c>
+      <c r="E416" s="23"/>
       <c r="F416" s="18"/>
       <c r="G416" s="18"/>
       <c r="H416" s="18"/>
@@ -28526,7 +28894,7 @@
     </row>
     <row r="417" spans="1:11">
       <c r="E417" s="22" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="F417" s="18"/>
       <c r="G417" s="18"/>
@@ -28535,7 +28903,7 @@
     </row>
     <row r="418" spans="1:11">
       <c r="E418" s="22" t="s">
-        <v>620</v>
+        <v>2070</v>
       </c>
       <c r="F418" s="18"/>
       <c r="G418" s="18"/>
@@ -28544,262 +28912,266 @@
     </row>
     <row r="419" spans="1:11">
       <c r="E419" s="22" t="s">
-        <v>45</v>
+        <v>620</v>
       </c>
       <c r="F419" s="18"/>
       <c r="G419" s="18"/>
       <c r="H419" s="18"/>
       <c r="I419" s="18"/>
     </row>
-    <row r="421" spans="1:11">
-      <c r="E421" s="58" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F421" s="43"/>
-      <c r="G421" s="43"/>
-      <c r="H421" s="43"/>
-      <c r="I421" s="43"/>
-      <c r="J421" s="43"/>
+    <row r="420" spans="1:11">
+      <c r="E420" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F420" s="18"/>
+      <c r="G420" s="18"/>
+      <c r="H420" s="18"/>
+      <c r="I420" s="18"/>
     </row>
     <row r="422" spans="1:11">
       <c r="E422" s="58" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
       <c r="F422" s="43"/>
       <c r="G422" s="43"/>
       <c r="H422" s="43"/>
       <c r="I422" s="43"/>
       <c r="J422" s="43"/>
-      <c r="K422" s="50" t="s">
-        <v>2080</v>
-      </c>
     </row>
     <row r="423" spans="1:11">
       <c r="E423" s="58" t="s">
-        <v>45</v>
+        <v>2075</v>
       </c>
       <c r="F423" s="43"/>
       <c r="G423" s="43"/>
       <c r="H423" s="43"/>
       <c r="I423" s="43"/>
       <c r="J423" s="43"/>
-    </row>
-    <row r="426" spans="1:11">
-      <c r="A426" s="94" t="s">
-        <v>2081</v>
+      <c r="K423" s="50" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11">
+      <c r="E424" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F424" s="43"/>
+      <c r="G424" s="43"/>
+      <c r="H424" s="43"/>
+      <c r="I424" s="43"/>
+      <c r="J424" s="43"/>
+    </row>
+    <row r="427" spans="1:11">
+      <c r="A427" s="94" t="s">
+        <v>2077</v>
       </c>
     </row>
     <row r="428" spans="1:11">
-      <c r="B428" t="s">
-        <v>2082</v>
+      <c r="C428" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="429" spans="1:11">
       <c r="B429" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11">
+      <c r="B430" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11">
+      <c r="C432" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="433" spans="3:9">
+      <c r="D433" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="434" spans="3:9">
+      <c r="E434" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="435" spans="3:9">
+      <c r="D435" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="436" spans="3:9">
+      <c r="C436" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="438" spans="3:9">
+      <c r="C438" t="s">
         <v>2083</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
-      <c r="C431" t="s">
+    <row r="439" spans="3:9">
+      <c r="D439" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="440" spans="3:9">
+      <c r="E440" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="441" spans="3:9">
+      <c r="D441" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="442" spans="3:9">
+      <c r="C442" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="444" spans="3:9">
+      <c r="C444" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="432" spans="1:11">
-      <c r="D432" t="s">
+      <c r="I444" s="57" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="445" spans="3:9">
+      <c r="D445" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="446" spans="3:9">
+      <c r="E446" t="s">
         <v>2085</v>
       </c>
     </row>
-    <row r="433" spans="3:9">
-      <c r="E433" t="s">
+    <row r="447" spans="3:9">
+      <c r="D447" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="448" spans="3:9">
+      <c r="C448" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5">
+      <c r="B452" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5">
+      <c r="C454" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="455" spans="2:5">
+      <c r="D455" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5">
+      <c r="E456" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5">
+      <c r="D457" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="458" spans="2:5">
+      <c r="C458" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5">
+      <c r="C460" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="461" spans="2:5">
+      <c r="D461" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5">
+      <c r="E462" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="463" spans="2:5">
+      <c r="D463" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="464" spans="2:5">
+      <c r="C464" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10">
+      <c r="C466" t="s">
+        <v>2084</v>
+      </c>
+      <c r="H466" s="92" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10">
+      <c r="D468" t="s">
         <v>2086</v>
       </c>
     </row>
-    <row r="434" spans="3:9">
-      <c r="D434" t="s">
+    <row r="469" spans="1:10">
+      <c r="E469" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10">
+      <c r="D470" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="435" spans="3:9">
-      <c r="C435" t="s">
+    <row r="473" spans="1:10">
+      <c r="D473" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10">
+      <c r="E474" t="s">
+        <v>2085</v>
+      </c>
+      <c r="J474" s="36" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10">
+      <c r="D475" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="437" spans="3:9">
-      <c r="C437" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="438" spans="3:9">
-      <c r="D438" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="439" spans="3:9">
-      <c r="E439" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="440" spans="3:9">
-      <c r="D440" t="s">
+    <row r="476" spans="1:10">
+      <c r="C476" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="441" spans="3:9">
-      <c r="C441" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="443" spans="3:9">
-      <c r="C443" t="s">
-        <v>2088</v>
-      </c>
-      <c r="I443" s="57" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="444" spans="3:9">
-      <c r="D444" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="445" spans="3:9">
-      <c r="E445" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="446" spans="3:9">
-      <c r="D446" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="447" spans="3:9">
-      <c r="C447" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="451" spans="2:5">
-      <c r="B451" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="453" spans="2:5">
-      <c r="C453" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="454" spans="2:5">
-      <c r="D454" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="455" spans="2:5">
-      <c r="E455" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="456" spans="2:5">
-      <c r="D456" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="457" spans="2:5">
-      <c r="C457" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="459" spans="2:5">
-      <c r="C459" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="460" spans="2:5">
-      <c r="D460" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="461" spans="2:5">
-      <c r="E461" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="462" spans="2:5">
-      <c r="D462" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="463" spans="2:5">
-      <c r="C463" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="465" spans="1:10">
-      <c r="C465" t="s">
-        <v>2088</v>
-      </c>
-      <c r="H465" s="92" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="467" spans="1:10">
-      <c r="D467" t="s">
+    <row r="479" spans="1:10">
+      <c r="A479" s="94" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="468" spans="1:10">
-      <c r="E468" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="469" spans="1:10">
-      <c r="D469" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="472" spans="1:10">
-      <c r="D472" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="473" spans="1:10">
-      <c r="E473" t="s">
-        <v>2089</v>
-      </c>
-      <c r="J473" s="36" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="474" spans="1:10">
-      <c r="D474" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="475" spans="1:10">
-      <c r="C475" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="478" spans="1:10">
-      <c r="A478" s="94" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="480" spans="1:10">
-      <c r="B480" s="36" t="s">
+    <row r="481" spans="2:10">
+      <c r="B481" s="36" t="s">
         <v>1591</v>
       </c>
-      <c r="C480" s="43" t="s">
-        <v>2105</v>
-      </c>
-      <c r="D480" s="43"/>
-      <c r="E480" s="43"/>
-      <c r="F480" s="43"/>
-      <c r="G480" s="43"/>
-      <c r="H480" s="43"/>
-      <c r="I480" s="43"/>
-      <c r="J480" s="43"/>
-    </row>
-    <row r="481" spans="3:10">
-      <c r="C481" s="43"/>
+      <c r="C481" s="43" t="s">
+        <v>2100</v>
+      </c>
       <c r="D481" s="43"/>
       <c r="E481" s="43"/>
       <c r="F481" s="43"/>
@@ -28808,10 +29180,8 @@
       <c r="I481" s="43"/>
       <c r="J481" s="43"/>
     </row>
-    <row r="482" spans="3:10">
-      <c r="C482" s="43" t="s">
-        <v>2106</v>
-      </c>
+    <row r="482" spans="2:10">
+      <c r="C482" s="43"/>
       <c r="D482" s="43"/>
       <c r="E482" s="43"/>
       <c r="F482" s="43"/>
@@ -28820,110 +29190,1214 @@
       <c r="I482" s="43"/>
       <c r="J482" s="43"/>
     </row>
-    <row r="484" spans="3:10">
-      <c r="C484" s="43" t="s">
+    <row r="483" spans="2:10">
+      <c r="C483" s="43" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D483" s="43"/>
+      <c r="E483" s="43"/>
+      <c r="F483" s="43"/>
+      <c r="G483" s="43"/>
+      <c r="H483" s="43"/>
+      <c r="I483" s="43"/>
+      <c r="J483" s="43"/>
+    </row>
+    <row r="485" spans="2:10">
+      <c r="C485" s="43" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="488" spans="2:10">
+      <c r="D488" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="489" spans="2:10">
+      <c r="E489" s="92" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="490" spans="2:10">
+      <c r="F490" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="491" spans="2:10">
+      <c r="G491" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="492" spans="2:10">
+      <c r="H492" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="493" spans="2:10">
+      <c r="G493" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="494" spans="2:10">
+      <c r="F494" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="F497" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="G498" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="H499" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" ht="18" customHeight="1">
+      <c r="G500" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="F501" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" s="94" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="B507" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="D508" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="E510" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="E512" t="s">
         <v>2107</v>
       </c>
     </row>
-    <row r="487" spans="3:10">
-      <c r="D487" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="488" spans="3:10">
-      <c r="E488" s="92" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="489" spans="3:10">
-      <c r="F489" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="490" spans="3:10">
-      <c r="G490" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="491" spans="3:10">
-      <c r="H491" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="492" spans="3:10">
-      <c r="G492" t="s">
+    <row r="514" spans="2:9">
+      <c r="E514" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="516" spans="2:9">
+      <c r="E516" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="519" spans="2:9">
+      <c r="B519" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="521" spans="2:9">
+      <c r="C521" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="522" spans="2:9">
+      <c r="E522" t="s">
+        <v>2112</v>
+      </c>
+      <c r="I522" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="523" spans="2:9">
+      <c r="E523" t="s">
+        <v>2113</v>
+      </c>
+      <c r="I523" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="526" spans="2:9">
+      <c r="E526" t="s">
+        <v>2116</v>
+      </c>
+      <c r="I526" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="527" spans="2:9">
+      <c r="E527" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I527" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="E529" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I529" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
+      <c r="E530" t="s">
+        <v>2121</v>
+      </c>
+      <c r="I530" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" s="94" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="B535" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" s="94" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="B554" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E554" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="B556" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E556" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="B558" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E558" s="57" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="B560" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F560" s="92" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="562" spans="2:9">
+      <c r="B562" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F562" s="92" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="563" spans="2:9">
+      <c r="B563" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F563" s="92" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="567" spans="2:9">
+      <c r="B567" s="36" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C567" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="569" spans="2:9">
+      <c r="C569" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="571" spans="2:9">
+      <c r="D571" s="52" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E571" s="18"/>
+      <c r="F571" s="18"/>
+      <c r="G571" s="18"/>
+      <c r="H571" s="18"/>
+      <c r="I571" s="43"/>
+    </row>
+    <row r="572" spans="2:9">
+      <c r="D572" s="18"/>
+      <c r="E572" s="18"/>
+      <c r="F572" s="18"/>
+      <c r="G572" s="18"/>
+      <c r="H572" s="18"/>
+      <c r="I572" s="43"/>
+    </row>
+    <row r="573" spans="2:9">
+      <c r="D573" s="52" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E573" s="18"/>
+      <c r="F573" s="18"/>
+      <c r="G573" s="18"/>
+      <c r="H573" s="18"/>
+      <c r="I573" s="43"/>
+    </row>
+    <row r="574" spans="2:9">
+      <c r="D574" s="18"/>
+      <c r="E574" s="18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F574" s="18"/>
+      <c r="G574" s="18"/>
+      <c r="H574" s="18"/>
+      <c r="I574" s="43"/>
+    </row>
+    <row r="575" spans="2:9">
+      <c r="D575" s="52"/>
+      <c r="E575" s="18"/>
+      <c r="F575" s="18" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G575" s="18"/>
+      <c r="H575" s="18"/>
+      <c r="I575" s="43"/>
+    </row>
+    <row r="576" spans="2:9">
+      <c r="D576" s="18"/>
+      <c r="E576" s="18"/>
+      <c r="F576" s="18" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G576" s="18"/>
+      <c r="H576" s="18"/>
+      <c r="I576" s="57" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="577" spans="3:11">
+      <c r="D577" s="52"/>
+      <c r="E577" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="493" spans="3:10">
-      <c r="F493" t="s">
+      <c r="F577" s="18"/>
+      <c r="G577" s="18"/>
+      <c r="H577" s="18"/>
+      <c r="I577" s="43"/>
+    </row>
+    <row r="578" spans="3:11">
+      <c r="D578" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="496" spans="3:10">
-      <c r="F496" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
-      <c r="G497" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
-      <c r="H498" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" ht="18" customHeight="1">
-      <c r="G499" t="s">
+      <c r="E578" s="18"/>
+      <c r="F578" s="18"/>
+      <c r="G578" s="18"/>
+      <c r="H578" s="18"/>
+      <c r="I578" s="43"/>
+    </row>
+    <row r="579" spans="3:11">
+      <c r="D579" s="99"/>
+      <c r="E579" s="43"/>
+      <c r="F579" s="43"/>
+      <c r="G579" s="43"/>
+      <c r="H579" s="43"/>
+      <c r="I579" s="43"/>
+    </row>
+    <row r="582" spans="3:11">
+      <c r="C582" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="584" spans="3:11">
+      <c r="D584" s="18" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E584" s="18"/>
+      <c r="F584" s="18"/>
+      <c r="G584" s="18"/>
+      <c r="H584" s="18"/>
+      <c r="I584" s="18"/>
+      <c r="J584" s="18"/>
+    </row>
+    <row r="585" spans="3:11">
+      <c r="D585" s="18"/>
+      <c r="E585" s="18"/>
+      <c r="F585" s="18"/>
+      <c r="G585" s="18"/>
+      <c r="H585" s="18"/>
+      <c r="I585" s="18"/>
+      <c r="J585" s="18"/>
+    </row>
+    <row r="586" spans="3:11">
+      <c r="D586" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="500" spans="1:8">
-      <c r="F500" t="s">
+      <c r="E586" s="18"/>
+      <c r="F586" s="18"/>
+      <c r="G586" s="18"/>
+      <c r="H586" s="18"/>
+      <c r="I586" s="18"/>
+      <c r="J586" s="18"/>
+    </row>
+    <row r="587" spans="3:11">
+      <c r="D587" s="18" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E587" s="18"/>
+      <c r="F587" s="18"/>
+      <c r="G587" s="18"/>
+      <c r="H587" s="18"/>
+      <c r="I587" s="18"/>
+      <c r="J587" s="18"/>
+    </row>
+    <row r="588" spans="3:11">
+      <c r="D588" s="18"/>
+      <c r="E588" s="18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F588" s="18"/>
+      <c r="G588" s="18"/>
+      <c r="H588" s="18"/>
+      <c r="I588" s="18"/>
+      <c r="J588" s="18"/>
+    </row>
+    <row r="589" spans="3:11">
+      <c r="D589" s="18"/>
+      <c r="E589" s="18"/>
+      <c r="F589" s="18" t="s">
+        <v>2155</v>
+      </c>
+      <c r="G589" s="18"/>
+      <c r="H589" s="18"/>
+      <c r="I589" s="18"/>
+      <c r="J589" s="18"/>
+    </row>
+    <row r="590" spans="3:11">
+      <c r="D590" s="18"/>
+      <c r="E590" s="18"/>
+      <c r="F590" s="100" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G590" s="100"/>
+      <c r="H590" s="100"/>
+      <c r="I590" s="100"/>
+      <c r="J590" s="100"/>
+      <c r="K590" s="101" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="591" spans="3:11">
+      <c r="D591" s="18"/>
+      <c r="E591" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="503" spans="1:8">
-      <c r="A503" s="94" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
-      <c r="B506" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8">
-      <c r="D507" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8">
-      <c r="E509" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8">
-      <c r="E511" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="513" spans="2:5">
-      <c r="E513" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="515" spans="2:5">
-      <c r="E515" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="518" spans="2:5">
-      <c r="B518" t="s">
-        <v>2114</v>
-      </c>
+      <c r="F591" s="18"/>
+      <c r="G591" s="18"/>
+      <c r="H591" s="18"/>
+      <c r="I591" s="18"/>
+      <c r="J591" s="18"/>
+    </row>
+    <row r="592" spans="3:11">
+      <c r="D592" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E592" s="18"/>
+      <c r="F592" s="18"/>
+      <c r="G592" s="18"/>
+      <c r="H592" s="18"/>
+      <c r="I592" s="18"/>
+      <c r="J592" s="18"/>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598" s="94" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="B600" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="B602" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9">
+      <c r="C605" s="18" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D605" s="18"/>
+      <c r="E605" s="18"/>
+      <c r="F605" s="18"/>
+      <c r="G605" s="18"/>
+      <c r="H605" s="18"/>
+      <c r="I605" s="18"/>
+    </row>
+    <row r="606" spans="1:9">
+      <c r="C606" s="18"/>
+      <c r="D606" s="18" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E606" s="18"/>
+      <c r="F606" s="18"/>
+      <c r="G606" s="18"/>
+      <c r="H606" s="18"/>
+      <c r="I606" s="18"/>
+    </row>
+    <row r="607" spans="1:9">
+      <c r="C607" s="18"/>
+      <c r="D607" s="18"/>
+      <c r="E607" s="18" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F607" s="18"/>
+      <c r="G607" s="18"/>
+      <c r="H607" s="18"/>
+      <c r="I607" s="18"/>
+    </row>
+    <row r="608" spans="1:9">
+      <c r="C608" s="18"/>
+      <c r="D608" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E608" s="18"/>
+      <c r="F608" s="18"/>
+      <c r="G608" s="18"/>
+      <c r="H608" s="18"/>
+      <c r="I608" s="18"/>
+    </row>
+    <row r="609" spans="3:11">
+      <c r="C609" s="18"/>
+      <c r="D609" s="18"/>
+      <c r="E609" s="18"/>
+      <c r="F609" s="18"/>
+      <c r="G609" s="18"/>
+      <c r="H609" s="18"/>
+      <c r="I609" s="18"/>
+    </row>
+    <row r="610" spans="3:11">
+      <c r="C610" s="18"/>
+      <c r="D610" s="18" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E610" s="18"/>
+      <c r="F610" s="18"/>
+      <c r="G610" s="18"/>
+      <c r="H610" s="18"/>
+      <c r="I610" s="18"/>
+    </row>
+    <row r="611" spans="3:11">
+      <c r="C611" s="18"/>
+      <c r="D611" s="18"/>
+      <c r="E611" s="18" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F611" s="18"/>
+      <c r="G611" s="18"/>
+      <c r="H611" s="18"/>
+      <c r="I611" s="18"/>
+    </row>
+    <row r="612" spans="3:11">
+      <c r="C612" s="18"/>
+      <c r="D612" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E612" s="18"/>
+      <c r="F612" s="18"/>
+      <c r="G612" s="18"/>
+      <c r="H612" s="18"/>
+      <c r="I612" s="18"/>
+    </row>
+    <row r="613" spans="3:11">
+      <c r="C613" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D613" s="18"/>
+      <c r="E613" s="18"/>
+      <c r="F613" s="18"/>
+      <c r="G613" s="18"/>
+      <c r="H613" s="18"/>
+      <c r="I613" s="18"/>
+    </row>
+    <row r="614" spans="3:11">
+      <c r="D614" s="18"/>
+      <c r="E614" s="18"/>
+      <c r="F614" s="18"/>
+      <c r="G614" s="18"/>
+      <c r="H614" s="18"/>
+      <c r="I614" s="18"/>
+    </row>
+    <row r="615" spans="3:11">
+      <c r="C615" s="18" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D615" s="18"/>
+      <c r="E615" s="18"/>
+      <c r="F615" s="18"/>
+      <c r="G615" s="18"/>
+      <c r="H615" s="18"/>
+      <c r="I615" s="18"/>
+    </row>
+    <row r="616" spans="3:11">
+      <c r="C616" s="18"/>
+      <c r="D616" s="18" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E616" s="18"/>
+      <c r="F616" s="18"/>
+      <c r="G616" s="18"/>
+      <c r="H616" s="18"/>
+      <c r="I616" s="18"/>
+    </row>
+    <row r="617" spans="3:11">
+      <c r="C617" s="18"/>
+      <c r="D617" s="18"/>
+      <c r="E617" s="18" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F617" s="18"/>
+      <c r="G617" s="18"/>
+      <c r="H617" s="18"/>
+      <c r="I617" s="18"/>
+    </row>
+    <row r="618" spans="3:11">
+      <c r="C618" s="18"/>
+      <c r="D618" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E618" s="18"/>
+      <c r="F618" s="18"/>
+      <c r="G618" s="18"/>
+      <c r="H618" s="18"/>
+      <c r="I618" s="18"/>
+    </row>
+    <row r="619" spans="3:11">
+      <c r="C619" s="18"/>
+      <c r="D619" s="18"/>
+      <c r="E619" s="18"/>
+      <c r="F619" s="18"/>
+      <c r="G619" s="18"/>
+      <c r="H619" s="18"/>
+      <c r="I619" s="18"/>
+    </row>
+    <row r="620" spans="3:11">
+      <c r="C620" s="18"/>
+      <c r="D620" s="18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E620" s="18"/>
+      <c r="F620" s="18"/>
+      <c r="G620" s="18"/>
+      <c r="H620" s="18"/>
+      <c r="I620" s="18"/>
+    </row>
+    <row r="621" spans="3:11">
+      <c r="C621" s="18"/>
+      <c r="D621" s="18"/>
+      <c r="E621" s="18" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F621" s="18"/>
+      <c r="G621" s="18"/>
+      <c r="H621" s="18"/>
+      <c r="I621" s="18"/>
+    </row>
+    <row r="622" spans="3:11">
+      <c r="C622" s="18"/>
+      <c r="D622" s="18"/>
+      <c r="E622" s="18" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F622" s="18"/>
+      <c r="G622" s="18"/>
+      <c r="H622" s="18"/>
+      <c r="I622" s="18"/>
+      <c r="K622" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="623" spans="3:11">
+      <c r="C623" s="18"/>
+      <c r="D623" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E623" s="18"/>
+      <c r="F623" s="18"/>
+      <c r="G623" s="18"/>
+      <c r="H623" s="18"/>
+      <c r="I623" s="18"/>
+      <c r="K623" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="624" spans="3:11">
+      <c r="C624" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D624" s="18"/>
+      <c r="E624" s="18"/>
+      <c r="F624" s="18"/>
+      <c r="G624" s="18"/>
+      <c r="H624" s="18"/>
+      <c r="I624" s="18"/>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" s="94" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="B628" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="C630" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="D631" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="E632" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="D633" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="C634" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="C636" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="D637" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="E638" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="D639" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="C640" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="642" spans="3:8">
+      <c r="C642" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="643" spans="3:8">
+      <c r="D643" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="644" spans="3:8">
+      <c r="E644" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="645" spans="3:8">
+      <c r="D645" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="646" spans="3:8">
+      <c r="C646" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="648" spans="3:8">
+      <c r="C648" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="649" spans="3:8">
+      <c r="D649" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="650" spans="3:8">
+      <c r="E650" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="651" spans="3:8">
+      <c r="D651" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="654" spans="3:8">
+      <c r="D654" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="655" spans="3:8">
+      <c r="E655" s="50" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F655" s="50"/>
+      <c r="H655" s="92" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="656" spans="3:8">
+      <c r="E656" s="50" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F656" s="50"/>
+    </row>
+    <row r="657" spans="1:6">
+      <c r="E657" s="50" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F657" s="50"/>
+    </row>
+    <row r="658" spans="1:6">
+      <c r="D658" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6">
+      <c r="C659" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6">
+      <c r="A661" s="94" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6">
+      <c r="A667" s="98" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" s="36" customFormat="1">
+      <c r="A668" s="103" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B668" s="104" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C668" s="104" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6">
+      <c r="A669" s="102">
+        <v>1</v>
+      </c>
+      <c r="B669" s="70" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C669" s="70"/>
+    </row>
+    <row r="670" spans="1:6">
+      <c r="A670" s="102">
+        <v>2</v>
+      </c>
+      <c r="B670" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C670" s="70"/>
+    </row>
+    <row r="671" spans="1:6">
+      <c r="A671" s="102">
+        <v>3</v>
+      </c>
+      <c r="B671" s="70" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C671" s="70"/>
+    </row>
+    <row r="672" spans="1:6">
+      <c r="A672" s="102">
+        <v>4</v>
+      </c>
+      <c r="B672" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C672" s="70"/>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" s="102">
+        <v>5</v>
+      </c>
+      <c r="B673" s="70" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C673" s="70"/>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" s="102">
+        <v>6</v>
+      </c>
+      <c r="B674" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C674" s="70"/>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" s="102">
+        <v>7</v>
+      </c>
+      <c r="B675" s="70" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C675" s="70"/>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" s="102">
+        <v>8</v>
+      </c>
+      <c r="B676" s="70" t="s">
+        <v>638</v>
+      </c>
+      <c r="C676" s="70"/>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" s="102">
+        <v>9</v>
+      </c>
+      <c r="B677" s="70" t="s">
+        <v>638</v>
+      </c>
+      <c r="C677" s="70"/>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" s="102">
+        <v>10</v>
+      </c>
+      <c r="B678" s="70" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C678" s="70"/>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" s="102">
+        <v>11</v>
+      </c>
+      <c r="B679" s="70" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C679" s="70"/>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" s="102">
+        <v>12</v>
+      </c>
+      <c r="B680" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C680" s="70"/>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" s="102">
+        <v>13</v>
+      </c>
+      <c r="B681" s="70"/>
+      <c r="C681" s="70"/>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682" s="102">
+        <v>14</v>
+      </c>
+      <c r="B682" s="70"/>
+      <c r="C682" s="70"/>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683" s="102">
+        <v>15</v>
+      </c>
+      <c r="B683" s="70"/>
+      <c r="C683" s="70"/>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684" s="102">
+        <v>16</v>
+      </c>
+      <c r="B684" s="70"/>
+      <c r="C684" s="70"/>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685" s="102">
+        <v>17</v>
+      </c>
+      <c r="B685" s="70"/>
+      <c r="C685" s="70"/>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="A686" s="102">
+        <v>18</v>
+      </c>
+      <c r="B686" s="70"/>
+      <c r="C686" s="70"/>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="A687" s="102">
+        <v>19</v>
+      </c>
+      <c r="B687" s="70"/>
+      <c r="C687" s="70"/>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="A688" s="102">
+        <v>20</v>
+      </c>
+      <c r="B688" s="70"/>
+      <c r="C688" s="70"/>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="A689" s="102">
+        <v>21</v>
+      </c>
+      <c r="B689" s="70"/>
+      <c r="C689" s="70"/>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" s="102">
+        <v>22</v>
+      </c>
+      <c r="B690" s="70"/>
+      <c r="C690" s="70"/>
+    </row>
+    <row r="691" spans="1:3">
+      <c r="A691" s="102">
+        <v>23</v>
+      </c>
+      <c r="B691" s="70"/>
+      <c r="C691" s="70"/>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692" s="102">
+        <v>24</v>
+      </c>
+      <c r="B692" s="70"/>
+      <c r="C692" s="70"/>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="A693" s="102">
+        <v>25</v>
+      </c>
+      <c r="B693" s="70"/>
+      <c r="C693" s="70"/>
+    </row>
+    <row r="694" spans="1:3">
+      <c r="A694" s="102">
+        <v>26</v>
+      </c>
+      <c r="B694" s="70"/>
+      <c r="C694" s="70"/>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695" s="102">
+        <v>27</v>
+      </c>
+      <c r="B695" s="70"/>
+      <c r="C695" s="70"/>
+    </row>
+    <row r="696" spans="1:3">
+      <c r="A696" s="102">
+        <v>28</v>
+      </c>
+      <c r="B696" s="70"/>
+      <c r="C696" s="70"/>
+    </row>
+    <row r="697" spans="1:3">
+      <c r="A697" s="102">
+        <v>29</v>
+      </c>
+      <c r="B697" s="70"/>
+      <c r="C697" s="70"/>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698" s="102">
+        <v>30</v>
+      </c>
+      <c r="B698" s="70"/>
+      <c r="C698" s="70"/>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699" s="102">
+        <v>31</v>
+      </c>
+      <c r="B699" s="70"/>
+      <c r="C699" s="70"/>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700" s="102">
+        <v>32</v>
+      </c>
+      <c r="B700" s="70"/>
+      <c r="C700" s="70"/>
+    </row>
+    <row r="701" spans="1:3">
+      <c r="A701" s="102">
+        <v>33</v>
+      </c>
+      <c r="B701" s="70"/>
+      <c r="C701" s="70"/>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="A702" s="102">
+        <v>34</v>
+      </c>
+      <c r="B702" s="70"/>
+      <c r="C702" s="70"/>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703" s="102">
+        <v>35</v>
+      </c>
+      <c r="B703" s="70"/>
+      <c r="C703" s="70"/>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704" s="102">
+        <v>36</v>
+      </c>
+      <c r="B704" s="70"/>
+      <c r="C704" s="70"/>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705" s="102">
+        <v>37</v>
+      </c>
+      <c r="B705" s="70"/>
+      <c r="C705" s="70"/>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="A706" s="102">
+        <v>38</v>
+      </c>
+      <c r="B706" s="70"/>
+      <c r="C706" s="70"/>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="A707" s="102">
+        <v>39</v>
+      </c>
+      <c r="B707" s="70"/>
+      <c r="C707" s="70"/>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708" s="102">
+        <v>40</v>
+      </c>
+      <c r="B708" s="70"/>
+      <c r="C708" s="70"/>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709" s="102">
+        <v>41</v>
+      </c>
+      <c r="B709" s="70"/>
+      <c r="C709" s="70"/>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="A710" s="102">
+        <v>42</v>
+      </c>
+      <c r="B710" s="70"/>
+      <c r="C710" s="70"/>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="A711" s="102">
+        <v>43</v>
+      </c>
+      <c r="B711" s="70"/>
+      <c r="C711" s="70"/>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="A712" s="102">
+        <v>44</v>
+      </c>
+      <c r="B712" s="70"/>
+      <c r="C712" s="70"/>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="A713" s="102">
+        <v>45</v>
+      </c>
+      <c r="B713" s="70"/>
+      <c r="C713" s="70"/>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="A714" s="102">
+        <v>46</v>
+      </c>
+      <c r="B714" s="70"/>
+      <c r="C714" s="70"/>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="A715" s="102">
+        <v>47</v>
+      </c>
+      <c r="B715" s="70"/>
+      <c r="C715" s="70"/>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716" s="102">
+        <v>48</v>
+      </c>
+      <c r="B716" s="70"/>
+      <c r="C716" s="70"/>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="A717" s="102">
+        <v>49</v>
+      </c>
+      <c r="B717" s="70"/>
+      <c r="C717" s="70"/>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="A718" s="102">
+        <v>50</v>
+      </c>
+      <c r="B718" s="70"/>
+      <c r="C718" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="2193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="2260">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -6288,9 +6288,6 @@
     <t>3. Method ở lớp con ko được throw 1 checked exception mới hoặc 1 exception bất kì nào  rộng hơn lớp cha</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Nếu method ở lớp cha trả về giá trị, thì method override ở lớp con phải trả về đúng kiểu dl hoặc subclass của kiểu dl </t>
-  </si>
-  <si>
     <t>private String getAge () { return "50"}</t>
   </si>
   <si>
@@ -6397,9 +6394,6 @@
   </si>
   <si>
     <t>public abstract boolean hasFoo ( ) ;</t>
-  </si>
-  <si>
-    <t>1. Trong abstract class thì có thể tồn tại cả abstract method và non-abstract method</t>
   </si>
   <si>
     <t>2. Abstract method chỉ tồn tại trong abstract class</t>
@@ -7147,9 +7141,6 @@
     <t>Có thể truyền class hoặc subClass Reptile vào OK</t>
   </si>
   <si>
-    <t>23. Đa hình và override</t>
-  </si>
-  <si>
     <t>Một trong các tính năng của đa hình là khả năng truyền instance của 1 class hoặc 1 interface vào trong 1 method</t>
   </si>
   <si>
@@ -7172,6 +7163,239 @@
   </si>
   <si>
     <t>A D E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B C </t>
+  </si>
+  <si>
+    <t>B C</t>
+  </si>
+  <si>
+    <t>A C</t>
+  </si>
+  <si>
+    <t>A B D E</t>
+  </si>
+  <si>
+    <t>A D E F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t>B C E F</t>
+  </si>
+  <si>
+    <t>A C F</t>
+  </si>
+  <si>
+    <t>Tricky, Nên nhớ là Java 8 đã có thể thêm default và static, Nên abstract ko phải là là specifiers apply cho toàn bộ method</t>
+  </si>
+  <si>
+    <t>Class Parent ko khai báo constructor ko tham số, do vậy  ở lớp con bắt buộc phải có constructor có tham số , và ở dòng đầu tiên phải có lệnhsuper (tham số )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Nếu method ở lớp cha trả về giá trị, thì method override ở lớp con phải trả về đúng kiểu dl hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subclass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> của kiểu dl </t>
+    </r>
+  </si>
+  <si>
+    <t>Variables luôn luôn là hidden, bất kể là access modifier nào</t>
+  </si>
+  <si>
+    <t>Không phải tất cả exception nào cũng có thể detected lúc compile-time</t>
+  </si>
+  <si>
+    <t>Số câu đúng : 5/20</t>
+  </si>
+  <si>
+    <t>Abstract class không cần implement các method của class mà nó extends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Trong abstract class thì có thể tồn tại cả abstract method và non-abstract method </t>
+  </si>
+  <si>
+    <t>private method</t>
+  </si>
+  <si>
+    <t>protected method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-abstract method  là method có body có thể là </t>
+  </si>
+  <si>
+    <t>public method</t>
+  </si>
+  <si>
+    <t>static method</t>
+  </si>
+  <si>
+    <t>final method</t>
+  </si>
+  <si>
+    <t>static final method</t>
+  </si>
+  <si>
+    <t>default method</t>
+  </si>
+  <si>
+    <t>public void a ( ) { }</t>
+  </si>
+  <si>
+    <t>protected void b ( ) { }</t>
+  </si>
+  <si>
+    <t>public void c ( ) { }</t>
+  </si>
+  <si>
+    <t>static void d ( ) { }</t>
+  </si>
+  <si>
+    <t>final void e ( ) { }</t>
+  </si>
+  <si>
+    <t>static final void f ( ) { }</t>
+  </si>
+  <si>
+    <t>void g () { }</t>
+  </si>
+  <si>
+    <t>Final Method ko thể bị ghi đè</t>
+  </si>
+  <si>
+    <t>Kinh nghiệm là nếu đáp án có "not compile at line … " thì phải xem code có compile ko (Đặc biệt lưu ý)</t>
+  </si>
+  <si>
+    <t>23. Hidden method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden method là </t>
+  </si>
+  <si>
+    <t>stattic method ở lớp cha</t>
+  </si>
+  <si>
+    <t>private method ở lớp cha</t>
+  </si>
+  <si>
+    <t>variables (ko cần quan tâm access modifier là gì )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi trong cấu trúc đa hình cha-con mà chứa hiddien method, thì việc method được sử dụng phụ thuộc vào kiểu dl mà nó reference </t>
+  </si>
+  <si>
+    <t>Nghĩa là :</t>
+  </si>
+  <si>
+    <t>public abstract class Parent {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private void fly() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Parent fly");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Parent parent = new Child();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        parent.fly();</t>
+  </si>
+  <si>
+    <t>public class Child extends Parent {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    protected void fly () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Child flys");</t>
+  </si>
+  <si>
+    <t>// private method trong quan hệ kế thừa -&gt; Đây là hidden method</t>
+  </si>
+  <si>
+    <t>// Hàm fly() này gọi phụ thuộc vào kiểu dl Reference, Ở đây là Parent</t>
+  </si>
+  <si>
+    <t>// OUTPUT : Parent flay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD1 : </t>
+  </si>
+  <si>
+    <t>VD2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public int a = 99;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int a = 11;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void foo(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Parent foo");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Child Foo");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Parent.foo();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Child child = new Child();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       child.foo();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Gọi hàm foo() Parent </t>
+  </si>
+  <si>
+    <t>Output : Parent foo</t>
+  </si>
+  <si>
+    <t>// Gọi hàm foo () Child</t>
+  </si>
+  <si>
+    <t>OUTPUT : Child foo</t>
+  </si>
+  <si>
+    <t>// Static method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Override lại bắt buộc cũng phải là static </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                parent.a;</t>
+  </si>
+  <si>
+    <t>// Biến a này cũng là hidden, Nên phụ thuộc vào kiểu dl Reference</t>
+  </si>
+  <si>
+    <t>// OUTPUT : 99</t>
   </si>
 </sst>
 </file>
@@ -8765,13 +8989,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>149088</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>29418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>463826</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8803,13 +9027,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>149086</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>256761</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>38054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8841,13 +9065,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>536</xdr:row>
+      <xdr:row>543</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>163275</xdr:colOff>
-      <xdr:row>549</xdr:row>
+      <xdr:row>556</xdr:row>
       <xdr:rowOff>133714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8879,13 +9103,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>535</xdr:row>
+      <xdr:row>542</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>7912</xdr:colOff>
-      <xdr:row>544</xdr:row>
+      <xdr:row>551</xdr:row>
       <xdr:rowOff>131409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -22925,17 +23149,17 @@
         <v>1504</v>
       </c>
       <c r="C36" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="38" spans="2:18">
       <c r="C38" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="40" spans="2:18">
       <c r="C40" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="41" spans="2:18">
@@ -22948,7 +23172,7 @@
         <v>1506</v>
       </c>
       <c r="G42" s="92" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
@@ -22967,7 +23191,7 @@
         <v>1507</v>
       </c>
       <c r="G43" s="92" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="H43" s="50"/>
       <c r="I43" s="50"/>
@@ -22986,7 +23210,7 @@
         <v>1508</v>
       </c>
       <c r="G44" s="92" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
@@ -23049,10 +23273,10 @@
     </row>
     <row r="50" spans="1:12">
       <c r="C50" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G50" s="57" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="H50" s="57"/>
       <c r="I50" s="57"/>
@@ -23062,10 +23286,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="C51" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G51" s="57" t="s">
         <v>2000</v>
-      </c>
-      <c r="G51" s="57" t="s">
-        <v>2002</v>
       </c>
       <c r="H51" s="57"/>
       <c r="I51" s="57"/>
@@ -27405,10 +27629,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L718"/>
+  <dimension ref="A1:P766"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A661" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B680" sqref="B680"/>
+    <sheetView tabSelected="1" topLeftCell="A670" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D685" sqref="D685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27514,7 +27738,7 @@
     </row>
     <row r="42" spans="3:6">
       <c r="C42" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="43" spans="3:6">
@@ -27581,12 +27805,12 @@
         <v>1904</v>
       </c>
       <c r="C59" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="C60" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -27624,7 +27848,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="D78" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="H78" t="s">
         <v>1920</v>
@@ -27647,17 +27871,17 @@
     </row>
     <row r="85" spans="1:3">
       <c r="C85" t="s">
-        <v>1925</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="C87" s="47" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="C88" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -27672,7 +27896,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="C94" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -27682,15 +27906,15 @@
     </row>
     <row r="97" spans="1:7">
       <c r="B97" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="C98" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G98" t="s">
         <v>1928</v>
-      </c>
-      <c r="G98" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -27698,55 +27922,55 @@
         <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="94" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="B103" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="94" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="94" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D113" t="s">
         <v>1938</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1939</v>
       </c>
     </row>
     <row r="114" spans="2:7">
       <c r="D114" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="119" spans="2:7">
       <c r="C119" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="120" spans="2:7">
       <c r="D120" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="121" spans="2:7">
@@ -27761,12 +27985,12 @@
     </row>
     <row r="124" spans="2:7">
       <c r="B124" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="126" spans="2:7">
       <c r="C126" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G126" s="57" t="s">
         <v>1887</v>
@@ -27789,345 +28013,393 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="94" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="B133" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="B134" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="B136" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="B137" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="160" spans="3:4">
       <c r="C160" s="36" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:11">
       <c r="D161">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:11">
       <c r="A165" s="94" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="B167" s="36" t="s">
         <v>1715</v>
       </c>
       <c r="C167" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="B168" s="36"/>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="B169" s="36"/>
+      <c r="D169" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I169" t="s">
+        <v>2206</v>
+      </c>
+      <c r="K169" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="B170" s="36"/>
+      <c r="I170" t="s">
+        <v>2207</v>
+      </c>
+      <c r="K170" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="B171" s="36"/>
+      <c r="I171" t="s">
+        <v>2209</v>
+      </c>
+      <c r="K171" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="B172" s="36"/>
+      <c r="I172" t="s">
+        <v>2210</v>
+      </c>
+      <c r="K172" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="B173" s="36"/>
+      <c r="I173" t="s">
+        <v>2211</v>
+      </c>
+      <c r="K173" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="B174" s="36"/>
+      <c r="I174" t="s">
+        <v>2212</v>
+      </c>
+      <c r="K174" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="I175" t="s">
+        <v>2213</v>
+      </c>
+      <c r="K175" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="C176" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="178" spans="3:10">
+      <c r="C178" t="s">
         <v>1962</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
-      <c r="C169" t="s">
+    <row r="180" spans="3:10">
+      <c r="C180" t="s">
+        <v>2003</v>
+      </c>
+      <c r="H180" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="182" spans="3:10">
+      <c r="D182" s="57" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="184" spans="3:10">
+      <c r="E184" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="C171" t="s">
+      <c r="J184" s="57" t="s">
         <v>1964</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="C173" t="s">
-        <v>2005</v>
-      </c>
-      <c r="H173" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="D175" s="57" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="177" spans="3:10">
-      <c r="E177" t="s">
-        <v>1965</v>
-      </c>
-      <c r="J177" s="57" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="178" spans="3:10">
-      <c r="F178" t="s">
+    <row r="185" spans="3:10">
+      <c r="F185" t="s">
+        <v>1952</v>
+      </c>
+      <c r="J185" s="57" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="186" spans="3:10">
+      <c r="F186" t="s">
         <v>1953</v>
       </c>
-      <c r="J178" s="57" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="179" spans="3:10">
-      <c r="F179" t="s">
+    </row>
+    <row r="187" spans="3:10">
+      <c r="G187" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="180" spans="3:10">
-      <c r="G180" t="s">
+      <c r="J187" s="57" t="s">
         <v>1955</v>
-      </c>
-      <c r="J180" s="57" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="181" spans="3:10">
-      <c r="F181" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="183" spans="3:10">
-      <c r="F183" t="s">
-        <v>1967</v>
-      </c>
-      <c r="J183" s="57" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="184" spans="3:10">
-      <c r="F184" t="s">
-        <v>2007</v>
-      </c>
-      <c r="J184" s="57" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="185" spans="3:10">
-      <c r="E185" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="186" spans="3:10">
-      <c r="D186" s="92" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="187" spans="3:10">
-      <c r="E187" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="188" spans="3:10">
       <c r="F188" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="3:10">
+      <c r="F190" t="s">
+        <v>1965</v>
+      </c>
+      <c r="J190" s="57" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="191" spans="3:10">
+      <c r="F191" t="s">
+        <v>2005</v>
+      </c>
+      <c r="J191" s="57" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="192" spans="3:10">
+      <c r="E192" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="3:10">
+      <c r="D193" s="92" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="194" spans="3:10">
+      <c r="E194" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="195" spans="3:10">
+      <c r="F195" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="196" spans="3:10">
+      <c r="F196" t="s">
         <v>1960</v>
       </c>
     </row>
-    <row r="189" spans="3:10">
-      <c r="F189" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="190" spans="3:10">
-      <c r="E190" t="s">
+    <row r="197" spans="3:10">
+      <c r="E197" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="3:10">
-      <c r="C192" t="s">
+    <row r="199" spans="3:10">
+      <c r="C199" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="200" spans="3:10">
+      <c r="C200" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="202" spans="3:10">
+      <c r="D202" s="57" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="203" spans="3:10">
+      <c r="E203" s="96" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="193" spans="3:10">
-      <c r="C193" t="s">
+      <c r="F203" s="95"/>
+      <c r="G203" s="95"/>
+      <c r="H203" s="95"/>
+    </row>
+    <row r="204" spans="3:10">
+      <c r="E204" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F204" s="95"/>
+      <c r="G204" s="95"/>
+      <c r="H204" s="95"/>
+      <c r="J204" s="57" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="205" spans="3:10">
+      <c r="E205" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F205" s="95"/>
+      <c r="G205" s="95"/>
+      <c r="H205" s="95"/>
+    </row>
+    <row r="208" spans="3:10">
+      <c r="D208" s="57" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="210" spans="3:10">
+      <c r="E210" s="58" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F210" s="43"/>
+      <c r="G210" s="43"/>
+      <c r="H210" s="43"/>
+      <c r="I210" s="43"/>
+    </row>
+    <row r="211" spans="3:10">
+      <c r="E211" s="58" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F211" s="43"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="43"/>
+      <c r="I211" s="43"/>
+    </row>
+    <row r="212" spans="3:10">
+      <c r="E212" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F212" s="43"/>
+      <c r="G212" s="43"/>
+      <c r="H212" s="43"/>
+      <c r="I212" s="43"/>
+    </row>
+    <row r="213" spans="3:10">
+      <c r="E213" s="43"/>
+      <c r="F213" s="43"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="43"/>
+    </row>
+    <row r="215" spans="3:10">
+      <c r="E215" s="97" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F215" s="97"/>
+      <c r="G215" s="97"/>
+      <c r="H215" s="97"/>
+    </row>
+    <row r="216" spans="3:10">
+      <c r="E216" s="97"/>
+      <c r="F216" s="97"/>
+      <c r="G216" s="97"/>
+      <c r="H216" s="97"/>
+    </row>
+    <row r="217" spans="3:10">
+      <c r="E217" s="97" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F217" s="97"/>
+      <c r="G217" s="97"/>
+      <c r="H217" s="97"/>
+    </row>
+    <row r="218" spans="3:10">
+      <c r="E218" s="97" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F218" s="97"/>
+      <c r="G218" s="97"/>
+      <c r="H218" s="97"/>
+      <c r="J218" s="57" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="219" spans="3:10">
+      <c r="E219" s="97"/>
+      <c r="F219" s="97"/>
+      <c r="G219" s="97"/>
+      <c r="H219" s="97"/>
+    </row>
+    <row r="220" spans="3:10">
+      <c r="E220" s="97" t="s">
+        <v>620</v>
+      </c>
+      <c r="F220" s="97"/>
+      <c r="G220" s="97"/>
+      <c r="H220" s="97"/>
+    </row>
+    <row r="221" spans="3:10">
+      <c r="E221" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F221" s="97"/>
+      <c r="G221" s="97"/>
+      <c r="H221" s="97"/>
+    </row>
+    <row r="223" spans="3:10">
+      <c r="C223" t="s">
         <v>1978</v>
       </c>
     </row>
-    <row r="195" spans="3:10">
-      <c r="D195" s="57" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="196" spans="3:10">
-      <c r="E196" s="96" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F196" s="95"/>
-      <c r="G196" s="95"/>
-      <c r="H196" s="95"/>
-    </row>
-    <row r="197" spans="3:10">
-      <c r="E197" s="96" t="s">
-        <v>1972</v>
-      </c>
-      <c r="F197" s="95"/>
-      <c r="G197" s="95"/>
-      <c r="H197" s="95"/>
-      <c r="J197" s="57" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="198" spans="3:10">
-      <c r="E198" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="F198" s="95"/>
-      <c r="G198" s="95"/>
-      <c r="H198" s="95"/>
-    </row>
-    <row r="201" spans="3:10">
-      <c r="D201" s="57" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="203" spans="3:10">
-      <c r="E203" s="58" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F203" s="43"/>
-      <c r="G203" s="43"/>
-      <c r="H203" s="43"/>
-      <c r="I203" s="43"/>
-    </row>
-    <row r="204" spans="3:10">
-      <c r="E204" s="58" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F204" s="43"/>
-      <c r="G204" s="43"/>
-      <c r="H204" s="43"/>
-      <c r="I204" s="43"/>
-    </row>
-    <row r="205" spans="3:10">
-      <c r="E205" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="F205" s="43"/>
-      <c r="G205" s="43"/>
-      <c r="H205" s="43"/>
-      <c r="I205" s="43"/>
-    </row>
-    <row r="206" spans="3:10">
-      <c r="E206" s="43"/>
-      <c r="F206" s="43"/>
-      <c r="G206" s="43"/>
-      <c r="H206" s="43"/>
-      <c r="I206" s="43"/>
-    </row>
-    <row r="208" spans="3:10">
-      <c r="E208" s="97" t="s">
-        <v>1974</v>
-      </c>
-      <c r="F208" s="97"/>
-      <c r="G208" s="97"/>
-      <c r="H208" s="97"/>
-    </row>
-    <row r="209" spans="3:10">
-      <c r="E209" s="97"/>
-      <c r="F209" s="97"/>
-      <c r="G209" s="97"/>
-      <c r="H209" s="97"/>
-    </row>
-    <row r="210" spans="3:10">
-      <c r="E210" s="97" t="s">
-        <v>1975</v>
-      </c>
-      <c r="F210" s="97"/>
-      <c r="G210" s="97"/>
-      <c r="H210" s="97"/>
-    </row>
-    <row r="211" spans="3:10">
-      <c r="E211" s="97" t="s">
-        <v>1976</v>
-      </c>
-      <c r="F211" s="97"/>
-      <c r="G211" s="97"/>
-      <c r="H211" s="97"/>
-      <c r="J211" s="57" t="s">
+    <row r="224" spans="3:10">
+      <c r="C224" t="s">
         <v>1979</v>
-      </c>
-    </row>
-    <row r="212" spans="3:10">
-      <c r="E212" s="97"/>
-      <c r="F212" s="97"/>
-      <c r="G212" s="97"/>
-      <c r="H212" s="97"/>
-    </row>
-    <row r="213" spans="3:10">
-      <c r="E213" s="97" t="s">
-        <v>620</v>
-      </c>
-      <c r="F213" s="97"/>
-      <c r="G213" s="97"/>
-      <c r="H213" s="97"/>
-    </row>
-    <row r="214" spans="3:10">
-      <c r="E214" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="F214" s="97"/>
-      <c r="G214" s="97"/>
-      <c r="H214" s="97"/>
-    </row>
-    <row r="216" spans="3:10">
-      <c r="C216" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="217" spans="3:10">
-      <c r="C217" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="219" spans="3:10">
-      <c r="D219" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="220" spans="3:10">
-      <c r="E220" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="222" spans="3:10">
-      <c r="D222" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="224" spans="3:10">
-      <c r="D224" t="s">
-        <v>1983</v>
-      </c>
-      <c r="H224" s="57" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="226" spans="3:8">
       <c r="D226" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="227" spans="3:8">
+      <c r="E227" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="229" spans="3:8">
+      <c r="D229" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="3:8">
-      <c r="C228" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="230" spans="3:8">
-      <c r="D230" t="s">
-        <v>1971</v>
-      </c>
-    </row>
     <row r="231" spans="3:8">
-      <c r="E231" t="s">
-        <v>1986</v>
+      <c r="D231" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H231" s="57" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="233" spans="3:8">
@@ -28136,686 +28408,640 @@
       </c>
     </row>
     <row r="235" spans="3:8">
-      <c r="D235" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="236" spans="3:8">
-      <c r="E236" t="s">
-        <v>1988</v>
+      <c r="C235" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="237" spans="3:8">
       <c r="D237" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="238" spans="3:8">
+      <c r="E238" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="240" spans="3:8">
+      <c r="D240" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="239" spans="3:8">
-      <c r="D239" t="s">
+    <row r="242" spans="1:8">
+      <c r="D242" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="E243" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="D244" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="D246" t="s">
+        <v>1987</v>
+      </c>
+      <c r="H246" s="92" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="E247" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="F248" t="s">
         <v>1989</v>
       </c>
-      <c r="H239" s="92" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="240" spans="3:8">
-      <c r="E240" t="s">
+    </row>
+    <row r="249" spans="1:8">
+      <c r="E249" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="E250" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
-      <c r="F241" t="s">
+    <row r="251" spans="1:8">
+      <c r="F251" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
-      <c r="E242" t="s">
+    <row r="252" spans="1:8">
+      <c r="E252" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
-      <c r="E243" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="F244" t="s">
+    <row r="253" spans="1:8">
+      <c r="D253" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="94" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
-      <c r="E245" t="s">
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="289" spans="2:12">
+      <c r="B289" s="36" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="290" spans="2:12">
+      <c r="D290" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="292" spans="2:12">
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="294" spans="2:12">
+      <c r="E294" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="296" spans="2:12">
+      <c r="E296" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
-      <c r="D246" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="94" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="B250" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2">
-      <c r="B262" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="282" spans="2:5">
-      <c r="B282" s="36" t="s">
+    <row r="297" spans="2:12">
+      <c r="C297">
+        <v>3</v>
+      </c>
+      <c r="D297" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="299" spans="2:12">
+      <c r="C299">
+        <v>4</v>
+      </c>
+      <c r="D299" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="302" spans="2:12">
+      <c r="B302" s="98" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C302" s="39"/>
+      <c r="D302" s="39"/>
+      <c r="E302" s="57"/>
+      <c r="F302" s="57"/>
+      <c r="G302" s="57"/>
+      <c r="H302" s="57"/>
+      <c r="I302" s="57"/>
+      <c r="J302" s="57"/>
+      <c r="K302" s="36"/>
+      <c r="L302" s="36"/>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="94" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="B307" t="s">
         <v>1604</v>
       </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="283" spans="2:5">
-      <c r="D283" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="285" spans="2:5">
-      <c r="C285">
-        <v>2</v>
-      </c>
-      <c r="D285" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5">
-      <c r="E287" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12">
-      <c r="E289" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12">
-      <c r="C290">
-        <v>3</v>
-      </c>
-      <c r="D290" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12">
-      <c r="C292">
-        <v>4</v>
-      </c>
-      <c r="D292" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12">
-      <c r="B295" s="98" t="s">
+      <c r="C307" t="s">
         <v>2017</v>
       </c>
-      <c r="C295" s="39"/>
-      <c r="D295" s="39"/>
-      <c r="E295" s="57"/>
-      <c r="F295" s="57"/>
-      <c r="G295" s="57"/>
-      <c r="H295" s="57"/>
-      <c r="I295" s="57"/>
-      <c r="J295" s="57"/>
-      <c r="K295" s="36"/>
-      <c r="L295" s="36"/>
-    </row>
-    <row r="298" spans="1:12">
-      <c r="A298" s="94" t="s">
+    </row>
+    <row r="308" spans="1:4">
+      <c r="C308" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
-      <c r="B300" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C300" t="s">
+    <row r="309" spans="1:4">
+      <c r="C309" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="301" spans="1:12">
-      <c r="C301" t="s">
+      <c r="D309" s="28"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="D311" s="28"/>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="94" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
-      <c r="C302" t="s">
+    <row r="313" spans="1:4">
+      <c r="D313" s="28"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="B314" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="D315" s="28"/>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="B316" t="s">
         <v>2021</v>
       </c>
-      <c r="D302" s="28"/>
-    </row>
-    <row r="304" spans="1:12">
-      <c r="D304" s="28"/>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="94" t="s">
+    </row>
+    <row r="317" spans="1:4">
+      <c r="B317" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="D306" s="28"/>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="B307" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="D308" s="28"/>
-    </row>
-    <row r="309" spans="1:7">
-      <c r="B309" t="s">
+      <c r="D317" s="28"/>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="B319" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" s="94" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
-      <c r="B310" t="s">
+    <row r="323" spans="1:9">
+      <c r="B323" s="18" t="s">
         <v>2024</v>
-      </c>
-      <c r="D310" s="28"/>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="B312" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314" s="94" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="B316" s="18" t="s">
-        <v>2026</v>
-      </c>
-      <c r="C316" s="18"/>
-      <c r="D316" s="18"/>
-      <c r="E316" s="18"/>
-      <c r="F316" s="18"/>
-      <c r="G316" s="18"/>
-    </row>
-    <row r="317" spans="1:7">
-      <c r="B317" s="18"/>
-      <c r="C317" s="18" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D317" s="18"/>
-      <c r="E317" s="18"/>
-      <c r="F317" s="18"/>
-      <c r="G317" s="18"/>
-    </row>
-    <row r="318" spans="1:7">
-      <c r="B318" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C318" s="18"/>
-      <c r="D318" s="18"/>
-      <c r="E318" s="18"/>
-      <c r="F318" s="18"/>
-      <c r="G318" s="18"/>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="B319" s="18" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C319" s="18"/>
-      <c r="D319" s="18"/>
-      <c r="E319" s="18"/>
-      <c r="F319" s="18"/>
-      <c r="G319" s="18"/>
-    </row>
-    <row r="320" spans="1:7">
-      <c r="B320" s="18"/>
-      <c r="C320" s="18" t="s">
-        <v>2029</v>
-      </c>
-      <c r="D320" s="18"/>
-      <c r="E320" s="18"/>
-      <c r="F320" s="18"/>
-      <c r="G320" s="18"/>
-    </row>
-    <row r="321" spans="2:9">
-      <c r="B321" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C321" s="18"/>
-      <c r="D321" s="18"/>
-      <c r="E321" s="18"/>
-      <c r="F321" s="18"/>
-      <c r="G321" s="18"/>
-    </row>
-    <row r="322" spans="2:9">
-      <c r="B322" s="18"/>
-      <c r="C322" s="18"/>
-      <c r="D322" s="18"/>
-      <c r="E322" s="18"/>
-      <c r="F322" s="18"/>
-      <c r="G322" s="18"/>
-    </row>
-    <row r="323" spans="2:9">
-      <c r="B323" s="18" t="s">
-        <v>2030</v>
       </c>
       <c r="C323" s="18"/>
       <c r="D323" s="18"/>
       <c r="E323" s="18"/>
       <c r="F323" s="18"/>
       <c r="G323" s="18"/>
-      <c r="I323" s="57" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="324" spans="2:9">
+    </row>
+    <row r="324" spans="1:9">
       <c r="B324" s="18"/>
       <c r="C324" s="18" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="D324" s="18"/>
       <c r="E324" s="18"/>
       <c r="F324" s="18"/>
       <c r="G324" s="18"/>
     </row>
-    <row r="325" spans="2:9">
-      <c r="B325" s="18"/>
+    <row r="325" spans="1:9">
+      <c r="B325" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="C325" s="18"/>
-      <c r="D325" s="18" t="s">
-        <v>2032</v>
-      </c>
+      <c r="D325" s="18"/>
       <c r="E325" s="18"/>
       <c r="F325" s="18"/>
       <c r="G325" s="18"/>
     </row>
-    <row r="326" spans="2:9">
-      <c r="B326" s="18"/>
+    <row r="326" spans="1:9">
+      <c r="B326" s="18" t="s">
+        <v>2026</v>
+      </c>
       <c r="C326" s="18"/>
-      <c r="D326" s="18" t="s">
-        <v>1955</v>
-      </c>
+      <c r="D326" s="18"/>
       <c r="E326" s="18"/>
       <c r="F326" s="18"/>
       <c r="G326" s="18"/>
     </row>
-    <row r="327" spans="2:9">
+    <row r="327" spans="1:9">
       <c r="B327" s="18"/>
       <c r="C327" s="18" t="s">
-        <v>45</v>
+        <v>2027</v>
       </c>
       <c r="D327" s="18"/>
       <c r="E327" s="18"/>
       <c r="F327" s="18"/>
       <c r="G327" s="18"/>
     </row>
-    <row r="328" spans="2:9">
-      <c r="B328" s="18"/>
+    <row r="328" spans="1:9">
+      <c r="B328" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="C328" s="18"/>
       <c r="D328" s="18"/>
       <c r="E328" s="18"/>
       <c r="F328" s="18"/>
       <c r="G328" s="18"/>
     </row>
-    <row r="329" spans="2:9">
+    <row r="329" spans="1:9">
       <c r="B329" s="18"/>
-      <c r="C329" s="18" t="s">
-        <v>2033</v>
-      </c>
+      <c r="C329" s="18"/>
       <c r="D329" s="18"/>
       <c r="E329" s="18"/>
       <c r="F329" s="18"/>
       <c r="G329" s="18"/>
     </row>
-    <row r="330" spans="2:9">
-      <c r="B330" s="18"/>
+    <row r="330" spans="1:9">
+      <c r="B330" s="18" t="s">
+        <v>2028</v>
+      </c>
       <c r="C330" s="18"/>
-      <c r="D330" s="18" t="s">
-        <v>2034</v>
-      </c>
+      <c r="D330" s="18"/>
       <c r="E330" s="18"/>
       <c r="F330" s="18"/>
       <c r="G330" s="18"/>
-    </row>
-    <row r="331" spans="2:9">
+      <c r="I330" s="57" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="B331" s="18"/>
       <c r="C331" s="18" t="s">
-        <v>45</v>
+        <v>2029</v>
       </c>
       <c r="D331" s="18"/>
       <c r="E331" s="18"/>
       <c r="F331" s="18"/>
       <c r="G331" s="18"/>
     </row>
-    <row r="332" spans="2:9">
-      <c r="B332" t="s">
+    <row r="332" spans="1:9">
+      <c r="B332" s="18"/>
+      <c r="C332" s="18"/>
+      <c r="D332" s="18" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E332" s="18"/>
+      <c r="F332" s="18"/>
+      <c r="G332" s="18"/>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="B333" s="18"/>
+      <c r="C333" s="18"/>
+      <c r="D333" s="18" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E333" s="18"/>
+      <c r="F333" s="18"/>
+      <c r="G333" s="18"/>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="B334" s="18"/>
+      <c r="C334" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="334" spans="2:9">
-      <c r="B334" t="s">
+      <c r="D334" s="18"/>
+      <c r="E334" s="18"/>
+      <c r="F334" s="18"/>
+      <c r="G334" s="18"/>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="B335" s="18"/>
+      <c r="C335" s="18"/>
+      <c r="D335" s="18"/>
+      <c r="E335" s="18"/>
+      <c r="F335" s="18"/>
+      <c r="G335" s="18"/>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="B336" s="18"/>
+      <c r="C336" s="18" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D336" s="18"/>
+      <c r="E336" s="18"/>
+      <c r="F336" s="18"/>
+      <c r="G336" s="18"/>
+    </row>
+    <row r="337" spans="2:10">
+      <c r="B337" s="18"/>
+      <c r="C337" s="18"/>
+      <c r="D337" s="18" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E337" s="18"/>
+      <c r="F337" s="18"/>
+      <c r="G337" s="18"/>
+    </row>
+    <row r="338" spans="2:10">
+      <c r="B338" s="18"/>
+      <c r="C338" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D338" s="18"/>
+      <c r="E338" s="18"/>
+      <c r="F338" s="18"/>
+      <c r="G338" s="18"/>
+    </row>
+    <row r="339" spans="2:10">
+      <c r="B339" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="341" spans="2:10">
+      <c r="B341" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="343" spans="2:10">
+      <c r="C343" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="344" spans="2:10">
+      <c r="D344" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="345" spans="2:10">
+      <c r="C345" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="346" spans="2:10">
+      <c r="C346" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="347" spans="2:10">
+      <c r="D347" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="348" spans="2:10">
+      <c r="C348" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="349" spans="2:10">
+      <c r="C349" t="s">
+        <v>2035</v>
+      </c>
+      <c r="J349" s="57" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="352" spans="2:10">
+      <c r="C352" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="336" spans="2:9">
-      <c r="C336" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10">
-      <c r="D337" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10">
-      <c r="C338" t="s">
+      <c r="J352" s="57" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="94" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="B357" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G357" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="B359" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="94" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="B364" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="C365" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="C367" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="369" spans="3:10">
+      <c r="C369" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="371" spans="3:10">
+      <c r="C371" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="373" spans="3:10">
+      <c r="C373" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="375" spans="3:10">
+      <c r="C375" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="377" spans="3:10">
+      <c r="C377" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="378" spans="3:10">
+      <c r="D378" s="57" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="380" spans="3:10">
+      <c r="E380" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="381" spans="3:10">
+      <c r="F381" t="s">
+        <v>2050</v>
+      </c>
+      <c r="J381" s="57" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="382" spans="3:10">
+      <c r="F382" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J382" s="57" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="383" spans="3:10">
+      <c r="G383" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="384" spans="3:10">
+      <c r="F384" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
-      <c r="C339" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10">
-      <c r="D340" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10">
-      <c r="C341" t="s">
+    <row r="385" spans="3:10">
+      <c r="E385" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
-      <c r="C342" t="s">
-        <v>2037</v>
-      </c>
-      <c r="J342" s="57" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10">
-      <c r="C345" t="s">
-        <v>2038</v>
-      </c>
-      <c r="J345" s="57" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10">
-      <c r="A348" s="94" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10">
-      <c r="B350" t="s">
-        <v>2040</v>
-      </c>
-      <c r="G350" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10">
-      <c r="B352" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="94" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="B357" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C357" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="C358" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="C360" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="C362" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="C364" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="C366" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="C368" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="370" spans="3:10">
-      <c r="C370" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="371" spans="3:10">
-      <c r="D371" s="57" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="373" spans="3:10">
-      <c r="E373" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="374" spans="3:10">
-      <c r="F374" t="s">
-        <v>2052</v>
-      </c>
-      <c r="J374" s="57" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="375" spans="3:10">
-      <c r="F375" t="s">
-        <v>2053</v>
-      </c>
-      <c r="J375" s="57" t="s">
+    <row r="389" spans="3:10">
+      <c r="D389" s="36" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="376" spans="3:10">
-      <c r="G376" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="377" spans="3:10">
-      <c r="F377" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="378" spans="3:10">
-      <c r="E378" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="382" spans="3:10">
-      <c r="D382" s="36" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="383" spans="3:10">
-      <c r="E383" s="58" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F383" s="43"/>
-      <c r="G383" s="43"/>
-      <c r="H383" s="43"/>
-      <c r="J383" s="92" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="384" spans="3:10">
-      <c r="E384" s="58" t="s">
-        <v>2063</v>
-      </c>
-      <c r="F384" s="43"/>
-      <c r="G384" s="43"/>
-      <c r="H384" s="43"/>
-    </row>
-    <row r="385" spans="3:10">
-      <c r="E385" s="79"/>
-      <c r="F385" s="43"/>
-      <c r="G385" s="43"/>
-      <c r="H385" s="43"/>
-    </row>
-    <row r="386" spans="3:10">
-      <c r="E386" s="58" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F386" s="43"/>
-      <c r="G386" s="43"/>
-      <c r="H386" s="43"/>
-    </row>
-    <row r="387" spans="3:10">
-      <c r="E387" s="58" t="s">
-        <v>2060</v>
-      </c>
-      <c r="F387" s="43"/>
-      <c r="G387" s="43"/>
-      <c r="H387" s="43"/>
-    </row>
-    <row r="388" spans="3:10">
-      <c r="E388" s="58" t="s">
-        <v>2064</v>
-      </c>
-      <c r="F388" s="43"/>
-      <c r="G388" s="43"/>
-      <c r="H388" s="43"/>
-    </row>
-    <row r="389" spans="3:10">
-      <c r="E389" s="58" t="s">
-        <v>2061</v>
-      </c>
-      <c r="F389" s="43"/>
-      <c r="G389" s="43"/>
-      <c r="H389" s="43"/>
     </row>
     <row r="390" spans="3:10">
       <c r="E390" s="58" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="F390" s="43"/>
       <c r="G390" s="43"/>
       <c r="H390" s="43"/>
+      <c r="J390" s="92" t="s">
+        <v>2063</v>
+      </c>
     </row>
     <row r="391" spans="3:10">
       <c r="E391" s="58" t="s">
-        <v>45</v>
+        <v>2061</v>
       </c>
       <c r="F391" s="43"/>
       <c r="G391" s="43"/>
       <c r="H391" s="43"/>
     </row>
+    <row r="392" spans="3:10">
+      <c r="E392" s="79"/>
+      <c r="F392" s="43"/>
+      <c r="G392" s="43"/>
+      <c r="H392" s="43"/>
+    </row>
     <row r="393" spans="3:10">
-      <c r="C393" t="s">
-        <v>2067</v>
-      </c>
+      <c r="E393" s="58" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F393" s="43"/>
+      <c r="G393" s="43"/>
+      <c r="H393" s="43"/>
+    </row>
+    <row r="394" spans="3:10">
+      <c r="E394" s="58" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F394" s="43"/>
+      <c r="G394" s="43"/>
+      <c r="H394" s="43"/>
+    </row>
+    <row r="395" spans="3:10">
+      <c r="E395" s="58" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F395" s="43"/>
+      <c r="G395" s="43"/>
+      <c r="H395" s="43"/>
     </row>
     <row r="396" spans="3:10">
-      <c r="D396" t="s">
-        <v>2066</v>
-      </c>
+      <c r="E396" s="58" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F396" s="43"/>
+      <c r="G396" s="43"/>
+      <c r="H396" s="43"/>
+    </row>
+    <row r="397" spans="3:10">
+      <c r="E397" s="58" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F397" s="43"/>
+      <c r="G397" s="43"/>
+      <c r="H397" s="43"/>
     </row>
     <row r="398" spans="3:10">
-      <c r="E398" s="22" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F398" s="18"/>
-      <c r="G398" s="18"/>
-      <c r="H398" s="18"/>
-      <c r="I398" s="18"/>
-      <c r="J398" s="18"/>
-    </row>
-    <row r="399" spans="3:10">
-      <c r="E399" s="23"/>
-      <c r="F399" s="18"/>
-      <c r="G399" s="18"/>
-      <c r="H399" s="18"/>
-      <c r="I399" s="18"/>
-      <c r="J399" s="18"/>
+      <c r="E398" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F398" s="43"/>
+      <c r="G398" s="43"/>
+      <c r="H398" s="43"/>
     </row>
     <row r="400" spans="3:10">
-      <c r="E400" s="22" t="s">
-        <v>2069</v>
-      </c>
-      <c r="F400" s="18"/>
-      <c r="G400" s="18"/>
-      <c r="H400" s="18"/>
-      <c r="I400" s="18"/>
-      <c r="J400" s="18"/>
-    </row>
-    <row r="401" spans="4:10">
-      <c r="E401" s="22" t="s">
-        <v>2070</v>
-      </c>
-      <c r="F401" s="18"/>
-      <c r="G401" s="18"/>
-      <c r="H401" s="18"/>
-      <c r="I401" s="18"/>
-      <c r="J401" s="18"/>
-    </row>
-    <row r="402" spans="4:10">
-      <c r="E402" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="F402" s="18"/>
-      <c r="G402" s="18"/>
-      <c r="H402" s="18"/>
-      <c r="I402" s="18"/>
-      <c r="J402" s="18"/>
+      <c r="C400" t="s">
+        <v>2065</v>
+      </c>
     </row>
     <row r="403" spans="4:10">
-      <c r="E403" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F403" s="18"/>
-      <c r="G403" s="18"/>
-      <c r="H403" s="18"/>
-      <c r="I403" s="18"/>
-      <c r="J403" s="18"/>
-    </row>
-    <row r="404" spans="4:10">
-      <c r="E404" s="18"/>
-      <c r="F404" s="18"/>
-      <c r="G404" s="18"/>
-      <c r="H404" s="18"/>
-      <c r="I404" s="18"/>
-      <c r="J404" s="18"/>
+      <c r="D403" t="s">
+        <v>2064</v>
+      </c>
     </row>
     <row r="405" spans="4:10">
       <c r="E405" s="22" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="F405" s="18"/>
       <c r="G405" s="18"/>
@@ -28833,7 +29059,7 @@
     </row>
     <row r="407" spans="4:10">
       <c r="E407" s="22" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="F407" s="18"/>
       <c r="G407" s="18"/>
@@ -28843,7 +29069,7 @@
     </row>
     <row r="408" spans="4:10">
       <c r="E408" s="22" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="F408" s="18"/>
       <c r="G408" s="18"/>
@@ -28871,393 +29097,434 @@
       <c r="I410" s="18"/>
       <c r="J410" s="18"/>
     </row>
+    <row r="411" spans="4:10">
+      <c r="E411" s="18"/>
+      <c r="F411" s="18"/>
+      <c r="G411" s="18"/>
+      <c r="H411" s="18"/>
+      <c r="I411" s="18"/>
+      <c r="J411" s="18"/>
+    </row>
     <row r="412" spans="4:10">
-      <c r="D412" t="s">
-        <v>2074</v>
-      </c>
+      <c r="E412" s="22" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F412" s="18"/>
+      <c r="G412" s="18"/>
+      <c r="H412" s="18"/>
+      <c r="I412" s="18"/>
+      <c r="J412" s="18"/>
+    </row>
+    <row r="413" spans="4:10">
+      <c r="E413" s="23"/>
+      <c r="F413" s="18"/>
+      <c r="G413" s="18"/>
+      <c r="H413" s="18"/>
+      <c r="I413" s="18"/>
+      <c r="J413" s="18"/>
+    </row>
+    <row r="414" spans="4:10">
+      <c r="E414" s="22" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F414" s="18"/>
+      <c r="G414" s="18"/>
+      <c r="H414" s="18"/>
+      <c r="I414" s="18"/>
+      <c r="J414" s="18"/>
     </row>
     <row r="415" spans="4:10">
       <c r="E415" s="22" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
       <c r="H415" s="18"/>
       <c r="I415" s="18"/>
+      <c r="J415" s="18"/>
     </row>
     <row r="416" spans="4:10">
-      <c r="E416" s="23"/>
+      <c r="E416" s="22" t="s">
+        <v>620</v>
+      </c>
       <c r="F416" s="18"/>
       <c r="G416" s="18"/>
       <c r="H416" s="18"/>
       <c r="I416" s="18"/>
-    </row>
-    <row r="417" spans="1:11">
+      <c r="J416" s="18"/>
+    </row>
+    <row r="417" spans="4:11">
       <c r="E417" s="22" t="s">
-        <v>2069</v>
+        <v>45</v>
       </c>
       <c r="F417" s="18"/>
       <c r="G417" s="18"/>
       <c r="H417" s="18"/>
       <c r="I417" s="18"/>
-    </row>
-    <row r="418" spans="1:11">
-      <c r="E418" s="22" t="s">
-        <v>2070</v>
-      </c>
-      <c r="F418" s="18"/>
-      <c r="G418" s="18"/>
-      <c r="H418" s="18"/>
-      <c r="I418" s="18"/>
-    </row>
-    <row r="419" spans="1:11">
-      <c r="E419" s="22" t="s">
+      <c r="J417" s="18"/>
+    </row>
+    <row r="419" spans="4:11">
+      <c r="D419" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="422" spans="4:11">
+      <c r="E422" s="22" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F422" s="18"/>
+      <c r="G422" s="18"/>
+      <c r="H422" s="18"/>
+      <c r="I422" s="18"/>
+    </row>
+    <row r="423" spans="4:11">
+      <c r="E423" s="23"/>
+      <c r="F423" s="18"/>
+      <c r="G423" s="18"/>
+      <c r="H423" s="18"/>
+      <c r="I423" s="18"/>
+    </row>
+    <row r="424" spans="4:11">
+      <c r="E424" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F424" s="18"/>
+      <c r="G424" s="18"/>
+      <c r="H424" s="18"/>
+      <c r="I424" s="18"/>
+    </row>
+    <row r="425" spans="4:11">
+      <c r="E425" s="22" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F425" s="18"/>
+      <c r="G425" s="18"/>
+      <c r="H425" s="18"/>
+      <c r="I425" s="18"/>
+    </row>
+    <row r="426" spans="4:11">
+      <c r="E426" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="F419" s="18"/>
-      <c r="G419" s="18"/>
-      <c r="H419" s="18"/>
-      <c r="I419" s="18"/>
-    </row>
-    <row r="420" spans="1:11">
-      <c r="E420" s="22" t="s">
+      <c r="F426" s="18"/>
+      <c r="G426" s="18"/>
+      <c r="H426" s="18"/>
+      <c r="I426" s="18"/>
+    </row>
+    <row r="427" spans="4:11">
+      <c r="E427" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F420" s="18"/>
-      <c r="G420" s="18"/>
-      <c r="H420" s="18"/>
-      <c r="I420" s="18"/>
-    </row>
-    <row r="422" spans="1:11">
-      <c r="E422" s="58" t="s">
-        <v>2071</v>
-      </c>
-      <c r="F422" s="43"/>
-      <c r="G422" s="43"/>
-      <c r="H422" s="43"/>
-      <c r="I422" s="43"/>
-      <c r="J422" s="43"/>
-    </row>
-    <row r="423" spans="1:11">
-      <c r="E423" s="58" t="s">
+      <c r="F427" s="18"/>
+      <c r="G427" s="18"/>
+      <c r="H427" s="18"/>
+      <c r="I427" s="18"/>
+    </row>
+    <row r="429" spans="4:11">
+      <c r="E429" s="58" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F429" s="43"/>
+      <c r="G429" s="43"/>
+      <c r="H429" s="43"/>
+      <c r="I429" s="43"/>
+      <c r="J429" s="43"/>
+    </row>
+    <row r="430" spans="4:11">
+      <c r="E430" s="58" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F430" s="43"/>
+      <c r="G430" s="43"/>
+      <c r="H430" s="43"/>
+      <c r="I430" s="43"/>
+      <c r="J430" s="43"/>
+      <c r="K430" s="50" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="431" spans="4:11">
+      <c r="E431" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F431" s="43"/>
+      <c r="G431" s="43"/>
+      <c r="H431" s="43"/>
+      <c r="I431" s="43"/>
+      <c r="J431" s="43"/>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="94" t="s">
         <v>2075</v>
       </c>
-      <c r="F423" s="43"/>
-      <c r="G423" s="43"/>
-      <c r="H423" s="43"/>
-      <c r="I423" s="43"/>
-      <c r="J423" s="43"/>
-      <c r="K423" s="50" t="s">
+    </row>
+    <row r="435" spans="1:5">
+      <c r="C435" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="B436" t="s">
         <v>2076</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
-      <c r="E424" s="58" t="s">
+    <row r="437" spans="1:5">
+      <c r="B437" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="C439" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="D440" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="E441" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="D442" t="s">
         <v>45</v>
       </c>
-      <c r="F424" s="43"/>
-      <c r="G424" s="43"/>
-      <c r="H424" s="43"/>
-      <c r="I424" s="43"/>
-      <c r="J424" s="43"/>
-    </row>
-    <row r="427" spans="1:11">
-      <c r="A427" s="94" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11">
-      <c r="C428" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11">
-      <c r="B429" t="s">
+    </row>
+    <row r="443" spans="1:5">
+      <c r="C443" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="C445" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="D446" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="E447" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="D448" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="449" spans="2:9">
+      <c r="C449" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="451" spans="2:9">
+      <c r="C451" t="s">
+        <v>2082</v>
+      </c>
+      <c r="I451" s="57" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="452" spans="2:9">
+      <c r="D452" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="453" spans="2:9">
+      <c r="E453" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="454" spans="2:9">
+      <c r="D454" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="455" spans="2:9">
+      <c r="C455" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="459" spans="2:9">
+      <c r="B459" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="461" spans="2:9">
+      <c r="C461" t="s">
         <v>2078</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
-      <c r="B430" t="s">
+    <row r="462" spans="2:9">
+      <c r="D462" t="s">
         <v>2079</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
-      <c r="C432" t="s">
+    <row r="463" spans="2:9">
+      <c r="E463" t="s">
         <v>2080</v>
       </c>
     </row>
-    <row r="433" spans="3:9">
-      <c r="D433" t="s">
+    <row r="464" spans="2:9">
+      <c r="D464" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="465" spans="3:8">
+      <c r="C465" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="467" spans="3:8">
+      <c r="C467" t="s">
         <v>2081</v>
       </c>
     </row>
-    <row r="434" spans="3:9">
-      <c r="E434" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="435" spans="3:9">
-      <c r="D435" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="436" spans="3:9">
-      <c r="C436" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="438" spans="3:9">
-      <c r="C438" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="439" spans="3:9">
-      <c r="D439" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="440" spans="3:9">
-      <c r="E440" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="441" spans="3:9">
-      <c r="D441" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="442" spans="3:9">
-      <c r="C442" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="444" spans="3:9">
-      <c r="C444" t="s">
-        <v>2084</v>
-      </c>
-      <c r="I444" s="57" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="445" spans="3:9">
-      <c r="D445" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="446" spans="3:9">
-      <c r="E446" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="447" spans="3:9">
-      <c r="D447" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="448" spans="3:9">
-      <c r="C448" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="452" spans="2:5">
-      <c r="B452" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="454" spans="2:5">
-      <c r="C454" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="455" spans="2:5">
-      <c r="D455" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="456" spans="2:5">
-      <c r="E456" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="457" spans="2:5">
-      <c r="D457" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="458" spans="2:5">
-      <c r="C458" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="460" spans="2:5">
-      <c r="C460" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="461" spans="2:5">
-      <c r="D461" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="462" spans="2:5">
-      <c r="E462" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="463" spans="2:5">
-      <c r="D463" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="464" spans="2:5">
-      <c r="C464" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="466" spans="1:10">
-      <c r="C466" t="s">
-        <v>2084</v>
-      </c>
-      <c r="H466" s="92" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="468" spans="1:10">
+    <row r="468" spans="3:8">
       <c r="D468" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="469" spans="1:10">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="469" spans="3:8">
       <c r="E469" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="470" spans="1:10">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="470" spans="3:8">
       <c r="D470" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
-      <c r="D473" t="s">
+    <row r="471" spans="3:8">
+      <c r="C471" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="473" spans="3:8">
+      <c r="C473" t="s">
+        <v>2082</v>
+      </c>
+      <c r="H473" s="92" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="475" spans="3:8">
+      <c r="D475" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="476" spans="3:8">
+      <c r="E476" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="477" spans="3:8">
+      <c r="D477" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="480" spans="3:8">
+      <c r="D480" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="474" spans="1:10">
-      <c r="E474" t="s">
-        <v>2085</v>
-      </c>
-      <c r="J474" s="36" t="s">
+    <row r="481" spans="1:10">
+      <c r="E481" t="s">
+        <v>2083</v>
+      </c>
+      <c r="J481" s="36" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10">
+      <c r="D482" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10">
+      <c r="C483" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10">
+      <c r="A486" s="94" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10">
+      <c r="B488" s="36" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C488" s="43" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D488" s="43"/>
+      <c r="E488" s="43"/>
+      <c r="F488" s="43"/>
+      <c r="G488" s="43"/>
+      <c r="H488" s="43"/>
+      <c r="I488" s="43"/>
+      <c r="J488" s="43"/>
+    </row>
+    <row r="489" spans="1:10">
+      <c r="C489" s="43"/>
+      <c r="D489" s="43"/>
+      <c r="E489" s="43"/>
+      <c r="F489" s="43"/>
+      <c r="G489" s="43"/>
+      <c r="H489" s="43"/>
+      <c r="I489" s="43"/>
+      <c r="J489" s="43"/>
+    </row>
+    <row r="490" spans="1:10">
+      <c r="C490" s="43" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D490" s="43"/>
+      <c r="E490" s="43"/>
+      <c r="F490" s="43"/>
+      <c r="G490" s="43"/>
+      <c r="H490" s="43"/>
+      <c r="I490" s="43"/>
+      <c r="J490" s="43"/>
+    </row>
+    <row r="492" spans="1:10">
+      <c r="C492" s="43" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10">
+      <c r="D495" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="475" spans="1:10">
-      <c r="D475" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="476" spans="1:10">
-      <c r="C476" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="479" spans="1:10">
-      <c r="A479" s="94" t="s">
+    <row r="496" spans="1:10">
+      <c r="E496" s="92" t="s">
         <v>2091</v>
-      </c>
-    </row>
-    <row r="481" spans="2:10">
-      <c r="B481" s="36" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C481" s="43" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D481" s="43"/>
-      <c r="E481" s="43"/>
-      <c r="F481" s="43"/>
-      <c r="G481" s="43"/>
-      <c r="H481" s="43"/>
-      <c r="I481" s="43"/>
-      <c r="J481" s="43"/>
-    </row>
-    <row r="482" spans="2:10">
-      <c r="C482" s="43"/>
-      <c r="D482" s="43"/>
-      <c r="E482" s="43"/>
-      <c r="F482" s="43"/>
-      <c r="G482" s="43"/>
-      <c r="H482" s="43"/>
-      <c r="I482" s="43"/>
-      <c r="J482" s="43"/>
-    </row>
-    <row r="483" spans="2:10">
-      <c r="C483" s="43" t="s">
-        <v>2101</v>
-      </c>
-      <c r="D483" s="43"/>
-      <c r="E483" s="43"/>
-      <c r="F483" s="43"/>
-      <c r="G483" s="43"/>
-      <c r="H483" s="43"/>
-      <c r="I483" s="43"/>
-      <c r="J483" s="43"/>
-    </row>
-    <row r="485" spans="2:10">
-      <c r="C485" s="43" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="488" spans="2:10">
-      <c r="D488" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="489" spans="2:10">
-      <c r="E489" s="92" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="490" spans="2:10">
-      <c r="F490" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="491" spans="2:10">
-      <c r="G491" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="492" spans="2:10">
-      <c r="H492" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="493" spans="2:10">
-      <c r="G493" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="494" spans="2:10">
-      <c r="F494" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="497" spans="1:8">
       <c r="F497" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="498" spans="1:8">
       <c r="G498" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="499" spans="1:8">
       <c r="H499" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8" ht="18" customHeight="1">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
       <c r="G500" t="s">
         <v>45</v>
       </c>
@@ -29268,247 +29535,202 @@
       </c>
     </row>
     <row r="504" spans="1:8">
-      <c r="A504" s="94" t="s">
+      <c r="F504" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="G505" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="H506" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" ht="18" customHeight="1">
+      <c r="G507" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="F508" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511" s="94" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="514" spans="2:5">
+      <c r="B514" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="515" spans="2:5">
+      <c r="D515" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="517" spans="2:5">
+      <c r="E517" t="s">
         <v>2103</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
-      <c r="B507" t="s">
+    <row r="519" spans="2:5">
+      <c r="E519" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="521" spans="2:5">
+      <c r="E521" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5">
+      <c r="E523" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5">
+      <c r="B526" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5">
+      <c r="C528" t="s">
         <v>2109</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8">
-      <c r="D508" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8">
-      <c r="E510" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
-      <c r="E512" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="514" spans="2:9">
-      <c r="E514" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="516" spans="2:9">
-      <c r="E516" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="519" spans="2:9">
-      <c r="B519" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="521" spans="2:9">
-      <c r="C521" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="522" spans="2:9">
-      <c r="E522" t="s">
-        <v>2112</v>
-      </c>
-      <c r="I522" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="523" spans="2:9">
-      <c r="E523" t="s">
-        <v>2113</v>
-      </c>
-      <c r="I523" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="526" spans="2:9">
-      <c r="E526" t="s">
-        <v>2116</v>
-      </c>
-      <c r="I526" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="527" spans="2:9">
-      <c r="E527" t="s">
-        <v>2119</v>
-      </c>
-      <c r="I527" t="s">
-        <v>2118</v>
       </c>
     </row>
     <row r="529" spans="1:9">
       <c r="E529" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="I529" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="530" spans="1:9">
       <c r="E530" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I530" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="E533" t="s">
+        <v>2114</v>
+      </c>
+      <c r="I533" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="E534" t="s">
+        <v>2117</v>
+      </c>
+      <c r="I534" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="E536" t="s">
+        <v>2118</v>
+      </c>
+      <c r="I536" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="E537" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I537" t="s">
         <v>2121</v>
       </c>
-      <c r="I530" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9">
-      <c r="A533" s="94" t="s">
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" s="94" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="B542" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="94" t="s">
         <v>2131</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
-      <c r="B535" t="s">
+    <row r="561" spans="2:6">
+      <c r="B561" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="552" spans="1:6">
-      <c r="A552" s="94" t="s">
+      <c r="E561" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
-      <c r="B554" t="s">
+    <row r="563" spans="2:6">
+      <c r="B563" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E563" t="s">
         <v>2134</v>
       </c>
-      <c r="E554" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6">
-      <c r="B556" t="s">
+    </row>
+    <row r="565" spans="2:6">
+      <c r="B565" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E565" s="57" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="567" spans="2:6">
+      <c r="B567" t="s">
         <v>2137</v>
       </c>
-      <c r="E556" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="558" spans="1:6">
-      <c r="B558" t="s">
+      <c r="F567" s="92" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="569" spans="2:6">
+      <c r="B569" t="s">
         <v>2138</v>
       </c>
-      <c r="E558" s="57" t="s">
+      <c r="F569" s="92" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="570" spans="2:6">
+      <c r="B570" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F570" s="92" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="574" spans="2:6">
+      <c r="B574" s="36" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C574" t="s">
         <v>2143</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
-      <c r="B560" t="s">
-        <v>2139</v>
-      </c>
-      <c r="F560" s="92" t="s">
+    <row r="576" spans="2:6">
+      <c r="C576" t="s">
         <v>2144</v>
       </c>
     </row>
-    <row r="562" spans="2:9">
-      <c r="B562" t="s">
-        <v>2140</v>
-      </c>
-      <c r="F562" s="92" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="563" spans="2:9">
-      <c r="B563" t="s">
-        <v>2141</v>
-      </c>
-      <c r="F563" s="92" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="567" spans="2:9">
-      <c r="B567" s="36" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C567" t="s">
+    <row r="578" spans="3:10">
+      <c r="D578" s="52" t="s">
         <v>2145</v>
-      </c>
-    </row>
-    <row r="569" spans="2:9">
-      <c r="C569" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="571" spans="2:9">
-      <c r="D571" s="52" t="s">
-        <v>2147</v>
-      </c>
-      <c r="E571" s="18"/>
-      <c r="F571" s="18"/>
-      <c r="G571" s="18"/>
-      <c r="H571" s="18"/>
-      <c r="I571" s="43"/>
-    </row>
-    <row r="572" spans="2:9">
-      <c r="D572" s="18"/>
-      <c r="E572" s="18"/>
-      <c r="F572" s="18"/>
-      <c r="G572" s="18"/>
-      <c r="H572" s="18"/>
-      <c r="I572" s="43"/>
-    </row>
-    <row r="573" spans="2:9">
-      <c r="D573" s="52" t="s">
-        <v>2148</v>
-      </c>
-      <c r="E573" s="18"/>
-      <c r="F573" s="18"/>
-      <c r="G573" s="18"/>
-      <c r="H573" s="18"/>
-      <c r="I573" s="43"/>
-    </row>
-    <row r="574" spans="2:9">
-      <c r="D574" s="18"/>
-      <c r="E574" s="18" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F574" s="18"/>
-      <c r="G574" s="18"/>
-      <c r="H574" s="18"/>
-      <c r="I574" s="43"/>
-    </row>
-    <row r="575" spans="2:9">
-      <c r="D575" s="52"/>
-      <c r="E575" s="18"/>
-      <c r="F575" s="18" t="s">
-        <v>2149</v>
-      </c>
-      <c r="G575" s="18"/>
-      <c r="H575" s="18"/>
-      <c r="I575" s="43"/>
-    </row>
-    <row r="576" spans="2:9">
-      <c r="D576" s="18"/>
-      <c r="E576" s="18"/>
-      <c r="F576" s="18" t="s">
-        <v>2150</v>
-      </c>
-      <c r="G576" s="18"/>
-      <c r="H576" s="18"/>
-      <c r="I576" s="57" t="s">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="577" spans="3:11">
-      <c r="D577" s="52"/>
-      <c r="E577" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F577" s="18"/>
-      <c r="G577" s="18"/>
-      <c r="H577" s="18"/>
-      <c r="I577" s="43"/>
-    </row>
-    <row r="578" spans="3:11">
-      <c r="D578" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="E578" s="18"/>
       <c r="F578" s="18"/>
@@ -29516,112 +29738,102 @@
       <c r="H578" s="18"/>
       <c r="I578" s="43"/>
     </row>
-    <row r="579" spans="3:11">
-      <c r="D579" s="99"/>
-      <c r="E579" s="43"/>
-      <c r="F579" s="43"/>
-      <c r="G579" s="43"/>
-      <c r="H579" s="43"/>
+    <row r="579" spans="3:10">
+      <c r="D579" s="18"/>
+      <c r="E579" s="18"/>
+      <c r="F579" s="18"/>
+      <c r="G579" s="18"/>
+      <c r="H579" s="18"/>
       <c r="I579" s="43"/>
     </row>
-    <row r="582" spans="3:11">
-      <c r="C582" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="584" spans="3:11">
-      <c r="D584" s="18" t="s">
-        <v>2153</v>
-      </c>
-      <c r="E584" s="18"/>
+    <row r="580" spans="3:10">
+      <c r="D580" s="52" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E580" s="18"/>
+      <c r="F580" s="18"/>
+      <c r="G580" s="18"/>
+      <c r="H580" s="18"/>
+      <c r="I580" s="43"/>
+    </row>
+    <row r="581" spans="3:10">
+      <c r="D581" s="18"/>
+      <c r="E581" s="18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F581" s="18"/>
+      <c r="G581" s="18"/>
+      <c r="H581" s="18"/>
+      <c r="I581" s="43"/>
+    </row>
+    <row r="582" spans="3:10">
+      <c r="D582" s="52"/>
+      <c r="E582" s="18"/>
+      <c r="F582" s="18" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G582" s="18"/>
+      <c r="H582" s="18"/>
+      <c r="I582" s="43"/>
+    </row>
+    <row r="583" spans="3:10">
+      <c r="D583" s="18"/>
+      <c r="E583" s="18"/>
+      <c r="F583" s="18" t="s">
+        <v>2148</v>
+      </c>
+      <c r="G583" s="18"/>
+      <c r="H583" s="18"/>
+      <c r="I583" s="57" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="584" spans="3:10">
+      <c r="D584" s="52"/>
+      <c r="E584" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="F584" s="18"/>
       <c r="G584" s="18"/>
       <c r="H584" s="18"/>
-      <c r="I584" s="18"/>
-      <c r="J584" s="18"/>
-    </row>
-    <row r="585" spans="3:11">
-      <c r="D585" s="18"/>
+      <c r="I584" s="43"/>
+    </row>
+    <row r="585" spans="3:10">
+      <c r="D585" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="E585" s="18"/>
       <c r="F585" s="18"/>
       <c r="G585" s="18"/>
       <c r="H585" s="18"/>
-      <c r="I585" s="18"/>
-      <c r="J585" s="18"/>
-    </row>
-    <row r="586" spans="3:11">
-      <c r="D586" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E586" s="18"/>
-      <c r="F586" s="18"/>
-      <c r="G586" s="18"/>
-      <c r="H586" s="18"/>
-      <c r="I586" s="18"/>
-      <c r="J586" s="18"/>
-    </row>
-    <row r="587" spans="3:11">
-      <c r="D587" s="18" t="s">
-        <v>2154</v>
-      </c>
-      <c r="E587" s="18"/>
-      <c r="F587" s="18"/>
-      <c r="G587" s="18"/>
-      <c r="H587" s="18"/>
-      <c r="I587" s="18"/>
-      <c r="J587" s="18"/>
-    </row>
-    <row r="588" spans="3:11">
-      <c r="D588" s="18"/>
-      <c r="E588" s="18" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F588" s="18"/>
-      <c r="G588" s="18"/>
-      <c r="H588" s="18"/>
-      <c r="I588" s="18"/>
-      <c r="J588" s="18"/>
-    </row>
-    <row r="589" spans="3:11">
-      <c r="D589" s="18"/>
-      <c r="E589" s="18"/>
-      <c r="F589" s="18" t="s">
-        <v>2155</v>
-      </c>
-      <c r="G589" s="18"/>
-      <c r="H589" s="18"/>
-      <c r="I589" s="18"/>
-      <c r="J589" s="18"/>
-    </row>
-    <row r="590" spans="3:11">
-      <c r="D590" s="18"/>
-      <c r="E590" s="18"/>
-      <c r="F590" s="100" t="s">
-        <v>2156</v>
-      </c>
-      <c r="G590" s="100"/>
-      <c r="H590" s="100"/>
-      <c r="I590" s="100"/>
-      <c r="J590" s="100"/>
-      <c r="K590" s="101" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="591" spans="3:11">
-      <c r="D591" s="18"/>
-      <c r="E591" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="I585" s="43"/>
+    </row>
+    <row r="586" spans="3:10">
+      <c r="D586" s="99"/>
+      <c r="E586" s="43"/>
+      <c r="F586" s="43"/>
+      <c r="G586" s="43"/>
+      <c r="H586" s="43"/>
+      <c r="I586" s="43"/>
+    </row>
+    <row r="589" spans="3:10">
+      <c r="C589" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="591" spans="3:10">
+      <c r="D591" s="18" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E591" s="18"/>
       <c r="F591" s="18"/>
       <c r="G591" s="18"/>
       <c r="H591" s="18"/>
       <c r="I591" s="18"/>
       <c r="J591" s="18"/>
     </row>
-    <row r="592" spans="3:11">
-      <c r="D592" s="18" t="s">
-        <v>45</v>
-      </c>
+    <row r="592" spans="3:10">
+      <c r="D592" s="18"/>
       <c r="E592" s="18"/>
       <c r="F592" s="18"/>
       <c r="G592" s="18"/>
@@ -29629,775 +29841,1400 @@
       <c r="I592" s="18"/>
       <c r="J592" s="18"/>
     </row>
-    <row r="598" spans="1:9">
-      <c r="A598" s="94" t="s">
+    <row r="593" spans="1:11">
+      <c r="D593" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E593" s="18"/>
+      <c r="F593" s="18"/>
+      <c r="G593" s="18"/>
+      <c r="H593" s="18"/>
+      <c r="I593" s="18"/>
+      <c r="J593" s="18"/>
+    </row>
+    <row r="594" spans="1:11">
+      <c r="D594" s="18" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E594" s="18"/>
+      <c r="F594" s="18"/>
+      <c r="G594" s="18"/>
+      <c r="H594" s="18"/>
+      <c r="I594" s="18"/>
+      <c r="J594" s="18"/>
+    </row>
+    <row r="595" spans="1:11">
+      <c r="D595" s="18"/>
+      <c r="E595" s="18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F595" s="18"/>
+      <c r="G595" s="18"/>
+      <c r="H595" s="18"/>
+      <c r="I595" s="18"/>
+      <c r="J595" s="18"/>
+    </row>
+    <row r="596" spans="1:11">
+      <c r="D596" s="18"/>
+      <c r="E596" s="18"/>
+      <c r="F596" s="18" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G596" s="18"/>
+      <c r="H596" s="18"/>
+      <c r="I596" s="18"/>
+      <c r="J596" s="18"/>
+    </row>
+    <row r="597" spans="1:11">
+      <c r="D597" s="18"/>
+      <c r="E597" s="18"/>
+      <c r="F597" s="100" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G597" s="100"/>
+      <c r="H597" s="100"/>
+      <c r="I597" s="100"/>
+      <c r="J597" s="100"/>
+      <c r="K597" s="101" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11">
+      <c r="D598" s="18"/>
+      <c r="E598" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F598" s="18"/>
+      <c r="G598" s="18"/>
+      <c r="H598" s="18"/>
+      <c r="I598" s="18"/>
+      <c r="J598" s="18"/>
+    </row>
+    <row r="599" spans="1:11">
+      <c r="D599" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E599" s="18"/>
+      <c r="F599" s="18"/>
+      <c r="G599" s="18"/>
+      <c r="H599" s="18"/>
+      <c r="I599" s="18"/>
+      <c r="J599" s="18"/>
+    </row>
+    <row r="605" spans="1:11">
+      <c r="A605" s="94" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11">
+      <c r="B607" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="609" spans="2:9">
+      <c r="B609" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="600" spans="1:9">
-      <c r="B600" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="602" spans="1:9">
-      <c r="B602" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="605" spans="1:9">
-      <c r="C605" s="18" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D605" s="18"/>
-      <c r="E605" s="18"/>
-      <c r="F605" s="18"/>
-      <c r="G605" s="18"/>
-      <c r="H605" s="18"/>
-      <c r="I605" s="18"/>
-    </row>
-    <row r="606" spans="1:9">
-      <c r="C606" s="18"/>
-      <c r="D606" s="18" t="s">
-        <v>1990</v>
-      </c>
-      <c r="E606" s="18"/>
-      <c r="F606" s="18"/>
-      <c r="G606" s="18"/>
-      <c r="H606" s="18"/>
-      <c r="I606" s="18"/>
-    </row>
-    <row r="607" spans="1:9">
-      <c r="C607" s="18"/>
-      <c r="D607" s="18"/>
-      <c r="E607" s="18" t="s">
-        <v>2161</v>
-      </c>
-      <c r="F607" s="18"/>
-      <c r="G607" s="18"/>
-      <c r="H607" s="18"/>
-      <c r="I607" s="18"/>
-    </row>
-    <row r="608" spans="1:9">
-      <c r="C608" s="18"/>
-      <c r="D608" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E608" s="18"/>
-      <c r="F608" s="18"/>
-      <c r="G608" s="18"/>
-      <c r="H608" s="18"/>
-      <c r="I608" s="18"/>
-    </row>
-    <row r="609" spans="3:11">
-      <c r="C609" s="18"/>
-      <c r="D609" s="18"/>
-      <c r="E609" s="18"/>
-      <c r="F609" s="18"/>
-      <c r="G609" s="18"/>
-      <c r="H609" s="18"/>
-      <c r="I609" s="18"/>
-    </row>
-    <row r="610" spans="3:11">
-      <c r="C610" s="18"/>
-      <c r="D610" s="18" t="s">
-        <v>2162</v>
-      </c>
-      <c r="E610" s="18"/>
-      <c r="F610" s="18"/>
-      <c r="G610" s="18"/>
-      <c r="H610" s="18"/>
-      <c r="I610" s="18"/>
-    </row>
-    <row r="611" spans="3:11">
-      <c r="C611" s="18"/>
-      <c r="D611" s="18"/>
-      <c r="E611" s="18" t="s">
-        <v>2163</v>
-      </c>
-      <c r="F611" s="18"/>
-      <c r="G611" s="18"/>
-      <c r="H611" s="18"/>
-      <c r="I611" s="18"/>
-    </row>
-    <row r="612" spans="3:11">
-      <c r="C612" s="18"/>
-      <c r="D612" s="18" t="s">
-        <v>45</v>
-      </c>
+    <row r="612" spans="2:9">
+      <c r="C612" s="18" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D612" s="18"/>
       <c r="E612" s="18"/>
       <c r="F612" s="18"/>
       <c r="G612" s="18"/>
       <c r="H612" s="18"/>
       <c r="I612" s="18"/>
     </row>
-    <row r="613" spans="3:11">
-      <c r="C613" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D613" s="18"/>
+    <row r="613" spans="2:9">
+      <c r="C613" s="18"/>
+      <c r="D613" s="18" t="s">
+        <v>1988</v>
+      </c>
       <c r="E613" s="18"/>
       <c r="F613" s="18"/>
       <c r="G613" s="18"/>
       <c r="H613" s="18"/>
       <c r="I613" s="18"/>
     </row>
-    <row r="614" spans="3:11">
+    <row r="614" spans="2:9">
+      <c r="C614" s="18"/>
       <c r="D614" s="18"/>
-      <c r="E614" s="18"/>
+      <c r="E614" s="18" t="s">
+        <v>2159</v>
+      </c>
       <c r="F614" s="18"/>
       <c r="G614" s="18"/>
       <c r="H614" s="18"/>
       <c r="I614" s="18"/>
     </row>
-    <row r="615" spans="3:11">
-      <c r="C615" s="18" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D615" s="18"/>
+    <row r="615" spans="2:9">
+      <c r="C615" s="18"/>
+      <c r="D615" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="E615" s="18"/>
       <c r="F615" s="18"/>
       <c r="G615" s="18"/>
       <c r="H615" s="18"/>
       <c r="I615" s="18"/>
     </row>
-    <row r="616" spans="3:11">
+    <row r="616" spans="2:9">
       <c r="C616" s="18"/>
-      <c r="D616" s="18" t="s">
-        <v>1990</v>
-      </c>
+      <c r="D616" s="18"/>
       <c r="E616" s="18"/>
       <c r="F616" s="18"/>
       <c r="G616" s="18"/>
       <c r="H616" s="18"/>
       <c r="I616" s="18"/>
     </row>
-    <row r="617" spans="3:11">
+    <row r="617" spans="2:9">
       <c r="C617" s="18"/>
-      <c r="D617" s="18"/>
-      <c r="E617" s="18" t="s">
-        <v>2165</v>
-      </c>
+      <c r="D617" s="18" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E617" s="18"/>
       <c r="F617" s="18"/>
       <c r="G617" s="18"/>
       <c r="H617" s="18"/>
       <c r="I617" s="18"/>
     </row>
-    <row r="618" spans="3:11">
+    <row r="618" spans="2:9">
       <c r="C618" s="18"/>
-      <c r="D618" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E618" s="18"/>
+      <c r="D618" s="18"/>
+      <c r="E618" s="18" t="s">
+        <v>2161</v>
+      </c>
       <c r="F618" s="18"/>
       <c r="G618" s="18"/>
       <c r="H618" s="18"/>
       <c r="I618" s="18"/>
     </row>
-    <row r="619" spans="3:11">
+    <row r="619" spans="2:9">
       <c r="C619" s="18"/>
-      <c r="D619" s="18"/>
+      <c r="D619" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="E619" s="18"/>
       <c r="F619" s="18"/>
       <c r="G619" s="18"/>
       <c r="H619" s="18"/>
       <c r="I619" s="18"/>
     </row>
-    <row r="620" spans="3:11">
-      <c r="C620" s="18"/>
-      <c r="D620" s="18" t="s">
-        <v>1620</v>
-      </c>
+    <row r="620" spans="2:9">
+      <c r="C620" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D620" s="18"/>
       <c r="E620" s="18"/>
       <c r="F620" s="18"/>
       <c r="G620" s="18"/>
       <c r="H620" s="18"/>
       <c r="I620" s="18"/>
     </row>
-    <row r="621" spans="3:11">
-      <c r="C621" s="18"/>
+    <row r="621" spans="2:9">
       <c r="D621" s="18"/>
-      <c r="E621" s="18" t="s">
-        <v>2166</v>
-      </c>
+      <c r="E621" s="18"/>
       <c r="F621" s="18"/>
       <c r="G621" s="18"/>
       <c r="H621" s="18"/>
       <c r="I621" s="18"/>
     </row>
-    <row r="622" spans="3:11">
-      <c r="C622" s="18"/>
+    <row r="622" spans="2:9">
+      <c r="C622" s="18" t="s">
+        <v>2162</v>
+      </c>
       <c r="D622" s="18"/>
-      <c r="E622" s="18" t="s">
-        <v>2167</v>
-      </c>
+      <c r="E622" s="18"/>
       <c r="F622" s="18"/>
       <c r="G622" s="18"/>
       <c r="H622" s="18"/>
       <c r="I622" s="18"/>
-      <c r="K622" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="623" spans="3:11">
+    </row>
+    <row r="623" spans="2:9">
       <c r="C623" s="18"/>
       <c r="D623" s="18" t="s">
-        <v>45</v>
+        <v>1988</v>
       </c>
       <c r="E623" s="18"/>
       <c r="F623" s="18"/>
       <c r="G623" s="18"/>
       <c r="H623" s="18"/>
       <c r="I623" s="18"/>
-      <c r="K623" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="624" spans="3:11">
-      <c r="C624" s="18" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="624" spans="2:9">
+      <c r="C624" s="18"/>
       <c r="D624" s="18"/>
-      <c r="E624" s="18"/>
+      <c r="E624" s="18" t="s">
+        <v>2163</v>
+      </c>
       <c r="F624" s="18"/>
       <c r="G624" s="18"/>
       <c r="H624" s="18"/>
       <c r="I624" s="18"/>
     </row>
-    <row r="626" spans="1:5">
-      <c r="A626" s="94" t="s">
+    <row r="625" spans="1:11">
+      <c r="C625" s="18"/>
+      <c r="D625" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E625" s="18"/>
+      <c r="F625" s="18"/>
+      <c r="G625" s="18"/>
+      <c r="H625" s="18"/>
+      <c r="I625" s="18"/>
+    </row>
+    <row r="626" spans="1:11">
+      <c r="C626" s="18"/>
+      <c r="D626" s="18"/>
+      <c r="E626" s="18"/>
+      <c r="F626" s="18"/>
+      <c r="G626" s="18"/>
+      <c r="H626" s="18"/>
+      <c r="I626" s="18"/>
+    </row>
+    <row r="627" spans="1:11">
+      <c r="C627" s="18"/>
+      <c r="D627" s="18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E627" s="18"/>
+      <c r="F627" s="18"/>
+      <c r="G627" s="18"/>
+      <c r="H627" s="18"/>
+      <c r="I627" s="18"/>
+    </row>
+    <row r="628" spans="1:11">
+      <c r="C628" s="18"/>
+      <c r="D628" s="18"/>
+      <c r="E628" s="18" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F628" s="18"/>
+      <c r="G628" s="18"/>
+      <c r="H628" s="18"/>
+      <c r="I628" s="18"/>
+    </row>
+    <row r="629" spans="1:11">
+      <c r="C629" s="18"/>
+      <c r="D629" s="18"/>
+      <c r="E629" s="18" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F629" s="18"/>
+      <c r="G629" s="18"/>
+      <c r="H629" s="18"/>
+      <c r="I629" s="18"/>
+      <c r="K629" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11">
+      <c r="C630" s="18"/>
+      <c r="D630" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E630" s="18"/>
+      <c r="F630" s="18"/>
+      <c r="G630" s="18"/>
+      <c r="H630" s="18"/>
+      <c r="I630" s="18"/>
+      <c r="K630" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11">
+      <c r="C631" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D631" s="18"/>
+      <c r="E631" s="18"/>
+      <c r="F631" s="18"/>
+      <c r="G631" s="18"/>
+      <c r="H631" s="18"/>
+      <c r="I631" s="18"/>
+    </row>
+    <row r="633" spans="1:11">
+      <c r="A633" s="94" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11">
+      <c r="B635" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11">
+      <c r="C637" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11">
+      <c r="D638" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11">
+      <c r="E639" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
-      <c r="B628" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="630" spans="1:5">
-      <c r="C630" t="s">
+    <row r="640" spans="1:11">
+      <c r="D640" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="641" spans="3:5">
+      <c r="C641" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="643" spans="3:5">
+      <c r="C643" t="s">
         <v>2171</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
-      <c r="D631" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="632" spans="1:5">
-      <c r="E632" t="s">
+    <row r="644" spans="3:5">
+      <c r="D644" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="645" spans="3:5">
+      <c r="E645" t="s">
         <v>2172</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
-      <c r="D633" t="s">
+    <row r="646" spans="3:5">
+      <c r="D646" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
-      <c r="C634" t="s">
+    <row r="647" spans="3:5">
+      <c r="C647" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
-      <c r="C636" t="s">
+    <row r="649" spans="3:5">
+      <c r="C649" t="s">
         <v>2173</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
-      <c r="D637" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="638" spans="1:5">
-      <c r="E638" t="s">
+    <row r="650" spans="3:5">
+      <c r="D650" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="651" spans="3:5">
+      <c r="E651" t="s">
         <v>2174</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
-      <c r="D639" t="s">
+    <row r="652" spans="3:5">
+      <c r="D652" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
-      <c r="C640" t="s">
+    <row r="653" spans="3:5">
+      <c r="C653" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="642" spans="3:8">
-      <c r="C642" t="s">
+    <row r="655" spans="3:5">
+      <c r="C655" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="643" spans="3:8">
-      <c r="D643" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="644" spans="3:8">
-      <c r="E644" t="s">
+    <row r="656" spans="3:5">
+      <c r="D656" t="s">
         <v>2176</v>
       </c>
     </row>
-    <row r="645" spans="3:8">
-      <c r="D645" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="646" spans="3:8">
-      <c r="C646" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="648" spans="3:8">
-      <c r="C648" t="s">
+    <row r="657" spans="1:8">
+      <c r="E657" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="649" spans="3:8">
-      <c r="D649" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="650" spans="3:8">
-      <c r="E650" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="651" spans="3:8">
-      <c r="D651" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="654" spans="3:8">
-      <c r="D654" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="655" spans="3:8">
-      <c r="E655" s="50" t="s">
-        <v>2180</v>
-      </c>
-      <c r="F655" s="50"/>
-      <c r="H655" s="92" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="656" spans="3:8">
-      <c r="E656" s="50" t="s">
-        <v>2181</v>
-      </c>
-      <c r="F656" s="50"/>
-    </row>
-    <row r="657" spans="1:6">
-      <c r="E657" s="50" t="s">
-        <v>2182</v>
-      </c>
-      <c r="F657" s="50"/>
-    </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:8">
       <c r="D658" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="659" spans="1:6">
-      <c r="C659" t="s">
+    <row r="661" spans="1:8">
+      <c r="D661" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
+      <c r="E662" s="50" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F662" s="50"/>
+      <c r="H662" s="92" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8">
+      <c r="E663" s="50" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F663" s="50"/>
+    </row>
+    <row r="664" spans="1:8">
+      <c r="E664" s="50" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F664" s="50"/>
+    </row>
+    <row r="665" spans="1:8">
+      <c r="D665" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
-      <c r="A661" s="94" t="s">
+    <row r="666" spans="1:8">
+      <c r="C666" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8">
+      <c r="A668" s="94" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8">
+      <c r="B669" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D669" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8">
+      <c r="D670" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8">
+      <c r="D671" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="673" spans="2:16">
+      <c r="B673" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="674" spans="2:16">
+      <c r="B674" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="675" spans="2:16">
+      <c r="B675" s="36" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C675" s="22" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D675" s="18"/>
+      <c r="E675" s="18"/>
+      <c r="F675" s="18"/>
+      <c r="G675" s="18"/>
+      <c r="H675" s="18"/>
+    </row>
+    <row r="676" spans="2:16">
+      <c r="C676" t="s">
+        <v>2243</v>
+      </c>
+      <c r="H676" s="18"/>
+    </row>
+    <row r="677" spans="2:16">
+      <c r="C677" s="22" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D677" s="18"/>
+      <c r="E677" s="18"/>
+      <c r="F677" s="18"/>
+      <c r="G677" s="18"/>
+      <c r="H677" s="18"/>
+      <c r="I677" s="50" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="678" spans="2:16">
+      <c r="C678" s="22" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D678" s="18"/>
+      <c r="E678" s="18"/>
+      <c r="F678" s="18"/>
+      <c r="G678" s="18"/>
+      <c r="H678" s="18"/>
+    </row>
+    <row r="679" spans="2:16">
+      <c r="C679" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="D679" s="18"/>
+      <c r="E679" s="18"/>
+      <c r="F679" s="18"/>
+      <c r="G679" s="18"/>
+      <c r="H679" s="18"/>
+    </row>
+    <row r="680" spans="2:16">
+      <c r="H680" s="18"/>
+    </row>
+    <row r="681" spans="2:16">
+      <c r="C681" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="H681" s="18"/>
+    </row>
+    <row r="682" spans="2:16">
+      <c r="D682" s="22" t="s">
+        <v>2233</v>
+      </c>
+      <c r="H682" s="18"/>
+    </row>
+    <row r="683" spans="2:16">
+      <c r="D683" s="22" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E683" s="18"/>
+      <c r="F683" s="18"/>
+      <c r="G683" s="18"/>
+      <c r="H683" s="18"/>
+      <c r="I683" s="50" t="s">
+        <v>2239</v>
+      </c>
+      <c r="J683" s="50"/>
+      <c r="K683" s="50"/>
+      <c r="L683" s="50"/>
+      <c r="M683" s="50"/>
+      <c r="N683" s="50"/>
+      <c r="O683" s="50"/>
+      <c r="P683" s="50" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="684" spans="2:16">
+      <c r="D684" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G684" s="18"/>
+      <c r="H684" s="18"/>
+      <c r="I684" t="s">
+        <v>2258</v>
+      </c>
+      <c r="P684" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="685" spans="2:16">
+      <c r="F685" s="18"/>
+      <c r="G685" s="18"/>
+      <c r="H685" s="18"/>
+    </row>
+    <row r="686" spans="2:16">
+      <c r="C686" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="D686" s="18"/>
+      <c r="E686" s="18"/>
+      <c r="F686" s="18"/>
+      <c r="G686" s="18"/>
+      <c r="H686" s="18"/>
+    </row>
+    <row r="687" spans="2:16">
+      <c r="C687" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D687" s="18"/>
+      <c r="E687" s="18"/>
+      <c r="F687" s="18"/>
+      <c r="G687" s="18"/>
+      <c r="H687" s="18"/>
+    </row>
+    <row r="688" spans="2:16">
+      <c r="C688" s="22"/>
+      <c r="D688" s="18"/>
+      <c r="E688" s="18"/>
+      <c r="F688" s="18"/>
+      <c r="G688" s="18"/>
+      <c r="H688" s="18"/>
+    </row>
+    <row r="689" spans="2:14">
+      <c r="C689" s="22" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D689" s="18"/>
+      <c r="E689" s="18"/>
+      <c r="F689" s="18"/>
+      <c r="G689" s="18"/>
+      <c r="H689" s="18"/>
+    </row>
+    <row r="690" spans="2:14">
+      <c r="C690" s="22" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D690" s="18"/>
+      <c r="E690" s="18"/>
+      <c r="F690" s="18"/>
+      <c r="G690" s="18"/>
+      <c r="H690" s="18"/>
+    </row>
+    <row r="691" spans="2:14">
+      <c r="C691" s="22" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D691" s="18"/>
+      <c r="E691" s="18"/>
+      <c r="F691" s="18"/>
+      <c r="G691" s="18"/>
+      <c r="H691" s="18"/>
+    </row>
+    <row r="692" spans="2:14">
+      <c r="C692" s="22" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D692" s="18"/>
+      <c r="E692" s="18"/>
+      <c r="F692" s="18"/>
+      <c r="G692" s="18"/>
+      <c r="H692" s="18"/>
+    </row>
+    <row r="693" spans="2:14">
+      <c r="C693" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="D693" s="18"/>
+      <c r="E693" s="18"/>
+      <c r="F693" s="18"/>
+      <c r="G693" s="18"/>
+      <c r="H693" s="18"/>
+    </row>
+    <row r="694" spans="2:14">
+      <c r="C694" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D694" s="18"/>
+      <c r="E694" s="18"/>
+      <c r="F694" s="18"/>
+      <c r="G694" s="18"/>
+      <c r="H694" s="18"/>
+    </row>
+    <row r="695" spans="2:14">
+      <c r="B695" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C695" s="22"/>
+      <c r="D695" s="18"/>
+      <c r="E695" s="18"/>
+      <c r="F695" s="18"/>
+      <c r="G695" s="18"/>
+      <c r="H695" s="18"/>
+    </row>
+    <row r="696" spans="2:14">
+      <c r="C696" s="58" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D696" s="18"/>
+      <c r="E696" s="18"/>
+      <c r="F696" s="18"/>
+      <c r="G696" s="18"/>
+      <c r="H696" s="18"/>
+      <c r="I696" s="43"/>
+    </row>
+    <row r="697" spans="2:14">
+      <c r="C697" s="58" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D697" s="18"/>
+      <c r="E697" s="18"/>
+      <c r="F697" s="18"/>
+      <c r="G697" s="18"/>
+      <c r="H697" s="18"/>
+      <c r="I697" s="50" t="s">
+        <v>2255</v>
+      </c>
+      <c r="J697" s="50"/>
+      <c r="K697" s="50"/>
+      <c r="L697" s="50"/>
+      <c r="M697" s="50"/>
+      <c r="N697" s="50"/>
+    </row>
+    <row r="698" spans="2:14">
+      <c r="C698" s="58" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D698" s="18"/>
+      <c r="E698" s="18"/>
+      <c r="F698" s="18"/>
+      <c r="G698" s="18"/>
+      <c r="H698" s="18"/>
+      <c r="I698" s="50"/>
+      <c r="J698" s="50"/>
+      <c r="K698" s="50"/>
+      <c r="L698" s="50"/>
+      <c r="M698" s="50"/>
+      <c r="N698" s="50"/>
+    </row>
+    <row r="699" spans="2:14">
+      <c r="C699" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="D699" s="18"/>
+      <c r="E699" s="18"/>
+      <c r="F699" s="18"/>
+      <c r="G699" s="18"/>
+      <c r="H699" s="18"/>
+      <c r="I699" s="50"/>
+      <c r="J699" s="50"/>
+      <c r="K699" s="50"/>
+      <c r="L699" s="50"/>
+      <c r="M699" s="50"/>
+      <c r="N699" s="50"/>
+    </row>
+    <row r="700" spans="2:14">
+      <c r="C700" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D700" s="18"/>
+      <c r="E700" s="18"/>
+      <c r="F700" s="18"/>
+      <c r="G700" s="18"/>
+      <c r="H700" s="18"/>
+      <c r="I700" s="50"/>
+      <c r="J700" s="50"/>
+      <c r="K700" s="50"/>
+      <c r="L700" s="50"/>
+      <c r="M700" s="50"/>
+      <c r="N700" s="50"/>
+    </row>
+    <row r="701" spans="2:14">
+      <c r="C701" s="58"/>
+      <c r="D701" s="18"/>
+      <c r="E701" s="18"/>
+      <c r="F701" s="18"/>
+      <c r="G701" s="18"/>
+      <c r="H701" s="18"/>
+      <c r="I701" s="50"/>
+      <c r="J701" s="50"/>
+      <c r="K701" s="50"/>
+      <c r="L701" s="50"/>
+      <c r="M701" s="50"/>
+      <c r="N701" s="50"/>
+    </row>
+    <row r="702" spans="2:14">
+      <c r="C702" s="58" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D702" s="18"/>
+      <c r="E702" s="18"/>
+      <c r="F702" s="18"/>
+      <c r="G702" s="18"/>
+      <c r="H702" s="18"/>
+      <c r="I702" s="50"/>
+      <c r="J702" s="50"/>
+      <c r="K702" s="50"/>
+      <c r="L702" s="50"/>
+      <c r="M702" s="50"/>
+      <c r="N702" s="50"/>
+    </row>
+    <row r="703" spans="2:14">
+      <c r="C703" s="58" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D703" s="18"/>
+      <c r="E703" s="18"/>
+      <c r="F703" s="18"/>
+      <c r="G703" s="18"/>
+      <c r="H703" s="18"/>
+      <c r="I703" s="50" t="s">
+        <v>2256</v>
+      </c>
+      <c r="J703" s="50"/>
+      <c r="K703" s="50"/>
+      <c r="L703" s="50"/>
+      <c r="M703" s="50"/>
+      <c r="N703" s="50"/>
+    </row>
+    <row r="704" spans="2:14">
+      <c r="C704" s="58" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D704" s="18"/>
+      <c r="E704" s="18"/>
+      <c r="F704" s="18"/>
+      <c r="G704" s="18"/>
+      <c r="H704" s="18"/>
+      <c r="I704" s="50"/>
+      <c r="J704" s="50"/>
+      <c r="K704" s="50"/>
+      <c r="L704" s="50"/>
+      <c r="M704" s="50"/>
+      <c r="N704" s="50"/>
+    </row>
+    <row r="705" spans="1:14">
+      <c r="C705" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="D705" s="18"/>
+      <c r="E705" s="18"/>
+      <c r="F705" s="18"/>
+      <c r="G705" s="18"/>
+      <c r="H705" s="18"/>
+      <c r="I705" s="50"/>
+      <c r="J705" s="50"/>
+      <c r="K705" s="50"/>
+      <c r="L705" s="50"/>
+      <c r="M705" s="50"/>
+      <c r="N705" s="50"/>
+    </row>
+    <row r="706" spans="1:14">
+      <c r="C706" s="79"/>
+      <c r="D706" s="18"/>
+      <c r="E706" s="18"/>
+      <c r="F706" s="18"/>
+      <c r="G706" s="18"/>
+      <c r="H706" s="18"/>
+      <c r="I706" s="50"/>
+      <c r="J706" s="50"/>
+      <c r="K706" s="50"/>
+      <c r="L706" s="50"/>
+      <c r="M706" s="50"/>
+      <c r="N706" s="50"/>
+    </row>
+    <row r="707" spans="1:14">
+      <c r="C707" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="D707" s="18"/>
+      <c r="E707" s="18"/>
+      <c r="F707" s="18"/>
+      <c r="G707" s="18"/>
+      <c r="H707" s="18"/>
+      <c r="I707" s="50"/>
+      <c r="J707" s="50"/>
+      <c r="K707" s="50"/>
+      <c r="L707" s="50"/>
+      <c r="M707" s="50"/>
+      <c r="N707" s="50"/>
+    </row>
+    <row r="708" spans="1:14">
+      <c r="C708" s="58" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D708" s="18"/>
+      <c r="E708" s="18"/>
+      <c r="F708" s="18"/>
+      <c r="G708" s="18"/>
+      <c r="H708" s="18"/>
+      <c r="I708" s="50" t="s">
+        <v>2251</v>
+      </c>
+      <c r="J708" s="50"/>
+      <c r="K708" s="50"/>
+      <c r="L708" s="50" t="s">
+        <v>2252</v>
+      </c>
+      <c r="M708" s="50"/>
+      <c r="N708" s="50"/>
+    </row>
+    <row r="709" spans="1:14">
+      <c r="C709" s="79"/>
+      <c r="D709" s="18"/>
+      <c r="E709" s="18"/>
+      <c r="F709" s="18"/>
+      <c r="G709" s="18"/>
+      <c r="H709" s="18"/>
+      <c r="I709" s="50"/>
+      <c r="J709" s="50"/>
+      <c r="K709" s="50"/>
+      <c r="L709" s="50"/>
+      <c r="M709" s="50"/>
+      <c r="N709" s="50"/>
+    </row>
+    <row r="710" spans="1:14">
+      <c r="C710" s="58" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D710" s="18"/>
+      <c r="E710" s="18"/>
+      <c r="F710" s="18"/>
+      <c r="G710" s="18"/>
+      <c r="H710" s="18"/>
+      <c r="I710" s="50"/>
+      <c r="J710" s="50"/>
+      <c r="K710" s="50"/>
+      <c r="L710" s="50"/>
+      <c r="M710" s="50"/>
+      <c r="N710" s="50"/>
+    </row>
+    <row r="711" spans="1:14">
+      <c r="C711" s="58" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D711" s="18"/>
+      <c r="E711" s="18"/>
+      <c r="F711" s="18"/>
+      <c r="G711" s="18"/>
+      <c r="H711" s="18"/>
+      <c r="I711" s="50" t="s">
+        <v>2253</v>
+      </c>
+      <c r="J711" s="50"/>
+      <c r="K711" s="50"/>
+      <c r="L711" s="50" t="s">
+        <v>2254</v>
+      </c>
+      <c r="M711" s="50"/>
+      <c r="N711" s="50"/>
+    </row>
+    <row r="712" spans="1:14">
+      <c r="C712" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="D712" s="18"/>
+      <c r="E712" s="18"/>
+      <c r="F712" s="18"/>
+      <c r="G712" s="18"/>
+      <c r="H712" s="18"/>
+      <c r="I712" s="43"/>
+    </row>
+    <row r="713" spans="1:14">
+      <c r="C713" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D713" s="43"/>
+      <c r="E713" s="43"/>
+      <c r="F713" s="43"/>
+      <c r="G713" s="43"/>
+      <c r="H713" s="43"/>
+      <c r="I713" s="43"/>
+    </row>
+    <row r="715" spans="1:14">
+      <c r="A715" s="98" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="716" spans="1:14" s="36" customFormat="1">
+      <c r="A716" s="103" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B716" s="104" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C716" s="104" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="717" spans="1:14">
+      <c r="A717" s="102">
+        <v>1</v>
+      </c>
+      <c r="B717" s="70" t="s">
         <v>2184</v>
       </c>
-    </row>
-    <row r="667" spans="1:6">
-      <c r="A667" s="98" t="s">
+      <c r="C717" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="E717" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="718" spans="1:14">
+      <c r="A718" s="102">
+        <v>2</v>
+      </c>
+      <c r="B718" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C718" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="E718" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="719" spans="1:14">
+      <c r="A719" s="102">
+        <v>3</v>
+      </c>
+      <c r="B719" s="70" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C719" s="70" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="720" spans="1:14">
+      <c r="A720" s="102">
+        <v>4</v>
+      </c>
+      <c r="B720" s="70" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="668" spans="1:6" s="36" customFormat="1">
-      <c r="A668" s="103" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B668" s="104" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C668" s="104" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="669" spans="1:6">
-      <c r="A669" s="102">
-        <v>1</v>
-      </c>
-      <c r="B669" s="70" t="s">
+      <c r="C720" s="70" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D720" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" s="102">
+        <v>5</v>
+      </c>
+      <c r="B721" s="70" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C721" s="70" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E721" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" s="102">
+        <v>6</v>
+      </c>
+      <c r="B722" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C722" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D722" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" s="102">
+        <v>7</v>
+      </c>
+      <c r="B723" s="70" t="s">
         <v>2187</v>
       </c>
-      <c r="C669" s="70"/>
-    </row>
-    <row r="670" spans="1:6">
-      <c r="A670" s="102">
-        <v>2</v>
-      </c>
-      <c r="B670" s="70" t="s">
+      <c r="C723" s="70" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E723" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" s="102">
+        <v>8</v>
+      </c>
+      <c r="B724" s="70" t="s">
+        <v>638</v>
+      </c>
+      <c r="C724" s="70" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D724" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" s="102">
+        <v>9</v>
+      </c>
+      <c r="B725" s="70" t="s">
+        <v>638</v>
+      </c>
+      <c r="C725" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E725" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" s="102">
+        <v>10</v>
+      </c>
+      <c r="B726" s="70" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C726" s="70" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" s="102">
+        <v>11</v>
+      </c>
+      <c r="B727" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C727" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D727" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" s="102">
+        <v>12</v>
+      </c>
+      <c r="B728" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="C670" s="70"/>
-    </row>
-    <row r="671" spans="1:6">
-      <c r="A671" s="102">
-        <v>3</v>
-      </c>
-      <c r="B671" s="70" t="s">
-        <v>2188</v>
-      </c>
-      <c r="C671" s="70"/>
-    </row>
-    <row r="672" spans="1:6">
-      <c r="A672" s="102">
-        <v>4</v>
-      </c>
-      <c r="B672" s="70" t="s">
-        <v>2189</v>
-      </c>
-      <c r="C672" s="70"/>
-    </row>
-    <row r="673" spans="1:3">
-      <c r="A673" s="102">
-        <v>5</v>
-      </c>
-      <c r="B673" s="70" t="s">
-        <v>2188</v>
-      </c>
-      <c r="C673" s="70"/>
-    </row>
-    <row r="674" spans="1:3">
-      <c r="A674" s="102">
-        <v>6</v>
-      </c>
-      <c r="B674" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C674" s="70"/>
-    </row>
-    <row r="675" spans="1:3">
-      <c r="A675" s="102">
-        <v>7</v>
-      </c>
-      <c r="B675" s="70" t="s">
+      <c r="C728" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D728" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" s="102">
+        <v>13</v>
+      </c>
+      <c r="B729" s="70" t="s">
+        <v>638</v>
+      </c>
+      <c r="C729" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" s="102">
+        <v>14</v>
+      </c>
+      <c r="B730" s="70" t="s">
         <v>2190</v>
       </c>
-      <c r="C675" s="70"/>
-    </row>
-    <row r="676" spans="1:3">
-      <c r="A676" s="102">
-        <v>8</v>
-      </c>
-      <c r="B676" s="70" t="s">
-        <v>638</v>
-      </c>
-      <c r="C676" s="70"/>
-    </row>
-    <row r="677" spans="1:3">
-      <c r="A677" s="102">
-        <v>9</v>
-      </c>
-      <c r="B677" s="70" t="s">
-        <v>638</v>
-      </c>
-      <c r="C677" s="70"/>
-    </row>
-    <row r="678" spans="1:3">
-      <c r="A678" s="102">
-        <v>10</v>
-      </c>
-      <c r="B678" s="70" t="s">
+      <c r="C730" s="70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5">
+      <c r="A731" s="102">
+        <v>15</v>
+      </c>
+      <c r="B731" s="70" t="s">
         <v>2191</v>
       </c>
-      <c r="C678" s="70"/>
-    </row>
-    <row r="679" spans="1:3">
-      <c r="A679" s="102">
-        <v>11</v>
-      </c>
-      <c r="B679" s="70" t="s">
+      <c r="C731" s="70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" s="102">
+        <v>16</v>
+      </c>
+      <c r="B732" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C732" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="E732" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5">
+      <c r="A733" s="102">
+        <v>17</v>
+      </c>
+      <c r="B733" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C733" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="E733" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" s="102">
+        <v>18</v>
+      </c>
+      <c r="B734" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C734" s="70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="A735" s="102">
+        <v>19</v>
+      </c>
+      <c r="B735" s="70" t="s">
         <v>2192</v>
       </c>
-      <c r="C679" s="70"/>
-    </row>
-    <row r="680" spans="1:3">
-      <c r="A680" s="102">
-        <v>12</v>
-      </c>
-      <c r="B680" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C680" s="70"/>
-    </row>
-    <row r="681" spans="1:3">
-      <c r="A681" s="102">
-        <v>13</v>
-      </c>
-      <c r="B681" s="70"/>
-      <c r="C681" s="70"/>
-    </row>
-    <row r="682" spans="1:3">
-      <c r="A682" s="102">
-        <v>14</v>
-      </c>
-      <c r="B682" s="70"/>
-      <c r="C682" s="70"/>
-    </row>
-    <row r="683" spans="1:3">
-      <c r="A683" s="102">
-        <v>15</v>
-      </c>
-      <c r="B683" s="70"/>
-      <c r="C683" s="70"/>
-    </row>
-    <row r="684" spans="1:3">
-      <c r="A684" s="102">
-        <v>16</v>
-      </c>
-      <c r="B684" s="70"/>
-      <c r="C684" s="70"/>
-    </row>
-    <row r="685" spans="1:3">
-      <c r="A685" s="102">
-        <v>17</v>
-      </c>
-      <c r="B685" s="70"/>
-      <c r="C685" s="70"/>
-    </row>
-    <row r="686" spans="1:3">
-      <c r="A686" s="102">
-        <v>18</v>
-      </c>
-      <c r="B686" s="70"/>
-      <c r="C686" s="70"/>
-    </row>
-    <row r="687" spans="1:3">
-      <c r="A687" s="102">
-        <v>19</v>
-      </c>
-      <c r="B687" s="70"/>
-      <c r="C687" s="70"/>
-    </row>
-    <row r="688" spans="1:3">
-      <c r="A688" s="102">
+      <c r="C735" s="70" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" s="102">
         <v>20</v>
       </c>
-      <c r="B688" s="70"/>
-      <c r="C688" s="70"/>
-    </row>
-    <row r="689" spans="1:3">
-      <c r="A689" s="102">
-        <v>21</v>
-      </c>
-      <c r="B689" s="70"/>
-      <c r="C689" s="70"/>
-    </row>
-    <row r="690" spans="1:3">
-      <c r="A690" s="102">
-        <v>22</v>
-      </c>
-      <c r="B690" s="70"/>
-      <c r="C690" s="70"/>
-    </row>
-    <row r="691" spans="1:3">
-      <c r="A691" s="102">
-        <v>23</v>
-      </c>
-      <c r="B691" s="70"/>
-      <c r="C691" s="70"/>
-    </row>
-    <row r="692" spans="1:3">
-      <c r="A692" s="102">
-        <v>24</v>
-      </c>
-      <c r="B692" s="70"/>
-      <c r="C692" s="70"/>
-    </row>
-    <row r="693" spans="1:3">
-      <c r="A693" s="102">
-        <v>25</v>
-      </c>
-      <c r="B693" s="70"/>
-      <c r="C693" s="70"/>
-    </row>
-    <row r="694" spans="1:3">
-      <c r="A694" s="102">
-        <v>26</v>
-      </c>
-      <c r="B694" s="70"/>
-      <c r="C694" s="70"/>
-    </row>
-    <row r="695" spans="1:3">
-      <c r="A695" s="102">
-        <v>27</v>
-      </c>
-      <c r="B695" s="70"/>
-      <c r="C695" s="70"/>
-    </row>
-    <row r="696" spans="1:3">
-      <c r="A696" s="102">
-        <v>28</v>
-      </c>
-      <c r="B696" s="70"/>
-      <c r="C696" s="70"/>
-    </row>
-    <row r="697" spans="1:3">
-      <c r="A697" s="102">
-        <v>29</v>
-      </c>
-      <c r="B697" s="70"/>
-      <c r="C697" s="70"/>
-    </row>
-    <row r="698" spans="1:3">
-      <c r="A698" s="102">
-        <v>30</v>
-      </c>
-      <c r="B698" s="70"/>
-      <c r="C698" s="70"/>
-    </row>
-    <row r="699" spans="1:3">
-      <c r="A699" s="102">
-        <v>31</v>
-      </c>
-      <c r="B699" s="70"/>
-      <c r="C699" s="70"/>
-    </row>
-    <row r="700" spans="1:3">
-      <c r="A700" s="102">
-        <v>32</v>
-      </c>
-      <c r="B700" s="70"/>
-      <c r="C700" s="70"/>
-    </row>
-    <row r="701" spans="1:3">
-      <c r="A701" s="102">
-        <v>33</v>
-      </c>
-      <c r="B701" s="70"/>
-      <c r="C701" s="70"/>
-    </row>
-    <row r="702" spans="1:3">
-      <c r="A702" s="102">
-        <v>34</v>
-      </c>
-      <c r="B702" s="70"/>
-      <c r="C702" s="70"/>
-    </row>
-    <row r="703" spans="1:3">
-      <c r="A703" s="102">
-        <v>35</v>
-      </c>
-      <c r="B703" s="70"/>
-      <c r="C703" s="70"/>
-    </row>
-    <row r="704" spans="1:3">
-      <c r="A704" s="102">
-        <v>36</v>
-      </c>
-      <c r="B704" s="70"/>
-      <c r="C704" s="70"/>
-    </row>
-    <row r="705" spans="1:3">
-      <c r="A705" s="102">
-        <v>37</v>
-      </c>
-      <c r="B705" s="70"/>
-      <c r="C705" s="70"/>
-    </row>
-    <row r="706" spans="1:3">
-      <c r="A706" s="102">
-        <v>38</v>
-      </c>
-      <c r="B706" s="70"/>
-      <c r="C706" s="70"/>
-    </row>
-    <row r="707" spans="1:3">
-      <c r="A707" s="102">
-        <v>39</v>
-      </c>
-      <c r="B707" s="70"/>
-      <c r="C707" s="70"/>
-    </row>
-    <row r="708" spans="1:3">
-      <c r="A708" s="102">
-        <v>40</v>
-      </c>
-      <c r="B708" s="70"/>
-      <c r="C708" s="70"/>
-    </row>
-    <row r="709" spans="1:3">
-      <c r="A709" s="102">
-        <v>41</v>
-      </c>
-      <c r="B709" s="70"/>
-      <c r="C709" s="70"/>
-    </row>
-    <row r="710" spans="1:3">
-      <c r="A710" s="102">
-        <v>42</v>
-      </c>
-      <c r="B710" s="70"/>
-      <c r="C710" s="70"/>
-    </row>
-    <row r="711" spans="1:3">
-      <c r="A711" s="102">
-        <v>43</v>
-      </c>
-      <c r="B711" s="70"/>
-      <c r="C711" s="70"/>
-    </row>
-    <row r="712" spans="1:3">
-      <c r="A712" s="102">
-        <v>44</v>
-      </c>
-      <c r="B712" s="70"/>
-      <c r="C712" s="70"/>
-    </row>
-    <row r="713" spans="1:3">
-      <c r="A713" s="102">
-        <v>45</v>
-      </c>
-      <c r="B713" s="70"/>
-      <c r="C713" s="70"/>
-    </row>
-    <row r="714" spans="1:3">
-      <c r="A714" s="102">
-        <v>46</v>
-      </c>
-      <c r="B714" s="70"/>
-      <c r="C714" s="70"/>
-    </row>
-    <row r="715" spans="1:3">
-      <c r="A715" s="102">
-        <v>47</v>
-      </c>
-      <c r="B715" s="70"/>
-      <c r="C715" s="70"/>
-    </row>
-    <row r="716" spans="1:3">
-      <c r="A716" s="102">
-        <v>48</v>
-      </c>
-      <c r="B716" s="70"/>
-      <c r="C716" s="70"/>
-    </row>
-    <row r="717" spans="1:3">
-      <c r="A717" s="102">
-        <v>49</v>
-      </c>
-      <c r="B717" s="70"/>
-      <c r="C717" s="70"/>
-    </row>
-    <row r="718" spans="1:3">
-      <c r="A718" s="102">
-        <v>50</v>
-      </c>
-      <c r="B718" s="70"/>
-      <c r="C718" s="70"/>
+      <c r="B736" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C736" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="A737" s="102"/>
+      <c r="B737" s="70"/>
+      <c r="C737" s="70"/>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="B738" s="102" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C738" s="70"/>
+    </row>
+    <row r="739" spans="1:3">
+      <c r="A739" s="102"/>
+      <c r="B739" s="70"/>
+      <c r="C739" s="70"/>
+    </row>
+    <row r="740" spans="1:3">
+      <c r="A740" s="102"/>
+      <c r="B740" s="70"/>
+      <c r="C740" s="70"/>
+    </row>
+    <row r="741" spans="1:3">
+      <c r="A741" s="102"/>
+      <c r="B741" s="70"/>
+      <c r="C741" s="70"/>
+    </row>
+    <row r="742" spans="1:3">
+      <c r="A742" s="102"/>
+      <c r="B742" s="70"/>
+      <c r="C742" s="70"/>
+    </row>
+    <row r="743" spans="1:3">
+      <c r="A743" s="102"/>
+      <c r="B743" s="70"/>
+      <c r="C743" s="70"/>
+    </row>
+    <row r="744" spans="1:3">
+      <c r="A744" s="102"/>
+      <c r="B744" s="70"/>
+      <c r="C744" s="70"/>
+    </row>
+    <row r="745" spans="1:3">
+      <c r="A745" s="102"/>
+      <c r="B745" s="70"/>
+      <c r="C745" s="70"/>
+    </row>
+    <row r="746" spans="1:3">
+      <c r="A746" s="102"/>
+      <c r="B746" s="70"/>
+      <c r="C746" s="70"/>
+    </row>
+    <row r="747" spans="1:3">
+      <c r="A747" s="102"/>
+      <c r="B747" s="70"/>
+      <c r="C747" s="70"/>
+    </row>
+    <row r="748" spans="1:3">
+      <c r="A748" s="102"/>
+      <c r="B748" s="70"/>
+      <c r="C748" s="70"/>
+    </row>
+    <row r="749" spans="1:3">
+      <c r="A749" s="102"/>
+      <c r="B749" s="70"/>
+      <c r="C749" s="70"/>
+    </row>
+    <row r="750" spans="1:3">
+      <c r="A750" s="102"/>
+      <c r="B750" s="70"/>
+      <c r="C750" s="70"/>
+    </row>
+    <row r="751" spans="1:3">
+      <c r="A751" s="102"/>
+      <c r="B751" s="70"/>
+      <c r="C751" s="70"/>
+    </row>
+    <row r="752" spans="1:3">
+      <c r="A752" s="102"/>
+      <c r="B752" s="70"/>
+      <c r="C752" s="70"/>
+    </row>
+    <row r="753" spans="1:3">
+      <c r="A753" s="102"/>
+      <c r="B753" s="70"/>
+      <c r="C753" s="70"/>
+    </row>
+    <row r="754" spans="1:3">
+      <c r="A754" s="102"/>
+      <c r="B754" s="70"/>
+      <c r="C754" s="70"/>
+    </row>
+    <row r="755" spans="1:3">
+      <c r="A755" s="102"/>
+      <c r="B755" s="70"/>
+      <c r="C755" s="70"/>
+    </row>
+    <row r="756" spans="1:3">
+      <c r="A756" s="102"/>
+      <c r="B756" s="70"/>
+      <c r="C756" s="70"/>
+    </row>
+    <row r="757" spans="1:3">
+      <c r="A757" s="102"/>
+      <c r="B757" s="70"/>
+      <c r="C757" s="70"/>
+    </row>
+    <row r="758" spans="1:3">
+      <c r="A758" s="102"/>
+      <c r="B758" s="70"/>
+      <c r="C758" s="70"/>
+    </row>
+    <row r="759" spans="1:3">
+      <c r="A759" s="102"/>
+      <c r="B759" s="70"/>
+      <c r="C759" s="70"/>
+    </row>
+    <row r="760" spans="1:3">
+      <c r="A760" s="102"/>
+      <c r="B760" s="70"/>
+      <c r="C760" s="70"/>
+    </row>
+    <row r="761" spans="1:3">
+      <c r="A761" s="102"/>
+      <c r="B761" s="70"/>
+      <c r="C761" s="70"/>
+    </row>
+    <row r="762" spans="1:3">
+      <c r="A762" s="102"/>
+      <c r="B762" s="70"/>
+      <c r="C762" s="70"/>
+    </row>
+    <row r="763" spans="1:3">
+      <c r="A763" s="102"/>
+      <c r="B763" s="70"/>
+      <c r="C763" s="70"/>
+    </row>
+    <row r="764" spans="1:3">
+      <c r="A764" s="102"/>
+      <c r="B764" s="70"/>
+      <c r="C764" s="70"/>
+    </row>
+    <row r="765" spans="1:3">
+      <c r="A765" s="102"/>
+      <c r="B765" s="70"/>
+      <c r="C765" s="70"/>
+    </row>
+    <row r="766" spans="1:3">
+      <c r="A766" s="102"/>
+      <c r="B766" s="70"/>
+      <c r="C766" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="2260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="2270">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -7396,6 +7396,36 @@
   </si>
   <si>
     <t>// OUTPUT : 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Child child = new Child();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                child.a;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Biến a này cũng là hidden, Nên phụ thuộc và kiểu dl Reference </t>
+  </si>
+  <si>
+    <t>// OUTPUT : 11</t>
+  </si>
+  <si>
+    <t>Bài test 2:  OCA _ PRACTICE EXAMS</t>
+  </si>
+  <si>
+    <t>Số câu đúng 35/50</t>
+  </si>
+  <si>
+    <t>Tỉ lệ: 70%</t>
+  </si>
+  <si>
+    <t>Final method ko thể override, sẽ báo lỗi compile</t>
+  </si>
+  <si>
+    <t>Overload giống nhau về tên method, khác nhau về danh sách tham số và tùy chọn khác nhau về kiểu dl, Trong khi override giống nhau về name, danh sách tham số và tùy chọn khác về kiểu dl</t>
+  </si>
+  <si>
+    <t>6. Chỉ có instance method mới có tính năng ghi đè, còn instance variable ở class cha và class con là hiddine variable ( Tức là giá trị sẽ phụ thuộc vào kiểu dl của biến reference)</t>
   </si>
 </sst>
 </file>
@@ -7880,7 +7910,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7905,6 +7935,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7919,7 +7955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8111,9 +8147,26 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11223,16 +11276,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="105" t="s">
+      <c r="D424" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="105"/>
-      <c r="F424" s="105"/>
-      <c r="G424" s="105"/>
-      <c r="H424" s="105"/>
-      <c r="I424" s="105"/>
-      <c r="J424" s="105"/>
-      <c r="K424" s="105"/>
+      <c r="E424" s="109"/>
+      <c r="F424" s="109"/>
+      <c r="G424" s="109"/>
+      <c r="H424" s="109"/>
+      <c r="I424" s="109"/>
+      <c r="J424" s="109"/>
+      <c r="K424" s="109"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -11299,16 +11352,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="105" t="s">
+      <c r="D430" s="109" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="105"/>
-      <c r="F430" s="105"/>
-      <c r="G430" s="105"/>
-      <c r="H430" s="105"/>
-      <c r="I430" s="105"/>
-      <c r="J430" s="105"/>
-      <c r="K430" s="105"/>
+      <c r="E430" s="109"/>
+      <c r="F430" s="109"/>
+      <c r="G430" s="109"/>
+      <c r="H430" s="109"/>
+      <c r="I430" s="109"/>
+      <c r="J430" s="109"/>
+      <c r="K430" s="109"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -27629,10 +27682,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P766"/>
+  <dimension ref="A1:P798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A670" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D685" sqref="D685"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27884,6 +27937,11 @@
         <v>1931</v>
       </c>
     </row>
+    <row r="90" spans="1:3">
+      <c r="C90" t="s">
+        <v>2269</v>
+      </c>
+    </row>
     <row r="91" spans="1:3">
       <c r="A91" s="94" t="s">
         <v>1921</v>
@@ -30431,41 +30489,37 @@
       </c>
     </row>
     <row r="685" spans="2:16">
-      <c r="F685" s="18"/>
       <c r="G685" s="18"/>
       <c r="H685" s="18"/>
     </row>
     <row r="686" spans="2:16">
-      <c r="C686" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="D686" s="18"/>
-      <c r="E686" s="18"/>
-      <c r="F686" s="18"/>
+      <c r="D686" t="s">
+        <v>2260</v>
+      </c>
       <c r="G686" s="18"/>
       <c r="H686" s="18"/>
     </row>
     <row r="687" spans="2:16">
-      <c r="C687" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D687" s="18"/>
-      <c r="E687" s="18"/>
-      <c r="F687" s="18"/>
+      <c r="D687" t="s">
+        <v>2261</v>
+      </c>
       <c r="G687" s="18"/>
       <c r="H687" s="18"/>
+      <c r="I687" t="s">
+        <v>2262</v>
+      </c>
+      <c r="P687" t="s">
+        <v>2263</v>
+      </c>
     </row>
     <row r="688" spans="2:16">
-      <c r="C688" s="22"/>
-      <c r="D688" s="18"/>
-      <c r="E688" s="18"/>
       <c r="F688" s="18"/>
       <c r="G688" s="18"/>
       <c r="H688" s="18"/>
     </row>
     <row r="689" spans="2:14">
       <c r="C689" s="22" t="s">
-        <v>2235</v>
+        <v>620</v>
       </c>
       <c r="D689" s="18"/>
       <c r="E689" s="18"/>
@@ -30475,7 +30529,7 @@
     </row>
     <row r="690" spans="2:14">
       <c r="C690" s="22" t="s">
-        <v>2244</v>
+        <v>45</v>
       </c>
       <c r="D690" s="18"/>
       <c r="E690" s="18"/>
@@ -30484,9 +30538,7 @@
       <c r="H690" s="18"/>
     </row>
     <row r="691" spans="2:14">
-      <c r="C691" s="22" t="s">
-        <v>2236</v>
-      </c>
+      <c r="C691" s="22"/>
       <c r="D691" s="18"/>
       <c r="E691" s="18"/>
       <c r="F691" s="18"/>
@@ -30495,7 +30547,7 @@
     </row>
     <row r="692" spans="2:14">
       <c r="C692" s="22" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="D692" s="18"/>
       <c r="E692" s="18"/>
@@ -30505,7 +30557,7 @@
     </row>
     <row r="693" spans="2:14">
       <c r="C693" s="22" t="s">
-        <v>620</v>
+        <v>2244</v>
       </c>
       <c r="D693" s="18"/>
       <c r="E693" s="18"/>
@@ -30515,7 +30567,7 @@
     </row>
     <row r="694" spans="2:14">
       <c r="C694" s="22" t="s">
-        <v>45</v>
+        <v>2236</v>
       </c>
       <c r="D694" s="18"/>
       <c r="E694" s="18"/>
@@ -30524,10 +30576,9 @@
       <c r="H694" s="18"/>
     </row>
     <row r="695" spans="2:14">
-      <c r="B695" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C695" s="22"/>
+      <c r="C695" s="22" t="s">
+        <v>2237</v>
+      </c>
       <c r="D695" s="18"/>
       <c r="E695" s="18"/>
       <c r="F695" s="18"/>
@@ -30535,76 +30586,59 @@
       <c r="H695" s="18"/>
     </row>
     <row r="696" spans="2:14">
-      <c r="C696" s="58" t="s">
-        <v>2230</v>
+      <c r="C696" s="22" t="s">
+        <v>620</v>
       </c>
       <c r="D696" s="18"/>
       <c r="E696" s="18"/>
       <c r="F696" s="18"/>
       <c r="G696" s="18"/>
       <c r="H696" s="18"/>
-      <c r="I696" s="43"/>
     </row>
     <row r="697" spans="2:14">
-      <c r="C697" s="58" t="s">
-        <v>2245</v>
+      <c r="C697" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="D697" s="18"/>
       <c r="E697" s="18"/>
       <c r="F697" s="18"/>
       <c r="G697" s="18"/>
       <c r="H697" s="18"/>
-      <c r="I697" s="50" t="s">
-        <v>2255</v>
-      </c>
-      <c r="J697" s="50"/>
-      <c r="K697" s="50"/>
-      <c r="L697" s="50"/>
-      <c r="M697" s="50"/>
-      <c r="N697" s="50"/>
     </row>
     <row r="698" spans="2:14">
-      <c r="C698" s="58" t="s">
-        <v>2246</v>
-      </c>
+      <c r="B698" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C698" s="22"/>
       <c r="D698" s="18"/>
       <c r="E698" s="18"/>
       <c r="F698" s="18"/>
       <c r="G698" s="18"/>
       <c r="H698" s="18"/>
-      <c r="I698" s="50"/>
-      <c r="J698" s="50"/>
-      <c r="K698" s="50"/>
-      <c r="L698" s="50"/>
-      <c r="M698" s="50"/>
-      <c r="N698" s="50"/>
     </row>
     <row r="699" spans="2:14">
       <c r="C699" s="58" t="s">
-        <v>620</v>
+        <v>2230</v>
       </c>
       <c r="D699" s="18"/>
       <c r="E699" s="18"/>
       <c r="F699" s="18"/>
       <c r="G699" s="18"/>
       <c r="H699" s="18"/>
-      <c r="I699" s="50"/>
-      <c r="J699" s="50"/>
-      <c r="K699" s="50"/>
-      <c r="L699" s="50"/>
-      <c r="M699" s="50"/>
-      <c r="N699" s="50"/>
+      <c r="I699" s="43"/>
     </row>
     <row r="700" spans="2:14">
       <c r="C700" s="58" t="s">
-        <v>45</v>
+        <v>2245</v>
       </c>
       <c r="D700" s="18"/>
       <c r="E700" s="18"/>
       <c r="F700" s="18"/>
       <c r="G700" s="18"/>
       <c r="H700" s="18"/>
-      <c r="I700" s="50"/>
+      <c r="I700" s="50" t="s">
+        <v>2255</v>
+      </c>
       <c r="J700" s="50"/>
       <c r="K700" s="50"/>
       <c r="L700" s="50"/>
@@ -30612,7 +30646,9 @@
       <c r="N700" s="50"/>
     </row>
     <row r="701" spans="2:14">
-      <c r="C701" s="58"/>
+      <c r="C701" s="58" t="s">
+        <v>2246</v>
+      </c>
       <c r="D701" s="18"/>
       <c r="E701" s="18"/>
       <c r="F701" s="18"/>
@@ -30627,7 +30663,7 @@
     </row>
     <row r="702" spans="2:14">
       <c r="C702" s="58" t="s">
-        <v>2235</v>
+        <v>620</v>
       </c>
       <c r="D702" s="18"/>
       <c r="E702" s="18"/>
@@ -30643,16 +30679,14 @@
     </row>
     <row r="703" spans="2:14">
       <c r="C703" s="58" t="s">
-        <v>2245</v>
+        <v>45</v>
       </c>
       <c r="D703" s="18"/>
       <c r="E703" s="18"/>
       <c r="F703" s="18"/>
       <c r="G703" s="18"/>
       <c r="H703" s="18"/>
-      <c r="I703" s="50" t="s">
-        <v>2256</v>
-      </c>
+      <c r="I703" s="50"/>
       <c r="J703" s="50"/>
       <c r="K703" s="50"/>
       <c r="L703" s="50"/>
@@ -30660,9 +30694,7 @@
       <c r="N703" s="50"/>
     </row>
     <row r="704" spans="2:14">
-      <c r="C704" s="58" t="s">
-        <v>2247</v>
-      </c>
+      <c r="C704" s="58"/>
       <c r="D704" s="18"/>
       <c r="E704" s="18"/>
       <c r="F704" s="18"/>
@@ -30677,7 +30709,7 @@
     </row>
     <row r="705" spans="1:14">
       <c r="C705" s="58" t="s">
-        <v>620</v>
+        <v>2235</v>
       </c>
       <c r="D705" s="18"/>
       <c r="E705" s="18"/>
@@ -30692,13 +30724,17 @@
       <c r="N705" s="50"/>
     </row>
     <row r="706" spans="1:14">
-      <c r="C706" s="79"/>
+      <c r="C706" s="58" t="s">
+        <v>2245</v>
+      </c>
       <c r="D706" s="18"/>
       <c r="E706" s="18"/>
       <c r="F706" s="18"/>
       <c r="G706" s="18"/>
       <c r="H706" s="18"/>
-      <c r="I706" s="50"/>
+      <c r="I706" s="50" t="s">
+        <v>2256</v>
+      </c>
       <c r="J706" s="50"/>
       <c r="K706" s="50"/>
       <c r="L706" s="50"/>
@@ -30707,7 +30743,7 @@
     </row>
     <row r="707" spans="1:14">
       <c r="C707" s="58" t="s">
-        <v>716</v>
+        <v>2247</v>
       </c>
       <c r="D707" s="18"/>
       <c r="E707" s="18"/>
@@ -30723,21 +30759,17 @@
     </row>
     <row r="708" spans="1:14">
       <c r="C708" s="58" t="s">
-        <v>2248</v>
+        <v>620</v>
       </c>
       <c r="D708" s="18"/>
       <c r="E708" s="18"/>
       <c r="F708" s="18"/>
       <c r="G708" s="18"/>
       <c r="H708" s="18"/>
-      <c r="I708" s="50" t="s">
-        <v>2251</v>
-      </c>
+      <c r="I708" s="50"/>
       <c r="J708" s="50"/>
       <c r="K708" s="50"/>
-      <c r="L708" s="50" t="s">
-        <v>2252</v>
-      </c>
+      <c r="L708" s="50"/>
       <c r="M708" s="50"/>
       <c r="N708" s="50"/>
     </row>
@@ -30757,7 +30789,7 @@
     </row>
     <row r="710" spans="1:14">
       <c r="C710" s="58" t="s">
-        <v>2249</v>
+        <v>716</v>
       </c>
       <c r="D710" s="18"/>
       <c r="E710" s="18"/>
@@ -30773,7 +30805,7 @@
     </row>
     <row r="711" spans="1:14">
       <c r="C711" s="58" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="D711" s="18"/>
       <c r="E711" s="18"/>
@@ -30781,197 +30813,208 @@
       <c r="G711" s="18"/>
       <c r="H711" s="18"/>
       <c r="I711" s="50" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="J711" s="50"/>
       <c r="K711" s="50"/>
       <c r="L711" s="50" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="M711" s="50"/>
       <c r="N711" s="50"/>
     </row>
     <row r="712" spans="1:14">
-      <c r="C712" s="58" t="s">
-        <v>620</v>
-      </c>
+      <c r="C712" s="79"/>
       <c r="D712" s="18"/>
       <c r="E712" s="18"/>
       <c r="F712" s="18"/>
       <c r="G712" s="18"/>
       <c r="H712" s="18"/>
-      <c r="I712" s="43"/>
+      <c r="I712" s="50"/>
+      <c r="J712" s="50"/>
+      <c r="K712" s="50"/>
+      <c r="L712" s="50"/>
+      <c r="M712" s="50"/>
+      <c r="N712" s="50"/>
     </row>
     <row r="713" spans="1:14">
       <c r="C713" s="58" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D713" s="18"/>
+      <c r="E713" s="18"/>
+      <c r="F713" s="18"/>
+      <c r="G713" s="18"/>
+      <c r="H713" s="18"/>
+      <c r="I713" s="50"/>
+      <c r="J713" s="50"/>
+      <c r="K713" s="50"/>
+      <c r="L713" s="50"/>
+      <c r="M713" s="50"/>
+      <c r="N713" s="50"/>
+    </row>
+    <row r="714" spans="1:14">
+      <c r="C714" s="58" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D714" s="18"/>
+      <c r="E714" s="18"/>
+      <c r="F714" s="18"/>
+      <c r="G714" s="18"/>
+      <c r="H714" s="18"/>
+      <c r="I714" s="50" t="s">
+        <v>2253</v>
+      </c>
+      <c r="J714" s="50"/>
+      <c r="K714" s="50"/>
+      <c r="L714" s="50" t="s">
+        <v>2254</v>
+      </c>
+      <c r="M714" s="50"/>
+      <c r="N714" s="50"/>
+    </row>
+    <row r="715" spans="1:14">
+      <c r="C715" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="D715" s="18"/>
+      <c r="E715" s="18"/>
+      <c r="F715" s="18"/>
+      <c r="G715" s="18"/>
+      <c r="H715" s="18"/>
+      <c r="I715" s="43"/>
+    </row>
+    <row r="716" spans="1:14">
+      <c r="C716" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D713" s="43"/>
-      <c r="E713" s="43"/>
-      <c r="F713" s="43"/>
-      <c r="G713" s="43"/>
-      <c r="H713" s="43"/>
-      <c r="I713" s="43"/>
-    </row>
-    <row r="715" spans="1:14">
-      <c r="A715" s="98" t="s">
+      <c r="D716" s="43"/>
+      <c r="E716" s="43"/>
+      <c r="F716" s="43"/>
+      <c r="G716" s="43"/>
+      <c r="H716" s="43"/>
+      <c r="I716" s="43"/>
+    </row>
+    <row r="718" spans="1:14">
+      <c r="A718" s="98" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="716" spans="1:14" s="36" customFormat="1">
-      <c r="A716" s="103" t="s">
+    <row r="719" spans="1:14" s="36" customFormat="1">
+      <c r="A719" s="103" t="s">
         <v>1353</v>
       </c>
-      <c r="B716" s="104" t="s">
+      <c r="B719" s="104" t="s">
         <v>1763</v>
       </c>
-      <c r="C716" s="104" t="s">
+      <c r="C719" s="104" t="s">
         <v>1428</v>
-      </c>
-    </row>
-    <row r="717" spans="1:14">
-      <c r="A717" s="102">
-        <v>1</v>
-      </c>
-      <c r="B717" s="70" t="s">
-        <v>2184</v>
-      </c>
-      <c r="C717" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E717" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="718" spans="1:14">
-      <c r="A718" s="102">
-        <v>2</v>
-      </c>
-      <c r="B718" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C718" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E718" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="719" spans="1:14">
-      <c r="A719" s="102">
-        <v>3</v>
-      </c>
-      <c r="B719" s="70" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C719" s="70" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="720" spans="1:14">
       <c r="A720" s="102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B720" s="70" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="C720" s="70" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D720" t="s">
-        <v>49</v>
+        <v>216</v>
+      </c>
+      <c r="E720" t="s">
+        <v>2198</v>
       </c>
     </row>
     <row r="721" spans="1:5">
       <c r="A721" s="102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B721" s="70" t="s">
-        <v>2185</v>
+        <v>216</v>
       </c>
       <c r="C721" s="70" t="s">
-        <v>2194</v>
+        <v>217</v>
       </c>
       <c r="E721" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="722" spans="1:5">
       <c r="A722" s="102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B722" s="70" t="s">
-        <v>213</v>
+        <v>2185</v>
       </c>
       <c r="C722" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D722" t="s">
-        <v>49</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="723" spans="1:5">
       <c r="A723" s="102">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B723" s="70" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C723" s="70" t="s">
-        <v>2191</v>
-      </c>
-      <c r="E723" t="s">
-        <v>2202</v>
+        <v>1378</v>
+      </c>
+      <c r="D723" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="724" spans="1:5">
       <c r="A724" s="102">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B724" s="70" t="s">
-        <v>638</v>
+        <v>2185</v>
       </c>
       <c r="C724" s="70" t="s">
-        <v>2195</v>
-      </c>
-      <c r="D724" t="s">
-        <v>49</v>
+        <v>2194</v>
+      </c>
+      <c r="E724" t="s">
+        <v>2201</v>
       </c>
     </row>
     <row r="725" spans="1:5">
       <c r="A725" s="102">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B725" s="70" t="s">
-        <v>638</v>
+        <v>213</v>
       </c>
       <c r="C725" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E725" t="s">
-        <v>2204</v>
+        <v>213</v>
+      </c>
+      <c r="D725" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="726" spans="1:5">
       <c r="A726" s="102">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B726" s="70" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C726" s="70" t="s">
-        <v>2196</v>
+        <v>2191</v>
+      </c>
+      <c r="E726" t="s">
+        <v>2202</v>
       </c>
     </row>
     <row r="727" spans="1:5">
       <c r="A727" s="102">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B727" s="70" t="s">
-        <v>2189</v>
+        <v>638</v>
       </c>
       <c r="C727" s="70" t="s">
-        <v>2189</v>
+        <v>2195</v>
       </c>
       <c r="D727" t="s">
         <v>49</v>
@@ -30979,262 +31022,901 @@
     </row>
     <row r="728" spans="1:5">
       <c r="A728" s="102">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B728" s="70" t="s">
-        <v>216</v>
+        <v>638</v>
       </c>
       <c r="C728" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="D728" t="s">
-        <v>49</v>
+        <v>222</v>
+      </c>
+      <c r="E728" t="s">
+        <v>2204</v>
       </c>
     </row>
     <row r="729" spans="1:5">
       <c r="A729" s="102">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B729" s="70" t="s">
-        <v>638</v>
+        <v>2188</v>
       </c>
       <c r="C729" s="70" t="s">
-        <v>222</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="730" spans="1:5">
       <c r="A730" s="102">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B730" s="70" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C730" s="70" t="s">
-        <v>257</v>
+        <v>2189</v>
+      </c>
+      <c r="D730" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="731" spans="1:5">
       <c r="A731" s="102">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B731" s="70" t="s">
-        <v>2191</v>
+        <v>216</v>
       </c>
       <c r="C731" s="70" t="s">
         <v>216</v>
       </c>
+      <c r="D731" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="732" spans="1:5">
       <c r="A732" s="102">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B732" s="70" t="s">
-        <v>284</v>
+        <v>638</v>
       </c>
       <c r="C732" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E732" t="s">
-        <v>2221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="733" spans="1:5">
       <c r="A733" s="102">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B733" s="70" t="s">
-        <v>222</v>
+        <v>2190</v>
       </c>
       <c r="C733" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E733" t="s">
-        <v>2222</v>
+        <v>257</v>
       </c>
     </row>
     <row r="734" spans="1:5">
       <c r="A734" s="102">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B734" s="70" t="s">
-        <v>257</v>
+        <v>2191</v>
       </c>
       <c r="C734" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="735" spans="1:5">
       <c r="A735" s="102">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B735" s="70" t="s">
-        <v>2192</v>
+        <v>284</v>
       </c>
       <c r="C735" s="70" t="s">
-        <v>2197</v>
+        <v>217</v>
+      </c>
+      <c r="E735" t="s">
+        <v>2221</v>
       </c>
     </row>
     <row r="736" spans="1:5">
       <c r="A736" s="102">
+        <v>17</v>
+      </c>
+      <c r="B736" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C736" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="E736" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" s="102">
+        <v>18</v>
+      </c>
+      <c r="B737" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C737" s="70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" s="102">
+        <v>19</v>
+      </c>
+      <c r="B738" s="70" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C738" s="70" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" s="102">
         <v>20</v>
       </c>
-      <c r="B736" s="70" t="s">
+      <c r="B739" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="C736" s="70" t="s">
+      <c r="C739" s="70" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
-      <c r="A737" s="102"/>
-      <c r="B737" s="70"/>
-      <c r="C737" s="70"/>
-    </row>
-    <row r="738" spans="1:3">
-      <c r="B738" s="102" t="s">
-        <v>2203</v>
-      </c>
-      <c r="C738" s="70"/>
-    </row>
-    <row r="739" spans="1:3">
-      <c r="A739" s="102"/>
-      <c r="B739" s="70"/>
-      <c r="C739" s="70"/>
-    </row>
-    <row r="740" spans="1:3">
+    <row r="740" spans="1:4">
       <c r="A740" s="102"/>
       <c r="B740" s="70"/>
       <c r="C740" s="70"/>
     </row>
-    <row r="741" spans="1:3">
-      <c r="A741" s="102"/>
-      <c r="B741" s="70"/>
+    <row r="741" spans="1:4">
+      <c r="B741" s="102" t="s">
+        <v>2203</v>
+      </c>
       <c r="C741" s="70"/>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" spans="1:4">
       <c r="A742" s="102"/>
       <c r="B742" s="70"/>
       <c r="C742" s="70"/>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" spans="1:4">
       <c r="A743" s="102"/>
       <c r="B743" s="70"/>
       <c r="C743" s="70"/>
     </row>
-    <row r="744" spans="1:3">
-      <c r="A744" s="102"/>
-      <c r="B744" s="70"/>
-      <c r="C744" s="70"/>
-    </row>
-    <row r="745" spans="1:3">
-      <c r="A745" s="102"/>
-      <c r="B745" s="70"/>
-      <c r="C745" s="70"/>
-    </row>
-    <row r="746" spans="1:3">
-      <c r="A746" s="102"/>
-      <c r="B746" s="70"/>
-      <c r="C746" s="70"/>
-    </row>
-    <row r="747" spans="1:3">
-      <c r="A747" s="102"/>
-      <c r="B747" s="70"/>
-      <c r="C747" s="70"/>
-    </row>
-    <row r="748" spans="1:3">
-      <c r="A748" s="102"/>
-      <c r="B748" s="70"/>
-      <c r="C748" s="70"/>
-    </row>
-    <row r="749" spans="1:3">
-      <c r="A749" s="102"/>
-      <c r="B749" s="70"/>
-      <c r="C749" s="70"/>
-    </row>
-    <row r="750" spans="1:3">
-      <c r="A750" s="102"/>
-      <c r="B750" s="70"/>
-      <c r="C750" s="70"/>
-    </row>
-    <row r="751" spans="1:3">
-      <c r="A751" s="102"/>
-      <c r="B751" s="70"/>
-      <c r="C751" s="70"/>
-    </row>
-    <row r="752" spans="1:3">
-      <c r="A752" s="102"/>
-      <c r="B752" s="70"/>
-      <c r="C752" s="70"/>
-    </row>
-    <row r="753" spans="1:3">
-      <c r="A753" s="102"/>
-      <c r="B753" s="70"/>
-      <c r="C753" s="70"/>
-    </row>
-    <row r="754" spans="1:3">
-      <c r="A754" s="102"/>
-      <c r="B754" s="70"/>
-      <c r="C754" s="70"/>
-    </row>
-    <row r="755" spans="1:3">
-      <c r="A755" s="102"/>
-      <c r="B755" s="70"/>
-      <c r="C755" s="70"/>
-    </row>
-    <row r="756" spans="1:3">
-      <c r="A756" s="102"/>
-      <c r="B756" s="70"/>
-      <c r="C756" s="70"/>
-    </row>
-    <row r="757" spans="1:3">
-      <c r="A757" s="102"/>
-      <c r="B757" s="70"/>
-      <c r="C757" s="70"/>
-    </row>
-    <row r="758" spans="1:3">
-      <c r="A758" s="102"/>
-      <c r="B758" s="70"/>
-      <c r="C758" s="70"/>
-    </row>
-    <row r="759" spans="1:3">
-      <c r="A759" s="102"/>
-      <c r="B759" s="70"/>
-      <c r="C759" s="70"/>
-    </row>
-    <row r="760" spans="1:3">
-      <c r="A760" s="102"/>
-      <c r="B760" s="70"/>
-      <c r="C760" s="70"/>
-    </row>
-    <row r="761" spans="1:3">
-      <c r="A761" s="102"/>
-      <c r="B761" s="70"/>
-      <c r="C761" s="70"/>
-    </row>
-    <row r="762" spans="1:3">
-      <c r="A762" s="102"/>
-      <c r="B762" s="70"/>
-      <c r="C762" s="70"/>
-    </row>
-    <row r="763" spans="1:3">
-      <c r="A763" s="102"/>
-      <c r="B763" s="70"/>
-      <c r="C763" s="70"/>
-    </row>
-    <row r="764" spans="1:3">
-      <c r="A764" s="102"/>
-      <c r="B764" s="70"/>
-      <c r="C764" s="70"/>
-    </row>
-    <row r="765" spans="1:3">
-      <c r="A765" s="102"/>
-      <c r="B765" s="70"/>
-      <c r="C765" s="70"/>
-    </row>
-    <row r="766" spans="1:3">
-      <c r="A766" s="102"/>
-      <c r="B766" s="70"/>
-      <c r="C766" s="70"/>
+    <row r="744" spans="1:4">
+      <c r="A744" s="98" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4">
+      <c r="A745" s="105" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B745" s="106" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C745" s="106" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4">
+      <c r="A746" s="102">
+        <v>1</v>
+      </c>
+      <c r="B746" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C746" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D746" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4">
+      <c r="A747" s="102">
+        <v>2</v>
+      </c>
+      <c r="B747" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C747" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D747" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4">
+      <c r="A748" s="102">
+        <v>3</v>
+      </c>
+      <c r="B748" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C748" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D748" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4">
+      <c r="A749" s="102">
+        <v>4</v>
+      </c>
+      <c r="B749" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C749" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D749" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4">
+      <c r="A750" s="102">
+        <v>5</v>
+      </c>
+      <c r="B750" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C750" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D750" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4">
+      <c r="A751" s="102">
+        <v>6</v>
+      </c>
+      <c r="B751" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C751" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D751" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="102">
+        <v>7</v>
+      </c>
+      <c r="B752" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C752" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D752" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" s="102">
+        <v>8</v>
+      </c>
+      <c r="B753" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C753" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D753" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" s="102">
+        <v>9</v>
+      </c>
+      <c r="B754" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C754" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D754" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" s="102">
+        <v>10</v>
+      </c>
+      <c r="B755" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C755" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D755" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" s="102">
+        <v>11</v>
+      </c>
+      <c r="B756" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C756" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D756" t="s">
+        <v>98</v>
+      </c>
+      <c r="E756" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" s="102">
+        <v>12</v>
+      </c>
+      <c r="B757" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C757" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D757" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" s="102">
+        <v>13</v>
+      </c>
+      <c r="B758" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C758" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D758" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="A759" s="102">
+        <v>14</v>
+      </c>
+      <c r="B759" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C759" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D759" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" s="102">
+        <v>15</v>
+      </c>
+      <c r="B760" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C760" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D760" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" s="102">
+        <v>16</v>
+      </c>
+      <c r="B761" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C761" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D761" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" s="102">
+        <v>17</v>
+      </c>
+      <c r="B762" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C762" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D762" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" s="102">
+        <v>18</v>
+      </c>
+      <c r="B763" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C763" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D763" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" s="102">
+        <v>19</v>
+      </c>
+      <c r="B764" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C764" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D764" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" s="102">
+        <v>20</v>
+      </c>
+      <c r="B765" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C765" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D765" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5">
+      <c r="A766" s="102">
+        <v>21</v>
+      </c>
+      <c r="B766" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C766" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D766" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" s="102">
+        <v>22</v>
+      </c>
+      <c r="B767" s="107"/>
+      <c r="C767" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D767" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5">
+      <c r="A768" s="102">
+        <v>23</v>
+      </c>
+      <c r="B768" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C768" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D768" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" s="112" customFormat="1">
+      <c r="A769" s="110">
+        <v>24</v>
+      </c>
+      <c r="B769" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C769" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="D769" s="112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" s="102">
+        <v>25</v>
+      </c>
+      <c r="B770" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C770" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D770" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" s="102">
+        <v>26</v>
+      </c>
+      <c r="B771" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C771" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D771" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" s="102">
+        <v>27</v>
+      </c>
+      <c r="B772" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C772" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D772" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A773" s="102">
+        <v>28</v>
+      </c>
+      <c r="B773" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C773" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D773" t="s">
+        <v>98</v>
+      </c>
+      <c r="E773" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" s="102">
+        <v>29</v>
+      </c>
+      <c r="B774" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C774" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D774" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5">
+      <c r="A775" s="102">
+        <v>30</v>
+      </c>
+      <c r="B775" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C775" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D775" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" s="102">
+        <v>31</v>
+      </c>
+      <c r="B776" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C776" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D776" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" s="102">
+        <v>32</v>
+      </c>
+      <c r="B777" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C777" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D777" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" s="102">
+        <v>33</v>
+      </c>
+      <c r="B778" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C778" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D778" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" s="102">
+        <v>34</v>
+      </c>
+      <c r="B779" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C779" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D779" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" s="102">
+        <v>35</v>
+      </c>
+      <c r="B780" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C780" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D780" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" s="102">
+        <v>36</v>
+      </c>
+      <c r="B781" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C781" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D781" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" s="102">
+        <v>37</v>
+      </c>
+      <c r="B782" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C782" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D782" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" s="102">
+        <v>38</v>
+      </c>
+      <c r="B783" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C783" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D783" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" s="102">
+        <v>39</v>
+      </c>
+      <c r="B784" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C784" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D784" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4">
+      <c r="A785" s="102">
+        <v>40</v>
+      </c>
+      <c r="B785" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C785" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D785" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="A786" s="102">
+        <v>41</v>
+      </c>
+      <c r="B786" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C786" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D786" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4">
+      <c r="A787" s="102">
+        <v>42</v>
+      </c>
+      <c r="B787" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C787" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D787" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4">
+      <c r="A788" s="102">
+        <v>43</v>
+      </c>
+      <c r="B788" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C788" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D788" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4">
+      <c r="A789" s="102">
+        <v>44</v>
+      </c>
+      <c r="B789" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C789" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D789" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4">
+      <c r="A790" s="102">
+        <v>45</v>
+      </c>
+      <c r="B790" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C790" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D790" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="A791" s="102">
+        <v>46</v>
+      </c>
+      <c r="B791" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C791" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D791" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4">
+      <c r="A792" s="102">
+        <v>47</v>
+      </c>
+      <c r="B792" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C792" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D792" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4">
+      <c r="A793" s="102">
+        <v>48</v>
+      </c>
+      <c r="B793" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C793" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D793" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4">
+      <c r="A794" s="102">
+        <v>49</v>
+      </c>
+      <c r="B794" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C794" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D794" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4">
+      <c r="A795" s="102">
+        <v>50</v>
+      </c>
+      <c r="B795" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C795" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D795" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4">
+      <c r="A797" s="47" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4">
+      <c r="A798" s="47" t="s">
+        <v>2266</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Bài test tổng hợp từ 3 phần" sheetId="4" r:id="rId4"/>
     <sheet name="4. Method &amp; Encapsulation" sheetId="5" r:id="rId5"/>
     <sheet name="5. Class Design" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Exception" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="2270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="2476">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -6245,12 +6246,6 @@
   </si>
   <si>
     <t>4. Override methods</t>
-  </si>
-  <si>
-    <t>kiểu trả về của method</t>
-  </si>
-  <si>
-    <t>danh sách tham số, kiểu dl của tham số</t>
   </si>
   <si>
     <t>5. Khai báo private method ở lớp cha thì method ở lớp con cùng signature ko phải là method override</t>
@@ -6587,18 +6582,6 @@
     <t>Chốt lại đối với abstract class hoặc interface :  Thì method ko được gán static hoặc final</t>
   </si>
   <si>
-    <t>11. Kế thừa một interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 interface kế thừa nhiều interface khác </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 abract class cũng có thể implement nhiều interface khác </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhưng 1 class thường không thể implement nhiều interface </t>
-  </si>
-  <si>
     <t>12. Mối quan hệ giữa class và interface</t>
   </si>
   <si>
@@ -6808,9 +6791,6 @@
   </si>
   <si>
     <t>Tuy nhiên nếu class  đó định nghĩa một method riêng thì ko xảy ra vấn đề gì. Nghĩa là sẽ ko dùng hàm default của interface nào cả</t>
-  </si>
-  <si>
-    <t>// COMPILE OK. Vì khai báo thêm một method của riêng class này.</t>
   </si>
   <si>
     <t>return 99999999;</t>
@@ -7425,14 +7405,687 @@
     <t>Overload giống nhau về tên method, khác nhau về danh sách tham số và tùy chọn khác nhau về kiểu dl, Trong khi override giống nhau về name, danh sách tham số và tùy chọn khác về kiểu dl</t>
   </si>
   <si>
-    <t>6. Chỉ có instance method mới có tính năng ghi đè, còn instance variable ở class cha và class con là hiddine variable ( Tức là giá trị sẽ phụ thuộc vào kiểu dl của biến reference)</t>
+    <t>Nếu lớp cha là static method, thì override lại ở lớp con cũng phải là static method</t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Vì khai báo thêm một method  override của riêng class này.</t>
+  </si>
+  <si>
+    <t>Tất cả các non-static, non-private, non-final đều là hàm ảo</t>
+  </si>
+  <si>
+    <t>danh sách tham số, kiểu dl của tham số phải giống với method ở lớp cha</t>
+  </si>
+  <si>
+    <t>kiểu trả về của method cũng phải cũng phải là subClass hoặc giống với method ở lớp cha</t>
+  </si>
+  <si>
+    <t>6. Chỉ có instance method mới có tính năng override, còn instance variable ở class cha và class con là hiddine variable ( Tức là giá trị sẽ phụ thuộc vào kiểu dl của biến reference)</t>
+  </si>
+  <si>
+    <t>1. Các loại exception:</t>
+  </si>
+  <si>
+    <t>2. Lệnh try - catch</t>
+  </si>
+  <si>
+    <t>try {</t>
+  </si>
+  <si>
+    <t>doSomething()</t>
+  </si>
+  <si>
+    <t>} catch (Exception e ) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bắt buộc phải có dấu { }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE 1: </t>
+  </si>
+  <si>
+    <t>Khi đã có khối lệnh try thì bắt buộc phải có khối catch { } hoặc khối finally { }</t>
+  </si>
+  <si>
+    <t>Khối lệnh try - catch -finally phải theo đúng thứ tự</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE 4: </t>
+  </si>
+  <si>
+    <t>Khi lệnh System.exit(0); xuất hiện trong khối try hoặc khối block. Thì Java dừng ngay chương trình và sẽ không chạy khối finally</t>
+  </si>
+  <si>
+    <t>3. Bắt nhiều Exception khác nhau</t>
+  </si>
+  <si>
+    <t>class AnimalsOutForAWalk extends RuntimeException { }</t>
+  </si>
+  <si>
+    <t>class ExhibitClosed extends RuntimeException { }</t>
+  </si>
+  <si>
+    <t>class ExhibitClosedForLunch extends ExhibitClosed { }</t>
+  </si>
+  <si>
+    <t>public void visitPorcupine() {</t>
+  </si>
+  <si>
+    <t>seeAnimal();</t>
+  </si>
+  <si>
+    <t>} catch (AnimalsOutForAWalk e) {</t>
+  </si>
+  <si>
+    <t>System.out.print("try back later");</t>
+  </si>
+  <si>
+    <t>} catch (ExhibitClosed e) {</t>
+  </si>
+  <si>
+    <t>System.out.print("not today");</t>
+  </si>
+  <si>
+    <t>public void visitMonkeys() {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">} catch (ExhibitClosedForLunch e) {      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// DOES NOT COMPILE</t>
+    </r>
+  </si>
+  <si>
+    <t>public void visitSnakes() {</t>
+  </si>
+  <si>
+    <t>} catch (RuntimeException e) {</t>
+  </si>
+  <si>
+    <t>System.out.print("runtime exception");</t>
+  </si>
+  <si>
+    <t>} catch (Exception e) {</t>
+  </si>
+  <si>
+    <t>System.out.print("exception");</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">} catch (ExhibitClosed e) { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// DOES NOT COMPILE</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Ném 1 exception không định nghĩa trong catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH1 : </t>
+  </si>
+  <si>
+    <t>Dòng 28 ko throw exception</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đoạn code từ 20-25 sẽ bị skip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH2: </t>
+  </si>
+  <si>
+    <t>Dòng 28 ném NullPointer exception</t>
+  </si>
+  <si>
+    <t>Do ko phải là IOExxception nên đoạn code từ 20-25 vẫn bị skip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH3 : </t>
+  </si>
+  <si>
+    <t>Dòng 28 ném IOExption</t>
+  </si>
+  <si>
+    <t>Đoạn code từ 2025 sẽ chạy</t>
+  </si>
+  <si>
+    <t>Tuy nhiên nếu dòng 22 lỗi  thì vẫn ném ra 1 Exception mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ 2 : </t>
+  </si>
+  <si>
+    <t>Ví dụ 1</t>
+  </si>
+  <si>
+    <t>Dòng 278 ném exception, và đã được bắt ở dòng 28,</t>
+  </si>
+  <si>
+    <t>Dòng 29 lại ném 1 exception</t>
+  </si>
+  <si>
+    <t>TH1 : Nếu ko có khối finally thì exception ở dòng 29 sẽ bị ném ra</t>
+  </si>
+  <si>
+    <t>Do vậy exception ở dòng 29 trong khối catch sẽ bị lãng quên</t>
+  </si>
+  <si>
+    <t>Chỉ có exception ở dòng 31 trong khối finally sẽ bị ném ra</t>
+  </si>
+  <si>
+    <t>Ví dụ 3:</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finally </t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result = </t>
+  </si>
+  <si>
+    <t>5. Nhận biết một số Exception</t>
+  </si>
+  <si>
+    <t>Runtime Exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko cần phải handle hoặc khai báo, </t>
+  </si>
+  <si>
+    <t>Được ném ra bởi dev hoặc JVM.</t>
+  </si>
+  <si>
+    <t>ArithmeticException</t>
+  </si>
+  <si>
+    <t>ArrayIndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>ClassCastException</t>
+  </si>
+  <si>
+    <t>IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>NullPointerException</t>
+  </si>
+  <si>
+    <t>NumberFormatException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked Exception : </t>
+  </si>
+  <si>
+    <t>Kế thừa ớp Exception</t>
+  </si>
+  <si>
+    <t>Phải được handle hoặc khai báo</t>
+  </si>
+  <si>
+    <t>Được ném ra bởi dev hoặc JVM</t>
+  </si>
+  <si>
+    <t>FileNotFoundException</t>
+  </si>
+  <si>
+    <t>IOException</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Kế thừa lơp Error</t>
+  </si>
+  <si>
+    <t>Được ném ra bởi JVM</t>
+  </si>
+  <si>
+    <t>Không được xử lý hoặc khai báo</t>
+  </si>
+  <si>
+    <t>ExceptionInInitializerException</t>
+  </si>
+  <si>
+    <t>Được ném ra bởi JVM khi 1 khối khởi tạo static ném ra một exception và ko xử lý nó</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) { }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int[] countsOfMoose = new int[3]; </t>
+  </si>
+  <si>
+    <t>int num = countsOfMoose[-1];</t>
+  </si>
+  <si>
+    <t>// Lỗi ở đây</t>
+  </si>
+  <si>
+    <t>StackOverflowError</t>
+  </si>
+  <si>
+    <t>Đa  số là do một hàm mà gọi chính nó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public static void foo(int num) { </t>
+  </si>
+  <si>
+    <t>foo(1);</t>
+  </si>
+  <si>
+    <t>NoClassDefFoundError</t>
+  </si>
+  <si>
+    <t>Xảy ra khi không tìm thấy class lúc runtime</t>
+  </si>
+  <si>
+    <t>6. Gọi method mà ném ra exception</t>
+  </si>
+  <si>
+    <t>Khi gọi method mà ném ra Exception, Thì method gọi phải khai báo hoặc handle exception đó</t>
+  </si>
+  <si>
+    <t>VÍ DỤ ;</t>
+  </si>
+  <si>
+    <t>class NoMoreCarrotsException extends Exception {} public class Bunny {</t>
+  </si>
+  <si>
+    <t>private static void eatCarrot() throws NoMoreCarrotsException { }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public static void main(String[] args) { </t>
+  </si>
+  <si>
+    <t>eatCarrot()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// NOT COMPILE. Vì gọi method mà method đó ném ra Exception, Mà method này lại ko khai báo hoặc xử lý </t>
+  </si>
+  <si>
+    <t>Cách fix:</t>
+  </si>
+  <si>
+    <t>RULE 1</t>
+  </si>
+  <si>
+    <t>Khai báo exception đó tại hàm gọi</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) throws NoMoreCarrotsException {</t>
+  </si>
+  <si>
+    <t>Xử lý exception đó bằng try-catch</t>
+  </si>
+  <si>
+    <t>eatCarrot();</t>
+  </si>
+  <si>
+    <t>} catch (NoMoreCarrotsException e ) {</t>
+  </si>
+  <si>
+    <t>System.out.print("sad rabbit");</t>
+  </si>
+  <si>
+    <t>RULE 2 :</t>
+  </si>
+  <si>
+    <t>Không được phép xử lý hoặc handles khi gọi hàm ko khai báo, handle exception</t>
+  </si>
+  <si>
+    <t>Do vậy hàm bad() gọi exception này Ko được phép khai báo hoặc xử lý exception đó</t>
+  </si>
+  <si>
+    <t>Ở đây hàm eatCarrot() ko hề khai báo hoặc ném ra exception tự định nghĩa nào nào</t>
+  </si>
+  <si>
+    <t>Đối với Exception tự định nghĩa</t>
+  </si>
+  <si>
+    <t>RULE 3</t>
+  </si>
+  <si>
+    <t>class CanNotHopException extends Exception { }</t>
+  </si>
+  <si>
+    <t>class Hopper {</t>
+  </si>
+  <si>
+    <t>public void hop() { }</t>
+  </si>
+  <si>
+    <t>class Bunny extends Hopper {</t>
+  </si>
+  <si>
+    <t>public void hop() throws CanNotHopException { }</t>
+  </si>
+  <si>
+    <t>Đói với method override, ko được ném ra một checked exception mới, hoặc chekced exception lớn hơn exception ở lớp cha</t>
+  </si>
+  <si>
+    <t>Lưu ý là checkedExxception</t>
+  </si>
+  <si>
+    <t>Đối với RuntimeExxception Thì rule vừa nói ở trên ko đc apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghĩa là method ở lớp con được khai báo mới một Runtime Exception </t>
+  </si>
+  <si>
+    <t>public void hop() throws IllegalStateException { }</t>
+  </si>
+  <si>
+    <t>// HỢP LỆ. Method override được phép khai báo RUNTIME Exception mới</t>
+  </si>
+  <si>
+    <t>7. Cách in ra exception</t>
+  </si>
+  <si>
+    <t>Có 3 cách</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> try {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hop();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> } catch (Exception e) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println(e);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println(e.getMessage());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    e.printStackTrace();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> private static void hop() {</t>
+  </si>
+  <si>
+    <t>throw new RuntimeException("cannot hop");</t>
+  </si>
+  <si>
+    <t>java.lang.RuntimeException: cannot hop</t>
+  </si>
+  <si>
+    <t>cannot hop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; </t>
+  </si>
+  <si>
+    <t>java.lang.RuntimeException: cannot hop at trycatch.Handling.hop(Handling.java:15) at trycatch.Handling.main(Handling.java:7)</t>
+  </si>
+  <si>
+    <t>OCA Study Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bài test </t>
+  </si>
+  <si>
+    <t>TH2 : ở đây có khối finally, và trùng hợp thì khối finally cũng ném ra 1 exception</t>
+  </si>
+  <si>
+    <t>One more time "lộn xộn"</t>
+  </si>
+  <si>
+    <t>// NOT COMPILE. Method override không được phép ném ra 1 checked exception mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trả  lời </t>
+  </si>
+  <si>
+    <t>B D</t>
+  </si>
+  <si>
+    <t>A B D G</t>
+  </si>
+  <si>
+    <t>A B D</t>
+  </si>
+  <si>
+    <t>E F</t>
+  </si>
+  <si>
+    <t>A B C  E</t>
+  </si>
+  <si>
+    <t>A C D E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A B D E </t>
+  </si>
+  <si>
+    <t>A B C E</t>
+  </si>
+  <si>
+    <t>A E</t>
+  </si>
+  <si>
+    <t>Số câu đúng 11/20</t>
+  </si>
+  <si>
+    <t>// Không bị ném ra bởi JVM</t>
+  </si>
+  <si>
+    <t>IllegalArgumentException không bị ném bởi JVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý: </t>
+  </si>
+  <si>
+    <t>NumberFormatException ko bị ném ra bởi JVM</t>
+  </si>
+  <si>
+    <t>Runtime exceptions can be thrown in any method</t>
+  </si>
+  <si>
+    <t>Errors are allowed to be handled or declared, but this is bad practice.</t>
+  </si>
+  <si>
+    <t>Trong khối catch có thể khai báo Exception , Checked ex, Unchecked ex  và Error, Thứ tự của chúng thế nào không quant trọng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t>public class Hien {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        try {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }catch (RuntimeException e){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }catch (Error e){</t>
+  </si>
+  <si>
+    <t>Độ rộng của  exception bắt buộc phải từ cao xuống thấp</t>
+  </si>
+  <si>
+    <t>. ArrayIndexOutOfBoundsException, IllegalArgumentException, and NumberFormatException are runtime exceptions. Sorry, you have to memorize them. Any class that extends RuntimeException is a runtime (unchecked) exception. Classes that extend Exception but not RuntimeException are checked exceptions.</t>
+  </si>
+  <si>
+    <t>OCA Practice Test</t>
+  </si>
+  <si>
+    <t>throw t</t>
+  </si>
+  <si>
+    <t>Hàm nào mà gọi đến 1 hàm throws ex thì phải handle nó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE 3 : </t>
+  </si>
+  <si>
+    <t>Tricky, Nếu trong khối catch vẫn throw e thì vẫn phải declare hoặc handle exception đó</t>
+  </si>
+  <si>
+    <t>KO HỢP LỆ :  Chưa declare hoặc handle exception đc ném ra trong khối catch</t>
+  </si>
+  <si>
+    <t>public void compute() throws Exception {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    throw new RuntimeException("Error processing ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    try{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        new Computer().compute();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }catch (Exception e){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        throw e;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HỢP LÊ : </t>
+  </si>
+  <si>
+    <t>Declare hoặc handle exception đc ném ra trông khối catch</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) throws Exceptioin{</t>
+  </si>
+  <si>
+    <t>// COMPILE FAIL. Trong khối catch đã xử lý exception ném ra ở hàm compute. Nhưng khối catch này lại ném ra 1 exception mới,</t>
+  </si>
+  <si>
+    <t>// Do vậy hàm main cần phải declare hoặc handle exception đó</t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Đã declare exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }catch (Exception e1) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            throw e1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } catch (Exception e2) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("Catch exception e1 ");</t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Đã có khối  try-catch hanlde Exception e1</t>
+  </si>
+  <si>
+    <t>if (list [i])</t>
+  </si>
+  <si>
+    <t>ĐÚNG</t>
+  </si>
+  <si>
+    <t>SAI</t>
+  </si>
+  <si>
+    <t>Tỷ lệ:</t>
+  </si>
+  <si>
+    <t>Try block bắt buộc phải đi kèm catch block hoặc finally block</t>
+  </si>
+  <si>
+    <t>try-catch-finally</t>
+  </si>
+  <si>
+    <t>Error đc recommend là ko catch trong Java, Tuy nhiên thì vẫn có thể khai báo catch và compile OK</t>
+  </si>
+  <si>
+    <t>Lưu ý scope của biến phải khai báo trước khối try-catch-finnay, Thì mới sử dụng đc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClassCastException, ArrayIndexOutOfBoundsException, IllegalArgumentException là unchecked Exception </t>
+  </si>
+  <si>
+    <t>Exception là checked exception và bắt buộc phải xử lý hoặc khai báo ở method gọi nó</t>
+  </si>
+  <si>
+    <t>Khối finally có thể ném ra exception =&gt; nghĩa là không phải tất cả dòng nào trong khối finally cũng sẽ được chạy</t>
+  </si>
+  <si>
+    <t>Vãi cả khối catch dùng dấu ngoặc ( ) :))</t>
+  </si>
+  <si>
+    <t>java đã tự động thêm thư viện java.lang</t>
+  </si>
+  <si>
+    <t>throw new ClassCastException() , đây là 1 unchecked Exception, Do vậy ko require phải handle hoặc khai báo</t>
+  </si>
+  <si>
+    <t>Nếu 2 khối catch khai báo một Exception giống nhau, thì vẫn sẽ chỉ match khối exception đầu tiên</t>
+  </si>
+  <si>
+    <t>Mặc dù trong khối catch throw NullPointerException nhưng đây lại là unchecked Exception. Tuy nhiên thì method comput() khai báo 1 checkedException, Do vậy hàm main phải handle hoặc declare exception này</t>
+  </si>
+  <si>
+    <t>một khối try có thể ko có hoặc có nhiều khối finally , và có 1 hoặc nhiều khối catch</t>
+  </si>
+  <si>
+    <t>Nếu cả khối try và khối catch đều ném ra exception, Thì  chỉ apply exception ở khối catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE 4 : </t>
+  </si>
+  <si>
+    <t>Nếu cả khối try và khối finally đều ném ra exception &gt;&gt;&gt; Thì chỉ khối finally được apply</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="72">
+  <fonts count="75">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7909,6 +8562,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -7955,7 +8627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8157,9 +8829,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -8167,6 +8836,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8812,16 +9491,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>597776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>197069</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>98535</xdr:rowOff>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8838,7 +9517,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="610914" y="381001"/>
+          <a:off x="597776" y="578070"/>
           <a:ext cx="5084379" cy="1813034"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9193,6 +9872,256 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>258058</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="361950"/>
+          <a:ext cx="6325483" cy="3486637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>491535</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Exceptions in Java - GeeksforGeeks"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8397285" y="263769"/>
+          <a:ext cx="5846986" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>24850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>369308</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>165654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1258957" y="16407850"/>
+          <a:ext cx="5239481" cy="2998304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545491</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>93015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1292087" y="21543065"/>
+          <a:ext cx="3543795" cy="1790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>579783</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226837</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>126598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1192696" y="25957696"/>
+          <a:ext cx="5163271" cy="5029902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161633</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>152953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838739" y="47625000"/>
+          <a:ext cx="3839111" cy="3962953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11276,16 +12205,16 @@
       <c r="C424" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D424" s="109" t="s">
+      <c r="D424" s="115" t="s">
         <v>231</v>
       </c>
-      <c r="E424" s="109"/>
-      <c r="F424" s="109"/>
-      <c r="G424" s="109"/>
-      <c r="H424" s="109"/>
-      <c r="I424" s="109"/>
-      <c r="J424" s="109"/>
-      <c r="K424" s="109"/>
+      <c r="E424" s="115"/>
+      <c r="F424" s="115"/>
+      <c r="G424" s="115"/>
+      <c r="H424" s="115"/>
+      <c r="I424" s="115"/>
+      <c r="J424" s="115"/>
+      <c r="K424" s="115"/>
       <c r="L424" s="3" t="s">
         <v>98</v>
       </c>
@@ -11352,16 +12281,16 @@
       <c r="C430" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D430" s="109" t="s">
+      <c r="D430" s="115" t="s">
         <v>244</v>
       </c>
-      <c r="E430" s="109"/>
-      <c r="F430" s="109"/>
-      <c r="G430" s="109"/>
-      <c r="H430" s="109"/>
-      <c r="I430" s="109"/>
-      <c r="J430" s="109"/>
-      <c r="K430" s="109"/>
+      <c r="E430" s="115"/>
+      <c r="F430" s="115"/>
+      <c r="G430" s="115"/>
+      <c r="H430" s="115"/>
+      <c r="I430" s="115"/>
+      <c r="J430" s="115"/>
+      <c r="K430" s="115"/>
       <c r="L430" s="3" t="s">
         <v>49</v>
       </c>
@@ -23202,17 +24131,17 @@
         <v>1504</v>
       </c>
       <c r="C36" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="38" spans="2:18">
       <c r="C38" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="40" spans="2:18">
       <c r="C40" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="41" spans="2:18">
@@ -23225,7 +24154,7 @@
         <v>1506</v>
       </c>
       <c r="G42" s="92" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
@@ -23244,7 +24173,7 @@
         <v>1507</v>
       </c>
       <c r="G43" s="92" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="H43" s="50"/>
       <c r="I43" s="50"/>
@@ -23263,7 +24192,7 @@
         <v>1508</v>
       </c>
       <c r="G44" s="92" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
@@ -23326,10 +24255,10 @@
     </row>
     <row r="50" spans="1:12">
       <c r="C50" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G50" s="57" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H50" s="57"/>
       <c r="I50" s="57"/>
@@ -23339,10 +24268,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="C51" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G51" s="57" t="s">
         <v>1998</v>
-      </c>
-      <c r="G51" s="57" t="s">
-        <v>2000</v>
       </c>
       <c r="H51" s="57"/>
       <c r="I51" s="57"/>
@@ -27684,8 +28613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView topLeftCell="A295" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E324" sqref="E324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27791,7 +28720,7 @@
     </row>
     <row r="42" spans="3:6">
       <c r="C42" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="43" spans="3:6">
@@ -27858,12 +28787,12 @@
         <v>1904</v>
       </c>
       <c r="C59" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="C60" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -27896,55 +28825,55 @@
         <v>1591</v>
       </c>
       <c r="C77" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="D78" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="H78" t="s">
-        <v>1920</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="H79" t="s">
-        <v>1919</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="C81" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="C83" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="C85" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="C87" s="47" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="C88" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="C90" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="94" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -27954,7 +28883,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="C94" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -27964,15 +28893,15 @@
     </row>
     <row r="97" spans="1:7">
       <c r="B97" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="C98" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="G98" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -27980,123 +28909,128 @@
         <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="94" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="B103" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="94" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="94" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="113" spans="2:7">
-      <c r="B113" t="s">
+      <c r="D113" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="D114" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="C117" t="s">
         <v>1937</v>
       </c>
-      <c r="D113" t="s">
+    </row>
+    <row r="119" spans="2:8">
+      <c r="D119" t="s">
         <v>1938</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
-      <c r="D114" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7">
-      <c r="B117" t="s">
+    <row r="120" spans="2:8">
+      <c r="E120" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="119" spans="2:7">
-      <c r="C119" t="s">
+    <row r="121" spans="2:8">
+      <c r="D121" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="C122" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="C124" t="s">
         <v>1940</v>
       </c>
     </row>
-    <row r="120" spans="2:7">
-      <c r="D120" t="s">
+    <row r="126" spans="2:8">
+      <c r="D126" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="121" spans="2:7">
-      <c r="C121" t="s">
+      <c r="H126" s="57" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="E127" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="D128" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="2:7">
-      <c r="B122" t="s">
+    <row r="129" spans="1:3">
+      <c r="C129" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="2:7">
-      <c r="B124" t="s">
+    <row r="131" spans="1:3">
+      <c r="A131" s="94" t="s">
         <v>1942</v>
       </c>
     </row>
-    <row r="126" spans="2:7">
-      <c r="C126" t="s">
+    <row r="133" spans="1:3">
+      <c r="B133" t="s">
         <v>1943</v>
       </c>
-      <c r="G126" s="57" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7">
-      <c r="D127" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7">
-      <c r="C128" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="B129" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="94" t="s">
+    </row>
+    <row r="134" spans="1:3">
+      <c r="B134" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="B133" t="s">
+    <row r="136" spans="1:3">
+      <c r="B136" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="B134" t="s">
+    <row r="137" spans="1:3">
+      <c r="B137" t="s">
         <v>1946</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="B136" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="B137" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="160" spans="3:4">
       <c r="C160" s="36" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -28109,7 +29043,7 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="94" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -28117,7 +29051,7 @@
         <v>1715</v>
       </c>
       <c r="C167" t="s">
-        <v>2205</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -28126,118 +29060,118 @@
     <row r="169" spans="1:11">
       <c r="B169" s="36"/>
       <c r="D169" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
       <c r="I169" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="K169" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="B170" s="36"/>
       <c r="I170" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
       <c r="K170" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="171" spans="1:11">
       <c r="B171" s="36"/>
       <c r="I171" t="s">
+        <v>2202</v>
+      </c>
+      <c r="K171" t="s">
         <v>2209</v>
-      </c>
-      <c r="K171" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="172" spans="1:11">
       <c r="B172" s="36"/>
       <c r="I172" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K172" t="s">
         <v>2210</v>
-      </c>
-      <c r="K172" t="s">
-        <v>2217</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="B173" s="36"/>
       <c r="I173" t="s">
+        <v>2204</v>
+      </c>
+      <c r="K173" t="s">
         <v>2211</v>
-      </c>
-      <c r="K173" t="s">
-        <v>2218</v>
       </c>
     </row>
     <row r="174" spans="1:11">
       <c r="B174" s="36"/>
       <c r="I174" t="s">
+        <v>2205</v>
+      </c>
+      <c r="K174" t="s">
         <v>2212</v>
-      </c>
-      <c r="K174" t="s">
-        <v>2219</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="I175" t="s">
+        <v>2206</v>
+      </c>
+      <c r="K175" t="s">
         <v>2213</v>
-      </c>
-      <c r="K175" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="C176" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="178" spans="3:10">
       <c r="C178" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="180" spans="3:10">
       <c r="C180" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="H180" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="182" spans="3:10">
       <c r="D182" s="57" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="184" spans="3:10">
       <c r="E184" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="J184" s="57" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="185" spans="3:10">
       <c r="F185" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J185" s="57" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="186" spans="3:10">
       <c r="F186" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="187" spans="3:10">
       <c r="G187" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="J187" s="57" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="188" spans="3:10">
@@ -28247,18 +29181,18 @@
     </row>
     <row r="190" spans="3:10">
       <c r="F190" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="J190" s="57" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="191" spans="3:10">
       <c r="F191" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="J191" s="57" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="192" spans="3:10">
@@ -28268,22 +29202,22 @@
     </row>
     <row r="193" spans="3:10">
       <c r="D193" s="92" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="194" spans="3:10">
       <c r="E194" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="195" spans="3:10">
       <c r="F195" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="196" spans="3:10">
       <c r="F196" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="197" spans="3:10">
@@ -28293,22 +29227,22 @@
     </row>
     <row r="199" spans="3:10">
       <c r="C199" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="200" spans="3:10">
       <c r="C200" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="202" spans="3:10">
       <c r="D202" s="57" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="203" spans="3:10">
       <c r="E203" s="96" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="F203" s="95"/>
       <c r="G203" s="95"/>
@@ -28316,13 +29250,13 @@
     </row>
     <row r="204" spans="3:10">
       <c r="E204" s="96" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="F204" s="95"/>
       <c r="G204" s="95"/>
       <c r="H204" s="95"/>
       <c r="J204" s="57" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="205" spans="3:10">
@@ -28335,12 +29269,12 @@
     </row>
     <row r="208" spans="3:10">
       <c r="D208" s="57" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="210" spans="3:10">
       <c r="E210" s="58" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="F210" s="43"/>
       <c r="G210" s="43"/>
@@ -28349,7 +29283,7 @@
     </row>
     <row r="211" spans="3:10">
       <c r="E211" s="58" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="F211" s="43"/>
       <c r="G211" s="43"/>
@@ -28374,7 +29308,7 @@
     </row>
     <row r="215" spans="3:10">
       <c r="E215" s="97" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="F215" s="97"/>
       <c r="G215" s="97"/>
@@ -28388,7 +29322,7 @@
     </row>
     <row r="217" spans="3:10">
       <c r="E217" s="97" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F217" s="97"/>
       <c r="G217" s="97"/>
@@ -28396,13 +29330,13 @@
     </row>
     <row r="218" spans="3:10">
       <c r="E218" s="97" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="F218" s="97"/>
       <c r="G218" s="97"/>
       <c r="H218" s="97"/>
       <c r="J218" s="57" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="219" spans="3:10">
@@ -28429,22 +29363,22 @@
     </row>
     <row r="223" spans="3:10">
       <c r="C223" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="224" spans="3:10">
       <c r="C224" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="226" spans="3:8">
       <c r="D226" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="227" spans="3:8">
       <c r="E227" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="229" spans="3:8">
@@ -28454,10 +29388,10 @@
     </row>
     <row r="231" spans="3:8">
       <c r="D231" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="H231" s="57" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="233" spans="3:8">
@@ -28467,17 +29401,17 @@
     </row>
     <row r="235" spans="3:8">
       <c r="C235" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="237" spans="3:8">
       <c r="D237" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="238" spans="3:8">
       <c r="E238" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="240" spans="3:8">
@@ -28487,12 +29421,12 @@
     </row>
     <row r="242" spans="1:8">
       <c r="D242" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="E243" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -28502,20 +29436,20 @@
     </row>
     <row r="246" spans="1:8">
       <c r="D246" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="H246" s="92" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="E247" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="F248" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -28525,12 +29459,12 @@
     </row>
     <row r="250" spans="1:8">
       <c r="E250" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="F251" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -28545,17 +29479,17 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="94" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="289" spans="2:12">
@@ -28566,12 +29500,12 @@
         <v>1</v>
       </c>
       <c r="D289" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="290" spans="2:12">
       <c r="D290" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="292" spans="2:12">
@@ -28579,12 +29513,12 @@
         <v>2</v>
       </c>
       <c r="D292" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="294" spans="2:12">
       <c r="E294" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="296" spans="2:12">
@@ -28597,7 +29531,7 @@
         <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="299" spans="2:12">
@@ -28605,12 +29539,12 @@
         <v>4</v>
       </c>
       <c r="D299" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="302" spans="2:12">
       <c r="B302" s="98" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C302" s="39"/>
       <c r="D302" s="39"/>
@@ -28624,27 +29558,9 @@
       <c r="L302" s="36"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="94" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="B307" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C307" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="C308" t="s">
-        <v>2018</v>
-      </c>
+      <c r="A305" s="94"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="C309" t="s">
-        <v>2019</v>
-      </c>
       <c r="D309" s="28"/>
     </row>
     <row r="311" spans="1:4">
@@ -28652,7 +29568,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="94" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -28660,7 +29576,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="B314" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -28668,28 +29584,28 @@
     </row>
     <row r="316" spans="1:4">
       <c r="B316" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="B317" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="D317" s="28"/>
     </row>
     <row r="319" spans="1:4">
       <c r="B319" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="94" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="323" spans="1:9">
       <c r="B323" s="18" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="C323" s="18"/>
       <c r="D323" s="18"/>
@@ -28700,7 +29616,7 @@
     <row r="324" spans="1:9">
       <c r="B324" s="18"/>
       <c r="C324" s="18" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D324" s="18"/>
       <c r="E324" s="18"/>
@@ -28719,7 +29635,7 @@
     </row>
     <row r="326" spans="1:9">
       <c r="B326" s="18" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="C326" s="18"/>
       <c r="D326" s="18"/>
@@ -28730,7 +29646,7 @@
     <row r="327" spans="1:9">
       <c r="B327" s="18"/>
       <c r="C327" s="18" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="D327" s="18"/>
       <c r="E327" s="18"/>
@@ -28757,7 +29673,7 @@
     </row>
     <row r="330" spans="1:9">
       <c r="B330" s="18" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="C330" s="18"/>
       <c r="D330" s="18"/>
@@ -28765,13 +29681,13 @@
       <c r="F330" s="18"/>
       <c r="G330" s="18"/>
       <c r="I330" s="57" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="331" spans="1:9">
       <c r="B331" s="18"/>
       <c r="C331" s="18" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="D331" s="18"/>
       <c r="E331" s="18"/>
@@ -28782,7 +29698,7 @@
       <c r="B332" s="18"/>
       <c r="C332" s="18"/>
       <c r="D332" s="18" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="E332" s="18"/>
       <c r="F332" s="18"/>
@@ -28792,7 +29708,7 @@
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
       <c r="D333" s="18" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="E333" s="18"/>
       <c r="F333" s="18"/>
@@ -28819,7 +29735,7 @@
     <row r="336" spans="1:9">
       <c r="B336" s="18"/>
       <c r="C336" s="18" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="D336" s="18"/>
       <c r="E336" s="18"/>
@@ -28830,7 +29746,7 @@
       <c r="B337" s="18"/>
       <c r="C337" s="18"/>
       <c r="D337" s="18" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="E337" s="18"/>
       <c r="F337" s="18"/>
@@ -28853,17 +29769,17 @@
     </row>
     <row r="341" spans="2:10">
       <c r="B341" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="343" spans="2:10">
       <c r="C343" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="344" spans="2:10">
       <c r="D344" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="345" spans="2:10">
@@ -28873,12 +29789,12 @@
     </row>
     <row r="346" spans="2:10">
       <c r="C346" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="347" spans="2:10">
       <c r="D347" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="348" spans="2:10">
@@ -28888,41 +29804,41 @@
     </row>
     <row r="349" spans="2:10">
       <c r="C349" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="J349" s="57" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="352" spans="2:10">
       <c r="C352" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="J352" s="57" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="94" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="B357" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="G357" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="B359" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="94" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -28930,73 +29846,73 @@
         <v>1591</v>
       </c>
       <c r="C364" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="365" spans="1:7">
       <c r="C365" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="367" spans="1:7">
       <c r="C367" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="369" spans="3:10">
       <c r="C369" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="371" spans="3:10">
       <c r="C371" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="373" spans="3:10">
       <c r="C373" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="375" spans="3:10">
       <c r="C375" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="377" spans="3:10">
       <c r="C377" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="378" spans="3:10">
       <c r="D378" s="57" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="380" spans="3:10">
       <c r="E380" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="381" spans="3:10">
       <c r="F381" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="J381" s="57" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="382" spans="3:10">
       <c r="F382" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="J382" s="57" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="383" spans="3:10">
       <c r="G383" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="384" spans="3:10">
@@ -29011,23 +29927,23 @@
     </row>
     <row r="389" spans="3:10">
       <c r="D389" s="36" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="390" spans="3:10">
       <c r="E390" s="58" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="F390" s="43"/>
       <c r="G390" s="43"/>
       <c r="H390" s="43"/>
       <c r="J390" s="92" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="391" spans="3:10">
       <c r="E391" s="58" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="F391" s="43"/>
       <c r="G391" s="43"/>
@@ -29041,7 +29957,7 @@
     </row>
     <row r="393" spans="3:10">
       <c r="E393" s="58" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="F393" s="43"/>
       <c r="G393" s="43"/>
@@ -29049,7 +29965,7 @@
     </row>
     <row r="394" spans="3:10">
       <c r="E394" s="58" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="F394" s="43"/>
       <c r="G394" s="43"/>
@@ -29057,7 +29973,7 @@
     </row>
     <row r="395" spans="3:10">
       <c r="E395" s="58" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="F395" s="43"/>
       <c r="G395" s="43"/>
@@ -29065,7 +29981,7 @@
     </row>
     <row r="396" spans="3:10">
       <c r="E396" s="58" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="F396" s="43"/>
       <c r="G396" s="43"/>
@@ -29073,7 +29989,7 @@
     </row>
     <row r="397" spans="3:10">
       <c r="E397" s="58" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="F397" s="43"/>
       <c r="G397" s="43"/>
@@ -29089,17 +30005,17 @@
     </row>
     <row r="400" spans="3:10">
       <c r="C400" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="403" spans="4:10">
       <c r="D403" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="405" spans="4:10">
       <c r="E405" s="22" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="F405" s="18"/>
       <c r="G405" s="18"/>
@@ -29117,7 +30033,7 @@
     </row>
     <row r="407" spans="4:10">
       <c r="E407" s="22" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="F407" s="18"/>
       <c r="G407" s="18"/>
@@ -29127,7 +30043,7 @@
     </row>
     <row r="408" spans="4:10">
       <c r="E408" s="22" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="F408" s="18"/>
       <c r="G408" s="18"/>
@@ -29165,7 +30081,7 @@
     </row>
     <row r="412" spans="4:10">
       <c r="E412" s="22" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="F412" s="18"/>
       <c r="G412" s="18"/>
@@ -29183,7 +30099,7 @@
     </row>
     <row r="414" spans="4:10">
       <c r="E414" s="22" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="F414" s="18"/>
       <c r="G414" s="18"/>
@@ -29193,7 +30109,7 @@
     </row>
     <row r="415" spans="4:10">
       <c r="E415" s="22" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
@@ -29223,12 +30139,12 @@
     </row>
     <row r="419" spans="4:11">
       <c r="D419" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="422" spans="4:11">
       <c r="E422" s="22" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="F422" s="18"/>
       <c r="G422" s="18"/>
@@ -29244,7 +30160,7 @@
     </row>
     <row r="424" spans="4:11">
       <c r="E424" s="22" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="F424" s="18"/>
       <c r="G424" s="18"/>
@@ -29253,7 +30169,7 @@
     </row>
     <row r="425" spans="4:11">
       <c r="E425" s="22" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="F425" s="18"/>
       <c r="G425" s="18"/>
@@ -29280,7 +30196,7 @@
     </row>
     <row r="429" spans="4:11">
       <c r="E429" s="58" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="F429" s="43"/>
       <c r="G429" s="43"/>
@@ -29290,7 +30206,7 @@
     </row>
     <row r="430" spans="4:11">
       <c r="E430" s="58" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="F430" s="43"/>
       <c r="G430" s="43"/>
@@ -29298,7 +30214,7 @@
       <c r="I430" s="43"/>
       <c r="J430" s="43"/>
       <c r="K430" s="50" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="431" spans="4:11">
@@ -29313,7 +30229,7 @@
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="94" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -29323,27 +30239,27 @@
     </row>
     <row r="436" spans="1:5">
       <c r="B436" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="437" spans="1:5">
       <c r="B437" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="439" spans="1:5">
       <c r="C439" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="D440" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="E441" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -29358,17 +30274,17 @@
     </row>
     <row r="445" spans="1:5">
       <c r="C445" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="446" spans="1:5">
       <c r="D446" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="447" spans="1:5">
       <c r="E447" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -29383,10 +30299,10 @@
     </row>
     <row r="451" spans="2:9">
       <c r="C451" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="I451" s="57" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="452" spans="2:9">
@@ -29396,7 +30312,7 @@
     </row>
     <row r="453" spans="2:9">
       <c r="E453" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="454" spans="2:9">
@@ -29411,22 +30327,22 @@
     </row>
     <row r="459" spans="2:9">
       <c r="B459" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="461" spans="2:9">
       <c r="C461" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="462" spans="2:9">
       <c r="D462" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="463" spans="2:9">
       <c r="E463" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="464" spans="2:9">
@@ -29441,17 +30357,17 @@
     </row>
     <row r="467" spans="3:8">
       <c r="C467" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="468" spans="3:8">
       <c r="D468" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="469" spans="3:8">
       <c r="E469" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="470" spans="3:8">
@@ -29466,20 +30382,20 @@
     </row>
     <row r="473" spans="3:8">
       <c r="C473" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="H473" s="92" t="s">
-        <v>2086</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="475" spans="3:8">
       <c r="D475" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="476" spans="3:8">
       <c r="E476" t="s">
-        <v>2087</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="477" spans="3:8">
@@ -29494,10 +30410,10 @@
     </row>
     <row r="481" spans="1:10">
       <c r="E481" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="J481" s="36" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="482" spans="1:10">
@@ -29512,7 +30428,7 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486" s="94" t="s">
-        <v>2089</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="488" spans="1:10">
@@ -29520,7 +30436,7 @@
         <v>1591</v>
       </c>
       <c r="C488" s="43" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
       <c r="D488" s="43"/>
       <c r="E488" s="43"/>
@@ -29542,7 +30458,7 @@
     </row>
     <row r="490" spans="1:10">
       <c r="C490" s="43" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="D490" s="43"/>
       <c r="E490" s="43"/>
@@ -29554,32 +30470,32 @@
     </row>
     <row r="492" spans="1:10">
       <c r="C492" s="43" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="495" spans="1:10">
       <c r="D495" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="496" spans="1:10">
       <c r="E496" s="92" t="s">
-        <v>2091</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="497" spans="1:8">
       <c r="F497" t="s">
-        <v>2092</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="498" spans="1:8">
       <c r="G498" t="s">
-        <v>2093</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="499" spans="1:8">
       <c r="H499" t="s">
-        <v>2094</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -29594,17 +30510,17 @@
     </row>
     <row r="504" spans="1:8">
       <c r="F504" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="505" spans="1:8">
       <c r="G505" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="506" spans="1:8">
       <c r="H506" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="507" spans="1:8" ht="18" customHeight="1">
@@ -29619,158 +30535,158 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" s="94" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="514" spans="2:5">
       <c r="B514" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="515" spans="2:5">
       <c r="D515" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="517" spans="2:5">
       <c r="E517" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="519" spans="2:5">
       <c r="E519" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="521" spans="2:5">
       <c r="E521" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="523" spans="2:5">
       <c r="E523" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="526" spans="2:5">
       <c r="B526" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="528" spans="2:5">
       <c r="C528" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="529" spans="1:9">
       <c r="E529" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="I529" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="530" spans="1:9">
       <c r="E530" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
       <c r="I530" t="s">
-        <v>2113</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="533" spans="1:9">
       <c r="E533" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="I533" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="534" spans="1:9">
       <c r="E534" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="I534" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="536" spans="1:9">
       <c r="E536" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="I536" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="537" spans="1:9">
       <c r="E537" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="I537" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="540" spans="1:9">
       <c r="A540" s="94" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="542" spans="1:9">
       <c r="B542" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="94" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="561" spans="2:6">
       <c r="B561" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="E561" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="563" spans="2:6">
       <c r="B563" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="E563" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="565" spans="2:6">
       <c r="B565" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="E565" s="57" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="567" spans="2:6">
       <c r="B567" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
       <c r="F567" s="92" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="569" spans="2:6">
       <c r="B569" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="F569" s="92" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="570" spans="2:6">
       <c r="B570" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
       <c r="F570" s="92" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="574" spans="2:6">
@@ -29778,17 +30694,17 @@
         <v>1715</v>
       </c>
       <c r="C574" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="576" spans="2:6">
       <c r="C576" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="578" spans="3:10">
       <c r="D578" s="52" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
       <c r="E578" s="18"/>
       <c r="F578" s="18"/>
@@ -29806,7 +30722,7 @@
     </row>
     <row r="580" spans="3:10">
       <c r="D580" s="52" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="E580" s="18"/>
       <c r="F580" s="18"/>
@@ -29828,7 +30744,7 @@
       <c r="D582" s="52"/>
       <c r="E582" s="18"/>
       <c r="F582" s="18" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="G582" s="18"/>
       <c r="H582" s="18"/>
@@ -29838,12 +30754,12 @@
       <c r="D583" s="18"/>
       <c r="E583" s="18"/>
       <c r="F583" s="18" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="G583" s="18"/>
       <c r="H583" s="18"/>
       <c r="I583" s="57" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="584" spans="3:10">
@@ -29876,12 +30792,12 @@
     </row>
     <row r="589" spans="3:10">
       <c r="C589" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="591" spans="3:10">
       <c r="D591" s="18" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="E591" s="18"/>
       <c r="F591" s="18"/>
@@ -29912,7 +30828,7 @@
     </row>
     <row r="594" spans="1:11">
       <c r="D594" s="18" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="E594" s="18"/>
       <c r="F594" s="18"/>
@@ -29936,7 +30852,7 @@
       <c r="D596" s="18"/>
       <c r="E596" s="18"/>
       <c r="F596" s="18" t="s">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="G596" s="18"/>
       <c r="H596" s="18"/>
@@ -29947,14 +30863,14 @@
       <c r="D597" s="18"/>
       <c r="E597" s="18"/>
       <c r="F597" s="100" t="s">
-        <v>2154</v>
+        <v>2147</v>
       </c>
       <c r="G597" s="100"/>
       <c r="H597" s="100"/>
       <c r="I597" s="100"/>
       <c r="J597" s="100"/>
       <c r="K597" s="101" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="598" spans="1:11">
@@ -29981,22 +30897,22 @@
     </row>
     <row r="605" spans="1:11">
       <c r="A605" s="94" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="607" spans="1:11">
       <c r="B607" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="609" spans="2:9">
       <c r="B609" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="612" spans="2:9">
       <c r="C612" s="18" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D612" s="18"/>
       <c r="E612" s="18"/>
@@ -30008,7 +30924,7 @@
     <row r="613" spans="2:9">
       <c r="C613" s="18"/>
       <c r="D613" s="18" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E613" s="18"/>
       <c r="F613" s="18"/>
@@ -30020,7 +30936,7 @@
       <c r="C614" s="18"/>
       <c r="D614" s="18"/>
       <c r="E614" s="18" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="F614" s="18"/>
       <c r="G614" s="18"/>
@@ -30050,7 +30966,7 @@
     <row r="617" spans="2:9">
       <c r="C617" s="18"/>
       <c r="D617" s="18" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="E617" s="18"/>
       <c r="F617" s="18"/>
@@ -30062,7 +30978,7 @@
       <c r="C618" s="18"/>
       <c r="D618" s="18"/>
       <c r="E618" s="18" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="F618" s="18"/>
       <c r="G618" s="18"/>
@@ -30101,7 +31017,7 @@
     </row>
     <row r="622" spans="2:9">
       <c r="C622" s="18" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
       <c r="D622" s="18"/>
       <c r="E622" s="18"/>
@@ -30113,7 +31029,7 @@
     <row r="623" spans="2:9">
       <c r="C623" s="18"/>
       <c r="D623" s="18" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E623" s="18"/>
       <c r="F623" s="18"/>
@@ -30125,7 +31041,7 @@
       <c r="C624" s="18"/>
       <c r="D624" s="18"/>
       <c r="E624" s="18" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="F624" s="18"/>
       <c r="G624" s="18"/>
@@ -30167,7 +31083,7 @@
       <c r="C628" s="18"/>
       <c r="D628" s="18"/>
       <c r="E628" s="18" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="F628" s="18"/>
       <c r="G628" s="18"/>
@@ -30178,14 +31094,14 @@
       <c r="C629" s="18"/>
       <c r="D629" s="18"/>
       <c r="E629" s="18" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="F629" s="18"/>
       <c r="G629" s="18"/>
       <c r="H629" s="18"/>
       <c r="I629" s="18"/>
       <c r="K629" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="630" spans="1:11">
@@ -30199,7 +31115,7 @@
       <c r="H630" s="18"/>
       <c r="I630" s="18"/>
       <c r="K630" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="631" spans="1:11">
@@ -30215,27 +31131,27 @@
     </row>
     <row r="633" spans="1:11">
       <c r="A633" s="94" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="635" spans="1:11">
       <c r="B635" t="s">
-        <v>2182</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="637" spans="1:11">
       <c r="C637" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="638" spans="1:11">
       <c r="D638" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="639" spans="1:11">
       <c r="E639" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="640" spans="1:11">
@@ -30250,17 +31166,17 @@
     </row>
     <row r="643" spans="3:5">
       <c r="C643" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="644" spans="3:5">
       <c r="D644" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="645" spans="3:5">
       <c r="E645" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="646" spans="3:5">
@@ -30275,17 +31191,17 @@
     </row>
     <row r="649" spans="3:5">
       <c r="C649" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="650" spans="3:5">
       <c r="D650" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="651" spans="3:5">
       <c r="E651" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="652" spans="3:5">
@@ -30300,17 +31216,17 @@
     </row>
     <row r="655" spans="3:5">
       <c r="C655" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="656" spans="3:5">
       <c r="D656" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="657" spans="1:8">
       <c r="E657" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -30325,22 +31241,22 @@
     </row>
     <row r="662" spans="1:8">
       <c r="E662" s="50" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="F662" s="50"/>
       <c r="H662" s="92" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="663" spans="1:8">
       <c r="E663" s="50" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="F663" s="50"/>
     </row>
     <row r="664" spans="1:8">
       <c r="E664" s="50" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
       <c r="F664" s="50"/>
     </row>
@@ -30356,43 +31272,43 @@
     </row>
     <row r="668" spans="1:8">
       <c r="A668" s="94" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="669" spans="1:8">
       <c r="B669" t="s">
-        <v>2224</v>
+        <v>2217</v>
       </c>
       <c r="D669" t="s">
-        <v>2226</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="670" spans="1:8">
       <c r="D670" t="s">
-        <v>2225</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="671" spans="1:8">
       <c r="D671" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="673" spans="2:16">
       <c r="B673" t="s">
-        <v>2228</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="674" spans="2:16">
       <c r="B674" t="s">
-        <v>2229</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="675" spans="2:16">
       <c r="B675" s="36" t="s">
-        <v>2241</v>
+        <v>2234</v>
       </c>
       <c r="C675" s="22" t="s">
-        <v>2230</v>
+        <v>2223</v>
       </c>
       <c r="D675" s="18"/>
       <c r="E675" s="18"/>
@@ -30402,13 +31318,13 @@
     </row>
     <row r="676" spans="2:16">
       <c r="C676" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
       <c r="H676" s="18"/>
     </row>
     <row r="677" spans="2:16">
       <c r="C677" s="22" t="s">
-        <v>2231</v>
+        <v>2224</v>
       </c>
       <c r="D677" s="18"/>
       <c r="E677" s="18"/>
@@ -30416,12 +31332,12 @@
       <c r="G677" s="18"/>
       <c r="H677" s="18"/>
       <c r="I677" s="50" t="s">
-        <v>2238</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="678" spans="2:16">
       <c r="C678" s="22" t="s">
-        <v>2232</v>
+        <v>2225</v>
       </c>
       <c r="D678" s="18"/>
       <c r="E678" s="18"/>
@@ -30450,20 +31366,20 @@
     </row>
     <row r="682" spans="2:16">
       <c r="D682" s="22" t="s">
-        <v>2233</v>
+        <v>2226</v>
       </c>
       <c r="H682" s="18"/>
     </row>
     <row r="683" spans="2:16">
       <c r="D683" s="22" t="s">
-        <v>2234</v>
+        <v>2227</v>
       </c>
       <c r="E683" s="18"/>
       <c r="F683" s="18"/>
       <c r="G683" s="18"/>
       <c r="H683" s="18"/>
       <c r="I683" s="50" t="s">
-        <v>2239</v>
+        <v>2232</v>
       </c>
       <c r="J683" s="50"/>
       <c r="K683" s="50"/>
@@ -30472,20 +31388,20 @@
       <c r="N683" s="50"/>
       <c r="O683" s="50"/>
       <c r="P683" s="50" t="s">
-        <v>2240</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="684" spans="2:16">
       <c r="D684" t="s">
-        <v>2257</v>
+        <v>2250</v>
       </c>
       <c r="G684" s="18"/>
       <c r="H684" s="18"/>
       <c r="I684" t="s">
-        <v>2258</v>
+        <v>2251</v>
       </c>
       <c r="P684" t="s">
-        <v>2259</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="685" spans="2:16">
@@ -30494,22 +31410,22 @@
     </row>
     <row r="686" spans="2:16">
       <c r="D686" t="s">
-        <v>2260</v>
+        <v>2253</v>
       </c>
       <c r="G686" s="18"/>
       <c r="H686" s="18"/>
     </row>
     <row r="687" spans="2:16">
       <c r="D687" t="s">
-        <v>2261</v>
+        <v>2254</v>
       </c>
       <c r="G687" s="18"/>
       <c r="H687" s="18"/>
       <c r="I687" t="s">
-        <v>2262</v>
+        <v>2255</v>
       </c>
       <c r="P687" t="s">
-        <v>2263</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="688" spans="2:16">
@@ -30547,7 +31463,7 @@
     </row>
     <row r="692" spans="2:14">
       <c r="C692" s="22" t="s">
-        <v>2235</v>
+        <v>2228</v>
       </c>
       <c r="D692" s="18"/>
       <c r="E692" s="18"/>
@@ -30557,7 +31473,7 @@
     </row>
     <row r="693" spans="2:14">
       <c r="C693" s="22" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
       <c r="D693" s="18"/>
       <c r="E693" s="18"/>
@@ -30567,7 +31483,7 @@
     </row>
     <row r="694" spans="2:14">
       <c r="C694" s="22" t="s">
-        <v>2236</v>
+        <v>2229</v>
       </c>
       <c r="D694" s="18"/>
       <c r="E694" s="18"/>
@@ -30577,7 +31493,7 @@
     </row>
     <row r="695" spans="2:14">
       <c r="C695" s="22" t="s">
-        <v>2237</v>
+        <v>2230</v>
       </c>
       <c r="D695" s="18"/>
       <c r="E695" s="18"/>
@@ -30607,7 +31523,7 @@
     </row>
     <row r="698" spans="2:14">
       <c r="B698" t="s">
-        <v>2242</v>
+        <v>2235</v>
       </c>
       <c r="C698" s="22"/>
       <c r="D698" s="18"/>
@@ -30618,7 +31534,7 @@
     </row>
     <row r="699" spans="2:14">
       <c r="C699" s="58" t="s">
-        <v>2230</v>
+        <v>2223</v>
       </c>
       <c r="D699" s="18"/>
       <c r="E699" s="18"/>
@@ -30629,7 +31545,7 @@
     </row>
     <row r="700" spans="2:14">
       <c r="C700" s="58" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="D700" s="18"/>
       <c r="E700" s="18"/>
@@ -30637,7 +31553,7 @@
       <c r="G700" s="18"/>
       <c r="H700" s="18"/>
       <c r="I700" s="50" t="s">
-        <v>2255</v>
+        <v>2248</v>
       </c>
       <c r="J700" s="50"/>
       <c r="K700" s="50"/>
@@ -30647,7 +31563,7 @@
     </row>
     <row r="701" spans="2:14">
       <c r="C701" s="58" t="s">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="D701" s="18"/>
       <c r="E701" s="18"/>
@@ -30709,7 +31625,7 @@
     </row>
     <row r="705" spans="1:14">
       <c r="C705" s="58" t="s">
-        <v>2235</v>
+        <v>2228</v>
       </c>
       <c r="D705" s="18"/>
       <c r="E705" s="18"/>
@@ -30725,7 +31641,7 @@
     </row>
     <row r="706" spans="1:14">
       <c r="C706" s="58" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="D706" s="18"/>
       <c r="E706" s="18"/>
@@ -30733,7 +31649,7 @@
       <c r="G706" s="18"/>
       <c r="H706" s="18"/>
       <c r="I706" s="50" t="s">
-        <v>2256</v>
+        <v>2249</v>
       </c>
       <c r="J706" s="50"/>
       <c r="K706" s="50"/>
@@ -30743,7 +31659,7 @@
     </row>
     <row r="707" spans="1:14">
       <c r="C707" s="58" t="s">
-        <v>2247</v>
+        <v>2240</v>
       </c>
       <c r="D707" s="18"/>
       <c r="E707" s="18"/>
@@ -30805,7 +31721,7 @@
     </row>
     <row r="711" spans="1:14">
       <c r="C711" s="58" t="s">
-        <v>2248</v>
+        <v>2241</v>
       </c>
       <c r="D711" s="18"/>
       <c r="E711" s="18"/>
@@ -30813,12 +31729,12 @@
       <c r="G711" s="18"/>
       <c r="H711" s="18"/>
       <c r="I711" s="50" t="s">
-        <v>2251</v>
+        <v>2244</v>
       </c>
       <c r="J711" s="50"/>
       <c r="K711" s="50"/>
       <c r="L711" s="50" t="s">
-        <v>2252</v>
+        <v>2245</v>
       </c>
       <c r="M711" s="50"/>
       <c r="N711" s="50"/>
@@ -30839,7 +31755,7 @@
     </row>
     <row r="713" spans="1:14">
       <c r="C713" s="58" t="s">
-        <v>2249</v>
+        <v>2242</v>
       </c>
       <c r="D713" s="18"/>
       <c r="E713" s="18"/>
@@ -30855,7 +31771,7 @@
     </row>
     <row r="714" spans="1:14">
       <c r="C714" s="58" t="s">
-        <v>2250</v>
+        <v>2243</v>
       </c>
       <c r="D714" s="18"/>
       <c r="E714" s="18"/>
@@ -30863,12 +31779,12 @@
       <c r="G714" s="18"/>
       <c r="H714" s="18"/>
       <c r="I714" s="50" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
       <c r="J714" s="50"/>
       <c r="K714" s="50"/>
       <c r="L714" s="50" t="s">
-        <v>2254</v>
+        <v>2247</v>
       </c>
       <c r="M714" s="50"/>
       <c r="N714" s="50"/>
@@ -30897,7 +31813,7 @@
     </row>
     <row r="718" spans="1:14">
       <c r="A718" s="98" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="719" spans="1:14" s="36" customFormat="1">
@@ -30916,13 +31832,13 @@
         <v>1</v>
       </c>
       <c r="B720" s="70" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
       <c r="C720" s="70" t="s">
         <v>216</v>
       </c>
       <c r="E720" t="s">
-        <v>2198</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -30936,7 +31852,7 @@
         <v>217</v>
       </c>
       <c r="E721" t="s">
-        <v>2199</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="722" spans="1:5">
@@ -30944,10 +31860,10 @@
         <v>3</v>
       </c>
       <c r="B722" s="70" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="C722" s="70" t="s">
-        <v>2193</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="723" spans="1:5">
@@ -30955,7 +31871,7 @@
         <v>4</v>
       </c>
       <c r="B723" s="70" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
       <c r="C723" s="70" t="s">
         <v>1378</v>
@@ -30969,13 +31885,13 @@
         <v>5</v>
       </c>
       <c r="B724" s="70" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="C724" s="70" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E724" t="s">
         <v>2194</v>
-      </c>
-      <c r="E724" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="725" spans="1:5">
@@ -30997,13 +31913,13 @@
         <v>7</v>
       </c>
       <c r="B726" s="70" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="C726" s="70" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="E726" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="727" spans="1:5">
@@ -31014,7 +31930,7 @@
         <v>638</v>
       </c>
       <c r="C727" s="70" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="D727" t="s">
         <v>49</v>
@@ -31031,7 +31947,7 @@
         <v>222</v>
       </c>
       <c r="E728" t="s">
-        <v>2204</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -31039,10 +31955,10 @@
         <v>10</v>
       </c>
       <c r="B729" s="70" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
       <c r="C729" s="70" t="s">
-        <v>2196</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -31050,10 +31966,10 @@
         <v>11</v>
       </c>
       <c r="B730" s="70" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
       <c r="C730" s="70" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
       <c r="D730" t="s">
         <v>49</v>
@@ -31089,7 +32005,7 @@
         <v>14</v>
       </c>
       <c r="B733" s="70" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
       <c r="C733" s="70" t="s">
         <v>257</v>
@@ -31100,7 +32016,7 @@
         <v>15</v>
       </c>
       <c r="B734" s="70" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="C734" s="70" t="s">
         <v>216</v>
@@ -31117,7 +32033,7 @@
         <v>217</v>
       </c>
       <c r="E735" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="736" spans="1:5">
@@ -31131,7 +32047,7 @@
         <v>216</v>
       </c>
       <c r="E736" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -31150,10 +32066,10 @@
         <v>19</v>
       </c>
       <c r="B738" s="70" t="s">
-        <v>2192</v>
+        <v>2185</v>
       </c>
       <c r="C738" s="70" t="s">
-        <v>2197</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -31174,7 +32090,7 @@
     </row>
     <row r="741" spans="1:4">
       <c r="B741" s="102" t="s">
-        <v>2203</v>
+        <v>2196</v>
       </c>
       <c r="C741" s="70"/>
     </row>
@@ -31190,7 +32106,7 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="98" t="s">
-        <v>2264</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -31358,7 +32274,7 @@
         <v>98</v>
       </c>
       <c r="E756" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="757" spans="1:5">
@@ -31527,17 +32443,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="769" spans="1:5" s="112" customFormat="1">
-      <c r="A769" s="110">
+    <row r="769" spans="1:5" s="111" customFormat="1">
+      <c r="A769" s="109">
         <v>24</v>
       </c>
-      <c r="B769" s="111" t="s">
+      <c r="B769" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="C769" s="111" t="s">
+      <c r="C769" s="110" t="s">
         <v>213</v>
       </c>
-      <c r="D769" s="112" t="s">
+      <c r="D769" s="111" t="s">
         <v>98</v>
       </c>
     </row>
@@ -31597,7 +32513,7 @@
         <v>98</v>
       </c>
       <c r="E773" t="s">
-        <v>2268</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -31641,6 +32557,9 @@
       <c r="D776" t="s">
         <v>98</v>
       </c>
+      <c r="E776" t="s">
+        <v>2262</v>
+      </c>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="102">
@@ -31739,6 +32658,9 @@
       <c r="D783" t="s">
         <v>49</v>
       </c>
+      <c r="E783" t="s">
+        <v>2264</v>
+      </c>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="102">
@@ -31910,12 +32832,3132 @@
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="47" t="s">
-        <v>2265</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="47" t="s">
-        <v>2266</v>
+        <v>2259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O489"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C383" sqref="C383"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="36" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="36" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="36" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" s="36" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="36" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="36" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="94" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="18" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="18" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="18" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="18" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="36" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="D61" s="18" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="D62" s="18"/>
+      <c r="E62" s="18" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="D64" s="18"/>
+      <c r="E64" s="18" t="s">
+        <v>2287</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" spans="4:10">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18" t="s">
+        <v>2288</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+    </row>
+    <row r="66" spans="4:10">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="67" spans="4:10">
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18" t="s">
+        <v>2286</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+    </row>
+    <row r="68" spans="4:10">
+      <c r="D68" s="18"/>
+      <c r="E68" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+    </row>
+    <row r="69" spans="4:10">
+      <c r="D69" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+    </row>
+    <row r="71" spans="4:10">
+      <c r="D71" s="18" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="4:10">
+      <c r="D72" s="18"/>
+      <c r="E72" s="18" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="4:10">
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="4:10">
+      <c r="D74" s="18"/>
+      <c r="E74" s="18" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="4:10">
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18" t="s">
+        <v>2293</v>
+      </c>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="4:10">
+      <c r="D76" s="18"/>
+      <c r="E76" s="18" t="s">
+        <v>2296</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="4:10">
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18" t="s">
+        <v>2288</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="4:10">
+      <c r="D78" s="18"/>
+      <c r="E78" s="18" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="4:10">
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18" t="s">
+        <v>2295</v>
+      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+    </row>
+    <row r="80" spans="4:10">
+      <c r="D80" s="18"/>
+      <c r="E80" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="D81" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="36" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="C85" s="50" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="D86" s="22" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="D87" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="D88" s="22" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="D89" s="23"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="D90" s="22" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="D91" s="22" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="D92" s="22" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="D93" s="22" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="D94" s="22" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="D95" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="D96" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="D97" s="22"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="C98" s="50" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D98" s="22"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="D99" s="22" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="D100" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="D101" s="22" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="D102" s="23"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="D103" s="22" t="s">
+        <v>2430</v>
+      </c>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="D104" s="22" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="D105" s="22" t="s">
+        <v>2429</v>
+      </c>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="D107" s="22" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="D108" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="D109" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="D110" s="22"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="36" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D111" s="22"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="D112" s="22"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+    </row>
+    <row r="113" spans="3:10">
+      <c r="D113" s="22"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+    </row>
+    <row r="114" spans="3:10">
+      <c r="C114" s="39" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10">
+      <c r="D116" s="58" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+    </row>
+    <row r="117" spans="3:10">
+      <c r="D117" s="58" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+    </row>
+    <row r="118" spans="3:10">
+      <c r="D118" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+    </row>
+    <row r="119" spans="3:10">
+      <c r="D119" s="79"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+    </row>
+    <row r="120" spans="3:10">
+      <c r="D120" s="58" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+    </row>
+    <row r="121" spans="3:10">
+      <c r="D121" s="58" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+    </row>
+    <row r="122" spans="3:10">
+      <c r="D122" s="58" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+    </row>
+    <row r="123" spans="3:10">
+      <c r="D123" s="58" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+    </row>
+    <row r="124" spans="3:10">
+      <c r="D124" s="58" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="100" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10">
+      <c r="D125" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10">
+      <c r="D126" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+    </row>
+    <row r="127" spans="3:10">
+      <c r="D127" s="22"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+    </row>
+    <row r="128" spans="3:10">
+      <c r="C128" s="50" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D128" s="113" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E128" s="114"/>
+      <c r="F128" s="114"/>
+      <c r="G128" s="114"/>
+      <c r="H128" s="114"/>
+      <c r="I128" s="114"/>
+      <c r="J128" s="50"/>
+    </row>
+    <row r="129" spans="4:11">
+      <c r="D129" s="22"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+    </row>
+    <row r="130" spans="4:11">
+      <c r="D130" s="58" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+    </row>
+    <row r="131" spans="4:11">
+      <c r="D131" s="58" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+    </row>
+    <row r="132" spans="4:11">
+      <c r="D132" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+    </row>
+    <row r="133" spans="4:11">
+      <c r="D133" s="79"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+    </row>
+    <row r="134" spans="4:11">
+      <c r="D134" s="58" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="K134" s="92" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="135" spans="4:11">
+      <c r="D135" s="58" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+    </row>
+    <row r="136" spans="4:11">
+      <c r="D136" s="58" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+    </row>
+    <row r="137" spans="4:11">
+      <c r="D137" s="58" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+    </row>
+    <row r="138" spans="4:11">
+      <c r="D138" s="58" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="100"/>
+    </row>
+    <row r="139" spans="4:11">
+      <c r="D139" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+    </row>
+    <row r="140" spans="4:11">
+      <c r="D140" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+    </row>
+    <row r="141" spans="4:11">
+      <c r="D141" s="58"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+    </row>
+    <row r="142" spans="4:11">
+      <c r="D142" s="58"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+    </row>
+    <row r="143" spans="4:11">
+      <c r="D143" s="58"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+    </row>
+    <row r="144" spans="4:11">
+      <c r="D144" s="58" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="43"/>
+    </row>
+    <row r="145" spans="4:12">
+      <c r="D145" s="58" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="43"/>
+    </row>
+    <row r="146" spans="4:12">
+      <c r="D146" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="43"/>
+    </row>
+    <row r="147" spans="4:12">
+      <c r="D147" s="79"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="43"/>
+    </row>
+    <row r="148" spans="4:12">
+      <c r="D148" s="58" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="43"/>
+    </row>
+    <row r="149" spans="4:12">
+      <c r="D149" s="58" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="43"/>
+    </row>
+    <row r="150" spans="4:12">
+      <c r="D150" s="58" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="43"/>
+    </row>
+    <row r="151" spans="4:12">
+      <c r="D151" s="58" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="43"/>
+    </row>
+    <row r="152" spans="4:12">
+      <c r="D152" s="58" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="43"/>
+      <c r="K152" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="153" spans="4:12">
+      <c r="D153" s="58" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="43"/>
+    </row>
+    <row r="154" spans="4:12">
+      <c r="D154" s="58" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="43"/>
+    </row>
+    <row r="155" spans="4:12">
+      <c r="D155" s="58" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="43"/>
+    </row>
+    <row r="156" spans="4:12">
+      <c r="D156" s="58" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="43"/>
+    </row>
+    <row r="157" spans="4:12">
+      <c r="D157" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="43"/>
+    </row>
+    <row r="158" spans="4:12">
+      <c r="D158" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="43"/>
+    </row>
+    <row r="159" spans="4:12">
+      <c r="D159" s="22"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+    </row>
+    <row r="160" spans="4:12">
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="36" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="B164" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9">
+      <c r="C181" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2299</v>
+      </c>
+      <c r="H181" t="s">
+        <v>2300</v>
+      </c>
+      <c r="I181" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9">
+      <c r="C183" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2303</v>
+      </c>
+      <c r="H183" t="s">
+        <v>2300</v>
+      </c>
+      <c r="I183" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9">
+      <c r="C185" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2306</v>
+      </c>
+      <c r="H185" t="s">
+        <v>2300</v>
+      </c>
+      <c r="I185" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9">
+      <c r="D187" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9">
+      <c r="B190" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="202" spans="3:15">
+      <c r="C202" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="203" spans="3:15">
+      <c r="C203" t="s">
+        <v>2312</v>
+      </c>
+      <c r="O203" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="205" spans="3:15">
+      <c r="D205" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="207" spans="3:15">
+      <c r="D207" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="208" spans="3:15">
+      <c r="E208" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="E209" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="B213" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="C244" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E244" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F244" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G244" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="36" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="B249" s="53" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="D250" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="C252" s="18" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D252" s="18"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="43"/>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="C253" s="52" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D253" s="18"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="43"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="C254" s="52" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D254" s="18"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="43"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="C255" s="52" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D255" s="18"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="43"/>
+      <c r="G255" t="s">
+        <v>447</v>
+      </c>
+      <c r="H255" s="52" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="C256" s="52" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D256" s="18"/>
+      <c r="E256" s="18"/>
+      <c r="F256" s="43"/>
+    </row>
+    <row r="257" spans="2:8">
+      <c r="C257" s="52" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D257" s="18"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="43"/>
+      <c r="G257" t="s">
+        <v>2420</v>
+      </c>
+      <c r="H257" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8">
+      <c r="B261" s="65" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D261" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8">
+      <c r="D262" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8">
+      <c r="D263" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8">
+      <c r="C265" t="s">
+        <v>2336</v>
+      </c>
+      <c r="G265" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8">
+      <c r="C266" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G266" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8">
+      <c r="B269" s="65" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8">
+      <c r="C270" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8">
+      <c r="C271" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="273" spans="3:9">
+      <c r="C273" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G273" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="275" spans="3:9">
+      <c r="E275" s="18"/>
+      <c r="F275" s="18"/>
+      <c r="G275" s="18"/>
+      <c r="H275" s="18"/>
+      <c r="I275" s="18"/>
+    </row>
+    <row r="276" spans="3:9">
+      <c r="D276" s="51" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E276" s="18"/>
+      <c r="F276" s="18"/>
+      <c r="G276" s="18"/>
+      <c r="H276" s="18"/>
+      <c r="I276" s="18"/>
+    </row>
+    <row r="277" spans="3:9">
+      <c r="E277" s="51" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F277" s="18"/>
+      <c r="G277" s="18"/>
+      <c r="H277" s="18"/>
+      <c r="I277" s="18"/>
+    </row>
+    <row r="278" spans="3:9">
+      <c r="E278" s="18" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F278" s="18"/>
+      <c r="G278" s="18"/>
+      <c r="H278" s="18"/>
+      <c r="I278" s="18" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="279" spans="3:9">
+      <c r="D279" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E279" s="18"/>
+      <c r="F279" s="18"/>
+      <c r="G279" s="18"/>
+      <c r="H279" s="18"/>
+      <c r="I279" s="18"/>
+    </row>
+    <row r="280" spans="3:9">
+      <c r="D280" s="51" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E280" s="18"/>
+      <c r="F280" s="18"/>
+      <c r="G280" s="18"/>
+      <c r="H280" s="18"/>
+      <c r="I280" s="18"/>
+    </row>
+    <row r="281" spans="3:9">
+      <c r="E281" s="18"/>
+      <c r="F281" s="18"/>
+      <c r="G281" s="18"/>
+      <c r="H281" s="18"/>
+      <c r="I281" s="18"/>
+    </row>
+    <row r="282" spans="3:9">
+      <c r="C282" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E282" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="284" spans="3:9">
+      <c r="D284" s="52" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E284" s="18"/>
+      <c r="F284" s="18"/>
+      <c r="G284" s="18"/>
+      <c r="H284" s="18"/>
+      <c r="I284" s="18"/>
+    </row>
+    <row r="285" spans="3:9">
+      <c r="D285" s="18"/>
+      <c r="E285" s="18" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F285" s="18"/>
+      <c r="G285" s="18"/>
+      <c r="H285" s="18"/>
+      <c r="I285" s="18"/>
+    </row>
+    <row r="286" spans="3:9">
+      <c r="D286" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E286" s="18"/>
+      <c r="F286" s="18"/>
+      <c r="G286" s="18"/>
+      <c r="H286" s="18"/>
+      <c r="I286" s="18"/>
+    </row>
+    <row r="288" spans="3:9">
+      <c r="C288" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F288" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
+      <c r="A291" s="36" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10">
+      <c r="B293" s="59" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C293" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
+      <c r="C295" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
+      <c r="D297" s="52" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E297" s="18"/>
+      <c r="F297" s="18"/>
+      <c r="G297" s="18"/>
+      <c r="H297" s="18"/>
+      <c r="I297" s="18"/>
+    </row>
+    <row r="298" spans="1:10">
+      <c r="D298" s="18"/>
+      <c r="E298" s="18"/>
+      <c r="F298" s="18"/>
+      <c r="G298" s="18"/>
+      <c r="H298" s="18"/>
+      <c r="I298" s="18"/>
+    </row>
+    <row r="299" spans="1:10">
+      <c r="D299" s="52" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E299" s="18"/>
+      <c r="F299" s="18"/>
+      <c r="G299" s="18"/>
+      <c r="H299" s="18"/>
+      <c r="I299" s="18"/>
+    </row>
+    <row r="300" spans="1:10">
+      <c r="D300" s="18"/>
+      <c r="E300" s="18" t="s">
+        <v>2360</v>
+      </c>
+      <c r="F300" s="18"/>
+      <c r="G300" s="18"/>
+      <c r="H300" s="18"/>
+      <c r="I300" s="18"/>
+      <c r="J300" s="57" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10">
+      <c r="D301" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E301" s="18"/>
+      <c r="F301" s="18"/>
+      <c r="G301" s="18"/>
+      <c r="H301" s="18"/>
+      <c r="I301" s="18"/>
+    </row>
+    <row r="302" spans="1:10">
+      <c r="D302" s="18"/>
+      <c r="E302" s="18"/>
+      <c r="F302" s="18"/>
+      <c r="G302" s="18"/>
+      <c r="H302" s="18"/>
+      <c r="I302" s="18"/>
+    </row>
+    <row r="303" spans="1:10">
+      <c r="D303" s="52" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E303" s="18"/>
+      <c r="F303" s="18"/>
+      <c r="G303" s="18"/>
+      <c r="H303" s="18"/>
+      <c r="I303" s="18"/>
+    </row>
+    <row r="304" spans="1:10">
+      <c r="D304" s="18"/>
+      <c r="E304" s="18"/>
+      <c r="F304" s="18"/>
+      <c r="G304" s="18"/>
+      <c r="H304" s="18"/>
+      <c r="I304" s="18"/>
+    </row>
+    <row r="305" spans="3:14">
+      <c r="D305" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E305" s="18"/>
+      <c r="F305" s="18"/>
+      <c r="G305" s="18"/>
+      <c r="H305" s="18"/>
+      <c r="I305" s="18"/>
+    </row>
+    <row r="308" spans="3:14">
+      <c r="C308" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="309" spans="3:14">
+      <c r="D309" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="311" spans="3:14">
+      <c r="E311" s="52" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F311" s="18"/>
+      <c r="G311" s="18"/>
+      <c r="H311" s="18"/>
+      <c r="I311" s="18"/>
+      <c r="J311" s="18"/>
+      <c r="K311" s="43"/>
+      <c r="L311" s="43"/>
+      <c r="M311" s="43"/>
+      <c r="N311" s="43"/>
+    </row>
+    <row r="312" spans="3:14">
+      <c r="E312" s="18"/>
+      <c r="F312" s="18"/>
+      <c r="G312" s="18"/>
+      <c r="H312" s="18"/>
+      <c r="I312" s="18"/>
+      <c r="J312" s="18"/>
+      <c r="K312" s="43"/>
+      <c r="L312" s="43"/>
+      <c r="M312" s="43"/>
+      <c r="N312" s="43"/>
+    </row>
+    <row r="313" spans="3:14">
+      <c r="E313" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F313" s="18"/>
+      <c r="G313" s="18"/>
+      <c r="H313" s="18"/>
+      <c r="I313" s="18"/>
+      <c r="J313" s="18"/>
+      <c r="K313" s="43"/>
+      <c r="L313" s="43"/>
+      <c r="M313" s="43"/>
+      <c r="N313" s="43"/>
+    </row>
+    <row r="315" spans="3:14">
+      <c r="D315" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="317" spans="3:14">
+      <c r="E317" s="18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F317" s="18"/>
+      <c r="G317" s="18"/>
+      <c r="H317" s="18"/>
+      <c r="I317" s="18"/>
+    </row>
+    <row r="318" spans="3:14">
+      <c r="E318" s="18"/>
+      <c r="F318" s="18" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G318" s="18"/>
+      <c r="H318" s="18"/>
+      <c r="I318" s="18"/>
+    </row>
+    <row r="319" spans="3:14">
+      <c r="E319" s="18"/>
+      <c r="F319" s="18"/>
+      <c r="G319" s="18" t="s">
+        <v>2367</v>
+      </c>
+      <c r="H319" s="18"/>
+      <c r="I319" s="18"/>
+    </row>
+    <row r="320" spans="3:14">
+      <c r="E320" s="18"/>
+      <c r="F320" s="18" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G320" s="18"/>
+      <c r="H320" s="18"/>
+      <c r="I320" s="18"/>
+    </row>
+    <row r="321" spans="2:9">
+      <c r="E321" s="18"/>
+      <c r="F321" s="18"/>
+      <c r="G321" s="18" t="s">
+        <v>2369</v>
+      </c>
+      <c r="H321" s="18"/>
+      <c r="I321" s="18"/>
+    </row>
+    <row r="322" spans="2:9">
+      <c r="E322" s="18"/>
+      <c r="F322" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G322" s="18"/>
+      <c r="H322" s="18"/>
+      <c r="I322" s="18"/>
+    </row>
+    <row r="323" spans="2:9">
+      <c r="E323" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F323" s="18"/>
+      <c r="G323" s="18"/>
+      <c r="H323" s="18"/>
+      <c r="I323" s="18"/>
+    </row>
+    <row r="324" spans="2:9">
+      <c r="E324" s="18"/>
+      <c r="F324" s="18"/>
+      <c r="G324" s="18"/>
+      <c r="H324" s="18"/>
+      <c r="I324" s="18"/>
+    </row>
+    <row r="325" spans="2:9">
+      <c r="C325" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="326" spans="2:9">
+      <c r="B326" s="36" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4">
+      <c r="D351" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4">
+      <c r="D352" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="356" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B356" s="36" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C356" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="357" spans="2:11">
+      <c r="C357" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="359" spans="2:11">
+      <c r="D359" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="361" spans="2:11">
+      <c r="D361" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="362" spans="2:11">
+      <c r="E362" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="363" spans="2:11">
+      <c r="D363" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="365" spans="2:11">
+      <c r="D365" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="366" spans="2:11">
+      <c r="E366" t="s">
+        <v>2380</v>
+      </c>
+      <c r="K366" s="57" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="367" spans="2:11">
+      <c r="D367" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="371" spans="2:11">
+      <c r="C371" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="372" spans="2:11">
+      <c r="C372" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="375" spans="2:11">
+      <c r="D375" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="376" spans="2:11">
+      <c r="E376" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="377" spans="2:11">
+      <c r="D377" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="379" spans="2:11">
+      <c r="D379" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="380" spans="2:11">
+      <c r="E380" t="s">
+        <v>2385</v>
+      </c>
+      <c r="K380" s="92" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="381" spans="2:11">
+      <c r="D381" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="383" spans="2:11">
+      <c r="B383" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C383" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10">
+      <c r="A388" s="36" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10">
+      <c r="B390" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10">
+      <c r="C392" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10">
+      <c r="D393" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10">
+      <c r="D394" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10">
+      <c r="D395" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10">
+      <c r="D396" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10">
+      <c r="D397" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I397" t="s">
+        <v>2300</v>
+      </c>
+      <c r="J397" s="28" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10">
+      <c r="D398" t="s">
+        <v>2394</v>
+      </c>
+      <c r="I398" t="s">
+        <v>2300</v>
+      </c>
+      <c r="J398" s="28" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10">
+      <c r="D399" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I399" t="s">
+        <v>2400</v>
+      </c>
+      <c r="J399" s="28" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10">
+      <c r="D400" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="C401" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="C402" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="C403" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="D404" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="C405" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="57" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B408" s="57" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C408" s="39"/>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="93" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B409" s="93" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C409" s="93" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410">
+        <v>1</v>
+      </c>
+      <c r="B410" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C410" t="s">
+        <v>216</v>
+      </c>
+      <c r="D410" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411">
+        <v>2</v>
+      </c>
+      <c r="B411" s="70" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C411" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D411" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412">
+        <v>3</v>
+      </c>
+      <c r="B412" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C412" t="s">
+        <v>257</v>
+      </c>
+      <c r="D412" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413">
+        <v>4</v>
+      </c>
+      <c r="B413" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C413" t="s">
+        <v>216</v>
+      </c>
+      <c r="D413" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414">
+        <v>5</v>
+      </c>
+      <c r="B414" s="70" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C414" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D414" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415">
+        <v>6</v>
+      </c>
+      <c r="B415" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C415" t="s">
+        <v>257</v>
+      </c>
+      <c r="D415" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416">
+        <v>7</v>
+      </c>
+      <c r="B416" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C416" t="s">
+        <v>257</v>
+      </c>
+      <c r="D416" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417">
+        <v>8</v>
+      </c>
+      <c r="B417" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C417" t="s">
+        <v>217</v>
+      </c>
+      <c r="D417" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418">
+        <v>9</v>
+      </c>
+      <c r="B418" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C418" t="s">
+        <v>216</v>
+      </c>
+      <c r="D418" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419">
+        <v>10</v>
+      </c>
+      <c r="B419" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C419" t="s">
+        <v>217</v>
+      </c>
+      <c r="D419" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420">
+        <v>11</v>
+      </c>
+      <c r="B420" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C420" t="s">
+        <v>222</v>
+      </c>
+      <c r="D420" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421">
+        <v>12</v>
+      </c>
+      <c r="B421" s="70" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C421" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D421" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422">
+        <v>13</v>
+      </c>
+      <c r="B422" s="70" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C422" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D422" t="s">
+        <v>98</v>
+      </c>
+      <c r="E422" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423">
+        <v>14</v>
+      </c>
+      <c r="B423" s="70" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C423" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D423" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424">
+        <v>15</v>
+      </c>
+      <c r="B424" s="70" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C424" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D424" t="s">
+        <v>98</v>
+      </c>
+      <c r="E424" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425">
+        <v>16</v>
+      </c>
+      <c r="B425" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C425" t="s">
+        <v>216</v>
+      </c>
+      <c r="D425" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426">
+        <v>17</v>
+      </c>
+      <c r="B426" s="70" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C426" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D426" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427">
+        <v>18</v>
+      </c>
+      <c r="B427" s="70" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C427" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D427" t="s">
+        <v>98</v>
+      </c>
+      <c r="E427" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428">
+        <v>19</v>
+      </c>
+      <c r="B428" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C428" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D428" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429">
+        <v>20</v>
+      </c>
+      <c r="B429" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C429" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D429" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C431" s="87">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="57" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B434" s="57" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C434" s="39"/>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="84" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B436" s="112" t="s">
+        <v>647</v>
+      </c>
+      <c r="C436" s="84" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437">
+        <v>1</v>
+      </c>
+      <c r="B437" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C437" t="s">
+        <v>213</v>
+      </c>
+      <c r="D437" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E437" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438">
+        <v>2</v>
+      </c>
+      <c r="B438" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C438" t="s">
+        <v>216</v>
+      </c>
+      <c r="D438" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E438" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439">
+        <v>3</v>
+      </c>
+      <c r="B439" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C439" t="s">
+        <v>213</v>
+      </c>
+      <c r="D439" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440">
+        <v>4</v>
+      </c>
+      <c r="B440" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C440" t="s">
+        <v>222</v>
+      </c>
+      <c r="D440" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E440" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441">
+        <v>5</v>
+      </c>
+      <c r="B441" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C441" t="s">
+        <v>213</v>
+      </c>
+      <c r="D441" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E441" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442">
+        <v>6</v>
+      </c>
+      <c r="B442" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C442" t="s">
+        <v>216</v>
+      </c>
+      <c r="D442" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E442" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443">
+        <v>7</v>
+      </c>
+      <c r="B443" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C443" t="s">
+        <v>222</v>
+      </c>
+      <c r="D443" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444">
+        <v>8</v>
+      </c>
+      <c r="B444" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C444" t="s">
+        <v>216</v>
+      </c>
+      <c r="D444" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445">
+        <v>9</v>
+      </c>
+      <c r="B445" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C445" t="s">
+        <v>257</v>
+      </c>
+      <c r="D445" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E445" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446">
+        <v>10</v>
+      </c>
+      <c r="B446" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C446" t="s">
+        <v>257</v>
+      </c>
+      <c r="D446" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E446" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447">
+        <v>11</v>
+      </c>
+      <c r="B447" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C447" t="s">
+        <v>216</v>
+      </c>
+      <c r="D447" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E447" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448">
+        <v>12</v>
+      </c>
+      <c r="B448" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C448" t="s">
+        <v>222</v>
+      </c>
+      <c r="D448" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449">
+        <v>13</v>
+      </c>
+      <c r="B449" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C449" t="s">
+        <v>257</v>
+      </c>
+      <c r="D449" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E449" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450">
+        <v>14</v>
+      </c>
+      <c r="B450" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C450" t="s">
+        <v>257</v>
+      </c>
+      <c r="D450" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451">
+        <v>15</v>
+      </c>
+      <c r="B451" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C451" t="s">
+        <v>257</v>
+      </c>
+      <c r="D451" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452">
+        <v>16</v>
+      </c>
+      <c r="B452" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C452" t="s">
+        <v>216</v>
+      </c>
+      <c r="D452" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453">
+        <v>17</v>
+      </c>
+      <c r="B453" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C453" t="s">
+        <v>213</v>
+      </c>
+      <c r="D453" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E453" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454">
+        <v>18</v>
+      </c>
+      <c r="B454" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C454" t="s">
+        <v>216</v>
+      </c>
+      <c r="D454" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A455">
+        <v>19</v>
+      </c>
+      <c r="B455" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C455" t="s">
+        <v>213</v>
+      </c>
+      <c r="D455" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E455" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456">
+        <v>20</v>
+      </c>
+      <c r="B456" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C456" t="s">
+        <v>257</v>
+      </c>
+      <c r="D456" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457">
+        <v>21</v>
+      </c>
+      <c r="B457" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C457" t="s">
+        <v>216</v>
+      </c>
+      <c r="D457" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458">
+        <v>22</v>
+      </c>
+      <c r="C458" t="s">
+        <v>216</v>
+      </c>
+      <c r="D458" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E458" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459">
+        <v>23</v>
+      </c>
+      <c r="B459" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C459" t="s">
+        <v>222</v>
+      </c>
+      <c r="D459" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E459" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A460">
+        <v>24</v>
+      </c>
+      <c r="B460" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C460" t="s">
+        <v>257</v>
+      </c>
+      <c r="D460" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E460" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461">
+        <v>25</v>
+      </c>
+      <c r="B461" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C461" t="s">
+        <v>213</v>
+      </c>
+      <c r="D461" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E461" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462">
+        <v>26</v>
+      </c>
+      <c r="B462" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C462" t="s">
+        <v>216</v>
+      </c>
+      <c r="D462" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463">
+        <v>27</v>
+      </c>
+      <c r="B463" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C463" t="s">
+        <v>257</v>
+      </c>
+      <c r="D463" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464">
+        <v>28</v>
+      </c>
+      <c r="B464" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C464" t="s">
+        <v>213</v>
+      </c>
+      <c r="D464" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A465">
+        <v>29</v>
+      </c>
+      <c r="B465" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C465" t="s">
+        <v>222</v>
+      </c>
+      <c r="D465" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E465" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466">
+        <v>30</v>
+      </c>
+      <c r="B466" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C466" t="s">
+        <v>213</v>
+      </c>
+      <c r="D466" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467">
+        <v>31</v>
+      </c>
+      <c r="B467" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C467" t="s">
+        <v>216</v>
+      </c>
+      <c r="D467" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E467" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468">
+        <v>32</v>
+      </c>
+      <c r="B468" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C468" t="s">
+        <v>222</v>
+      </c>
+      <c r="D468" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469">
+        <v>33</v>
+      </c>
+      <c r="B469" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C469" t="s">
+        <v>222</v>
+      </c>
+      <c r="D469" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470">
+        <v>34</v>
+      </c>
+      <c r="B470" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C470" t="s">
+        <v>257</v>
+      </c>
+      <c r="D470" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471">
+        <v>35</v>
+      </c>
+      <c r="B471" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C471" t="s">
+        <v>216</v>
+      </c>
+      <c r="D471" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472">
+        <v>36</v>
+      </c>
+      <c r="B472" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C472" t="s">
+        <v>222</v>
+      </c>
+      <c r="D472" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473">
+        <v>37</v>
+      </c>
+      <c r="B473" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C473" t="s">
+        <v>257</v>
+      </c>
+      <c r="D473" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474">
+        <v>38</v>
+      </c>
+      <c r="B474" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C474" t="s">
+        <v>257</v>
+      </c>
+      <c r="D474" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475">
+        <v>39</v>
+      </c>
+      <c r="B475" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C475" t="s">
+        <v>213</v>
+      </c>
+      <c r="D475" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476">
+        <v>40</v>
+      </c>
+      <c r="B476" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C476" t="s">
+        <v>213</v>
+      </c>
+      <c r="D476" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477">
+        <v>41</v>
+      </c>
+      <c r="B477" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C477" t="s">
+        <v>257</v>
+      </c>
+      <c r="D477" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478">
+        <v>42</v>
+      </c>
+      <c r="B478" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C478" t="s">
+        <v>213</v>
+      </c>
+      <c r="D478" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479">
+        <v>43</v>
+      </c>
+      <c r="B479" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C479" t="s">
+        <v>213</v>
+      </c>
+      <c r="D479" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480">
+        <v>44</v>
+      </c>
+      <c r="B480" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C480" t="s">
+        <v>213</v>
+      </c>
+      <c r="D480" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481">
+        <v>45</v>
+      </c>
+      <c r="B481" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C481" t="s">
+        <v>257</v>
+      </c>
+      <c r="D481" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482">
+        <v>46</v>
+      </c>
+      <c r="B482" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C482" t="s">
+        <v>213</v>
+      </c>
+      <c r="D482" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483">
+        <v>47</v>
+      </c>
+      <c r="B483" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C483" t="s">
+        <v>213</v>
+      </c>
+      <c r="D483" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484">
+        <v>48</v>
+      </c>
+      <c r="B484" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C484" t="s">
+        <v>213</v>
+      </c>
+      <c r="D484" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485">
+        <v>49</v>
+      </c>
+      <c r="B485" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C485" t="s">
+        <v>257</v>
+      </c>
+      <c r="D485" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486">
+        <v>50</v>
+      </c>
+      <c r="B486" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C486" t="s">
+        <v>216</v>
+      </c>
+      <c r="D486" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B489" s="87">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5099" uniqueCount="2570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5216" uniqueCount="2572">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -8364,12 +8364,18 @@
   <si>
     <t>1 object arr được tạo ra, có 3 reference trỏ tới null và 3 reference này chưa được khởi tạo nên ko được tính là object</t>
   </si>
+  <si>
+    <t>Số câu đúng : 67/90</t>
+  </si>
+  <si>
+    <t>Tỷ lệ : 74 %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="94">
+  <fonts count="95">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8968,13 +8974,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8998,8 +8997,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF9900"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF9900"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9033,6 +9047,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9151,7 +9171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9396,8 +9416,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9473,7 +9491,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9482,13 +9500,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9497,6 +9536,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+      <color rgb="FF66FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -12852,7 +12897,7 @@
       <c r="B424" s="58" t="s">
         <v>2557</v>
       </c>
-      <c r="G424" s="166"/>
+      <c r="G424" s="164"/>
       <c r="H424" s="12"/>
       <c r="I424" s="12"/>
       <c r="J424" s="12"/>
@@ -12862,7 +12907,7 @@
       <c r="B425" s="58" t="s">
         <v>2556</v>
       </c>
-      <c r="G425" s="166"/>
+      <c r="G425" s="164"/>
       <c r="H425" s="12"/>
       <c r="I425" s="12" t="s">
         <v>1927</v>
@@ -12877,7 +12922,7 @@
       <c r="B426" s="58" t="s">
         <v>2558</v>
       </c>
-      <c r="G426" s="166"/>
+      <c r="G426" s="164"/>
       <c r="H426" s="12"/>
       <c r="I426" s="12"/>
       <c r="K426" s="12" t="s">
@@ -12889,7 +12934,7 @@
       <c r="B427" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="G427" s="166"/>
+      <c r="G427" s="164"/>
       <c r="H427" s="12"/>
       <c r="I427" s="12"/>
       <c r="K427" s="12" t="s">
@@ -12901,7 +12946,7 @@
       <c r="B428" s="58" t="s">
         <v>2559</v>
       </c>
-      <c r="G428" s="166"/>
+      <c r="G428" s="164"/>
       <c r="H428" s="12"/>
       <c r="I428" s="12"/>
       <c r="K428" s="12" t="s">
@@ -12913,7 +12958,7 @@
       <c r="B429" s="58" t="s">
         <v>2560</v>
       </c>
-      <c r="G429" s="166"/>
+      <c r="G429" s="164"/>
       <c r="H429" s="12"/>
       <c r="I429" s="12"/>
     </row>
@@ -12922,87 +12967,87 @@
       <c r="B430" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="G430" s="167"/>
+      <c r="G430" s="165"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="2"/>
       <c r="B431" s="79"/>
-      <c r="G431" s="167"/>
+      <c r="G431" s="165"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="2"/>
       <c r="B432" s="58" t="s">
         <v>2561</v>
       </c>
-      <c r="G432" s="167"/>
+      <c r="G432" s="165"/>
     </row>
     <row r="433" spans="1:12">
       <c r="A433" s="2"/>
       <c r="B433" s="58" t="s">
         <v>2562</v>
       </c>
-      <c r="G433" s="167"/>
+      <c r="G433" s="165"/>
     </row>
     <row r="434" spans="1:12">
       <c r="A434" s="2"/>
       <c r="B434" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="G434" s="167"/>
+      <c r="G434" s="165"/>
     </row>
     <row r="435" spans="1:12">
       <c r="A435" s="2"/>
       <c r="B435" s="79"/>
-      <c r="G435" s="167"/>
+      <c r="G435" s="165"/>
     </row>
     <row r="436" spans="1:12">
       <c r="A436" s="2"/>
       <c r="B436" s="58" t="s">
         <v>2556</v>
       </c>
-      <c r="G436" s="167"/>
+      <c r="G436" s="165"/>
     </row>
     <row r="437" spans="1:12">
       <c r="A437" s="2"/>
       <c r="B437" s="58" t="s">
         <v>2563</v>
       </c>
-      <c r="G437" s="167"/>
+      <c r="G437" s="165"/>
     </row>
     <row r="438" spans="1:12">
       <c r="A438" s="2"/>
       <c r="B438" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="G438" s="167"/>
+      <c r="G438" s="165"/>
     </row>
     <row r="439" spans="1:12">
       <c r="A439" s="2"/>
       <c r="B439" s="58" t="s">
         <v>712</v>
       </c>
-      <c r="G439" s="167"/>
+      <c r="G439" s="165"/>
     </row>
     <row r="440" spans="1:12">
       <c r="A440" s="2"/>
       <c r="B440" s="58" t="s">
         <v>2564</v>
       </c>
-      <c r="G440" s="167"/>
+      <c r="G440" s="165"/>
     </row>
     <row r="441" spans="1:12">
       <c r="A441" s="2"/>
       <c r="B441" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="G441" s="167"/>
+      <c r="G441" s="165"/>
     </row>
     <row r="442" spans="1:12">
       <c r="A442" s="2"/>
       <c r="B442" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="G442" s="167"/>
+      <c r="G442" s="165"/>
     </row>
     <row r="443" spans="1:12">
       <c r="A443" s="2"/>
@@ -13086,16 +13131,16 @@
       <c r="C452" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D452" s="168" t="s">
+      <c r="D452" s="172" t="s">
         <v>229</v>
       </c>
-      <c r="E452" s="168"/>
-      <c r="F452" s="168"/>
-      <c r="G452" s="168"/>
-      <c r="H452" s="168"/>
-      <c r="I452" s="168"/>
-      <c r="J452" s="168"/>
-      <c r="K452" s="168"/>
+      <c r="E452" s="172"/>
+      <c r="F452" s="172"/>
+      <c r="G452" s="172"/>
+      <c r="H452" s="172"/>
+      <c r="I452" s="172"/>
+      <c r="J452" s="172"/>
+      <c r="K452" s="172"/>
       <c r="L452" s="3" t="s">
         <v>98</v>
       </c>
@@ -13162,16 +13207,16 @@
       <c r="C458" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D458" s="168" t="s">
+      <c r="D458" s="172" t="s">
         <v>242</v>
       </c>
-      <c r="E458" s="168"/>
-      <c r="F458" s="168"/>
-      <c r="G458" s="168"/>
-      <c r="H458" s="168"/>
-      <c r="I458" s="168"/>
-      <c r="J458" s="168"/>
-      <c r="K458" s="168"/>
+      <c r="E458" s="172"/>
+      <c r="F458" s="172"/>
+      <c r="G458" s="172"/>
+      <c r="H458" s="172"/>
+      <c r="I458" s="172"/>
+      <c r="J458" s="172"/>
+      <c r="K458" s="172"/>
       <c r="L458" s="3" t="s">
         <v>49</v>
       </c>
@@ -17918,8 +17963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q229" sqref="Q229"/>
+    <sheetView topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24099,7 +24144,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24925,7 +24970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R755"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A589" sqref="A589:P645"/>
     </sheetView>
   </sheetViews>
@@ -29331,7 +29376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P798"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A760" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
@@ -33660,7 +33705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q501"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A442" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M429" sqref="M429"/>
     </sheetView>
   </sheetViews>
@@ -36934,8 +36979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P327"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C331" sqref="C331"/>
+    <sheetView topLeftCell="A367" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E395" sqref="E395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -39961,18 +40006,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D27" sqref="D27"/>
+      <selection pane="topRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="175"/>
     <col min="2" max="2" width="10.140625" style="67" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="67" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="67" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="152" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="150" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="70" customWidth="1"/>
     <col min="7" max="8" width="9.85546875" style="70" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" style="67" customWidth="1"/>
@@ -39980,40 +40026,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="173" t="s">
         <v>2552</v>
       </c>
       <c r="C2" s="71"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="174" t="s">
         <v>647</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="142" t="s">
         <v>2523</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="143" t="s">
         <v>2524</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="143" t="s">
         <v>2525</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="143" t="s">
         <v>2526</v>
       </c>
-      <c r="F4" s="146" t="s">
+      <c r="F4" s="144" t="s">
         <v>2527</v>
       </c>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="144" t="s">
         <v>2528</v>
       </c>
-      <c r="H4" s="146" t="s">
+      <c r="H4" s="144" t="s">
         <v>2529</v>
       </c>
-      <c r="I4" s="145" t="s">
+      <c r="I4" s="143" t="s">
         <v>2530</v>
       </c>
-      <c r="J4" s="148" t="s">
+      <c r="J4" s="146" t="s">
         <v>2531</v>
       </c>
       <c r="K4" t="s">
@@ -40021,34 +40067,34 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="137">
+      <c r="A5" s="174">
         <v>1</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="139" t="s">
         <v>683</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="139" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="139" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="151" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="138" t="s">
+      <c r="F5" s="136" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="138" t="s">
+      <c r="G5" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="H5" s="161" t="s">
+      <c r="H5" s="159" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="141" t="s">
+      <c r="I5" s="139" t="s">
         <v>211</v>
       </c>
-      <c r="J5" s="149" t="s">
+      <c r="J5" s="147" t="s">
         <v>255</v>
       </c>
       <c r="K5" t="s">
@@ -40056,322 +40102,322 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="137">
+      <c r="A6" s="174">
         <v>2</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="140" t="s">
         <v>2533</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="154" t="s">
+      <c r="E6" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="147" t="s">
+      <c r="F6" s="145" t="s">
         <v>214</v>
       </c>
-      <c r="G6" s="139" t="s">
+      <c r="G6" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="147" t="s">
+      <c r="I6" s="145" t="s">
         <v>214</v>
       </c>
-      <c r="J6" s="150" t="s">
+      <c r="J6" s="148" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="137">
+      <c r="A7" s="174">
         <v>3</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="159" t="s">
+      <c r="E7" s="157" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="145" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="139" t="s">
+      <c r="G7" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="139" t="s">
+      <c r="H7" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="150" t="s">
+      <c r="J7" s="148" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="137">
+      <c r="A8" s="174">
         <v>4</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="155" t="s">
+      <c r="E8" s="153" t="s">
         <v>255</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="137" t="s">
         <v>255</v>
       </c>
       <c r="G8" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="142" t="s">
+      <c r="I8" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="J8" s="150" t="s">
+      <c r="J8" s="148" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="137">
+      <c r="A9" s="174">
         <v>5</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="150" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="139" t="s">
+      <c r="F9" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="139" t="s">
+      <c r="G9" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="H9" s="139" t="s">
+      <c r="H9" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="I9" s="142" t="s">
+      <c r="I9" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="150" t="s">
+      <c r="J9" s="148" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="137">
+      <c r="A10" s="174">
         <v>6</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="159" t="s">
+      <c r="E10" s="157" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="139" t="s">
+      <c r="F10" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="H10" s="139" t="s">
+      <c r="H10" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="142" t="s">
+      <c r="I10" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="J10" s="150" t="s">
+      <c r="J10" s="148" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="137">
+      <c r="A11" s="174">
         <v>7</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="E11" s="159" t="s">
+      <c r="E11" s="157" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="139" t="s">
+      <c r="F11" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="H11" s="160" t="s">
+      <c r="H11" s="158" t="s">
         <v>211</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="150" t="s">
+      <c r="J11" s="148" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="137">
+      <c r="A12" s="174">
         <v>8</v>
       </c>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="139" t="s">
+      <c r="F12" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="H12" s="139" t="s">
+      <c r="H12" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="I12" s="142" t="s">
+      <c r="I12" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="J12" s="150" t="s">
+      <c r="J12" s="148" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="137">
+      <c r="A13" s="174">
         <v>9</v>
       </c>
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="158" t="s">
+      <c r="D13" s="156" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="155" t="s">
+      <c r="E13" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="139" t="s">
+      <c r="F13" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="H13" s="139" t="s">
+      <c r="H13" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="I13" s="158" t="s">
+      <c r="I13" s="156" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="150" t="s">
+      <c r="J13" s="148" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="137">
+      <c r="A14" s="174">
         <v>10</v>
       </c>
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="155" t="s">
         <v>336</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="E14" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="F14" s="139" t="s">
+      <c r="F14" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="140" t="s">
+      <c r="G14" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="H14" s="140" t="s">
+      <c r="H14" s="138" t="s">
         <v>255</v>
       </c>
-      <c r="I14" s="143" t="s">
+      <c r="I14" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="J14" s="151" t="s">
+      <c r="J14" s="149" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="137">
+      <c r="A15" s="174">
         <v>11</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="139" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="139" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="141" t="s">
+      <c r="D15" s="139" t="s">
         <v>211</v>
       </c>
-      <c r="E15" s="153" t="s">
+      <c r="E15" s="151" t="s">
         <v>214</v>
       </c>
-      <c r="F15" s="138" t="s">
+      <c r="F15" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="G15" s="161" t="s">
+      <c r="G15" s="159" t="s">
         <v>336</v>
       </c>
-      <c r="H15" s="138" t="s">
+      <c r="H15" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="I15" s="141" t="s">
+      <c r="I15" s="139" t="s">
         <v>214</v>
       </c>
-      <c r="J15" s="149" t="s">
+      <c r="J15" s="147" t="s">
         <v>211</v>
       </c>
       <c r="K15" t="s">
@@ -40379,761 +40425,997 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="137">
+      <c r="A16" s="174">
         <v>12</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="158" t="s">
+      <c r="D16" s="156" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="155" t="s">
+      <c r="E16" s="153" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="F16" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="H16" s="160" t="s">
+      <c r="H16" s="158" t="s">
         <v>255</v>
       </c>
-      <c r="I16" s="142" t="s">
+      <c r="I16" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="164" t="s">
+      <c r="J16" s="162" t="s">
         <v>214</v>
       </c>
       <c r="K16" t="s">
         <v>2554</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="137">
+    <row r="17" spans="1:11">
+      <c r="A17" s="174">
         <v>13</v>
       </c>
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="159" t="s">
+      <c r="E17" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="139" t="s">
+      <c r="F17" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="G17" s="139" t="s">
+      <c r="G17" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="H17" s="139" t="s">
+      <c r="H17" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="I17" s="142" t="s">
+      <c r="I17" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="J17" s="150" t="s">
+      <c r="J17" s="148" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="137">
+    <row r="18" spans="1:11">
+      <c r="A18" s="174">
         <v>14</v>
       </c>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="156" t="s">
         <v>1378</v>
       </c>
-      <c r="D18" s="142" t="s">
+      <c r="D18" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="155" t="s">
+      <c r="E18" s="153" t="s">
         <v>255</v>
       </c>
-      <c r="F18" s="160" t="s">
+      <c r="F18" s="158" t="s">
         <v>211</v>
       </c>
-      <c r="G18" s="139" t="s">
+      <c r="G18" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="139" t="s">
+      <c r="H18" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="I18" s="142" t="s">
+      <c r="I18" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="J18" s="150" t="s">
+      <c r="J18" s="148" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="137">
+    <row r="19" spans="1:11">
+      <c r="A19" s="174">
         <v>15</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="156" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="E19" s="155" t="s">
+      <c r="E19" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="160" t="s">
+      <c r="G19" s="158" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="139" t="s">
+      <c r="H19" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="142" t="s">
+      <c r="I19" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="J19" s="150" t="s">
+      <c r="J19" s="148" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="137">
+    <row r="20" spans="1:11">
+      <c r="A20" s="174">
         <v>16</v>
       </c>
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="142" t="s">
+      <c r="D20" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="155" t="s">
+      <c r="E20" s="153" t="s">
         <v>255</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="G20" s="139" t="s">
+      <c r="G20" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="H20" s="139" t="s">
+      <c r="H20" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="I20" s="142" t="s">
+      <c r="I20" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="J20" s="150" t="s">
+      <c r="J20" s="148" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="137">
+    <row r="21" spans="1:11">
+      <c r="A21" s="174">
         <v>17</v>
       </c>
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="163" t="s">
+      <c r="D21" s="161" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="155" t="s">
+      <c r="E21" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="G21" s="139" t="s">
+      <c r="G21" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="H21" s="139" t="s">
+      <c r="H21" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="I21" s="158" t="s">
+      <c r="I21" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="J21" s="150" t="s">
+      <c r="J21" s="148" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="137">
+    <row r="22" spans="1:11">
+      <c r="A22" s="174">
         <v>18</v>
       </c>
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="D22" s="163" t="s">
+      <c r="D22" s="161" t="s">
         <v>214</v>
       </c>
-      <c r="E22" s="155" t="s">
+      <c r="E22" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="139" t="s">
+      <c r="F22" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="G22" s="139" t="s">
+      <c r="G22" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="H22" s="139" t="s">
+      <c r="H22" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="I22" s="142" t="s">
+      <c r="I22" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="J22" s="150" t="s">
+      <c r="J22" s="148" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="137">
+    <row r="23" spans="1:11">
+      <c r="A23" s="174">
         <v>19</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="158" t="s">
+      <c r="C23" s="156" t="s">
         <v>336</v>
       </c>
-      <c r="D23" s="142" t="s">
+      <c r="D23" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="159" t="s">
+      <c r="E23" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="F23" s="139" t="s">
+      <c r="F23" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="H23" s="160" t="s">
+      <c r="H23" s="158" t="s">
         <v>220</v>
       </c>
-      <c r="I23" s="142" t="s">
+      <c r="I23" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="J23" s="150" t="s">
+      <c r="J23" s="148" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="137">
+    <row r="24" spans="1:11">
+      <c r="A24" s="174">
         <v>20</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="141" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="D24" s="157" t="s">
+      <c r="D24" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="E24" s="156" t="s">
+      <c r="E24" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="F24" s="140" t="s">
+      <c r="F24" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="140" t="s">
+      <c r="G24" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="H24" s="140" t="s">
+      <c r="H24" s="138" t="s">
         <v>255</v>
       </c>
-      <c r="I24" s="157" t="s">
+      <c r="I24" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="J24" s="165" t="s">
+      <c r="J24" s="163" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="137">
+    <row r="25" spans="1:11">
+      <c r="A25" s="174">
         <v>21</v>
       </c>
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="C25" s="139" t="s">
         <v>214</v>
       </c>
-      <c r="D25" s="141" t="s">
+      <c r="D25" s="168" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="153"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="149"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="137">
+      <c r="E25" s="170" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="159" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="159" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="136" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" s="139" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" s="147" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="174">
         <v>22</v>
       </c>
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="156" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="142" t="s">
+      <c r="D26" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="E26" s="155"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="150"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="137">
+      <c r="E26" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" s="137" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="158" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="174">
         <v>23</v>
       </c>
-      <c r="B27" s="142" t="s">
+      <c r="B27" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="142" t="s">
+      <c r="C27" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="D27" s="142" t="s">
+      <c r="D27" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="155"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="150"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="137">
+      <c r="E27" s="153" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="137" t="s">
+        <v>211</v>
+      </c>
+      <c r="I27" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" s="148" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="174">
         <v>24</v>
       </c>
       <c r="B28" s="169" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="156" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="142"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="150"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="137">
+      <c r="D28" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="153" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" s="167" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="137" t="s">
+        <v>211</v>
+      </c>
+      <c r="I28" s="156" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" s="148" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="174">
         <v>25</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="166" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="142" t="s">
+      <c r="C29" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="D29" s="142"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="150"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="137">
+      <c r="D29" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="153" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="137" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="156" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" s="148" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="174">
         <v>26</v>
       </c>
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="142" t="s">
+      <c r="C30" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="D30" s="142"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="150"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="137">
+      <c r="D30" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="157" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" s="137" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="162" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="174">
         <v>27</v>
       </c>
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="142" t="s">
+      <c r="C31" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="150"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="137">
+      <c r="D31" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="I31" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" s="162" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="174">
         <v>28</v>
       </c>
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="142" t="s">
+      <c r="C32" s="156" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="150"/>
+      <c r="D32" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="137" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" s="148" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="137">
+      <c r="A33" s="174">
         <v>29</v>
       </c>
-      <c r="B33" s="142" t="s">
+      <c r="B33" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="C33" s="142" t="s">
+      <c r="C33" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="150"/>
+      <c r="D33" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="153" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="137" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="I33" s="156" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" s="148" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="137">
+      <c r="A34" s="174">
         <v>30</v>
       </c>
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="143"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="151"/>
+      <c r="D34" s="141" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="154" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="138" t="s">
+        <v>255</v>
+      </c>
+      <c r="H34" s="138" t="s">
+        <v>255</v>
+      </c>
+      <c r="I34" s="155" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" s="149" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="137">
+      <c r="A35" s="174">
         <v>31</v>
       </c>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="149"/>
+      <c r="B35" s="139" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="139" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="139" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="151" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="137">
+      <c r="A36" s="174">
         <v>32</v>
       </c>
-      <c r="B36" s="142"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="150"/>
+      <c r="B36" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="153" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="137" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="148"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="137">
+      <c r="A37" s="174">
         <v>33</v>
       </c>
-      <c r="B37" s="142"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="150"/>
+      <c r="B37" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="171" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="148"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="137">
+      <c r="A38" s="174">
         <v>34</v>
       </c>
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="150"/>
+      <c r="B38" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="171" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E38" s="153" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="148"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="137">
+      <c r="A39" s="174">
         <v>35</v>
       </c>
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="150"/>
+      <c r="B39" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="176" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="148"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="137">
+      <c r="A40" s="174">
         <v>36</v>
       </c>
-      <c r="B40" s="142"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="150"/>
+      <c r="B40" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="153" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="148"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="137">
+      <c r="A41" s="174">
         <v>37</v>
       </c>
-      <c r="B41" s="142"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="150"/>
+      <c r="B41" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="148"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="137">
+      <c r="A42" s="174">
         <v>38</v>
       </c>
-      <c r="B42" s="142"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="150"/>
+      <c r="B42" s="140" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="148"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="137">
+      <c r="A43" s="174">
         <v>39</v>
       </c>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="150"/>
+      <c r="B43" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="140" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="153" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="148"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="137">
+      <c r="A44" s="174">
         <v>40</v>
       </c>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="151"/>
+      <c r="B44" s="141" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="141" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" s="154" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="149"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="137">
+      <c r="A45" s="174">
         <v>41</v>
       </c>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="149"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="147"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="137">
+      <c r="A46" s="174">
         <v>42</v>
       </c>
-      <c r="B46" s="142"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="150"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="148"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="137">
+      <c r="A47" s="174">
         <v>43</v>
       </c>
-      <c r="B47" s="142"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="150"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="148"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="137">
+      <c r="A48" s="174">
         <v>44</v>
       </c>
-      <c r="B48" s="142"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="150"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="148"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="137">
+      <c r="A49" s="174">
         <v>45</v>
       </c>
-      <c r="B49" s="142"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="150"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="148"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="137">
+      <c r="A50" s="174">
         <v>46</v>
       </c>
-      <c r="B50" s="142"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="150"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="148"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="137">
+      <c r="A51" s="174">
         <v>47</v>
       </c>
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="155"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="150"/>
+      <c r="B51" s="140"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="148"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="137">
+      <c r="A52" s="174">
         <v>48</v>
       </c>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="150"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="148"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="137">
+      <c r="A53" s="174">
         <v>49</v>
       </c>
-      <c r="B53" s="142"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="139"/>
-      <c r="I53" s="142"/>
-      <c r="J53" s="150"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="148"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="137">
+      <c r="A54" s="174">
         <v>50</v>
       </c>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="143"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="143"/>
-      <c r="J54" s="151"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="149"/>
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="67" t="s">

--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>Hung Le Phi</author>
   </authors>
   <commentList>
-    <comment ref="C609" authorId="0" shapeId="0">
+    <comment ref="C651" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="2605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="2639">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -8469,12 +8469,169 @@
   <si>
     <t>BCF</t>
   </si>
+  <si>
+    <t>ACF</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>String: length()</t>
+  </si>
+  <si>
+    <t>StringBuilder: length()</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>BDF</t>
+  </si>
+  <si>
+    <t>AEF</t>
+  </si>
+  <si>
+    <t>BEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A</t>
+  </si>
+  <si>
+    <t>ABF</t>
+  </si>
+  <si>
+    <t>CDE</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>41/80</t>
+  </si>
+  <si>
+    <t>50% :(</t>
+  </si>
+  <si>
+    <t>String s1 = new String ("A");</t>
+  </si>
+  <si>
+    <t>String s2 = new String ("B");</t>
+  </si>
+  <si>
+    <t>String s3 = new String ("C");</t>
+  </si>
+  <si>
+    <t>s1 = s2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s2 = s3 </t>
+  </si>
+  <si>
+    <t>s3 = s1;</t>
+  </si>
+  <si>
+    <t>// line 1</t>
+  </si>
+  <si>
+    <t>// line 2</t>
+  </si>
+  <si>
+    <t>// line 3</t>
+  </si>
+  <si>
+    <t>Ban đầu ta có</t>
+  </si>
+  <si>
+    <t>System.gc();</t>
+  </si>
+  <si>
+    <t>// line 4</t>
+  </si>
+  <si>
+    <t>Sau dòng 1</t>
+  </si>
+  <si>
+    <t>Sau dòng 2</t>
+  </si>
+  <si>
+    <t>Sau dòng 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thì có 1 object sẽ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">eliegle for garable collection </t>
+    </r>
+  </si>
+  <si>
+    <t>Ta thấy sau dòng 3 kết thúc :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line 4 được chạy, Thì object đó sẽ được </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> guaranted to be gargable collected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nếu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ko có line 4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thì ko có object nào được đảm bảo là obj </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> guaranted to be gargable collected</t>
+    </r>
+  </si>
+  <si>
+    <t>Đối với mối quan hệ kế thừa, Thì việc xác định method nào phải declare exception dựa vào Kiểu Dữ Liệu của biến reference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="100">
+  <fonts count="101">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9143,8 +9300,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9187,8 +9351,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -9297,12 +9466,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="100" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9659,9 +9844,6 @@
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9679,9 +9861,14 @@
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="8" borderId="10" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9773,6 +9960,158 @@
         <a:xfrm>
           <a:off x="1838739" y="43069564"/>
           <a:ext cx="3858163" cy="6261313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21980</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>80597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>162565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095499" y="68711885"/>
+          <a:ext cx="1831731" cy="1569334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197827</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>191958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1216269" y="70968577"/>
+          <a:ext cx="1729154" cy="1679323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21982</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3963866" y="70968577"/>
+          <a:ext cx="1846385" cy="1641231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59644</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7004538" y="70968577"/>
+          <a:ext cx="1884048" cy="1531327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10886,13 +11225,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161633</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>152953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11224,10 +11563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q609"/>
+  <dimension ref="A1:Q651"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K459" sqref="K459"/>
+    <sheetView topLeftCell="A344" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M365" sqref="M365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12397,1895 +12736,1522 @@
         <v>179</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="2:4">
       <c r="C311" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="2" t="s">
+    <row r="314" spans="2:4">
+      <c r="B314" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4">
+      <c r="C315" s="3" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="C316" s="3" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4">
+      <c r="C318" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4">
+      <c r="C319" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4">
+      <c r="C320" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="321" spans="3:12">
+      <c r="C321" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="323" spans="3:12">
+      <c r="C323" s="3" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="333" spans="3:12">
+      <c r="C333" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="345" spans="3:6">
+      <c r="C345" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="347" spans="3:6">
+      <c r="C347" s="3" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="349" spans="3:6">
+      <c r="C349" s="3" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="357" spans="1:3">
+      <c r="A357" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
-      <c r="B316" s="3" t="s">
+    <row r="358" spans="1:3">
+      <c r="B358" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
-      <c r="B317" s="3" t="s">
+    <row r="359" spans="1:3">
+      <c r="B359" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
-      <c r="B319" s="3" t="s">
+    <row r="361" spans="1:3">
+      <c r="B361" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
-      <c r="B320" s="3" t="s">
+    <row r="362" spans="1:3">
+      <c r="B362" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="B321" s="3" t="s">
+    <row r="363" spans="1:3">
+      <c r="B363" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="B322" s="3" t="s">
+    <row r="364" spans="1:3">
+      <c r="B364" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2" t="s">
+    <row r="366" spans="1:3">
+      <c r="A366" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="B325" s="3" t="s">
+    <row r="367" spans="1:3">
+      <c r="B367" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C367" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2" t="s">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="B328" s="3" t="s">
+    <row r="370" spans="1:4">
+      <c r="B370" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="B330" s="3" t="s">
+    <row r="372" spans="1:4">
+      <c r="B372" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D372" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="B332" s="3" t="s">
+    <row r="374" spans="1:4">
+      <c r="B374" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D374" s="3" t="s">
         <v>2522</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="B334" s="3" t="s">
+    <row r="376" spans="1:4">
+      <c r="B376" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="D376" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="D335" s="3" t="s">
+    <row r="377" spans="1:4">
+      <c r="D377" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
-      <c r="B337" s="3" t="s">
+    <row r="379" spans="1:4">
+      <c r="B379" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D337" s="3" t="s">
+      <c r="D379" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
-      <c r="B339" s="3" t="s">
+    <row r="381" spans="1:4">
+      <c r="B381" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D381" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="2" t="s">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
-      <c r="B342" s="3" t="s">
+    <row r="384" spans="1:4">
+      <c r="B384" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
-      <c r="B344" s="3" t="s">
+    <row r="386" spans="2:17">
+      <c r="B386" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F344" s="3" t="s">
+      <c r="F386" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
-      <c r="B346" s="3" t="s">
+    <row r="388" spans="2:17">
+      <c r="B388" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
-      <c r="C347" s="3" t="s">
+    <row r="389" spans="2:17">
+      <c r="C389" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
-      <c r="C348" s="3" t="s">
+    <row r="390" spans="2:17">
+      <c r="C390" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
-      <c r="B350" s="3" t="s">
+    <row r="392" spans="2:17">
+      <c r="B392" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
-      <c r="C351" s="3" t="s">
+    <row r="393" spans="2:17">
+      <c r="C393" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D351" s="3" t="s">
+      <c r="D393" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F351" s="3" t="s">
+      <c r="F393" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
-      <c r="D352" s="3" t="s">
+    <row r="394" spans="2:17">
+      <c r="D394" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F352" s="3" t="s">
+      <c r="F394" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
-      <c r="D353" s="3" t="s">
+    <row r="395" spans="2:17">
+      <c r="D395" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F353" s="3" t="s">
+      <c r="F395" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
-      <c r="C355" s="3" t="s">
+    <row r="397" spans="2:17">
+      <c r="C397" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D355" s="3" t="s">
+      <c r="D397" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F355" s="3" t="s">
+      <c r="F397" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G355" s="3" t="s">
+      <c r="G397" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
-      <c r="D356" s="8" t="s">
+    <row r="398" spans="2:17">
+      <c r="D398" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E356" s="8"/>
-      <c r="F356" s="8" t="s">
+      <c r="E398" s="8"/>
+      <c r="F398" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="G356" s="8"/>
-      <c r="H356" s="8"/>
-      <c r="I356" s="8"/>
-      <c r="J356" s="8"/>
-      <c r="K356" s="8"/>
-      <c r="L356" s="8"/>
-      <c r="M356" s="8"/>
-      <c r="N356" s="8"/>
-      <c r="O356" s="8"/>
-      <c r="P356" s="8"/>
-      <c r="Q356" s="8"/>
-    </row>
-    <row r="357" spans="1:17">
-      <c r="D357" s="8" t="s">
+      <c r="G398" s="8"/>
+      <c r="H398" s="8"/>
+      <c r="I398" s="8"/>
+      <c r="J398" s="8"/>
+      <c r="K398" s="8"/>
+      <c r="L398" s="8"/>
+      <c r="M398" s="8"/>
+      <c r="N398" s="8"/>
+      <c r="O398" s="8"/>
+      <c r="P398" s="8"/>
+      <c r="Q398" s="8"/>
+    </row>
+    <row r="399" spans="2:17">
+      <c r="D399" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="E357" s="8"/>
-      <c r="F357" s="8" t="s">
+      <c r="E399" s="8"/>
+      <c r="F399" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="G357" s="8"/>
-      <c r="H357" s="8"/>
-      <c r="I357" s="8"/>
-      <c r="J357" s="8"/>
-      <c r="K357" s="8"/>
-      <c r="L357" s="8"/>
-      <c r="M357" s="8"/>
-      <c r="N357" s="8"/>
-      <c r="O357" s="8"/>
-      <c r="P357" s="8"/>
-      <c r="Q357" s="8"/>
-    </row>
-    <row r="359" spans="1:17">
-      <c r="C359" s="3" t="s">
+      <c r="G399" s="8"/>
+      <c r="H399" s="8"/>
+      <c r="I399" s="8"/>
+      <c r="J399" s="8"/>
+      <c r="K399" s="8"/>
+      <c r="L399" s="8"/>
+      <c r="M399" s="8"/>
+      <c r="N399" s="8"/>
+      <c r="O399" s="8"/>
+      <c r="P399" s="8"/>
+      <c r="Q399" s="8"/>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="C401" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D359" s="3" t="s">
+      <c r="D401" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F359" s="3" t="s">
+      <c r="F401" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
-      <c r="D360" s="3" t="s">
+    <row r="402" spans="1:6">
+      <c r="D402" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F360" s="3" t="s">
+      <c r="F402" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
-      <c r="D361" s="3" t="s">
+    <row r="403" spans="1:6">
+      <c r="D403" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F361" s="3" t="s">
+      <c r="F403" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
-      <c r="C362" s="3" t="s">
+    <row r="404" spans="1:6">
+      <c r="C404" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
-      <c r="D363" s="3" t="s">
+    <row r="405" spans="1:6">
+      <c r="D405" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F363" s="3" t="s">
+      <c r="F405" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
-      <c r="D364" s="3" t="s">
+    <row r="406" spans="1:6">
+      <c r="D406" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F364" s="3" t="s">
+      <c r="F406" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
-      <c r="D365" s="3" t="s">
+    <row r="407" spans="1:6">
+      <c r="D407" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F365" s="3" t="s">
+      <c r="F407" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
-      <c r="A366" s="2" t="s">
+    <row r="408" spans="1:6">
+      <c r="A408" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
-      <c r="A367" s="2"/>
-      <c r="B367" s="3" t="s">
+    <row r="409" spans="1:6">
+      <c r="A409" s="2"/>
+      <c r="B409" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D367" s="3" t="s">
+      <c r="D409" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
-      <c r="A368" s="2"/>
-      <c r="B368" s="3" t="s">
+    <row r="410" spans="1:6">
+      <c r="A410" s="2"/>
+      <c r="B410" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
-      <c r="A369" s="2"/>
-    </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="2"/>
-      <c r="C370" s="3" t="s">
+    <row r="411" spans="1:6">
+      <c r="A411" s="2"/>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="2"/>
+      <c r="C412" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E370" s="3" t="s">
+      <c r="E412" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
-      <c r="A371" s="2"/>
-    </row>
-    <row r="372" spans="1:6">
-      <c r="A372" s="2"/>
-      <c r="D372" s="3" t="s">
+    <row r="413" spans="1:6">
+      <c r="A413" s="2"/>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="2"/>
+      <c r="D414" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F372" s="3" t="s">
+      <c r="F414" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
-      <c r="A373" s="2"/>
-      <c r="F373" s="3" t="s">
+    <row r="415" spans="1:6">
+      <c r="A415" s="2"/>
+      <c r="F415" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="2"/>
-      <c r="F374" s="3" t="s">
+    <row r="416" spans="1:6">
+      <c r="A416" s="2"/>
+      <c r="F416" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
-      <c r="A375" s="2"/>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="A376" s="2"/>
-      <c r="D376" s="3" t="s">
+    <row r="417" spans="1:6">
+      <c r="A417" s="2"/>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="2"/>
+      <c r="D418" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F376" s="3" t="s">
+      <c r="F418" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
-      <c r="A377" s="2"/>
-    </row>
-    <row r="378" spans="1:6">
-      <c r="A378" s="2"/>
-      <c r="D378" s="3" t="s">
+    <row r="419" spans="1:6">
+      <c r="A419" s="2"/>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="2"/>
+      <c r="D420" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F378" s="3" t="s">
+      <c r="F420" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
-      <c r="A379" s="2"/>
-      <c r="F379" s="3" t="s">
+    <row r="421" spans="1:6">
+      <c r="A421" s="2"/>
+      <c r="F421" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
-      <c r="A380" s="2"/>
-    </row>
-    <row r="381" spans="1:6">
-      <c r="A381" s="2"/>
-      <c r="C381" s="3" t="s">
+    <row r="422" spans="1:6">
+      <c r="A422" s="2"/>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="2"/>
+      <c r="C423" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
-      <c r="A382" s="2"/>
-      <c r="D382" s="3" t="s">
+    <row r="424" spans="1:6">
+      <c r="A424" s="2"/>
+      <c r="D424" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
-      <c r="A383" s="2"/>
-      <c r="D383" s="3" t="s">
+    <row r="425" spans="1:6">
+      <c r="A425" s="2"/>
+      <c r="D425" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="2"/>
-    </row>
-    <row r="385" spans="1:12">
-      <c r="A385" s="2"/>
-      <c r="D385" s="3" t="s">
+    <row r="426" spans="1:6">
+      <c r="A426" s="2"/>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="2"/>
+      <c r="D427" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F385" s="3" t="s">
+      <c r="F427" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
-      <c r="A386" s="2"/>
-    </row>
-    <row r="387" spans="1:12">
-      <c r="A387" s="2"/>
-      <c r="D387" s="3" t="s">
+    <row r="428" spans="1:6">
+      <c r="A428" s="2"/>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="2"/>
+      <c r="D429" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F387" s="3" t="s">
+      <c r="F429" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
-      <c r="A388" s="2"/>
-    </row>
-    <row r="389" spans="1:12">
-      <c r="A389" s="2"/>
-      <c r="D389" s="3" t="s">
+    <row r="430" spans="1:6">
+      <c r="A430" s="2"/>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" s="2"/>
+      <c r="D431" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F389" s="3" t="s">
+      <c r="F431" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="390" spans="1:12">
-      <c r="A390" s="2"/>
-    </row>
-    <row r="391" spans="1:12">
-      <c r="A391" s="2"/>
-      <c r="F391" s="3" t="s">
+    <row r="432" spans="1:6">
+      <c r="A432" s="2"/>
+    </row>
+    <row r="433" spans="1:12">
+      <c r="A433" s="2"/>
+      <c r="F433" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
-      <c r="A392" s="2"/>
-      <c r="G392" s="3" t="s">
+    <row r="434" spans="1:12">
+      <c r="A434" s="2"/>
+      <c r="G434" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="393" spans="1:12">
-      <c r="A393" s="2"/>
-      <c r="G393" s="3" t="s">
+    <row r="435" spans="1:12">
+      <c r="A435" s="2"/>
+      <c r="G435" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
-      <c r="A394" s="2"/>
-      <c r="H394" s="3" t="s">
+    <row r="436" spans="1:12">
+      <c r="A436" s="2"/>
+      <c r="H436" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="L394" s="9" t="s">
+      <c r="L436" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
-      <c r="A395" s="2"/>
-      <c r="H395" s="3" t="s">
+    <row r="437" spans="1:12">
+      <c r="A437" s="2"/>
+      <c r="H437" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L395" s="7" t="s">
+      <c r="L437" s="7" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
-      <c r="A396" s="2"/>
-      <c r="G396" s="3" t="s">
+    <row r="438" spans="1:12">
+      <c r="A438" s="2"/>
+      <c r="G438" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
-      <c r="A397" s="2"/>
-      <c r="F397" s="3" t="s">
+    <row r="439" spans="1:12">
+      <c r="A439" s="2"/>
+      <c r="F439" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
-      <c r="A398" s="2"/>
-    </row>
-    <row r="399" spans="1:12">
-      <c r="A399" s="2"/>
-      <c r="C399" s="3" t="s">
+    <row r="440" spans="1:12">
+      <c r="A440" s="2"/>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441" s="2"/>
+      <c r="C441" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
-      <c r="A400" s="2"/>
-      <c r="D400" s="3" t="s">
+    <row r="442" spans="1:12">
+      <c r="A442" s="2"/>
+      <c r="D442" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
-      <c r="A401" s="2"/>
-    </row>
-    <row r="402" spans="1:10">
-      <c r="A402" s="2"/>
-      <c r="D402" s="3" t="s">
+    <row r="443" spans="1:12">
+      <c r="A443" s="2"/>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="2"/>
+      <c r="D444" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="F402" s="3" t="s">
+      <c r="F444" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
-      <c r="A403" s="2"/>
-    </row>
-    <row r="404" spans="1:10">
-      <c r="A404" s="2"/>
-      <c r="D404" s="3" t="s">
+    <row r="445" spans="1:12">
+      <c r="A445" s="2"/>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="2"/>
+      <c r="D446" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
-      <c r="A405" s="2"/>
-    </row>
-    <row r="406" spans="1:10">
-      <c r="A406" s="2"/>
-      <c r="E406" s="3" t="s">
+    <row r="447" spans="1:12">
+      <c r="A447" s="2"/>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="2"/>
+      <c r="E448" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
-      <c r="A407" s="2"/>
-    </row>
-    <row r="408" spans="1:10">
-      <c r="A408" s="2"/>
-      <c r="E408" s="3" t="s">
+    <row r="449" spans="1:10">
+      <c r="A449" s="2"/>
+    </row>
+    <row r="450" spans="1:10">
+      <c r="A450" s="2"/>
+      <c r="E450" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
-      <c r="A409" s="2"/>
-    </row>
-    <row r="410" spans="1:10">
-      <c r="A410" s="2"/>
-      <c r="D410" s="3" t="s">
+    <row r="451" spans="1:10">
+      <c r="A451" s="2"/>
+    </row>
+    <row r="452" spans="1:10">
+      <c r="A452" s="2"/>
+      <c r="D452" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
-      <c r="A411" s="2"/>
-      <c r="E411" s="3" t="s">
+    <row r="453" spans="1:10">
+      <c r="A453" s="2"/>
+      <c r="E453" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
-      <c r="A412" s="2"/>
-    </row>
-    <row r="413" spans="1:10">
-      <c r="A413" s="2"/>
-    </row>
-    <row r="414" spans="1:10">
-      <c r="A414" s="2"/>
-      <c r="E414" s="3" t="s">
+    <row r="454" spans="1:10">
+      <c r="A454" s="2"/>
+    </row>
+    <row r="455" spans="1:10">
+      <c r="A455" s="2"/>
+    </row>
+    <row r="456" spans="1:10">
+      <c r="A456" s="2"/>
+      <c r="E456" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="F414" s="3" t="s">
+      <c r="F456" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G414" s="11" t="s">
+      <c r="G456" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="H414" s="12"/>
-      <c r="I414" s="12"/>
-      <c r="J414" s="12"/>
-    </row>
-    <row r="415" spans="1:10">
-      <c r="A415" s="2"/>
-      <c r="G415" s="12"/>
-      <c r="H415" s="11" t="s">
+      <c r="H456" s="12"/>
+      <c r="I456" s="12"/>
+      <c r="J456" s="12"/>
+    </row>
+    <row r="457" spans="1:10">
+      <c r="A457" s="2"/>
+      <c r="G457" s="12"/>
+      <c r="H457" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="I415" s="12"/>
-      <c r="J415" s="12"/>
-    </row>
-    <row r="416" spans="1:10">
-      <c r="A416" s="2"/>
-      <c r="G416" s="12"/>
-      <c r="H416" s="11" t="s">
+      <c r="I457" s="12"/>
+      <c r="J457" s="12"/>
+    </row>
+    <row r="458" spans="1:10">
+      <c r="A458" s="2"/>
+      <c r="G458" s="12"/>
+      <c r="H458" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="I416" s="12"/>
-      <c r="J416" s="12"/>
-    </row>
-    <row r="417" spans="1:11">
-      <c r="A417" s="2"/>
-      <c r="G417" s="12" t="s">
+      <c r="I458" s="12"/>
+      <c r="J458" s="12"/>
+    </row>
+    <row r="459" spans="1:10">
+      <c r="A459" s="2"/>
+      <c r="G459" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="H417" s="12"/>
-      <c r="I417" s="12"/>
-      <c r="J417" s="12"/>
-    </row>
-    <row r="418" spans="1:11">
-      <c r="A418" s="2"/>
-      <c r="G418" s="12"/>
-      <c r="H418" s="12"/>
-      <c r="I418" s="12"/>
-      <c r="J418" s="12"/>
-    </row>
-    <row r="419" spans="1:11">
-      <c r="A419" s="2"/>
-      <c r="F419" s="3" t="s">
+      <c r="H459" s="12"/>
+      <c r="I459" s="12"/>
+      <c r="J459" s="12"/>
+    </row>
+    <row r="460" spans="1:10">
+      <c r="A460" s="2"/>
+      <c r="G460" s="12"/>
+      <c r="H460" s="12"/>
+      <c r="I460" s="12"/>
+      <c r="J460" s="12"/>
+    </row>
+    <row r="461" spans="1:10">
+      <c r="A461" s="2"/>
+      <c r="F461" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="G419" s="11" t="s">
+      <c r="G461" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="H419" s="12"/>
-      <c r="I419" s="12"/>
-      <c r="J419" s="12"/>
-    </row>
-    <row r="420" spans="1:11">
-      <c r="A420" s="2"/>
-      <c r="G420" s="11" t="s">
+      <c r="H461" s="12"/>
+      <c r="I461" s="12"/>
+      <c r="J461" s="12"/>
+    </row>
+    <row r="462" spans="1:10">
+      <c r="A462" s="2"/>
+      <c r="G462" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="H420" s="12"/>
-      <c r="I420" s="12"/>
-      <c r="J420" s="12"/>
-    </row>
-    <row r="421" spans="1:11">
-      <c r="A421" s="2"/>
-      <c r="G421" s="11"/>
-      <c r="H421" s="12"/>
-      <c r="I421" s="12"/>
-      <c r="J421" s="12"/>
-    </row>
-    <row r="422" spans="1:11">
-      <c r="A422" s="2" t="s">
+      <c r="H462" s="12"/>
+      <c r="I462" s="12"/>
+      <c r="J462" s="12"/>
+    </row>
+    <row r="463" spans="1:10">
+      <c r="A463" s="2"/>
+      <c r="G463" s="11"/>
+      <c r="H463" s="12"/>
+      <c r="I463" s="12"/>
+      <c r="J463" s="12"/>
+    </row>
+    <row r="464" spans="1:10">
+      <c r="A464" s="2" t="s">
         <v>2554</v>
       </c>
-      <c r="G422" s="11"/>
-      <c r="H422" s="12"/>
-      <c r="I422" s="12"/>
-      <c r="J422" s="12"/>
-    </row>
-    <row r="423" spans="1:11">
-      <c r="A423" s="2"/>
-      <c r="G423" s="11"/>
-      <c r="H423" s="12"/>
-      <c r="I423" s="12"/>
-      <c r="J423" s="12"/>
-    </row>
-    <row r="424" spans="1:11">
-      <c r="A424" s="2"/>
-      <c r="B424" s="58" t="s">
+      <c r="G464" s="11"/>
+      <c r="H464" s="12"/>
+      <c r="I464" s="12"/>
+      <c r="J464" s="12"/>
+    </row>
+    <row r="465" spans="1:11">
+      <c r="A465" s="2"/>
+      <c r="G465" s="11"/>
+      <c r="H465" s="12"/>
+      <c r="I465" s="12"/>
+      <c r="J465" s="12"/>
+    </row>
+    <row r="466" spans="1:11">
+      <c r="A466" s="2"/>
+      <c r="B466" s="58" t="s">
         <v>2556</v>
       </c>
-      <c r="G424" s="164"/>
-      <c r="H424" s="12"/>
-      <c r="I424" s="12"/>
-      <c r="J424" s="12"/>
-    </row>
-    <row r="425" spans="1:11">
-      <c r="A425" s="2"/>
-      <c r="B425" s="58" t="s">
+      <c r="G466" s="164"/>
+      <c r="H466" s="12"/>
+      <c r="I466" s="12"/>
+      <c r="J466" s="12"/>
+    </row>
+    <row r="467" spans="1:11">
+      <c r="A467" s="2"/>
+      <c r="B467" s="58" t="s">
         <v>2555</v>
       </c>
-      <c r="G425" s="164"/>
-      <c r="H425" s="12"/>
-      <c r="I425" s="12" t="s">
+      <c r="G467" s="164"/>
+      <c r="H467" s="12"/>
+      <c r="I467" s="12" t="s">
         <v>1927</v>
       </c>
-      <c r="J425" s="12"/>
-      <c r="K425" s="12" t="s">
+      <c r="J467" s="12"/>
+      <c r="K467" s="12" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
-      <c r="A426" s="2"/>
-      <c r="B426" s="58" t="s">
+    <row r="468" spans="1:11">
+      <c r="A468" s="2"/>
+      <c r="B468" s="58" t="s">
         <v>2557</v>
       </c>
-      <c r="G426" s="164"/>
-      <c r="H426" s="12"/>
-      <c r="I426" s="12"/>
-      <c r="K426" s="12" t="s">
+      <c r="G468" s="164"/>
+      <c r="H468" s="12"/>
+      <c r="I468" s="12"/>
+      <c r="K468" s="12" t="s">
         <v>2565</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
-      <c r="A427" s="2"/>
-      <c r="B427" s="58" t="s">
+    <row r="469" spans="1:11">
+      <c r="A469" s="2"/>
+      <c r="B469" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="G427" s="164"/>
-      <c r="H427" s="12"/>
-      <c r="I427" s="12"/>
-      <c r="K427" s="12" t="s">
+      <c r="G469" s="164"/>
+      <c r="H469" s="12"/>
+      <c r="I469" s="12"/>
+      <c r="K469" s="12" t="s">
         <v>2566</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
-      <c r="A428" s="2"/>
-      <c r="B428" s="58" t="s">
+    <row r="470" spans="1:11">
+      <c r="A470" s="2"/>
+      <c r="B470" s="58" t="s">
         <v>2558</v>
       </c>
-      <c r="G428" s="164"/>
-      <c r="H428" s="12"/>
-      <c r="I428" s="12"/>
-      <c r="K428" s="12" t="s">
+      <c r="G470" s="164"/>
+      <c r="H470" s="12"/>
+      <c r="I470" s="12"/>
+      <c r="K470" s="12" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
-      <c r="A429" s="2"/>
-      <c r="B429" s="58" t="s">
+    <row r="471" spans="1:11">
+      <c r="A471" s="2"/>
+      <c r="B471" s="58" t="s">
         <v>2559</v>
       </c>
-      <c r="G429" s="164"/>
-      <c r="H429" s="12"/>
-      <c r="I429" s="12"/>
-    </row>
-    <row r="430" spans="1:11">
-      <c r="A430" s="2"/>
-      <c r="B430" s="58" t="s">
+      <c r="G471" s="164"/>
+      <c r="H471" s="12"/>
+      <c r="I471" s="12"/>
+    </row>
+    <row r="472" spans="1:11">
+      <c r="A472" s="2"/>
+      <c r="B472" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="G430" s="165"/>
-    </row>
-    <row r="431" spans="1:11">
-      <c r="A431" s="2"/>
-      <c r="B431" s="79"/>
-      <c r="G431" s="165"/>
-    </row>
-    <row r="432" spans="1:11">
-      <c r="A432" s="2"/>
-      <c r="B432" s="58" t="s">
+      <c r="G472" s="165"/>
+    </row>
+    <row r="473" spans="1:11">
+      <c r="A473" s="2"/>
+      <c r="B473" s="79"/>
+      <c r="G473" s="165"/>
+    </row>
+    <row r="474" spans="1:11">
+      <c r="A474" s="2"/>
+      <c r="B474" s="58" t="s">
         <v>2560</v>
       </c>
-      <c r="G432" s="165"/>
-    </row>
-    <row r="433" spans="1:7">
-      <c r="A433" s="2"/>
-      <c r="B433" s="58" t="s">
+      <c r="G474" s="165"/>
+    </row>
+    <row r="475" spans="1:11">
+      <c r="A475" s="2"/>
+      <c r="B475" s="58" t="s">
         <v>2561</v>
       </c>
-      <c r="G433" s="165"/>
-    </row>
-    <row r="434" spans="1:7">
-      <c r="A434" s="2"/>
-      <c r="B434" s="58" t="s">
+      <c r="G475" s="165"/>
+    </row>
+    <row r="476" spans="1:11">
+      <c r="A476" s="2"/>
+      <c r="B476" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="G434" s="165"/>
-    </row>
-    <row r="435" spans="1:7">
-      <c r="A435" s="2"/>
-      <c r="B435" s="79"/>
-      <c r="G435" s="165"/>
-    </row>
-    <row r="436" spans="1:7">
-      <c r="A436" s="2"/>
-      <c r="B436" s="58" t="s">
+      <c r="G476" s="165"/>
+    </row>
+    <row r="477" spans="1:11">
+      <c r="A477" s="2"/>
+      <c r="B477" s="79"/>
+      <c r="G477" s="165"/>
+    </row>
+    <row r="478" spans="1:11">
+      <c r="A478" s="2"/>
+      <c r="B478" s="58" t="s">
         <v>2555</v>
       </c>
-      <c r="G436" s="165"/>
-    </row>
-    <row r="437" spans="1:7">
-      <c r="A437" s="2"/>
-      <c r="B437" s="58" t="s">
+      <c r="G478" s="165"/>
+    </row>
+    <row r="479" spans="1:11">
+      <c r="A479" s="2"/>
+      <c r="B479" s="58" t="s">
         <v>2562</v>
       </c>
-      <c r="G437" s="165"/>
-    </row>
-    <row r="438" spans="1:7">
-      <c r="A438" s="2"/>
-      <c r="B438" s="58" t="s">
+      <c r="G479" s="165"/>
+    </row>
+    <row r="480" spans="1:11">
+      <c r="A480" s="2"/>
+      <c r="B480" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="G438" s="165"/>
-    </row>
-    <row r="439" spans="1:7">
-      <c r="A439" s="2"/>
-      <c r="B439" s="58" t="s">
+      <c r="G480" s="165"/>
+    </row>
+    <row r="481" spans="1:7">
+      <c r="A481" s="2"/>
+      <c r="B481" s="58" t="s">
         <v>712</v>
       </c>
-      <c r="G439" s="165"/>
-    </row>
-    <row r="440" spans="1:7">
-      <c r="A440" s="2"/>
-      <c r="B440" s="58" t="s">
+      <c r="G481" s="165"/>
+    </row>
+    <row r="482" spans="1:7">
+      <c r="A482" s="2"/>
+      <c r="B482" s="58" t="s">
         <v>2563</v>
       </c>
-      <c r="G440" s="165"/>
-    </row>
-    <row r="441" spans="1:7">
-      <c r="A441" s="2"/>
-      <c r="B441" s="58" t="s">
+      <c r="G482" s="165"/>
+    </row>
+    <row r="483" spans="1:7">
+      <c r="A483" s="2"/>
+      <c r="B483" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="G441" s="165"/>
-    </row>
-    <row r="442" spans="1:7">
-      <c r="A442" s="2"/>
-      <c r="B442" s="58" t="s">
+      <c r="G483" s="165"/>
+    </row>
+    <row r="484" spans="1:7">
+      <c r="A484" s="2"/>
+      <c r="B484" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="G442" s="165"/>
-    </row>
-    <row r="443" spans="1:7">
-      <c r="A443" s="2"/>
-      <c r="B443" s="58"/>
-      <c r="G443" s="165"/>
-    </row>
-    <row r="444" spans="1:7">
-      <c r="A444" s="2" t="s">
+      <c r="G484" s="165"/>
+    </row>
+    <row r="485" spans="1:7">
+      <c r="A485" s="2"/>
+      <c r="B485" s="58"/>
+      <c r="G485" s="165"/>
+    </row>
+    <row r="486" spans="1:7">
+      <c r="A486" s="2" t="s">
         <v>2571</v>
       </c>
-      <c r="B444" s="58"/>
-      <c r="G444" s="165"/>
-    </row>
-    <row r="445" spans="1:7">
-      <c r="A445" s="2"/>
-      <c r="B445" s="58"/>
-      <c r="G445" s="165"/>
-    </row>
-    <row r="446" spans="1:7">
-      <c r="A446" s="2"/>
-      <c r="B446" s="22" t="s">
+      <c r="B486" s="58"/>
+      <c r="G486" s="165"/>
+    </row>
+    <row r="487" spans="1:7">
+      <c r="A487" s="2"/>
+      <c r="B487" s="58"/>
+      <c r="G487" s="165"/>
+    </row>
+    <row r="488" spans="1:7">
+      <c r="A488" s="2"/>
+      <c r="B488" s="22" t="s">
         <v>2572</v>
       </c>
-      <c r="C446" s="18"/>
-      <c r="D446" s="18"/>
-      <c r="E446" s="18"/>
-      <c r="F446" s="18"/>
-      <c r="G446" s="176"/>
-    </row>
-    <row r="447" spans="1:7">
-      <c r="A447" s="2"/>
-      <c r="B447" s="22" t="s">
+      <c r="C488" s="18"/>
+      <c r="D488" s="18"/>
+      <c r="E488" s="18"/>
+      <c r="F488" s="18"/>
+      <c r="G488" s="176"/>
+    </row>
+    <row r="489" spans="1:7">
+      <c r="A489" s="2"/>
+      <c r="B489" s="22" t="s">
         <v>2573</v>
       </c>
-      <c r="C447" s="18"/>
-      <c r="D447" s="18"/>
-      <c r="E447" s="18"/>
-      <c r="F447" s="18"/>
-      <c r="G447" s="176"/>
-    </row>
-    <row r="448" spans="1:7">
-      <c r="A448" s="2"/>
-      <c r="B448" s="23"/>
-      <c r="C448" s="18"/>
-      <c r="D448" s="18"/>
-      <c r="E448" s="18"/>
-      <c r="F448" s="18"/>
-      <c r="G448" s="176"/>
-    </row>
-    <row r="449" spans="1:7">
-      <c r="A449" s="2"/>
-      <c r="B449" s="22" t="s">
+      <c r="C489" s="18"/>
+      <c r="D489" s="18"/>
+      <c r="E489" s="18"/>
+      <c r="F489" s="18"/>
+      <c r="G489" s="176"/>
+    </row>
+    <row r="490" spans="1:7">
+      <c r="A490" s="2"/>
+      <c r="B490" s="23"/>
+      <c r="C490" s="18"/>
+      <c r="D490" s="18"/>
+      <c r="E490" s="18"/>
+      <c r="F490" s="18"/>
+      <c r="G490" s="176"/>
+    </row>
+    <row r="491" spans="1:7">
+      <c r="A491" s="2"/>
+      <c r="B491" s="22" t="s">
         <v>2574</v>
       </c>
-      <c r="C449" s="18"/>
-      <c r="D449" s="18"/>
-      <c r="E449" s="18"/>
-      <c r="F449" s="18"/>
-      <c r="G449" s="176"/>
-    </row>
-    <row r="450" spans="1:7">
-      <c r="A450" s="2"/>
-      <c r="B450" s="23"/>
-      <c r="C450" s="18"/>
-      <c r="D450" s="18"/>
-      <c r="E450" s="18"/>
-      <c r="F450" s="18"/>
-      <c r="G450" s="176"/>
-    </row>
-    <row r="451" spans="1:7">
-      <c r="A451" s="2"/>
-      <c r="B451" s="22" t="s">
+      <c r="C491" s="18"/>
+      <c r="D491" s="18"/>
+      <c r="E491" s="18"/>
+      <c r="F491" s="18"/>
+      <c r="G491" s="176"/>
+    </row>
+    <row r="492" spans="1:7">
+      <c r="A492" s="2"/>
+      <c r="B492" s="23"/>
+      <c r="C492" s="18"/>
+      <c r="D492" s="18"/>
+      <c r="E492" s="18"/>
+      <c r="F492" s="18"/>
+      <c r="G492" s="176"/>
+    </row>
+    <row r="493" spans="1:7">
+      <c r="A493" s="2"/>
+      <c r="B493" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="C451" s="18"/>
-      <c r="D451" s="18"/>
-      <c r="E451" s="18"/>
-      <c r="F451" s="18"/>
-      <c r="G451" s="176"/>
-    </row>
-    <row r="452" spans="1:7">
-      <c r="A452" s="2"/>
-      <c r="B452" s="23"/>
-      <c r="C452" s="18"/>
-      <c r="D452" s="18"/>
-      <c r="E452" s="18"/>
-      <c r="F452" s="18"/>
-      <c r="G452" s="176"/>
-    </row>
-    <row r="453" spans="1:7">
-      <c r="A453" s="2"/>
-      <c r="B453" s="22" t="s">
+      <c r="C493" s="18"/>
+      <c r="D493" s="18"/>
+      <c r="E493" s="18"/>
+      <c r="F493" s="18"/>
+      <c r="G493" s="176"/>
+    </row>
+    <row r="494" spans="1:7">
+      <c r="A494" s="2"/>
+      <c r="B494" s="23"/>
+      <c r="C494" s="18"/>
+      <c r="D494" s="18"/>
+      <c r="E494" s="18"/>
+      <c r="F494" s="18"/>
+      <c r="G494" s="176"/>
+    </row>
+    <row r="495" spans="1:7">
+      <c r="A495" s="2"/>
+      <c r="B495" s="22" t="s">
         <v>2575</v>
       </c>
-      <c r="C453" s="18"/>
-      <c r="D453" s="18"/>
-      <c r="E453" s="18"/>
-      <c r="F453" s="18"/>
-      <c r="G453" s="176"/>
-    </row>
-    <row r="454" spans="1:7">
-      <c r="A454" s="2"/>
-      <c r="B454" s="22" t="s">
+      <c r="C495" s="18"/>
+      <c r="D495" s="18"/>
+      <c r="E495" s="18"/>
+      <c r="F495" s="18"/>
+      <c r="G495" s="176"/>
+    </row>
+    <row r="496" spans="1:7">
+      <c r="A496" s="2"/>
+      <c r="B496" s="22" t="s">
         <v>2576</v>
       </c>
-      <c r="C454" s="18"/>
-      <c r="D454" s="18"/>
-      <c r="E454" s="18"/>
-      <c r="F454" s="18"/>
-      <c r="G454" s="176"/>
-    </row>
-    <row r="455" spans="1:7">
-      <c r="A455" s="2"/>
-      <c r="B455" s="22" t="s">
+      <c r="C496" s="18"/>
+      <c r="D496" s="18"/>
+      <c r="E496" s="18"/>
+      <c r="F496" s="18"/>
+      <c r="G496" s="176"/>
+    </row>
+    <row r="497" spans="1:12">
+      <c r="A497" s="2"/>
+      <c r="B497" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="C455" s="18"/>
-      <c r="D455" s="18"/>
-      <c r="E455" s="18"/>
-      <c r="F455" s="18"/>
-      <c r="G455" s="176"/>
-    </row>
-    <row r="456" spans="1:7">
-      <c r="A456" s="2"/>
-      <c r="B456" s="23"/>
-      <c r="C456" s="18"/>
-      <c r="D456" s="18"/>
-      <c r="E456" s="18"/>
-      <c r="F456" s="18"/>
-      <c r="G456" s="176"/>
-    </row>
-    <row r="457" spans="1:7">
-      <c r="A457" s="2"/>
-      <c r="B457" s="22" t="s">
+      <c r="C497" s="18"/>
+      <c r="D497" s="18"/>
+      <c r="E497" s="18"/>
+      <c r="F497" s="18"/>
+      <c r="G497" s="176"/>
+    </row>
+    <row r="498" spans="1:12">
+      <c r="A498" s="2"/>
+      <c r="B498" s="23"/>
+      <c r="C498" s="18"/>
+      <c r="D498" s="18"/>
+      <c r="E498" s="18"/>
+      <c r="F498" s="18"/>
+      <c r="G498" s="176"/>
+    </row>
+    <row r="499" spans="1:12">
+      <c r="A499" s="2"/>
+      <c r="B499" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="C457" s="18"/>
-      <c r="D457" s="18"/>
-      <c r="E457" s="18"/>
-      <c r="F457" s="18"/>
-      <c r="G457" s="176"/>
-    </row>
-    <row r="458" spans="1:7">
-      <c r="A458" s="2"/>
-      <c r="B458" s="22" t="s">
+      <c r="C499" s="18"/>
+      <c r="D499" s="18"/>
+      <c r="E499" s="18"/>
+      <c r="F499" s="18"/>
+      <c r="G499" s="176"/>
+    </row>
+    <row r="500" spans="1:12">
+      <c r="A500" s="2"/>
+      <c r="B500" s="22" t="s">
         <v>2577</v>
       </c>
-      <c r="C458" s="18"/>
-      <c r="D458" s="18"/>
-      <c r="E458" s="18"/>
-      <c r="F458" s="18"/>
-      <c r="G458" s="177" t="s">
+      <c r="C500" s="18"/>
+      <c r="D500" s="18"/>
+      <c r="E500" s="18"/>
+      <c r="F500" s="18"/>
+      <c r="G500" s="177" t="s">
         <v>2578</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
-      <c r="A459" s="2"/>
-      <c r="B459" s="22" t="s">
+    <row r="501" spans="1:12">
+      <c r="A501" s="2"/>
+      <c r="B501" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="C459" s="18"/>
-      <c r="D459" s="18"/>
-      <c r="E459" s="18"/>
-      <c r="F459" s="18"/>
-      <c r="G459" s="176"/>
-    </row>
-    <row r="460" spans="1:7">
-      <c r="A460" s="2"/>
-      <c r="B460" s="22" t="s">
+      <c r="C501" s="18"/>
+      <c r="D501" s="18"/>
+      <c r="E501" s="18"/>
+      <c r="F501" s="18"/>
+      <c r="G501" s="176"/>
+    </row>
+    <row r="502" spans="1:12">
+      <c r="A502" s="2"/>
+      <c r="B502" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C460" s="18"/>
-      <c r="D460" s="18"/>
-      <c r="E460" s="18"/>
-      <c r="F460" s="18"/>
-      <c r="G460" s="176"/>
-    </row>
-    <row r="461" spans="1:7">
-      <c r="A461" s="2"/>
-      <c r="G461" s="10"/>
-    </row>
-    <row r="462" spans="1:7">
-      <c r="A462" s="2"/>
-      <c r="G462" s="10"/>
-    </row>
-    <row r="463" spans="1:7">
-      <c r="A463" s="2" t="s">
+      <c r="C502" s="18"/>
+      <c r="D502" s="18"/>
+      <c r="E502" s="18"/>
+      <c r="F502" s="18"/>
+      <c r="G502" s="176"/>
+    </row>
+    <row r="503" spans="1:12">
+      <c r="A503" s="2"/>
+      <c r="G503" s="10"/>
+    </row>
+    <row r="504" spans="1:12">
+      <c r="A504" s="2"/>
+      <c r="G504" s="10"/>
+    </row>
+    <row r="505" spans="1:12">
+      <c r="A505" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="G463" s="10"/>
-    </row>
-    <row r="464" spans="1:7">
-      <c r="A464" s="6" t="s">
+      <c r="G505" s="10"/>
+    </row>
+    <row r="506" spans="1:12">
+      <c r="A506" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="465" spans="2:12">
-      <c r="B465" s="3">
+    <row r="507" spans="1:12">
+      <c r="B507" s="3">
         <v>1</v>
       </c>
-      <c r="C465" s="3" t="s">
+      <c r="C507" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D465" s="3" t="s">
+      <c r="D507" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L465" s="3" t="s">
+      <c r="L507" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="466" spans="2:12">
-      <c r="B466" s="3">
+    <row r="508" spans="1:12">
+      <c r="B508" s="3">
         <v>2</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L466" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="467" spans="2:12">
-      <c r="B467" s="3">
-        <v>3</v>
-      </c>
-      <c r="C467" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L467" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="468" spans="2:12">
-      <c r="B468" s="3">
-        <v>4</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L468" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="469" spans="2:12">
-      <c r="B469" s="3">
-        <v>5</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L469" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="470" spans="2:12">
-      <c r="B470" s="3">
-        <v>6</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D470" s="178" t="s">
-        <v>229</v>
-      </c>
-      <c r="E470" s="178"/>
-      <c r="F470" s="178"/>
-      <c r="G470" s="178"/>
-      <c r="H470" s="178"/>
-      <c r="I470" s="178"/>
-      <c r="J470" s="178"/>
-      <c r="K470" s="178"/>
-      <c r="L470" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="471" spans="2:12">
-      <c r="B471" s="3">
-        <v>7</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L471" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="472" spans="2:12">
-      <c r="B472" s="3">
-        <v>8</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L472" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="473" spans="2:12">
-      <c r="B473" s="3">
-        <v>9</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="L473" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="474" spans="2:12">
-      <c r="B474" s="3">
-        <v>10</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L474" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="475" spans="2:12">
-      <c r="B475" s="3">
-        <v>11</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L475" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="476" spans="2:12">
-      <c r="B476" s="3">
-        <v>12</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D476" s="178" t="s">
-        <v>242</v>
-      </c>
-      <c r="E476" s="178"/>
-      <c r="F476" s="178"/>
-      <c r="G476" s="178"/>
-      <c r="H476" s="178"/>
-      <c r="I476" s="178"/>
-      <c r="J476" s="178"/>
-      <c r="K476" s="178"/>
-      <c r="L476" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="477" spans="2:12">
-      <c r="B477" s="3">
-        <v>13</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L477" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="478" spans="2:12">
-      <c r="B478" s="3">
-        <v>14</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L478" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="479" spans="2:12">
-      <c r="B479" s="3">
-        <v>15</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="L479" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="480" spans="2:12">
-      <c r="B480" s="3">
-        <v>16</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L480" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="481" spans="1:12">
-      <c r="B481" s="3">
-        <v>17</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="L481" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="482" spans="1:12">
-      <c r="B482" s="3">
-        <v>18</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L482" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="483" spans="1:12">
-      <c r="B483" s="3">
-        <v>19</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L483" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="484" spans="1:12">
-      <c r="B484" s="3">
-        <v>20</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="L484" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="485" spans="1:12">
-      <c r="B485" s="3">
-        <v>21</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="L485" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="486" spans="1:12">
-      <c r="B486" s="3">
-        <v>22</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="L486" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="487" spans="1:12">
-      <c r="B487" s="3">
-        <v>23</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L487" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12">
-      <c r="D488" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="490" spans="1:12">
-      <c r="A490" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="491" spans="1:12">
-      <c r="B491" s="3">
-        <v>1</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D491" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12">
-      <c r="B492" s="3">
-        <v>2</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D492" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="493" spans="1:12">
-      <c r="B493" s="3">
-        <v>3</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="494" spans="1:12">
-      <c r="B494" s="3">
-        <v>4</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D494" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="495" spans="1:12">
-      <c r="B495" s="3">
-        <v>5</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="496" spans="1:12">
-      <c r="B496" s="3">
-        <v>6</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="497" spans="2:5">
-      <c r="B497" s="3">
-        <v>7</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E497" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="498" spans="2:5">
-      <c r="B498" s="3">
-        <v>8</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="499" spans="2:5">
-      <c r="B499" s="3">
-        <v>9</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E499" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="500" spans="2:5">
-      <c r="B500" s="3">
-        <v>10</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D500" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E500" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="501" spans="2:5">
-      <c r="B501" s="3">
-        <v>11</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="502" spans="2:5">
-      <c r="B502" s="3">
-        <v>12</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D502" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="503" spans="2:5">
-      <c r="B503" s="3">
-        <v>13</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D503" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E503" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="504" spans="2:5">
-      <c r="B504" s="3">
-        <v>14</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="505" spans="2:5">
-      <c r="B505" s="3">
-        <v>15</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="506" spans="2:5">
-      <c r="B506" s="3">
-        <v>16</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D506" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="507" spans="2:5">
-      <c r="B507" s="3">
-        <v>17</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="508" spans="2:5">
-      <c r="B508" s="3">
-        <v>18</v>
       </c>
       <c r="C508" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D508" s="3" t="s">
+      <c r="L508" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="509" spans="2:5">
+    <row r="509" spans="1:12">
       <c r="B509" s="3">
+        <v>3</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L509" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12">
+      <c r="B510" s="3">
+        <v>4</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="L510" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12">
+      <c r="B511" s="3">
+        <v>5</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L511" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12">
+      <c r="B512" s="3">
+        <v>6</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D512" s="186" t="s">
+        <v>229</v>
+      </c>
+      <c r="E512" s="186"/>
+      <c r="F512" s="186"/>
+      <c r="G512" s="186"/>
+      <c r="H512" s="186"/>
+      <c r="I512" s="186"/>
+      <c r="J512" s="186"/>
+      <c r="K512" s="186"/>
+      <c r="L512" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="513" spans="2:12">
+      <c r="B513" s="3">
+        <v>7</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L513" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="514" spans="2:12">
+      <c r="B514" s="3">
+        <v>8</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L514" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="515" spans="2:12">
+      <c r="B515" s="3">
+        <v>9</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L515" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="516" spans="2:12">
+      <c r="B516" s="3">
+        <v>10</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L516" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="517" spans="2:12">
+      <c r="B517" s="3">
+        <v>11</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L517" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="518" spans="2:12">
+      <c r="B518" s="3">
+        <v>12</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D518" s="186" t="s">
+        <v>242</v>
+      </c>
+      <c r="E518" s="186"/>
+      <c r="F518" s="186"/>
+      <c r="G518" s="186"/>
+      <c r="H518" s="186"/>
+      <c r="I518" s="186"/>
+      <c r="J518" s="186"/>
+      <c r="K518" s="186"/>
+      <c r="L518" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="519" spans="2:12">
+      <c r="B519" s="3">
+        <v>13</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L519" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="520" spans="2:12">
+      <c r="B520" s="3">
+        <v>14</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L520" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="521" spans="2:12">
+      <c r="B521" s="3">
+        <v>15</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L521" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="522" spans="2:12">
+      <c r="B522" s="3">
+        <v>16</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L522" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="523" spans="2:12">
+      <c r="B523" s="3">
+        <v>17</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L523" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="524" spans="2:12">
+      <c r="B524" s="3">
+        <v>18</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L524" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="525" spans="2:12">
+      <c r="B525" s="3">
         <v>19</v>
       </c>
-      <c r="C509" s="3" t="s">
+      <c r="C525" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L525" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="526" spans="2:12">
+      <c r="B526" s="3">
+        <v>20</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L526" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="527" spans="2:12">
+      <c r="B527" s="3">
+        <v>21</v>
+      </c>
+      <c r="C527" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D509" s="3" t="s">
+      <c r="L527" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="510" spans="2:5">
-      <c r="B510" s="3">
-        <v>20</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D510" s="3" t="s">
+    <row r="528" spans="2:12">
+      <c r="B528" s="3">
+        <v>22</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L528" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="511" spans="2:5">
-      <c r="B511" s="3">
-        <v>21</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D511" s="3" t="s">
+    <row r="529" spans="1:12">
+      <c r="B529" s="3">
+        <v>23</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L529" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="512" spans="2:5">
-      <c r="B512" s="3">
-        <v>22</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D512" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="513" spans="2:5">
-      <c r="B513" s="3">
-        <v>23</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D513" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="514" spans="2:5">
-      <c r="B514" s="3">
-        <v>24</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D514" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E514" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="515" spans="2:5">
-      <c r="B515" s="3">
-        <v>25</v>
-      </c>
-      <c r="C515" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D515" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="516" spans="2:5">
-      <c r="B516" s="3">
-        <v>26</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D516" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E516" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="517" spans="2:5">
-      <c r="B517" s="3">
-        <v>27</v>
-      </c>
-      <c r="C517" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="518" spans="2:5">
-      <c r="B518" s="3">
-        <v>28</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E518" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="519" spans="2:5">
-      <c r="B519" s="3">
-        <v>29</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="520" spans="2:5">
-      <c r="B520" s="3">
-        <v>30</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D520" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="521" spans="2:5">
-      <c r="B521" s="3">
-        <v>31</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D521" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="522" spans="2:5">
-      <c r="B522" s="3">
-        <v>32</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D522" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="523" spans="2:5">
-      <c r="B523" s="3">
-        <v>33</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="524" spans="2:5">
-      <c r="B524" s="3">
-        <v>34</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D524" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="525" spans="2:5">
-      <c r="B525" s="3">
-        <v>35</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D525" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="526" spans="2:5">
-      <c r="B526" s="3">
-        <v>36</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="527" spans="2:5">
-      <c r="B527" s="3">
-        <v>37</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D527" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="528" spans="2:5">
-      <c r="B528" s="3">
-        <v>38</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D528" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
-      <c r="B529" s="3">
-        <v>39</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
-      <c r="B530" s="3">
-        <v>40</v>
-      </c>
-      <c r="C530" s="3" t="s">
-        <v>266</v>
-      </c>
+    <row r="530" spans="1:12">
       <c r="D530" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E530" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5">
-      <c r="B531" s="3">
-        <v>41</v>
-      </c>
-      <c r="C531" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5">
-      <c r="B532" s="3">
-        <v>42</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D532" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12">
+      <c r="A532" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12">
       <c r="B533" s="3">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="D533" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:12">
       <c r="B534" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D534" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:12">
       <c r="B535" s="3">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E535" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12">
       <c r="B536" s="3">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:12">
       <c r="B537" s="3">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D537" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:12">
       <c r="B538" s="3">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="D538" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
+      <c r="B539" s="3">
+        <v>7</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D539" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E538" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5">
-      <c r="B539" s="3">
+      <c r="E539" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="B540" s="3">
+        <v>8</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D540" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C539" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D539" s="3" t="s">
+    </row>
+    <row r="541" spans="1:12">
+      <c r="B541" s="3">
+        <v>9</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="B542" s="3">
+        <v>10</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
+      <c r="B543" s="3">
+        <v>11</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D543" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
-      <c r="B540" s="3">
-        <v>50</v>
-      </c>
-      <c r="C540" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D540" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E540" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5">
-      <c r="A543" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:12">
       <c r="B544" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C544" s="3" t="s">
         <v>220</v>
@@ -14296,21 +14262,24 @@
     </row>
     <row r="545" spans="2:5">
       <c r="B545" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="546" spans="2:5">
       <c r="B546" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D546" s="3" t="s">
         <v>49</v>
@@ -14318,10 +14287,10 @@
     </row>
     <row r="547" spans="2:5">
       <c r="B547" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D547" s="3" t="s">
         <v>49</v>
@@ -14329,38 +14298,32 @@
     </row>
     <row r="548" spans="2:5">
       <c r="B548" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E548" s="3" t="s">
-        <v>295</v>
+        <v>49</v>
       </c>
     </row>
     <row r="549" spans="2:5">
       <c r="B549" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E549" s="3" t="s">
-        <v>296</v>
+        <v>49</v>
       </c>
     </row>
     <row r="550" spans="2:5">
       <c r="B550" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D550" s="3" t="s">
         <v>49</v>
@@ -14368,24 +14331,21 @@
     </row>
     <row r="551" spans="2:5">
       <c r="B551" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E551" s="3" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
     </row>
     <row r="552" spans="2:5">
       <c r="B552" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D552" s="3" t="s">
         <v>49</v>
@@ -14393,85 +14353,82 @@
     </row>
     <row r="553" spans="2:5">
       <c r="B553" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="554" spans="2:5">
       <c r="B554" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="555" spans="2:5">
       <c r="B555" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E555" s="3" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
     </row>
     <row r="556" spans="2:5">
       <c r="B556" s="3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D556" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E556" s="3" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="557" spans="2:5">
       <c r="B557" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="558" spans="2:5">
       <c r="B558" s="3">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>303</v>
+        <v>98</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
     </row>
     <row r="559" spans="2:5">
       <c r="B559" s="3">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D559" s="3" t="s">
         <v>49</v>
@@ -14479,21 +14436,24 @@
     </row>
     <row r="560" spans="2:5">
       <c r="B560" s="3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="D560" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="E560" s="3" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="561" spans="2:5">
       <c r="B561" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="D561" s="3" t="s">
         <v>49</v>
@@ -14501,21 +14461,21 @@
     </row>
     <row r="562" spans="2:5">
       <c r="B562" s="3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="563" spans="2:5">
       <c r="B563" s="3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="D563" s="3" t="s">
         <v>49</v>
@@ -14523,10 +14483,10 @@
     </row>
     <row r="564" spans="2:5">
       <c r="B564" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D564" s="3" t="s">
         <v>49</v>
@@ -14534,21 +14494,21 @@
     </row>
     <row r="565" spans="2:5">
       <c r="B565" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
     </row>
     <row r="566" spans="2:5">
       <c r="B566" s="3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D566" s="3" t="s">
         <v>49</v>
@@ -14556,10 +14516,10 @@
     </row>
     <row r="567" spans="2:5">
       <c r="B567" s="3">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D567" s="3" t="s">
         <v>49</v>
@@ -14567,46 +14527,43 @@
     </row>
     <row r="568" spans="2:5">
       <c r="B568" s="3">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="569" spans="2:5">
       <c r="B569" s="3">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E569" s="3" t="s">
-        <v>308</v>
+        <v>49</v>
       </c>
     </row>
     <row r="570" spans="2:5">
       <c r="B570" s="3">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="571" spans="2:5">
       <c r="B571" s="3">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D571" s="3" t="s">
         <v>49</v>
@@ -14614,32 +14571,35 @@
     </row>
     <row r="572" spans="2:5">
       <c r="B572" s="3">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="573" spans="2:5">
       <c r="B573" s="3">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="574" spans="2:5">
       <c r="B574" s="3">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="D574" s="3" t="s">
         <v>98</v>
@@ -14647,10 +14607,10 @@
     </row>
     <row r="575" spans="2:5">
       <c r="B575" s="3">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D575" s="3" t="s">
         <v>98</v>
@@ -14658,62 +14618,68 @@
     </row>
     <row r="576" spans="2:5">
       <c r="B576" s="3">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="D576" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="577" spans="2:5">
+    <row r="577" spans="1:5">
       <c r="B577" s="3">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="578" spans="2:5">
+        <v>98</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
       <c r="B578" s="3">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="D578" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="579" spans="2:5">
+    <row r="579" spans="1:5">
       <c r="B579" s="3">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D579" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="580" spans="2:5">
+    <row r="580" spans="1:5">
       <c r="B580" s="3">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="D580" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="B581" s="3">
         <v>49</v>
-      </c>
-    </row>
-    <row r="581" spans="2:5">
-      <c r="B581" s="3">
-        <v>38</v>
       </c>
       <c r="C581" s="3" t="s">
         <v>255</v>
@@ -14722,299 +14688,757 @@
         <v>49</v>
       </c>
     </row>
-    <row r="582" spans="2:5">
+    <row r="582" spans="1:5">
       <c r="B582" s="3">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="D582" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="583" spans="2:5">
-      <c r="B583" s="3">
-        <v>40</v>
-      </c>
-      <c r="C583" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D583" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="584" spans="2:5">
-      <c r="B584" s="3">
-        <v>41</v>
-      </c>
-      <c r="C584" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D584" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E584" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="585" spans="2:5">
-      <c r="B585" s="3">
-        <v>42</v>
-      </c>
-      <c r="C585" s="3" t="s">
+      <c r="E582" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="B586" s="3">
+        <v>1</v>
+      </c>
+      <c r="C586" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="D585" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="586" spans="2:5">
-      <c r="B586" s="3">
-        <v>43</v>
-      </c>
-      <c r="C586" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="D586" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="587" spans="2:5">
+    <row r="587" spans="1:5">
       <c r="B587" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="D587" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="B588" s="3">
+        <v>3</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="B589" s="3">
+        <v>4</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="B590" s="3">
+        <v>5</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D590" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="588" spans="2:5">
-      <c r="B588" s="3">
-        <v>45</v>
-      </c>
-      <c r="C588" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D588" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E588" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="589" spans="2:5">
-      <c r="B589" s="7">
-        <v>46</v>
-      </c>
-      <c r="C589" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D589" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E589" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="590" spans="2:5">
-      <c r="B590" s="3">
-        <v>47</v>
-      </c>
-      <c r="C590" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D590" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="591" spans="2:5">
+      <c r="E590" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
       <c r="B591" s="3">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="D591" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E591" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="592" spans="2:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
       <c r="B592" s="3">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D592" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="2:5">
       <c r="B593" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="D593" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E593" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="595" spans="1:5">
-      <c r="A595" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="597" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="594" spans="2:5">
+      <c r="B594" s="3">
+        <v>9</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="595" spans="2:5">
+      <c r="B595" s="3">
+        <v>10</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="596" spans="2:5">
+      <c r="B596" s="3">
+        <v>11</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="597" spans="2:5">
       <c r="B597" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>395</v>
+        <v>299</v>
       </c>
       <c r="D597" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E597" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="598" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="598" spans="2:5">
       <c r="B598" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>396</v>
+        <v>275</v>
       </c>
       <c r="D598" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="599" spans="1:5">
+      <c r="E598" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="599" spans="2:5">
       <c r="B599" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>397</v>
+        <v>214</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E599" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="600" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="600" spans="2:5">
       <c r="B600" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="601" spans="1:5">
+        <v>303</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="601" spans="2:5">
       <c r="B601" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>396</v>
+        <v>220</v>
       </c>
       <c r="D601" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="2:5">
       <c r="B602" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>396</v>
+        <v>305</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E602" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="603" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="603" spans="2:5">
       <c r="B603" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>395</v>
+        <v>211</v>
       </c>
       <c r="D603" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="2:5">
       <c r="B604" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>399</v>
+        <v>230</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E604" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="605" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="605" spans="2:5">
       <c r="B605" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="D605" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="2:5">
       <c r="B606" s="3">
+        <v>21</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="607" spans="2:5">
+      <c r="B607" s="3">
+        <v>22</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="608" spans="2:5">
+      <c r="B608" s="3">
+        <v>23</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="609" spans="2:5">
+      <c r="B609" s="3">
+        <v>24</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="610" spans="2:5">
+      <c r="B610" s="3">
+        <v>25</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="611" spans="2:5">
+      <c r="B611" s="3">
+        <v>26</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="612" spans="2:5">
+      <c r="B612" s="3">
+        <v>27</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="613" spans="2:5">
+      <c r="B613" s="3">
+        <v>28</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="614" spans="2:5">
+      <c r="B614" s="3">
+        <v>29</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="615" spans="2:5">
+      <c r="B615" s="3">
+        <v>30</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="616" spans="2:5">
+      <c r="B616" s="3">
+        <v>31</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="617" spans="2:5">
+      <c r="B617" s="3">
+        <v>32</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="618" spans="2:5">
+      <c r="B618" s="3">
+        <v>33</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="619" spans="2:5">
+      <c r="B619" s="3">
+        <v>34</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="620" spans="2:5">
+      <c r="B620" s="3">
+        <v>35</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="621" spans="2:5">
+      <c r="B621" s="3">
+        <v>36</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="622" spans="2:5">
+      <c r="B622" s="3">
+        <v>37</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="623" spans="2:5">
+      <c r="B623" s="3">
+        <v>38</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="624" spans="2:5">
+      <c r="B624" s="3">
+        <v>39</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="B625" s="3">
+        <v>40</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="B626" s="3">
+        <v>41</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="B627" s="3">
+        <v>42</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="B628" s="3">
+        <v>43</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="B629" s="3">
+        <v>44</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="B630" s="3">
+        <v>45</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="B631" s="7">
+        <v>46</v>
+      </c>
+      <c r="C631" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D631" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E631" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="B632" s="3">
+        <v>47</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="B633" s="3">
+        <v>48</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="B634" s="3">
+        <v>49</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="B635" s="3">
+        <v>50</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="B639" s="3">
+        <v>1</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="B640" s="3">
+        <v>2</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="641" spans="2:5">
+      <c r="B641" s="3">
+        <v>3</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="642" spans="2:5">
+      <c r="B642" s="3">
+        <v>4</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="643" spans="2:5">
+      <c r="B643" s="3">
+        <v>5</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="644" spans="2:5">
+      <c r="B644" s="3">
+        <v>6</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="645" spans="2:5">
+      <c r="B645" s="3">
+        <v>7</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="646" spans="2:5">
+      <c r="B646" s="3">
+        <v>8</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="647" spans="2:5">
+      <c r="B647" s="3">
+        <v>9</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="648" spans="2:5">
+      <c r="B648" s="3">
         <v>10</v>
       </c>
-      <c r="C606" s="3" t="s">
+      <c r="C648" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D606" s="3" t="s">
+      <c r="D648" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E606" s="3" t="s">
+      <c r="E648" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
-      <c r="B607" s="3">
+    <row r="649" spans="2:5">
+      <c r="B649" s="3">
         <v>11</v>
       </c>
-      <c r="C607" s="3" t="s">
+      <c r="C649" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D607" s="3" t="s">
+      <c r="D649" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="609" spans="3:3"/>
+    <row r="651" spans="2:5"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D470:K470"/>
-    <mergeCell ref="D476:K476"/>
+    <mergeCell ref="D512:K512"/>
+    <mergeCell ref="D518:K518"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F179" r:id="rId1"/>
@@ -17115,17 +17539,17 @@
     </row>
     <row r="319" spans="1:16">
       <c r="D319" s="26"/>
-      <c r="E319" s="182" t="s">
+      <c r="E319" s="181" t="s">
         <v>2593</v>
       </c>
-      <c r="F319" s="183"/>
-      <c r="G319" s="183"/>
-      <c r="H319" s="183"/>
+      <c r="F319" s="182"/>
+      <c r="G319" s="182"/>
+      <c r="H319" s="182"/>
       <c r="I319" s="18"/>
-      <c r="J319" s="183" t="s">
+      <c r="J319" s="182" t="s">
         <v>1639</v>
       </c>
-      <c r="K319" s="183"/>
+      <c r="K319" s="182"/>
       <c r="L319" s="26"/>
       <c r="M319" s="26"/>
       <c r="N319" s="18"/>
@@ -34522,10 +34946,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q501"/>
+  <dimension ref="A1:Q513"/>
   <sheetViews>
-    <sheetView topLeftCell="A511" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M342" sqref="M342"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O315" sqref="O315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36278,7 +36702,7 @@
       <c r="H320" s="18"/>
       <c r="I320" s="18"/>
     </row>
-    <row r="321" spans="2:9">
+    <row r="321" spans="3:9">
       <c r="E321" s="18"/>
       <c r="F321" s="18"/>
       <c r="G321" s="18" t="s">
@@ -36287,7 +36711,7 @@
       <c r="H321" s="18"/>
       <c r="I321" s="18"/>
     </row>
-    <row r="322" spans="2:9">
+    <row r="322" spans="3:9">
       <c r="E322" s="18"/>
       <c r="F322" s="18" t="s">
         <v>45</v>
@@ -36296,7 +36720,7 @@
       <c r="H322" s="18"/>
       <c r="I322" s="18"/>
     </row>
-    <row r="323" spans="2:9">
+    <row r="323" spans="3:9">
       <c r="E323" s="18" t="s">
         <v>45</v>
       </c>
@@ -36305,626 +36729,539 @@
       <c r="H323" s="18"/>
       <c r="I323" s="18"/>
     </row>
-    <row r="324" spans="2:9">
+    <row r="324" spans="3:9">
       <c r="E324" s="18"/>
       <c r="F324" s="18"/>
       <c r="G324" s="18"/>
       <c r="H324" s="18"/>
       <c r="I324" s="18"/>
     </row>
-    <row r="325" spans="2:9">
-      <c r="C325" t="s">
+    <row r="325" spans="3:9">
+      <c r="E325" s="18"/>
+      <c r="F325" s="18"/>
+      <c r="G325" s="18"/>
+      <c r="H325" s="18"/>
+      <c r="I325" s="18"/>
+    </row>
+    <row r="326" spans="3:9">
+      <c r="E326" s="18"/>
+      <c r="F326" s="18"/>
+      <c r="G326" s="18"/>
+      <c r="H326" s="18"/>
+      <c r="I326" s="18"/>
+    </row>
+    <row r="327" spans="3:9">
+      <c r="C327" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E327" s="18"/>
+      <c r="F327" s="18"/>
+      <c r="G327" s="18"/>
+      <c r="H327" s="18"/>
+      <c r="I327" s="18"/>
+    </row>
+    <row r="328" spans="3:9">
+      <c r="E328" s="18"/>
+      <c r="F328" s="18"/>
+      <c r="G328" s="18"/>
+      <c r="H328" s="18"/>
+      <c r="I328" s="18"/>
+    </row>
+    <row r="329" spans="3:9">
+      <c r="E329" s="18"/>
+      <c r="F329" s="18"/>
+      <c r="G329" s="18"/>
+      <c r="H329" s="18"/>
+      <c r="I329" s="18"/>
+    </row>
+    <row r="330" spans="3:9">
+      <c r="E330" s="18"/>
+      <c r="F330" s="18"/>
+      <c r="G330" s="18"/>
+      <c r="H330" s="18"/>
+      <c r="I330" s="18"/>
+    </row>
+    <row r="331" spans="3:9">
+      <c r="E331" s="18"/>
+      <c r="F331" s="18"/>
+      <c r="G331" s="18"/>
+      <c r="H331" s="18"/>
+      <c r="I331" s="18"/>
+    </row>
+    <row r="332" spans="3:9">
+      <c r="E332" s="18"/>
+      <c r="F332" s="18"/>
+      <c r="G332" s="18"/>
+      <c r="H332" s="18"/>
+      <c r="I332" s="18"/>
+    </row>
+    <row r="333" spans="3:9">
+      <c r="E333" s="18"/>
+      <c r="F333" s="18"/>
+      <c r="G333" s="18"/>
+      <c r="H333" s="18"/>
+      <c r="I333" s="18"/>
+    </row>
+    <row r="334" spans="3:9">
+      <c r="E334" s="18"/>
+      <c r="F334" s="18"/>
+      <c r="G334" s="18"/>
+      <c r="H334" s="18"/>
+      <c r="I334" s="18"/>
+    </row>
+    <row r="335" spans="3:9">
+      <c r="E335" s="18"/>
+      <c r="F335" s="18"/>
+      <c r="G335" s="18"/>
+      <c r="H335" s="18"/>
+      <c r="I335" s="18"/>
+    </row>
+    <row r="336" spans="3:9">
+      <c r="E336" s="18"/>
+      <c r="F336" s="18"/>
+      <c r="G336" s="18"/>
+      <c r="H336" s="18"/>
+      <c r="I336" s="18"/>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" s="36" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C338" t="s">
         <v>2352</v>
       </c>
     </row>
-    <row r="326" spans="2:9">
-      <c r="B326" s="36" t="s">
-        <v>2348</v>
-      </c>
-      <c r="C326" t="s">
+    <row r="339" spans="2:3">
+      <c r="C339" t="s">
         <v>2349</v>
       </c>
     </row>
-    <row r="351" spans="4:4">
-      <c r="D351" t="s">
+    <row r="363" spans="2:4">
+      <c r="D363" t="s">
         <v>2351</v>
       </c>
     </row>
-    <row r="352" spans="4:4">
-      <c r="D352" t="s">
+    <row r="364" spans="2:4">
+      <c r="D364" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="356" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B356" s="36" t="s">
+    <row r="368" spans="2:4" ht="12.75" customHeight="1">
+      <c r="B368" s="36" t="s">
         <v>2353</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C368" t="s">
         <v>2459</v>
       </c>
     </row>
-    <row r="357" spans="2:11">
-      <c r="C357" t="s">
+    <row r="369" spans="3:11">
+      <c r="C369" t="s">
         <v>2359</v>
       </c>
     </row>
-    <row r="359" spans="2:11">
-      <c r="D359" t="s">
+    <row r="371" spans="3:11">
+      <c r="D371" t="s">
         <v>2354</v>
       </c>
     </row>
-    <row r="361" spans="2:11">
-      <c r="D361" t="s">
+    <row r="373" spans="3:11">
+      <c r="D373" t="s">
         <v>2355</v>
       </c>
     </row>
-    <row r="362" spans="2:11">
-      <c r="E362" t="s">
+    <row r="374" spans="3:11">
+      <c r="E374" t="s">
         <v>2356</v>
       </c>
     </row>
-    <row r="363" spans="2:11">
-      <c r="D363" t="s">
+    <row r="375" spans="3:11">
+      <c r="D375" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="2:11">
-      <c r="D365" t="s">
+    <row r="377" spans="3:11">
+      <c r="D377" t="s">
         <v>2357</v>
       </c>
     </row>
-    <row r="366" spans="2:11">
-      <c r="E366" t="s">
+    <row r="378" spans="3:11">
+      <c r="E378" t="s">
         <v>2358</v>
       </c>
-      <c r="K366" s="57" t="s">
+      <c r="K378" s="57" t="s">
         <v>2383</v>
       </c>
     </row>
-    <row r="367" spans="2:11">
-      <c r="D367" t="s">
+    <row r="379" spans="3:11">
+      <c r="D379" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="371" spans="2:11">
-      <c r="C371" t="s">
+    <row r="383" spans="3:11">
+      <c r="C383" t="s">
         <v>2360</v>
       </c>
     </row>
-    <row r="372" spans="2:11">
-      <c r="C372" t="s">
+    <row r="384" spans="3:11">
+      <c r="C384" t="s">
         <v>2361</v>
       </c>
     </row>
-    <row r="375" spans="2:11">
-      <c r="D375" t="s">
+    <row r="387" spans="2:11">
+      <c r="D387" t="s">
         <v>2355</v>
       </c>
     </row>
-    <row r="376" spans="2:11">
-      <c r="E376" t="s">
+    <row r="388" spans="2:11">
+      <c r="E388" t="s">
         <v>2356</v>
       </c>
     </row>
-    <row r="377" spans="2:11">
-      <c r="D377" t="s">
+    <row r="389" spans="2:11">
+      <c r="D389" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="379" spans="2:11">
-      <c r="D379" t="s">
+    <row r="391" spans="2:11">
+      <c r="D391" t="s">
         <v>2357</v>
       </c>
     </row>
-    <row r="380" spans="2:11">
-      <c r="E380" t="s">
+    <row r="392" spans="2:11">
+      <c r="E392" t="s">
         <v>2362</v>
       </c>
-      <c r="K380" s="92" t="s">
+      <c r="K392" s="92" t="s">
         <v>2363</v>
       </c>
     </row>
-    <row r="381" spans="2:11">
-      <c r="D381" t="s">
+    <row r="393" spans="2:11">
+      <c r="D393" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="383" spans="2:11">
-      <c r="B383" s="36" t="s">
+    <row r="395" spans="2:11">
+      <c r="B395" s="36" t="s">
         <v>2450</v>
       </c>
-      <c r="C383" s="36" t="s">
+      <c r="C395" s="36" t="s">
         <v>2451</v>
       </c>
-      <c r="D383" s="36"/>
-      <c r="E383" s="36"/>
-      <c r="F383" s="36"/>
-      <c r="G383" s="36"/>
-      <c r="H383" s="36"/>
-      <c r="I383" s="36"/>
-      <c r="J383" s="36"/>
-      <c r="K383" s="36"/>
-    </row>
-    <row r="385" spans="1:11">
-      <c r="D385" s="22" t="s">
+      <c r="D395" s="36"/>
+      <c r="E395" s="36"/>
+      <c r="F395" s="36"/>
+      <c r="G395" s="36"/>
+      <c r="H395" s="36"/>
+      <c r="I395" s="36"/>
+      <c r="J395" s="36"/>
+      <c r="K395" s="36"/>
+    </row>
+    <row r="397" spans="2:11">
+      <c r="D397" s="22" t="s">
         <v>2453</v>
       </c>
-      <c r="E385" s="18"/>
-      <c r="F385" s="18"/>
-      <c r="G385" s="18"/>
-      <c r="H385" s="18"/>
-      <c r="I385" s="18"/>
-      <c r="J385" s="18"/>
-      <c r="K385" s="18"/>
-    </row>
-    <row r="386" spans="1:11">
-      <c r="D386" s="22" t="s">
+      <c r="E397" s="18"/>
+      <c r="F397" s="18"/>
+      <c r="G397" s="18"/>
+      <c r="H397" s="18"/>
+      <c r="I397" s="18"/>
+      <c r="J397" s="18"/>
+      <c r="K397" s="18"/>
+    </row>
+    <row r="398" spans="2:11">
+      <c r="D398" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="E386" s="18"/>
-      <c r="F386" s="18"/>
-      <c r="G386" s="18"/>
-      <c r="H386" s="18"/>
-      <c r="I386" s="18"/>
-      <c r="J386" s="18"/>
-      <c r="K386" s="18"/>
-    </row>
-    <row r="387" spans="1:11">
-      <c r="D387" s="22" t="s">
+      <c r="E398" s="18"/>
+      <c r="F398" s="18"/>
+      <c r="G398" s="18"/>
+      <c r="H398" s="18"/>
+      <c r="I398" s="18"/>
+      <c r="J398" s="18"/>
+      <c r="K398" s="18"/>
+    </row>
+    <row r="399" spans="2:11">
+      <c r="D399" s="22" t="s">
         <v>2405</v>
       </c>
-      <c r="E387" s="18"/>
-      <c r="F387" s="18"/>
-      <c r="G387" s="18"/>
-      <c r="H387" s="18"/>
-      <c r="I387" s="18"/>
-      <c r="J387" s="18"/>
-      <c r="K387" s="18"/>
-    </row>
-    <row r="388" spans="1:11">
-      <c r="D388" s="22" t="s">
+      <c r="E399" s="18"/>
+      <c r="F399" s="18"/>
+      <c r="G399" s="18"/>
+      <c r="H399" s="18"/>
+      <c r="I399" s="18"/>
+      <c r="J399" s="18"/>
+      <c r="K399" s="18"/>
+    </row>
+    <row r="400" spans="2:11">
+      <c r="D400" s="22" t="s">
         <v>2454</v>
       </c>
-      <c r="E388" s="18"/>
-      <c r="F388" s="18"/>
-      <c r="G388" s="18"/>
-      <c r="H388" s="18"/>
-      <c r="I388" s="18"/>
-      <c r="J388" s="18"/>
-      <c r="K388" s="18"/>
-    </row>
-    <row r="389" spans="1:11">
-      <c r="D389" s="22" t="s">
+      <c r="E400" s="18"/>
+      <c r="F400" s="18"/>
+      <c r="G400" s="18"/>
+      <c r="H400" s="18"/>
+      <c r="I400" s="18"/>
+      <c r="J400" s="18"/>
+      <c r="K400" s="18"/>
+    </row>
+    <row r="401" spans="1:11">
+      <c r="D401" s="22" t="s">
         <v>2455</v>
       </c>
-      <c r="E389" s="18"/>
-      <c r="F389" s="18"/>
-      <c r="G389" s="18"/>
-      <c r="H389" s="18"/>
-      <c r="I389" s="18"/>
-      <c r="J389" s="18"/>
-      <c r="K389" s="18"/>
-    </row>
-    <row r="390" spans="1:11">
-      <c r="D390" s="22" t="s">
+      <c r="E401" s="18"/>
+      <c r="F401" s="18"/>
+      <c r="G401" s="18"/>
+      <c r="H401" s="18"/>
+      <c r="I401" s="18"/>
+      <c r="J401" s="18"/>
+      <c r="K401" s="18"/>
+    </row>
+    <row r="402" spans="1:11">
+      <c r="D402" s="22" t="s">
         <v>2456</v>
       </c>
-      <c r="E390" s="18"/>
-      <c r="F390" s="18"/>
-      <c r="G390" s="18"/>
-      <c r="H390" s="18"/>
-      <c r="I390" s="18"/>
-      <c r="J390" s="18"/>
-      <c r="K390" s="18"/>
-    </row>
-    <row r="391" spans="1:11">
-      <c r="D391" s="22" t="s">
+      <c r="E402" s="18"/>
+      <c r="F402" s="18"/>
+      <c r="G402" s="18"/>
+      <c r="H402" s="18"/>
+      <c r="I402" s="18"/>
+      <c r="J402" s="18"/>
+      <c r="K402" s="18"/>
+    </row>
+    <row r="403" spans="1:11">
+      <c r="D403" s="22" t="s">
         <v>2457</v>
       </c>
-      <c r="E391" s="18"/>
-      <c r="F391" s="18"/>
-      <c r="G391" s="18"/>
-      <c r="H391" s="18"/>
-      <c r="I391" s="18"/>
-      <c r="J391" s="18"/>
-      <c r="K391" s="18"/>
-    </row>
-    <row r="392" spans="1:11">
-      <c r="D392" s="22" t="s">
+      <c r="E403" s="18"/>
+      <c r="F403" s="18"/>
+      <c r="G403" s="18"/>
+      <c r="H403" s="18"/>
+      <c r="I403" s="18"/>
+      <c r="J403" s="18"/>
+      <c r="K403" s="18"/>
+    </row>
+    <row r="404" spans="1:11">
+      <c r="D404" s="22" t="s">
         <v>2458</v>
       </c>
-      <c r="E392" s="18"/>
-      <c r="F392" s="18"/>
-      <c r="G392" s="18"/>
-      <c r="H392" s="18"/>
-      <c r="I392" s="18"/>
-      <c r="J392" s="18"/>
-      <c r="K392" s="18"/>
-    </row>
-    <row r="393" spans="1:11">
-      <c r="D393" s="22" t="s">
+      <c r="E404" s="18"/>
+      <c r="F404" s="18"/>
+      <c r="G404" s="18"/>
+      <c r="H404" s="18"/>
+      <c r="I404" s="18"/>
+      <c r="J404" s="18"/>
+      <c r="K404" s="18"/>
+    </row>
+    <row r="405" spans="1:11">
+      <c r="D405" s="22" t="s">
         <v>2403</v>
       </c>
-      <c r="E393" s="18"/>
-      <c r="F393" s="18"/>
-      <c r="G393" s="18"/>
-      <c r="H393" s="18"/>
-      <c r="I393" s="18"/>
-      <c r="J393" s="18"/>
-      <c r="K393" s="18"/>
-    </row>
-    <row r="394" spans="1:11">
-      <c r="D394" s="22" t="s">
+      <c r="E405" s="18"/>
+      <c r="F405" s="18"/>
+      <c r="G405" s="18"/>
+      <c r="H405" s="18"/>
+      <c r="I405" s="18"/>
+      <c r="J405" s="18"/>
+      <c r="K405" s="18"/>
+    </row>
+    <row r="406" spans="1:11">
+      <c r="D406" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="E394" s="18"/>
-      <c r="F394" s="18"/>
-      <c r="G394" s="18"/>
-      <c r="H394" s="18"/>
-      <c r="I394" s="18"/>
-      <c r="J394" s="18"/>
-      <c r="K394" s="18"/>
-    </row>
-    <row r="395" spans="1:11">
-      <c r="D395" s="22" t="s">
+      <c r="E406" s="18"/>
+      <c r="F406" s="18"/>
+      <c r="G406" s="18"/>
+      <c r="H406" s="18"/>
+      <c r="I406" s="18"/>
+      <c r="J406" s="18"/>
+      <c r="K406" s="18"/>
+    </row>
+    <row r="407" spans="1:11">
+      <c r="D407" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E395" s="18"/>
-      <c r="F395" s="18"/>
-      <c r="G395" s="18"/>
-      <c r="H395" s="18"/>
-      <c r="I395" s="18"/>
-      <c r="J395" s="18"/>
-      <c r="K395" s="18"/>
-    </row>
-    <row r="397" spans="1:11">
-      <c r="D397" s="115" t="s">
+      <c r="E407" s="18"/>
+      <c r="F407" s="18"/>
+      <c r="G407" s="18"/>
+      <c r="H407" s="18"/>
+      <c r="I407" s="18"/>
+      <c r="J407" s="18"/>
+      <c r="K407" s="18"/>
+    </row>
+    <row r="409" spans="1:11">
+      <c r="D409" s="115" t="s">
         <v>2452</v>
       </c>
-      <c r="E397" s="36"/>
-      <c r="F397" s="36"/>
-      <c r="G397" s="36"/>
-    </row>
-    <row r="400" spans="1:11">
-      <c r="A400" s="36" t="s">
+      <c r="E409" s="36"/>
+      <c r="F409" s="36"/>
+      <c r="G409" s="36"/>
+    </row>
+    <row r="412" spans="1:11">
+      <c r="A412" s="36" t="s">
         <v>2364</v>
       </c>
     </row>
-    <row r="402" spans="2:10">
-      <c r="B402" t="s">
+    <row r="414" spans="1:11">
+      <c r="B414" t="s">
         <v>2365</v>
       </c>
     </row>
-    <row r="404" spans="2:10">
-      <c r="C404" t="s">
+    <row r="416" spans="1:11">
+      <c r="C416" t="s">
         <v>2366</v>
       </c>
     </row>
-    <row r="405" spans="2:10">
-      <c r="D405" t="s">
+    <row r="417" spans="1:17">
+      <c r="D417" t="s">
         <v>2367</v>
       </c>
     </row>
-    <row r="406" spans="2:10">
-      <c r="D406" t="s">
+    <row r="418" spans="1:17">
+      <c r="D418" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="407" spans="2:10">
-      <c r="D407" t="s">
+    <row r="419" spans="1:17">
+      <c r="D419" t="s">
         <v>2369</v>
       </c>
     </row>
-    <row r="408" spans="2:10">
-      <c r="D408" t="s">
+    <row r="420" spans="1:17">
+      <c r="D420" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="409" spans="2:10">
-      <c r="D409" t="s">
+    <row r="421" spans="1:17">
+      <c r="D421" t="s">
         <v>2370</v>
       </c>
-      <c r="I409" t="s">
+      <c r="I421" t="s">
         <v>2280</v>
       </c>
-      <c r="J409" s="28" t="s">
+      <c r="J421" s="28" t="s">
         <v>2375</v>
       </c>
     </row>
-    <row r="410" spans="2:10">
-      <c r="D410" t="s">
+    <row r="422" spans="1:17">
+      <c r="D422" t="s">
         <v>2371</v>
       </c>
-      <c r="I410" t="s">
+      <c r="I422" t="s">
         <v>2280</v>
       </c>
-      <c r="J410" s="28" t="s">
+      <c r="J422" s="28" t="s">
         <v>2376</v>
       </c>
     </row>
-    <row r="411" spans="2:10">
-      <c r="D411" t="s">
+    <row r="423" spans="1:17">
+      <c r="D423" t="s">
         <v>2372</v>
       </c>
-      <c r="I411" t="s">
+      <c r="I423" t="s">
         <v>2377</v>
       </c>
-      <c r="J411" s="28" t="s">
+      <c r="J423" s="28" t="s">
         <v>2378</v>
       </c>
     </row>
-    <row r="412" spans="2:10">
-      <c r="D412" t="s">
+    <row r="424" spans="1:17">
+      <c r="D424" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="413" spans="2:10">
-      <c r="C413" t="s">
+    <row r="425" spans="1:17">
+      <c r="C425" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="414" spans="2:10">
-      <c r="C414" t="s">
+    <row r="426" spans="1:17">
+      <c r="C426" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="415" spans="2:10">
-      <c r="C415" t="s">
+    <row r="427" spans="1:17">
+      <c r="C427" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="416" spans="2:10">
-      <c r="D416" t="s">
+    <row r="428" spans="1:17">
+      <c r="D428" t="s">
         <v>2374</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
-      <c r="C417" t="s">
+    <row r="429" spans="1:17">
+      <c r="C429" t="s">
         <v>391</v>
       </c>
-      <c r="Q417" t="s">
+      <c r="Q429" t="s">
         <v>2464</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
-      <c r="A420" s="57" t="s">
+    <row r="432" spans="1:17">
+      <c r="A432" s="57" t="s">
         <v>2380</v>
       </c>
-      <c r="B420" s="57" t="s">
+      <c r="B432" s="57" t="s">
         <v>2379</v>
       </c>
-      <c r="C420" s="39"/>
-    </row>
-    <row r="421" spans="1:17">
-      <c r="A421" s="93" t="s">
+      <c r="C432" s="39"/>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="93" t="s">
         <v>1347</v>
       </c>
-      <c r="B421" s="93" t="s">
+      <c r="B433" s="93" t="s">
         <v>2384</v>
       </c>
-      <c r="C421" s="93" t="s">
+      <c r="C433" s="93" t="s">
         <v>1422</v>
-      </c>
-    </row>
-    <row r="422" spans="1:17">
-      <c r="A422">
-        <v>1</v>
-      </c>
-      <c r="B422" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="C422" t="s">
-        <v>214</v>
-      </c>
-      <c r="D422" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="423" spans="1:17">
-      <c r="A423">
-        <v>2</v>
-      </c>
-      <c r="B423" s="70" t="s">
-        <v>2385</v>
-      </c>
-      <c r="C423" t="s">
-        <v>2385</v>
-      </c>
-      <c r="D423" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="424" spans="1:17">
-      <c r="A424">
-        <v>3</v>
-      </c>
-      <c r="B424" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="C424" t="s">
-        <v>255</v>
-      </c>
-      <c r="D424" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="425" spans="1:17">
-      <c r="A425">
-        <v>4</v>
-      </c>
-      <c r="B425" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="C425" t="s">
-        <v>214</v>
-      </c>
-      <c r="D425" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="426" spans="1:17">
-      <c r="A426">
-        <v>5</v>
-      </c>
-      <c r="B426" s="70" t="s">
-        <v>2166</v>
-      </c>
-      <c r="C426" t="s">
-        <v>2387</v>
-      </c>
-      <c r="D426" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="427" spans="1:17">
-      <c r="A427">
-        <v>6</v>
-      </c>
-      <c r="B427" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="C427" t="s">
-        <v>255</v>
-      </c>
-      <c r="D427" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="428" spans="1:17">
-      <c r="A428">
-        <v>7</v>
-      </c>
-      <c r="B428" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="C428" t="s">
-        <v>255</v>
-      </c>
-      <c r="D428" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="429" spans="1:17">
-      <c r="A429">
-        <v>8</v>
-      </c>
-      <c r="B429" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="C429" t="s">
-        <v>215</v>
-      </c>
-      <c r="D429" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="430" spans="1:17">
-      <c r="A430">
-        <v>9</v>
-      </c>
-      <c r="B430" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="C430" t="s">
-        <v>214</v>
-      </c>
-      <c r="D430" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="431" spans="1:17">
-      <c r="A431">
-        <v>10</v>
-      </c>
-      <c r="B431" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="C431" t="s">
-        <v>215</v>
-      </c>
-      <c r="D431" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="432" spans="1:17">
-      <c r="A432">
-        <v>11</v>
-      </c>
-      <c r="B432" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="C432" t="s">
-        <v>220</v>
-      </c>
-      <c r="D432" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
-      <c r="A433">
-        <v>12</v>
-      </c>
-      <c r="B433" s="70" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C433" t="s">
-        <v>2386</v>
-      </c>
-      <c r="D433" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="434" spans="1:5">
       <c r="A434">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B434" s="70" t="s">
-        <v>2159</v>
+        <v>214</v>
       </c>
       <c r="C434" t="s">
-        <v>2389</v>
+        <v>214</v>
       </c>
       <c r="D434" t="s">
-        <v>98</v>
-      </c>
-      <c r="E434" t="s">
-        <v>2399</v>
+        <v>49</v>
       </c>
     </row>
     <row r="435" spans="1:5">
       <c r="A435">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B435" s="70" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="C435" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
       <c r="D435" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B436" s="70" t="s">
-        <v>2388</v>
+        <v>255</v>
       </c>
       <c r="C436" t="s">
-        <v>2391</v>
+        <v>255</v>
       </c>
       <c r="D436" t="s">
-        <v>98</v>
-      </c>
-      <c r="E436" t="s">
-        <v>2409</v>
+        <v>49</v>
       </c>
     </row>
     <row r="437" spans="1:5">
       <c r="A437">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B437" s="70" t="s">
         <v>214</v>
@@ -36938,13 +37275,13 @@
     </row>
     <row r="438" spans="1:5">
       <c r="A438">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B438" s="70" t="s">
-        <v>2158</v>
+        <v>2166</v>
       </c>
       <c r="C438" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="D438" t="s">
         <v>98</v>
@@ -36952,309 +37289,294 @@
     </row>
     <row r="439" spans="1:5">
       <c r="A439">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B439" s="70" t="s">
-        <v>2157</v>
+        <v>255</v>
       </c>
       <c r="C439" t="s">
-        <v>2392</v>
+        <v>255</v>
       </c>
       <c r="D439" t="s">
-        <v>98</v>
-      </c>
-      <c r="E439" t="s">
-        <v>2400</v>
+        <v>49</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B440" s="70" t="s">
         <v>255</v>
       </c>
       <c r="C440" t="s">
-        <v>2159</v>
+        <v>255</v>
       </c>
       <c r="D440" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B441" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C441" t="s">
+        <v>215</v>
+      </c>
+      <c r="D441" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442">
+        <v>9</v>
+      </c>
+      <c r="B442" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C442" t="s">
+        <v>214</v>
+      </c>
+      <c r="D442" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443">
+        <v>10</v>
+      </c>
+      <c r="B443" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C443" t="s">
+        <v>215</v>
+      </c>
+      <c r="D443" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444">
+        <v>11</v>
+      </c>
+      <c r="B444" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="C441" t="s">
-        <v>2393</v>
-      </c>
-      <c r="D441" t="s">
+      <c r="C444" t="s">
+        <v>220</v>
+      </c>
+      <c r="D444" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445">
+        <v>12</v>
+      </c>
+      <c r="B445" s="70" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C445" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D445" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446">
+        <v>13</v>
+      </c>
+      <c r="B446" s="70" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C446" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D446" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="443" spans="1:5">
-      <c r="A443" t="s">
-        <v>2394</v>
-      </c>
-      <c r="C443" s="87">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
-      <c r="A446" s="57" t="s">
-        <v>2380</v>
-      </c>
-      <c r="B446" s="57" t="s">
-        <v>2410</v>
-      </c>
-      <c r="C446" s="39"/>
+      <c r="E446" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447">
+        <v>14</v>
+      </c>
+      <c r="B447" s="70" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C447" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D447" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="448" spans="1:5">
-      <c r="A448" s="84" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B448" s="112" t="s">
-        <v>643</v>
-      </c>
-      <c r="C448" s="84" t="s">
-        <v>1422</v>
+      <c r="A448">
+        <v>15</v>
+      </c>
+      <c r="B448" s="70" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C448" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D448" t="s">
+        <v>98</v>
+      </c>
+      <c r="E448" t="s">
+        <v>2409</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449">
-        <v>1</v>
-      </c>
-      <c r="B449" s="67" t="s">
-        <v>211</v>
+        <v>16</v>
+      </c>
+      <c r="B449" s="70" t="s">
+        <v>214</v>
       </c>
       <c r="C449" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D449" t="s">
-        <v>2433</v>
-      </c>
-      <c r="E449" t="s">
-        <v>2436</v>
+        <v>49</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450">
-        <v>2</v>
-      </c>
-      <c r="B450" s="67" t="s">
-        <v>214</v>
+        <v>17</v>
+      </c>
+      <c r="B450" s="70" t="s">
+        <v>2158</v>
       </c>
       <c r="C450" t="s">
-        <v>214</v>
+        <v>2390</v>
       </c>
       <c r="D450" t="s">
-        <v>2433</v>
-      </c>
-      <c r="E450" t="s">
-        <v>2437</v>
+        <v>98</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451">
-        <v>3</v>
-      </c>
-      <c r="B451" s="67" t="s">
-        <v>211</v>
+        <v>18</v>
+      </c>
+      <c r="B451" s="70" t="s">
+        <v>2157</v>
       </c>
       <c r="C451" t="s">
-        <v>211</v>
+        <v>2392</v>
       </c>
       <c r="D451" t="s">
-        <v>2433</v>
+        <v>98</v>
+      </c>
+      <c r="E451" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452">
-        <v>4</v>
-      </c>
-      <c r="B452" s="67" t="s">
-        <v>220</v>
+        <v>19</v>
+      </c>
+      <c r="B452" s="70" t="s">
+        <v>255</v>
       </c>
       <c r="C452" t="s">
-        <v>220</v>
+        <v>2159</v>
       </c>
       <c r="D452" t="s">
-        <v>2433</v>
-      </c>
-      <c r="E452" t="s">
-        <v>2438</v>
+        <v>98</v>
       </c>
     </row>
     <row r="453" spans="1:5">
       <c r="A453">
-        <v>5</v>
-      </c>
-      <c r="B453" s="67" t="s">
-        <v>211</v>
+        <v>20</v>
+      </c>
+      <c r="B453" s="70" t="s">
+        <v>220</v>
       </c>
       <c r="C453" t="s">
-        <v>211</v>
+        <v>2393</v>
       </c>
       <c r="D453" t="s">
-        <v>2433</v>
-      </c>
-      <c r="E453" t="s">
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
-      <c r="A454">
-        <v>6</v>
-      </c>
-      <c r="B454" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="C454" t="s">
-        <v>214</v>
-      </c>
-      <c r="D454" t="s">
-        <v>2433</v>
-      </c>
-      <c r="E454" t="s">
-        <v>2440</v>
+        <v>98</v>
       </c>
     </row>
     <row r="455" spans="1:5">
-      <c r="A455">
-        <v>7</v>
-      </c>
-      <c r="B455" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="C455" t="s">
-        <v>220</v>
-      </c>
-      <c r="D455" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
-      <c r="A456">
-        <v>8</v>
-      </c>
-      <c r="B456" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="C456" t="s">
-        <v>214</v>
-      </c>
-      <c r="D456" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
-      <c r="A457">
-        <v>9</v>
-      </c>
-      <c r="B457" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="C457" t="s">
-        <v>255</v>
-      </c>
-      <c r="D457" t="s">
-        <v>2434</v>
-      </c>
-      <c r="E457" t="s">
-        <v>2411</v>
+      <c r="A455" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C455" s="87">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="458" spans="1:5">
-      <c r="A458">
-        <v>10</v>
-      </c>
-      <c r="B458" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="C458" t="s">
-        <v>255</v>
-      </c>
-      <c r="D458" t="s">
-        <v>2434</v>
-      </c>
-      <c r="E458" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
-      <c r="A459">
-        <v>11</v>
-      </c>
-      <c r="B459" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="C459" t="s">
-        <v>214</v>
-      </c>
-      <c r="D459" t="s">
-        <v>2433</v>
-      </c>
-      <c r="E459" t="s">
-        <v>2441</v>
-      </c>
+      <c r="A458" s="57" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B458" s="57" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C458" s="39"/>
     </row>
     <row r="460" spans="1:5">
-      <c r="A460">
-        <v>12</v>
-      </c>
-      <c r="B460" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="C460" t="s">
-        <v>220</v>
-      </c>
-      <c r="D460" t="s">
-        <v>2433</v>
+      <c r="A460" s="84" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B460" s="112" t="s">
+        <v>643</v>
+      </c>
+      <c r="C460" s="84" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B461" s="67" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="C461" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D461" t="s">
         <v>2433</v>
       </c>
       <c r="E461" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B462" s="67" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C462" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="D462" t="s">
         <v>2433</v>
       </c>
+      <c r="E462" t="s">
+        <v>2437</v>
+      </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B463" s="67" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="C463" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D463" t="s">
         <v>2433</v>
@@ -37262,168 +37584,174 @@
     </row>
     <row r="464" spans="1:5">
       <c r="A464">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B464" s="67" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C464" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D464" t="s">
         <v>2433</v>
       </c>
+      <c r="E464" t="s">
+        <v>2438</v>
+      </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B465" s="67" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C465" t="s">
         <v>211</v>
       </c>
       <c r="D465" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E465" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B466" s="67" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C466" t="s">
         <v>214</v>
       </c>
       <c r="D466" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" ht="13.5" customHeight="1">
+        <v>2433</v>
+      </c>
+      <c r="E466" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
       <c r="A467">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B467" s="67" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C467" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D467" t="s">
         <v>2433</v>
       </c>
-      <c r="E467" t="s">
-        <v>2444</v>
-      </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B468" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C468" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="D468" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B469" s="67" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C469" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D469" t="s">
-        <v>2433</v>
+        <v>2434</v>
+      </c>
+      <c r="E469" t="s">
+        <v>2411</v>
       </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B470" s="67" t="s">
+        <v>211</v>
       </c>
       <c r="C470" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D470" t="s">
         <v>2434</v>
       </c>
       <c r="E470" t="s">
-        <v>2445</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B471" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C471" t="s">
+        <v>214</v>
+      </c>
+      <c r="D471" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E471" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472">
+        <v>12</v>
+      </c>
+      <c r="B472" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="D471" t="s">
-        <v>2434</v>
-      </c>
-      <c r="E471" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A472">
-        <v>24</v>
-      </c>
-      <c r="B472" s="67" t="s">
-        <v>255</v>
-      </c>
       <c r="C472" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D472" t="s">
         <v>2433</v>
       </c>
-      <c r="E472" t="s">
-        <v>2447</v>
-      </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B473" s="67" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="C473" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="D473" t="s">
         <v>2433</v>
       </c>
       <c r="E473" t="s">
-        <v>2432</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B474" s="67" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C474" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D474" t="s">
         <v>2433</v>
@@ -37431,7 +37759,7 @@
     </row>
     <row r="475" spans="1:5">
       <c r="A475">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B475" s="67" t="s">
         <v>255</v>
@@ -37445,181 +37773,190 @@
     </row>
     <row r="476" spans="1:5">
       <c r="A476">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B476" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C476" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D476" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="14.25" customHeight="1">
+    <row r="477" spans="1:5">
       <c r="A477">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B477" s="67" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C477" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D477" t="s">
         <v>2434</v>
       </c>
       <c r="E477" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B478" s="67" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="C478" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D478" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" ht="12" customHeight="1">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="13.5" customHeight="1">
       <c r="A479">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B479" s="67" t="s">
         <v>211</v>
       </c>
       <c r="C479" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D479" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E479" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B480" s="67" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C480" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="D480" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
       <c r="A481">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B481" s="67" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C481" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D481" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:5">
       <c r="A482">
-        <v>34</v>
-      </c>
-      <c r="B482" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C482" t="s">
+        <v>214</v>
+      </c>
+      <c r="D482" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E482" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483">
+        <v>23</v>
+      </c>
+      <c r="B483" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C483" t="s">
+        <v>220</v>
+      </c>
+      <c r="D483" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E483" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A484">
+        <v>24</v>
+      </c>
+      <c r="B484" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C484" t="s">
         <v>255</v>
-      </c>
-      <c r="D482" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
-      <c r="A483">
-        <v>35</v>
-      </c>
-      <c r="B483" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="C483" t="s">
-        <v>214</v>
-      </c>
-      <c r="D483" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
-      <c r="A484">
-        <v>36</v>
-      </c>
-      <c r="B484" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="C484" t="s">
-        <v>220</v>
       </c>
       <c r="D484" t="s">
         <v>2433</v>
       </c>
-    </row>
-    <row r="485" spans="1:4">
+      <c r="E484" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
       <c r="A485">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B485" s="67" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="C485" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D485" t="s">
         <v>2433</v>
       </c>
-    </row>
-    <row r="486" spans="1:4">
+      <c r="E485" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
       <c r="A486">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B486" s="67" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C486" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="D486" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:5">
       <c r="A487">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B487" s="67" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="C487" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="D487" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:5">
       <c r="A488">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B488" s="67" t="s">
         <v>211</v>
@@ -37631,113 +37968,119 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:5" ht="14.25" customHeight="1">
       <c r="A489">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B489" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C489" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D489" t="s">
         <v>2434</v>
       </c>
-    </row>
-    <row r="490" spans="1:4">
+      <c r="E489" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
       <c r="A490">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B490" s="67" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C490" t="s">
         <v>211</v>
       </c>
       <c r="D490" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" ht="12" customHeight="1">
       <c r="A491">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B491" s="67" t="s">
         <v>211</v>
       </c>
       <c r="C491" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D491" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
+        <v>2434</v>
+      </c>
+      <c r="E491" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
       <c r="A492">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B492" s="67" t="s">
         <v>220</v>
       </c>
       <c r="C492" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D492" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
       <c r="A493">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B493" s="67" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C493" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D493" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:5">
       <c r="A494">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B494" s="67" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="C494" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="D494" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:5">
       <c r="A495">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B495" s="67" t="s">
         <v>214</v>
       </c>
       <c r="C495" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D495" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
       <c r="A496">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B496" s="67" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C496" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D496" t="s">
         <v>2433</v>
@@ -37745,45 +38088,213 @@
     </row>
     <row r="497" spans="1:5">
       <c r="A497">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B497" s="67" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C497" t="s">
         <v>255</v>
       </c>
       <c r="D497" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="498" spans="1:5">
       <c r="A498">
+        <v>38</v>
+      </c>
+      <c r="B498" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C498" t="s">
+        <v>255</v>
+      </c>
+      <c r="D498" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499">
+        <v>39</v>
+      </c>
+      <c r="B499" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C499" t="s">
+        <v>211</v>
+      </c>
+      <c r="D499" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500">
+        <v>40</v>
+      </c>
+      <c r="B500" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C500" t="s">
+        <v>211</v>
+      </c>
+      <c r="D500" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501">
+        <v>41</v>
+      </c>
+      <c r="B501" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C501" t="s">
+        <v>255</v>
+      </c>
+      <c r="D501" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502">
+        <v>42</v>
+      </c>
+      <c r="B502" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C502" t="s">
+        <v>211</v>
+      </c>
+      <c r="D502" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503">
+        <v>43</v>
+      </c>
+      <c r="B503" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C503" t="s">
+        <v>211</v>
+      </c>
+      <c r="D503" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504">
+        <v>44</v>
+      </c>
+      <c r="B504" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C504" t="s">
+        <v>211</v>
+      </c>
+      <c r="D504" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505">
+        <v>45</v>
+      </c>
+      <c r="B505" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C505" t="s">
+        <v>255</v>
+      </c>
+      <c r="D505" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506">
+        <v>46</v>
+      </c>
+      <c r="B506" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C506" t="s">
+        <v>211</v>
+      </c>
+      <c r="D506" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507">
+        <v>47</v>
+      </c>
+      <c r="B507" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C507" t="s">
+        <v>211</v>
+      </c>
+      <c r="D507" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508">
+        <v>48</v>
+      </c>
+      <c r="B508" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C508" t="s">
+        <v>211</v>
+      </c>
+      <c r="D508" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509">
+        <v>49</v>
+      </c>
+      <c r="B509" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C509" t="s">
+        <v>255</v>
+      </c>
+      <c r="D509" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510">
         <v>50</v>
       </c>
-      <c r="B498" s="67" t="s">
+      <c r="B510" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C510" t="s">
         <v>214</v>
       </c>
-      <c r="D498" t="s">
+      <c r="D510" t="s">
         <v>2434</v>
       </c>
-      <c r="E498" t="s">
+      <c r="E510" t="s">
         <v>2460</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
-      <c r="A500" t="s">
+    <row r="512" spans="1:5">
+      <c r="A512" t="s">
         <v>2238</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
-      <c r="A501" t="s">
+    <row r="513" spans="1:2">
+      <c r="A513" t="s">
         <v>2435</v>
       </c>
-      <c r="B501" s="87">
+      <c r="B513" s="87">
         <v>0.7</v>
       </c>
     </row>
@@ -37798,8 +38309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P337"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M122" sqref="M122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -38763,7 +39274,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="193" spans="2:12">
+    <row r="193" spans="2:14">
       <c r="C193" s="118" t="s">
         <v>1029</v>
       </c>
@@ -38771,15 +39282,15 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="194" spans="2:12">
+    <row r="194" spans="2:14">
       <c r="C194" s="118" t="s">
         <v>1030</v>
       </c>
-      <c r="L194" s="118" t="s">
+      <c r="L194" s="127" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="196" spans="2:12">
+    <row r="196" spans="2:14">
       <c r="C196" s="133" t="s">
         <v>1034</v>
       </c>
@@ -38787,48 +39298,56 @@
       <c r="E196" s="133"/>
       <c r="F196" s="133"/>
     </row>
-    <row r="197" spans="2:12">
+    <row r="197" spans="2:14">
       <c r="C197" s="118" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="198" spans="2:12">
+    <row r="198" spans="2:14">
       <c r="C198" s="118" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="199" spans="2:12">
+    <row r="199" spans="2:14">
       <c r="C199" s="118" t="s">
         <v>1033</v>
       </c>
-      <c r="H199" s="118" t="s">
+      <c r="H199" s="127" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="202" spans="2:12">
+    <row r="202" spans="2:14">
       <c r="B202" s="118" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="204" spans="2:12">
+    <row r="204" spans="2:14">
       <c r="C204" s="118" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="205" spans="2:12">
+    <row r="205" spans="2:14">
       <c r="C205" s="118" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="206" spans="2:12">
+    <row r="206" spans="2:14">
       <c r="C206" s="118" t="s">
         <v>1039</v>
       </c>
-      <c r="F206" s="118" t="s">
+      <c r="F206" s="127" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="207" spans="2:12">
+      <c r="G206" s="127"/>
+      <c r="H206" s="127"/>
+      <c r="I206" s="127"/>
+      <c r="J206" s="127"/>
+      <c r="K206" s="127"/>
+      <c r="L206" s="127"/>
+      <c r="M206" s="127"/>
+      <c r="N206" s="127"/>
+    </row>
+    <row r="207" spans="2:14">
       <c r="C207" s="118" t="s">
         <v>1040</v>
       </c>
@@ -38900,7 +39419,7 @@
       <c r="I220"/>
       <c r="J220"/>
       <c r="K220"/>
-      <c r="L220"/>
+      <c r="L220" s="185"/>
       <c r="M220"/>
       <c r="N220"/>
       <c r="O220"/>
@@ -40170,7 +40689,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:12">
       <c r="A289" s="135">
         <v>5</v>
       </c>
@@ -40184,7 +40703,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:12">
       <c r="A290" s="135">
         <v>6</v>
       </c>
@@ -40198,7 +40717,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:12">
       <c r="A291" s="135">
         <v>7</v>
       </c>
@@ -40212,7 +40731,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:12">
       <c r="A292" s="135">
         <v>8</v>
       </c>
@@ -40226,7 +40745,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:12">
       <c r="A293" s="135">
         <v>9</v>
       </c>
@@ -40240,7 +40759,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:12">
       <c r="A294" s="135">
         <v>10</v>
       </c>
@@ -40254,7 +40773,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:12">
       <c r="A295" s="135">
         <v>11</v>
       </c>
@@ -40268,7 +40787,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:12">
       <c r="A296" s="135">
         <v>12</v>
       </c>
@@ -40285,8 +40804,14 @@
         <v>2500</v>
       </c>
       <c r="H296" s="128"/>
-    </row>
-    <row r="297" spans="1:8">
+      <c r="J296" s="118" t="s">
+        <v>2607</v>
+      </c>
+      <c r="L296" s="118" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297" s="135">
         <v>13</v>
       </c>
@@ -40303,7 +40828,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:12">
       <c r="A298" s="135">
         <v>14</v>
       </c>
@@ -40320,7 +40845,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:12">
       <c r="A299" s="135">
         <v>15</v>
       </c>
@@ -40337,7 +40862,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:12">
       <c r="A300" s="135">
         <v>16</v>
       </c>
@@ -40351,7 +40876,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:12">
       <c r="A301" s="135">
         <v>17</v>
       </c>
@@ -40365,7 +40890,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:12">
       <c r="A302" s="135">
         <v>18</v>
       </c>
@@ -40379,7 +40904,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:12">
       <c r="A303" s="135">
         <v>19</v>
       </c>
@@ -40393,7 +40918,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:12">
       <c r="A304" s="135">
         <v>20</v>
       </c>
@@ -40877,12 +41402,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K128"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A71" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B65" sqref="B65"/>
+      <selection pane="topRight" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42114,7 +42639,7 @@
       <c r="J40" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="K40" s="181" t="s">
+      <c r="K40" s="180" t="s">
         <v>2583</v>
       </c>
     </row>
@@ -42265,7 +42790,7 @@
       <c r="F45" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="G45" s="179" t="s">
+      <c r="G45" s="178" t="s">
         <v>255</v>
       </c>
       <c r="H45" s="136" t="s">
@@ -42274,7 +42799,7 @@
       <c r="I45" s="139" t="s">
         <v>255</v>
       </c>
-      <c r="J45" s="180" t="s">
+      <c r="J45" s="179" t="s">
         <v>214</v>
       </c>
     </row>
@@ -42572,13 +43097,13 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="184" t="s">
+      <c r="A58" s="183" t="s">
         <v>1347</v>
       </c>
-      <c r="B58" s="185" t="s">
+      <c r="B58" s="184" t="s">
         <v>643</v>
       </c>
-      <c r="C58" s="185" t="s">
+      <c r="C58" s="184" t="s">
         <v>1422</v>
       </c>
     </row>
@@ -42589,6 +43114,18 @@
       <c r="B59" s="67" t="s">
         <v>215</v>
       </c>
+      <c r="C59" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="67" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F59" s="70" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G59" s="70" t="s">
+        <v>2618</v>
+      </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="174">
@@ -42597,6 +43134,9 @@
       <c r="B60" s="67" t="s">
         <v>219</v>
       </c>
+      <c r="C60" s="67" t="s">
+        <v>1372</v>
+      </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="174">
@@ -42605,11 +43145,23 @@
       <c r="B61" s="67" t="s">
         <v>2604</v>
       </c>
+      <c r="C61" s="67" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>2616</v>
+      </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="174">
         <v>4</v>
       </c>
+      <c r="B62" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="174">
@@ -42618,333 +43170,941 @@
       <c r="B63" s="67" t="s">
         <v>210</v>
       </c>
+      <c r="C63" s="67" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="174">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="B64" s="67" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C64" s="67" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="174">
         <v>7</v>
       </c>
       <c r="B65" s="67" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="174">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="B66" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="174">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="B67" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="174">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="B68" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="67" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="174">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="67" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="174">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="B70" s="67" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="174">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="B71" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="174">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="B72" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="174">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="B73" s="67" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C73" s="67" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D73" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="174">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="B74" s="67" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C74" s="67" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="174">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="B75" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="174">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="B76" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="174">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="B77" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="67" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="174">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="B78" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="174">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="B79" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="174">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="174">
         <v>23</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="67" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C81" s="67" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D81" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="174">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="174">
         <v>25</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="67" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C83" s="67" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D83" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="174">
         <v>26</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="174">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="174">
         <v>28</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="174">
         <v>29</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" s="67" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C87" s="67" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="174">
         <v>30</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" s="67" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C88" s="67" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D88" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="174">
         <v>31</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C89" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="174">
         <v>32</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="67" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="174">
         <v>33</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="174">
         <v>34</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="67" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="174">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="174">
         <v>36</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="174">
         <v>37</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" s="67" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C95" s="67" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="174">
         <v>38</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C96" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="174">
         <v>39</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" s="67" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C97" s="67" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D97" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="174">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" s="67" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C98" s="67" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="174">
         <v>41</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="174">
         <v>42</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="174">
         <v>43</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="174">
         <v>44</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="174">
         <v>45</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="174">
         <v>46</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" s="67" t="s">
+        <v>684</v>
+      </c>
+      <c r="C104" s="67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="174">
         <v>47</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="67" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17.25" customHeight="1">
       <c r="A106" s="174">
         <v>48</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" s="67" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C106" s="67" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D106" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="174">
         <v>49</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="174">
         <v>50</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="174">
         <v>51</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" s="67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="174">
         <v>52</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" s="67" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C110" s="67" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D110" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="174">
         <v>53</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="C111" s="67" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="174">
         <v>54</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" s="67" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C112" s="67" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="174">
         <v>55</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" s="67" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C113" s="67" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D113" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="174">
         <v>56</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="67" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="174">
         <v>57</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115" s="67" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C115" s="67" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D115" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="174">
         <v>58</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" s="67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="174">
         <v>59</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C117" s="67" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="174">
         <v>60</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="174">
         <v>61</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="174">
         <v>62</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120" s="67" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C120" s="67" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="174">
         <v>63</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="C121" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="D121" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="174">
         <v>64</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C122" s="67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="174">
         <v>65</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C123" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D123" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="174">
         <v>66</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="174">
         <v>67</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D125" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="174">
         <v>68</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D126" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="174">
         <v>69</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="174">
         <v>70</v>
+      </c>
+      <c r="B128" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="174">
+        <v>71</v>
+      </c>
+      <c r="B129" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D129" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="174">
+        <v>72</v>
+      </c>
+      <c r="B130" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C130" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="174">
+        <v>73</v>
+      </c>
+      <c r="B131" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C131" s="67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="174">
+        <v>74</v>
+      </c>
+      <c r="B132" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C132" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="174">
+        <v>75</v>
+      </c>
+      <c r="C133" s="67" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="174">
+        <v>76</v>
+      </c>
+      <c r="B134" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C134" s="67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="174">
+        <v>77</v>
+      </c>
+      <c r="B135" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C135" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="174">
+        <v>78</v>
+      </c>
+      <c r="B136" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D136" s="67" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="174">
+        <v>79</v>
+      </c>
+      <c r="B137" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C137" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="174">
+        <v>80</v>
+      </c>
+      <c r="B138" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="D138" s="67" t="s">
+        <v>2616</v>
       </c>
     </row>
   </sheetData>

--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6294" uniqueCount="2865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6591" uniqueCount="2970">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -9748,17 +9748,436 @@
     <t>quá thấp :(</t>
   </si>
   <si>
-    <t>Biến location là có access modifier là default, chỉ được phép truy cập trong phạm vi package</t>
-  </si>
-  <si>
-    <t>khởi tạo mảng ko hợp lệ</t>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Enthuware Test 2</t>
+  </si>
+  <si>
+    <t>50/77</t>
+  </si>
+  <si>
+    <t>Tỉ lệ : 64.9%</t>
+  </si>
+  <si>
+    <t>Lưu ý biến instance khác có cùng tên với biến khai báo trong vòng for, Do vậy nó có giá trị khác nhau, ko gây Lỗi compile</t>
+  </si>
+  <si>
+    <t>Cả đáp án B, E đều đúng, Đáp án trong sách sai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý biến location đc khai báo trong interface mặc định là public static final </t>
+  </si>
+  <si>
+    <t>Set giá trị cho biến instance của một Object</t>
+  </si>
+  <si>
+    <t>//in file Movable.java</t>
+  </si>
+  <si>
+    <t>//in file Donkey.java</t>
+  </si>
+  <si>
+    <t>package p2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        import p1.Movable;</t>
+  </si>
+  <si>
+    <t>public class Donkey implements Movable{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int location = 200;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void move(int by) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        location = location+by;</t>
+  </si>
+  <si>
+    <t>package p1;</t>
+  </si>
+  <si>
+    <t>public interface Movable {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int location = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void move(int by);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void moveBack(int by);</t>
+  </si>
+  <si>
+    <t>package px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        import p2.Donkey;</t>
+  </si>
+  <si>
+    <t>public class TestClass {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Movable m = new Donkey();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        m.move(10);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        m.moveBack(20);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(m.location);</t>
+  </si>
+  <si>
+    <t>Biến instance location của Object Donkey set thành 210</t>
+  </si>
+  <si>
+    <t>Biến instance location của Object Donkey set thành 190</t>
+  </si>
+  <si>
+    <t>Tuy nhiên location của Reference Variable là Movable vẫn là 0</t>
+  </si>
+  <si>
+    <t>Kiểu dl trả về có tương thích với kiểu dl của method khai báo ?</t>
+  </si>
+  <si>
+    <t>Kiểu dl trả về của giá trị có thể nhỏ hơn kiểu dl khai báo ở method, ko cần cast tường minh</t>
+  </si>
+  <si>
+    <t>Tuy nhiên, chiều ngược lại thì cần cast tường minh</t>
+  </si>
+  <si>
+    <t>Ví dụ : Method khai báo kiểu dl double, nhưng method lại trả về kiểu int  -&gt; Hợp lệ</t>
+  </si>
+  <si>
+    <t>double a(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int value = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return value;</t>
+  </si>
+  <si>
+    <t>long b(){</t>
+  </si>
+  <si>
+    <t>Method khai báo kiểu dl long, nhưng method trả về kiểu int -&gt; Hợp lệ</t>
+  </si>
+  <si>
+    <t>Fix thành : Cast tường minh:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý là chỉ apply được cho primitive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không áp dụng cho kiểu dl Wrapper </t>
+  </si>
+  <si>
+    <t>// COMPLE OK</t>
+  </si>
+  <si>
+    <t>int c(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    long value = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return (int) value;</t>
+  </si>
+  <si>
+    <t>Long a(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Integer value = new Integer(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return integer;</t>
+  </si>
+  <si>
+    <t>Tuy nhiên, Đối với kiểu dl Wrapper, Thì có thể trả về kiểu dl nhỏ hơn thông qua kết thừa</t>
+  </si>
+  <si>
+    <t>Integer, Long, Double… kế thừa class Number</t>
+  </si>
+  <si>
+    <t>Number b(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return new Integer(1);</t>
+  </si>
+  <si>
+    <t>Number c(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return new Long(1);</t>
+  </si>
+  <si>
+    <t>Number d(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return new Double(1);</t>
+  </si>
+  <si>
+    <t>Khởi tạo mảng hợp lệ  int arr [] = {1,2,3};</t>
+  </si>
+  <si>
+    <t>Để đảm bảo encapsulation đối với biến có kiểu dl ArrayList&lt;&gt; , thì phải trả ra một copy Của ArrayList đó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ :  </t>
+  </si>
+  <si>
+    <t>public ArrayList&lt;Integer&gt; getScores(){ return new ArrayList(scores); }</t>
+  </si>
+  <si>
+    <t>Cấu trúc if- else</t>
+  </si>
+  <si>
+    <t>Lưu ý là mệnh đề else sẽ ăn theo với mệnh đề if gần nhất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LƯU Ý : </t>
+  </si>
+  <si>
+    <t>for ( final Datetype instance : list) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Chỉ có duy nhất </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> là được phép khai báo trong cách khai báo for-earch này:</t>
+    </r>
+  </si>
+  <si>
+    <t>for(Object o : arr){</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Có thể dùng dataType là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> để khai báo cho kiểu dl </t>
+    </r>
+  </si>
+  <si>
+    <t>// COMPILE ÔK</t>
+  </si>
+  <si>
+    <t>Lưu ý cách khai báo octal number, long g = 012. Và giá trị kiểu double ko thể gán cho kiểu float( bắt buộc phải cast tường minh)</t>
+  </si>
+  <si>
+    <t>3 kiểu dl wrapper này : Integer, Long, Double ko liên quan gì đến nhau, Do vậy so sánh == là sẽ lỗi COMPILE</t>
+  </si>
+  <si>
+    <t>Lưu ý với mệnh đề while(x) thì x phải là boolean,</t>
+  </si>
+  <si>
+    <t>Lệnh break label phải nằm trong khối loop mà LABEL khai báo</t>
+  </si>
+  <si>
+    <t>Which of the following declarations are valid?</t>
+  </si>
+  <si>
+    <t>1.0 is a double.</t>
+  </si>
+  <si>
+    <t>43e1 is a double.</t>
+  </si>
+  <si>
+    <t>Although the values in the option 1 and 2 are compile time constants and the values i.e. 1.0 and 43e1 can fit into a float, implicit narrowing does not happen because implicit narrowing is permitted only among byte, char, short, and int.</t>
+  </si>
+  <si>
+    <t>Correct Options are : C D E A. float f1 = 1.0;</t>
+  </si>
+  <si>
+    <t>B. float f = 43e1;</t>
+  </si>
+  <si>
+    <t>C. float f = -1;</t>
+  </si>
+  <si>
+    <t>D. float f = 0x0123;</t>
+  </si>
+  <si>
+    <t>E. float f = 4;</t>
+  </si>
+  <si>
+    <t>XXXX m ; //other code switch( m ){ case 32 : System.out.println("32"); break; case 64 : System.out.println("64"); break; case 128 : System.out.println("128"); break; }</t>
+  </si>
+  <si>
+    <t>What type can 'm' be of so that the above code compiles and runs as expected ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Correct Options are : A C E </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF40630A"/>
+        <rFont val="LiberationSerif-Bold"/>
+      </rPr>
+      <t xml:space="preserve">A. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="LiberationMono"/>
+      </rPr>
+      <t>int m;</t>
+    </r>
+  </si>
+  <si>
+    <t>m can hold all the case values.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="LiberationMono"/>
+      </rPr>
+      <t>long m;</t>
+    </r>
+  </si>
+  <si>
+    <t>long, float, double, and boolean can never be used as a switch variable.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="LiberationMono"/>
+      </rPr>
+      <t>char m;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="LiberationMono"/>
+      </rPr>
+      <t>byte m;</t>
+    </r>
+  </si>
+  <si>
+    <t>m will not be able to hold 128. a byte's range is -128 to 127.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="LiberationMono"/>
+      </rPr>
+      <t>short m;</t>
+    </r>
+  </si>
+  <si>
+    <t>Here are the rules for a switch statement:</t>
+  </si>
+  <si>
+    <t>1. Only String, byte, char, short, int, (and their wrapper classes Byte, Character, Short, and Integer), and enums can</t>
+  </si>
+  <si>
+    <t>be used as types of a switch variable. (String is allowed only since Java 7).</t>
+  </si>
+  <si>
+    <t>2. The case constants must be assignable to the switch variable. For example, if your switch variable is of class</t>
+  </si>
+  <si>
+    <t>String, your case labels must use Strings as well.</t>
+  </si>
+  <si>
+    <t>3. The switch variable must be big enough to hold all the case constants. For example, if the switch variable is of</t>
+  </si>
+  <si>
+    <t>type char, then none of the case constants can be greater than 65535 because a char's range is from 0 to 65535.</t>
+  </si>
+  <si>
+    <t>4. All case labels should be COMPILE TIME CONSTANTS.</t>
+  </si>
+  <si>
+    <t>5. No two of the case constant expressions associated with a switch statement may have the same value.</t>
+  </si>
+  <si>
+    <t>6. At most one default label may be associated with the same switch statement.</t>
+  </si>
+  <si>
+    <t>Enthuware Test 3</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Object ko thể cast về String, cho dù có cast tường minh hay ko</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="120">
+  <fonts count="128">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10553,6 +10972,57 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="LiberationSerif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="LiberationSerif-Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFBF020F"/>
+      <name val="LiberationSerif-Bold"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="LiberationSerif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF40630A"/>
+      <name val="LiberationSerif-Bold"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -10739,7 +11209,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="100" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11220,8 +11690,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12923,8 +13411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S671"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S73" sqref="S73"/>
+    <sheetView topLeftCell="A541" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F549" sqref="F549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15407,16 +15895,16 @@
       <c r="C532" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D532" s="228" t="s">
+      <c r="D532" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="E532" s="228"/>
-      <c r="F532" s="228"/>
-      <c r="G532" s="228"/>
-      <c r="H532" s="228"/>
-      <c r="I532" s="228"/>
-      <c r="J532" s="228"/>
-      <c r="K532" s="228"/>
+      <c r="E532" s="236"/>
+      <c r="F532" s="236"/>
+      <c r="G532" s="236"/>
+      <c r="H532" s="236"/>
+      <c r="I532" s="236"/>
+      <c r="J532" s="236"/>
+      <c r="K532" s="236"/>
       <c r="L532" s="3" t="s">
         <v>90</v>
       </c>
@@ -15483,16 +15971,16 @@
       <c r="C538" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D538" s="228" t="s">
+      <c r="D538" s="236" t="s">
         <v>233</v>
       </c>
-      <c r="E538" s="228"/>
-      <c r="F538" s="228"/>
-      <c r="G538" s="228"/>
-      <c r="H538" s="228"/>
-      <c r="I538" s="228"/>
-      <c r="J538" s="228"/>
-      <c r="K538" s="228"/>
+      <c r="E538" s="236"/>
+      <c r="F538" s="236"/>
+      <c r="G538" s="236"/>
+      <c r="H538" s="236"/>
+      <c r="I538" s="236"/>
+      <c r="J538" s="236"/>
+      <c r="K538" s="236"/>
       <c r="L538" s="3" t="s">
         <v>41</v>
       </c>
@@ -16976,10 +17464,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -17532,17 +18020,823 @@
         <v>2856</v>
       </c>
     </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="225">
+        <v>11</v>
+      </c>
+      <c r="B162" s="225" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C162" s="225"/>
+      <c r="D162" s="225"/>
+      <c r="E162" s="225"/>
+      <c r="F162" s="225"/>
+      <c r="G162" s="225"/>
+      <c r="H162" s="225"/>
+      <c r="I162" s="225"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="B164" s="37" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C164" s="224"/>
+      <c r="D164" s="224"/>
+      <c r="E164" s="224"/>
+      <c r="F164" s="224"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="B165" s="229" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C165" s="224"/>
+      <c r="D165" s="224"/>
+      <c r="E165" s="224"/>
+      <c r="F165" s="224"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="B166" s="229" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C166" s="224"/>
+      <c r="D166" s="224"/>
+      <c r="E166" s="224"/>
+      <c r="F166" s="224"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="B167" s="229" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C167" s="224"/>
+      <c r="D167" s="224"/>
+      <c r="E167" s="224"/>
+      <c r="F167" s="224"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="B168" s="229" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C168" s="224"/>
+      <c r="D168" s="224"/>
+      <c r="E168" s="224"/>
+      <c r="F168" s="224"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="B169" s="229" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C169" s="224"/>
+      <c r="D169" s="224"/>
+      <c r="E169" s="224"/>
+      <c r="F169" s="224"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="B170" s="229" t="s">
+        <v>37</v>
+      </c>
+      <c r="C170" s="224"/>
+      <c r="D170" s="224"/>
+      <c r="E170" s="224"/>
+      <c r="F170" s="224"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="B172" s="229" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C172" s="224"/>
+      <c r="D172" s="224"/>
+      <c r="E172" s="224"/>
+      <c r="F172" s="224"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="B173" s="229" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C173" s="224"/>
+      <c r="D173" s="224"/>
+      <c r="E173" s="224"/>
+      <c r="F173" s="224"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="B174" s="229" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C174" s="224"/>
+      <c r="D174" s="224"/>
+      <c r="E174" s="224"/>
+      <c r="F174" s="224"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="B175" s="229" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C175" s="224"/>
+      <c r="D175" s="224"/>
+      <c r="E175" s="224"/>
+      <c r="F175" s="224"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="B176" s="229" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C176" s="224"/>
+      <c r="D176" s="224"/>
+      <c r="E176" s="224"/>
+      <c r="F176" s="224"/>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="B177" s="229" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C177" s="224"/>
+      <c r="D177" s="224"/>
+      <c r="E177" s="224"/>
+      <c r="F177" s="224"/>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="229" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C178" s="224"/>
+      <c r="D178" s="224"/>
+      <c r="E178" s="224"/>
+      <c r="F178" s="224"/>
+    </row>
+    <row r="179" spans="2:8">
+      <c r="B179" s="229" t="s">
+        <v>607</v>
+      </c>
+      <c r="C179" s="224"/>
+      <c r="D179" s="224"/>
+      <c r="E179" s="224"/>
+      <c r="F179" s="224"/>
+    </row>
+    <row r="182" spans="2:8">
+      <c r="B182" s="37" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C182" s="224"/>
+      <c r="D182" s="224"/>
+      <c r="E182" s="224"/>
+      <c r="F182" s="224"/>
+      <c r="G182" s="224"/>
+    </row>
+    <row r="183" spans="2:8">
+      <c r="B183" s="37" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C183" s="224"/>
+      <c r="D183" s="224"/>
+      <c r="E183" s="224"/>
+      <c r="F183" s="224"/>
+      <c r="G183" s="224"/>
+    </row>
+    <row r="184" spans="2:8">
+      <c r="B184" s="37" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C184" s="224"/>
+      <c r="D184" s="224"/>
+      <c r="E184" s="224"/>
+      <c r="F184" s="224"/>
+      <c r="G184" s="224"/>
+    </row>
+    <row r="185" spans="2:8">
+      <c r="B185" s="37" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C185" s="224"/>
+      <c r="D185" s="224"/>
+      <c r="E185" s="224"/>
+      <c r="F185" s="224"/>
+      <c r="G185" s="224"/>
+    </row>
+    <row r="186" spans="2:8">
+      <c r="B186" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="C186" s="224"/>
+      <c r="D186" s="224"/>
+      <c r="E186" s="224"/>
+      <c r="F186" s="224"/>
+      <c r="G186" s="224"/>
+    </row>
+    <row r="187" spans="2:8">
+      <c r="B187" s="37" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C187" s="224"/>
+      <c r="D187" s="224"/>
+      <c r="E187" s="224"/>
+      <c r="F187" s="224"/>
+      <c r="G187" s="224"/>
+    </row>
+    <row r="188" spans="2:8">
+      <c r="B188" s="37" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C188" s="224"/>
+      <c r="D188" s="224"/>
+      <c r="E188" s="224"/>
+      <c r="F188" s="224"/>
+      <c r="G188" s="224"/>
+      <c r="H188" s="120" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8">
+      <c r="B189" s="37" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C189" s="224"/>
+      <c r="D189" s="224"/>
+      <c r="E189" s="224"/>
+      <c r="F189" s="224"/>
+      <c r="G189" s="224"/>
+      <c r="H189" s="120" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8">
+      <c r="B190" s="37" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C190" s="224"/>
+      <c r="D190" s="224"/>
+      <c r="E190" s="224"/>
+      <c r="F190" s="224"/>
+      <c r="G190" s="224"/>
+      <c r="H190" s="120" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8">
+      <c r="B191" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C191" s="224"/>
+      <c r="D191" s="224"/>
+      <c r="E191" s="224"/>
+      <c r="F191" s="224"/>
+      <c r="G191" s="224"/>
+    </row>
+    <row r="192" spans="2:8">
+      <c r="B192" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C192" s="224"/>
+      <c r="D192" s="224"/>
+      <c r="E192" s="224"/>
+      <c r="F192" s="224"/>
+      <c r="G192" s="224"/>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="225">
+        <v>12</v>
+      </c>
+      <c r="B196" s="225" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C196" s="225"/>
+      <c r="D196" s="225"/>
+      <c r="E196" s="225"/>
+      <c r="F196" s="225"/>
+      <c r="G196" s="225"/>
+      <c r="H196" s="225"/>
+      <c r="I196" s="225"/>
+      <c r="J196" s="225"/>
+      <c r="K196" s="225"/>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="C198" s="225" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="C199" s="225" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="D201" s="120" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="F203" s="37" t="s">
+        <v>2898</v>
+      </c>
+      <c r="G203" s="224"/>
+      <c r="H203" s="224"/>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="F204" s="37" t="s">
+        <v>2899</v>
+      </c>
+      <c r="G204" s="224"/>
+      <c r="H204" s="224"/>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="F205" s="37" t="s">
+        <v>2900</v>
+      </c>
+      <c r="G205" s="224"/>
+      <c r="H205" s="224"/>
+      <c r="J205" s="230" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="F206" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G206" s="224"/>
+      <c r="H206" s="224"/>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="D207" s="120" t="s">
+        <v>458</v>
+      </c>
+      <c r="E207" s="120" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="F208" s="37" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G208" s="224"/>
+      <c r="H208" s="224"/>
+    </row>
+    <row r="209" spans="3:10">
+      <c r="F209" s="37" t="s">
+        <v>2899</v>
+      </c>
+      <c r="G209" s="224"/>
+      <c r="H209" s="224"/>
+    </row>
+    <row r="210" spans="3:10">
+      <c r="F210" s="37" t="s">
+        <v>2900</v>
+      </c>
+      <c r="G210" s="224"/>
+      <c r="H210" s="224"/>
+      <c r="J210" s="230" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="211" spans="3:10">
+      <c r="F211" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211" s="224"/>
+      <c r="H211" s="224"/>
+    </row>
+    <row r="214" spans="3:10">
+      <c r="C214" s="225" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D214" s="225"/>
+      <c r="E214" s="225"/>
+      <c r="F214" s="225"/>
+      <c r="G214" s="225"/>
+      <c r="H214" s="225"/>
+      <c r="I214" s="225"/>
+      <c r="J214" s="225"/>
+    </row>
+    <row r="217" spans="3:10">
+      <c r="D217" s="58" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="218" spans="3:10">
+      <c r="D218" s="58" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="219" spans="3:10">
+      <c r="D219" s="58" t="s">
+        <v>2900</v>
+      </c>
+      <c r="H219" s="120" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="220" spans="3:10">
+      <c r="D220" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="3:10">
+      <c r="D222" s="120" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="224" spans="3:10">
+      <c r="D224" s="58" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="225" spans="3:10">
+      <c r="D225" s="58" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="226" spans="3:10">
+      <c r="D226" s="58" t="s">
+        <v>2909</v>
+      </c>
+      <c r="H226" s="230" t="s">
+        <v>2906</v>
+      </c>
+      <c r="I226" s="230"/>
+      <c r="J226" s="230"/>
+    </row>
+    <row r="227" spans="3:10">
+      <c r="D227" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229" spans="3:10">
+      <c r="C229" s="225" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="232" spans="3:10">
+      <c r="D232" s="58" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="233" spans="3:10">
+      <c r="D233" s="58" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="234" spans="3:10">
+      <c r="D234" s="58" t="s">
+        <v>2912</v>
+      </c>
+      <c r="I234" s="216" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="235" spans="3:10">
+      <c r="D235" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238" spans="3:10">
+      <c r="C238" s="225" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="241" spans="4:13">
+      <c r="D241" s="120" t="s">
+        <v>379</v>
+      </c>
+      <c r="F241" s="120" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="244" spans="4:13">
+      <c r="F244" s="58" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="245" spans="4:13">
+      <c r="F245" s="58" t="s">
+        <v>2916</v>
+      </c>
+      <c r="K245" s="230" t="s">
+        <v>1781</v>
+      </c>
+      <c r="L245" s="230"/>
+      <c r="M245" s="230"/>
+    </row>
+    <row r="246" spans="4:13">
+      <c r="F246" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K246" s="230"/>
+      <c r="L246" s="230"/>
+      <c r="M246" s="230"/>
+    </row>
+    <row r="247" spans="4:13">
+      <c r="F247" s="79"/>
+      <c r="K247" s="230"/>
+      <c r="L247" s="230"/>
+      <c r="M247" s="230"/>
+    </row>
+    <row r="248" spans="4:13">
+      <c r="F248" s="58" t="s">
+        <v>2917</v>
+      </c>
+      <c r="K248" s="230"/>
+      <c r="L248" s="230"/>
+      <c r="M248" s="230"/>
+    </row>
+    <row r="249" spans="4:13">
+      <c r="F249" s="58" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K249" s="230"/>
+      <c r="L249" s="230"/>
+      <c r="M249" s="230"/>
+    </row>
+    <row r="250" spans="4:13">
+      <c r="F250" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K250" s="230" t="s">
+        <v>1781</v>
+      </c>
+      <c r="L250" s="230"/>
+      <c r="M250" s="230"/>
+    </row>
+    <row r="251" spans="4:13">
+      <c r="F251" s="79"/>
+      <c r="K251" s="230"/>
+      <c r="L251" s="230"/>
+      <c r="M251" s="230"/>
+    </row>
+    <row r="252" spans="4:13">
+      <c r="F252" s="58" t="s">
+        <v>2919</v>
+      </c>
+      <c r="K252" s="230"/>
+      <c r="L252" s="230"/>
+      <c r="M252" s="230"/>
+    </row>
+    <row r="253" spans="4:13">
+      <c r="F253" s="58" t="s">
+        <v>2920</v>
+      </c>
+      <c r="K253" s="230"/>
+      <c r="L253" s="230"/>
+      <c r="M253" s="230"/>
+    </row>
+    <row r="254" spans="4:13">
+      <c r="F254" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K254" s="230" t="s">
+        <v>1781</v>
+      </c>
+      <c r="L254" s="230"/>
+      <c r="M254" s="230"/>
+    </row>
+    <row r="255" spans="4:13">
+      <c r="K255" s="230"/>
+      <c r="L255" s="230"/>
+      <c r="M255" s="230"/>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="225">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="B258" s="120" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="B260" s="120" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="B262" s="120" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="B264" s="120" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="B266" s="120" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="B268" s="120" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="B270" s="120" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="B272" s="120" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="120" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="120" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="209" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281"/>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="231" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283"/>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="232" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285"/>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="233" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287"/>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="234" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289"/>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="233" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291"/>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="235" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293"/>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="233" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295"/>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="234" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297"/>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="233" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299"/>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="235" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301"/>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="233" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303"/>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="232" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305"/>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="233" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307"/>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="233" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309"/>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="233" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311"/>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="233" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313"/>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="233" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315"/>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="233" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317"/>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="233" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319"/>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="233" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321"/>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="233" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323"/>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="233" t="s">
+        <v>2965</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T496"/>
+  <dimension ref="A2:T514"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I263" sqref="I263"/>
+    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20076,615 +21370,562 @@
       <c r="R373" s="13"/>
       <c r="S373" s="13"/>
     </row>
+    <row r="374" spans="1:20">
+      <c r="D374" s="24"/>
+      <c r="E374" s="13"/>
+      <c r="F374" s="13"/>
+      <c r="G374" s="13"/>
+      <c r="H374" s="13"/>
+      <c r="I374" s="13"/>
+      <c r="L374" s="13"/>
+      <c r="M374" s="13"/>
+      <c r="N374" s="13"/>
+      <c r="O374" s="13"/>
+      <c r="P374" s="13"/>
+      <c r="Q374" s="13"/>
+      <c r="R374" s="13"/>
+      <c r="S374" s="13"/>
+    </row>
+    <row r="375" spans="1:20">
+      <c r="D375" s="24"/>
+      <c r="E375" s="13"/>
+      <c r="F375" s="13"/>
+      <c r="G375" s="13"/>
+      <c r="H375" s="13"/>
+      <c r="I375" s="13"/>
+      <c r="L375" s="13"/>
+      <c r="M375" s="13"/>
+      <c r="N375" s="13"/>
+      <c r="O375" s="13"/>
+      <c r="P375" s="13"/>
+      <c r="Q375" s="13"/>
+      <c r="R375" s="13"/>
+      <c r="S375" s="13"/>
+    </row>
+    <row r="376" spans="1:20">
+      <c r="A376" s="2" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D376" s="24"/>
+      <c r="E376" s="13"/>
+      <c r="F376" s="13"/>
+      <c r="G376" s="13"/>
+      <c r="H376" s="13"/>
+      <c r="I376" s="13"/>
+      <c r="L376" s="13"/>
+      <c r="M376" s="13"/>
+      <c r="N376" s="13"/>
+      <c r="O376" s="13"/>
+      <c r="P376" s="13"/>
+      <c r="Q376" s="13"/>
+      <c r="R376" s="13"/>
+      <c r="S376" s="13"/>
+    </row>
+    <row r="377" spans="1:20">
+      <c r="D377" s="24"/>
+      <c r="E377" s="13"/>
+      <c r="F377" s="13"/>
+      <c r="G377" s="13"/>
+      <c r="H377" s="13"/>
+      <c r="I377" s="13"/>
+      <c r="L377" s="13"/>
+      <c r="M377" s="13"/>
+      <c r="N377" s="13"/>
+      <c r="O377" s="13"/>
+      <c r="P377" s="13"/>
+      <c r="Q377" s="13"/>
+      <c r="R377" s="13"/>
+      <c r="S377" s="13"/>
+    </row>
     <row r="378" spans="1:20">
-      <c r="A378" s="2" t="s">
+      <c r="C378" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D378" s="24"/>
+      <c r="E378" s="13"/>
+      <c r="F378" s="13"/>
+      <c r="G378" s="13"/>
+      <c r="H378" s="13"/>
+      <c r="I378" s="13"/>
+      <c r="L378" s="13"/>
+      <c r="M378" s="13"/>
+      <c r="N378" s="13"/>
+      <c r="O378" s="13"/>
+      <c r="P378" s="13"/>
+      <c r="Q378" s="13"/>
+      <c r="R378" s="13"/>
+      <c r="S378" s="13"/>
+    </row>
+    <row r="383" spans="1:20">
+      <c r="A383" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="380" spans="1:20">
-      <c r="B380" s="3" t="s">
+    <row r="385" spans="2:8">
+      <c r="B385" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="381" spans="1:20">
-      <c r="C381" s="3" t="s">
+    <row r="386" spans="2:8">
+      <c r="C386" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="384" spans="1:20">
-      <c r="C384" s="3" t="s">
+    <row r="388" spans="2:8">
+      <c r="C388" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
-      <c r="A385" s="2" t="s">
+    <row r="390" spans="2:8">
+      <c r="B390" s="2" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="391" spans="2:8">
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" spans="2:8">
+      <c r="B392" s="2"/>
+      <c r="D392" s="3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H392" s="9" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="394" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D394" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="395" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="396" spans="2:8" ht="15.75" customHeight="1">
+      <c r="C396" s="3" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="397" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="398" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D398" s="58" t="s">
+        <v>2930</v>
+      </c>
+      <c r="H398" s="9" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="399" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D399" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="400" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D400" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
-      <c r="B388" s="3" t="s">
+    <row r="406" spans="1:9">
+      <c r="B406" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
-      <c r="C390" s="24" t="s">
+    <row r="408" spans="1:9">
+      <c r="C408" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="D390" s="13"/>
-      <c r="E390" s="13"/>
-      <c r="F390" s="13"/>
-      <c r="G390" s="13"/>
-      <c r="H390" s="13"/>
-      <c r="I390" s="13"/>
-    </row>
-    <row r="391" spans="1:9">
-      <c r="C391" s="24" t="s">
+      <c r="D408" s="13"/>
+      <c r="E408" s="13"/>
+      <c r="F408" s="13"/>
+      <c r="G408" s="13"/>
+      <c r="H408" s="13"/>
+      <c r="I408" s="13"/>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="C409" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="D391" s="13"/>
-      <c r="E391" s="13"/>
-      <c r="F391" s="13"/>
-      <c r="G391" s="13"/>
-      <c r="H391" s="13"/>
-      <c r="I391" s="13"/>
-    </row>
-    <row r="392" spans="1:9">
-      <c r="C392" s="24" t="s">
+      <c r="D409" s="13"/>
+      <c r="E409" s="13"/>
+      <c r="F409" s="13"/>
+      <c r="G409" s="13"/>
+      <c r="H409" s="13"/>
+      <c r="I409" s="13"/>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="C410" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="D392" s="13"/>
-      <c r="E392" s="13"/>
-      <c r="F392" s="13"/>
-      <c r="G392" s="13"/>
-      <c r="H392" s="13"/>
-      <c r="I392" s="13"/>
-    </row>
-    <row r="393" spans="1:9">
-      <c r="C393" s="24" t="s">
+      <c r="D410" s="13"/>
+      <c r="E410" s="13"/>
+      <c r="F410" s="13"/>
+      <c r="G410" s="13"/>
+      <c r="H410" s="13"/>
+      <c r="I410" s="13"/>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="C411" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="D393" s="13"/>
-      <c r="E393" s="13"/>
-      <c r="F393" s="13"/>
-      <c r="G393" s="13"/>
-      <c r="H393" s="13"/>
-      <c r="I393" s="13"/>
-    </row>
-    <row r="394" spans="1:9">
-      <c r="C394" s="24" t="s">
+      <c r="D411" s="13"/>
+      <c r="E411" s="13"/>
+      <c r="F411" s="13"/>
+      <c r="G411" s="13"/>
+      <c r="H411" s="13"/>
+      <c r="I411" s="13"/>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="C412" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="D394" s="13"/>
-      <c r="E394" s="13"/>
-      <c r="F394" s="13"/>
-      <c r="G394" s="13"/>
-      <c r="H394" s="13"/>
-      <c r="I394" s="13"/>
-    </row>
-    <row r="395" spans="1:9">
-      <c r="C395" s="24" t="s">
+      <c r="D412" s="13"/>
+      <c r="E412" s="13"/>
+      <c r="F412" s="13"/>
+      <c r="G412" s="13"/>
+      <c r="H412" s="13"/>
+      <c r="I412" s="13"/>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="C413" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="D395" s="13"/>
-      <c r="E395" s="13"/>
-      <c r="F395" s="13"/>
-      <c r="G395" s="13"/>
-      <c r="H395" s="13"/>
-      <c r="I395" s="13"/>
-    </row>
-    <row r="396" spans="1:9">
-      <c r="C396" s="24" t="s">
+      <c r="D413" s="13"/>
+      <c r="E413" s="13"/>
+      <c r="F413" s="13"/>
+      <c r="G413" s="13"/>
+      <c r="H413" s="13"/>
+      <c r="I413" s="13"/>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="C414" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D396" s="13"/>
-      <c r="E396" s="13"/>
-      <c r="F396" s="13"/>
-      <c r="G396" s="13"/>
-      <c r="H396" s="13"/>
-      <c r="I396" s="13"/>
-    </row>
-    <row r="398" spans="1:9">
-      <c r="C398" s="3" t="s">
+      <c r="D414" s="13"/>
+      <c r="E414" s="13"/>
+      <c r="F414" s="13"/>
+      <c r="G414" s="13"/>
+      <c r="H414" s="13"/>
+      <c r="I414" s="13"/>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="C416" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D398" s="28" t="s">
+      <c r="D416" s="28" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
-      <c r="D399"/>
-    </row>
-    <row r="400" spans="1:9">
-      <c r="D400" s="28" t="s">
+    <row r="417" spans="1:5">
+      <c r="D417"/>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="D418" s="28" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
-      <c r="D401"/>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="D402" s="28" t="s">
+    <row r="419" spans="1:5">
+      <c r="D419"/>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="D420" s="28" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
-      <c r="A404" s="29" t="s">
+    <row r="422" spans="1:5">
+      <c r="A422" s="29" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
-      <c r="B406" s="3" t="s">
+    <row r="424" spans="1:5">
+      <c r="B424" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D406" s="3" t="s">
+      <c r="D424" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
-      <c r="E408" s="3" t="s">
+    <row r="426" spans="1:5">
+      <c r="E426" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
-      <c r="D409" s="3" t="s">
+    <row r="427" spans="1:5">
+      <c r="D427" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
-      <c r="A410" s="2" t="s">
+    <row r="428" spans="1:5">
+      <c r="A428" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
-      <c r="A411" s="2"/>
-      <c r="B411" s="3" t="s">
+    <row r="429" spans="1:5">
+      <c r="A429" s="2"/>
+      <c r="B429" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D411" s="3" t="s">
+      <c r="D429" s="3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
-      <c r="A412" s="2"/>
-      <c r="B412" s="3" t="s">
+    <row r="430" spans="1:5">
+      <c r="A430" s="2"/>
+      <c r="B430" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
-      <c r="B413" s="3" t="s">
+    <row r="431" spans="1:5">
+      <c r="B431" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E413" s="3" t="s">
+      <c r="E431" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
-      <c r="E414" s="3" t="s">
+    <row r="432" spans="1:5">
+      <c r="E432" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="415" spans="1:5" s="6" customFormat="1">
-      <c r="A415" s="6" t="s">
+    <row r="433" spans="1:8" s="6" customFormat="1">
+      <c r="A433" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B415" s="6" t="s">
+      <c r="B433" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
-      <c r="A416" s="3" t="s">
+    <row r="434" spans="1:8">
+      <c r="A434" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B434" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C416" s="3" t="s">
+      <c r="C434" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D416" s="3" t="s">
+      <c r="D434" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="E416" s="3" t="s">
+      <c r="E434" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
-      <c r="A417" s="3">
+    <row r="435" spans="1:8">
+      <c r="A435" s="3">
         <v>1</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B435" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C417" s="3" t="s">
+      <c r="C435" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D417" s="3" t="s">
+      <c r="D435" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E417" s="3" t="s">
+      <c r="E435" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="H417" s="3" t="s">
+      <c r="H435" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
-      <c r="A418" s="3">
+    <row r="436" spans="1:8">
+      <c r="A436" s="3">
         <v>2</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B436" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C418" s="3" t="s">
+      <c r="C436" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E418" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
-      <c r="A419" s="3">
-        <v>3</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D419" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8">
-      <c r="A420" s="3">
-        <v>4</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E420" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
-      <c r="A421" s="3">
-        <v>5</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8">
-      <c r="A422" s="3">
-        <v>6</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E422" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8">
-      <c r="A423" s="3">
-        <v>7</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E423" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8">
-      <c r="A424" s="3">
-        <v>8</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D424" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E424" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8">
-      <c r="A425" s="3">
-        <v>9</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E425" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8">
-      <c r="A426" s="3">
-        <v>10</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E426" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8">
-      <c r="A427" s="3">
-        <v>11</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E427" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
-      <c r="A428" s="3">
-        <v>12</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8">
-      <c r="A429" s="3">
-        <v>13</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E429" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8">
-      <c r="A430" s="3">
-        <v>14</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8">
-      <c r="A431" s="3">
-        <v>15</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8">
-      <c r="A432" s="3">
-        <v>16</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
-      <c r="A433" s="3">
-        <v>17</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
-      <c r="A434" s="3">
-        <v>18</v>
-      </c>
-      <c r="B434" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C434" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E434" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
-      <c r="A435" s="3">
-        <v>19</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
-      <c r="A436" s="3">
-        <v>20</v>
-      </c>
-      <c r="B436" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="A438" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="A439" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B439" s="30">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" s="2" customFormat="1">
-      <c r="A441" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
-      <c r="A443" s="32" t="s">
-        <v>672</v>
-      </c>
-      <c r="B443" s="32" t="s">
-        <v>634</v>
-      </c>
-      <c r="C443" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="D443" s="32" t="s">
-        <v>636</v>
-      </c>
-      <c r="E443" s="32" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+      <c r="E436" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" s="3">
+        <v>3</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" s="3">
+        <v>4</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" s="3">
+        <v>5</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="A440" s="3">
+        <v>6</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="A441" s="3">
+        <v>7</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" s="3">
+        <v>8</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="A443" s="3">
+        <v>9</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444" s="3">
-        <v>1</v>
-      </c>
-      <c r="B444" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C444" s="34" t="s">
-        <v>205</v>
+        <v>10</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445" s="3">
-        <v>2</v>
-      </c>
-      <c r="B445" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C445" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C445" s="34" t="s">
-        <v>211</v>
-      </c>
       <c r="D445" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446" s="3">
-        <v>3</v>
-      </c>
-      <c r="B446" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C446" s="34" t="s">
-        <v>246</v>
+        <v>12</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:8">
       <c r="A447" s="3">
-        <v>4</v>
-      </c>
-      <c r="B447" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C447" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>202</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E447" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448" s="3">
-        <v>5</v>
-      </c>
-      <c r="B448" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C448" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B448" s="3" t="s">
         <v>246</v>
       </c>
       <c r="D448" s="3" t="s">
@@ -20693,13 +21934,10 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="3">
-        <v>6</v>
-      </c>
-      <c r="B449" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C449" s="34" t="s">
-        <v>205</v>
+        <v>15</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>41</v>
@@ -20707,13 +21945,10 @@
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="3">
-        <v>7</v>
-      </c>
-      <c r="B450" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C450" s="34" t="s">
-        <v>205</v>
+        <v>16</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>41</v>
@@ -20721,13 +21956,10 @@
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="3">
-        <v>8</v>
-      </c>
-      <c r="B451" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C451" s="34" t="s">
-        <v>246</v>
+        <v>17</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>41</v>
@@ -20735,27 +21967,27 @@
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="3">
-        <v>9</v>
-      </c>
-      <c r="B452" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C452" s="34" t="s">
-        <v>246</v>
+        <v>18</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="3">
-        <v>10</v>
-      </c>
-      <c r="B453" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C453" s="34" t="s">
-        <v>211</v>
+        <v>19</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>41</v>
@@ -20763,198 +21995,135 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="3">
-        <v>11</v>
-      </c>
-      <c r="B454" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="C454" s="34" t="s">
-        <v>202</v>
+        <v>20</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
-      <c r="A455" s="3">
-        <v>12</v>
-      </c>
-      <c r="B455" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="C455" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="D455" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E455" s="3" t="s">
-        <v>681</v>
-      </c>
     </row>
     <row r="456" spans="1:5">
-      <c r="A456" s="3">
-        <v>13</v>
-      </c>
-      <c r="B456" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C456" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E456" s="3" t="s">
-        <v>682</v>
+      <c r="A456" s="3" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="457" spans="1:5">
-      <c r="A457" s="3">
-        <v>14</v>
-      </c>
-      <c r="B457" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="C457" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
-      <c r="A458" s="3">
-        <v>15</v>
-      </c>
-      <c r="B458" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C458" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
-      <c r="A459" s="3">
-        <v>16</v>
-      </c>
-      <c r="B459" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C459" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E459" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
-      <c r="A460" s="3">
-        <v>17</v>
-      </c>
-      <c r="B460" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C460" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>41</v>
+      <c r="A457" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B457" s="30">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" s="2" customFormat="1">
+      <c r="A459" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="461" spans="1:5">
-      <c r="A461" s="3">
-        <v>18</v>
-      </c>
-      <c r="B461" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C461" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>90</v>
+      <c r="A461" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="B461" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="C461" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="D461" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="E461" s="32" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B462" s="31" t="s">
-        <v>674</v>
+        <v>205</v>
       </c>
       <c r="C462" s="34" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="E462" s="3" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B463" s="31" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C463" s="34" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="3">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B464" s="31" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C464" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="3">
+        <v>4</v>
+      </c>
+      <c r="B465" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D464" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="3">
-        <v>22</v>
-      </c>
-      <c r="B465" s="31" t="s">
-        <v>211</v>
-      </c>
       <c r="C465" s="34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="466" spans="1:4">
+      <c r="E465" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
       <c r="A466" s="3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B466" s="31" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C466" s="34" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:5">
       <c r="A467" s="3">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B467" s="31" t="s">
         <v>205</v>
@@ -20966,197 +22135,206 @@
         <v>41</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:5">
       <c r="A468" s="3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B468" s="31" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="C468" s="34" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:5">
       <c r="A469" s="3">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B469" s="31" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C469" s="34" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="D469" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:5">
       <c r="A470" s="3">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B470" s="31" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C470" s="34" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:5">
       <c r="A471" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B471" s="31" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C471" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="3">
+        <v>11</v>
+      </c>
+      <c r="B472" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="C472" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="D471" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="3">
-        <v>29</v>
-      </c>
-      <c r="B472" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C472" s="34" t="s">
-        <v>205</v>
-      </c>
       <c r="D472" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
       <c r="A473" s="3">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B473" s="31" t="s">
-        <v>211</v>
+        <v>675</v>
       </c>
       <c r="C473" s="34" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="474" spans="1:4">
+      <c r="E473" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
       <c r="A474" s="3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B474" s="31" t="s">
         <v>211</v>
       </c>
       <c r="C474" s="34" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
       <c r="A475" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B475" s="31" t="s">
-        <v>205</v>
+        <v>674</v>
       </c>
       <c r="C475" s="34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:5">
       <c r="A476" s="3">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B476" s="31" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="C476" s="34" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:5">
       <c r="A477" s="3">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B477" s="31" t="s">
         <v>211</v>
       </c>
       <c r="C477" s="34" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="478" spans="1:4">
+      <c r="E477" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
       <c r="A478" s="3">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B478" s="31" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C478" s="34" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D478" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="3">
+        <v>18</v>
+      </c>
+      <c r="B479" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C479" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D479" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="3">
-        <v>36</v>
-      </c>
-      <c r="B479" s="31" t="s">
+    <row r="480" spans="1:5">
+      <c r="A480" s="3">
+        <v>19</v>
+      </c>
+      <c r="B480" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="C480" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C479" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="D479" s="3" t="s">
+      <c r="D480" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="3">
-        <v>37</v>
-      </c>
-      <c r="B480" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C480" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="3">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B481" s="31" t="s">
-        <v>675</v>
+        <v>205</v>
       </c>
       <c r="C481" s="34" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>90</v>
@@ -21164,41 +22342,41 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="3">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B482" s="31" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C482" s="34" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="3">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B483" s="31" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C483" s="34" t="s">
         <v>205</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="3">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B484" s="31" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C484" s="34" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>41</v>
@@ -21206,27 +22384,27 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="3">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B485" s="31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C485" s="34" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="3">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B486" s="31" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="C486" s="34" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="D486" s="3" t="s">
         <v>41</v>
@@ -21234,7 +22412,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="3">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B487" s="31" t="s">
         <v>211</v>
@@ -21248,7 +22426,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="3">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B488" s="31" t="s">
         <v>205</v>
@@ -21262,13 +22440,13 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="3">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B489" s="31" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C489" s="34" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D489" s="3" t="s">
         <v>90</v>
@@ -21276,35 +22454,35 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B490" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C490" s="34" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B491" s="31" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C491" s="34" t="s">
         <v>246</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="3">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B492" s="31" t="s">
         <v>211</v>
@@ -21318,31 +22496,283 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="3">
+        <v>32</v>
+      </c>
+      <c r="B493" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C493" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="3">
+        <v>33</v>
+      </c>
+      <c r="B494" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C494" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="3">
+        <v>34</v>
+      </c>
+      <c r="B495" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C495" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="3">
+        <v>35</v>
+      </c>
+      <c r="B496" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C496" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="3">
+        <v>36</v>
+      </c>
+      <c r="B497" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C497" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="3">
+        <v>37</v>
+      </c>
+      <c r="B498" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C498" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="3">
+        <v>38</v>
+      </c>
+      <c r="B499" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="C499" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="3">
+        <v>39</v>
+      </c>
+      <c r="B500" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C500" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="3">
+        <v>40</v>
+      </c>
+      <c r="B501" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C501" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="3">
+        <v>41</v>
+      </c>
+      <c r="B502" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C502" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="3">
+        <v>42</v>
+      </c>
+      <c r="B503" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C503" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="3">
+        <v>43</v>
+      </c>
+      <c r="B504" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C504" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="3">
+        <v>44</v>
+      </c>
+      <c r="B505" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C505" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="3">
+        <v>45</v>
+      </c>
+      <c r="B506" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C506" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="3">
+        <v>46</v>
+      </c>
+      <c r="B507" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C507" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="3">
+        <v>47</v>
+      </c>
+      <c r="B508" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C508" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="3">
+        <v>48</v>
+      </c>
+      <c r="B509" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C509" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="3">
+        <v>49</v>
+      </c>
+      <c r="B510" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C510" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="3">
         <v>50</v>
       </c>
-      <c r="B493" s="31" t="s">
+      <c r="B511" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C493" s="34" t="s">
+      <c r="C511" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="D493" s="3" t="s">
+      <c r="D511" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="3" t="s">
+    <row r="513" spans="1:3">
+      <c r="A513" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C495" s="31" t="s">
+      <c r="C513" s="31" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="3" t="s">
+    <row r="514" spans="1:3">
+      <c r="A514" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C496" s="35">
+      <c r="C514" s="35">
         <v>0.64</v>
       </c>
     </row>
@@ -21357,8 +22787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1010"/>
   <sheetViews>
-    <sheetView topLeftCell="A466" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F474" sqref="F474"/>
+    <sheetView topLeftCell="A961" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D973" sqref="D973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44334,12 +45764,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K449"/>
+  <dimension ref="A2:K533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B410" sqref="B410"/>
+      <selection pane="topRight" activeCell="B498" sqref="B498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49531,16 +50961,16 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:5">
       <c r="A370" s="202" t="s">
         <v>2688</v>
       </c>
       <c r="B370" s="203" t="s">
-        <v>2762</v>
+        <v>2864</v>
       </c>
       <c r="C370" s="204"/>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:5">
       <c r="A371" s="226" t="s">
         <v>638</v>
       </c>
@@ -49552,591 +50982,1500 @@
       </c>
       <c r="D371" s="227"/>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:5">
       <c r="A372" s="213">
         <v>1</v>
       </c>
       <c r="B372" s="67" t="s">
         <v>209</v>
       </c>
+      <c r="C372" s="196" t="s">
+        <v>209</v>
+      </c>
       <c r="D372" s="227"/>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:5">
       <c r="A373" s="213">
         <v>2</v>
       </c>
       <c r="B373" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="D373" s="227"/>
-    </row>
-    <row r="374" spans="1:4">
+      <c r="C373" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D373" s="228" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
       <c r="A374" s="213">
         <v>3</v>
       </c>
       <c r="B374" s="67" t="s">
         <v>246</v>
       </c>
+      <c r="C374" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="D374" s="227"/>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:5">
       <c r="A375" s="213">
         <v>4</v>
       </c>
       <c r="B375" s="67" t="s">
         <v>206</v>
       </c>
+      <c r="C375" s="196" t="s">
+        <v>206</v>
+      </c>
       <c r="D375" s="227"/>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:5">
       <c r="A376" s="213">
         <v>5</v>
       </c>
       <c r="B376" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D376" s="227"/>
-    </row>
-    <row r="377" spans="1:4">
+      <c r="C376" s="196" t="s">
+        <v>212</v>
+      </c>
+      <c r="D376" s="227" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
       <c r="A377" s="213">
         <v>6</v>
       </c>
       <c r="B377" s="67" t="s">
         <v>205</v>
       </c>
+      <c r="C377" s="67" t="s">
+        <v>206</v>
+      </c>
       <c r="D377" s="227" t="s">
-        <v>2863</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
       <c r="A378" s="213">
         <v>7</v>
       </c>
       <c r="B378" s="67" t="s">
         <v>206</v>
       </c>
+      <c r="C378" s="67" t="s">
+        <v>246</v>
+      </c>
       <c r="D378" s="227"/>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:5">
       <c r="A379" s="213">
         <v>8</v>
       </c>
       <c r="B379" s="67" t="s">
         <v>205</v>
       </c>
+      <c r="C379" s="67" t="s">
+        <v>202</v>
+      </c>
       <c r="D379" s="227" t="s">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
       <c r="A380" s="213">
         <v>9</v>
       </c>
       <c r="B380" s="67" t="s">
         <v>246</v>
       </c>
+      <c r="C380" s="196" t="s">
+        <v>246</v>
+      </c>
       <c r="D380" s="227"/>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:5" ht="14.25" customHeight="1">
       <c r="A381" s="213">
         <v>10</v>
       </c>
       <c r="B381" s="67" t="s">
         <v>1359</v>
       </c>
-      <c r="D381" s="227"/>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="213">
+      <c r="C381" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="D381" s="227" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A382" s="213"/>
+      <c r="D382" s="227" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E382" s="209" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A383" s="213"/>
+      <c r="D383" s="227"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="213">
         <v>11</v>
       </c>
-      <c r="B382" s="67" t="s">
+      <c r="B384" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="D382" s="227"/>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="213">
-        <v>12</v>
-      </c>
-      <c r="B383" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="D383" s="227"/>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="213">
-        <v>13</v>
-      </c>
-      <c r="B384" s="67" t="s">
-        <v>202</v>
+      <c r="C384" s="67" t="s">
+        <v>205</v>
       </c>
       <c r="D384" s="227"/>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="213">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B385" s="67" t="s">
-        <v>1825</v>
+        <v>211</v>
+      </c>
+      <c r="C385" s="196" t="s">
+        <v>211</v>
       </c>
       <c r="D385" s="227"/>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="213">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B386" s="67" t="s">
-        <v>209</v>
+        <v>202</v>
+      </c>
+      <c r="C386" s="196" t="s">
+        <v>202</v>
       </c>
       <c r="D386" s="227"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="213">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B387" s="67" t="s">
-        <v>2704</v>
+        <v>1825</v>
+      </c>
+      <c r="C387" s="196" t="s">
+        <v>1825</v>
       </c>
       <c r="D387" s="227"/>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="213">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B388" s="67" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="C388" s="196" t="s">
+        <v>209</v>
       </c>
       <c r="D388" s="227"/>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="213">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B389" s="67" t="s">
-        <v>205</v>
+        <v>2704</v>
+      </c>
+      <c r="C389" s="196" t="s">
+        <v>2704</v>
       </c>
       <c r="D389" s="227"/>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="213">
-        <v>19</v>
-      </c>
-      <c r="B390" s="214" t="s">
-        <v>211</v>
+        <v>17</v>
+      </c>
+      <c r="B390" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="C390" s="196" t="s">
+        <v>210</v>
       </c>
       <c r="D390" s="227"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="213">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B391" s="67" t="s">
-        <v>1747</v>
+        <v>205</v>
+      </c>
+      <c r="C391" s="196" t="s">
+        <v>205</v>
       </c>
       <c r="D391" s="227"/>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="213">
-        <v>21</v>
-      </c>
-      <c r="B392" s="67" t="s">
-        <v>1357</v>
+        <v>19</v>
+      </c>
+      <c r="B392" s="214" t="s">
+        <v>211</v>
+      </c>
+      <c r="C392" s="196" t="s">
+        <v>211</v>
       </c>
       <c r="D392" s="227"/>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="213">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B393" s="67" t="s">
-        <v>205</v>
+        <v>1747</v>
+      </c>
+      <c r="C393" s="67" t="s">
+        <v>1745</v>
       </c>
       <c r="D393" s="227"/>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="213">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B394" s="67" t="s">
-        <v>201</v>
+        <v>1357</v>
+      </c>
+      <c r="C394" s="196" t="s">
+        <v>1357</v>
       </c>
       <c r="D394" s="227"/>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="213">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B395" s="67" t="s">
-        <v>1363</v>
+        <v>205</v>
+      </c>
+      <c r="C395" s="196" t="s">
+        <v>205</v>
       </c>
       <c r="D395" s="227"/>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="213">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B396" s="67" t="s">
-        <v>1359</v>
+        <v>201</v>
+      </c>
+      <c r="C396" s="196" t="s">
+        <v>201</v>
       </c>
       <c r="D396" s="227"/>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="213">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B397" s="67" t="s">
-        <v>246</v>
+        <v>1363</v>
+      </c>
+      <c r="C397" s="196" t="s">
+        <v>1363</v>
       </c>
       <c r="D397" s="227"/>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="213">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B398" s="67" t="s">
-        <v>202</v>
+        <v>1359</v>
+      </c>
+      <c r="C398" s="67" t="s">
+        <v>1363</v>
       </c>
       <c r="D398" s="227"/>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="213">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B399" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C399" s="196" t="s">
+        <v>246</v>
       </c>
       <c r="D399" s="227"/>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="213">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B400" s="67" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="C400" s="196" t="s">
+        <v>202</v>
       </c>
       <c r="D400" s="227"/>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="213">
-        <v>30</v>
-      </c>
-      <c r="B401" s="67" t="s">
-        <v>246</v>
+        <v>28</v>
+      </c>
+      <c r="C401" s="67" t="s">
+        <v>1354</v>
       </c>
       <c r="D401" s="227"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="213">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B402" s="67" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="C402" s="67" t="s">
+        <v>212</v>
       </c>
       <c r="D402" s="227"/>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="213">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B403" s="67" t="s">
-        <v>211</v>
+        <v>246</v>
+      </c>
+      <c r="C403" s="196" t="s">
+        <v>246</v>
       </c>
       <c r="D403" s="227"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="213">
-        <v>33</v>
-      </c>
-      <c r="B404" s="214" t="s">
-        <v>1364</v>
+        <v>31</v>
+      </c>
+      <c r="B404" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C404" s="196" t="s">
+        <v>201</v>
       </c>
       <c r="D404" s="227"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="213">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B405" s="67" t="s">
-        <v>1353</v>
+        <v>211</v>
+      </c>
+      <c r="C405" s="196" t="s">
+        <v>211</v>
       </c>
       <c r="D405" s="227"/>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="213">
-        <v>35</v>
-      </c>
-      <c r="B406" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="D406" s="227"/>
+        <v>33</v>
+      </c>
+      <c r="B406" s="214" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C406" s="196" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D406" s="227" t="s">
+        <v>2933</v>
+      </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="213">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B407" s="67" t="s">
-        <v>202</v>
+        <v>1353</v>
+      </c>
+      <c r="C407" s="67" t="s">
+        <v>1360</v>
       </c>
       <c r="D407" s="227"/>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="213">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B408" s="67" t="s">
         <v>206</v>
       </c>
+      <c r="C408" s="196" t="s">
+        <v>206</v>
+      </c>
       <c r="D408" s="227"/>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="213">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B409" s="67" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="C409" s="196" t="s">
+        <v>202</v>
       </c>
       <c r="D409" s="227"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="213">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B410" s="67" t="s">
-        <v>246</v>
+        <v>206</v>
+      </c>
+      <c r="C410" s="196" t="s">
+        <v>206</v>
       </c>
       <c r="D410" s="227"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="213">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B411" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C411" s="196" t="s">
+        <v>205</v>
       </c>
       <c r="D411" s="227"/>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="213">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="B412" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C412" s="196" t="s">
+        <v>246</v>
       </c>
       <c r="D412" s="227"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="213">
-        <v>42</v>
-      </c>
-      <c r="D413" s="227"/>
+        <v>40</v>
+      </c>
+      <c r="C413" s="67" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D413" s="227" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="213">
-        <v>43</v>
-      </c>
-      <c r="D414" s="227"/>
+        <v>41</v>
+      </c>
+      <c r="B414" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C414" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="D414" s="227" t="s">
+        <v>2935</v>
+      </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="213">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B415" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C415" s="196" t="s">
+        <v>246</v>
       </c>
       <c r="D415" s="227"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="213">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B416" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C416" s="196" t="s">
+        <v>211</v>
       </c>
       <c r="D416" s="227"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="213">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="B417" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C417" s="196" t="s">
+        <v>206</v>
       </c>
       <c r="D417" s="227"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="213">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B418" s="67" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C418" s="67" t="s">
+        <v>2735</v>
       </c>
       <c r="D418" s="227"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="213">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="B419" s="67" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C419" s="196" t="s">
+        <v>2863</v>
       </c>
       <c r="D419" s="227"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="213">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="B420" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C420" s="196" t="s">
+        <v>202</v>
       </c>
       <c r="D420" s="227"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="213">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="B421" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C421" s="67" t="s">
+        <v>211</v>
       </c>
       <c r="D421" s="227"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="213">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B422" s="214" t="s">
+        <v>211</v>
+      </c>
+      <c r="C422" s="196" t="s">
+        <v>211</v>
       </c>
       <c r="D422" s="227"/>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="213">
-        <v>52</v>
-      </c>
-      <c r="D423" s="227"/>
+        <v>50</v>
+      </c>
+      <c r="B423" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C423" s="196" t="s">
+        <v>246</v>
+      </c>
+      <c r="D423" s="227" t="s">
+        <v>2936</v>
+      </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="213">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="B424" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C424" s="67" t="s">
+        <v>202</v>
       </c>
       <c r="D424" s="227"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="213">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="B425" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C425" s="196" t="s">
+        <v>246</v>
       </c>
       <c r="D425" s="227"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="213">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="B426" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C426" s="196" t="s">
+        <v>202</v>
       </c>
       <c r="D426" s="227"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="213">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="B427" s="67" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C427" s="196" t="s">
+        <v>1364</v>
       </c>
       <c r="D427" s="227"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="213">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="B428" s="67" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C428" s="196" t="s">
+        <v>1357</v>
       </c>
       <c r="D428" s="227"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="213">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B429" s="214" t="s">
+        <v>246</v>
+      </c>
+      <c r="C429" s="196" t="s">
+        <v>246</v>
       </c>
       <c r="D429" s="227"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="213">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="B430" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C430" s="196" t="s">
+        <v>205</v>
       </c>
       <c r="D430" s="227"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="213">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="B431" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C431" s="196" t="s">
+        <v>246</v>
       </c>
       <c r="D431" s="227"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="213">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="B432" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C432" s="67" t="s">
+        <v>246</v>
       </c>
       <c r="D432" s="227"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="213">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B433" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C433" s="196" t="s">
+        <v>205</v>
       </c>
       <c r="D433" s="227"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="213">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="B434" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C434" s="196" t="s">
+        <v>246</v>
       </c>
       <c r="D434" s="227"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="213">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="B435" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C435" s="196" t="s">
+        <v>246</v>
       </c>
       <c r="D435" s="227"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="213">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="B436" s="67" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C436" s="67" t="s">
+        <v>1360</v>
       </c>
       <c r="D436" s="227"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="213">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="B437" s="67" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C437" s="196" t="s">
+        <v>2599</v>
       </c>
       <c r="D437" s="227"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="213">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="B438" s="67" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C438" s="67" t="s">
+        <v>1745</v>
       </c>
       <c r="D438" s="227"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="213">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="B439" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="C439" s="196" t="s">
+        <v>209</v>
       </c>
       <c r="D439" s="227"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="213">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="B440" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C440" s="67" t="s">
+        <v>206</v>
       </c>
       <c r="D440" s="227"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="213">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="B441" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C441" s="67" t="s">
+        <v>202</v>
       </c>
       <c r="D441" s="227"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="213">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="C442" s="67" t="s">
+        <v>1825</v>
       </c>
       <c r="D442" s="227"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="213">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="B443" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C443" s="196" t="s">
+        <v>204</v>
       </c>
       <c r="D443" s="227"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="213">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="B444" s="67" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C444" s="67" t="s">
+        <v>1362</v>
       </c>
       <c r="D444" s="227"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="213">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="B445" s="67" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C445" s="67" t="s">
+        <v>209</v>
       </c>
       <c r="D445" s="227"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="213">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="B446" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C446" s="196" t="s">
+        <v>246</v>
       </c>
       <c r="D446" s="227"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="213">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="B447" s="67" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C447" s="67" t="s">
+        <v>1359</v>
       </c>
       <c r="D447" s="227"/>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="213">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B448" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C448" s="196" t="s">
+        <v>205</v>
       </c>
       <c r="D448" s="227"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="213">
+        <v>76</v>
+      </c>
+      <c r="B449" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C449" s="196" t="s">
+        <v>206</v>
+      </c>
+      <c r="D449" s="227"/>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="213">
+        <v>77</v>
+      </c>
+      <c r="B450" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C450" s="196" t="s">
+        <v>203</v>
+      </c>
+      <c r="D450" s="227"/>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="174" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B452" s="67" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C452" s="67" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D452" s="67" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="57" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="238" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B455" s="237" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C455" s="237" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="213">
+        <v>1</v>
+      </c>
+      <c r="B456" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="213">
+        <v>2</v>
+      </c>
+      <c r="B457" s="67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="213">
+        <v>3</v>
+      </c>
+      <c r="B458" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="213">
+        <v>5</v>
+      </c>
+      <c r="B460" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="213">
+        <v>6</v>
+      </c>
+      <c r="B461" s="67" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="213">
+        <v>7</v>
+      </c>
+      <c r="B462" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="213">
+        <v>8</v>
+      </c>
+      <c r="B463" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="213">
+        <v>9</v>
+      </c>
+      <c r="B464" s="67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="213">
+        <v>10</v>
+      </c>
+      <c r="B465" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="213">
+        <v>11</v>
+      </c>
+      <c r="B466" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="213">
+        <v>12</v>
+      </c>
+      <c r="B467" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="213">
+        <v>13</v>
+      </c>
+      <c r="B468" s="67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="213">
+        <v>14</v>
+      </c>
+      <c r="B469" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="213">
+        <v>15</v>
+      </c>
+      <c r="B470" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="213">
+        <v>16</v>
+      </c>
+      <c r="B471" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="213">
+        <v>17</v>
+      </c>
+      <c r="B472" s="67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="213">
+        <v>18</v>
+      </c>
+      <c r="B473" s="67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="213">
+        <v>19</v>
+      </c>
+      <c r="B474" s="67" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="213">
+        <v>20</v>
+      </c>
+      <c r="B475" s="67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="213">
+        <v>21</v>
+      </c>
+      <c r="B476" s="67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="213">
+        <v>22</v>
+      </c>
+      <c r="B477" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="213">
+        <v>23</v>
+      </c>
+      <c r="B478" s="67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="213">
+        <v>24</v>
+      </c>
+      <c r="B479" s="67" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="213">
+        <v>25</v>
+      </c>
+      <c r="B480" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="213">
+        <v>26</v>
+      </c>
+      <c r="B481" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="213">
+        <v>27</v>
+      </c>
+      <c r="B482" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="213">
+        <v>28</v>
+      </c>
+      <c r="B483" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="213">
+        <v>29</v>
+      </c>
+      <c r="B484" s="67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="213">
+        <v>30</v>
+      </c>
+      <c r="B485" s="67" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D485" s="192" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="213">
+        <v>31</v>
+      </c>
+      <c r="B486" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="213">
+        <v>32</v>
+      </c>
+      <c r="B487" s="214" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="213">
+        <v>33</v>
+      </c>
+      <c r="B488" s="67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="213">
+        <v>34</v>
+      </c>
+      <c r="B489" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="213">
+        <v>35</v>
+      </c>
+      <c r="B490" s="67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="213">
+        <v>36</v>
+      </c>
+      <c r="B491" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="213">
+        <v>37</v>
+      </c>
+      <c r="B492" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="213">
+        <v>38</v>
+      </c>
+      <c r="B493" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="213">
+        <v>39</v>
+      </c>
+      <c r="B494" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="213">
+        <v>40</v>
+      </c>
+      <c r="B495" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="213">
+        <v>41</v>
+      </c>
+      <c r="B496" s="67" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="213">
+        <v>42</v>
+      </c>
+      <c r="B497" s="67" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="213">
+        <v>43</v>
+      </c>
+      <c r="B498" s="67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="213">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="213">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="213">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="213">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="213">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="213">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="213">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="213">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="213">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="213">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="213">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="213">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="213">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="213">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="213">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="213">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="213">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="213">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="213">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="213">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="213">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="213">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="213">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="213">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="213">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="213">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="213">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="213">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="213">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="213">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="213">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="213">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="213">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="213">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="213">
         <v>78</v>
       </c>
-      <c r="D449" s="227"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/out/production/java_oca/NOTE_OCA.xlsx
+++ b/out/production/java_oca/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6591" uniqueCount="2970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6784" uniqueCount="3040">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -8915,9 +8915,6 @@
   </si>
   <si>
     <t>long l = c;</t>
-  </si>
-  <si>
-    <t>Ngoafi ra Nếu cùng cấp bit(Chỉ áp dụng đối với cấp bit 16), Thì gán bắt buộc phải cast tường minh</t>
   </si>
   <si>
     <t>short s = Short.MAX_VALUE;</t>
@@ -10172,12 +10169,225 @@
   <si>
     <t>Object ko thể cast về String, cho dù có cast tường minh hay ko</t>
   </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Trong trường hợp cả khối try và khối catch đều return về một giá trị</t>
+  </si>
+  <si>
+    <t>Thì ko được phép có 1 lệnh return nữa ở cuối cùng của hàm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } </t>
+  </si>
+  <si>
+    <t>int foo2(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return 2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } finally {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return 3;</t>
+  </si>
+  <si>
+    <t>Ở đây ném ra java.lang.outofMemoryError do đây là vòng lặp vô hạn</t>
+  </si>
+  <si>
+    <t>String ko có append()</t>
+  </si>
+  <si>
+    <t>Không thể box một số nguyên có kiểu nguyên thủy về kiểu Double Wrapper</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;Double&gt; list = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>list.add(1);</t>
+  </si>
+  <si>
+    <t>Tricky. Ngay cả khi List có kiểu dl Double, Integer, Long đi chăng nữa</t>
+  </si>
+  <si>
+    <t>Vì hàm contains(Object obj)</t>
+  </si>
+  <si>
+    <t>Nên các lệnh sau vẫn chạy:</t>
+  </si>
+  <si>
+    <t>System.out.println(a.contains(true));</t>
+  </si>
+  <si>
+    <t>System.out.println(a.contains('x'));</t>
+  </si>
+  <si>
+    <t>System.out.println(a.contains(new LinkedList&lt;&gt;()));</t>
+  </si>
+  <si>
+    <t>boolean b = 5 &gt; 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nếu cùng cấp bit(Chỉ áp dụng đối với cấp bit 16 là char và short), Thì gán bắt buộc phải cast tường minh cho cả 2 chiều</t>
+  </si>
+  <si>
+    <t>Lưu ý là Sau khi set một object = null, Thì object này đã hợp lệ để GC. Cho dù sau lệnh này có trỏ tới một object với state y sì khác, thì object đó đã avaible để GC</t>
+  </si>
+  <si>
+    <t>Static member có thể được truy cập bởi static , non-static method</t>
+  </si>
+  <si>
+    <t>Khi khai báo mảng, thì kích thước của mảng ko bao giờ được để bên trái</t>
+  </si>
+  <si>
+    <t>Hàm charAt() nhận vào giá trị int và trả về kiểu char</t>
+  </si>
+  <si>
+    <t>Kiểu dl đầu vào  có tương thích với kiểu dl của method khai báo ?</t>
+  </si>
+  <si>
+    <t>Đối với kiểu primitive, Kiểu dl đầu vào có thể nhỏ hơn kiểu dl khai báo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   } </t>
+  </si>
+  <si>
+    <t>static void cal(long a){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int intValue = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    short shortValue = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    char charValue = 'c';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    byte byteValue = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cal(byteValue);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cal(shortValue);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cal(charValue);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cal(intValue);</t>
+  </si>
+  <si>
+    <t>COMPILE OK</t>
+  </si>
+  <si>
+    <t>String str = "abcde";</t>
+  </si>
+  <si>
+    <t>char s = str.charAt(0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuy nhiên nó vẫn có thể nhận đầu vào là kiểu char, ko báo lỗi compile </t>
+  </si>
+  <si>
+    <t>Mà sẽ báo exception : StringIndexOutOfBoundExxception</t>
+  </si>
+  <si>
+    <t>// Nhưng raise exception : StringIndexOutOfBoundExcetpion</t>
+  </si>
+  <si>
+    <t>String a = "abc";</t>
+  </si>
+  <si>
+    <t>short s = 1;</t>
+  </si>
+  <si>
+    <t>char c = a.charAt('0');</t>
+  </si>
+  <si>
+    <t>17      Khởi tạo giá trị boolean primitive có thể thông qua cách sau:</t>
+  </si>
+  <si>
+    <t>Lưu ý ở đây là ko có lệnh else</t>
+  </si>
+  <si>
+    <t>Lưu ý khi dùng biến reference để gọi method override</t>
+  </si>
+  <si>
+    <t>class Base {</t>
+  </si>
+  <si>
+    <t>void methodA(){</t>
+  </si>
+  <si>
+    <t>System.out.print("base-methodA");</t>
+  </si>
+  <si>
+    <t>class Sub extends Base {</t>
+  </si>
+  <si>
+    <t>public void methodA() {</t>
+  </si>
+  <si>
+    <t>System.out.print("sub" - methodA");</t>
+  </si>
+  <si>
+    <t>public void methodB() {</t>
+  </si>
+  <si>
+    <t>System.out.print("sub- Method B");</t>
+  </si>
+  <si>
+    <t>public static void main(String args []){</t>
+  </si>
+  <si>
+    <t>Base b = new Sub ();</t>
+  </si>
+  <si>
+    <t>b.methodB();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// COMPILE FAIL. Vì ở đây biến reference là b. </t>
+  </si>
+  <si>
+    <t>// COMPILER nhận thấy b là Base và ko có methodB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b.methodA(); </t>
+  </si>
+  <si>
+    <t>// COMPILE OK. Sub-MethodA</t>
+  </si>
+  <si>
+    <t>Khối finally sẽ vẫn chạy kể cả khi có lệnh return; xuất hiện trong khối try</t>
+  </si>
+  <si>
+    <t>try{</t>
+  </si>
+  <si>
+    <t>} catch(Exception e) {</t>
+  </si>
+  <si>
+    <t>} finally {</t>
+  </si>
+  <si>
+    <t>System.out.print("Finally Executed");</t>
+  </si>
+  <si>
+    <t>return ;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="128">
+  <fonts count="130">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11023,6 +11233,21 @@
       <color rgb="FF40630A"/>
       <name val="LiberationSerif-Bold"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -11209,7 +11434,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="100" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11702,14 +11927,22 @@
     <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13411,8 +13644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S671"/>
   <sheetViews>
-    <sheetView topLeftCell="A541" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F549" sqref="F549"/>
+    <sheetView topLeftCell="A574" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N454" sqref="N454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13655,32 +13888,32 @@
     </row>
     <row r="50" spans="1:19">
       <c r="B50" s="2" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>2782</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>2783</v>
-      </c>
       <c r="N50" s="58" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="N51" s="58" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="C52" s="9" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>2784</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>2785</v>
       </c>
       <c r="N52" s="79"/>
     </row>
     <row r="53" spans="1:19">
       <c r="N53" s="58" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -13688,13 +13921,13 @@
         <v>90</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="N54" s="58"/>
     </row>
     <row r="55" spans="1:19">
       <c r="N55" s="58" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -13702,7 +13935,7 @@
         <v>1731</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="N56" s="58" t="s">
         <v>607</v>
@@ -13715,68 +13948,68 @@
     </row>
     <row r="58" spans="1:19">
       <c r="D58" s="3" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="N59" s="210" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="N60" s="210" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="E61" s="3" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>2788</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>2789</v>
-      </c>
       <c r="N61" s="210" t="s">
+        <v>2803</v>
+      </c>
+      <c r="S61" s="3" t="s">
         <v>2804</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>2805</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="F62" s="3" t="s">
+        <v>2789</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>2790</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>2791</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="G63" s="3" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="N63" s="210" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="N64" s="82" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="65" spans="2:19">
       <c r="N65" s="82" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="66" spans="2:19">
       <c r="N66" s="82" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="67" spans="2:19">
@@ -13794,64 +14027,64 @@
     </row>
     <row r="70" spans="2:19">
       <c r="D70" s="3" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="N70"/>
     </row>
     <row r="71" spans="2:19">
       <c r="N71" s="210" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="72" spans="2:19">
       <c r="E72" s="3" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="N72" s="210" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="73" spans="2:19">
       <c r="G73" s="3" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="N73" s="210" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="74" spans="2:19">
       <c r="H74" s="3" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="N74" s="82" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="75" spans="2:19">
       <c r="F75" s="3" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="N75" s="82" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="76" spans="2:19">
       <c r="G76" s="3" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="N76" s="82" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="77" spans="2:19">
       <c r="H77" s="3" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="N77" s="82" t="s">
         <v>607</v>
@@ -15895,16 +16128,16 @@
       <c r="C532" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D532" s="236" t="s">
+      <c r="D532" s="241" t="s">
         <v>220</v>
       </c>
-      <c r="E532" s="236"/>
-      <c r="F532" s="236"/>
-      <c r="G532" s="236"/>
-      <c r="H532" s="236"/>
-      <c r="I532" s="236"/>
-      <c r="J532" s="236"/>
-      <c r="K532" s="236"/>
+      <c r="E532" s="241"/>
+      <c r="F532" s="241"/>
+      <c r="G532" s="241"/>
+      <c r="H532" s="241"/>
+      <c r="I532" s="241"/>
+      <c r="J532" s="241"/>
+      <c r="K532" s="241"/>
       <c r="L532" s="3" t="s">
         <v>90</v>
       </c>
@@ -15971,16 +16204,16 @@
       <c r="C538" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D538" s="236" t="s">
+      <c r="D538" s="241" t="s">
         <v>233</v>
       </c>
-      <c r="E538" s="236"/>
-      <c r="F538" s="236"/>
-      <c r="G538" s="236"/>
-      <c r="H538" s="236"/>
-      <c r="I538" s="236"/>
-      <c r="J538" s="236"/>
-      <c r="K538" s="236"/>
+      <c r="E538" s="241"/>
+      <c r="F538" s="241"/>
+      <c r="G538" s="241"/>
+      <c r="H538" s="241"/>
+      <c r="I538" s="241"/>
+      <c r="J538" s="241"/>
+      <c r="K538" s="241"/>
       <c r="L538" s="3" t="s">
         <v>41</v>
       </c>
@@ -17464,10 +17697,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M324"/>
+  <dimension ref="A1:R472"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E284" sqref="E284"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="E467" sqref="E467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -17527,22 +17760,22 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="219" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="219" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="220" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="219" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="28" spans="2:2">
@@ -17557,28 +17790,35 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="221" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="221" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="221" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:9">
       <c r="B36" s="221" t="s">
         <v>2721</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="120">
+    <row r="40" spans="1:9">
+      <c r="A40" s="225">
         <v>2</v>
       </c>
-      <c r="B40" s="120" t="s">
+      <c r="B40" s="225" t="s">
         <v>2722</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="C40" s="225"/>
+      <c r="D40" s="225"/>
+      <c r="E40" s="225"/>
+      <c r="F40" s="225"/>
+      <c r="G40" s="225"/>
+      <c r="H40" s="225"/>
+      <c r="I40" s="225"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" s="120" t="s">
         <v>77</v>
       </c>
@@ -17592,7 +17832,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:9">
       <c r="B44" s="120" t="s">
         <v>835</v>
       </c>
@@ -17606,7 +17846,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:9">
       <c r="C45" s="120" t="s">
         <v>2724</v>
       </c>
@@ -17617,75 +17857,84 @@
         <v>842</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="B47" s="120" t="s">
+    <row r="47" spans="1:9">
+      <c r="B47" s="238" t="s">
         <v>1570</v>
       </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="238" t="s">
         <v>2726</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="D47" s="238"/>
+      <c r="E47" s="238"/>
+      <c r="F47" s="238"/>
+      <c r="G47" s="238"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="C48" s="120" t="s">
         <v>2727</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:7">
       <c r="D49" s="120" t="s">
         <v>2729</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:7">
       <c r="D50" s="120" t="s">
         <v>2730</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:7">
       <c r="C52" s="120" t="s">
         <v>2728</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:7">
       <c r="C54" s="120" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="D56" s="222" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="D57" s="222" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="D59" s="120" t="s">
         <v>2731</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="D56" s="222" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="D57" s="222" t="s">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="D59" s="120" t="s">
+    <row r="60" spans="1:7">
+      <c r="D60" s="120" t="s">
         <v>2732</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="D60" s="120" t="s">
-        <v>2733</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="120">
+    <row r="64" spans="1:7">
+      <c r="A64" s="225">
         <v>3</v>
       </c>
-      <c r="B64" s="120" t="s">
+      <c r="B64" s="225" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C64" s="225"/>
+      <c r="D64" s="225"/>
+      <c r="E64" s="225"/>
+      <c r="F64" s="225"/>
+      <c r="G64" s="225"/>
+    </row>
+    <row r="65" spans="3:13">
+      <c r="C65" s="120" t="s">
         <v>2736</v>
       </c>
     </row>
-    <row r="65" spans="3:10">
-      <c r="C65" s="120" t="s">
-        <v>2737</v>
-      </c>
-    </row>
-    <row r="67" spans="3:10">
+    <row r="67" spans="3:13">
       <c r="D67" s="223" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="E67" s="224"/>
       <c r="F67" s="224"/>
@@ -17694,9 +17943,9 @@
       <c r="I67" s="224"/>
       <c r="J67" s="224"/>
     </row>
-    <row r="68" spans="3:10">
+    <row r="68" spans="3:13">
       <c r="D68" s="223" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="E68" s="224"/>
       <c r="F68" s="224"/>
@@ -17705,9 +17954,9 @@
       <c r="I68" s="224"/>
       <c r="J68" s="224"/>
     </row>
-    <row r="69" spans="3:10">
+    <row r="69" spans="3:13">
       <c r="D69" s="223" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="E69" s="224"/>
       <c r="F69" s="224"/>
@@ -17716,7 +17965,7 @@
       <c r="I69" s="224"/>
       <c r="J69" s="224"/>
     </row>
-    <row r="70" spans="3:10">
+    <row r="70" spans="3:13">
       <c r="D70" s="223" t="s">
         <v>607</v>
       </c>
@@ -17727,7 +17976,7 @@
       <c r="I70" s="224"/>
       <c r="J70" s="224"/>
     </row>
-    <row r="71" spans="3:10">
+    <row r="71" spans="3:13">
       <c r="D71" s="223" t="s">
         <v>37</v>
       </c>
@@ -17738,7 +17987,7 @@
       <c r="I71" s="224"/>
       <c r="J71" s="224"/>
     </row>
-    <row r="72" spans="3:10">
+    <row r="72" spans="3:13">
       <c r="D72" s="224"/>
       <c r="E72" s="224"/>
       <c r="F72" s="224"/>
@@ -17747,96 +17996,118 @@
       <c r="I72" s="224"/>
       <c r="J72" s="224"/>
     </row>
-    <row r="73" spans="3:10">
-      <c r="D73" s="223" t="s">
+    <row r="73" spans="3:13">
+      <c r="D73" s="239" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E73" s="240"/>
+      <c r="F73" s="240"/>
+      <c r="G73" s="240"/>
+      <c r="H73" s="240"/>
+      <c r="I73" s="240"/>
+      <c r="J73" s="240"/>
+      <c r="K73" s="238"/>
+      <c r="L73" s="238"/>
+      <c r="M73" s="238"/>
+    </row>
+    <row r="74" spans="3:13">
+      <c r="D74" s="239" t="s">
         <v>2738</v>
       </c>
-      <c r="E73" s="224"/>
-      <c r="F73" s="224"/>
-      <c r="G73" s="224"/>
-      <c r="H73" s="224"/>
-      <c r="I73" s="224"/>
-      <c r="J73" s="224"/>
-    </row>
-    <row r="74" spans="3:10">
-      <c r="D74" s="223" t="s">
-        <v>2739</v>
-      </c>
-      <c r="E74" s="224"/>
-      <c r="F74" s="224"/>
-      <c r="G74" s="224"/>
-      <c r="H74" s="224"/>
-      <c r="I74" s="224"/>
-      <c r="J74" s="224"/>
-    </row>
-    <row r="77" spans="3:10">
-      <c r="C77" s="120" t="s">
+      <c r="E74" s="240"/>
+      <c r="F74" s="240"/>
+      <c r="G74" s="240"/>
+      <c r="H74" s="240"/>
+      <c r="I74" s="240"/>
+      <c r="J74" s="240"/>
+      <c r="K74" s="238"/>
+      <c r="L74" s="238"/>
+      <c r="M74" s="238"/>
+    </row>
+    <row r="77" spans="3:13">
+      <c r="C77" s="225" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D77" s="120" t="s">
         <v>2748</v>
       </c>
-      <c r="D77" s="120" t="s">
-        <v>2749</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10">
+    </row>
+    <row r="79" spans="3:13">
       <c r="D79" s="120" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="80" spans="3:10">
+    <row r="80" spans="3:13">
       <c r="E80" s="120" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="I80" s="120" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:18">
       <c r="D82" s="120" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="120">
+    <row r="85" spans="1:18">
+      <c r="A85" s="225">
         <v>4</v>
       </c>
-      <c r="B85" s="120" t="s">
+      <c r="B85" s="225" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C85" s="225"/>
+      <c r="D85" s="225"/>
+      <c r="E85" s="225"/>
+      <c r="F85" s="225"/>
+      <c r="G85" s="225"/>
+      <c r="H85" s="225"/>
+      <c r="I85" s="225"/>
+      <c r="J85" s="225"/>
+      <c r="K85" s="225"/>
+      <c r="L85" s="225"/>
+      <c r="M85" s="225"/>
+      <c r="N85" s="225"/>
+      <c r="O85" s="225"/>
+      <c r="P85" s="225"/>
+      <c r="Q85" s="225"/>
+      <c r="R85" s="225"/>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="C87" s="120" t="s">
         <v>2744</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="C87" s="120" t="s">
+      <c r="D87" s="120" t="s">
         <v>2745</v>
       </c>
-      <c r="D87" s="120" t="s">
+    </row>
+    <row r="88" spans="1:18">
+      <c r="D88" s="120" t="s">
         <v>2746</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="D88" s="120" t="s">
-        <v>2747</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:18">
       <c r="A91" s="120">
         <v>5</v>
       </c>
       <c r="B91" s="217" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="B93" s="217" t="s">
         <v>2751</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="B93" s="217" t="s">
-        <v>2752</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:18">
       <c r="B95" s="218" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="220" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="99" spans="2:2">
@@ -17846,27 +18117,27 @@
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="221" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="221" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="221" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="221" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="221" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="225" customFormat="1">
@@ -17874,20 +18145,20 @@
         <v>6</v>
       </c>
       <c r="B113" s="218" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="E113" s="225" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="E114" s="120" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="C116" s="221" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="225" customFormat="1">
@@ -17895,22 +18166,22 @@
         <v>7</v>
       </c>
       <c r="B120" s="225" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="B122" s="120" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="C125" s="125" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="C126" s="125" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -17920,7 +18191,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="C130" s="125" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -17928,12 +18199,12 @@
     </row>
     <row r="132" spans="1:3">
       <c r="C132" s="125" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="C133" s="125" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -17951,22 +18222,22 @@
         <v>8</v>
       </c>
       <c r="B137" s="225" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="B138" s="120" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="C140" s="120" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="C141" s="120" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="225" customFormat="1">
@@ -17974,17 +18245,17 @@
         <v>9</v>
       </c>
       <c r="B145" s="225" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="C147" s="217" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="C148" s="120" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="225" customFormat="1">
@@ -17992,32 +18263,32 @@
         <v>10</v>
       </c>
       <c r="B151" s="225" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="B153" s="120" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="B154" s="120" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="C157" s="120" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="C158" s="120" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="C159" s="120" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -18025,7 +18296,7 @@
         <v>11</v>
       </c>
       <c r="B162" s="225" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="C162" s="225"/>
       <c r="D162" s="225"/>
@@ -18037,7 +18308,7 @@
     </row>
     <row r="164" spans="1:9">
       <c r="B164" s="37" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C164" s="224"/>
       <c r="D164" s="224"/>
@@ -18046,7 +18317,7 @@
     </row>
     <row r="165" spans="1:9">
       <c r="B165" s="229" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C165" s="224"/>
       <c r="D165" s="224"/>
@@ -18055,7 +18326,7 @@
     </row>
     <row r="166" spans="1:9">
       <c r="B166" s="229" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C166" s="224"/>
       <c r="D166" s="224"/>
@@ -18064,7 +18335,7 @@
     </row>
     <row r="167" spans="1:9">
       <c r="B167" s="229" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C167" s="224"/>
       <c r="D167" s="224"/>
@@ -18073,7 +18344,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="B168" s="229" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="C168" s="224"/>
       <c r="D168" s="224"/>
@@ -18082,7 +18353,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="B169" s="229" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C169" s="224"/>
       <c r="D169" s="224"/>
@@ -18100,7 +18371,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="B172" s="229" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="C172" s="224"/>
       <c r="D172" s="224"/>
@@ -18109,7 +18380,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="B173" s="229" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="C173" s="224"/>
       <c r="D173" s="224"/>
@@ -18118,7 +18389,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="B174" s="229" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="C174" s="224"/>
       <c r="D174" s="224"/>
@@ -18127,7 +18398,7 @@
     </row>
     <row r="175" spans="1:9">
       <c r="B175" s="229" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C175" s="224"/>
       <c r="D175" s="224"/>
@@ -18136,7 +18407,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="B176" s="229" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="C176" s="224"/>
       <c r="D176" s="224"/>
@@ -18145,7 +18416,7 @@
     </row>
     <row r="177" spans="2:8">
       <c r="B177" s="229" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="C177" s="224"/>
       <c r="D177" s="224"/>
@@ -18154,7 +18425,7 @@
     </row>
     <row r="178" spans="2:8">
       <c r="B178" s="229" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C178" s="224"/>
       <c r="D178" s="224"/>
@@ -18172,7 +18443,7 @@
     </row>
     <row r="182" spans="2:8">
       <c r="B182" s="37" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="C182" s="224"/>
       <c r="D182" s="224"/>
@@ -18182,7 +18453,7 @@
     </row>
     <row r="183" spans="2:8">
       <c r="B183" s="37" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="C183" s="224"/>
       <c r="D183" s="224"/>
@@ -18192,7 +18463,7 @@
     </row>
     <row r="184" spans="2:8">
       <c r="B184" s="37" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C184" s="224"/>
       <c r="D184" s="224"/>
@@ -18202,7 +18473,7 @@
     </row>
     <row r="185" spans="2:8">
       <c r="B185" s="37" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C185" s="224"/>
       <c r="D185" s="224"/>
@@ -18222,7 +18493,7 @@
     </row>
     <row r="187" spans="2:8">
       <c r="B187" s="37" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C187" s="224"/>
       <c r="D187" s="224"/>
@@ -18232,7 +18503,7 @@
     </row>
     <row r="188" spans="2:8">
       <c r="B188" s="37" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="C188" s="224"/>
       <c r="D188" s="224"/>
@@ -18240,12 +18511,12 @@
       <c r="F188" s="224"/>
       <c r="G188" s="224"/>
       <c r="H188" s="120" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="189" spans="2:8">
       <c r="B189" s="37" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="C189" s="224"/>
       <c r="D189" s="224"/>
@@ -18253,12 +18524,12 @@
       <c r="F189" s="224"/>
       <c r="G189" s="224"/>
       <c r="H189" s="120" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="190" spans="2:8">
       <c r="B190" s="37" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="C190" s="224"/>
       <c r="D190" s="224"/>
@@ -18266,7 +18537,7 @@
       <c r="F190" s="224"/>
       <c r="G190" s="224"/>
       <c r="H190" s="120" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="191" spans="2:8">
@@ -18294,7 +18565,7 @@
         <v>12</v>
       </c>
       <c r="B196" s="225" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="C196" s="225"/>
       <c r="D196" s="225"/>
@@ -18308,36 +18579,36 @@
     </row>
     <row r="198" spans="1:11">
       <c r="C198" s="225" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="199" spans="1:11">
       <c r="C199" s="225" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="201" spans="1:11">
       <c r="D201" s="120" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="203" spans="1:11">
       <c r="F203" s="37" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="G203" s="224"/>
       <c r="H203" s="224"/>
     </row>
     <row r="204" spans="1:11">
       <c r="F204" s="37" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="G204" s="224"/>
       <c r="H204" s="224"/>
     </row>
     <row r="205" spans="1:11">
       <c r="F205" s="37" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="G205" s="224"/>
       <c r="H205" s="224"/>
@@ -18357,26 +18628,26 @@
         <v>458</v>
       </c>
       <c r="E207" s="120" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="208" spans="1:11">
       <c r="F208" s="37" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="G208" s="224"/>
       <c r="H208" s="224"/>
     </row>
     <row r="209" spans="3:10">
       <c r="F209" s="37" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="G209" s="224"/>
       <c r="H209" s="224"/>
     </row>
     <row r="210" spans="3:10">
       <c r="F210" s="37" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="G210" s="224"/>
       <c r="H210" s="224"/>
@@ -18393,7 +18664,7 @@
     </row>
     <row r="214" spans="3:10">
       <c r="C214" s="225" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="D214" s="225"/>
       <c r="E214" s="225"/>
@@ -18405,17 +18676,17 @@
     </row>
     <row r="217" spans="3:10">
       <c r="D217" s="58" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="218" spans="3:10">
       <c r="D218" s="58" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="219" spans="3:10">
       <c r="D219" s="58" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="H219" s="120" t="s">
         <v>1853</v>
@@ -18428,25 +18699,25 @@
     </row>
     <row r="222" spans="3:10">
       <c r="D222" s="120" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="224" spans="3:10">
       <c r="D224" s="58" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="225" spans="3:10">
       <c r="D225" s="58" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="226" spans="3:10">
       <c r="D226" s="58" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="H226" s="230" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="I226" s="230"/>
       <c r="J226" s="230"/>
@@ -18458,22 +18729,22 @@
     </row>
     <row r="229" spans="3:10">
       <c r="C229" s="225" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="232" spans="3:10">
       <c r="D232" s="58" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="233" spans="3:10">
       <c r="D233" s="58" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="234" spans="3:10">
       <c r="D234" s="58" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="I234" s="216" t="s">
         <v>1853</v>
@@ -18486,7 +18757,7 @@
     </row>
     <row r="238" spans="3:10">
       <c r="C238" s="225" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="241" spans="4:13">
@@ -18494,17 +18765,17 @@
         <v>379</v>
       </c>
       <c r="F241" s="120" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="244" spans="4:13">
       <c r="F244" s="58" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="245" spans="4:13">
       <c r="F245" s="58" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="K245" s="230" t="s">
         <v>1781</v>
@@ -18528,7 +18799,7 @@
     </row>
     <row r="248" spans="4:13">
       <c r="F248" s="58" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="K248" s="230"/>
       <c r="L248" s="230"/>
@@ -18536,7 +18807,7 @@
     </row>
     <row r="249" spans="4:13">
       <c r="F249" s="58" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K249" s="230"/>
       <c r="L249" s="230"/>
@@ -18560,7 +18831,7 @@
     </row>
     <row r="252" spans="4:13">
       <c r="F252" s="58" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K252" s="230"/>
       <c r="L252" s="230"/>
@@ -18568,7 +18839,7 @@
     </row>
     <row r="253" spans="4:13">
       <c r="F253" s="58" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="K253" s="230"/>
       <c r="L253" s="230"/>
@@ -18589,200 +18860,303 @@
       <c r="L255" s="230"/>
       <c r="M255" s="230"/>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="225">
+    <row r="256" spans="4:13">
+      <c r="K256" s="230"/>
+      <c r="L256" s="230"/>
+      <c r="M256" s="230"/>
+    </row>
+    <row r="257" spans="1:13">
+      <c r="K257" s="230"/>
+      <c r="L257" s="230"/>
+      <c r="M257" s="230"/>
+    </row>
+    <row r="258" spans="1:13">
+      <c r="A258" s="225">
+        <v>12</v>
+      </c>
+      <c r="B258" s="225" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C258" s="225"/>
+      <c r="D258" s="225"/>
+      <c r="E258" s="225"/>
+      <c r="F258" s="225"/>
+      <c r="G258" s="225"/>
+      <c r="H258" s="225"/>
+      <c r="I258" s="225"/>
+      <c r="J258" s="225"/>
+      <c r="K258" s="225"/>
+      <c r="M258" s="230"/>
+    </row>
+    <row r="259" spans="1:13">
+      <c r="K259" s="230"/>
+      <c r="L259" s="230"/>
+      <c r="M259" s="230"/>
+    </row>
+    <row r="260" spans="1:13">
+      <c r="C260" s="120" t="s">
+        <v>2996</v>
+      </c>
+      <c r="K260" s="230"/>
+      <c r="L260" s="230"/>
+      <c r="M260" s="230"/>
+    </row>
+    <row r="261" spans="1:13">
+      <c r="K261" s="230"/>
+      <c r="L261" s="230"/>
+      <c r="M261" s="230"/>
+    </row>
+    <row r="262" spans="1:13">
+      <c r="D262" s="58" t="s">
+        <v>2998</v>
+      </c>
+      <c r="K262" s="230"/>
+      <c r="L262" s="230"/>
+      <c r="M262" s="230"/>
+    </row>
+    <row r="263" spans="1:13">
+      <c r="D263" s="79"/>
+      <c r="K263" s="230"/>
+      <c r="L263" s="230"/>
+      <c r="M263" s="230"/>
+    </row>
+    <row r="264" spans="1:13">
+      <c r="D264" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K264" s="230"/>
+      <c r="L264" s="230"/>
+      <c r="M264" s="230"/>
+    </row>
+    <row r="265" spans="1:13">
+      <c r="D265" s="79"/>
+      <c r="K265" s="230"/>
+      <c r="L265" s="230"/>
+      <c r="M265" s="230"/>
+    </row>
+    <row r="266" spans="1:13">
+      <c r="D266" s="58" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K266" s="230"/>
+      <c r="L266" s="230"/>
+      <c r="M266" s="230"/>
+    </row>
+    <row r="267" spans="1:13">
+      <c r="D267" s="79"/>
+      <c r="K267" s="230"/>
+      <c r="L267" s="230"/>
+      <c r="M267" s="230"/>
+    </row>
+    <row r="268" spans="1:13">
+      <c r="D268" s="79"/>
+      <c r="K268" s="230"/>
+      <c r="L268" s="230"/>
+      <c r="M268" s="230"/>
+    </row>
+    <row r="269" spans="1:13">
+      <c r="D269" s="58" t="s">
+        <v>2999</v>
+      </c>
+      <c r="K269" s="230"/>
+      <c r="L269" s="230"/>
+      <c r="M269" s="230"/>
+    </row>
+    <row r="270" spans="1:13">
+      <c r="D270" s="58" t="s">
+        <v>3000</v>
+      </c>
+      <c r="K270" s="230"/>
+      <c r="L270" s="230"/>
+      <c r="M270" s="230"/>
+    </row>
+    <row r="271" spans="1:13">
+      <c r="D271" s="58" t="s">
+        <v>3001</v>
+      </c>
+      <c r="K271" s="230"/>
+      <c r="L271" s="230"/>
+      <c r="M271" s="230"/>
+    </row>
+    <row r="272" spans="1:13">
+      <c r="D272" s="58" t="s">
+        <v>3002</v>
+      </c>
+      <c r="K272" s="230"/>
+      <c r="L272" s="230"/>
+      <c r="M272" s="230"/>
+    </row>
+    <row r="273" spans="1:13">
+      <c r="D273" s="79"/>
+      <c r="K273" s="230"/>
+      <c r="L273" s="230"/>
+      <c r="M273" s="230"/>
+    </row>
+    <row r="274" spans="1:13">
+      <c r="D274" s="58" t="s">
+        <v>3003</v>
+      </c>
+      <c r="H274" s="230" t="s">
+        <v>3007</v>
+      </c>
+      <c r="I274" s="230"/>
+      <c r="K274" s="230"/>
+      <c r="L274" s="230"/>
+      <c r="M274" s="230"/>
+    </row>
+    <row r="275" spans="1:13">
+      <c r="D275" s="58" t="s">
+        <v>3004</v>
+      </c>
+      <c r="H275" s="230" t="s">
+        <v>3007</v>
+      </c>
+      <c r="I275" s="230"/>
+      <c r="K275" s="230"/>
+      <c r="L275" s="230"/>
+      <c r="M275" s="230"/>
+    </row>
+    <row r="276" spans="1:13">
+      <c r="D276" s="58" t="s">
+        <v>3005</v>
+      </c>
+      <c r="H276" s="230" t="s">
+        <v>3007</v>
+      </c>
+      <c r="I276" s="230"/>
+      <c r="K276" s="230"/>
+      <c r="L276" s="230"/>
+      <c r="M276" s="230"/>
+    </row>
+    <row r="277" spans="1:13">
+      <c r="D277" s="58" t="s">
+        <v>3006</v>
+      </c>
+      <c r="H277" s="230" t="s">
+        <v>3007</v>
+      </c>
+      <c r="I277" s="230"/>
+      <c r="K277" s="230"/>
+      <c r="L277" s="230"/>
+      <c r="M277" s="230"/>
+    </row>
+    <row r="278" spans="1:13">
+      <c r="D278" s="58" t="s">
+        <v>2997</v>
+      </c>
+      <c r="K278" s="230"/>
+      <c r="L278" s="230"/>
+      <c r="M278" s="230"/>
+    </row>
+    <row r="279" spans="1:13">
+      <c r="K279" s="230"/>
+      <c r="L279" s="230"/>
+      <c r="M279" s="230"/>
+    </row>
+    <row r="280" spans="1:13">
+      <c r="K280" s="230"/>
+      <c r="L280" s="230"/>
+      <c r="M280" s="230"/>
+    </row>
+    <row r="281" spans="1:13">
+      <c r="K281" s="230"/>
+      <c r="L281" s="230"/>
+      <c r="M281" s="230"/>
+    </row>
+    <row r="282" spans="1:13">
+      <c r="K282" s="230"/>
+      <c r="L282" s="230"/>
+      <c r="M282" s="230"/>
+    </row>
+    <row r="283" spans="1:13">
+      <c r="K283" s="230"/>
+      <c r="L283" s="230"/>
+      <c r="M283" s="230"/>
+    </row>
+    <row r="284" spans="1:13">
+      <c r="K284" s="230"/>
+      <c r="L284" s="230"/>
+      <c r="M284" s="230"/>
+    </row>
+    <row r="285" spans="1:13">
+      <c r="K285" s="230"/>
+      <c r="L285" s="230"/>
+      <c r="M285" s="230"/>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="A287" s="225">
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="B258" s="120" t="s">
+    <row r="288" spans="1:13">
+      <c r="B288" s="120" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="120" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="120" t="s">
         <v>2937</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="B260" s="120" t="s">
+    <row r="294" spans="2:2">
+      <c r="B294" s="120" t="s">
         <v>2941</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="B262" s="120" t="s">
+    <row r="296" spans="2:2">
+      <c r="B296" s="120" t="s">
         <v>2938</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="B264" s="120" t="s">
+    <row r="298" spans="2:2">
+      <c r="B298" s="120" t="s">
         <v>2942</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="B266" s="120" t="s">
+    <row r="300" spans="2:2">
+      <c r="B300" s="120" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="120" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="120" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="120" t="s">
         <v>2939</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="B268" s="120" t="s">
-        <v>2943</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="B270" s="120" t="s">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="B272" s="120" t="s">
+    <row r="310" spans="2:2">
+      <c r="B310" s="209" t="s">
         <v>2945</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2">
-      <c r="B274" s="120" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2">
-      <c r="B276" s="120" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2">
-      <c r="B280" s="209" t="s">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2">
-      <c r="B281"/>
-    </row>
-    <row r="282" spans="2:2">
-      <c r="B282" s="231" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2">
-      <c r="B283"/>
-    </row>
-    <row r="284" spans="2:2">
-      <c r="B284" s="232" t="s">
-        <v>2948</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2">
-      <c r="B285"/>
-    </row>
-    <row r="286" spans="2:2">
-      <c r="B286" s="233" t="s">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287"/>
-    </row>
-    <row r="288" spans="2:2">
-      <c r="B288" s="234" t="s">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2">
-      <c r="B289"/>
-    </row>
-    <row r="290" spans="2:2">
-      <c r="B290" s="233" t="s">
-        <v>2951</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2">
-      <c r="B291"/>
-    </row>
-    <row r="292" spans="2:2">
-      <c r="B292" s="235" t="s">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2">
-      <c r="B293"/>
-    </row>
-    <row r="294" spans="2:2">
-      <c r="B294" s="233" t="s">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2">
-      <c r="B295"/>
-    </row>
-    <row r="296" spans="2:2">
-      <c r="B296" s="234" t="s">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2">
-      <c r="B297"/>
-    </row>
-    <row r="298" spans="2:2">
-      <c r="B298" s="233" t="s">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299"/>
-    </row>
-    <row r="300" spans="2:2">
-      <c r="B300" s="235" t="s">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2">
-      <c r="B301"/>
-    </row>
-    <row r="302" spans="2:2">
-      <c r="B302" s="233" t="s">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2">
-      <c r="B303"/>
-    </row>
-    <row r="304" spans="2:2">
-      <c r="B304" s="232" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2">
-      <c r="B305"/>
-    </row>
-    <row r="306" spans="2:2">
-      <c r="B306" s="233" t="s">
-        <v>2956</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2">
-      <c r="B307"/>
-    </row>
-    <row r="308" spans="2:2">
-      <c r="B308" s="233" t="s">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2">
-      <c r="B309"/>
-    </row>
-    <row r="310" spans="2:2">
-      <c r="B310" s="233" t="s">
-        <v>2958</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311"/>
     </row>
     <row r="312" spans="2:2">
-      <c r="B312" s="233" t="s">
-        <v>2959</v>
+      <c r="B312" s="231" t="s">
+        <v>2946</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313"/>
     </row>
     <row r="314" spans="2:2">
-      <c r="B314" s="233" t="s">
-        <v>2960</v>
+      <c r="B314" s="232" t="s">
+        <v>2947</v>
       </c>
     </row>
     <row r="315" spans="2:2">
@@ -18790,15 +19164,15 @@
     </row>
     <row r="316" spans="2:2">
       <c r="B316" s="233" t="s">
-        <v>2961</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317"/>
     </row>
     <row r="318" spans="2:2">
-      <c r="B318" s="233" t="s">
-        <v>2962</v>
+      <c r="B318" s="234" t="s">
+        <v>2949</v>
       </c>
     </row>
     <row r="319" spans="2:2">
@@ -18806,15 +19180,15 @@
     </row>
     <row r="320" spans="2:2">
       <c r="B320" s="233" t="s">
-        <v>2963</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321"/>
     </row>
     <row r="322" spans="2:2">
-      <c r="B322" s="233" t="s">
-        <v>2964</v>
+      <c r="B322" s="235" t="s">
+        <v>2951</v>
       </c>
     </row>
     <row r="323" spans="2:2">
@@ -18822,7 +19196,563 @@
     </row>
     <row r="324" spans="2:2">
       <c r="B324" s="233" t="s">
-        <v>2965</v>
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325"/>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="234" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327"/>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="233" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329"/>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="235" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331"/>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="233" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333"/>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="232" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335"/>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="233" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337"/>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="233" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339"/>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="233" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341"/>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="233" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343"/>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="233" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345"/>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="233" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347"/>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="233" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349"/>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="233" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351"/>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="233" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="B353"/>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="B354" s="233" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="120">
+        <v>14</v>
+      </c>
+      <c r="B359" s="120" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="B361" s="120" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="D364" s="58" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="D365" s="58" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="D366" s="58" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="D367" s="58" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="D368" s="58" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="369" spans="4:9">
+      <c r="D369" s="58" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="370" spans="4:9">
+      <c r="D370" s="58" t="s">
+        <v>2975</v>
+      </c>
+      <c r="H370" s="216" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I370" s="216"/>
+    </row>
+    <row r="371" spans="4:9">
+      <c r="D371" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="374" spans="4:9">
+      <c r="D374" s="58" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="375" spans="4:9">
+      <c r="D375" s="58" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="376" spans="4:9">
+      <c r="D376" s="58" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="377" spans="4:9">
+      <c r="D377" s="58" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="378" spans="4:9">
+      <c r="D378" s="58" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="379" spans="4:9">
+      <c r="D379" s="58" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="380" spans="4:9">
+      <c r="D380" s="58" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="381" spans="4:9">
+      <c r="D381" s="58" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="382" spans="4:9">
+      <c r="D382" s="58" t="s">
+        <v>2975</v>
+      </c>
+      <c r="H382" s="216" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="383" spans="4:9">
+      <c r="D383" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11">
+      <c r="A386" s="225">
+        <v>15</v>
+      </c>
+      <c r="B386" s="225" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C386" s="225"/>
+      <c r="D386" s="225"/>
+      <c r="E386" s="225"/>
+      <c r="F386" s="225"/>
+      <c r="G386" s="225"/>
+      <c r="H386" s="225"/>
+      <c r="I386" s="225"/>
+      <c r="J386" s="225"/>
+      <c r="K386" s="225"/>
+    </row>
+    <row r="388" spans="1:11">
+      <c r="C388" s="120" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11">
+      <c r="C390" s="120" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F390" s="216" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11">
+      <c r="A393" s="225">
+        <v>16</v>
+      </c>
+      <c r="B393" s="225" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C393" s="225"/>
+      <c r="D393" s="225"/>
+      <c r="E393" s="225"/>
+      <c r="F393" s="225"/>
+      <c r="G393" s="225"/>
+      <c r="H393" s="225"/>
+      <c r="I393" s="225"/>
+      <c r="J393" s="225"/>
+      <c r="K393" s="225"/>
+    </row>
+    <row r="395" spans="1:11">
+      <c r="C395" s="120" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11">
+      <c r="D397" s="120" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
+      <c r="C399" s="120" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D399" s="120" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="F401" s="58" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="F402" s="58" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="F403" s="58" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" s="225" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10">
+      <c r="C408" s="120" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10">
+      <c r="A411" s="242">
+        <v>18</v>
+      </c>
+      <c r="B411" s="225" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C411" s="225"/>
+      <c r="D411" s="225"/>
+      <c r="E411" s="225"/>
+      <c r="F411" s="225"/>
+      <c r="G411" s="225"/>
+      <c r="H411" s="225"/>
+      <c r="I411" s="225"/>
+      <c r="J411" s="225"/>
+    </row>
+    <row r="413" spans="1:10">
+      <c r="C413" s="120" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10">
+      <c r="C414" s="120" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10">
+      <c r="C418" s="120" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10">
+      <c r="C419" s="120" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10">
+      <c r="D422" s="120" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10">
+      <c r="E423" s="58" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10">
+      <c r="E424" s="58" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10">
+      <c r="E425" s="58" t="s">
+        <v>3015</v>
+      </c>
+      <c r="J425" s="120" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10">
+      <c r="J426" s="120" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10">
+      <c r="A428" s="225">
+        <v>19</v>
+      </c>
+      <c r="B428" s="225" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C428" s="225"/>
+      <c r="D428" s="225"/>
+      <c r="E428" s="225"/>
+      <c r="F428" s="225"/>
+      <c r="G428" s="225"/>
+      <c r="H428" s="225"/>
+      <c r="I428" s="225"/>
+    </row>
+    <row r="430" spans="1:10">
+      <c r="C430" s="120" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10">
+      <c r="D432" s="120" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="433" spans="3:5">
+      <c r="E433" s="120" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="434" spans="3:5">
+      <c r="D434" s="120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="436" spans="3:5">
+      <c r="C436" s="120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="438" spans="3:5">
+      <c r="C438" s="120" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="440" spans="3:5">
+      <c r="D440" s="120" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="441" spans="3:5">
+      <c r="E441" s="120" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="442" spans="3:5">
+      <c r="D442" s="120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="444" spans="3:5">
+      <c r="D444" s="120" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="445" spans="3:5">
+      <c r="E445" s="120" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="446" spans="3:5">
+      <c r="D446" s="120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15">
+      <c r="D449" s="120" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15">
+      <c r="E451" s="120" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15">
+      <c r="E452" s="120" t="s">
+        <v>3029</v>
+      </c>
+      <c r="I452" s="216" t="s">
+        <v>3030</v>
+      </c>
+      <c r="J452" s="216"/>
+      <c r="K452" s="216"/>
+      <c r="L452" s="216"/>
+      <c r="M452" s="216"/>
+      <c r="N452" s="216"/>
+      <c r="O452" s="216"/>
+    </row>
+    <row r="453" spans="1:15">
+      <c r="I453" s="216" t="s">
+        <v>3031</v>
+      </c>
+      <c r="J453" s="216"/>
+      <c r="K453" s="216"/>
+      <c r="L453" s="216"/>
+      <c r="M453" s="216"/>
+      <c r="N453" s="216"/>
+      <c r="O453" s="216"/>
+    </row>
+    <row r="455" spans="1:15">
+      <c r="D455" s="225"/>
+      <c r="E455" s="225" t="s">
+        <v>3032</v>
+      </c>
+      <c r="I455" s="230" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15">
+      <c r="D456" s="120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15">
+      <c r="C457" s="120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15">
+      <c r="A462" s="120">
+        <v>20</v>
+      </c>
+      <c r="B462" s="120" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="465" spans="3:5">
+      <c r="C465" s="120" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="466" spans="3:5">
+      <c r="D466" s="120" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="467" spans="3:5">
+      <c r="E467" s="120" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="468" spans="3:5">
+      <c r="D468" s="120" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="470" spans="3:5">
+      <c r="D470" s="120" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="471" spans="3:5">
+      <c r="E471" s="120" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="472" spans="3:5">
+      <c r="D472" s="120" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -18836,7 +19766,7 @@
   <dimension ref="A2:T514"/>
   <sheetViews>
     <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19202,7 +20132,7 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -19225,7 +20155,7 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -21404,7 +22334,7 @@
     </row>
     <row r="376" spans="1:20">
       <c r="A376" s="2" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="D376" s="24"/>
       <c r="E376" s="13"/>
@@ -21439,7 +22369,7 @@
     </row>
     <row r="378" spans="1:20">
       <c r="C378" s="3" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="D378" s="24"/>
       <c r="E378" s="13"/>
@@ -21478,10 +22408,10 @@
     </row>
     <row r="390" spans="2:8">
       <c r="B390" s="2" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="391" spans="2:8">
@@ -21490,10 +22420,10 @@
     <row r="392" spans="2:8">
       <c r="B392" s="2"/>
       <c r="D392" s="3" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="H392" s="9" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="394" spans="2:8" ht="15.75" customHeight="1">
@@ -21504,16 +22434,16 @@
     <row r="395" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="396" spans="2:8" ht="15.75" customHeight="1">
       <c r="C396" s="3" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="397" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="398" spans="2:8" ht="15.75" customHeight="1">
       <c r="D398" s="58" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="H398" s="9" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="399" spans="2:8" ht="15.75" customHeight="1">
@@ -25418,20 +26348,20 @@
     </row>
     <row r="471" spans="1:13" s="36" customFormat="1">
       <c r="A471" s="36" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E471" s="36" t="s">
         <v>2834</v>
-      </c>
-      <c r="E471" s="36" t="s">
-        <v>2835</v>
       </c>
     </row>
     <row r="473" spans="1:13">
       <c r="D473" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="475" spans="1:13">
       <c r="D475" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="480" spans="1:13">
@@ -28985,7 +29915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
@@ -44435,7 +45365,7 @@
         <v>1785</v>
       </c>
       <c r="C282" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="D282"/>
       <c r="E282"/>
@@ -44474,13 +45404,13 @@
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284" s="58" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="E284" s="43"/>
       <c r="F284" s="43"/>
       <c r="G284" s="43"/>
       <c r="H284" s="39" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="I284"/>
       <c r="J284"/>
@@ -44514,13 +45444,13 @@
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286" s="58" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="E286" s="43"/>
       <c r="F286" s="43"/>
       <c r="G286" s="43"/>
       <c r="H286" s="215" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="I286"/>
       <c r="J286"/>
@@ -44591,7 +45521,7 @@
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290" s="58" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D290" s="43"/>
       <c r="E290" s="43"/>
@@ -44611,7 +45541,7 @@
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291" s="58" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="D291" s="43"/>
       <c r="E291" s="43"/>
@@ -44631,7 +45561,7 @@
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292" s="58" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="D292" s="43"/>
       <c r="E292" s="43"/>
@@ -44725,7 +45655,7 @@
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297" s="58" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="D297" s="43"/>
       <c r="E297" s="43"/>
@@ -44745,7 +45675,7 @@
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298" s="58" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="D298" s="43"/>
       <c r="E298" s="43"/>
@@ -44821,7 +45751,7 @@
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302" s="58" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D302" s="43"/>
       <c r="E302" s="43"/>
@@ -44841,7 +45771,7 @@
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303" s="58" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D303" s="43"/>
       <c r="E303" s="43"/>
@@ -44917,7 +45847,7 @@
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307" s="58" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D307" s="43"/>
       <c r="E307" s="43"/>
@@ -44937,7 +45867,7 @@
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308" s="58" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D308" s="43"/>
       <c r="E308" s="43"/>
@@ -45764,12 +46694,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K533"/>
+  <dimension ref="A2:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A501" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B498" sqref="B498"/>
+      <selection pane="topRight" activeCell="C515" sqref="C515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48978,7 +49908,7 @@
         <v>2688</v>
       </c>
       <c r="B176" s="203" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="C176" s="204"/>
     </row>
@@ -49078,7 +50008,7 @@
       </c>
       <c r="B186" s="150"/>
       <c r="C186" s="196" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D186" s="150" t="s">
         <v>2691</v>
@@ -49133,7 +50063,7 @@
         <v>2377</v>
       </c>
       <c r="C191" s="196" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -49175,7 +50105,7 @@
       </c>
       <c r="B195" s="150"/>
       <c r="C195" s="196" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D195" s="67">
         <v>12</v>
@@ -49219,7 +50149,7 @@
       </c>
       <c r="B200" s="150"/>
       <c r="C200" s="67" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D200" s="192" t="s">
         <v>2694</v>
@@ -49549,7 +50479,7 @@
       </c>
       <c r="B231" s="150"/>
       <c r="C231" s="67" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D231" s="192" t="s">
         <v>2697</v>
@@ -49674,7 +50604,7 @@
       </c>
       <c r="B245" s="150"/>
       <c r="C245" s="67" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D245" s="192" t="s">
         <v>2295</v>
@@ -49718,7 +50648,7 @@
       </c>
       <c r="B250" s="150"/>
       <c r="C250" s="67" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D250" s="69" t="s">
         <v>2703</v>
@@ -49896,7 +50826,7 @@
         <v>246</v>
       </c>
       <c r="C267" s="196" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D267" s="192" t="s">
         <v>2705</v>
@@ -50026,7 +50956,7 @@
         <v>1362</v>
       </c>
       <c r="C280" s="67" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -50053,10 +50983,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="174" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B284" s="67" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="C284" s="211">
         <v>0.67</v>
@@ -50067,7 +50997,7 @@
         <v>2688</v>
       </c>
       <c r="B287" s="203" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="C287" s="204"/>
     </row>
@@ -50208,7 +51138,7 @@
         <v>202</v>
       </c>
       <c r="E300" s="209" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -50299,7 +51229,7 @@
         <v>246</v>
       </c>
       <c r="E308" s="207" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="J308" s="70"/>
     </row>
@@ -50330,13 +51260,13 @@
         <v>22</v>
       </c>
       <c r="B311" s="67" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C311" s="67" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="E311" s="207" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -50446,7 +51376,7 @@
         <v>2704</v>
       </c>
       <c r="C321" s="67" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -50638,7 +51568,7 @@
         <v>209</v>
       </c>
       <c r="E339" s="207" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -50652,7 +51582,7 @@
         <v>205</v>
       </c>
       <c r="E340" s="207" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -50671,10 +51601,10 @@
         <v>53</v>
       </c>
       <c r="B342" s="67" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="C342" s="196" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -50699,7 +51629,7 @@
         <v>1747</v>
       </c>
       <c r="E344" s="207" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -50713,7 +51643,7 @@
         <v>211</v>
       </c>
       <c r="E345" s="207" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -50735,7 +51665,7 @@
         <v>1362</v>
       </c>
       <c r="C347" s="67" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -50949,16 +51879,16 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="174" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C368" s="67" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D368" s="67" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E368" s="150" t="s">
         <v>2861</v>
-      </c>
-      <c r="C368" s="67" t="s">
-        <v>2859</v>
-      </c>
-      <c r="D368" s="67" t="s">
-        <v>2860</v>
-      </c>
-      <c r="E368" s="150" t="s">
-        <v>2862</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -50966,7 +51896,7 @@
         <v>2688</v>
       </c>
       <c r="B370" s="203" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C370" s="204"/>
     </row>
@@ -51005,7 +51935,7 @@
         <v>206</v>
       </c>
       <c r="D373" s="228" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -51043,7 +51973,7 @@
         <v>212</v>
       </c>
       <c r="D376" s="227" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -51057,7 +51987,7 @@
         <v>206</v>
       </c>
       <c r="D377" s="227" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -51083,7 +52013,7 @@
         <v>202</v>
       </c>
       <c r="D379" s="227" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -51109,16 +52039,16 @@
         <v>212</v>
       </c>
       <c r="D381" s="227" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="14.25" customHeight="1">
       <c r="A382" s="213"/>
       <c r="D382" s="227" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E382" s="209" t="s">
         <v>2923</v>
-      </c>
-      <c r="E382" s="209" t="s">
-        <v>2924</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="14.25" customHeight="1">
@@ -51397,7 +52327,7 @@
         <v>1364</v>
       </c>
       <c r="D406" s="227" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -51480,7 +52410,7 @@
         <v>2599</v>
       </c>
       <c r="D413" s="227" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -51494,7 +52424,7 @@
         <v>625</v>
       </c>
       <c r="D414" s="227" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -51538,10 +52468,10 @@
         <v>45</v>
       </c>
       <c r="B418" s="67" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C418" s="67" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="D418" s="227"/>
     </row>
@@ -51550,10 +52480,10 @@
         <v>46</v>
       </c>
       <c r="B419" s="67" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C419" s="196" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="D419" s="227"/>
     </row>
@@ -51604,7 +52534,7 @@
         <v>246</v>
       </c>
       <c r="D423" s="227" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -51849,7 +52779,7 @@
         <v>71</v>
       </c>
       <c r="B444" s="67" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="C444" s="67" t="s">
         <v>1362</v>
@@ -51930,13 +52860,13 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="174" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B452" s="67" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C452" s="67" t="s">
         <v>2865</v>
-      </c>
-      <c r="C452" s="67" t="s">
-        <v>2866</v>
       </c>
       <c r="D452" s="67" t="s">
         <v>2687</v>
@@ -51944,19 +52874,20 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="57" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="237" t="s">
         <v>2966</v>
       </c>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="238" t="s">
-        <v>2967</v>
-      </c>
-      <c r="B455" s="237" t="s">
+      <c r="B455" s="236" t="s">
         <v>2680</v>
       </c>
-      <c r="C455" s="237" t="s">
+      <c r="C455" s="236" t="s">
         <v>2679</v>
       </c>
+      <c r="D455" s="227"/>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="213">
@@ -51965,6 +52896,10 @@
       <c r="B456" s="67" t="s">
         <v>211</v>
       </c>
+      <c r="C456" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D456" s="227"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="213">
@@ -51973,6 +52908,10 @@
       <c r="B457" s="67" t="s">
         <v>246</v>
       </c>
+      <c r="C457" s="196" t="s">
+        <v>246</v>
+      </c>
+      <c r="D457" s="227"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="213">
@@ -51981,11 +52920,19 @@
       <c r="B458" s="67" t="s">
         <v>205</v>
       </c>
+      <c r="C458" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D458" s="227"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="213">
         <v>4</v>
       </c>
+      <c r="C459" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D459" s="227"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="213">
@@ -51994,6 +52941,10 @@
       <c r="B460" s="67" t="s">
         <v>211</v>
       </c>
+      <c r="C460" s="196" t="s">
+        <v>211</v>
+      </c>
+      <c r="D460" s="227"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="213">
@@ -52002,6 +52953,10 @@
       <c r="B461" s="67" t="s">
         <v>625</v>
       </c>
+      <c r="C461" s="196" t="s">
+        <v>625</v>
+      </c>
+      <c r="D461" s="227"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="213">
@@ -52010,6 +52965,10 @@
       <c r="B462" s="67" t="s">
         <v>205</v>
       </c>
+      <c r="C462" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D462" s="227"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="213">
@@ -52018,6 +52977,12 @@
       <c r="B463" s="67" t="s">
         <v>205</v>
       </c>
+      <c r="C463" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D463" s="227" t="s">
+        <v>2978</v>
+      </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="213">
@@ -52026,134 +52991,204 @@
       <c r="B464" s="67" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="465" spans="1:2">
+      <c r="C464" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D464" s="227"/>
+    </row>
+    <row r="465" spans="1:4">
       <c r="A465" s="213">
         <v>10</v>
       </c>
       <c r="B465" s="67" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="466" spans="1:2">
+      <c r="C465" s="196" t="s">
+        <v>211</v>
+      </c>
+      <c r="D465" s="227"/>
+    </row>
+    <row r="466" spans="1:4">
       <c r="A466" s="213">
         <v>11</v>
       </c>
       <c r="B466" s="67" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="467" spans="1:2">
+      <c r="C466" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D466" s="227" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" s="213">
         <v>12</v>
       </c>
       <c r="B467" s="67" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="468" spans="1:2">
+      <c r="C467" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D467" s="227"/>
+    </row>
+    <row r="468" spans="1:4">
       <c r="A468" s="213">
         <v>13</v>
       </c>
       <c r="B468" s="67" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="469" spans="1:2">
+      <c r="C468" s="196" t="s">
+        <v>204</v>
+      </c>
+      <c r="D468" s="227"/>
+    </row>
+    <row r="469" spans="1:4">
       <c r="A469" s="213">
         <v>14</v>
       </c>
       <c r="B469" s="67" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="470" spans="1:2">
+      <c r="C469" s="196" t="s">
+        <v>205</v>
+      </c>
+      <c r="D469" s="227"/>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" s="213">
         <v>15</v>
       </c>
       <c r="B470" s="67" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="471" spans="1:2">
+      <c r="C470" s="196" t="s">
+        <v>211</v>
+      </c>
+      <c r="D470" s="227"/>
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" s="213">
         <v>16</v>
       </c>
       <c r="B471" s="67" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="472" spans="1:2">
+      <c r="C471" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D471" s="227"/>
+    </row>
+    <row r="472" spans="1:4">
       <c r="A472" s="213">
         <v>17</v>
       </c>
       <c r="B472" s="67" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="473" spans="1:2">
+      <c r="C472" s="67" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D472" s="227"/>
+    </row>
+    <row r="473" spans="1:4">
       <c r="A473" s="213">
         <v>18</v>
       </c>
       <c r="B473" s="67" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="474" spans="1:2">
+      <c r="C473" s="196" t="s">
+        <v>201</v>
+      </c>
+      <c r="D473" s="227"/>
+    </row>
+    <row r="474" spans="1:4">
       <c r="A474" s="213">
         <v>19</v>
       </c>
       <c r="B474" s="67" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="475" spans="1:2">
+      <c r="C474" s="196" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D474" s="227"/>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" s="213">
         <v>20</v>
       </c>
       <c r="B475" s="67" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="476" spans="1:2">
+      <c r="C475" s="196" t="s">
+        <v>206</v>
+      </c>
+      <c r="D475" s="227"/>
+    </row>
+    <row r="476" spans="1:4">
       <c r="A476" s="213">
         <v>21</v>
       </c>
       <c r="B476" s="67" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="477" spans="1:2">
+      <c r="C476" s="196" t="s">
+        <v>246</v>
+      </c>
+      <c r="D476" s="227"/>
+    </row>
+    <row r="477" spans="1:4">
       <c r="A477" s="213">
         <v>22</v>
       </c>
       <c r="B477" s="67" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="478" spans="1:2">
+      <c r="C477" s="196" t="s">
+        <v>211</v>
+      </c>
+      <c r="D477" s="227"/>
+    </row>
+    <row r="478" spans="1:4">
       <c r="A478" s="213">
         <v>23</v>
       </c>
       <c r="B478" s="67" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="479" spans="1:2">
+      <c r="C478" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="D478" s="227"/>
+    </row>
+    <row r="479" spans="1:4">
       <c r="A479" s="213">
         <v>24</v>
       </c>
       <c r="B479" s="67" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="480" spans="1:2">
+      <c r="C479" s="196" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D479" s="227"/>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" s="213">
         <v>25</v>
       </c>
       <c r="B480" s="67" t="s">
         <v>205</v>
       </c>
+      <c r="C480" s="196" t="s">
+        <v>205</v>
+      </c>
+      <c r="D480" s="227"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="213">
@@ -52162,6 +53197,10 @@
       <c r="B481" s="67" t="s">
         <v>205</v>
       </c>
+      <c r="C481" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D481" s="227"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="213">
@@ -52170,6 +53209,10 @@
       <c r="B482" s="67" t="s">
         <v>202</v>
       </c>
+      <c r="C482" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D482" s="227"/>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="213">
@@ -52178,6 +53221,10 @@
       <c r="B483" s="67" t="s">
         <v>205</v>
       </c>
+      <c r="C483" s="196" t="s">
+        <v>205</v>
+      </c>
+      <c r="D483" s="227"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="213">
@@ -52186,16 +53233,23 @@
       <c r="B484" s="67" t="s">
         <v>209</v>
       </c>
+      <c r="C484" s="196" t="s">
+        <v>209</v>
+      </c>
+      <c r="D484" s="227"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="213">
         <v>30</v>
       </c>
       <c r="B485" s="67" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C485" s="196" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D485" s="227" t="s">
         <v>2968</v>
-      </c>
-      <c r="D485" s="192" t="s">
-        <v>2969</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -52205,6 +53259,10 @@
       <c r="B486" s="67" t="s">
         <v>211</v>
       </c>
+      <c r="C486" s="196" t="s">
+        <v>211</v>
+      </c>
+      <c r="D486" s="227"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="213">
@@ -52213,6 +53271,12 @@
       <c r="B487" s="214" t="s">
         <v>206</v>
       </c>
+      <c r="C487" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D487" s="227" t="s">
+        <v>2991</v>
+      </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="213">
@@ -52221,6 +53285,10 @@
       <c r="B488" s="67" t="s">
         <